--- a/data/02_intermediate/cleaned_La_Fève_songs.xlsx
+++ b/data/02_intermediate/cleaned_La_Fève_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Demna, demna Bounce Yeah ERRR Let's go Bounce Nouveau che-ri, ancien mauvais payeur, pas de frayeur, mes G savent que j'suis le meilleur Bounce J'parle avec une voix intérieure, le temps il passe, ancien simp, nouveau player Bounce Si j'arrive, je fais un dawa, j'm'en beurre d'la loi, j'suis un jeune à la peau kawa Bounce Mon frérot, j'savais pas moi, tant de parois, j'compte pas le temps qu'on perd par mois ERRR Bon, t'es parti, j'ai phasé, des souvenirs effacés, bon, c'est du passé Bon, c'est du passé, la bitch elle prend des cachets, c'est gâché, toujours pas cette Rollie, j'suis fâché Bounce Yeah, mental d'assassin, j'aime que la feu-meu qui m'a donné le saint sein le saint sein, le saint sein Trap comme un zinzin, j'ai trop de cur, j'peux tout donner pour un 'zin Bounce Yeah, on l'fait pour ce paper, j'sais que t'as eu peur, j'ai la dope couleur Laker J'ai la dope couleur Laker Faut on s'pète en Jamaica, je drop ça comme Michael, je suis pauvre, oh my god Bounce Ce charisme au mic', c'est pour ça que le p'tit jeune, il veut le featuring ERRR Bientôt, tu vois La Fève en figurine, toi, tu fais le G mais quand ça part, tu t'enfuis du ring Bounce Rap FR, je n'suis pas dans les classements, avec Pizsunny, j'suis en déplacement On pourrait s'en passer mais les gars s'mentent, on pourrait s'en passer mais les gars s'mentent Sortir de ce piège, on veut ça tous les jours ma le-gueu, je pensais t'étais mon frère, à quoi tu joues ma le-gueu ? J'ai arrêté d'croire qu'la chance arrive à l'heure, toi, quand t'as des occasions pourquoi tu fais le peureux ? Bounce J'crois la vie, c'est comme un casse-tête, pas de casquette, tour du monde, j'fais pas de basket Basket, basket Eh, première scène c'est salle pleine, sale, c'est ça l'thème, ma chérie, je sais c'est ça qu't'aimes, less Bounce Une chienne est la vida, un boofpack, on vide ça, des plavons, on vit d'ça Des plavons on vit d'ça Dubaï ou Ibiza ? J'vois tu fais l'jaloux mon garçon, t'es bizarre Bounce You might also like Nouveau che-ri, ancien mauvais payeur, pas de frayeur, mes G savent que j'suis le meilleur Bounce J'parle avec une voix intérieure, le temps il passe, ancien simp, nouveau player Bounce Si j'arrive, je fais un dawa, j'm'en beurre d'la loi, j'suis un jeune à la peau kawa Bounce Mon frérot, j'savais pas moi, tant de parois, j'compte pas le temps qu'on perd par mois ERRR7</t>
+          <t>Demna, demna Bounce Yeah ERRR Let's go Bounce Nouveau che-ri, ancien mauvais payeur, pas de frayeur, mes G savent que j'suis le meilleur Bounce J'parle avec une voix intérieure, le temps il passe, ancien simp, nouveau player Bounce Si j'arrive, je fais un dawa, j'm'en beurre d'la loi, j'suis un jeune à la peau kawa Bounce Mon frérot, j'savais pas moi, tant de parois, j'compte pas le temps qu'on perd par mois ERRR Bon, t'es parti, j'ai phasé, des souvenirs effacés, bon, c'est du passé Bon, c'est du passé, la bitch elle prend des cachets, c'est gâché, toujours pas cette Rollie, j'suis fâché Bounce Yeah, mental d'assassin, j'aime que la feu-meu qui m'a donné le saint sein le saint sein, le saint sein Trap comme un zinzin, j'ai trop de cur, j'peux tout donner pour un 'zin Bounce Yeah, on l'fait pour ce paper, j'sais que t'as eu peur, j'ai la dope couleur Laker J'ai la dope couleur Laker Faut on s'pète en Jamaica, je drop ça comme Michael, je suis pauvre, oh my god Bounce Ce charisme au mic', c'est pour ça que le p'tit jeune, il veut le featuring ERRR Bientôt, tu vois La Fève en figurine, toi, tu fais le G mais quand ça part, tu t'enfuis du ring Bounce Rap FR, je n'suis pas dans les classements, avec Pizsunny, j'suis en déplacement On pourrait s'en passer mais les gars s'mentent, on pourrait s'en passer mais les gars s'mentent Sortir de ce piège, on veut ça tous les jours ma le-gueu, je pensais t'étais mon frère, à quoi tu joues ma le-gueu ? J'ai arrêté d'croire qu'la chance arrive à l'heure, toi, quand t'as des occasions pourquoi tu fais le peureux ? Bounce J'crois la vie, c'est comme un casse-tête, pas de casquette, tour du monde, j'fais pas de basket Basket, basket Eh, première scène c'est salle pleine, sale, c'est ça l'thème, ma chérie, je sais c'est ça qu't'aimes, less Bounce Une chienne est la vida, un boofpack, on vide ça, des plavons, on vit d'ça Des plavons on vit d'ça Dubaï ou Ibiza ? J'vois tu fais l'jaloux mon garçon, t'es bizarre Bounce Nouveau che-ri, ancien mauvais payeur, pas de frayeur, mes G savent que j'suis le meilleur Bounce J'parle avec une voix intérieure, le temps il passe, ancien simp, nouveau player Bounce Si j'arrive, je fais un dawa, j'm'en beurre d'la loi, j'suis un jeune à la peau kawa Bounce Mon frérot, j'savais pas moi, tant de parois, j'compte pas le temps qu'on perd par mois ERRR7</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>J'accumule les pertes, les pertes, j'lui parlais un peu mais le ciel est sévère, ma gueule Il faut que je persévère si je veux racheter la maison à mon père, ma gueule Toi, t'étais mon gars, tu dates, si je sors ma liasse tu baves, j'aurais fait la même Tes sons ils sont trop tuba, mon G, si j'arrive tu pars, tu sais c'est le game, let's go ERRR Tape, 2021, le 7, la Walone LOW So tous les gars qui font les bails dans les studios C'est nous la nouvelle génération, on va l'faire, let's go J'accumule les pertes, les pertes, j'lui parlais un peu mais le ciel est sévère, ma gueule Il faut les pépètes, ma gueule Les anciens me disent C'est quand La Fève il pète, ma gueule ? Le rap c'est une belle saga, j'lui parle mais le ciel s'agace J'suis solo à pas d'heure J'ai le crâne rempli d'taga et tu m'demandes si ça gaze ? Han, laisse Un train de vie malheureux, poto j'ai pas d'euros, personne pour m'adorer M'adorer, pourquoi ce cochon me touche ? J'ai un feu et quatre dorés J'ai cette vision, Laf arrive comme un bison, nous faisons c'que nous disons Errr Eh, souvent un penchant schizo', j'suis jaloux de tout c'qu'ils ont Négro on s'capte t'à l'heure, j'croyais tu parlais no cap t'à l'heure La dalle de mille chacals, envoie le cash, envoie l'Paypal La Fève il dit Let's get it, les deux pieds dans cette 'gatti J'suis dans la chop, ça pull up du Lil Gotit, j'vois tout noir comme cette gothique, yessir La prod elle est DAIGO, on s'connait pas igo Je fais no lie bro, toi, tu joues le caïd bro Est c'que t'as capté ? Là cest le flow à Lady Di, j'veux la maille à P. Diddy La gow est sauvage, elle voudrait ma D-D-D mais j'crois pas trop c'qu'elle dit-dit J'accumule les pertes, les pertes, j'lui parlais un peu mais le ciel est sévère, ma gueule Il faut que je persévère si je veux racheter la maison à mon père, ma gueule Toi, t'étais mon gars, tu dates, si je sors ma liasse tu baves, j'aurais fait la même Tes sons ils sont trop tuba, mon G, si j'arrive tu pars, tu sais c'est le game Un train de vie malheureux, poto j'ai pas d'euros, personne pour m'adorer M'adorer, pourquoi ce cochon me touche ? J'ai un feu et quatre dorés J'ai cette vision, Laf arrive comme un bison, nous faisons c'que nous disons Yes Eh, souvent un penchant schizo', j'suis jaloux de tout c'qu'ils ontYou might also like3</t>
+          <t>J'accumule les pertes, les pertes, j'lui parlais un peu mais le ciel est sévère, ma gueule Il faut que je persévère si je veux racheter la maison à mon père, ma gueule Toi, t'étais mon gars, tu dates, si je sors ma liasse tu baves, j'aurais fait la même Tes sons ils sont trop tuba, mon G, si j'arrive tu pars, tu sais c'est le game, let's go ERRR Tape, 2021, le 7, la Walone LOW So tous les gars qui font les bails dans les studios C'est nous la nouvelle génération, on va l'faire, let's go J'accumule les pertes, les pertes, j'lui parlais un peu mais le ciel est sévère, ma gueule Il faut les pépètes, ma gueule Les anciens me disent C'est quand La Fève il pète, ma gueule ? Le rap c'est une belle saga, j'lui parle mais le ciel s'agace J'suis solo à pas d'heure J'ai le crâne rempli d'taga et tu m'demandes si ça gaze ? Han, laisse Un train de vie malheureux, poto j'ai pas d'euros, personne pour m'adorer M'adorer, pourquoi ce cochon me touche ? J'ai un feu et quatre dorés J'ai cette vision, Laf arrive comme un bison, nous faisons c'que nous disons Errr Eh, souvent un penchant schizo', j'suis jaloux de tout c'qu'ils ont Négro on s'capte t'à l'heure, j'croyais tu parlais no cap t'à l'heure La dalle de mille chacals, envoie le cash, envoie l'Paypal La Fève il dit Let's get it, les deux pieds dans cette 'gatti J'suis dans la chop, ça pull up du Lil Gotit, j'vois tout noir comme cette gothique, yessir La prod elle est DAIGO, on s'connait pas igo Je fais no lie bro, toi, tu joues le caïd bro Est c'que t'as capté ? Là cest le flow à Lady Di, j'veux la maille à P. Diddy La gow est sauvage, elle voudrait ma D-D-D mais j'crois pas trop c'qu'elle dit-dit J'accumule les pertes, les pertes, j'lui parlais un peu mais le ciel est sévère, ma gueule Il faut que je persévère si je veux racheter la maison à mon père, ma gueule Toi, t'étais mon gars, tu dates, si je sors ma liasse tu baves, j'aurais fait la même Tes sons ils sont trop tuba, mon G, si j'arrive tu pars, tu sais c'est le game Un train de vie malheureux, poto j'ai pas d'euros, personne pour m'adorer M'adorer, pourquoi ce cochon me touche ? J'ai un feu et quatre dorés J'ai cette vision, Laf arrive comme un bison, nous faisons c'que nous disons Yes Eh, souvent un penchant schizo', j'suis jaloux de tout c'qu'ils ont3</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Si t'es pas à ma table, c'est que t'es au menu, tester le crack, mais quelle idée saugrenue Bracelet en poils d'éléphant suivi d'Rollie, imprévisible comme un appel inconnu J'suis dans ma bulle comme Denzel Man on Fire, plus j'prends en valeur, plus les schmitts jouent les voyeurs Traversée du désert plus grand qu'Nevada, chaud comme Fifty et The Game en Impala Trop de bitchs et trop de kehs dans mon radar, j'sors du stud' et j'laisse la prod' en cadavre J'finis d'recompter et j'fais sortir madame, la petite 'lingue-bour' comme le matin Jeune négro libre, j'appelle chef que l'épicier, j'fais mon taff et personne m'a initié Pas la tête à chanter YMCA mais des fois j'fête, mon 're-f', j'pète le Hennessy, yeah J'fais pas d'son quand y a pas d'inspi' C'est un marathon, pas un sprint, club des vrais négros longtemps qu'j'suis inscrit Si tu n'viens pas quand c'est charbon Travail, ne viens pas quand ce s'ra la fête J'suis sur deux-trois affaires, Flingo, Kekra, La Fève, n'oublie pas de m'khalass, frère On veut les eu', pas la fame, si j't'appelle pour un plan, c'est sûr y a plus que deux balles à s'faire Glock 18 karaté, vise en haut pour ne pas rater Pew, pew Y a pas si longtemps qu'ça, j'servais des 'ients-cli' à la pelle Pas loin d'l'As du Fallafel, ou de Porte de la Chapelle Force à ceux que l'on enferme, fuck tous ceux qui les enferment, hey You might also like C'est d'la frappe, ingé' son, remets ça Yeah C'est d'la frappe, ingé' son, remets ça, yeah C'est d'la frappe, ingé' son, remets ça La ppe-f' C'est d'la frappe, ingé' son, remets ça C'est d'la frappe, ingé' son, remets ça, dans ma 'fonce-dé', ma life m'envoie des messages En fonction de gens, tu changes de visage, j'kiffe son métissage, j'attrape son tissage Dégoûté par une chienne de vie, j'consomme le médicament du 'de-ble' Swish T'es aveuglé par ton bénéfice pendant que moi, j'pense déjà à le doubler L'argent ne tombe pas du ciel, c'est pas comme la pluie, j'm'applique comme si j'développais une appli' L'instru', j'la froisse, j'la r'prends, j'la r'plie, grosse somme fout l'seum, Bernard Tapie Leur maquereau est de retour, les putes et les fils de pute s'inquiètent Margiela grise couleur Dunkerque Mamadou foncé veut faire de l'oseille comme Julien Clerc Et même sous Cali, j'y vois clair Ce condé veut ça, mais pour lui, je n'aurai que un glaire J'suis né, j'étais prêt pour la guerre Me tends pas la main trop paro', j'suis toujours aux aguets Trop d'bitches, je sais même plus laquelle Grosse motricité comme bécane en cité, génération trop baisée pour s'exciter J'suis d'jà qualifié, j'y vois pas d'nécessité, la street ou l'pe-ra', j'me suis pas encore décidé Tellement de flow, j'fais qu'en rigoler, sont tous pris à la gorge comme violon La crème de la crème comme un riz au lait, ça détaille que des vingts comme vigneron Eh, eh Glock 18 karaté, vise en haut pour ne pas rater Let's go Y a pas si longtemps qu'ça, j'servais des 'ients-cli' à la pelle Pas loin d'l'As du Fallafel, ou de Porte de la Chapelle Force à ceux que l'on enferme, fuck tous ceux qui les enferment, hey C'est d'la frappe, ingé' son, remets ça Yeah C'est d'la frappe, ingé' son, remets ça, yeah C'est d'la frappe, ingé' son, remets ça La ppe-f' C'est d'la frappe, ingé' son, remets ça Walone Vas-y frère1</t>
+          <t>Si t'es pas à ma table, c'est que t'es au menu, tester le crack, mais quelle idée saugrenue Bracelet en poils d'éléphant suivi d'Rollie, imprévisible comme un appel inconnu J'suis dans ma bulle comme Denzel Man on Fire, plus j'prends en valeur, plus les schmitts jouent les voyeurs Traversée du désert plus grand qu'Nevada, chaud comme Fifty et The Game en Impala Trop de bitchs et trop de kehs dans mon radar, j'sors du stud' et j'laisse la prod' en cadavre J'finis d'recompter et j'fais sortir madame, la petite 'lingue-bour' comme le matin Jeune négro libre, j'appelle chef que l'épicier, j'fais mon taff et personne m'a initié Pas la tête à chanter YMCA mais des fois j'fête, mon 're-f', j'pète le Hennessy, yeah J'fais pas d'son quand y a pas d'inspi' C'est un marathon, pas un sprint, club des vrais négros longtemps qu'j'suis inscrit Si tu n'viens pas quand c'est charbon Travail, ne viens pas quand ce s'ra la fête J'suis sur deux-trois affaires, Flingo, Kekra, La Fève, n'oublie pas de m'khalass, frère On veut les eu', pas la fame, si j't'appelle pour un plan, c'est sûr y a plus que deux balles à s'faire Glock 18 karaté, vise en haut pour ne pas rater Pew, pew Y a pas si longtemps qu'ça, j'servais des 'ients-cli' à la pelle Pas loin d'l'As du Fallafel, ou de Porte de la Chapelle Force à ceux que l'on enferme, fuck tous ceux qui les enferment, hey C'est d'la frappe, ingé' son, remets ça Yeah C'est d'la frappe, ingé' son, remets ça, yeah C'est d'la frappe, ingé' son, remets ça La ppe-f' C'est d'la frappe, ingé' son, remets ça C'est d'la frappe, ingé' son, remets ça, dans ma 'fonce-dé', ma life m'envoie des messages En fonction de gens, tu changes de visage, j'kiffe son métissage, j'attrape son tissage Dégoûté par une chienne de vie, j'consomme le médicament du 'de-ble' Swish T'es aveuglé par ton bénéfice pendant que moi, j'pense déjà à le doubler L'argent ne tombe pas du ciel, c'est pas comme la pluie, j'm'applique comme si j'développais une appli' L'instru', j'la froisse, j'la r'prends, j'la r'plie, grosse somme fout l'seum, Bernard Tapie Leur maquereau est de retour, les putes et les fils de pute s'inquiètent Margiela grise couleur Dunkerque Mamadou foncé veut faire de l'oseille comme Julien Clerc Et même sous Cali, j'y vois clair Ce condé veut ça, mais pour lui, je n'aurai que un glaire J'suis né, j'étais prêt pour la guerre Me tends pas la main trop paro', j'suis toujours aux aguets Trop d'bitches, je sais même plus laquelle Grosse motricité comme bécane en cité, génération trop baisée pour s'exciter J'suis d'jà qualifié, j'y vois pas d'nécessité, la street ou l'pe-ra', j'me suis pas encore décidé Tellement de flow, j'fais qu'en rigoler, sont tous pris à la gorge comme violon La crème de la crème comme un riz au lait, ça détaille que des vingts comme vigneron Eh, eh Glock 18 karaté, vise en haut pour ne pas rater Let's go Y a pas si longtemps qu'ça, j'servais des 'ients-cli' à la pelle Pas loin d'l'As du Fallafel, ou de Porte de la Chapelle Force à ceux que l'on enferme, fuck tous ceux qui les enferment, hey C'est d'la frappe, ingé' son, remets ça Yeah C'est d'la frappe, ingé' son, remets ça, yeah C'est d'la frappe, ingé' son, remets ça La ppe-f' C'est d'la frappe, ingé' son, remets ça Walone Vas-y frère1</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Un p'tit billet violet pour m'canaliser Cherche à tuer l'temps en bande organisée En chien donc, e'r'day je dis Errr, man En chien donc, e'r'day je dis Errr, man ERRR Tape, 2021, yes Ça m'a mis un coup, ma le-gueu, quand j'ai compris quici j'étais que d'passage Le ce-vi m'enlise everyday, si on t'a proposé, frérot, goûte pas ça Là, j'ai des phases mais on m'a dit ça allait p't'être partir en grandissant C'est bizarre en y repensant, j'sais pas où La Fève il sera dans dix ans L'autre il veut mon bien, je n'y crois pas, donc maintenant on fait les choses en lowkey On a fait les choses quand il fallait les faire, donc pourquoi les anges nous quittent ? T'as kiffé La Fève parc'que j'suis pas comme eux, parc'que j'fais c'qui me parle le plus On avait des rêves, on s'voyait tout là-haut, mais maintenant on se parle plus J'espère qu'cette année j'suis plus dans la galère, j'voulais juste m'évader, marcher sur les galets On m'appelle La Fève c'est parce que j'suis le seul, mais toi t'as cru qu'c'était celle de la galette Ouais, ça m'a mis un coup, ma le-gueu, quand j'ai compris qu'ici j'étais que d'passage Le ce-vi m'enlise everyday, si on t'a proposé, frérot, goûte pas ça Dans lstudio, j'ai pas de recette, ma mère prie pour moi, je le sais Le plan est risky, on essaye, la motivation c'est l'oseille La motivation c'est ce gouap, lâcher le poids, j'ai sorti ça t'en dis quoi ? J'ai un peu l'mal de la ville, ma le-gueu, j'crois qu'j'vais partir lever le quad J'fais partie d'ceux qui avaient peur de rêver, mais cest tuba, y a pas d'limite On a vu des gens ils avaient v'là l'aura, mais toi tu crois qu'tu m'intimides Une OCB slim, une garette-ci, un G et j'suis posé jusqu'à pas d'heure On n'est plus des kids, on n'est plus trop en chien, j'sais pas pourquoi on s'khabat Errr La prod' elle est belle c'est un beau dialogue, j'ai vu ça a changé quand on s'est dit allô J'ai cru c'était la nuit on s'est quitté à l'aube, j'avais misé sur ça, mais c'est tombé à l'eau Ouais, ça m'a mis un coup, ma le-gueu, quand j'ai compris qu'ici j'étais que d'passage Le ce-vi m'enlise everyday, si on t'a proposé, frérot, goûte pas ça L.A.F.E.V le futur, tu parles que d'oseille en fais-tu ? Avant j'délaissais les études, oui, de Cali' est la laitue Faudrait me faire une réput', marquer les buts, faire de la maille on débute Problèmes de cur, on dit Zut, pas dans le sexe, tes mauvais amis c'est des putes Le ce-vi m'enlise everyday, si on t'a proposé, frérot, goûte pas a-ç On nage dans les problèmes everyday, man, y faudrait qu'on nous débarrasse Tu donnais du soutien quand j'avais rien dautre, donc t'inquiète on s'attrape ma race Les mots font du krav-maga, là j'suis avec Dabla qui tape le pastaga Let's go, let's go You might also like Un p'tit billet violet pour m'canaliser Cherche à tuer l'temps en bande organisée En chien donc, e'r'day je dis Errr, man En chien donc, e'r'day je dis Errr, man Un p'tit billet violet pour m'canaliser Cherche à tuer l'temps en bande organisée En chien donc, e'r'day je dis Errr, man En chien donc, e'r'day je dis Errr, man ERRR Tape, 2021, yes3</t>
+          <t>Un p'tit billet violet pour m'canaliser Cherche à tuer l'temps en bande organisée En chien donc, e'r'day je dis Errr, man En chien donc, e'r'day je dis Errr, man ERRR Tape, 2021, yes Ça m'a mis un coup, ma le-gueu, quand j'ai compris quici j'étais que d'passage Le ce-vi m'enlise everyday, si on t'a proposé, frérot, goûte pas ça Là, j'ai des phases mais on m'a dit ça allait p't'être partir en grandissant C'est bizarre en y repensant, j'sais pas où La Fève il sera dans dix ans L'autre il veut mon bien, je n'y crois pas, donc maintenant on fait les choses en lowkey On a fait les choses quand il fallait les faire, donc pourquoi les anges nous quittent ? T'as kiffé La Fève parc'que j'suis pas comme eux, parc'que j'fais c'qui me parle le plus On avait des rêves, on s'voyait tout là-haut, mais maintenant on se parle plus J'espère qu'cette année j'suis plus dans la galère, j'voulais juste m'évader, marcher sur les galets On m'appelle La Fève c'est parce que j'suis le seul, mais toi t'as cru qu'c'était celle de la galette Ouais, ça m'a mis un coup, ma le-gueu, quand j'ai compris qu'ici j'étais que d'passage Le ce-vi m'enlise everyday, si on t'a proposé, frérot, goûte pas ça Dans lstudio, j'ai pas de recette, ma mère prie pour moi, je le sais Le plan est risky, on essaye, la motivation c'est l'oseille La motivation c'est ce gouap, lâcher le poids, j'ai sorti ça t'en dis quoi ? J'ai un peu l'mal de la ville, ma le-gueu, j'crois qu'j'vais partir lever le quad J'fais partie d'ceux qui avaient peur de rêver, mais cest tuba, y a pas d'limite On a vu des gens ils avaient v'là l'aura, mais toi tu crois qu'tu m'intimides Une OCB slim, une garette-ci, un G et j'suis posé jusqu'à pas d'heure On n'est plus des kids, on n'est plus trop en chien, j'sais pas pourquoi on s'khabat Errr La prod' elle est belle c'est un beau dialogue, j'ai vu ça a changé quand on s'est dit allô J'ai cru c'était la nuit on s'est quitté à l'aube, j'avais misé sur ça, mais c'est tombé à l'eau Ouais, ça m'a mis un coup, ma le-gueu, quand j'ai compris qu'ici j'étais que d'passage Le ce-vi m'enlise everyday, si on t'a proposé, frérot, goûte pas ça L.A.F.E.V le futur, tu parles que d'oseille en fais-tu ? Avant j'délaissais les études, oui, de Cali' est la laitue Faudrait me faire une réput', marquer les buts, faire de la maille on débute Problèmes de cur, on dit Zut, pas dans le sexe, tes mauvais amis c'est des putes Le ce-vi m'enlise everyday, si on t'a proposé, frérot, goûte pas a-ç On nage dans les problèmes everyday, man, y faudrait qu'on nous débarrasse Tu donnais du soutien quand j'avais rien dautre, donc t'inquiète on s'attrape ma race Les mots font du krav-maga, là j'suis avec Dabla qui tape le pastaga Let's go, let's go Un p'tit billet violet pour m'canaliser Cherche à tuer l'temps en bande organisée En chien donc, e'r'day je dis Errr, man En chien donc, e'r'day je dis Errr, man Un p'tit billet violet pour m'canaliser Cherche à tuer l'temps en bande organisée En chien donc, e'r'day je dis Errr, man En chien donc, e'r'day je dis Errr, man ERRR Tape, 2021, yes3</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Samedi j'me mets dans tous mes états D'la beuh et d'la tise j'suis en extase Elle m'dit qu'elle veut passer sur Paname Dans Airbnb y a pas débat À chaque fois sur la prod je tue la mélo Oh my god sur ma dick y a du Labello Elle est folle j'la rejoins dans son tel-ho Elle me dit Nueve passe me voir et fais le boulot La Fève, J9, La Fève, J9 Samedi j'me mets dans tous mes états La Fève, J9, La Fève, J9 Elle me dit Nueve passe me voir et fais le boulot La Fève, J9, La Fève, J9 Samedi j'me mets dans tous mes états La Fève, J9, La Fève, J9 Elle me dit Nueve passe me voir et fais le boulot Let's go Affamé d'puis ado, vrai couplet pur comme la gelato Let's go Ma vision elle est dope, j'peux voir tout d'suite c'est qui la taupe Let's go Combien de plavons sur l'coté ils savent tous qu'on est la next gen J'compte pas trop tous les talles que ça coute mon négro j'ai ça dans les gènes Odda la prod elle est nice Couplet obscur comme la night J'veux Margiela comme le Nine J'veux Margiela comme le Nine G j'ai les crocs tu l'vois à la canine J'crois pas trop cette gadji même si elle est câline Je n'ai pas trop ton temps donc pourquoi tu me call Le pe-ra petit j'ai compris la mécanique Yes sir You might also like Yeah, ma chérie veut savoir comment je vis G j'ai le fuego, très loin je vise, G j'ai le fuego, très loin je vise Let's go Chérie veut savoir comment je vis G j'ai le fuego, très loin je vise, G j'ai le fuego, très loin je vise Samedi j'me mets dans tous mes états D'la beuh et d'la tise j'suis en extase Elle m'dit qu'elle veut passer sur Paname Dans Airbnb y a pas débat À chaque fois sur la prod je tue la mélo Oh my god sur ma dick y a du Labello Elle est folle j'la rejoins dans son tel-ho Elle me dit Nueve passe me voir et fais le boulot La Fève, J9, La Fève, J9 Samedi j'me mets dans tous mes états La Fève, J9, La Fève, J9 Elle me dit Nueve passe me voir et fais le boulot La Fève, J9, La Fève, J9 Samedi j'me mets dans tous mes états La Fève, J9, La Fève, J9 Elle me dit Nueve passe me voir et fais le boulot J'veux une big chopper, ta bitch sucker Elle me dit Nueve je sais qu't'as le biff, ok Et moi j'traine dans les coins sombres de Paris Elle m'appelle seulement bourrée dans la rari, baby girl c'est une tarée J'veux une big chopper, ta bitch sucker Elle me dit Nueve je sais qu't'as le biff, ok Et moi j'traine dans les coins sombres de Paris Elle m'appelle seulement bourrée dans la rari, baby girl c'est une tarée Elle m'dit qu'elle sent qu'y'a un feeling, et ça depuis l'beginning Quand elle remplit son legging Elle adore mes gimmick Elle voudrait qu'on parte au Brésil J'regarde ses bas résilles mais j'ai l'argent dans ma tête J'veux du Dior et du Chanel pour mes gamins Et si j'dors c'est pour mieux penser à demain J'me sens fort un peu comme des rayons gammas J'veux de l'or, sur mon poignet faut des carats A chaque fois j'repasse la voir et c'est la même Elle m'dit bébé reste un peu plus que la veille Mais tu sais qu'à ce jeu là c'est moi le best Elle est perdue, veut que rentrer dans ma tête Elle m'dit bébé reste un peu plus que la veille Mais tu sais qu'a ce jeu là c'est moi le best Elle est perdue, veut que rentrer dans ma tête Yeah Chérie veut savoir comment je vis G j'ai le fuego, très loin je vise, G j'ai le fuego, très loin je vise Let's go Let's go Chérie veut savoir comment je vis G j'ai le fuego, très loin je vise, G j'ai le fuego, très loin je vise Samedi j'me mets dans tous mes états D'la beuh et d'la tise j'suis en extase Elle m'dit qu'elle veut passer sur Paname Dans Airbnb y a pas débat À chaque fois sur la prod je tue la mélo Oh my god sur ma dick y a du Labello Elle est folle j'la rejoins dans son tel-ho Elle me dit Nueve passe me voir et fais le boulot La Fève, J9, La Fève, J9 Samedi j'me mets dans tous mes états La Fève, J9, La Fève, J9 Elle me dit Nueve passe me voir et fais le boulot La Fève, J9, La Fève, J9 Samedi j'me mets dans tous mes états La Fève, J9, La Fève, J9 Elle me dit Nueve passe me voir et fais le boulot</t>
+          <t>Samedi j'me mets dans tous mes états D'la beuh et d'la tise j'suis en extase Elle m'dit qu'elle veut passer sur Paname Dans Airbnb y a pas débat À chaque fois sur la prod je tue la mélo Oh my god sur ma dick y a du Labello Elle est folle j'la rejoins dans son tel-ho Elle me dit Nueve passe me voir et fais le boulot La Fève, J9, La Fève, J9 Samedi j'me mets dans tous mes états La Fève, J9, La Fève, J9 Elle me dit Nueve passe me voir et fais le boulot La Fève, J9, La Fève, J9 Samedi j'me mets dans tous mes états La Fève, J9, La Fève, J9 Elle me dit Nueve passe me voir et fais le boulot Let's go Affamé d'puis ado, vrai couplet pur comme la gelato Let's go Ma vision elle est dope, j'peux voir tout d'suite c'est qui la taupe Let's go Combien de plavons sur l'coté ils savent tous qu'on est la next gen J'compte pas trop tous les talles que ça coute mon négro j'ai ça dans les gènes Odda la prod elle est nice Couplet obscur comme la night J'veux Margiela comme le Nine J'veux Margiela comme le Nine G j'ai les crocs tu l'vois à la canine J'crois pas trop cette gadji même si elle est câline Je n'ai pas trop ton temps donc pourquoi tu me call Le pe-ra petit j'ai compris la mécanique Yes sir Yeah, ma chérie veut savoir comment je vis G j'ai le fuego, très loin je vise, G j'ai le fuego, très loin je vise Let's go Chérie veut savoir comment je vis G j'ai le fuego, très loin je vise, G j'ai le fuego, très loin je vise Samedi j'me mets dans tous mes états D'la beuh et d'la tise j'suis en extase Elle m'dit qu'elle veut passer sur Paname Dans Airbnb y a pas débat À chaque fois sur la prod je tue la mélo Oh my god sur ma dick y a du Labello Elle est folle j'la rejoins dans son tel-ho Elle me dit Nueve passe me voir et fais le boulot La Fève, J9, La Fève, J9 Samedi j'me mets dans tous mes états La Fève, J9, La Fève, J9 Elle me dit Nueve passe me voir et fais le boulot La Fève, J9, La Fève, J9 Samedi j'me mets dans tous mes états La Fève, J9, La Fève, J9 Elle me dit Nueve passe me voir et fais le boulot J'veux une big chopper, ta bitch sucker Elle me dit Nueve je sais qu't'as le biff, ok Et moi j'traine dans les coins sombres de Paris Elle m'appelle seulement bourrée dans la rari, baby girl c'est une tarée J'veux une big chopper, ta bitch sucker Elle me dit Nueve je sais qu't'as le biff, ok Et moi j'traine dans les coins sombres de Paris Elle m'appelle seulement bourrée dans la rari, baby girl c'est une tarée Elle m'dit qu'elle sent qu'y'a un feeling, et ça depuis l'beginning Quand elle remplit son legging Elle adore mes gimmick Elle voudrait qu'on parte au Brésil J'regarde ses bas résilles mais j'ai l'argent dans ma tête J'veux du Dior et du Chanel pour mes gamins Et si j'dors c'est pour mieux penser à demain J'me sens fort un peu comme des rayons gammas J'veux de l'or, sur mon poignet faut des carats A chaque fois j'repasse la voir et c'est la même Elle m'dit bébé reste un peu plus que la veille Mais tu sais qu'à ce jeu là c'est moi le best Elle est perdue, veut que rentrer dans ma tête Elle m'dit bébé reste un peu plus que la veille Mais tu sais qu'a ce jeu là c'est moi le best Elle est perdue, veut que rentrer dans ma tête Yeah Chérie veut savoir comment je vis G j'ai le fuego, très loin je vise, G j'ai le fuego, très loin je vise Let's go Let's go Chérie veut savoir comment je vis G j'ai le fuego, très loin je vise, G j'ai le fuego, très loin je vise Samedi j'me mets dans tous mes états D'la beuh et d'la tise j'suis en extase Elle m'dit qu'elle veut passer sur Paname Dans Airbnb y a pas débat À chaque fois sur la prod je tue la mélo Oh my god sur ma dick y a du Labello Elle est folle j'la rejoins dans son tel-ho Elle me dit Nueve passe me voir et fais le boulot La Fève, J9, La Fève, J9 Samedi j'me mets dans tous mes états La Fève, J9, La Fève, J9 Elle me dit Nueve passe me voir et fais le boulot La Fève, J9, La Fève, J9 Samedi j'me mets dans tous mes états La Fève, J9, La Fève, J9 Elle me dit Nueve passe me voir et fais le boulot</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Le 7, La Walone, Dundy, Khali, S-Tee, La Fève, le français c'est bien faut passer à autre chose maintenant... Eh, le talent je l'ai dans l'sang Plus Paris Sud, on est pas trop dans l'centre Mélodie ma chérie on est dans ça Tu veux un nouveau flow, ma le-gueu je te donne ça Écoute La Fève il a voila les rimes Je suis un ne-jeu je vois les auras Fluide à l'écrit, à l'aise à l'oral Yes sir, belle récompense qu'on aura let's go Toi fais pas la bise t'es un p'tit reptile Si y'a un truc qui me tilt je le dis rec-di MC qui divertit, ma le-gueu, faut réfléchir sur le vice, la vertu vertu Han, sur le vice, la vertu, le ciel m'a avertit, mais je l'ai quand même fait, shit J'suis vener G, j'crois en l'univers, en l'énergie, let's go Hey, tranquille, j'débarque dans un 4x4 bleu En pointe dans le 4-4-2 Ma vie c'est comme arnaque J'ai des problèmes mais j'ai pas d'baveux Avec La Fève dans le bail gâteux Avec Walone dans la trap à beuh J'suis à Rotter, j'suis à Me-da gros j'ai pas l'time Ma vie c'est scénar de u-c On m'tend la grappe comme César le duc Bad bitchies, vas-y move ton u-c Avec Sticko dans le fond de la rue Quil-tran Dun' veut les pierres d'Afrique et les thunes d'Asie et la moule d'Egypte Jeune worldwide c'est notre fantaisie, et je capte ta 'zine et je casse sa vie, yeah Et je casse sa vie, et je casse sa vie You might also like J'espère qu'tu stream Kolaf de ouf mec, shit c'est nous l'espoir, yeah J' de ouf debout devant le danger nous on reste calme Il m'faut une S Line, Tec 9, Khali sans l'L c'est un vrai gars mec J'suis un ninety nine check ça, pas souvent dans l'mood pour une zumba yeah Trop souvent j'ai un coup d'barre, qu'est ce t'as, comprends ça dans l'EP drop tout-par Bientôt, let's go, toi tes projets ils sont tuba, fais pas belheni Check, derrière la ligne aucun obstacle S-Tee pull-up aka crystal J'vise VVS, fuck un cristal Pour du Gucci, elle fait sa crise la Fuck un rival, le combat c'est contre oim J'ai pas besoin de ricard Moi j'suis kemet mais t'es pas rital Mes p'tits se partagent mon héritage chacun aura une part équitable T'as déjà regardé une étoile toi ? Elle shine, pour oim c'est la même gars Qu'est ce qui va se passer si tu paye ap ? Bien sûr envoie-moi les ous-s sur Paypal J'suis gentil mais c'est pas la première fois, c'est simple, poto on fait comme a-ç La maison elle fait pas crédit Donc barre toi de la crétin Sur mon scoot à Créteil C'est la paix qu'on décrétait Avant qu'on voit noir, avant qu'on veuille des belles sommes tous les mois Espion dans les bois, la concurrence mon négro je les bois Toi même tu sais mon re-fré j'pourrai kicker pendant trente ans J'te regarde mal parce que je sais qu'dans ta tête tu m'as traité La prod elle est maltraitée, j'pourrai pas dire que j'ai pop trop tôt Quand tu fais les choses il faut les assumer c'est la vie poto J'ai pas ton temps mon fréro fais vite Retiens, le futur c'est La Fève C'est La Fève, cours après les billets comme le fauve Fève, cours après les billets comme le fauve Passer le fer faut qu'tu la fermes Ma bitch ne manque pas de fair play Avec ma team on prend tes affaires 2K twenty Dundy faut mettre du respect Noire est l'équipe, blanche est la paire Ils perdent les sous, croupier la pèse Gros j'suis pull-up et j'suis à l'aise Blanc est l'habit, noire est la guerre C'est la haine qui nourris la guerre Et mes Nike qui polluent la terre On fait d'la merde on l'assume après Tu fais du rap tu l'assumes à peine Et j'te vois tu parles sur ma tête J'fais l'biff, l'argent m'appelle J'suis occupé, tu m'parles encore Wesh, à ton âge ma belle J'fais du rap c'est un délire gros, j'fais du rap c'est un délire J'fais mes sons j'ai pas besoin d'ton avis On est vrai depuis l'époque des Konami Aucun ami, que des re-fré, pas d'fanatiques J'ai la strat', j'suis patient, c'est ça la diff' Faire des sons sans s'arrêter c'est maladif On a des ambitions des projets pour la miff Tema les conditions malgré ça j'fais des hits Fais pas l'polisson on t'connait dans la ville Me mets pas dans des bails bourbiers, à vingt ans les grands c'trop nos p'tits Pe-ra c'est trop facile pour moi, j'ai une putain d'vision te-ma l'optique Guette le bolide mec, évolue en rapide sinon puto va snitch T'as tellement peps toute la terre que ta che-bou devient élastique J'te... le cul comme le joint d'hier J'me sens bien à ton enterrement j'ai besoin d'y être Elle me regarde avec gros yeux comme un alien Elle s'fait défoncer de toute part comme une aryenne Toujours à la compta du bureau comme Marilène Toujours avec maillot blanc so madrilène H24 dans la mierda avec batterie faible Vos rappeurs en col en V et en marinière J'fume taga sur taga, j'ai besoin d'y être Tu bougeras pas très loin avec ton squad inerte On traîne dans HLM et zone pavillonnaire, et on bougera pas d'ici tant qu'on sera pas millionnaire Amène la frappe de Kobe Nous on trust comme Kobe On t'met la frappe de cocké Et la balle de Cobain Ton gobelet tourne en rond sans la lean la codéine J'refais ton paysage, j'viens cracher sur l'aquarelle Poto moi mon équipe c'est comme la guesta Frérot sur mes grillz il faut du cristal Jeune La Fève qui recherche que les kichtas Depuis l'époque des Nike et des G-Star Gros on fait pas des sons pour plaire Va là-bas zin tu m'as pompé l'air Sur le terrain fait des bastos Sur le terrain frappe comme Pelé On est à propos des sommes à dix chiffres Dans la cabine fait jamais de déchets Faut prendre du recul faut changer d'échelle On économise on s'pète au Seychelles Bientôt on leave la tess on dit hourra Pour les bons choix qu'on a fait tous ensemble Y'a des bons mais c'est mauvais dans l'ensemble, merde, j'ai trop marché j'ai les orteilles en sang Mmh, comme la guesta Sur mes grillz il faut du cristal Recherche que les kichtas Depuis l'époque des Nike et des G-Star S-Tee c'est oim poto c'est real Ils racontent des ragots bebek devant l'magot Ça sert à rien de jouer le macro Si devant le leur-dea tu mendies pour un chrom' J'ai le destin des petits reuf dans ma paume Tu crois qu'j'vais perdre mon temps à faire le rigolo ? C'est moi le capitaine guette le chapeau Celui qui veut m'défier bah j'lui tire mon chapeau Les petits te manquent de respect c'est ton Quarante ge-pi j'compte pas casser mon dos T'es perdu d'avance, tu comptes sur quelqu'un d'autre J'suis tout l'temps white comme Barry J'vais capter ta go Rapper j'suis bon qu'à ça, trap house c'est la casa ma gueule j'ai le mort J'ai le verbe et le mot Walone, Sept, c'est le mob La bicrave ça paye pas je l'sais, le taffeur il demande des garo Pour La Fève augmente le tarot Tu sais LAF il est carré, magic ce charisme Bentley noire c'est le carrosse Faut qu'j'arrête de smoke j'ai des carences La Fève à trop d'avance, j'te l'dis on est là va, j'suis bien meilleur qu'avant Ok, tu me parles mais pas de cap gros con Dans l'coffre j'ai la pelle et les pinces croco T'es bête ou quoi ? J'ai ce flow saccadé, c'est la même chaque année, faim comme un chacal Smoke ça couleur chocolat Plan argent bien sur que je suis chaud connard L'avarice, la paresse La vie met des baffes, la mort fait des caresses, la Benz elle est garée Bosse comme un taré j'ai dit On arrive on court pas mec J'suis pépère dans Bourg-Palette Tema le boug pas net Wesh dit moi ils sont où La Fève J'ai du feu caché sous l'manteau Ton rappeur moi j'suis son mentor Mode avion j'suis en mode fantôme J'sors du van tema la custom J'me fais un délice, smash comme au tennis J'suis dans le déni donc tu dois obéir J'plane dans tout l'pays, tema la vraie vie Bro c'est un délire, graille comme Obelix On arrive on court pas mec J'renifle l'odeur de la SACEM Ça sent l'pognon dans la poche d'ton Bape Ça sent la beuh dans l'pochon, ouais Si y'a des fake on les vire Regarde le bag il est vide Jamais d'ma vie j'suis en vie Toujours tout fait pour ma team Toujours on vesqui l'ennui Du coup on connait la nuit Du coup on a fait du son pour parler à la lune et voir c'qu'elle en dit Toujours la mama qui prie, yeah, huh Les yeux qui brillent, yeah, huh T'as pas compris, yeah, huh J'ai pas appris, huh, yeah J't'ai pas causé, huh, yeah T'as pas raconté, huh, yeah J't'ai pas raconté, huh, yeah J't'ai pas raconté, rah, rah Mais quand j'bosse, yeah Prends pas de tof' mec Prends pas ton time, yeah, mmh Faut qu'on la choque, yeah Arrête de snober, nan, j'suis pas dummy Moi j'suis pas débile, hein, guette comme on va lober, let's go let's go, yeah Faut qu'tu vois mon cochi en 4K Tu dis qu'c'est carré, tes clips sont pixelisés Fuck se victimiser, j'dois tout atomisé Les étoiles tombent j'sais même pas pourquoi On baroude, on cogite dans le brouillard Si j'men sors on dira qu'j'suis débrouillard Tout est re-noi donc j'ai plus peur du noir Ma potion la concu et j'compte la boire Maman m'a dit de pas prendre ce virage M'éloigner... eh La lune elle fait sa difficile comme d'hab C'est dans l'ombre que j'apprends sur mon âme J'veux ma part j'veux manger tout le quatre quarts Retrouve moi au city avec quatre gars J'suis pas dans la trap j'suis dans la T'as montré ton truc personne te cala Wesh, c'est pas des OG c'est des plots C'est pas du Gucci c'est du faux J'me dois de rayer mes rivaux Wesh, hey, fini la scène je baisse le rideau Ils veulent que je baisse le niveau, avec une taf ça bosse comme les Migos let's go Elle est pas si caline elle ment très mal J'ai des cicatrices que j'peux montrer Oim en couplet égale technique cinq étoile Allez remballe à gauche, ça tape à la poudre Si j'joue c'est les flammes, venu par la foudre Jeune Dun est quil-tran, j'en ai rien à foutre Yes, ok Ah Yeeshy hein, Yeeshy... Let's go La Fève bientôt président Beverly Hills on veut être résident J'm'appelle Louis comme les rois On est dans la jungle donc je connais bien ces rouages Espion comme les Cinq de Cambridge On est là pour ce papier est-ce que t'as compris Putain il m'faut une Kali Uchis Louis V, Prada, Gucci Avant mes quarante bougies La rime est facile tu l'as capté Fève c'est le capitaine, bientôt dans le Top Ten Tout là haut je prends de l'altitude Je peux voir si t'es un faux rien qu'à l'attitude On est là on crève tous un jour Sur le boulevard la brise me tape la joue Sur le terrain j'suis en léger, trop focus pour échouer, si y'a faute on laisse jouer, let's go La Fève bientôt président Mmh mmh on veut être résident let's go La Fève bientôt président Avenue Foch nous on veut être résident Nous c'est pas avec nos bouches qu'on ouvre des portes On sait déjà qu'c'est pas juste à quel point c'est faux Tous les talents viennent du bled donc fuck les porcs Demain j'vais mourir, oublie mes défauts C'est des loss', ils font les fauves, c'est des faux Ouvre les portes du charter pour rejoindre les nôtres T'as pas besoin d'le vivre pour faire partie d'la cause Papa venait du bled, la police sur ses côtes Yeah, let's go, yeah, let's go Toi j'ai vu tu captes pas t'es dans les vapes Lou' V S, yaddy yaddy yah, eh J'irai chercher ma maman en Cadillac J'prends ma photo avec poto dans le van J'ai le sourire mais ça a pas été des vannes J'suis pas jury j'arrive comme un yeah yeah J'suis passionné mais j'fais pas ça pour le fun Choisir la bonne prod jusqu'au lever du sun En vrai c'est pas si facile mais l'résultat fascine J'suis entêté c'est derrière nos rêves qu'on run J'ai du cardio la ligne d'arrivée m'accueille Finir en Bentley c'est mieux que d'finir en TT Faux sniper possible que tu puisse enquêter J'ai pas attendu d'être majeur pour encaisser J'rentre chez l'épicier j'ressors avec plantain J'suis du genre taquin mais j'partage si t'as faim On varie, j'suis en mocassin Elle a des frissons quand j'attrape le bassin Millions sur l'vecteur, mignon sur lecteur, des millions d'électeurs Jeune west side wesh, dans ma ville c'est l'del-bor, je dévore que des prods Jeune west Dun', millions c'est l'vecteur, mignon sur lecteur, des millions d'électeurs, hey Wesh c'est l'del-bor, l'inspi gros elle déborde Ils sont pas régulier, sur ma vie, ont envie d'caner Je sais pas faire de hits, tout c'que j'fais c'est rapper Guette mes SVV, frais comme Eazy Lee J'rappe comme Weezy bitch, j'chante comme Drizzy wesh La différence est énorme je suis un OG Et j'dégaine pas pour rien bitch, j'tire que sur mon ogive Big Dundy c'est comment, gros c'est la course au cash J'aime pas vos soirée entre blanches gros c'est la course au clash Si j'mets un star-co, j'met une paire de chez Starcow La Rolex à vingt-cinq je fais deux fois mieux que Sarko J'récupère la mallette elle fait des bonds en Suisse Je repère la gazelle elle fait des bonds ensuite Moi c'est 7 OG mais ce soir tu peux m'appeler Ben D'ailleurs ça change rien tu t'en souviendras à peine Wesh c'est comment ? L'ambiance elle est lourde gros j'veux pas ton avance j'veux la musique et c'est tout J'vais le faire, l'enfer on est dans l'noyau eh Ça lève le verre pour les OG restés loyaux eh Jeune ravel qui rêvait j'avais pas l'âge Pour penser palace Pourtant c'est pas lassant Mon frère j'vois qu't'es stressé quand tu m'dis d'penser à demain Hit à la demande La Fève c'est paro, j'suis pas con, jamais nous blaguons, faudrait qu'ils prennent du galon Avant j'touchais l'ballon, j'mettais l'but avec le talon Yes, ok, maintenant c'est bizarre, deter comme un bison, très loin nous visons Ma chérie j'suis dans l'bize, Lucifer veut des bisous Jeune qui rêve de soleil même si l'ciel est grisou Poto j'connais mes classiques, tu sais qu'j'ai pas l'flow basique Tu bégayais devant le micro nous on t'fait ça facile ...ça fascine ...j'suis venu... gngngngn j'suis affamé ça s'voit let's go Yo, ces négro sont des blagues j'me sens sur Gulli Tu fais c'que quand tu play au monopoly J'fais du bien en Afrique et à Tripoli J'suis en route j'arrive comme un putain d'colis Les regards sur moi et tous mes acolytes Furtif, John Cena, you can't see me Devant chez toi avec J'lâche que des perfect, j'lâche que des green So Green Lantern elle veut m'passer l'anneau Mais j'suis sur mes appuis, solide comme Ramos J'me sens comme Bob débordé par mes flows J'me sens comme John qui traine tous ses fardeaux On rappait dehors on kickait la Bose Elle vient en DM elle a kiffé la pose Tu crois vraiment qu'on fait ça pour la cause car go fast j'pull up à fond dans la gova VVS indian Dun' flex J'regarde pas l'prix d'la Rolex Je la veux je l'achète c'est simple Jeune fume la beuh d'Espagne J'ai du drip je témoigne moi même Face aux bleus moi j'ai trop d'problèmes Sur la côte la gov' est rodave Ca m'étonne même plus quand les keuf m'arrêtent Té-ma les canines, les crocs acérés Le poto parle mal, le poto a ses règles Té-ma les canines, les grillz à ses frais La gadji m'calcule que pour les intérêts Sale petit con, dans l'arène j'fais TB J'te laisse tranquille donc m'appelle pas bébé Les étoiles qui dansent, mes chaines qui se brisent Vice du diable, la légende je vise Je suis doux mais le sale m'apaise Ok, je me pète le devoir m'appelle S'te plait m'en veux pas ma belle J'te parle pas t'es un bandeur de gadji À propos des belles sommes à plus de quatre chiffres So Station fois quatre Poto j'aime bien la prod, elle est catchy J'suis qu'un homme j'suis matérialiste T'aimes trop LAF tu l'idéalise Ils parlent pas d'nous les journalistes Sur la monnaie je me focalise Gros faut être solide dans l'Brabus, on s'connaissait mais on s'parle plus Faut pas juger la vie d'autrui, toi t'as chouffé de loin on t'a vu Eh, ok, m'en veux pas ma belle, je me pète le devoir m'appelle Khali c'est bizarre comme il taffe H24 dans sa chambre il fait des hits Mais pourquoi tu regarde comme a-ç Jamais pour l'image toujours dans la 'zic Il a toujours fait chaud dans l'asile Les gens entendent ça fait réveiller la ville Et du coup ça peps, ça peps, ça peps, mais jamais j'oublierai tes chichis, yeah Papa a vu la misère que c'était au bled Le cercle il est petit c'est pas open J'parle pas beaucoup j'ai tout caché dans ma tête J'parle pas beaucoup j'ai tout caché dans mes textes Y'a le futur qui a fuit dans une Opel Y'a ta sis' qui a fuit dans un hôtel On est des combattants on t'attend dans l'arène Crois pas m'connaitre j'suis pas ton sang de la veine Crois pas m'connaitre j'suis pas ton sang de la veine Crois pas m'connaitre j'suis pas ton sang de la veine Wesh, ok, le devoir m'appelle Paris l'aprem baby, on s'captera à l'hotel Avenue Foch, que des biatch qui louchent Tout est moche, te-ma la Le pe-ra ça appauvri... j'voulais dire euh... Yes sir C'est comment, c'est l'moment là S-Tee ? On s'envoit des back comme a-ç ? Vas-y, vas-y Tu prends ou j'prends ? Tu prends ou j'prends ? Tu prends ou j'la prends ? Vas-y, hey Vas-y, vas-y, tu m'as convaincu Jeune S-Tee sur la prod, j'ai pas b'soin d'prot' J'suis l'plus chaud négro tu vois qu'j'suis ton prof Han, là c'est chaud, j'fais ça que pour les frérots S-Tee quand il parle négro, faut l'regarder de haut Hey, regarde de haut, pull-up à Vil', pull-up pas trop J'viens d'tirer une taffe, donc j'ai la gorge qui pull-up l'impro J'sais faire l'impro, ouais je le vois tous les blocs ? Plus tard j'veux tous les pendentifs qui sont Sept Qui sont Sept ? Qui sont Sept mais qui sont ces shneks ? Guette la dé mais mon gars tu fais peur on dirait Shrek La j'y vais, faut pas m'retarder La si j'continue d'kicker comme un attardé, shit là D il faut pas m'lâcher Pull-up à sept, j'les voit c'est des serpents gros c'est des snakes Pull-up à sept, j'les vois c'est des serpents gros c'est des snakes Ils ont tous de la vantardise, on a la technique que t'as a-p J'suis l'meilleur sur la prod, j'ai pas b'soin d'Antares Hey, j'ai pas b'soin d'Antares J'ai fait le taff dans ta res', j'ai fait le taff et j'capte ta La prod elle est maléfique Avec S-Tee, il arrive en r'tard, wesh on l'appelle Esquive La prod elle est maléfique So La Fève pour cette gimmick, So La Fève quand j'suis C'qui l'p'tit con qu'a dit qu'les derniers s'ront les premiers ? On fait cette shit tous les jours mon reuf j'ai rien à prouver Gros j'suis éprouvé Je n'fais que chercher mais j'ai rien trouvé J'veux pas finir la gorge trouée mon reuf, quand j'y pense j'ai la gorge nouée Je suis Né j'étais doué, t'as parlé sur nous mais t'es qui toi Poto moi j'veux pas trop m'plaindre, je suis bien j'ai à manger et à un toit La Fève c'est particulier, j'ai les crocs depuis écolier L'objectif il est régulier je veux juste beaucoup de diamants sur le collier Ok, yes, ok, yes, ok Fuck un classement y'a d'ja un grand écart Tout est carré tu connaissais pas l'mot rap Tous vos projets franchement c'est adorable en plus en vrai c'est abordable mais j'le lance pas sur Spotify Fuck être second, la couronne m'attends ap, ap J'mets des crochets, j'mets des feintes de frappe, frappe La prod est trop ice, je me bat dans le froid man, tu as peur je le vois moi, ni chat noir ni chaman, hey, hey J'ai des placements létaux, j'en place une pour flashback j'en place une pour le Me déplace 'vec la white model, 'place 'vec la low life, le et le Sept C'est pas magique Faut défoncer ces portes là T'es pas un OG wesh Tu dénonçais tes potes toi, wesh bizarre, tu dénonçais tes potes toi J'veux pas salir mon plumage j'ai plus l'âge, faut prendre soin d'ses godasses c'est comme aç Finir à la tête des classements, si tu veux mes phases prends, c'est tentant, copie même les placements Shoutout à toujours dans cette low Si t'es dans l'enclos lève la tête il fait beau La vie basse, et remplie d'obstacles Reste lumineux ne sois pas opaque Ceux qui prient dans la savane j'suis le puma Accroupi aguerri j'attends juste l'occas' Elle veut que je parle de oim mais j'suis pas locace On vit à l'audace c'est la vida loca Louis, Louis J'suis né j'avais d'ja d'l'ambition Chez moi c'est bísó na bísó Mais jeune espion dans les buissons Louis, Louis Comme le plus grand roi de France Tu chouf alors que j'te veux du bien Les gens c'est des chiens quand j'y pense La Fève, plus grand jamais défait J'me sens pas très bien dans ta fête J'ai mal dans l'cur J'parle aux gens dans ma tête Et ça faut qu'tu l'comprennes ma chérie J'fonce dans l'mur Depuis qu'j'ai l'âge de courir Depuis qu'j'sais qu'La Fève va mourir Au fond d'un manoir Les 'zin c'est la villa ou rien Pour mes loups pour tous mes vauriens Faire des sons d'plouc zin, j'connais pas cette shit J'suis ... mais la poisse me chine Gros faire des passes j'men fiche, sur l'terrain la brise me gifle, let's go Pour mes potos les bitch c'est une question de fesses pas une question de faciès De-vi est l'assiète, aujourd'hui focus comme je l'étais pas hier Il faut les paillettes pour mamie RDV aux Galeries Lafayette Ici il caille, Khali tu die, maintenant ils vont tailler Yeah, j'suis et déter' en temps d'crise Yeah, viens pas nous faire croire que t'es pas un p'tit ici J'suis pas un pépé on m'voit pas en Zanotti ici J'ai pas trop ton time, j'viens pas trop te lire un livre, mec J'ai fait des 'zik deep, j'suis pas un chic type dick bien profond attends le dix titres sale bitch ivre Y'a v'la la policia dans la jungle, yeah J'vois t'es pas trop à l'aise sous ta jeune gueule, yeah Let's go, pull up dans la tess let's go Let's go man, j'arrive sur la prod je la traumat' Let's go man, j'arrive sur la prod et puis j'la traumat' J'suis un trauma, j'pull up dans l'seizième j'suis dans le tro-mé J'suis un trauma, j'aime pas ta carrière toi tu vas t'arreter yeah Merde, merde, merde H24 dans la baraque ça trapp La mélo' elle m'prend dans les tripes H24 dans la baraque ça trapp Ok Tu le penses quand on dit on s'attrape H24 dans la baraque ça trappe La mélo' elle m'prend dans le trip Rassemble les pièces jaunes pour faire dix eu' La nuit j'me confesse au Dieu Petit on m'disais la musique c'est magique je m'imaginais ça en mieux Tu sais qui je représente Sur ma voix faut mettre v'la les preset J'avais pas la te-tê qui plaisait Le son c'est d'la patate, t'as porté l'il t'as cru qu'on était pas capable Si je te parle je retire ma cape J'me demande pourquoi le ciel il m'accable J'te prends même en acap' H24 dans la baraque ça trapp H24 dans la baraque ça trapp Tout ça c'est bizarre, tu sais c'qu'on aime ? Va prendre ta critique et baiser ta mère Agis comme fuyard mais pas devant nous Petit j'étais gros et gardien de foot T'inquiète j'ai capté qu'tu cachais des doutes La vie qu'j'ai horreur qu'on m'prenne pour un fou Ma sur est voilée et moi j'fais des sons Haram musique aidera à faire des sous Bien sûr qu't'es bien moins mon kho sans ton masque, yeah Mélange pas famille et taf, han Ça doit puer le seum dans ta dar', hm J'vais cracher le feu sur les bases, yeah Là-bas ça suckait des bananas Ton gars sous ourlets et bandanas Premier reçoit que des carapaces J'suis broke, autour aucun rapace J'suis présent pour fermer des bouches en c'moment on m'a fermé des portes J'lui dis parle mieux avec ta bouche mais ce débile n'a pas fait d'effort En mission on connait comment ça fonctionne tu vas rien nous apprendre Fiston à raison papa t'inquiète pas j'mettrais pas ça en cendres La prod c'est La prod c'est un rallye Faut le faire S-Tee, La Fève et Khali Merde c'est trop facile Ecrire des textes à quoi bon J'suis dans la trap house Confonds pas avec la trap maison Viens pas t'asseoir à ma table Viens pas t'asseoir à ma table Viens pas t'asseoir à ma table Viens pas t'asseoir à ma table Viens pas t'asseoir à ma table Jeune qui rêve d'amour J'en avais j'ai jeté à la mer Souvent je me dis c'est la merde C'est la merde Rien ne s'ra jamais parfait C'est d'la merde Kolaf à fond dans la caisse Kolaf à fond dans la caisse Kolaf c'est chaud comme la lave Kolaf c'est chaud comme la lave La concurrence on la lave La concurrence on la lave Kolaf c'est chaud comme la lave Kolaf c'est chaud comme la lave La concurrence on la lave La concurrence on la lave La concurrence on la lave On la me-fu comme le loud pack qu'on fume quand Parle pas de tro-mé t'es sah J'dépense quelques pesetas Viens pas m'capter quand les G sont dans l'appart et Ouais gros c'est die mec Ouais gros c'est die mec Les yeux s'referment tout seuls J'ai les yeux rouges pourtant j'fume pas d'cali T'connais Khali, n'pense qu'à gagner, n'a pas d'reufs d'ici J'suis dans un del' sombre Souvent dispo si le tel sonne Demande à La Fève faut du respect sur nos personnes Ligidilit c'est mon slang mec, traite pas d'singe mec, on sait c'qu'on fait avec nos del' mec, tu donne crédit à des fake mec Y'a des labels qui ont khalass des violeurs pendant qu'nos valeurs restent vraies Être le meilleur de ma ville c'est pas si dur J'vais vous fouetter comme le daron et sa ceinture, yeah Baby mama aimerait fuck dans la 'ture, mais j'suis fort dans les sons donc à force elle sature J'suis sur BDX en ville j'suis plutôt solo J'suis sur PLM avec un H et cqui reste de mes poto Wassup puto Mets moi un vent maintenant, dans cinq ans t'auras ... Parle pas trop de bitch, parle pas trop de mif Ou sinon t'es mort et moi de mon continent Deux mille ou trois mille billets pour mon Sept Avec nous ça tire, avec toi je sais qu'c'est un bon bilan J'suis dans l'écriture mais j'suis pas Molière J'suis dans toutes les bouches, j'suis pas une molaire mais tu kiff même-quand J'suis dans l'écriture mais j'suis pas Baudelaire J'ai des benjamins, j'dépense mes sesterces, j'vois pas passer l'temps J'suis dans la gova ça va vite tellement J'ai les yeux rouges le shit m'excite tellement Hey, avec La Fève avec La Fève J'suis dans la gova ça va vite tellement J'ai les yeux rouges le shit m'excite tellement Ma tête sur billet d'banque Yo, mon nom me rappelle Que j'attire la lumière Mais j'garderai ma part de vice c'est ça la nature humaine Poto rumine, fais travailler ta boite J'enchaîne les session de stud', j'ai même pas ramené à boire Je sens mon flow qui s'accroît Mon peuple souffre ici on gratte que des allocs J'ai trop d'douleur sous mes cloques Et un jour ça va éclore Les mêmes tantines qui radotent sur la dote Le prix t'restera sur la glotte Se nourrir d'amour et d'alloco Ça crée un homme rempli d'goût qui aime la vie comme un locaux et qui ne joue pas au loto mais qui s'lève tôt pour le gros lot J'veux pas finir comme prolo avec souillure sur le polo et voir cette vie en slow-mo j'connais déjà deux trois clodos qui s'nourrissent de carré d'choco et qui s'lavent même plus à l'eau chaude J'suis béni je n'ai pas d'sang sur les mains J'suis béni je n'ai pas d'sang sur les mains J'suis béni je n'ai pas d'sang sur les mains Yes J'suis béni je n'ai pas d'sang sur les mains J'suis dans la salle du temps et je descends pour les miens Je n'suis pas encore très La Fève mais je le deviens Jeune espion devin qui veut son verre de vin J'suis ti-gen à la base mais la vie fait des coups bas LAF Machiavelli en haut je fais des houba Dis moi avec qui tu traine j'te dirai si t'es brav' La Fève veut tellement d'billets si j'les sort tu baves Poto j'viens d'un endroit où les murs ils t'entendent pas LAF Machiavelli fonce-dé vesqui la tate-pa Poto je n'parle pas à part si ça vaut cher C'est bonchar Mais poto je n'ai pas d'sang sur les mains C'est pour ça que j'peux m'pavaner devant l'premier à l'aise Faire des passement d'jambes des roulettes et des passes dé La Fève il est bouillant même pendant le mois d'décembre Si j'ai d'la puissance j'change de veuch j'suis comme Broly Poto viens m'voir j'ai un Mauser comme brolic Toujours avec mes dogs au volant d'un gros bolide Ca fait 400 piges parait qu'l'esclavage c'est aboli Mais y'a des nègres de maison Ici les soucis changent mais c'est les mêmes saisons C'est comme le vélo poto et je garde le filon, La Fève il trouve sa vie longue, j'ai la vingtaine environ, S-Tee yes sir Il ment pour quelques dollars, vend son âme pour une vie d'taulard S'avance vers moi, une accolade, c'est un escroc donc gros molard Dépendre des autres c'est être enchainé Devant ma mère ma fierté j'l'ai rengainé J'prends sur moi gros j'ai pas lâché Tu pensais être libre jusqu'au jour où tu t'le prends dans l'dos J'différencie l'mal du pauvre, vêtements sales ou vêtements pre-pro Veste taillé, sourire mesquin, guette ça s'voit qu'il en carotte plus d'un Il veut m'la faire passer comme médecin mais reste loin gros c'est simple J'veux m'faire seul jusqu'à mon linceul C'est les actes qui définissent l'homme avant qu'il finisse Dans l'cercueil J'aime le rap j'suis animiste et j'brasse de l'air avec mes bras J'débroussaille le chemin pour que mon fils marche dans mes pas De loin on m'prend pour un fêlé grave Des freestyle a cappella, tard le soir sous une cathédrale J'entre en transe sur cette rythmique ancestrale Celle qui met le hustler sur un piédestal Low, low, low, low J'fais ce grunt j'suis comme un padre Dans le verre j'ai que du captain Je rappe bien est-c'que t'as capté, Grunt 43 c'est pour Kolaf et on l'a fait1</t>
+          <t>Le 7, La Walone, Dundy, Khali, S-Tee, La Fève, le français c'est bien faut passer à autre chose maintenant... Eh, le talent je l'ai dans l'sang Plus Paris Sud, on est pas trop dans l'centre Mélodie ma chérie on est dans ça Tu veux un nouveau flow, ma le-gueu je te donne ça Écoute La Fève il a voila les rimes Je suis un ne-jeu je vois les auras Fluide à l'écrit, à l'aise à l'oral Yes sir, belle récompense qu'on aura let's go Toi fais pas la bise t'es un p'tit reptile Si y'a un truc qui me tilt je le dis rec-di MC qui divertit, ma le-gueu, faut réfléchir sur le vice, la vertu vertu Han, sur le vice, la vertu, le ciel m'a avertit, mais je l'ai quand même fait, shit J'suis vener G, j'crois en l'univers, en l'énergie, let's go Hey, tranquille, j'débarque dans un 4x4 bleu En pointe dans le 4-4-2 Ma vie c'est comme arnaque J'ai des problèmes mais j'ai pas d'baveux Avec La Fève dans le bail gâteux Avec Walone dans la trap à beuh J'suis à Rotter, j'suis à Me-da gros j'ai pas l'time Ma vie c'est scénar de u-c On m'tend la grappe comme César le duc Bad bitchies, vas-y move ton u-c Avec Sticko dans le fond de la rue Quil-tran Dun' veut les pierres d'Afrique et les thunes d'Asie et la moule d'Egypte Jeune worldwide c'est notre fantaisie, et je capte ta 'zine et je casse sa vie, yeah Et je casse sa vie, et je casse sa vie J'espère qu'tu stream Kolaf de ouf mec, shit c'est nous l'espoir, yeah J' de ouf debout devant le danger nous on reste calme Il m'faut une S Line, Tec 9, Khali sans l'L c'est un vrai gars mec J'suis un ninety nine check ça, pas souvent dans l'mood pour une zumba yeah Trop souvent j'ai un coup d'barre, qu'est ce t'as, comprends ça dans l'EP drop tout-par Bientôt, let's go, toi tes projets ils sont tuba, fais pas belheni Check, derrière la ligne aucun obstacle S-Tee pull-up aka crystal J'vise VVS, fuck un cristal Pour du Gucci, elle fait sa crise la Fuck un rival, le combat c'est contre oim J'ai pas besoin de ricard Moi j'suis kemet mais t'es pas rital Mes p'tits se partagent mon héritage chacun aura une part équitable T'as déjà regardé une étoile toi ? Elle shine, pour oim c'est la même gars Qu'est ce qui va se passer si tu paye ap ? Bien sûr envoie-moi les ous-s sur Paypal J'suis gentil mais c'est pas la première fois, c'est simple, poto on fait comme a-ç La maison elle fait pas crédit Donc barre toi de la crétin Sur mon scoot à Créteil C'est la paix qu'on décrétait Avant qu'on voit noir, avant qu'on veuille des belles sommes tous les mois Espion dans les bois, la concurrence mon négro je les bois Toi même tu sais mon re-fré j'pourrai kicker pendant trente ans J'te regarde mal parce que je sais qu'dans ta tête tu m'as traité La prod elle est maltraitée, j'pourrai pas dire que j'ai pop trop tôt Quand tu fais les choses il faut les assumer c'est la vie poto J'ai pas ton temps mon fréro fais vite Retiens, le futur c'est La Fève C'est La Fève, cours après les billets comme le fauve Fève, cours après les billets comme le fauve Passer le fer faut qu'tu la fermes Ma bitch ne manque pas de fair play Avec ma team on prend tes affaires 2K twenty Dundy faut mettre du respect Noire est l'équipe, blanche est la paire Ils perdent les sous, croupier la pèse Gros j'suis pull-up et j'suis à l'aise Blanc est l'habit, noire est la guerre C'est la haine qui nourris la guerre Et mes Nike qui polluent la terre On fait d'la merde on l'assume après Tu fais du rap tu l'assumes à peine Et j'te vois tu parles sur ma tête J'fais l'biff, l'argent m'appelle J'suis occupé, tu m'parles encore Wesh, à ton âge ma belle J'fais du rap c'est un délire gros, j'fais du rap c'est un délire J'fais mes sons j'ai pas besoin d'ton avis On est vrai depuis l'époque des Konami Aucun ami, que des re-fré, pas d'fanatiques J'ai la strat', j'suis patient, c'est ça la diff' Faire des sons sans s'arrêter c'est maladif On a des ambitions des projets pour la miff Tema les conditions malgré ça j'fais des hits Fais pas l'polisson on t'connait dans la ville Me mets pas dans des bails bourbiers, à vingt ans les grands c'trop nos p'tits Pe-ra c'est trop facile pour moi, j'ai une putain d'vision te-ma l'optique Guette le bolide mec, évolue en rapide sinon puto va snitch T'as tellement peps toute la terre que ta che-bou devient élastique J'te... le cul comme le joint d'hier J'me sens bien à ton enterrement j'ai besoin d'y être Elle me regarde avec gros yeux comme un alien Elle s'fait défoncer de toute part comme une aryenne Toujours à la compta du bureau comme Marilène Toujours avec maillot blanc so madrilène H24 dans la mierda avec batterie faible Vos rappeurs en col en V et en marinière J'fume taga sur taga, j'ai besoin d'y être Tu bougeras pas très loin avec ton squad inerte On traîne dans HLM et zone pavillonnaire, et on bougera pas d'ici tant qu'on sera pas millionnaire Amène la frappe de Kobe Nous on trust comme Kobe On t'met la frappe de cocké Et la balle de Cobain Ton gobelet tourne en rond sans la lean la codéine J'refais ton paysage, j'viens cracher sur l'aquarelle Poto moi mon équipe c'est comme la guesta Frérot sur mes grillz il faut du cristal Jeune La Fève qui recherche que les kichtas Depuis l'époque des Nike et des G-Star Gros on fait pas des sons pour plaire Va là-bas zin tu m'as pompé l'air Sur le terrain fait des bastos Sur le terrain frappe comme Pelé On est à propos des sommes à dix chiffres Dans la cabine fait jamais de déchets Faut prendre du recul faut changer d'échelle On économise on s'pète au Seychelles Bientôt on leave la tess on dit hourra Pour les bons choix qu'on a fait tous ensemble Y'a des bons mais c'est mauvais dans l'ensemble, merde, j'ai trop marché j'ai les orteilles en sang Mmh, comme la guesta Sur mes grillz il faut du cristal Recherche que les kichtas Depuis l'époque des Nike et des G-Star S-Tee c'est oim poto c'est real Ils racontent des ragots bebek devant l'magot Ça sert à rien de jouer le macro Si devant le leur-dea tu mendies pour un chrom' J'ai le destin des petits reuf dans ma paume Tu crois qu'j'vais perdre mon temps à faire le rigolo ? C'est moi le capitaine guette le chapeau Celui qui veut m'défier bah j'lui tire mon chapeau Les petits te manquent de respect c'est ton Quarante ge-pi j'compte pas casser mon dos T'es perdu d'avance, tu comptes sur quelqu'un d'autre J'suis tout l'temps white comme Barry J'vais capter ta go Rapper j'suis bon qu'à ça, trap house c'est la casa ma gueule j'ai le mort J'ai le verbe et le mot Walone, Sept, c'est le mob La bicrave ça paye pas je l'sais, le taffeur il demande des garo Pour La Fève augmente le tarot Tu sais LAF il est carré, magic ce charisme Bentley noire c'est le carrosse Faut qu'j'arrête de smoke j'ai des carences La Fève à trop d'avance, j'te l'dis on est là va, j'suis bien meilleur qu'avant Ok, tu me parles mais pas de cap gros con Dans l'coffre j'ai la pelle et les pinces croco T'es bête ou quoi ? J'ai ce flow saccadé, c'est la même chaque année, faim comme un chacal Smoke ça couleur chocolat Plan argent bien sur que je suis chaud connard L'avarice, la paresse La vie met des baffes, la mort fait des caresses, la Benz elle est garée Bosse comme un taré j'ai dit On arrive on court pas mec J'suis pépère dans Bourg-Palette Tema le boug pas net Wesh dit moi ils sont où La Fève J'ai du feu caché sous l'manteau Ton rappeur moi j'suis son mentor Mode avion j'suis en mode fantôme J'sors du van tema la custom J'me fais un délice, smash comme au tennis J'suis dans le déni donc tu dois obéir J'plane dans tout l'pays, tema la vraie vie Bro c'est un délire, graille comme Obelix On arrive on court pas mec J'renifle l'odeur de la SACEM Ça sent l'pognon dans la poche d'ton Bape Ça sent la beuh dans l'pochon, ouais Si y'a des fake on les vire Regarde le bag il est vide Jamais d'ma vie j'suis en vie Toujours tout fait pour ma team Toujours on vesqui l'ennui Du coup on connait la nuit Du coup on a fait du son pour parler à la lune et voir c'qu'elle en dit Toujours la mama qui prie, yeah, huh Les yeux qui brillent, yeah, huh T'as pas compris, yeah, huh J'ai pas appris, huh, yeah J't'ai pas causé, huh, yeah T'as pas raconté, huh, yeah J't'ai pas raconté, huh, yeah J't'ai pas raconté, rah, rah Mais quand j'bosse, yeah Prends pas de tof' mec Prends pas ton time, yeah, mmh Faut qu'on la choque, yeah Arrête de snober, nan, j'suis pas dummy Moi j'suis pas débile, hein, guette comme on va lober, let's go let's go, yeah Faut qu'tu vois mon cochi en 4K Tu dis qu'c'est carré, tes clips sont pixelisés Fuck se victimiser, j'dois tout atomisé Les étoiles tombent j'sais même pas pourquoi On baroude, on cogite dans le brouillard Si j'men sors on dira qu'j'suis débrouillard Tout est re-noi donc j'ai plus peur du noir Ma potion la concu et j'compte la boire Maman m'a dit de pas prendre ce virage M'éloigner... eh La lune elle fait sa difficile comme d'hab C'est dans l'ombre que j'apprends sur mon âme J'veux ma part j'veux manger tout le quatre quarts Retrouve moi au city avec quatre gars J'suis pas dans la trap j'suis dans la T'as montré ton truc personne te cala Wesh, c'est pas des OG c'est des plots C'est pas du Gucci c'est du faux J'me dois de rayer mes rivaux Wesh, hey, fini la scène je baisse le rideau Ils veulent que je baisse le niveau, avec une taf ça bosse comme les Migos let's go Elle est pas si caline elle ment très mal J'ai des cicatrices que j'peux montrer Oim en couplet égale technique cinq étoile Allez remballe à gauche, ça tape à la poudre Si j'joue c'est les flammes, venu par la foudre Jeune Dun est quil-tran, j'en ai rien à foutre Yes, ok Ah Yeeshy hein, Yeeshy... Let's go La Fève bientôt président Beverly Hills on veut être résident J'm'appelle Louis comme les rois On est dans la jungle donc je connais bien ces rouages Espion comme les Cinq de Cambridge On est là pour ce papier est-ce que t'as compris Putain il m'faut une Kali Uchis Louis V, Prada, Gucci Avant mes quarante bougies La rime est facile tu l'as capté Fève c'est le capitaine, bientôt dans le Top Ten Tout là haut je prends de l'altitude Je peux voir si t'es un faux rien qu'à l'attitude On est là on crève tous un jour Sur le boulevard la brise me tape la joue Sur le terrain j'suis en léger, trop focus pour échouer, si y'a faute on laisse jouer, let's go La Fève bientôt président Mmh mmh on veut être résident let's go La Fève bientôt président Avenue Foch nous on veut être résident Nous c'est pas avec nos bouches qu'on ouvre des portes On sait déjà qu'c'est pas juste à quel point c'est faux Tous les talents viennent du bled donc fuck les porcs Demain j'vais mourir, oublie mes défauts C'est des loss', ils font les fauves, c'est des faux Ouvre les portes du charter pour rejoindre les nôtres T'as pas besoin d'le vivre pour faire partie d'la cause Papa venait du bled, la police sur ses côtes Yeah, let's go, yeah, let's go Toi j'ai vu tu captes pas t'es dans les vapes Lou' V S, yaddy yaddy yah, eh J'irai chercher ma maman en Cadillac J'prends ma photo avec poto dans le van J'ai le sourire mais ça a pas été des vannes J'suis pas jury j'arrive comme un yeah yeah J'suis passionné mais j'fais pas ça pour le fun Choisir la bonne prod jusqu'au lever du sun En vrai c'est pas si facile mais l'résultat fascine J'suis entêté c'est derrière nos rêves qu'on run J'ai du cardio la ligne d'arrivée m'accueille Finir en Bentley c'est mieux que d'finir en TT Faux sniper possible que tu puisse enquêter J'ai pas attendu d'être majeur pour encaisser J'rentre chez l'épicier j'ressors avec plantain J'suis du genre taquin mais j'partage si t'as faim On varie, j'suis en mocassin Elle a des frissons quand j'attrape le bassin Millions sur l'vecteur, mignon sur lecteur, des millions d'électeurs Jeune west side wesh, dans ma ville c'est l'del-bor, je dévore que des prods Jeune west Dun', millions c'est l'vecteur, mignon sur lecteur, des millions d'électeurs, hey Wesh c'est l'del-bor, l'inspi gros elle déborde Ils sont pas régulier, sur ma vie, ont envie d'caner Je sais pas faire de hits, tout c'que j'fais c'est rapper Guette mes SVV, frais comme Eazy Lee J'rappe comme Weezy bitch, j'chante comme Drizzy wesh La différence est énorme je suis un OG Et j'dégaine pas pour rien bitch, j'tire que sur mon ogive Big Dundy c'est comment, gros c'est la course au cash J'aime pas vos soirée entre blanches gros c'est la course au clash Si j'mets un star-co, j'met une paire de chez Starcow La Rolex à vingt-cinq je fais deux fois mieux que Sarko J'récupère la mallette elle fait des bonds en Suisse Je repère la gazelle elle fait des bonds ensuite Moi c'est 7 OG mais ce soir tu peux m'appeler Ben D'ailleurs ça change rien tu t'en souviendras à peine Wesh c'est comment ? L'ambiance elle est lourde gros j'veux pas ton avance j'veux la musique et c'est tout J'vais le faire, l'enfer on est dans l'noyau eh Ça lève le verre pour les OG restés loyaux eh Jeune ravel qui rêvait j'avais pas l'âge Pour penser palace Pourtant c'est pas lassant Mon frère j'vois qu't'es stressé quand tu m'dis d'penser à demain Hit à la demande La Fève c'est paro, j'suis pas con, jamais nous blaguons, faudrait qu'ils prennent du galon Avant j'touchais l'ballon, j'mettais l'but avec le talon Yes, ok, maintenant c'est bizarre, deter comme un bison, très loin nous visons Ma chérie j'suis dans l'bize, Lucifer veut des bisous Jeune qui rêve de soleil même si l'ciel est grisou Poto j'connais mes classiques, tu sais qu'j'ai pas l'flow basique Tu bégayais devant le micro nous on t'fait ça facile ...ça fascine ...j'suis venu... gngngngn j'suis affamé ça s'voit let's go Yo, ces négro sont des blagues j'me sens sur Gulli Tu fais c'que quand tu play au monopoly J'fais du bien en Afrique et à Tripoli J'suis en route j'arrive comme un putain d'colis Les regards sur moi et tous mes acolytes Furtif, John Cena, you can't see me Devant chez toi avec J'lâche que des perfect, j'lâche que des green So Green Lantern elle veut m'passer l'anneau Mais j'suis sur mes appuis, solide comme Ramos J'me sens comme Bob débordé par mes flows J'me sens comme John qui traine tous ses fardeaux On rappait dehors on kickait la Bose Elle vient en DM elle a kiffé la pose Tu crois vraiment qu'on fait ça pour la cause car go fast j'pull up à fond dans la gova VVS indian Dun' flex J'regarde pas l'prix d'la Rolex Je la veux je l'achète c'est simple Jeune fume la beuh d'Espagne J'ai du drip je témoigne moi même Face aux bleus moi j'ai trop d'problèmes Sur la côte la gov' est rodave Ca m'étonne même plus quand les keuf m'arrêtent Té-ma les canines, les crocs acérés Le poto parle mal, le poto a ses règles Té-ma les canines, les grillz à ses frais La gadji m'calcule que pour les intérêts Sale petit con, dans l'arène j'fais TB J'te laisse tranquille donc m'appelle pas bébé Les étoiles qui dansent, mes chaines qui se brisent Vice du diable, la légende je vise Je suis doux mais le sale m'apaise Ok, je me pète le devoir m'appelle S'te plait m'en veux pas ma belle J'te parle pas t'es un bandeur de gadji À propos des belles sommes à plus de quatre chiffres So Station fois quatre Poto j'aime bien la prod, elle est catchy J'suis qu'un homme j'suis matérialiste T'aimes trop LAF tu l'idéalise Ils parlent pas d'nous les journalistes Sur la monnaie je me focalise Gros faut être solide dans l'Brabus, on s'connaissait mais on s'parle plus Faut pas juger la vie d'autrui, toi t'as chouffé de loin on t'a vu Eh, ok, m'en veux pas ma belle, je me pète le devoir m'appelle Khali c'est bizarre comme il taffe H24 dans sa chambre il fait des hits Mais pourquoi tu regarde comme a-ç Jamais pour l'image toujours dans la 'zic Il a toujours fait chaud dans l'asile Les gens entendent ça fait réveiller la ville Et du coup ça peps, ça peps, ça peps, mais jamais j'oublierai tes chichis, yeah Papa a vu la misère que c'était au bled Le cercle il est petit c'est pas open J'parle pas beaucoup j'ai tout caché dans ma tête J'parle pas beaucoup j'ai tout caché dans mes textes Y'a le futur qui a fuit dans une Opel Y'a ta sis' qui a fuit dans un hôtel On est des combattants on t'attend dans l'arène Crois pas m'connaitre j'suis pas ton sang de la veine Crois pas m'connaitre j'suis pas ton sang de la veine Crois pas m'connaitre j'suis pas ton sang de la veine Wesh, ok, le devoir m'appelle Paris l'aprem baby, on s'captera à l'hotel Avenue Foch, que des biatch qui louchent Tout est moche, te-ma la Le pe-ra ça appauvri... j'voulais dire euh... Yes sir C'est comment, c'est l'moment là S-Tee ? On s'envoit des back comme a-ç ? Vas-y, vas-y Tu prends ou j'prends ? Tu prends ou j'prends ? Tu prends ou j'la prends ? Vas-y, hey Vas-y, vas-y, tu m'as convaincu Jeune S-Tee sur la prod, j'ai pas b'soin d'prot' J'suis l'plus chaud négro tu vois qu'j'suis ton prof Han, là c'est chaud, j'fais ça que pour les frérots S-Tee quand il parle négro, faut l'regarder de haut Hey, regarde de haut, pull-up à Vil', pull-up pas trop J'viens d'tirer une taffe, donc j'ai la gorge qui pull-up l'impro J'sais faire l'impro, ouais je le vois tous les blocs ? Plus tard j'veux tous les pendentifs qui sont Sept Qui sont Sept ? Qui sont Sept mais qui sont ces shneks ? Guette la dé mais mon gars tu fais peur on dirait Shrek La j'y vais, faut pas m'retarder La si j'continue d'kicker comme un attardé, shit là D il faut pas m'lâcher Pull-up à sept, j'les voit c'est des serpents gros c'est des snakes Pull-up à sept, j'les vois c'est des serpents gros c'est des snakes Ils ont tous de la vantardise, on a la technique que t'as a-p J'suis l'meilleur sur la prod, j'ai pas b'soin d'Antares Hey, j'ai pas b'soin d'Antares J'ai fait le taff dans ta res', j'ai fait le taff et j'capte ta La prod elle est maléfique Avec S-Tee, il arrive en r'tard, wesh on l'appelle Esquive La prod elle est maléfique So La Fève pour cette gimmick, So La Fève quand j'suis C'qui l'p'tit con qu'a dit qu'les derniers s'ront les premiers ? On fait cette shit tous les jours mon reuf j'ai rien à prouver Gros j'suis éprouvé Je n'fais que chercher mais j'ai rien trouvé J'veux pas finir la gorge trouée mon reuf, quand j'y pense j'ai la gorge nouée Je suis Né j'étais doué, t'as parlé sur nous mais t'es qui toi Poto moi j'veux pas trop m'plaindre, je suis bien j'ai à manger et à un toit La Fève c'est particulier, j'ai les crocs depuis écolier L'objectif il est régulier je veux juste beaucoup de diamants sur le collier Ok, yes, ok, yes, ok Fuck un classement y'a d'ja un grand écart Tout est carré tu connaissais pas l'mot rap Tous vos projets franchement c'est adorable en plus en vrai c'est abordable mais j'le lance pas sur Spotify Fuck être second, la couronne m'attends ap, ap J'mets des crochets, j'mets des feintes de frappe, frappe La prod est trop ice, je me bat dans le froid man, tu as peur je le vois moi, ni chat noir ni chaman, hey, hey J'ai des placements létaux, j'en place une pour flashback j'en place une pour le Me déplace 'vec la white model, 'place 'vec la low life, le et le Sept C'est pas magique Faut défoncer ces portes là T'es pas un OG wesh Tu dénonçais tes potes toi, wesh bizarre, tu dénonçais tes potes toi J'veux pas salir mon plumage j'ai plus l'âge, faut prendre soin d'ses godasses c'est comme aç Finir à la tête des classements, si tu veux mes phases prends, c'est tentant, copie même les placements Shoutout à toujours dans cette low Si t'es dans l'enclos lève la tête il fait beau La vie basse, et remplie d'obstacles Reste lumineux ne sois pas opaque Ceux qui prient dans la savane j'suis le puma Accroupi aguerri j'attends juste l'occas' Elle veut que je parle de oim mais j'suis pas locace On vit à l'audace c'est la vida loca Louis, Louis J'suis né j'avais d'ja d'l'ambition Chez moi c'est bísó na bísó Mais jeune espion dans les buissons Louis, Louis Comme le plus grand roi de France Tu chouf alors que j'te veux du bien Les gens c'est des chiens quand j'y pense La Fève, plus grand jamais défait J'me sens pas très bien dans ta fête J'ai mal dans l'cur J'parle aux gens dans ma tête Et ça faut qu'tu l'comprennes ma chérie J'fonce dans l'mur Depuis qu'j'ai l'âge de courir Depuis qu'j'sais qu'La Fève va mourir Au fond d'un manoir Les 'zin c'est la villa ou rien Pour mes loups pour tous mes vauriens Faire des sons d'plouc zin, j'connais pas cette shit J'suis ... mais la poisse me chine Gros faire des passes j'men fiche, sur l'terrain la brise me gifle, let's go Pour mes potos les bitch c'est une question de fesses pas une question de faciès De-vi est l'assiète, aujourd'hui focus comme je l'étais pas hier Il faut les paillettes pour mamie RDV aux Galeries Lafayette Ici il caille, Khali tu die, maintenant ils vont tailler Yeah, j'suis et déter' en temps d'crise Yeah, viens pas nous faire croire que t'es pas un p'tit ici J'suis pas un pépé on m'voit pas en Zanotti ici J'ai pas trop ton time, j'viens pas trop te lire un livre, mec J'ai fait des 'zik deep, j'suis pas un chic type dick bien profond attends le dix titres sale bitch ivre Y'a v'la la policia dans la jungle, yeah J'vois t'es pas trop à l'aise sous ta jeune gueule, yeah Let's go, pull up dans la tess let's go Let's go man, j'arrive sur la prod je la traumat' Let's go man, j'arrive sur la prod et puis j'la traumat' J'suis un trauma, j'pull up dans l'seizième j'suis dans le tro-mé J'suis un trauma, j'aime pas ta carrière toi tu vas t'arreter yeah Merde, merde, merde H24 dans la baraque ça trapp La mélo' elle m'prend dans les tripes H24 dans la baraque ça trapp Ok Tu le penses quand on dit on s'attrape H24 dans la baraque ça trappe La mélo' elle m'prend dans le trip Rassemble les pièces jaunes pour faire dix eu' La nuit j'me confesse au Dieu Petit on m'disais la musique c'est magique je m'imaginais ça en mieux Tu sais qui je représente Sur ma voix faut mettre v'la les preset J'avais pas la te-tê qui plaisait Le son c'est d'la patate, t'as porté l'il t'as cru qu'on était pas capable Si je te parle je retire ma cape J'me demande pourquoi le ciel il m'accable J'te prends même en acap' H24 dans la baraque ça trapp H24 dans la baraque ça trapp Tout ça c'est bizarre, tu sais c'qu'on aime ? Va prendre ta critique et baiser ta mère Agis comme fuyard mais pas devant nous Petit j'étais gros et gardien de foot T'inquiète j'ai capté qu'tu cachais des doutes La vie qu'j'ai horreur qu'on m'prenne pour un fou Ma sur est voilée et moi j'fais des sons Haram musique aidera à faire des sous Bien sûr qu't'es bien moins mon kho sans ton masque, yeah Mélange pas famille et taf, han Ça doit puer le seum dans ta dar', hm J'vais cracher le feu sur les bases, yeah Là-bas ça suckait des bananas Ton gars sous ourlets et bandanas Premier reçoit que des carapaces J'suis broke, autour aucun rapace J'suis présent pour fermer des bouches en c'moment on m'a fermé des portes J'lui dis parle mieux avec ta bouche mais ce débile n'a pas fait d'effort En mission on connait comment ça fonctionne tu vas rien nous apprendre Fiston à raison papa t'inquiète pas j'mettrais pas ça en cendres La prod c'est La prod c'est un rallye Faut le faire S-Tee, La Fève et Khali Merde c'est trop facile Ecrire des textes à quoi bon J'suis dans la trap house Confonds pas avec la trap maison Viens pas t'asseoir à ma table Viens pas t'asseoir à ma table Viens pas t'asseoir à ma table Viens pas t'asseoir à ma table Viens pas t'asseoir à ma table Jeune qui rêve d'amour J'en avais j'ai jeté à la mer Souvent je me dis c'est la merde C'est la merde Rien ne s'ra jamais parfait C'est d'la merde Kolaf à fond dans la caisse Kolaf à fond dans la caisse Kolaf c'est chaud comme la lave Kolaf c'est chaud comme la lave La concurrence on la lave La concurrence on la lave Kolaf c'est chaud comme la lave Kolaf c'est chaud comme la lave La concurrence on la lave La concurrence on la lave La concurrence on la lave On la me-fu comme le loud pack qu'on fume quand Parle pas de tro-mé t'es sah J'dépense quelques pesetas Viens pas m'capter quand les G sont dans l'appart et Ouais gros c'est die mec Ouais gros c'est die mec Les yeux s'referment tout seuls J'ai les yeux rouges pourtant j'fume pas d'cali T'connais Khali, n'pense qu'à gagner, n'a pas d'reufs d'ici J'suis dans un del' sombre Souvent dispo si le tel sonne Demande à La Fève faut du respect sur nos personnes Ligidilit c'est mon slang mec, traite pas d'singe mec, on sait c'qu'on fait avec nos del' mec, tu donne crédit à des fake mec Y'a des labels qui ont khalass des violeurs pendant qu'nos valeurs restent vraies Être le meilleur de ma ville c'est pas si dur J'vais vous fouetter comme le daron et sa ceinture, yeah Baby mama aimerait fuck dans la 'ture, mais j'suis fort dans les sons donc à force elle sature J'suis sur BDX en ville j'suis plutôt solo J'suis sur PLM avec un H et cqui reste de mes poto Wassup puto Mets moi un vent maintenant, dans cinq ans t'auras ... Parle pas trop de bitch, parle pas trop de mif Ou sinon t'es mort et moi de mon continent Deux mille ou trois mille billets pour mon Sept Avec nous ça tire, avec toi je sais qu'c'est un bon bilan J'suis dans l'écriture mais j'suis pas Molière J'suis dans toutes les bouches, j'suis pas une molaire mais tu kiff même-quand J'suis dans l'écriture mais j'suis pas Baudelaire J'ai des benjamins, j'dépense mes sesterces, j'vois pas passer l'temps J'suis dans la gova ça va vite tellement J'ai les yeux rouges le shit m'excite tellement Hey, avec La Fève avec La Fève J'suis dans la gova ça va vite tellement J'ai les yeux rouges le shit m'excite tellement Ma tête sur billet d'banque Yo, mon nom me rappelle Que j'attire la lumière Mais j'garderai ma part de vice c'est ça la nature humaine Poto rumine, fais travailler ta boite J'enchaîne les session de stud', j'ai même pas ramené à boire Je sens mon flow qui s'accroît Mon peuple souffre ici on gratte que des allocs J'ai trop d'douleur sous mes cloques Et un jour ça va éclore Les mêmes tantines qui radotent sur la dote Le prix t'restera sur la glotte Se nourrir d'amour et d'alloco Ça crée un homme rempli d'goût qui aime la vie comme un locaux et qui ne joue pas au loto mais qui s'lève tôt pour le gros lot J'veux pas finir comme prolo avec souillure sur le polo et voir cette vie en slow-mo j'connais déjà deux trois clodos qui s'nourrissent de carré d'choco et qui s'lavent même plus à l'eau chaude J'suis béni je n'ai pas d'sang sur les mains J'suis béni je n'ai pas d'sang sur les mains J'suis béni je n'ai pas d'sang sur les mains Yes J'suis béni je n'ai pas d'sang sur les mains J'suis dans la salle du temps et je descends pour les miens Je n'suis pas encore très La Fève mais je le deviens Jeune espion devin qui veut son verre de vin J'suis ti-gen à la base mais la vie fait des coups bas LAF Machiavelli en haut je fais des houba Dis moi avec qui tu traine j'te dirai si t'es brav' La Fève veut tellement d'billets si j'les sort tu baves Poto j'viens d'un endroit où les murs ils t'entendent pas LAF Machiavelli fonce-dé vesqui la tate-pa Poto je n'parle pas à part si ça vaut cher C'est bonchar Mais poto je n'ai pas d'sang sur les mains C'est pour ça que j'peux m'pavaner devant l'premier à l'aise Faire des passement d'jambes des roulettes et des passes dé La Fève il est bouillant même pendant le mois d'décembre Si j'ai d'la puissance j'change de veuch j'suis comme Broly Poto viens m'voir j'ai un Mauser comme brolic Toujours avec mes dogs au volant d'un gros bolide Ca fait 400 piges parait qu'l'esclavage c'est aboli Mais y'a des nègres de maison Ici les soucis changent mais c'est les mêmes saisons C'est comme le vélo poto et je garde le filon, La Fève il trouve sa vie longue, j'ai la vingtaine environ, S-Tee yes sir Il ment pour quelques dollars, vend son âme pour une vie d'taulard S'avance vers moi, une accolade, c'est un escroc donc gros molard Dépendre des autres c'est être enchainé Devant ma mère ma fierté j'l'ai rengainé J'prends sur moi gros j'ai pas lâché Tu pensais être libre jusqu'au jour où tu t'le prends dans l'dos J'différencie l'mal du pauvre, vêtements sales ou vêtements pre-pro Veste taillé, sourire mesquin, guette ça s'voit qu'il en carotte plus d'un Il veut m'la faire passer comme médecin mais reste loin gros c'est simple J'veux m'faire seul jusqu'à mon linceul C'est les actes qui définissent l'homme avant qu'il finisse Dans l'cercueil J'aime le rap j'suis animiste et j'brasse de l'air avec mes bras J'débroussaille le chemin pour que mon fils marche dans mes pas De loin on m'prend pour un fêlé grave Des freestyle a cappella, tard le soir sous une cathédrale J'entre en transe sur cette rythmique ancestrale Celle qui met le hustler sur un piédestal Low, low, low, low J'fais ce grunt j'suis comme un padre Dans le verre j'ai que du captain Je rappe bien est-c'que t'as capté, Grunt 43 c'est pour Kolaf et on l'a fait1</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ouuuh Yeah, han J'suis 'vec les zinzins, smoke la zaza, j'avais des rêves ils les ont anéantis La tête en bazar depuis le bas âge, ma le-gueu je connais pas la fainéantise C'est pas c'qu'on pensait, on s'est pas compris, je perds du poids faut faire du cash à tout prix C'est pas c'qu'on pensait, on s'est pas compris, je perds du poids faut faire du cash à tout prix Bitch t'as cru que je voulais te marier Bitch t'as cru que tu m'avais contrarié Bitch j'ai cramé que t'as les narines enfarinées Là je me demande qui va rester à l'arrivée Je me demande qui va revenir au bendo-do Je me demande pourquoi errrday c'est la même poto Ils parlaient sur moi mais je les ai tous oubliés Et je pense à cette monnaie je vais roupiller Le temps il s'achète, long est le trajet, on fait some trap ça me donne de la sagesse Tellement d'rage jai, on a trop nagé, perdre mon temps ma gueule j'ai passé l'âge La Fève c'est EL Che, larmes on a versé, tu l'sais toujours no cap dans le verset Toujours no cap dans le verset G Ma gueule j'ai un peu de haine envers ces G J'revois l'fugazi, avant j'étais lazy maintenant y a cette larme sur la rollie J'me suis retourné ce serpent m'a trahi, je pensais que c'était mon homie C'est noir c'est mort j'vais m'éclairer Je pensais que j'l'avais repéré Je roule fugazi, avant j'étais lazy maintenant j'pense à quand j'serai enterré You might also like J'suis 'vec les zinzins, smoke la zaza, j'avais des rêves ils les ont anéantis La tête en bazar depuis le bas âge, ma le-gueu je connais pas la fainéantise C'est pas c'qu'on pensait, on s'est pas compris, je perds du poids faut faire du cash à tout prix C'est pas c'qu'on pensait, on s'est pas compris, je perds du poids faut faire du cash à tout prix1</t>
+          <t>Ouuuh Yeah, han J'suis 'vec les zinzins, smoke la zaza, j'avais des rêves ils les ont anéantis La tête en bazar depuis le bas âge, ma le-gueu je connais pas la fainéantise C'est pas c'qu'on pensait, on s'est pas compris, je perds du poids faut faire du cash à tout prix C'est pas c'qu'on pensait, on s'est pas compris, je perds du poids faut faire du cash à tout prix Bitch t'as cru que je voulais te marier Bitch t'as cru que tu m'avais contrarié Bitch j'ai cramé que t'as les narines enfarinées Là je me demande qui va rester à l'arrivée Je me demande qui va revenir au bendo-do Je me demande pourquoi errrday c'est la même poto Ils parlaient sur moi mais je les ai tous oubliés Et je pense à cette monnaie je vais roupiller Le temps il s'achète, long est le trajet, on fait some trap ça me donne de la sagesse Tellement d'rage jai, on a trop nagé, perdre mon temps ma gueule j'ai passé l'âge La Fève c'est EL Che, larmes on a versé, tu l'sais toujours no cap dans le verset Toujours no cap dans le verset G Ma gueule j'ai un peu de haine envers ces G J'revois l'fugazi, avant j'étais lazy maintenant y a cette larme sur la rollie J'me suis retourné ce serpent m'a trahi, je pensais que c'était mon homie C'est noir c'est mort j'vais m'éclairer Je pensais que j'l'avais repéré Je roule fugazi, avant j'étais lazy maintenant j'pense à quand j'serai enterré J'suis 'vec les zinzins, smoke la zaza, j'avais des rêves ils les ont anéantis La tête en bazar depuis le bas âge, ma le-gueu je connais pas la fainéantise C'est pas c'qu'on pensait, on s'est pas compris, je perds du poids faut faire du cash à tout prix C'est pas c'qu'on pensait, on s'est pas compris, je perds du poids faut faire du cash à tout prix1</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Darling we were meant to be Goodbye my love Baby, blue birds flying free Eh, yeah J'voulais juste baiser le game, j'voulais juste baiser le game Oh, so high above J'voulais juste baiser le game, j'voulais juste baiser le game But you flew south in the spring J'voulais juste baiser le game, j'voulais juste baiser le game So Ill save my love for the one Yes, 7, Walone, on y va C soir, j'ai comme les idées clairs, j'passe un coup de fil à mon frère Tu sais, j'voulais baiser le game et j'peux pas le faire sans mon gang J'suis tout là-haut, j'ai continué ma lancée, dis-moi qui peut me stop ? J'ai beaucoup trop donné, ma leu-g', tu me connais, si t'es mon sang, j'te veux au top, yeah Yeah Soyons sincère, être ton reu-f à quoi ça sert ? J'peux faire l'effort, mais Dieu sait, chaque fois que j'le fais, ça m'a laissé que de la peine Chéri, moi, j'ai que mon 7 et c'est mon cercle, ils sont là même dans la défaite Chéri, moi, j'ai que mon 7 et c'est mon cercle, ils sont là même dans la défaite, yes Moi, j'ai dû tracer ma route, j'ai dû casser ma routine, assumer les risques Et ma tristesse, je t'avoue, j'y ai pensé deus-pi quand j'suis sorti du Ritz Tu m'tires vers le bas, moi, j'ai capté vite que c'était pas la même cible que nous visons J'avais du love pour eux, mais ils n'avaient pas d'ambition, n'avaient pas de missions Trop fidèle, j'me voile la face, yeah Tu sais, j'aimerais te croire Mais j'ai connu beaucoup d'tas-pés, j'ai pas fini d'en voir Pourquoi t'faire confiance ? C'est trop d'souffrances et trop souvent, j'y perds Pardonne-moi si j'préfère rester solitaire You might also like Toute ma vie, j'ai donné aux autres Toute ma vie, j'ai donné aux autres, c'est ma faiblesse Toute ma vie, j'ai donné aux autres Toute ma vie, j'ai donné aux autres, c'est ma faiblesse Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps pour toi Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps pour toi Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps pour toi Fev 7, Walone, on y va, less La ville est fantôme, y a pas un rat dans la street, j'entends chaque pas J'me dis qu'il faut qu'on s'tire et j'reviens sur mes pas à chaque fois J'suis plein d'sueur à chaque nuit, là, j'ai la poisse et j'en veux à lui Heureusement qu'on est béni, j'ai dû faire mon nid, chercher la money Ça m'a fatigué, trop de bitch, il faudrait les éradiquer Non, couper les ponts, j'peux pas hésiter Je sais qu'c'est mon bijou qui l'a attiré Donc fais pas l'fou si tu vas pas tirer Moi, j'ai grandi, ça existe plus les best friends Les ti-peu, ils connaissent plus le respect Avant, y avait personne qui me testait J'voulais juste motiver mon entourage, motiver les neveux, les nièces J'ai arrêté d'zoner, là, j'suis sur la tape et toi, tu crois qu'on niaise Les story qu'l'ancien il raconte ressemblent à un film, mais cette merde est réelle J'frottais mes yeux, ils ont bien monté mes streams, c'était pas un rêve Trop fidèle, j'me voile la face, yeah Tu sais, j'aimerais te croire Mais j'ai connu beaucoup d'tas-pés, j'ai pas fini d'en voir Pourquoi t'faire confiance ? C'est trop d'souffrances et trop souvent, j'y perds Pardonne-moi si j'préfère rester solitaire Toute ma vie, j'ai donné aux autres Toute ma vie, j'ai donné aux autres, c'est ma faiblesse Toute ma vie, j'ai donné aux autres Toute ma vie, j'ai donné aux autres, c'est ma faiblesse Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps pour toi3</t>
+          <t>Darling we were meant to be Goodbye my love Baby, blue birds flying free Eh, yeah J'voulais juste baiser le game, j'voulais juste baiser le game Oh, so high above J'voulais juste baiser le game, j'voulais juste baiser le game But you flew south in the spring J'voulais juste baiser le game, j'voulais juste baiser le game So Ill save my love for the one Yes, 7, Walone, on y va C soir, j'ai comme les idées clairs, j'passe un coup de fil à mon frère Tu sais, j'voulais baiser le game et j'peux pas le faire sans mon gang J'suis tout là-haut, j'ai continué ma lancée, dis-moi qui peut me stop ? J'ai beaucoup trop donné, ma leu-g', tu me connais, si t'es mon sang, j'te veux au top, yeah Yeah Soyons sincère, être ton reu-f à quoi ça sert ? J'peux faire l'effort, mais Dieu sait, chaque fois que j'le fais, ça m'a laissé que de la peine Chéri, moi, j'ai que mon 7 et c'est mon cercle, ils sont là même dans la défaite Chéri, moi, j'ai que mon 7 et c'est mon cercle, ils sont là même dans la défaite, yes Moi, j'ai dû tracer ma route, j'ai dû casser ma routine, assumer les risques Et ma tristesse, je t'avoue, j'y ai pensé deus-pi quand j'suis sorti du Ritz Tu m'tires vers le bas, moi, j'ai capté vite que c'était pas la même cible que nous visons J'avais du love pour eux, mais ils n'avaient pas d'ambition, n'avaient pas de missions Trop fidèle, j'me voile la face, yeah Tu sais, j'aimerais te croire Mais j'ai connu beaucoup d'tas-pés, j'ai pas fini d'en voir Pourquoi t'faire confiance ? C'est trop d'souffrances et trop souvent, j'y perds Pardonne-moi si j'préfère rester solitaire Toute ma vie, j'ai donné aux autres Toute ma vie, j'ai donné aux autres, c'est ma faiblesse Toute ma vie, j'ai donné aux autres Toute ma vie, j'ai donné aux autres, c'est ma faiblesse Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps pour toi Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps pour toi Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps pour toi Fev 7, Walone, on y va, less La ville est fantôme, y a pas un rat dans la street, j'entends chaque pas J'me dis qu'il faut qu'on s'tire et j'reviens sur mes pas à chaque fois J'suis plein d'sueur à chaque nuit, là, j'ai la poisse et j'en veux à lui Heureusement qu'on est béni, j'ai dû faire mon nid, chercher la money Ça m'a fatigué, trop de bitch, il faudrait les éradiquer Non, couper les ponts, j'peux pas hésiter Je sais qu'c'est mon bijou qui l'a attiré Donc fais pas l'fou si tu vas pas tirer Moi, j'ai grandi, ça existe plus les best friends Les ti-peu, ils connaissent plus le respect Avant, y avait personne qui me testait J'voulais juste motiver mon entourage, motiver les neveux, les nièces J'ai arrêté d'zoner, là, j'suis sur la tape et toi, tu crois qu'on niaise Les story qu'l'ancien il raconte ressemblent à un film, mais cette merde est réelle J'frottais mes yeux, ils ont bien monté mes streams, c'était pas un rêve Trop fidèle, j'me voile la face, yeah Tu sais, j'aimerais te croire Mais j'ai connu beaucoup d'tas-pés, j'ai pas fini d'en voir Pourquoi t'faire confiance ? C'est trop d'souffrances et trop souvent, j'y perds Pardonne-moi si j'préfère rester solitaire Toute ma vie, j'ai donné aux autres Toute ma vie, j'ai donné aux autres, c'est ma faiblesse Toute ma vie, j'ai donné aux autres Toute ma vie, j'ai donné aux autres, c'est ma faiblesse Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps Toute ma vie, j'ai donné aux autres Faut qu'tu prennes du temps, faut qu'tu prennes du temps pour toi3</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>La Fève du 7, de la Walone, tu connais déjà t'façon J'me suis jamais arreté d'représenter, j'ai fait que ça dans la vie Tu sais que tu as beaucoup d'étoiles yes, tu as une bonne étoile Tu seras plus grand avec tout ce que tu es en train de faire Donc voilà, Dieu est là, il va te protéger FREAKEY! FREAKEY! Yes, yes, yes Yes, yes, yes Hein hein On dirait c'est fini Hein hein Laisse tourner la prod un peu là Hun, yeah, yeah Celle là c'est pour mes anges, barman remets-en À peine j'commence à ter-mon, c'bâtard veut que j'redescende Des blessings pour mes zins qui hustle tous les ans Toi t'as tendu ta joue aux ennemis me fais pas la bise J'écoute un peu d'rap français, y a trop d'wannabe Abou veut des news de maman, il m'dit Ça va Abi ? J'commence à avoir c'que j'convoitais, pourquoi j'suis pas happy ? P't-être parce que j'sais qu'y a pas trop d'place pour moi au paradis On m'a dit qu'cette life était une chienne mais j'vais la dompter quand même J'crois qu'il y a un peu dsang sur l'billet mais j'vais l'compter quand même On est venu comme tombé du ciel pendant une pluie de comètes La rue prend et donne rien, tu crois que j'suis tombé pour elle ? J'insulte tous ceux qui portent l'il comme si j'avais La Tourette Toi tu veux qu'j'm'arrête pour causer mais l'horloge fait des tours elle J'repasse le polo Fendi, j'nettoie la Prada et j'm'en vais pour la mission J'fais des business, tous les jours cherche des plav' sous J'm'isole et je fume le renard du bois Quat'Sous L'ancien me dit que tout s'mérite et qu'il y a pas d'sous-métier Comment veux-tu la paix ? C'est Bagdad sous mes pieds On était dans l'coin, y a beaucoup d'bâtards, faut s'méfier J'me sens comme à Kin' car y a v'là l'cash sous mes pieds Ouais j'peux tout claquer, j'prépare un braquage pour lété Ma daronne voulait d'l'aide mais j'avais pas l'âge pour l'aider Plus de side chick, que des main Éméché, j'vois bien deux dobermans dans mon domaine Tout est monétisé, les relations sont plus les mêmes J'suis parti m'isoler, j'ai la vue sur la Tour Eiffel Ok, tu veux gaz à ta guise mais cette dope n'est pas pour les faibles Ok, ils bougeaient la tête avant tout l'monde donc j'pe-ra pour les frères, ok Les nouveaux prennent la place de ceux qui les négligaient J'savais pas dire c'que j'avais dans l'crâne donc j'l'ai rédigé J'suis arrivé au monde, j'ai choqué l'hôpital Necker J'me cultive sur notre histoire et l'origine des guerres J'ai mis ma go enceinte, j'me suis imaginé père J'fais tout ça pour la gagne, jamais j'ai imaginé perdre Yes You might also like Jamais j'ai imaginé perdre, ça a jamais été une option On n'a jamais eu le choix Et si on l'a fait, c'était pas pour prouver à n'importe qui, à untel Si on l'a fait, c'était pour nous Parce que c'était en nous Parce qu'on est né comme ça, han FREAKEY!, FREAKEY! Donc moi au début, j'pensais qu'on était tous ensemble Qu'on marchait tous ensemble Mais c'est fini tout ça, han Y a trop d'profiteurs, trop d'opportunistes Industrie, pas industrie, partout Ça veut dire moi maintenant tu connais Pour m'approcher c'est Ticky, Piz, Lyele et Kosei Si tu veux m'trouver, j'suis dans ma ville Ou à Paris dans les studios, c'est tout, han C'est pour ça qu'moi j'me fais discret Tu m'as vu à Atlanta, j'me suis régalé Dans les showcases, dans les strip club, j'en ai parlé à personne J'ai montré à personne C'est comme ça que je veux vivre ma vie maintenant Moi t'façon j'ai toujours été un putain d'espion Toute ma vie j'ai été un putain d'espion Et à côté d'ça j'dois gérer les aléas, la famille, la santé, les petits business que j'essaye de mettre en place Moi j'essaye juste de mettre une pierre sur une pierre, han Comme ils disent, j'suis un vrai chasseur de rêves Et t'sais, ça m'rend nostalgique en vrai Quand j'repense à d'où on vient, avec quoi on est parti Dundy, oi-m, Sevi, Styco, Ayoub, le 7, la Walone, Ticky, Piz, han On clipait, on mettait le flash sur le bigo N'importe où, n'importe quand Tu pouvais nous trouver et en vrai c'est ça le rap En vrai de vrai, c'est ça le rap J'fais l'ancien mais t'sais si t'es un petit tu m'écoutes Les bails de new wave, faut prendre les bonnes choses Moi j'ai essayé de ramener ça avec Khali, Kosei Y a eu plein de malentendus, han, on s'est mal compris J'voulais ramener la culture Moi j'voulais qu'elle vous touche comme nous elle nous a touché, han Comme nous elle nous a matrixé Et on dirait qu'chaque jour j'fais un pas de plus Chaque projet que j'sors, j'accomplis juste ma mission</t>
+          <t>La Fève du 7, de la Walone, tu connais déjà t'façon J'me suis jamais arreté d'représenter, j'ai fait que ça dans la vie Tu sais que tu as beaucoup d'étoiles yes, tu as une bonne étoile Tu seras plus grand avec tout ce que tu es en train de faire Donc voilà, Dieu est là, il va te protéger FREAKEY! FREAKEY! Yes, yes, yes Yes, yes, yes Hein hein On dirait c'est fini Hein hein Laisse tourner la prod un peu là Hun, yeah, yeah Celle là c'est pour mes anges, barman remets-en À peine j'commence à ter-mon, c'bâtard veut que j'redescende Des blessings pour mes zins qui hustle tous les ans Toi t'as tendu ta joue aux ennemis me fais pas la bise J'écoute un peu d'rap français, y a trop d'wannabe Abou veut des news de maman, il m'dit Ça va Abi ? J'commence à avoir c'que j'convoitais, pourquoi j'suis pas happy ? P't-être parce que j'sais qu'y a pas trop d'place pour moi au paradis On m'a dit qu'cette life était une chienne mais j'vais la dompter quand même J'crois qu'il y a un peu dsang sur l'billet mais j'vais l'compter quand même On est venu comme tombé du ciel pendant une pluie de comètes La rue prend et donne rien, tu crois que j'suis tombé pour elle ? J'insulte tous ceux qui portent l'il comme si j'avais La Tourette Toi tu veux qu'j'm'arrête pour causer mais l'horloge fait des tours elle J'repasse le polo Fendi, j'nettoie la Prada et j'm'en vais pour la mission J'fais des business, tous les jours cherche des plav' sous J'm'isole et je fume le renard du bois Quat'Sous L'ancien me dit que tout s'mérite et qu'il y a pas d'sous-métier Comment veux-tu la paix ? C'est Bagdad sous mes pieds On était dans l'coin, y a beaucoup d'bâtards, faut s'méfier J'me sens comme à Kin' car y a v'là l'cash sous mes pieds Ouais j'peux tout claquer, j'prépare un braquage pour lété Ma daronne voulait d'l'aide mais j'avais pas l'âge pour l'aider Plus de side chick, que des main Éméché, j'vois bien deux dobermans dans mon domaine Tout est monétisé, les relations sont plus les mêmes J'suis parti m'isoler, j'ai la vue sur la Tour Eiffel Ok, tu veux gaz à ta guise mais cette dope n'est pas pour les faibles Ok, ils bougeaient la tête avant tout l'monde donc j'pe-ra pour les frères, ok Les nouveaux prennent la place de ceux qui les négligaient J'savais pas dire c'que j'avais dans l'crâne donc j'l'ai rédigé J'suis arrivé au monde, j'ai choqué l'hôpital Necker J'me cultive sur notre histoire et l'origine des guerres J'ai mis ma go enceinte, j'me suis imaginé père J'fais tout ça pour la gagne, jamais j'ai imaginé perdre Yes Jamais j'ai imaginé perdre, ça a jamais été une option On n'a jamais eu le choix Et si on l'a fait, c'était pas pour prouver à n'importe qui, à untel Si on l'a fait, c'était pour nous Parce que c'était en nous Parce qu'on est né comme ça, han FREAKEY!, FREAKEY! Donc moi au début, j'pensais qu'on était tous ensemble Qu'on marchait tous ensemble Mais c'est fini tout ça, han Y a trop d'profiteurs, trop d'opportunistes Industrie, pas industrie, partout Ça veut dire moi maintenant tu connais Pour m'approcher c'est Ticky, Piz, Lyele et Kosei Si tu veux m'trouver, j'suis dans ma ville Ou à Paris dans les studios, c'est tout, han C'est pour ça qu'moi j'me fais discret Tu m'as vu à Atlanta, j'me suis régalé Dans les showcases, dans les strip club, j'en ai parlé à personne J'ai montré à personne C'est comme ça que je veux vivre ma vie maintenant Moi t'façon j'ai toujours été un putain d'espion Toute ma vie j'ai été un putain d'espion Et à côté d'ça j'dois gérer les aléas, la famille, la santé, les petits business que j'essaye de mettre en place Moi j'essaye juste de mettre une pierre sur une pierre, han Comme ils disent, j'suis un vrai chasseur de rêves Et t'sais, ça m'rend nostalgique en vrai Quand j'repense à d'où on vient, avec quoi on est parti Dundy, oi-m, Sevi, Styco, Ayoub, le 7, la Walone, Ticky, Piz, han On clipait, on mettait le flash sur le bigo N'importe où, n'importe quand Tu pouvais nous trouver et en vrai c'est ça le rap En vrai de vrai, c'est ça le rap J'fais l'ancien mais t'sais si t'es un petit tu m'écoutes Les bails de new wave, faut prendre les bonnes choses Moi j'ai essayé de ramener ça avec Khali, Kosei Y a eu plein de malentendus, han, on s'est mal compris J'voulais ramener la culture Moi j'voulais qu'elle vous touche comme nous elle nous a touché, han Comme nous elle nous a matrixé Et on dirait qu'chaque jour j'fais un pas de plus Chaque projet que j'sors, j'accomplis juste ma mission</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>J'suis jaloux de tout c'qu'ils ont Souvent un penchant schizo, j'suis jaloux de tout c'qu'ils ont Ok Pénalty dans sa tête, c'est que du vin sur ma paire M'aimer je ne sais pas chérie viens me montrer comment faire Une faim d'ogre tu crois avec l'argent on la perd Une faim d'ogre tu crois avec l'argent on la perd La prod elle est quali, j'fais d'la musique élégante Saoulé par le game, saoulé par les gens La prod elle est quali, j'fais d'la musique élégante Saoulé par le game, saoulé par les gens Ok, pénurie de pi donc on fait P2 sur le cul Matrixé j'grandis sur moi il faut j'prenne du recul Pénalty dans sa tête ce s'ra qu'une tâche sur le pull En nageant dans les soucis ma p'tite le-gueu smoke le pur Modèle S j'trouve ça sexy Regarde le Prada sur mon textile Toute la saleté dans mon esprit J'pense à comment il a été sali par le ness-buis You might also like Ok, pénalty dans sa tête, c'est que du vin sur ma paire M'aimer je ne sais pas, chérie viens me montrer comment faire Une faim d'ogre tu crois avec l'argent on la perd Une faim d'ogre tu crois avec l'argent on la perd La prod elle est quali, j'fais d'la musique élégante Saoulé par le game, saoulé par les gens La prod elle est quali, j'fais d'la musique élégante Saoulé par le game, saoulé par les gens</t>
+          <t>J'suis jaloux de tout c'qu'ils ont Souvent un penchant schizo, j'suis jaloux de tout c'qu'ils ont Ok Pénalty dans sa tête, c'est que du vin sur ma paire M'aimer je ne sais pas chérie viens me montrer comment faire Une faim d'ogre tu crois avec l'argent on la perd Une faim d'ogre tu crois avec l'argent on la perd La prod elle est quali, j'fais d'la musique élégante Saoulé par le game, saoulé par les gens La prod elle est quali, j'fais d'la musique élégante Saoulé par le game, saoulé par les gens Ok, pénurie de pi donc on fait P2 sur le cul Matrixé j'grandis sur moi il faut j'prenne du recul Pénalty dans sa tête ce s'ra qu'une tâche sur le pull En nageant dans les soucis ma p'tite le-gueu smoke le pur Modèle S j'trouve ça sexy Regarde le Prada sur mon textile Toute la saleté dans mon esprit J'pense à comment il a été sali par le ness-buis Ok, pénalty dans sa tête, c'est que du vin sur ma paire M'aimer je ne sais pas, chérie viens me montrer comment faire Une faim d'ogre tu crois avec l'argent on la perd Une faim d'ogre tu crois avec l'argent on la perd La prod elle est quali, j'fais d'la musique élégante Saoulé par le game, saoulé par les gens La prod elle est quali, j'fais d'la musique élégante Saoulé par le game, saoulé par les gens</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11RappeursASuivre, Booska-P Leo cooking dope Potion-potion du cauchemar qui tise le plus J'suis pas ton gars, ni ton fils de pute Un ient-cli peut t'en ramener dix de plus J'suis pas là pour ta gueule, tu l'as constaté J'suis pété mais dans tous les cas j'me casse à vingt-deux heures Binks comme si j'avais pas d'maison, bébé c'est moi dans la Batmobile Envoie-moi ton adresse et la livraison, là j'ai pas d'réseau Quand j'étais p'tit, j'ai vu passer les quatre saisons Les surs Halliwell et le Livre des Ombres J'fais pas d'son d'été, dans mon cur c'est l'hivr hmm, hmm Compt dans les faits divers J'bibi du chut et ds pass sanitaire bah ouais T'as du shit et d'la mousse sur ton test salivaire paw Tous les jours c'est la crise humanitaire, on encule les condés, respect aux militaires nan Fais des tractions pour devenir comme un minotaure buubuu J'ai mon côté binks bre-som binks comme binks Dark Vador binks, binks Bang bang, t'es mort paw J'crois plus en hier ni en demain hmm, hmm Protège ton cur et tes reins, bah ouais, j'pourrais pas t'aider, j'ai qu'deux mains bah ouais Tu t'es mis d'dans, tu t'démerdes salope Bateau d'esclaves, mal de mer J'dors pas, que des cauchemars, j'te démarre Chaque fois qu'j'bois, j'ai une absence de l'âme ouais, ouais, ouais, ouais You might also like Swing, swing, swing, swing Grrrr paw, cest pas pour rien quon mappelle Le Risque Bang bang Grrr paw 11RappeursàSuivre Booska P Grrrr paw, paw paw paw Grrrrraaah Cest pas pour rien quon mappelle Le Risque, 2022 cest moi lRookie Jen vois beaucoup jouer les racailles mais on les connaît même pas dans la calle Jsuis dans ma cité, méchant agressif, comme Buscapé en fumette jvois tous les boloss passer Quand jai la sacoche, jsuis ganté, attentif quand ils veulent rentrer Jai mon kamas, prêt à lallumer, ya que mon briquet qui met dla lumière Ou lengin avec lequel jvais tallumer jpeux venir téteindre devant ton palier 2-3 balles et jremonte sur la bécane chez nous pas de béquilles Cest rapide, cest technique, on est agiles Une seule bastos et plus personne réplique Booskap', thug dance, Massilia, Bab Doukkala, Arset Aouzal 11 rappeurs à suivre, 7dach Khoya, tu sais d'où j'viens, la misère est magnifique Mn sghri tandor fl7oma ou jnouni tab3inni Mama m'a dit tes unique suis ton odyssée comme Ulysse, ils voudront surement t'arroser mais tu pousseras comme une tulipe Rabat, Alger, Tunis, Milano, Massilia, Munich Personne pleure, nos yeux sont punis, un proche meurt, ils deviennent humide à peine, à peine, à peine Dis moi Qu'est ce que tu vois dans mes yeux ,à part la haine et le désespoir? Comment je pourrai aimer ce monde ? R'garde ce qu'il a fait de moi Dis moi Mon Dieu combien j'ai fais de vux ? Mais y'a le ciel qui nous sépare 7ass brassi sghir, fost smaa kbira J'ai quelques défunts parmi mes amis, et des fois le soir je me dis que c'est ma faute J't'ai tout donné, tu m'as trahi, frérot, maintenant raconte tes problèmes à d'autres Vous savez tous exactement qui je suis L'bonvieu, la pp Smeh, Hey J'était khadem, j'les connais même pas, ils fructifient ma part J'suis dans l'appart, la selha à toute patate, celle qu'dans ta rue t'as pas J'suis le produit de mon environnement donc j'suis un gros batard J'suis debout dès le matin, posé au kahwa, avec deux, trois haraga Hess life, braco en S line, remonté d'Espagne On tbaise là, ton petit t'vi-ser en Vespa Un pour le nes-bui, deux pour la presse Foutait ma PSE, j'écoute la pièce, DRY au fond de la pièce Many Pisse d'shaiatin dans la Cristaline, coeur rafistolé Et qui m'as pistonné, dans la rue, eux c'est mon propre pistolet Petit, j'voyais le buiss tourné, toutes ces histoires Entre ceux qui se sont fait fumer au béton, j'disais à qui l'tour Maintenant c'est sur nous qu'on s'pose des questions Zebi, on a fait comme les grands J'te raconte pas tout au micro, déjà, qu'j'suis assez mé-cra Va leur demander de qué-cro, maintenant tous ils nous tté-gra Tu nous fait le trafiquant, t'as fait qu'des galipettes dans la bicrav Hassoul, faut des gros sous, des casses, gros À faire du sale, j'suis bon qu'à ça comme Pasqua Dans tout paname, tout les terrains, maisons d'arrêts Les 11 rappeurs à suivre, c'est moi l'bonvieu de l'année Ouais ouais ouais Eh khey reste concentré là Booska-P enculé Eh c'est c'est les 11 là La calle la calle 9.4 9.4 Voltaire Ivry La zone khey Ça rêve de ballon sous ballon Gros c'est toujours le plus fou qui tire J'men rappelle des crimes derrière Tati Ça vesqui Tintin si ça touché toi ça peut t'taper Vu que j'suis trop tricard j'tenvoi 2 timpes en dm J'écoute pas les On dit, tu sais c'que c'est 4 mecs cagoulés dans l'Audi ? J'ai passé ma jeunesse a bicrave la mort, t'en porte depuis p'tit khey on est maudit J'sais pas c'qui s'est passé j'ai fini dans l'passat Deuxième mi-temps j'venais d'entamer la cassette Dans l'bâtiment j'sais pas combien j'ai fais ti-par Détaillé sale, personne qui connait ma cachette Ça bosse dans les temps, tu connais j'cogite dans l'auto j'ai des tits-pe qui barbe des motos donc ils font 2 mi-temps Même dans ta ville y'a qu'des mythos Ils ont pas fait un plavon toute l'année ils nous font les méchants Enculé j'ai passé la nuit dans la tess j'ai vu trop d'brigade à pattes j'étais dans ma caisse Ça devait l'faire en bas d'chez lui, gros le seul trou dans la caisse que j'ai fait c'était pour un fer Garde à vue, dépôt j'ai relu ma dépos' Tu connais si j'suis broliqué j'fais la déco Si j'suis broliqué j'fais la déco j'te met le calibre dans la che-bou si tu déconnes Solo j'ai passé ma nuit dans ma caisse tu connais On fait les faits divers, toute la journée ça détaille d'la stup dans la tess Solo j'ai passé ma nuit dans ma caisse tu connais On fait les faits divers, toute la journée ça détaille d'la stup dans la tess Zépé', Béné, Booska Zépé', Béné, Booska-V, le ciel avec moi, j'suis boosté ouais J'peux drop tous les quarts d'heure Tsuki saga Trop croire en la paix c'est risqué J'suis pas dans l'film parce que dans l'film, le noir il meurt toujours en premier ay, c'est comment mon vieux ? C'est chaud dans l'bloc y a plus personne qui croit en nous ok Toujours le même scénario, si on perd, on sait comment refaire la maille J'ai fini mon rre-ve, j'en ressers un autre hmm C'est la casse intégrale, c'est pas Milano ouais J'ai cherché l'bonheur mais gros, y a pénurie C'est le son des maudits et des démunis ouais allô Tsuki c'est le cardio, le cardio pour le Prada pour le Prada Dans mes rêves y a au moins quinze traîtres qui brûlent à plusieurs dans l'grenier sale Toute ma vie j'suis dans un casse-tête, la chance pousse pas sous un pommier Toute l'année j'élabore, j'm'en suis cassé la voix ouais Soixante soleils, ça brille pareil et c'est une pute la juge T'as mis la cagoule pour une cagole, okay, okay J'ai parlé à l'ancien, il est pas bien, il dit qu'il lui faut un .9 qui troue les pare-balles Au loin de moi, les traîtres et les catins, je sais qu'ils rêvent de m'faire chez moi tous les matins hein J'ai la vision, la dalle et la patate, ils le savent bien que si ça pop, c'est pour longtemps La passion ça ramène pas à manger, négro, ils savent que j'le fais que pour les montants Ouais ouais Hey, Hey Depuis que jfais des euros sa mère jprends des los-ki Il fait chaud dans le four mais la zone est glaciale Les masques sont tombés bien avant le Covid, tous les fils de pute étaient à lhôpital Remontada cette année jvais tout graille, 11 titulaire jai fini sur la feuille Jsuis dans le bendo sa mère jravitaille, jai des clients fidèles comme le patron dApple Pas dsentiments pour les dames, jme dois déviter léchec Tout commence par faire la salat avant dvouloir sauver lespèce Le 11 de Booskap cest la Ligue 1, jfais parler dmoi comme Lionel Au comico jme suis plaint drien, comme si jétais bourré dla veille Tema le bruit du compet, tema le bruit dla bécane Elle est nerveuse comme un porc qui sest fait tromper par sa femme Quand jarrive jshoot dans le milli comme lalzheimer jfais des trous tas peur Té-téma le nombre de streams en ce moment ça bouge comme le cul dta soeur On a pleuré des proches, on a pleuré des amis Ils ont pleuré des meufs ces negros sont des fragiles comme la santé à Diaby Et le temps cest précieux, tema le bruit de la Audemars Ne fait pas le mafieux, ya la mouille de ta femme sur une autre barbe Wesh Enfoiré, 3.1.0. Quand j'étais p'tit j'voulais tenir le volant ouais, ouais J'laisse les p'tits tenir le volant J'en roule un, j'retire le collant fiuu À l'hôtel, elle retire le collant héhé Là où j'en suis j'peux pas te dire le comment, le pourquoi mais pourtant j'crois j'pourrais devenir violent J'ai d'la bonne, j'viens d'revenir de Hollande Y a les touristes qui vont bouffer à Anvers Y a des salauds qui vont goûter à l'enfer ola On a bicrave avant d'fumer ouais Conduit avant le permis on a tout fait à l'envers à l'envers 3.1.0, y a les gyros qui passent niooon Crame un bédo, y a les p'tits khos qui tracent ouais ouais Des anciens en chien au bistrot qui boivent Faut pas j'en dise trop y a les siste-gros qui brassent ouais Fais ton choix entre ange et démon fais ton choix La rue, elle a changé des noms waah C'est comme ça, on veut venger les nôtres On est v'nu, ils ont rangé les montres Tueur comme dans Léon Le temps est long comme dans le minibus J'suis sélectionné dans les onze dans les onze J'monte en puissance comme Vinicius Booska P, Wesh Enfoiré Produit est fort, j'suis quand même matinal Elle m'dit qu'elle est pas comme ça mais elle s'retourne au final Dans l'trap, du gaz de Cali j'inhale J'suis un peu marginal Plus d'retour si tu sors l'opinel Et après viens pas nier Me dire qu'c'était inopiné Hein, quand t'as une artère qui s'écoule plus qu'un robinet Dans le club ou le rooftop je rentre même si j'suis mal habillé Et j'me rends compte, j'suis loin des putes qui dmandent 3 tamiens pour piner Big kich' sors de la tirette Ta tête au sol, on shoot un six mètres J'suis clair j'vais pas ty dessiner Souvent j'ai finis quiller Tandis que mes ennemis décimés Dans l'trap soufrèrent jusqu'au matin Six heures passé plus d'sentiments J'enchaîne au stud de lundi à dimanche Franjo, nan c'était pas d'la chance Les 11 à suivre, les 11 de légende J'ai fait Booska P et j'ai vu l'il des gens J'suis dans les 11, peuvent pas m'voir quand j'fonce, j'fais rentrer même quand j'pionce, huh-huh C'est rempli d'monstres, dehors c'est rempli d'monstres Onze, kils dans ma poche droite, pareil dans la poche gauche Onze , kils dans ma poche droite, pareil dans la poche gauche Et j'suis comme Booska-P, il m'faut ma Angelica À chaque fois qu'tu drop, je ricane J'ai que d'l'essence dans l'jerrican J'peux pas attendre sagement qu'ils cannent, huh-huh On le smoke en balle Huh, huh, c'est des fans, c'est des stans Huh, fume sur le mien, t'as des hallu' Elle m'félicite mais elle sait pas comment j'm'allume C'est moi qui crache la vérité, le cash tombe, je me casse C'est moi qui crache la vérité, le cash tombe, je me casse Yeah, Booska-P, ça dit quoi ? J'suis La Fève, 11RappeursASuivre Laisse, on y va FREAKEY! Tu sais pour faire ce gouap j'ai des facilités Si tu veux faire du sale, viens me solliciter Tellement d'faux, je peux pas les citer Tellement d'faux, je peux pas les citer Instinct de crapule, il est pris dans la danse, il sort du ballon, il a récidivé Ça rap comme les anciens, avant j'étais en chien, maintenant la daronne vient me féliciter Une- une folie encore fini dans une babe, j'le connais lui, il peut vendre sa famille pour une Benz Petit, j'rêvais déjà d'aller vider la bank, kho j'crois qu'c'est mon boulot, dans le stu', fais des bang' Là je me ballade sur la côte, j'suis tranquille Les banquiers s'en vont, si j'pouvais, j'dirais Thanks 2021, on arrive comme un pro, 2021, on arrive comme un tank Appelle nous si tu veux du sale, du sale, appelle nous si tu veux goûter à mon produit Voiture allemande, ma le-gu' si je conduis, que des vérités, nous c'est pas les noms qu'on dit Tu sais pour faire ce gouap j'ai des facilités Si tu veux faire du sale, viens me solliciter Tellement d'faux, je peux pas les citer Tellement d'faux, je peux pas les citer Instinct de crapule, il est pris dans la danse, il sort du ballon, il a récidivé Ça rap comme les anciens, avant j'étais en chien, maintenant la daronne vient me féliciter Daronne vient me féliciter</t>
+          <t>11RappeursASuivre, Booska-P Leo cooking dope Potion-potion du cauchemar qui tise le plus J'suis pas ton gars, ni ton fils de pute Un ient-cli peut t'en ramener dix de plus J'suis pas là pour ta gueule, tu l'as constaté J'suis pété mais dans tous les cas j'me casse à vingt-deux heures Binks comme si j'avais pas d'maison, bébé c'est moi dans la Batmobile Envoie-moi ton adresse et la livraison, là j'ai pas d'réseau Quand j'étais p'tit, j'ai vu passer les quatre saisons Les surs Halliwell et le Livre des Ombres J'fais pas d'son d'été, dans mon cur c'est l'hivr hmm, hmm Compt dans les faits divers J'bibi du chut et ds pass sanitaire bah ouais T'as du shit et d'la mousse sur ton test salivaire paw Tous les jours c'est la crise humanitaire, on encule les condés, respect aux militaires nan Fais des tractions pour devenir comme un minotaure buubuu J'ai mon côté binks bre-som binks comme binks Dark Vador binks, binks Bang bang, t'es mort paw J'crois plus en hier ni en demain hmm, hmm Protège ton cur et tes reins, bah ouais, j'pourrais pas t'aider, j'ai qu'deux mains bah ouais Tu t'es mis d'dans, tu t'démerdes salope Bateau d'esclaves, mal de mer J'dors pas, que des cauchemars, j'te démarre Chaque fois qu'j'bois, j'ai une absence de l'âme ouais, ouais, ouais, ouais Swing, swing, swing, swing Grrrr paw, cest pas pour rien quon mappelle Le Risque Bang bang Grrr paw 11RappeursàSuivre Booska P Grrrr paw, paw paw paw Grrrrraaah Cest pas pour rien quon mappelle Le Risque, 2022 cest moi lRookie Jen vois beaucoup jouer les racailles mais on les connaît même pas dans la calle Jsuis dans ma cité, méchant agressif, comme Buscapé en fumette jvois tous les boloss passer Quand jai la sacoche, jsuis ganté, attentif quand ils veulent rentrer Jai mon kamas, prêt à lallumer, ya que mon briquet qui met dla lumière Ou lengin avec lequel jvais tallumer jpeux venir téteindre devant ton palier 2-3 balles et jremonte sur la bécane chez nous pas de béquilles Cest rapide, cest technique, on est agiles Une seule bastos et plus personne réplique Booskap', thug dance, Massilia, Bab Doukkala, Arset Aouzal 11 rappeurs à suivre, 7dach Khoya, tu sais d'où j'viens, la misère est magnifique Mn sghri tandor fl7oma ou jnouni tab3inni Mama m'a dit tes unique suis ton odyssée comme Ulysse, ils voudront surement t'arroser mais tu pousseras comme une tulipe Rabat, Alger, Tunis, Milano, Massilia, Munich Personne pleure, nos yeux sont punis, un proche meurt, ils deviennent humide à peine, à peine, à peine Dis moi Qu'est ce que tu vois dans mes yeux ,à part la haine et le désespoir? Comment je pourrai aimer ce monde ? R'garde ce qu'il a fait de moi Dis moi Mon Dieu combien j'ai fais de vux ? Mais y'a le ciel qui nous sépare 7ass brassi sghir, fost smaa kbira J'ai quelques défunts parmi mes amis, et des fois le soir je me dis que c'est ma faute J't'ai tout donné, tu m'as trahi, frérot, maintenant raconte tes problèmes à d'autres Vous savez tous exactement qui je suis L'bonvieu, la pp Smeh, Hey J'était khadem, j'les connais même pas, ils fructifient ma part J'suis dans l'appart, la selha à toute patate, celle qu'dans ta rue t'as pas J'suis le produit de mon environnement donc j'suis un gros batard J'suis debout dès le matin, posé au kahwa, avec deux, trois haraga Hess life, braco en S line, remonté d'Espagne On tbaise là, ton petit t'vi-ser en Vespa Un pour le nes-bui, deux pour la presse Foutait ma PSE, j'écoute la pièce, DRY au fond de la pièce Many Pisse d'shaiatin dans la Cristaline, coeur rafistolé Et qui m'as pistonné, dans la rue, eux c'est mon propre pistolet Petit, j'voyais le buiss tourné, toutes ces histoires Entre ceux qui se sont fait fumer au béton, j'disais à qui l'tour Maintenant c'est sur nous qu'on s'pose des questions Zebi, on a fait comme les grands J'te raconte pas tout au micro, déjà, qu'j'suis assez mé-cra Va leur demander de qué-cro, maintenant tous ils nous tté-gra Tu nous fait le trafiquant, t'as fait qu'des galipettes dans la bicrav Hassoul, faut des gros sous, des casses, gros À faire du sale, j'suis bon qu'à ça comme Pasqua Dans tout paname, tout les terrains, maisons d'arrêts Les 11 rappeurs à suivre, c'est moi l'bonvieu de l'année Ouais ouais ouais Eh khey reste concentré là Booska-P enculé Eh c'est c'est les 11 là La calle la calle 9.4 9.4 Voltaire Ivry La zone khey Ça rêve de ballon sous ballon Gros c'est toujours le plus fou qui tire J'men rappelle des crimes derrière Tati Ça vesqui Tintin si ça touché toi ça peut t'taper Vu que j'suis trop tricard j'tenvoi 2 timpes en dm J'écoute pas les On dit, tu sais c'que c'est 4 mecs cagoulés dans l'Audi ? J'ai passé ma jeunesse a bicrave la mort, t'en porte depuis p'tit khey on est maudit J'sais pas c'qui s'est passé j'ai fini dans l'passat Deuxième mi-temps j'venais d'entamer la cassette Dans l'bâtiment j'sais pas combien j'ai fais ti-par Détaillé sale, personne qui connait ma cachette Ça bosse dans les temps, tu connais j'cogite dans l'auto j'ai des tits-pe qui barbe des motos donc ils font 2 mi-temps Même dans ta ville y'a qu'des mythos Ils ont pas fait un plavon toute l'année ils nous font les méchants Enculé j'ai passé la nuit dans la tess j'ai vu trop d'brigade à pattes j'étais dans ma caisse Ça devait l'faire en bas d'chez lui, gros le seul trou dans la caisse que j'ai fait c'était pour un fer Garde à vue, dépôt j'ai relu ma dépos' Tu connais si j'suis broliqué j'fais la déco Si j'suis broliqué j'fais la déco j'te met le calibre dans la che-bou si tu déconnes Solo j'ai passé ma nuit dans ma caisse tu connais On fait les faits divers, toute la journée ça détaille d'la stup dans la tess Solo j'ai passé ma nuit dans ma caisse tu connais On fait les faits divers, toute la journée ça détaille d'la stup dans la tess Zépé', Béné, Booska Zépé', Béné, Booska-V, le ciel avec moi, j'suis boosté ouais J'peux drop tous les quarts d'heure Tsuki saga Trop croire en la paix c'est risqué J'suis pas dans l'film parce que dans l'film, le noir il meurt toujours en premier ay, c'est comment mon vieux ? C'est chaud dans l'bloc y a plus personne qui croit en nous ok Toujours le même scénario, si on perd, on sait comment refaire la maille J'ai fini mon rre-ve, j'en ressers un autre hmm C'est la casse intégrale, c'est pas Milano ouais J'ai cherché l'bonheur mais gros, y a pénurie C'est le son des maudits et des démunis ouais allô Tsuki c'est le cardio, le cardio pour le Prada pour le Prada Dans mes rêves y a au moins quinze traîtres qui brûlent à plusieurs dans l'grenier sale Toute ma vie j'suis dans un casse-tête, la chance pousse pas sous un pommier Toute l'année j'élabore, j'm'en suis cassé la voix ouais Soixante soleils, ça brille pareil et c'est une pute la juge T'as mis la cagoule pour une cagole, okay, okay J'ai parlé à l'ancien, il est pas bien, il dit qu'il lui faut un .9 qui troue les pare-balles Au loin de moi, les traîtres et les catins, je sais qu'ils rêvent de m'faire chez moi tous les matins hein J'ai la vision, la dalle et la patate, ils le savent bien que si ça pop, c'est pour longtemps La passion ça ramène pas à manger, négro, ils savent que j'le fais que pour les montants Ouais ouais Hey, Hey Depuis que jfais des euros sa mère jprends des los-ki Il fait chaud dans le four mais la zone est glaciale Les masques sont tombés bien avant le Covid, tous les fils de pute étaient à lhôpital Remontada cette année jvais tout graille, 11 titulaire jai fini sur la feuille Jsuis dans le bendo sa mère jravitaille, jai des clients fidèles comme le patron dApple Pas dsentiments pour les dames, jme dois déviter léchec Tout commence par faire la salat avant dvouloir sauver lespèce Le 11 de Booskap cest la Ligue 1, jfais parler dmoi comme Lionel Au comico jme suis plaint drien, comme si jétais bourré dla veille Tema le bruit du compet, tema le bruit dla bécane Elle est nerveuse comme un porc qui sest fait tromper par sa femme Quand jarrive jshoot dans le milli comme lalzheimer jfais des trous tas peur Té-téma le nombre de streams en ce moment ça bouge comme le cul dta soeur On a pleuré des proches, on a pleuré des amis Ils ont pleuré des meufs ces negros sont des fragiles comme la santé à Diaby Et le temps cest précieux, tema le bruit de la Audemars Ne fait pas le mafieux, ya la mouille de ta femme sur une autre barbe Wesh Enfoiré, 3.1.0. Quand j'étais p'tit j'voulais tenir le volant ouais, ouais J'laisse les p'tits tenir le volant J'en roule un, j'retire le collant fiuu À l'hôtel, elle retire le collant héhé Là où j'en suis j'peux pas te dire le comment, le pourquoi mais pourtant j'crois j'pourrais devenir violent J'ai d'la bonne, j'viens d'revenir de Hollande Y a les touristes qui vont bouffer à Anvers Y a des salauds qui vont goûter à l'enfer ola On a bicrave avant d'fumer ouais Conduit avant le permis on a tout fait à l'envers à l'envers 3.1.0, y a les gyros qui passent niooon Crame un bédo, y a les p'tits khos qui tracent ouais ouais Des anciens en chien au bistrot qui boivent Faut pas j'en dise trop y a les siste-gros qui brassent ouais Fais ton choix entre ange et démon fais ton choix La rue, elle a changé des noms waah C'est comme ça, on veut venger les nôtres On est v'nu, ils ont rangé les montres Tueur comme dans Léon Le temps est long comme dans le minibus J'suis sélectionné dans les onze dans les onze J'monte en puissance comme Vinicius Booska P, Wesh Enfoiré Produit est fort, j'suis quand même matinal Elle m'dit qu'elle est pas comme ça mais elle s'retourne au final Dans l'trap, du gaz de Cali j'inhale J'suis un peu marginal Plus d'retour si tu sors l'opinel Et après viens pas nier Me dire qu'c'était inopiné Hein, quand t'as une artère qui s'écoule plus qu'un robinet Dans le club ou le rooftop je rentre même si j'suis mal habillé Et j'me rends compte, j'suis loin des putes qui dmandent 3 tamiens pour piner Big kich' sors de la tirette Ta tête au sol, on shoot un six mètres J'suis clair j'vais pas ty dessiner Souvent j'ai finis quiller Tandis que mes ennemis décimés Dans l'trap soufrèrent jusqu'au matin Six heures passé plus d'sentiments J'enchaîne au stud de lundi à dimanche Franjo, nan c'était pas d'la chance Les 11 à suivre, les 11 de légende J'ai fait Booska P et j'ai vu l'il des gens J'suis dans les 11, peuvent pas m'voir quand j'fonce, j'fais rentrer même quand j'pionce, huh-huh C'est rempli d'monstres, dehors c'est rempli d'monstres Onze, kils dans ma poche droite, pareil dans la poche gauche Onze , kils dans ma poche droite, pareil dans la poche gauche Et j'suis comme Booska-P, il m'faut ma Angelica À chaque fois qu'tu drop, je ricane J'ai que d'l'essence dans l'jerrican J'peux pas attendre sagement qu'ils cannent, huh-huh On le smoke en balle Huh, huh, c'est des fans, c'est des stans Huh, fume sur le mien, t'as des hallu' Elle m'félicite mais elle sait pas comment j'm'allume C'est moi qui crache la vérité, le cash tombe, je me casse C'est moi qui crache la vérité, le cash tombe, je me casse Yeah, Booska-P, ça dit quoi ? J'suis La Fève, 11RappeursASuivre Laisse, on y va FREAKEY! Tu sais pour faire ce gouap j'ai des facilités Si tu veux faire du sale, viens me solliciter Tellement d'faux, je peux pas les citer Tellement d'faux, je peux pas les citer Instinct de crapule, il est pris dans la danse, il sort du ballon, il a récidivé Ça rap comme les anciens, avant j'étais en chien, maintenant la daronne vient me féliciter Une- une folie encore fini dans une babe, j'le connais lui, il peut vendre sa famille pour une Benz Petit, j'rêvais déjà d'aller vider la bank, kho j'crois qu'c'est mon boulot, dans le stu', fais des bang' Là je me ballade sur la côte, j'suis tranquille Les banquiers s'en vont, si j'pouvais, j'dirais Thanks 2021, on arrive comme un pro, 2021, on arrive comme un tank Appelle nous si tu veux du sale, du sale, appelle nous si tu veux goûter à mon produit Voiture allemande, ma le-gu' si je conduis, que des vérités, nous c'est pas les noms qu'on dit Tu sais pour faire ce gouap j'ai des facilités Si tu veux faire du sale, viens me solliciter Tellement d'faux, je peux pas les citer Tellement d'faux, je peux pas les citer Instinct de crapule, il est pris dans la danse, il sort du ballon, il a récidivé Ça rap comme les anciens, avant j'étais en chien, maintenant la daronne vient me féliciter Daronne vient me féliciter</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>La Fève, 7, Walone, tu connais déjà J'savais que j'allais pas finir avocat ou médecin Ou médecin J'suis avec Pizsunny place des Vosges, j'attends mon festin J'attends mon festin Un 7, un W Un W, sur mon testament Sur mon testament J'ai que du love pour eux, dis-moi pourquoi ils m'détestent, hein Yes J'suis dans ma zone, ma leu-gueu, rien nbouge Pour les bavards askip dans lbinks, ils donnent des bains de bouche J'suis rien qu'une âme en perte, qui zone, qui vole, qui rre Focus sur mes blessing, la pine c'est secondaire Si demain faut tout brûler tout prendre, c'est nous les volontaires J'me suis fait plais', j'ai leaké des sons et j'téma les commentaires Ils veulent de moi seulement quand j'vais dans leur sens Ils sont lazy, et quand ça s'corse, ils galopent comme des purs sangs J'serais mort si j'avais pas des big dreams, des mélos dans la tête Vrai loner en silence j'm'exprime, j'suis solo dans la fête J'me sens menacé, j'ai senti le red beam, la Cali me rend parano Habitué des VHR, j'arrive dans la ville, on m'a préparé deux Viano J'connais pas le psy comme Khali, j'ai que la mélo, la gue-dro quand j'suis down bad J'suis sur mon palier, j'ai vue sur la ville, j'sais que les tits-pe ils attendent mon comeback yes Ou médecin Là j'suis au Chick-Fil-A, j'attends mon festin Jlai fait mais ça n'a rien d'magique, c'était ma destinée Tu n'es pas un homme, t'as pas vu la guerre, toi tu sais que esquiver Là jme balade, escorté comme les cops Enchanté, big La Fève, nouveau roi d'Écosse J'suis casé, va là-bas, t'auras pas mes gosses Smoke sur ça, tu finis en détox let's go Seul le temps peut dire, seul Dieu peut juger Ils veulent tous le jus qu'j'ai, la trap que j'fais dans mon QG La Fève la fusée, mes idées fusent Eux et nous cest pas le même fuseau horaire donc veuillez m'excuser yes You might also like J'savais qu j'allais pas finir avocat ou médecin J'suis avec Pizsunny place des Vosges, j'attends mon festin Un 7, un W, sur mon testament On impose l'empire chinois, ils sont dans l'empire Ils sont dans l'empire, gros ils sont dans l'empire derrière frère Ils ont rien frère C'est des antiquités, on est au 21ème siècle frère</t>
+          <t>La Fève, 7, Walone, tu connais déjà J'savais que j'allais pas finir avocat ou médecin Ou médecin J'suis avec Pizsunny place des Vosges, j'attends mon festin J'attends mon festin Un 7, un W Un W, sur mon testament Sur mon testament J'ai que du love pour eux, dis-moi pourquoi ils m'détestent, hein Yes J'suis dans ma zone, ma leu-gueu, rien nbouge Pour les bavards askip dans lbinks, ils donnent des bains de bouche J'suis rien qu'une âme en perte, qui zone, qui vole, qui rre Focus sur mes blessing, la pine c'est secondaire Si demain faut tout brûler tout prendre, c'est nous les volontaires J'me suis fait plais', j'ai leaké des sons et j'téma les commentaires Ils veulent de moi seulement quand j'vais dans leur sens Ils sont lazy, et quand ça s'corse, ils galopent comme des purs sangs J'serais mort si j'avais pas des big dreams, des mélos dans la tête Vrai loner en silence j'm'exprime, j'suis solo dans la fête J'me sens menacé, j'ai senti le red beam, la Cali me rend parano Habitué des VHR, j'arrive dans la ville, on m'a préparé deux Viano J'connais pas le psy comme Khali, j'ai que la mélo, la gue-dro quand j'suis down bad J'suis sur mon palier, j'ai vue sur la ville, j'sais que les tits-pe ils attendent mon comeback yes Ou médecin Là j'suis au Chick-Fil-A, j'attends mon festin Jlai fait mais ça n'a rien d'magique, c'était ma destinée Tu n'es pas un homme, t'as pas vu la guerre, toi tu sais que esquiver Là jme balade, escorté comme les cops Enchanté, big La Fève, nouveau roi d'Écosse J'suis casé, va là-bas, t'auras pas mes gosses Smoke sur ça, tu finis en détox let's go Seul le temps peut dire, seul Dieu peut juger Ils veulent tous le jus qu'j'ai, la trap que j'fais dans mon QG La Fève la fusée, mes idées fusent Eux et nous cest pas le même fuseau horaire donc veuillez m'excuser yes J'savais qu j'allais pas finir avocat ou médecin J'suis avec Pizsunny place des Vosges, j'attends mon festin Un 7, un W, sur mon testament On impose l'empire chinois, ils sont dans l'empire Ils sont dans l'empire, gros ils sont dans l'empire derrière frère Ils ont rien frère C'est des antiquités, on est au 21ème siècle frère</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yeah, yeah, han L'espion peut distinguer ta silhouette dans la brume épaisse Mon frérot, rien n'change, y a qu'des occasions et le temps qui passe J'me souviens bien quand j'avais b'soin y'avait personne Seigneur, dis moi, pourquoi j'aime autant les belles sommes ? Sortir du tunnel, je l'espère J'ai quelques soucis mais bon, laisse frère J'me laisse guider par le métronome et la mélodi Poto, reste comme t's, les gens c'est des menteurs à c'que l'on dit Wesh La Fève ça dit quoi ? C'est comment ? C'est quoi les bails ? J'me souviens de lui en balle, c'est sur des insultes qu'on s'est dit bye J'regarde trop l'sol, je suis courbé comme un saule pleureur Faut faire le sourd, si le vice te parle, c'est un beau parleur Au moins l'cristal sur la chaîne de ma baby mama On s'est r'gardé, on a compris qu'on pensait la même Avec l'équipage on prépare le coup du siècle Y a que mes remords, y'a que mes regrets qui ont l'goût du sel Tant de peine, c'est un cauchemar C'est très alléchant, mais j'veux pas m'réveiller aux shtars J'me souviens bien, quand j'avais b'soin y'avait personne Seigneur, dis-moi, pourquoi j'aime autant les belles sommes ? You might also like Yeah, jeune you-v' dans la berline Rêve que de la belle vie Ça traîne les pieds à Belleville, yeah, han La Fève il a trop les crocs Faut m'faire, moi, j'ai mon négro Jeune spy comme un escroc, yeah, let's go P't'être qu'un jour ça finira, j'vois l'trésor, amiral J'suis là, j'attends un miracle, yeah, han P't'être qu'un jour ça finira On court derrière un mirage, mon malin il m'dit Ça ira Yeah, moi, j'suis un jeune donc j'ai d'la fougue, j'ai de l'ambition Faire un truc de cette énergie, j'y suis arrivé, c'était ma mission Mais mes pulsions, mes petites envies me mènent la vie dure J'ai trop d'espoir donc être déçu j'ai pris l'habitude Tant de peine, c'est un cauchemar C'est très alléchant, mais j'veux pas m'réveiller aux shtars J'me souviens bien, quand j'avais b'soin y'avait personne Seigneur, dis-moi, pourquoi j'aime autant les belles sommes ? Sortir du tunnel, je l'espère J'ai quelques soucis mais bon, laisse frère J'me laisse guider par le métronome et la mélodie Poto, reste comme t'es, les gens c'est des menteurs à c'que l'on dit Tant de peine, c'est un cauchemar Tant de peine, c'est un cauchemar1</t>
+          <t>Yeah, yeah, han L'espion peut distinguer ta silhouette dans la brume épaisse Mon frérot, rien n'change, y a qu'des occasions et le temps qui passe J'me souviens bien quand j'avais b'soin y'avait personne Seigneur, dis moi, pourquoi j'aime autant les belles sommes ? Sortir du tunnel, je l'espère J'ai quelques soucis mais bon, laisse frère J'me laisse guider par le métronome et la mélodi Poto, reste comme t's, les gens c'est des menteurs à c'que l'on dit Wesh La Fève ça dit quoi ? C'est comment ? C'est quoi les bails ? J'me souviens de lui en balle, c'est sur des insultes qu'on s'est dit bye J'regarde trop l'sol, je suis courbé comme un saule pleureur Faut faire le sourd, si le vice te parle, c'est un beau parleur Au moins l'cristal sur la chaîne de ma baby mama On s'est r'gardé, on a compris qu'on pensait la même Avec l'équipage on prépare le coup du siècle Y a que mes remords, y'a que mes regrets qui ont l'goût du sel Tant de peine, c'est un cauchemar C'est très alléchant, mais j'veux pas m'réveiller aux shtars J'me souviens bien, quand j'avais b'soin y'avait personne Seigneur, dis-moi, pourquoi j'aime autant les belles sommes ? Yeah, jeune you-v' dans la berline Rêve que de la belle vie Ça traîne les pieds à Belleville, yeah, han La Fève il a trop les crocs Faut m'faire, moi, j'ai mon négro Jeune spy comme un escroc, yeah, let's go P't'être qu'un jour ça finira, j'vois l'trésor, amiral J'suis là, j'attends un miracle, yeah, han P't'être qu'un jour ça finira On court derrière un mirage, mon malin il m'dit Ça ira Yeah, moi, j'suis un jeune donc j'ai d'la fougue, j'ai de l'ambition Faire un truc de cette énergie, j'y suis arrivé, c'était ma mission Mais mes pulsions, mes petites envies me mènent la vie dure J'ai trop d'espoir donc être déçu j'ai pris l'habitude Tant de peine, c'est un cauchemar C'est très alléchant, mais j'veux pas m'réveiller aux shtars J'me souviens bien, quand j'avais b'soin y'avait personne Seigneur, dis-moi, pourquoi j'aime autant les belles sommes ? Sortir du tunnel, je l'espère J'ai quelques soucis mais bon, laisse frère J'me laisse guider par le métronome et la mélodie Poto, reste comme t'es, les gens c'est des menteurs à c'que l'on dit Tant de peine, c'est un cauchemar Tant de peine, c'est un cauchemar1</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Louis, Louis, Louis, Louis J'm'appelle Ambroise Louis J'suis né j'avais d'jà d'l'ambition Bition Chez moi c'est bísó na bísó Bísó Mais jeune espion dans les buissons Ayeah Louis Louis, Louis Louis Comme le plus grand roi de France Tu chouf alors que j'te veux qu'du bien Bien Les hommes c'est des chiens quand j'y pense Han, han, han La Fève, plus grand jamais défait J'me sens pas très bien dans ta fête Ta fête J'ai mal dans l'cur J'parle aux gens dans ma tête Et ça faut qu'tu l'comprennes ma chérie Comprenne ma chérie J'fonce dans l'mur Depuis qu'j'ai l'âge de courir Depuis qu'j'sais qu'La Fève va mourir Au fond d'un manoir Les 'zin c'est la villa ou rien Pour mes loups, pour tous mes vauriens Yeah Faire des sons d'plouc, ça j'connais pas cette shit J'suis bien mais la poisse me chine Mais la poisse me chine Gros faire des passes j'm'en fiche, sur l'terrain la brise me givre Yeah la brise me gifle J'suis pas très bien où j'me trouve, c'est mon quotidien parfois j'sais plus si j'connais Si j'connais Y'a des ne-jeu comme moi qui s'connectent S'connectent Mais La Fève s'mélange pas tu connais Ayeah Toujours dans les coins reculés Anhan, avec des grands hommes que j'connais depuis v'la les piges Ayeah La Fève a la maitrise Veut finir sa vie en Afrique, pas en Amérique Si l'devoir m'appelle j'porte mes glaouis Glaouis D'ailleurs c'est c'que j'fais depuis tant d'années Un geush m'appelle veut d'la de-wee, j'lui dis 'zin j'ai pas parce que j'sais qu'il est condamné La Fève veut ouvrir des portes Des portes Tant de haine que je déborde Yeah Dans ma city j'suis content, même si quelques nuisibles veulent niquer mon décor Jeune espion a les codes Mais jeune espion à l'écart regarde les jolies filles Espion mais pas politique L'ancien m'a dit j'adore Fontenay mais c'est pas beau ici Anhan Qu'un jour il va s'tirer au soleil Anhan Comment tu veux l'croire eux c'est c'qu'ils disent tous Anhan La Fève c'est Clint Eastwood Anhan Jamais j'pourrais prendre les baffes que toutes ces bitches bouffent Dans mes cauchemars tout mes démons m'touchent avec leurs mains chelous gros j'peux même pas mi-dor Le soir j'me barre dans un p'tit monde louche, la déter' dont j'fais preuve laisse des marques sur mon corps Pas d'panique, l'temps est tranché Pas d'qualif' on les mange Mange, mange 'Vec Galsen', Noich' et Tan-g', des plavons y tranchent Des plavons y tranchent J'ai trop d'bleus sur mes cotés et y a trop d'bleus sur mes côtes Y a trop d'bleus sur mes côtes J'veux ma p'tite city je suis fou d'elle, pas d'blème même si y'a l'fouet Même si ici y'a des gars c'est un délire Pour ça qu'ça pé-pom pour toucher un bout Check moi d'l'épaule si tu graille dans ma bouffe Pour passer le temps, dans la ville fait des délits Jeune espion et la maille me fait frémir Et les à quatre dollars à quatre dollars La Fève part avec un handicap c'est comme partir en guerre avec quatre gros lards Avec quatre gros lards You might also like Louis, Louis, Louis, Louis...</t>
+          <t>Louis, Louis, Louis, Louis J'm'appelle Ambroise Louis J'suis né j'avais d'jà d'l'ambition Bition Chez moi c'est bísó na bísó Bísó Mais jeune espion dans les buissons Ayeah Louis Louis, Louis Louis Comme le plus grand roi de France Tu chouf alors que j'te veux qu'du bien Bien Les hommes c'est des chiens quand j'y pense Han, han, han La Fève, plus grand jamais défait J'me sens pas très bien dans ta fête Ta fête J'ai mal dans l'cur J'parle aux gens dans ma tête Et ça faut qu'tu l'comprennes ma chérie Comprenne ma chérie J'fonce dans l'mur Depuis qu'j'ai l'âge de courir Depuis qu'j'sais qu'La Fève va mourir Au fond d'un manoir Les 'zin c'est la villa ou rien Pour mes loups, pour tous mes vauriens Yeah Faire des sons d'plouc, ça j'connais pas cette shit J'suis bien mais la poisse me chine Mais la poisse me chine Gros faire des passes j'm'en fiche, sur l'terrain la brise me givre Yeah la brise me gifle J'suis pas très bien où j'me trouve, c'est mon quotidien parfois j'sais plus si j'connais Si j'connais Y'a des ne-jeu comme moi qui s'connectent S'connectent Mais La Fève s'mélange pas tu connais Ayeah Toujours dans les coins reculés Anhan, avec des grands hommes que j'connais depuis v'la les piges Ayeah La Fève a la maitrise Veut finir sa vie en Afrique, pas en Amérique Si l'devoir m'appelle j'porte mes glaouis Glaouis D'ailleurs c'est c'que j'fais depuis tant d'années Un geush m'appelle veut d'la de-wee, j'lui dis 'zin j'ai pas parce que j'sais qu'il est condamné La Fève veut ouvrir des portes Des portes Tant de haine que je déborde Yeah Dans ma city j'suis content, même si quelques nuisibles veulent niquer mon décor Jeune espion a les codes Mais jeune espion à l'écart regarde les jolies filles Espion mais pas politique L'ancien m'a dit j'adore Fontenay mais c'est pas beau ici Anhan Qu'un jour il va s'tirer au soleil Anhan Comment tu veux l'croire eux c'est c'qu'ils disent tous Anhan La Fève c'est Clint Eastwood Anhan Jamais j'pourrais prendre les baffes que toutes ces bitches bouffent Dans mes cauchemars tout mes démons m'touchent avec leurs mains chelous gros j'peux même pas mi-dor Le soir j'me barre dans un p'tit monde louche, la déter' dont j'fais preuve laisse des marques sur mon corps Pas d'panique, l'temps est tranché Pas d'qualif' on les mange Mange, mange 'Vec Galsen', Noich' et Tan-g', des plavons y tranchent Des plavons y tranchent J'ai trop d'bleus sur mes cotés et y a trop d'bleus sur mes côtes Y a trop d'bleus sur mes côtes J'veux ma p'tite city je suis fou d'elle, pas d'blème même si y'a l'fouet Même si ici y'a des gars c'est un délire Pour ça qu'ça pé-pom pour toucher un bout Check moi d'l'épaule si tu graille dans ma bouffe Pour passer le temps, dans la ville fait des délits Jeune espion et la maille me fait frémir Et les à quatre dollars à quatre dollars La Fève part avec un handicap c'est comme partir en guerre avec quatre gros lards Avec quatre gros lards Louis, Louis, Louis, Louis...</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bnadem khamej, sme3 Qui peut gêner la new géné' ? Ah-ah-ah-ah Oh-oh-oh-oh J'ai une sale vie, j'en perds la voix, j'protège les miens, j'évolue comme Gardevoir Et j'préfère être aveugle que d'voir, les frères emprisonnés toute l'année dans l'noir Solitaire comme si c'tait une vocation, mon cur comme mon corps ne sont qu'une location J'sais qu'l'être-humain a très peu d'compassion donc j'attends mon Dieu et j'crains sa convocation J'aime pas les sorciers, les invocations, c't'anné, ça pète, pète, détonation On m'a fait du mal mais j'relativis, ma part de malheur est une donation Ma part de malheur est une donation Han, han, han ma part de malheur est une donation La drogue, ça n'm'apaise même plus, combien d'fois j'me suis senti sans valu ? Un soir, chez moi, sous un clair de lune, tu peux t'faire schlasser, voir ton âme s'envoler Mama, dehors, c'est dur 3afak, ferme tes volets J'dois rendre à la communauté car quand j'étais p'tit, j'ai volé On veut tous voler de nos ailes malgré le poids inhumain de nos chaînes Et ça à cause d'la fierté dans nos gênes, l'enfer c'est nous, c'est l'ego qui nous gène Cette drôle de vie que l'on mène, on peut dire qu'on n'a pas tant d'chance Car j'ai fait deux mille kilomètres juste pour avoir une carrière en France Han, j'ai toujours rêvé d'voir ailleurs, han, han Cette année, j'ai fait trois adieux, han, han Et j'me dis qu'cette vie est précieuse Les graines de la haine qu'on a fait pousser sur le champ d'bataille Qui peut gêner la new géné' ? Géné' Ah-ah-ah-ah J'perds des cadets, j'perds des aînés, ma vie m'fait pas d'cadeaux Qui peut gêner la new géné' ? Géné' Ah-ah-ah-ah J'perds des cadets, j'perds des aînés car la vie n'fait pas d'cadeaux You might also like Okay, comme un tourbillon de gadjis, les dettes, les tes-traî, j'en deviens malade Où est ma loud ? T'as c'que j'avais hier et tu fais la mala errr J'ai pas capté c'que tu m'as dit, j'étais dans une pensée, j'me suis perdu dedans On est solo devant, baraude en hiver et j'tremble sur le deux temps yes, yes Faut qu'on s'embourgeoise et qu'on aille mettre nos noms sur la map Milli' et je me fais la malle la malle, backthen on a bouffé la mard Enfant imbécile, trop jeune, il bande sur de la marque Des ragots qui tournent sur oi-m, dis-moi, t'es mon reuf, pourquoi t'acquiesces quand tu les vois passer ? J'ai des gadjis sur l'tec mais j'me vois pas casé, avec le Z, il chante avec la voix cassée eh, eh Et si tu m'aimes écarte moi du mal Instinct plutot sauvage j'suis né j'étais mad On dirait faire du sale on est fait pour ça maleugueu Là, j'ai que des images dans ma tête Non faudrait qu'j'm'envole de la terre À c'qui paraît, t'es G mais bon qui latteste? À c'qui paraît, t'es G mais bon qui latteste? Han, j'ai toujours rêvé d'voir ailleurs, han, han Cette année, j'ai fait trois adieux, han, han Et j'me dis qu'cette vie est précieuse Les graines de la haine qu'on a fait pousser sur le champ d'bataille Qui peut gêner la new géné' ? Géné' Ah-ah-ah-ah J'perds des cadets, j'perds des aînés, ma vie m'fait pas d'cadeaux Qui peut gêner la new géné' ? Géné' Ah-ah-ah-ah J'perds des cadets, j'perds des aînés car la vie n'fait pas d'cadeaux2</t>
+          <t>Bnadem khamej, sme3 Qui peut gêner la new géné' ? Ah-ah-ah-ah Oh-oh-oh-oh J'ai une sale vie, j'en perds la voix, j'protège les miens, j'évolue comme Gardevoir Et j'préfère être aveugle que d'voir, les frères emprisonnés toute l'année dans l'noir Solitaire comme si c'tait une vocation, mon cur comme mon corps ne sont qu'une location J'sais qu'l'être-humain a très peu d'compassion donc j'attends mon Dieu et j'crains sa convocation J'aime pas les sorciers, les invocations, c't'anné, ça pète, pète, détonation On m'a fait du mal mais j'relativis, ma part de malheur est une donation Ma part de malheur est une donation Han, han, han ma part de malheur est une donation La drogue, ça n'm'apaise même plus, combien d'fois j'me suis senti sans valu ? Un soir, chez moi, sous un clair de lune, tu peux t'faire schlasser, voir ton âme s'envoler Mama, dehors, c'est dur 3afak, ferme tes volets J'dois rendre à la communauté car quand j'étais p'tit, j'ai volé On veut tous voler de nos ailes malgré le poids inhumain de nos chaînes Et ça à cause d'la fierté dans nos gênes, l'enfer c'est nous, c'est l'ego qui nous gène Cette drôle de vie que l'on mène, on peut dire qu'on n'a pas tant d'chance Car j'ai fait deux mille kilomètres juste pour avoir une carrière en France Han, j'ai toujours rêvé d'voir ailleurs, han, han Cette année, j'ai fait trois adieux, han, han Et j'me dis qu'cette vie est précieuse Les graines de la haine qu'on a fait pousser sur le champ d'bataille Qui peut gêner la new géné' ? Géné' Ah-ah-ah-ah J'perds des cadets, j'perds des aînés, ma vie m'fait pas d'cadeaux Qui peut gêner la new géné' ? Géné' Ah-ah-ah-ah J'perds des cadets, j'perds des aînés car la vie n'fait pas d'cadeaux Okay, comme un tourbillon de gadjis, les dettes, les tes-traî, j'en deviens malade Où est ma loud ? T'as c'que j'avais hier et tu fais la mala errr J'ai pas capté c'que tu m'as dit, j'étais dans une pensée, j'me suis perdu dedans On est solo devant, baraude en hiver et j'tremble sur le deux temps yes, yes Faut qu'on s'embourgeoise et qu'on aille mettre nos noms sur la map Milli' et je me fais la malle la malle, backthen on a bouffé la mard Enfant imbécile, trop jeune, il bande sur de la marque Des ragots qui tournent sur oi-m, dis-moi, t'es mon reuf, pourquoi t'acquiesces quand tu les vois passer ? J'ai des gadjis sur l'tec mais j'me vois pas casé, avec le Z, il chante avec la voix cassée eh, eh Et si tu m'aimes écarte moi du mal Instinct plutot sauvage j'suis né j'étais mad On dirait faire du sale on est fait pour ça maleugueu Là, j'ai que des images dans ma tête Non faudrait qu'j'm'envole de la terre À c'qui paraît, t'es G mais bon qui latteste? À c'qui paraît, t'es G mais bon qui latteste? Han, j'ai toujours rêvé d'voir ailleurs, han, han Cette année, j'ai fait trois adieux, han, han Et j'me dis qu'cette vie est précieuse Les graines de la haine qu'on a fait pousser sur le champ d'bataille Qui peut gêner la new géné' ? Géné' Ah-ah-ah-ah J'perds des cadets, j'perds des aînés, ma vie m'fait pas d'cadeaux Qui peut gêner la new géné' ? Géné' Ah-ah-ah-ah J'perds des cadets, j'perds des aînés car la vie n'fait pas d'cadeaux2</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FREAKEY! Yeah, yeah, yeah Yeah En passager dans la gova sportive Je regarde où je suis on est parti de R Ce négro m'a trahi j'le voyais comme un frère On a connu les gains on a connu les pertes et la misère est belle Comme les diamants sur le cou de ce bourge G j'porte mes klawis, pas d' Au secours ! S'dire les choses avant qunos liens se coupent Comme Tarik, Nabil, dans ma soucoupe C'st trop d'i'dées pour un seul veau-cr Trop dgens ouvrent leurs bouches sur c'qui les concerne pas Money trap shit c'est à quoi on sert Ça fait des années qu'on voit pas la light et Faut parier sur nous on t'as dit wallaye Un grand safari, la gadji fait la lionne Ce G m'a bafoué j'en parle dans ma line Et ma pensée je la transforme en phrase Un enfant qui smokait la frappe Je fais mon erreur et le karma me frappe Et comme un tourbillon je suis pris dans le trap day Toi t'es pas l'même qu'hier y'a comme un soucis Dans l'bad, jamais j'pensais au suicide Big La Fève dans lstudio j'me bousille J'me pète en lowkey en Andalousie Et pour se venger il fait chanter un Glock Et s'en va dans le sommeil à seven o'clock Petit frère on vit dans une putain d'époque Tout le temps en crapule il insulte le proc' Toi tu voulais mais j'ai pas baissé le froc J'ai cassé les portes Je négocie pas avec les porcs Mon cur il est mort Dans ma mélancolie j'me suis parlé tout seul Et la vie met des baffes avec de la douceur J'ai commencé la smoke et depuis je tousse Le second c'est celui qui n'ose pas te pousser ma le-gueu You might also like Yeah En passager dans la gova sportive Je regarde où je suis on est parti de R Ce négro m'a trahi j'le voyais comme un frère On a connu les gains on a connu les pertes et la misère est belle Comme les diamants sur le cou de ce bourge G j'porte mes klawis pas d' Au secours ! S'dire les choses avant qu'nos liens se coupent Comme Tarik, Nabil, dans ma soucoupe C'est trop d'idées pour un seul veau-cer Les gens ouvrent leurs bouches sur c'qui les concerne pas Money trap shit c'est à quoi on sert Money trap shit c'est à quoi on sert</t>
+          <t>FREAKEY! Yeah, yeah, yeah Yeah En passager dans la gova sportive Je regarde où je suis on est parti de R Ce négro m'a trahi j'le voyais comme un frère On a connu les gains on a connu les pertes et la misère est belle Comme les diamants sur le cou de ce bourge G j'porte mes klawis, pas d' Au secours ! S'dire les choses avant qunos liens se coupent Comme Tarik, Nabil, dans ma soucoupe C'st trop d'i'dées pour un seul veau-cr Trop dgens ouvrent leurs bouches sur c'qui les concerne pas Money trap shit c'est à quoi on sert Ça fait des années qu'on voit pas la light et Faut parier sur nous on t'as dit wallaye Un grand safari, la gadji fait la lionne Ce G m'a bafoué j'en parle dans ma line Et ma pensée je la transforme en phrase Un enfant qui smokait la frappe Je fais mon erreur et le karma me frappe Et comme un tourbillon je suis pris dans le trap day Toi t'es pas l'même qu'hier y'a comme un soucis Dans l'bad, jamais j'pensais au suicide Big La Fève dans lstudio j'me bousille J'me pète en lowkey en Andalousie Et pour se venger il fait chanter un Glock Et s'en va dans le sommeil à seven o'clock Petit frère on vit dans une putain d'époque Tout le temps en crapule il insulte le proc' Toi tu voulais mais j'ai pas baissé le froc J'ai cassé les portes Je négocie pas avec les porcs Mon cur il est mort Dans ma mélancolie j'me suis parlé tout seul Et la vie met des baffes avec de la douceur J'ai commencé la smoke et depuis je tousse Le second c'est celui qui n'ose pas te pousser ma le-gueu Yeah En passager dans la gova sportive Je regarde où je suis on est parti de R Ce négro m'a trahi j'le voyais comme un frère On a connu les gains on a connu les pertes et la misère est belle Comme les diamants sur le cou de ce bourge G j'porte mes klawis pas d' Au secours ! S'dire les choses avant qu'nos liens se coupent Comme Tarik, Nabil, dans ma soucoupe C'est trop d'idées pour un seul veau-cer Les gens ouvrent leurs bouches sur c'qui les concerne pas Money trap shit c'est à quoi on sert Money trap shit c'est à quoi on sert</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tarik, Lyele Gwapo, Mighty La prod elle est luxueuse donc jai sorti la chaîne Prada, Moncler T'sais, jparlais d'bijoux d'marque bien avant d'pouvoir en avoir Maintenant, j'me bats pour pas tout perdre, cest pire Jnique le monde et cquil contient, sous leau, javais besoin dsoutien Jvois rouge parce qu'il est hautain, quil mjuge à cause de mon teint Le diamant il pleure sur moi, sen fout si jai pas fait lENA Il maime quand même, miss univers danse sur moi Le diable me fait des sérénades, me dit Fais les tales Jsuis passé au stud', aujourdhui jétais pas en forme Ta bouche est active, faudrait qutu la fermes vite Toi tu mas dit que tétais un vrai G, pourquoi les bleus tu les informes ? On a fait nos GAV ensemble, on gravait nos blazes sur le banc Jai dû faire mes classes sur le champ Mais cest la vie, jy pense, jroule une canne sur les Champs berrr Lidiot il parle sur les gens, le sage apprend à comment les finesse Ok, il est chaud en finance mais La Fève il est maudit, fallait pas quil naisse Jmeurs, jfinis dans lGuiness, jles prends à la gorge comme mon doberman Cash money cest fini Pokémon, j'trap et jappuie où tas mal Très tôt la mère comptait sur moi Jai dû mettre mon cur dans un étau, jme dis qule love cest pas pour moi Où y a du pain, y a vlà les taupes, ma leu-gueu, même moi jtrouve cest bizarre Je viens de là, jconnais la danse des métaux et le chant des guitares Le doigt qui gèle dans le blizzard J'ai fait disque dor, jdormais sur le canap' de Dabla, au sommet jme sens à ma place Un condé me demande mes papelards, jdis Monsieur lagent, jpense Bâtard Il pose des questions sur la marque, jlui dis Tas pas les épaules pour ça, jai donné ma vie pour ça moi Toi tu ttouches les couilles comme un clochard, abruti Cette chienne de vie mengloutit J'suis matrixé, là jsuis passé des tranchées à faire les boutiques Son collier de perles méblouit, elle me kiffe, elle mappelle Louis J'suis toujours dans lboucan, dans le tiekson, quand jpeux, jévite le bruit Jmarchais dans la tempête avec mon jnoun à la recherche dune putain dflamme On nous a trop endormi avec maintenant jcrois plus en tes putains dfables Jparle beaucoup dvice jme demande souvent pourquoi le malin a plus dun fan Jsuis trop instable pour ça que jsuis mauvais quand il sagit dtout te dire You might also like Jsuis passé au stud', aujourdhui jétais pas en forme Ta bouche est active, faudrait qutu la fermes vite Toi tu mas dit que tétais un vrai G, pourquoi les bleus tu les informes ? On a fait nos GAV ensemble, on gravait nos blazes sur le banc Jai du faire mes classes sur le champ Mais cest la vie, jy pense, jroule une canne sur les Champs</t>
+          <t>Tarik, Lyele Gwapo, Mighty La prod elle est luxueuse donc jai sorti la chaîne Prada, Moncler T'sais, jparlais d'bijoux d'marque bien avant d'pouvoir en avoir Maintenant, j'me bats pour pas tout perdre, cest pire Jnique le monde et cquil contient, sous leau, javais besoin dsoutien Jvois rouge parce qu'il est hautain, quil mjuge à cause de mon teint Le diamant il pleure sur moi, sen fout si jai pas fait lENA Il maime quand même, miss univers danse sur moi Le diable me fait des sérénades, me dit Fais les tales Jsuis passé au stud', aujourdhui jétais pas en forme Ta bouche est active, faudrait qutu la fermes vite Toi tu mas dit que tétais un vrai G, pourquoi les bleus tu les informes ? On a fait nos GAV ensemble, on gravait nos blazes sur le banc Jai dû faire mes classes sur le champ Mais cest la vie, jy pense, jroule une canne sur les Champs berrr Lidiot il parle sur les gens, le sage apprend à comment les finesse Ok, il est chaud en finance mais La Fève il est maudit, fallait pas quil naisse Jmeurs, jfinis dans lGuiness, jles prends à la gorge comme mon doberman Cash money cest fini Pokémon, j'trap et jappuie où tas mal Très tôt la mère comptait sur moi Jai dû mettre mon cur dans un étau, jme dis qule love cest pas pour moi Où y a du pain, y a vlà les taupes, ma leu-gueu, même moi jtrouve cest bizarre Je viens de là, jconnais la danse des métaux et le chant des guitares Le doigt qui gèle dans le blizzard J'ai fait disque dor, jdormais sur le canap' de Dabla, au sommet jme sens à ma place Un condé me demande mes papelards, jdis Monsieur lagent, jpense Bâtard Il pose des questions sur la marque, jlui dis Tas pas les épaules pour ça, jai donné ma vie pour ça moi Toi tu ttouches les couilles comme un clochard, abruti Cette chienne de vie mengloutit J'suis matrixé, là jsuis passé des tranchées à faire les boutiques Son collier de perles méblouit, elle me kiffe, elle mappelle Louis J'suis toujours dans lboucan, dans le tiekson, quand jpeux, jévite le bruit Jmarchais dans la tempête avec mon jnoun à la recherche dune putain dflamme On nous a trop endormi avec maintenant jcrois plus en tes putains dfables Jparle beaucoup dvice jme demande souvent pourquoi le malin a plus dun fan Jsuis trop instable pour ça que jsuis mauvais quand il sagit dtout te dire Jsuis passé au stud', aujourdhui jétais pas en forme Ta bouche est active, faudrait qutu la fermes vite Toi tu mas dit que tétais un vrai G, pourquoi les bleus tu les informes ? On a fait nos GAV ensemble, on gravait nos blazes sur le banc Jai du faire mes classes sur le champ Mais cest la vie, jy pense, jroule une canne sur les Champs</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sur ma vie je dois me concentrer Vue sur la mer je dois contempler Devine c'est qui à la passe dé ? Qu'est-ce qui pourra me rassasier ? Des mélodies sur des paragraphes Je fais ça comme abracadabra Sur ma vie je dois me concentrer Vue sur la mer je dois contempler Je fais du salass c'est non-stop Elle le sait bien, elle veut qujrtire son crop top J'me dis minquietr c'est pas la peine Tu dis des choses mais j'y crois à peine Mon G il faut faire les bons choix Même si t'as l'âme noire comme ce bon-char Époque Zoxea contre Dontcha Si tes mon srab tu prends un croc, I gotcha G j'ai la te-tê dans un brouillard Comment veux-tu que j'y vois clair ? G au début j'voulais pas plaire Mais d'l'argent y'a eu un appel Comment veux-tu que j'y vois clair ? G au début j'voulais pas plaire Mais d'l'argent y'a eu un appel You might also like Sur ma vie je dois me concentrer Vue sur la mer je dois contempler Devine c'est qui à la passe dé ? Qu'est-ce qui pourra me rassasier ? Des mélodies sur des paragraphes Je fais ça comme abracadabra Sur ma vie je dois me concentrer Vue sur la mer je dois contempler Ma le-gueu j'ai fait des kms J'ai peur que du karma et de son barème Toi et l'autre serpent c'est pareil J'disais j'voulais faire ça tu te marrais D1gri fait parler la guitare Et je me cale sur les mots L'action ça vaut pas les mots No cap je mens pas dans mes mots G faire du sale c'est nécessaire Tu veux jouer tu crois que j'vais m'laisser faire Tu sais mon g j'crois pas au hasard Je suis né j'étais déjà poissard J'ai compris un truc j't'ai pas dit Tu sais Laf il veut une baddie Je m'demandais Est-ce que j'suis maudit ? Je m'demandais Est-ce que j'suis maudit ? G j'ai la te-tê dans un brouillard Comment veux-tu que j'y vois clair ? G au début j'voulais pas plaire Mais d'l'argent y'a eu un appel Comment veux-tu que j'y vois clair ? G au début j'voulais pas plaire Mais d'l'argent y'a eu un appel Sur ma vie je dois me concentrer Vue sur la mer je dois contempler Devine c'est qui à la passe dé ? Qu'est-ce qui pourra me rassasier ? Des mélodies sur des paragraphes Je fais ça comme abracadabra Sur ma vie je dois me concentrer Vue sur la mer je dois contempler</t>
+          <t>Sur ma vie je dois me concentrer Vue sur la mer je dois contempler Devine c'est qui à la passe dé ? Qu'est-ce qui pourra me rassasier ? Des mélodies sur des paragraphes Je fais ça comme abracadabra Sur ma vie je dois me concentrer Vue sur la mer je dois contempler Je fais du salass c'est non-stop Elle le sait bien, elle veut qujrtire son crop top J'me dis minquietr c'est pas la peine Tu dis des choses mais j'y crois à peine Mon G il faut faire les bons choix Même si t'as l'âme noire comme ce bon-char Époque Zoxea contre Dontcha Si tes mon srab tu prends un croc, I gotcha G j'ai la te-tê dans un brouillard Comment veux-tu que j'y vois clair ? G au début j'voulais pas plaire Mais d'l'argent y'a eu un appel Comment veux-tu que j'y vois clair ? G au début j'voulais pas plaire Mais d'l'argent y'a eu un appel Sur ma vie je dois me concentrer Vue sur la mer je dois contempler Devine c'est qui à la passe dé ? Qu'est-ce qui pourra me rassasier ? Des mélodies sur des paragraphes Je fais ça comme abracadabra Sur ma vie je dois me concentrer Vue sur la mer je dois contempler Ma le-gueu j'ai fait des kms J'ai peur que du karma et de son barème Toi et l'autre serpent c'est pareil J'disais j'voulais faire ça tu te marrais D1gri fait parler la guitare Et je me cale sur les mots L'action ça vaut pas les mots No cap je mens pas dans mes mots G faire du sale c'est nécessaire Tu veux jouer tu crois que j'vais m'laisser faire Tu sais mon g j'crois pas au hasard Je suis né j'étais déjà poissard J'ai compris un truc j't'ai pas dit Tu sais Laf il veut une baddie Je m'demandais Est-ce que j'suis maudit ? Je m'demandais Est-ce que j'suis maudit ? G j'ai la te-tê dans un brouillard Comment veux-tu que j'y vois clair ? G au début j'voulais pas plaire Mais d'l'argent y'a eu un appel Comment veux-tu que j'y vois clair ? G au début j'voulais pas plaire Mais d'l'argent y'a eu un appel Sur ma vie je dois me concentrer Vue sur la mer je dois contempler Devine c'est qui à la passe dé ? Qu'est-ce qui pourra me rassasier ? Des mélodies sur des paragraphes Je fais ça comme abracadabra Sur ma vie je dois me concentrer Vue sur la mer je dois contempler</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ERRR 2.0.2.1, j'suis le même, ce jeune avec de l'or dans les mains ERRR Ce jeune avec de l'or dans les mains, ce jeune avec de l'or dans les mains ERRR 2.0.2.1, j'suis le même Même, ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains, ce jeune avec de l'or dans les mains ERRR Des rêves enfouis finissent noyés Des rêves enfouis finissent noyés, pourquoi ce G m'a tutoyé ? Pourquoi ce G m'a tutoyé ? Je voulais toucher c'que je voyais ERRR, j'ai que mes canines pour aboyer ERRR La musique, elle est splendide, j'crois l'émotion qu'ça m'donne, ça m'a sauvé la vie Sauvé la vie Des années, j'suis dans ma science, ma le-gueu, et toi t'as cru qu'j'voulais ton avis Yeah, yeah Tu sais, j'suis focus sur mon radar donc c'est compliqué les nouvelles relations Relations J'fais du cash de toutes les façons, nous sommes déçus, nos souvenirs nous effaçons Les journées s'ressemblent comme des gouttes d'eau, je médite et je m'aiguise comme le couteau Cette bactérie, j'ai l'anticorps, rien n'a changé, j'suis toujours cet anti-cop Rah La chance, elle court comme une antilope, ce traître galope comme un pur sang arabe Rah Y avait plus rien, même pas du rabe, ma mère a confiance, ma musique est durable Durable ERRR, les biens faits qu'le ciel m'apporta Apporta, tu m'veux ? Propose un prix abordable ERRR J'suis maudit, j'réponds pas sur le portable 2.0.2.1, j'suis le même Même, ce jeune avec de l'or dans les mains ERRR Ce jeune avec de l'or dans les mains Yeah, ce jeune avec de l'or dans les mains ERRR 2.0.2.1, j'suis le même Même, ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Yeah, ce jeune avec de l'or dans les mains Yeah, ERRR You might also like Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Yeah, ERRR Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Yeah, ERRR</t>
+          <t>ERRR 2.0.2.1, j'suis le même, ce jeune avec de l'or dans les mains ERRR Ce jeune avec de l'or dans les mains, ce jeune avec de l'or dans les mains ERRR 2.0.2.1, j'suis le même Même, ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains, ce jeune avec de l'or dans les mains ERRR Des rêves enfouis finissent noyés Des rêves enfouis finissent noyés, pourquoi ce G m'a tutoyé ? Pourquoi ce G m'a tutoyé ? Je voulais toucher c'que je voyais ERRR, j'ai que mes canines pour aboyer ERRR La musique, elle est splendide, j'crois l'émotion qu'ça m'donne, ça m'a sauvé la vie Sauvé la vie Des années, j'suis dans ma science, ma le-gueu, et toi t'as cru qu'j'voulais ton avis Yeah, yeah Tu sais, j'suis focus sur mon radar donc c'est compliqué les nouvelles relations Relations J'fais du cash de toutes les façons, nous sommes déçus, nos souvenirs nous effaçons Les journées s'ressemblent comme des gouttes d'eau, je médite et je m'aiguise comme le couteau Cette bactérie, j'ai l'anticorps, rien n'a changé, j'suis toujours cet anti-cop Rah La chance, elle court comme une antilope, ce traître galope comme un pur sang arabe Rah Y avait plus rien, même pas du rabe, ma mère a confiance, ma musique est durable Durable ERRR, les biens faits qu'le ciel m'apporta Apporta, tu m'veux ? Propose un prix abordable ERRR J'suis maudit, j'réponds pas sur le portable 2.0.2.1, j'suis le même Même, ce jeune avec de l'or dans les mains ERRR Ce jeune avec de l'or dans les mains Yeah, ce jeune avec de l'or dans les mains ERRR 2.0.2.1, j'suis le même Même, ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Yeah, ce jeune avec de l'or dans les mains Yeah, ERRR Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Yeah, ERRR Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Ce jeune avec de l'or dans les mains Yeah, ERRR</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mon histoire est belle, j'ai fait beaucoup avec peu sans jamais fuck avec eux Ici, faut les , pour là bas faut les Le monde part en couilles, t'es perdu, on est deux, les temps changent Ils t'aident, ils attendent quelque chose en échange Parti de rien, j'savais même pas ter-chan Je regrette d'avoir pensé qu'c'était mieux ailleurs Petit, apprnds à jamais jalouser les gens J'ai fait l tour de la Terre, c'est comme si tous les chemins mènent à Fontenay-sous-Bois Rien a changé, j'bataille tous les jours avec lahuiss, tu sais bien qu'le Sheitan est sournois J'peux acheter ta life avec c'que j'ai sur moi Tu veux tester La Fève, est-c'que t'es sûr de toi ? Plus tard, j'me vois bien dans un mansion au calme avec ma femme et deux, trois shooters sur le toit Zaytoven J'ai fait trop d'sacrifice pour cette merde Merde, la musique m'a tout pris, j'ai tout donné J'pense qu'au bif et j'me vois pas grandir, j'me voyais bien construire un empire Ramener une sonorité en France Tout le monde change, j'ai peu d'amis d'enfance J'suis pas surpris, jsuis mieux sans de toute façon donc passons Maintenant j'ai l'cur froid comme un glaçon Le game, j'voulais juste le baiser, le baiser pour qu'tous ces bâtards se souviennent J'ai secure des baddies dans les quatre coins du monde, j'crois qu'elles attendent toujours que j'revienne J'suis ressorti d'chez lui les mains salies, avec une liasse et sa boite de diamond ring La plupart cest que les mots et pas les actes jai mit les gants pourquoi y a que moi sur le ring ? L'industrie j'vois ça comme une sonnerie Ils ont du flow mais disent des conneries J'voulais juste me faire connaitre dans ma ville, maintenant ça m'connait dATL à Montgomery J'me suis fait discret, ça vaut mieux, parce que les gens portent l'il sans même le savoir J'ai pris mon temps, j'ai agrandi mon savoir Pendant qu'tu bandes sur l'bif que tu pourrais avoir Quatre ans d'carrière, j'guette pas derrière, j'fonce tout droit, je m'arrête jamais J'ai continué malgré toutes les barrières, j'faisais pas gaffe aux sommes que j'avais Quatre ans d'carrière, j'guette pas derrière, j'fonce tout droit, je m'arrête jamais J'ai continué malgré toutes les barrières, j'faisais pas gaffe aux sommes que j'avais, yesYou might also like</t>
+          <t>Mon histoire est belle, j'ai fait beaucoup avec peu sans jamais fuck avec eux Ici, faut les , pour là bas faut les Le monde part en couilles, t'es perdu, on est deux, les temps changent Ils t'aident, ils attendent quelque chose en échange Parti de rien, j'savais même pas ter-chan Je regrette d'avoir pensé qu'c'était mieux ailleurs Petit, apprnds à jamais jalouser les gens J'ai fait l tour de la Terre, c'est comme si tous les chemins mènent à Fontenay-sous-Bois Rien a changé, j'bataille tous les jours avec lahuiss, tu sais bien qu'le Sheitan est sournois J'peux acheter ta life avec c'que j'ai sur moi Tu veux tester La Fève, est-c'que t'es sûr de toi ? Plus tard, j'me vois bien dans un mansion au calme avec ma femme et deux, trois shooters sur le toit Zaytoven J'ai fait trop d'sacrifice pour cette merde Merde, la musique m'a tout pris, j'ai tout donné J'pense qu'au bif et j'me vois pas grandir, j'me voyais bien construire un empire Ramener une sonorité en France Tout le monde change, j'ai peu d'amis d'enfance J'suis pas surpris, jsuis mieux sans de toute façon donc passons Maintenant j'ai l'cur froid comme un glaçon Le game, j'voulais juste le baiser, le baiser pour qu'tous ces bâtards se souviennent J'ai secure des baddies dans les quatre coins du monde, j'crois qu'elles attendent toujours que j'revienne J'suis ressorti d'chez lui les mains salies, avec une liasse et sa boite de diamond ring La plupart cest que les mots et pas les actes jai mit les gants pourquoi y a que moi sur le ring ? L'industrie j'vois ça comme une sonnerie Ils ont du flow mais disent des conneries J'voulais juste me faire connaitre dans ma ville, maintenant ça m'connait dATL à Montgomery J'me suis fait discret, ça vaut mieux, parce que les gens portent l'il sans même le savoir J'ai pris mon temps, j'ai agrandi mon savoir Pendant qu'tu bandes sur l'bif que tu pourrais avoir Quatre ans d'carrière, j'guette pas derrière, j'fonce tout droit, je m'arrête jamais J'ai continué malgré toutes les barrières, j'faisais pas gaffe aux sommes que j'avais Quatre ans d'carrière, j'guette pas derrière, j'fonce tout droit, je m'arrête jamais J'ai continué malgré toutes les barrières, j'faisais pas gaffe aux sommes que j'avais, yes</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tout l'temps dans les ruelles La Fève il tépate Chérie je suis cruel donc traine pas trop dans mes pattes Poto d'l'amertume Tu peux en capter dans mes textes La Fève il a trop zoné fréro cest tout c'que la mif déteste Faut une berline noire, Mercedes Benz coupé gros J'peux même pas compter tous les liens qu'on a coupé gros Poto y'a pire que moi, mais la misère on connait ses habitudes Si tu m'cherches tu peux, me voir dans l'stud' augmenter mes aptitudes Ca sent lsapin, jt'ai vu nous chouf donc serre pas la pince On cours tous derrière ce cash mon frère mais derrière seul le diable se cache Je parle de vice dans mes textes parce que cest l'ennemi qu'on a en commun T'as dit quon était des frères pourquoi tu ignores quand je tend la main C'est l'autre qui avait raison J'vois ciel à l'horizon On rentre dans la soirée frère et l'atmosphère change dans la maison Mêmes soucis, les mêmes saisons Pour être efficace j'fais le nécessaire Jeune qui fait l'dramaturge, je suis né le même jour qu'Aimé Césaire Tu t'souviens d'nous ? P'tit seum depuis qu'on est né J'te parle comme si j'étais l'ainé La concurrence c'est le néant gros Moi j'ai pas d'amour Pour ceux qui jugent, ceux qui parlent Trop d'serpents comme au Népal Quand tu nous cherches on est pas là gros Tu t'souviens d'nous ? P'tit seum depuis qu'on est né J'te parle comme si j'étais l'ainé La concurrence c'est le néant gros Moi j'ai pas d'amour Pour ceux qui jugent, ceux qui parlent Trop d'serpents comme au Népal Quand tu nous cherches on est pas là grosYou might also like</t>
+          <t>Tout l'temps dans les ruelles La Fève il tépate Chérie je suis cruel donc traine pas trop dans mes pattes Poto d'l'amertume Tu peux en capter dans mes textes La Fève il a trop zoné fréro cest tout c'que la mif déteste Faut une berline noire, Mercedes Benz coupé gros J'peux même pas compter tous les liens qu'on a coupé gros Poto y'a pire que moi, mais la misère on connait ses habitudes Si tu m'cherches tu peux, me voir dans l'stud' augmenter mes aptitudes Ca sent lsapin, jt'ai vu nous chouf donc serre pas la pince On cours tous derrière ce cash mon frère mais derrière seul le diable se cache Je parle de vice dans mes textes parce que cest l'ennemi qu'on a en commun T'as dit quon était des frères pourquoi tu ignores quand je tend la main C'est l'autre qui avait raison J'vois ciel à l'horizon On rentre dans la soirée frère et l'atmosphère change dans la maison Mêmes soucis, les mêmes saisons Pour être efficace j'fais le nécessaire Jeune qui fait l'dramaturge, je suis né le même jour qu'Aimé Césaire Tu t'souviens d'nous ? P'tit seum depuis qu'on est né J'te parle comme si j'étais l'ainé La concurrence c'est le néant gros Moi j'ai pas d'amour Pour ceux qui jugent, ceux qui parlent Trop d'serpents comme au Népal Quand tu nous cherches on est pas là gros Tu t'souviens d'nous ? P'tit seum depuis qu'on est né J'te parle comme si j'étais l'ainé La concurrence c'est le néant gros Moi j'ai pas d'amour Pour ceux qui jugent, ceux qui parlent Trop d'serpents comme au Népal Quand tu nous cherches on est pas là gros</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gros cerveau sait toujours calculer mes actions Ce p'tit sait qu'pour faire du biff on a plusieurs façons J'te fais la leçon, mauvais garçon, ma le-gue j'ai deux bras sur le lieu et ils font des rotations Errr Un il ici, un il là bas, l'plus important c'est celui de derrière Parti d'un souterrain, là en zone aérienne Maintenant ça nous connait de L.A. à Ozoir-La-Ferrière Tu veux la vie de pacha ? Nashave Maintenant j'fais plus trop belek à mes achats Ma le-gueu, j'sais qu'tu l'as capté, t'attends mon cash-out Archeum, n public j'nettoie pas mon linge sal, ma le-gueu J'avais pas la Predator, le maillot floqué, à ze-lai je sais les choquer Petit con, à nous pourquoi tu veux te frotter, si j'te bois tu seras juste un hoquet Ok, ok, j'rentre sans toquer, j'suis là pour péta tout l'argent stocké J'parle pas aux pétasses, j'suis là pour les talles, pas faire des storys avec des gens côtés Y'a des trucs comme ça qui sont grotesques, j'ai un tas d'énergie qu'il faut que j'protège Fuck boy, essaye d'm'empêcher d'monter, tu finis dans l'coma la durée d'une grossesse Yeah, j'suis sur la bonne voie j'crois qu'j'ai pas besoin d'douter du process Yeah, pas vu, pas pris, pas d'baveux, pas besoin d'se préparer pour l'procès Yeah, ça m'souhaite plein d'choses différentes, depuis la sortie du projet j'étais un problème J'ai fait des progrès, j'cours après l'gros bag, yeah You might also like Laisse J'recompte, j'crois mes doigts ils ont des cicatrices Bon, dans l'rap, c'est froid, y'a des p'tites actrices Mais nous on reste loin d'Hollywood, même si J'veux bien qu'Halle Berry m'fasse une p'tite gâterie ERRR On arrive, tu sais déjà J'ai une brand new Salomon, parle pas d'Veja On a les skills, si t'es prenable on a les jabs Tout devant teubé t'as cru c'était le hasard ? Pas footeux mais j'ai cavalé devant les brassards Quand on était ti-peu c'était l'bazar Faire des trucs chelous, moi j'connais pas ça Dès qu'y'a La Fève et Platinum faut céder l'passage Moi j'avais rien, collégien, j'faisais mes armes Là c'est poulet frit coréen, graines de sésame Levé à six heures grave seumé, j'connaissais ça mais Ils vont jamais m'apprivoiser comme César J'connais la dope, l'intérim, j'connais l'que-smi Mon négro, si tu veux mailler faut être deuspi T'es sûr que ça rentre moi dès que j'tire J'roule des battes en aluminium pas des ke-sti</t>
+          <t>Gros cerveau sait toujours calculer mes actions Ce p'tit sait qu'pour faire du biff on a plusieurs façons J'te fais la leçon, mauvais garçon, ma le-gue j'ai deux bras sur le lieu et ils font des rotations Errr Un il ici, un il là bas, l'plus important c'est celui de derrière Parti d'un souterrain, là en zone aérienne Maintenant ça nous connait de L.A. à Ozoir-La-Ferrière Tu veux la vie de pacha ? Nashave Maintenant j'fais plus trop belek à mes achats Ma le-gueu, j'sais qu'tu l'as capté, t'attends mon cash-out Archeum, n public j'nettoie pas mon linge sal, ma le-gueu J'avais pas la Predator, le maillot floqué, à ze-lai je sais les choquer Petit con, à nous pourquoi tu veux te frotter, si j'te bois tu seras juste un hoquet Ok, ok, j'rentre sans toquer, j'suis là pour péta tout l'argent stocké J'parle pas aux pétasses, j'suis là pour les talles, pas faire des storys avec des gens côtés Y'a des trucs comme ça qui sont grotesques, j'ai un tas d'énergie qu'il faut que j'protège Fuck boy, essaye d'm'empêcher d'monter, tu finis dans l'coma la durée d'une grossesse Yeah, j'suis sur la bonne voie j'crois qu'j'ai pas besoin d'douter du process Yeah, pas vu, pas pris, pas d'baveux, pas besoin d'se préparer pour l'procès Yeah, ça m'souhaite plein d'choses différentes, depuis la sortie du projet j'étais un problème J'ai fait des progrès, j'cours après l'gros bag, yeah Laisse J'recompte, j'crois mes doigts ils ont des cicatrices Bon, dans l'rap, c'est froid, y'a des p'tites actrices Mais nous on reste loin d'Hollywood, même si J'veux bien qu'Halle Berry m'fasse une p'tite gâterie ERRR On arrive, tu sais déjà J'ai une brand new Salomon, parle pas d'Veja On a les skills, si t'es prenable on a les jabs Tout devant teubé t'as cru c'était le hasard ? Pas footeux mais j'ai cavalé devant les brassards Quand on était ti-peu c'était l'bazar Faire des trucs chelous, moi j'connais pas ça Dès qu'y'a La Fève et Platinum faut céder l'passage Moi j'avais rien, collégien, j'faisais mes armes Là c'est poulet frit coréen, graines de sésame Levé à six heures grave seumé, j'connaissais ça mais Ils vont jamais m'apprivoiser comme César J'connais la dope, l'intérim, j'connais l'que-smi Mon négro, si tu veux mailler faut être deuspi T'es sûr que ça rentre moi dès que j'tire J'roule des battes en aluminium pas des ke-sti</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Han Han, yeah, yeah, yeah Encore dehors, j'suis navré Navré, j'donne pas l'exemple aux neveux Neveux Le temps passe, j'fais mon trajet Trajet, malgré moi, j'fais des envieux Envieux J'ai pas fini de trapper Trapper, j'ai pas fini de trapper Y a trop de teubés dans c'game, j'ai pas fini d'les taper Taper L'inspi' ne vient pas d'ici D'ici, t'as vu une silhouette et ma chaîne avant qu'la brume se dissip Dissipe Un vrai OG anticipe Yeah, linstru pu le rat, les égouts, la plupart d'mes phases les dégoutent Pas doué dans l'propre et laide Errr, j'suis plus dans le sale, la débrouille Le sang m'a décale une p'tite croquette, j'pars et j'mets la beuh dans un p'tit sopalin J'suis avec Styco, j'prends son portefeuille il a trop fait le malin J'connais pas ta main même si elle a dû m'faire deux-trois câlins Deux-trois calins Berrr, j'dors dans une présidentielle, j'ai vu un signe dans l'ciel Trois dollars dans les nuages Dans les nuages Pour faire comme eux, je n'ai plus l'âge nan J'm'envole, le vent d'Espagne caresse mon plumage Caresse mon plumage Et j'parle à la lune quand elle est plus là J'commence, j'termine le boulot Elle croit qu'la 'stache vient du Mexique, elle m'appelle Papi Chulo Papi Chulo J'me souviens plus d'mes exs ops, j'crois qu'je suis né au studio La Fève connait son judo Judo J'crois j'ai la haine comme sur de cur, j'crois qu'j'ai Juda comme jumeau berrr Ça fait des années, que dis-je, des siècles, que La Fève n'a pas graille un bon repas Le cercle, il est fermé, mon frère, je le sais donc si c'est pas Fakri, je n'ouvre pas Une hoe reste une hoe, non jpeux pas changer les gens, continue d'écarter les jambes La nuit j'fais des rêves où j'vois La Fève en légende, où j'vois La Fève en légende You might also like Encore dehors, j'suis navré, j'donne pas l'exemple aux neveux Le temps passe, j'fais mon trajet Trajet, malgré moi, j'fais des envieux Envieux J'ai pas fini de trapper Trapper, j'ai pas fini de trapper Y a trop de teubés dans c'game, j'ai pas fini d'les taper Taper L'inspi' ne vient pas d'ici D'ici, t'as vu une silhouette et ma chaîne avant qu'la brume se dissipe Dissipe Un vrai OG anticipe Yeah, linstru pue le rat, les égouts, la plupart d'mes phases les dégoutent Pas doué dans l'propre et laide Errr, j'suis plus dans le sale, la débrouille</t>
+          <t>Han Han, yeah, yeah, yeah Encore dehors, j'suis navré Navré, j'donne pas l'exemple aux neveux Neveux Le temps passe, j'fais mon trajet Trajet, malgré moi, j'fais des envieux Envieux J'ai pas fini de trapper Trapper, j'ai pas fini de trapper Y a trop de teubés dans c'game, j'ai pas fini d'les taper Taper L'inspi' ne vient pas d'ici D'ici, t'as vu une silhouette et ma chaîne avant qu'la brume se dissip Dissipe Un vrai OG anticipe Yeah, linstru pu le rat, les égouts, la plupart d'mes phases les dégoutent Pas doué dans l'propre et laide Errr, j'suis plus dans le sale, la débrouille Le sang m'a décale une p'tite croquette, j'pars et j'mets la beuh dans un p'tit sopalin J'suis avec Styco, j'prends son portefeuille il a trop fait le malin J'connais pas ta main même si elle a dû m'faire deux-trois câlins Deux-trois calins Berrr, j'dors dans une présidentielle, j'ai vu un signe dans l'ciel Trois dollars dans les nuages Dans les nuages Pour faire comme eux, je n'ai plus l'âge nan J'm'envole, le vent d'Espagne caresse mon plumage Caresse mon plumage Et j'parle à la lune quand elle est plus là J'commence, j'termine le boulot Elle croit qu'la 'stache vient du Mexique, elle m'appelle Papi Chulo Papi Chulo J'me souviens plus d'mes exs ops, j'crois qu'je suis né au studio La Fève connait son judo Judo J'crois j'ai la haine comme sur de cur, j'crois qu'j'ai Juda comme jumeau berrr Ça fait des années, que dis-je, des siècles, que La Fève n'a pas graille un bon repas Le cercle, il est fermé, mon frère, je le sais donc si c'est pas Fakri, je n'ouvre pas Une hoe reste une hoe, non jpeux pas changer les gens, continue d'écarter les jambes La nuit j'fais des rêves où j'vois La Fève en légende, où j'vois La Fève en légende Encore dehors, j'suis navré, j'donne pas l'exemple aux neveux Le temps passe, j'fais mon trajet Trajet, malgré moi, j'fais des envieux Envieux J'ai pas fini de trapper Trapper, j'ai pas fini de trapper Y a trop de teubés dans c'game, j'ai pas fini d'les taper Taper L'inspi' ne vient pas d'ici D'ici, t'as vu une silhouette et ma chaîne avant qu'la brume se dissipe Dissipe Un vrai OG anticipe Yeah, linstru pue le rat, les égouts, la plupart d'mes phases les dégoutent Pas doué dans l'propre et laide Errr, j'suis plus dans le sale, la débrouille</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Même si t'es triste à l'intérieur, aie un beau sourire, tu vas avoir du happiness No cap Yeah yeah, yeah, yeah, yeah Yeah, yeah han, yeah, yeah han Yeah, yeah errrr, yeah, yeah rrrra Yeah, yeah han, yeah, yeah yeah Yeah, yeah yeah, yeah, yeah yeah Yeah, yeah han, yeah, yeah han Yeah, yeah han, yeah, yeah han Yeee, La Fève 7 Yah, yeah yeah, yeah, yah rrrra Walone Yeah, yeah yeah, yeah, yeah yeah Laisse, ok On bande pas pour les mêmes sommes, et on pleure pas pour les same shit La vie sjoue de moi donc everyday c'est la same shit De Paris à Beijing, de Marseille en Belgique Ce gars il me sous-cotait et il a pris une belle gifle Demande à tes voisins s'ils connaissent pas La Fève le monstre Rien na changé c'est toujours money-time sur la montre L'instru j'la démonte, jazzy comme à Montreux Et si tu doutais de ça, petit con viens là qu'on te montre Bâtard on est pas alliés donc lâche-moi la grappe Ennui et manque d'oseille, c'est pour ça qu'on rappe Fais beaucoup mais parle peu Inch bientôt on palpe Ces négros nous copient, ouais, j'crois ces négros nous calquent On a marché sous la pluie à la recherche du soleil J'ai une vie de merde mais la gadji dit qu'j'suis solaire Bientôt j'ai la Rolex, j'n'aurai plus ton temps Des réflexes d'animal, donc j'vois une ouverture, on tente You might also like L'instru elle est douce et mélancolique as fuck Bien sûr j'sors le blicky blick si tu fais le motherfucker Tant de perte faut que on les immortalise Matrixés par un train de vie qui nous brutalise Ouais j'y mets trop du mien ma le-gu' j'fais tomber la larme J'te vois comme un traitre, j'te respecte pas comme un gendarme Igo faut qu'on dorme, on ne trouve plus l'sommeil On pense à c'qu'on a commis, pas c'qu'on aurait pu commettre Yes, ok Tes parti je pensais pas, un fake nigga on sen sépare Monter vec l'argent c'est carré, mais du coup faire sans c'est har J'voulais être phénoménal Drôle de combat qu'on mène al Jsuis con j'ai pas fait lENA, jcalculais pas son Velleda Mon frère j't'appelle comme ça car t'es la famille que j'ai choisi Pas de loisirs, j'tournais mes pouces jusqu'à c'qu'il moisissent RER E, on est pas loin, on est vers Roissy Bon, salut vas-y Tu voulais du nouveau, le voici Vrai sang, par le monde bientôt j'suis validé J'fais d'la qualité, de quoi changer les mentalités Ouais faut du khaliss, donc j'peux tricher pour nous qualifier La place du calife, c'est c'qu'il nous faut, faut te faire à l'idée Et maman j'veux la voir avec des diamants sur le bou-bou Mon ventre j'veux le voir rempli, pas forcément chez Nobu Grande route, j'ai pas vu le bout Et j'ai tellement marché tu crois qu'j'ai cop des nouvelles Loubou' On bande pas pour les mêmes sommes, mais on n'pleure pas pour les same shit La vie sjoue de moi donc everyday c'est la same shit De Paris à Beijing, de Marseille en Belgique Ce gars il me sous-cotait et il a pris une belle gifle Demande à tes voisins s'ils connaissent pas La Fève, le monstre Rien na changé c'est toujours money-time sur la montre L'instru j'la démonte, jazzy comme à Montreux Et si tu doutais de ça, petit con viens là qu'on te montre Bâtard on est pas alliés donc lâche-moi la grappe Ennui et manque d'oseille, c'est pour ça qu'on rappe Fais beaucoup mais parle peu Inch bientôt on palpe Ces négros nous copient, ouais, j'crois ces négros nous calquent On a marché sous la pluie à la recherche du soleil J'ai une vie de merde mais la gadji dit qu'j'suis solaire Bientôt j'ai la Rolex, j'n'aurai plus ton temps Des réflexes d'animal, donc j'vois une ouverture, on tente Yeah yeah, yeah, yeah, yeah Yeah, yeah han, yeah, yeah han Yeah, yeah errrr, yeah, yeah rrrra Yeah, yeah han, yeah, yeah yeah Yeah, yeah yeah, yeah, yeah yeah Yeah, yeah han, yeah, yeah han Yeah, yeah han, yeah, yeah han Yeee, La Fève 7 Yeah, yeah yeah, yeah, yeah rrrra Walone Yeah, yeah yeah, yeah, yeah yeah1</t>
+          <t>Même si t'es triste à l'intérieur, aie un beau sourire, tu vas avoir du happiness No cap Yeah yeah, yeah, yeah, yeah Yeah, yeah han, yeah, yeah han Yeah, yeah errrr, yeah, yeah rrrra Yeah, yeah han, yeah, yeah yeah Yeah, yeah yeah, yeah, yeah yeah Yeah, yeah han, yeah, yeah han Yeah, yeah han, yeah, yeah han Yeee, La Fève 7 Yah, yeah yeah, yeah, yah rrrra Walone Yeah, yeah yeah, yeah, yeah yeah Laisse, ok On bande pas pour les mêmes sommes, et on pleure pas pour les same shit La vie sjoue de moi donc everyday c'est la same shit De Paris à Beijing, de Marseille en Belgique Ce gars il me sous-cotait et il a pris une belle gifle Demande à tes voisins s'ils connaissent pas La Fève le monstre Rien na changé c'est toujours money-time sur la montre L'instru j'la démonte, jazzy comme à Montreux Et si tu doutais de ça, petit con viens là qu'on te montre Bâtard on est pas alliés donc lâche-moi la grappe Ennui et manque d'oseille, c'est pour ça qu'on rappe Fais beaucoup mais parle peu Inch bientôt on palpe Ces négros nous copient, ouais, j'crois ces négros nous calquent On a marché sous la pluie à la recherche du soleil J'ai une vie de merde mais la gadji dit qu'j'suis solaire Bientôt j'ai la Rolex, j'n'aurai plus ton temps Des réflexes d'animal, donc j'vois une ouverture, on tente L'instru elle est douce et mélancolique as fuck Bien sûr j'sors le blicky blick si tu fais le motherfucker Tant de perte faut que on les immortalise Matrixés par un train de vie qui nous brutalise Ouais j'y mets trop du mien ma le-gu' j'fais tomber la larme J'te vois comme un traitre, j'te respecte pas comme un gendarme Igo faut qu'on dorme, on ne trouve plus l'sommeil On pense à c'qu'on a commis, pas c'qu'on aurait pu commettre Yes, ok Tes parti je pensais pas, un fake nigga on sen sépare Monter vec l'argent c'est carré, mais du coup faire sans c'est har J'voulais être phénoménal Drôle de combat qu'on mène al Jsuis con j'ai pas fait lENA, jcalculais pas son Velleda Mon frère j't'appelle comme ça car t'es la famille que j'ai choisi Pas de loisirs, j'tournais mes pouces jusqu'à c'qu'il moisissent RER E, on est pas loin, on est vers Roissy Bon, salut vas-y Tu voulais du nouveau, le voici Vrai sang, par le monde bientôt j'suis validé J'fais d'la qualité, de quoi changer les mentalités Ouais faut du khaliss, donc j'peux tricher pour nous qualifier La place du calife, c'est c'qu'il nous faut, faut te faire à l'idée Et maman j'veux la voir avec des diamants sur le bou-bou Mon ventre j'veux le voir rempli, pas forcément chez Nobu Grande route, j'ai pas vu le bout Et j'ai tellement marché tu crois qu'j'ai cop des nouvelles Loubou' On bande pas pour les mêmes sommes, mais on n'pleure pas pour les same shit La vie sjoue de moi donc everyday c'est la same shit De Paris à Beijing, de Marseille en Belgique Ce gars il me sous-cotait et il a pris une belle gifle Demande à tes voisins s'ils connaissent pas La Fève, le monstre Rien na changé c'est toujours money-time sur la montre L'instru j'la démonte, jazzy comme à Montreux Et si tu doutais de ça, petit con viens là qu'on te montre Bâtard on est pas alliés donc lâche-moi la grappe Ennui et manque d'oseille, c'est pour ça qu'on rappe Fais beaucoup mais parle peu Inch bientôt on palpe Ces négros nous copient, ouais, j'crois ces négros nous calquent On a marché sous la pluie à la recherche du soleil J'ai une vie de merde mais la gadji dit qu'j'suis solaire Bientôt j'ai la Rolex, j'n'aurai plus ton temps Des réflexes d'animal, donc j'vois une ouverture, on tente Yeah yeah, yeah, yeah, yeah Yeah, yeah han, yeah, yeah han Yeah, yeah errrr, yeah, yeah rrrra Yeah, yeah han, yeah, yeah yeah Yeah, yeah yeah, yeah, yeah yeah Yeah, yeah han, yeah, yeah han Yeah, yeah han, yeah, yeah han Yeee, La Fève 7 Yeah, yeah yeah, yeah, yeah rrrra Walone Yeah, yeah yeah, yeah, yeah yeah1</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah Oh, oh Eh, eh, eh Eh, eh, eh yeah, yeah Yeah, yeah, yeah Sali, bafoué, cest lsheitan et sa drôle de danse Jeux de rime, banger, j'me dis que j'vais m'focus là-dedans Trop d'missions, pas de temps et la mif pas d'news À la fenêtre des quatre temps, sur le tél' que des bad news Une traphouse, vingt loups, tsais qu'ça peut faire des dingueries Une erreur, c'est fin de vous, c'est dangereux d'être trop friendly Vide le pot, ou lHenny, Prada boy, no Fendi J'tai donné, on est monté grave, t'es parti, j'ressens de la peine G On n'apprend pas Entre l'argent et moi, c'est pas d'l'amour, c'est que du fantasme On s'comprend mon sang, pour ça qu'dans les coins on s'entasse Des larmes de sang quand c'négro a tiré dans l'tas Tu sais j'voulais l'faire en vrai, peu importe la façon J'ai fauté mais tu sais qu'c'est pas pareil pendant l'action Sous adrénaline, j'sens mon cur qui fait des rodeos J'te rappelles après, chéri, pour l'instant j'suis au studio You might also like Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Pas d'place pour les peines de curs, j'sais qu'le bénef' arrête les pleurs Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Là j'ai mis un meuje, deux meujes et j'crois qu'j'me sens voler Un salaire, des sapes, il croit qu'il a ballé Je t'aime, désolé, d'pas trop d'téléphoner J'essaye d'être un pionnier dans la 'sique quon connaît J'me suis perdu, dans ma quête, j'ai v'là les troubles J'parle à l'au-delà, j'crois qu'j'attendais qu'il me trouve Mais en haut, ça m'regarde, p't-être au fond j'ai fait ça pour eux Mais en haut, ça m'regarde, p't-être au fond j'ai fait ça pour eux Le béton n'a pas changé, il glisse toujours autant J'revois un ancien broski, il dit Ça fait longtemps Vous êtes mes sangs, prévenez-moi ljour où j'ai fais mon temps Ou si j'ai pas su te donner ta part du montant, dis-moi Ma sur a eu un gosse, j'l'ai pas vu d'puis dix mois J'vois bien qu't'es dégouté par tout c'que tu lis en moi Conscient trop tôt, plav' en moto J'sais pas comment faire, j'souris pas sur la photo On n'apprend pas Entre l'argent et moi, c'est pas d'l'amour, c'est que du fantasme On s'comprend mon sang, pour ça qu'dans les coins on s'entasse Des larmes de sang quand c'négro a tiré dans l'tas Tu sais j'voulais l'faire en vrai, peu importe la façon J'ai fauté mais tu sais qu'c'est pas pareil pendant l'action Sous adrénaline, j'sens mon cur qui fait des rodeos J'te rappelles après, chéri, pour l'instant j'suis au studio Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Pas d'place pour les peines de curs, j'sais qu'le bénef' arrête les pleurs Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Pas d'place pour les peines de curs, j'sais qu'le bénef' arrête les pleurs Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife</t>
+          <t>Yeah, yeah, yeah Oh, oh Eh, eh, eh Eh, eh, eh yeah, yeah Yeah, yeah, yeah Sali, bafoué, cest lsheitan et sa drôle de danse Jeux de rime, banger, j'me dis que j'vais m'focus là-dedans Trop d'missions, pas de temps et la mif pas d'news À la fenêtre des quatre temps, sur le tél' que des bad news Une traphouse, vingt loups, tsais qu'ça peut faire des dingueries Une erreur, c'est fin de vous, c'est dangereux d'être trop friendly Vide le pot, ou lHenny, Prada boy, no Fendi J'tai donné, on est monté grave, t'es parti, j'ressens de la peine G On n'apprend pas Entre l'argent et moi, c'est pas d'l'amour, c'est que du fantasme On s'comprend mon sang, pour ça qu'dans les coins on s'entasse Des larmes de sang quand c'négro a tiré dans l'tas Tu sais j'voulais l'faire en vrai, peu importe la façon J'ai fauté mais tu sais qu'c'est pas pareil pendant l'action Sous adrénaline, j'sens mon cur qui fait des rodeos J'te rappelles après, chéri, pour l'instant j'suis au studio Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Pas d'place pour les peines de curs, j'sais qu'le bénef' arrête les pleurs Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Là j'ai mis un meuje, deux meujes et j'crois qu'j'me sens voler Un salaire, des sapes, il croit qu'il a ballé Je t'aime, désolé, d'pas trop d'téléphoner J'essaye d'être un pionnier dans la 'sique quon connaît J'me suis perdu, dans ma quête, j'ai v'là les troubles J'parle à l'au-delà, j'crois qu'j'attendais qu'il me trouve Mais en haut, ça m'regarde, p't-être au fond j'ai fait ça pour eux Mais en haut, ça m'regarde, p't-être au fond j'ai fait ça pour eux Le béton n'a pas changé, il glisse toujours autant J'revois un ancien broski, il dit Ça fait longtemps Vous êtes mes sangs, prévenez-moi ljour où j'ai fais mon temps Ou si j'ai pas su te donner ta part du montant, dis-moi Ma sur a eu un gosse, j'l'ai pas vu d'puis dix mois J'vois bien qu't'es dégouté par tout c'que tu lis en moi Conscient trop tôt, plav' en moto J'sais pas comment faire, j'souris pas sur la photo On n'apprend pas Entre l'argent et moi, c'est pas d'l'amour, c'est que du fantasme On s'comprend mon sang, pour ça qu'dans les coins on s'entasse Des larmes de sang quand c'négro a tiré dans l'tas Tu sais j'voulais l'faire en vrai, peu importe la façon J'ai fauté mais tu sais qu'c'est pas pareil pendant l'action Sous adrénaline, j'sens mon cur qui fait des rodeos J'te rappelles après, chéri, pour l'instant j'suis au studio Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Pas d'place pour les peines de curs, j'sais qu'le bénef' arrête les pleurs Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife Pas d'place pour les peines de curs, j'sais qu'le bénef' arrête les pleurs Et j'raconte ma chienne de traplife, et j'raconte ma chienne de traplife</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FREAKEY! FREAKEY! Je suis en 3.0.5.0, avec FREAKEY! donc on parle pas de la même chose On m'a recommandé ce nouveau plug, là j'suis sous Cali je me sens comme à Crenshaw J'trap ça comme si je faisais de la peinture Toujours le malin me colle à la ceinture Ce petit serpent veut ta peau le sens-tu ? Là je suis affamé, c'est dans ma nature À base d'again and again, la bitchass ma peiné, j'y pense un peu mais tout va bene Rien peut me freiner ma le-gueu, t'as bien vu comment le jeune il est entrainé Je trap ça comme si je faisais de la peinture, toujours le malin me colle à la ceinture Ce petit serpent veut ta peau le sens-tu ? J'ai pas la boussole, j'suis perdu dans mes bails J'me souviens t'étais pas là quand j'étais en bas Projet trop carré, on a fait ça en balle Tu m'parles de ce que t'as fait mais je m'en bat les RRRaaaa On pensait qu'on était tous un peu condamné Ma gueule t'es mon frère je compte pas c'que je donne Je reste vrai dans ce que je propose dis moi mon négro pourquoi toi t'en fais des tonnes ? Dis-moi mon négro pourquoi tu fais du cap rap ? Les autres ils étaient devant, on les rattrape Je les vois au loin je suis fait comme un rat Je sais que vrais G sont mes camarades Maman elle voulait juste que je brille Mon négro je pense à elle et je prie Y'a beaucoup de zéros mais c'est le prix Je compte pas le temps, le love, qu'on m'a pris On a du charbonner everyday, on sait que ce qu'on met l'univers il le redonne Là j'suis en mode avion ma le-gueu, je suis dans le studio, la mélodie, je fredonne Je me demande si le ciel il nous pardonne Banger music je distribue ça par tonnes On avait pas le choix fallait qu'on cartonne Bitch j'suis maudit, LAF il est ça-comme You might also like Je suis en 3.0.5.0, avec FREAKEY! donc on parle pas de la même chose On m'a recommandé ce nouveau plug, là j'suis sous Cali je me sens comme à Crenshaw J'trap ça comme si je faisais de la peinture Toujours le malin me colle à la ceinture Ce petit serpent veut ta peau le sens-tu ?2</t>
+          <t>FREAKEY! FREAKEY! Je suis en 3.0.5.0, avec FREAKEY! donc on parle pas de la même chose On m'a recommandé ce nouveau plug, là j'suis sous Cali je me sens comme à Crenshaw J'trap ça comme si je faisais de la peinture Toujours le malin me colle à la ceinture Ce petit serpent veut ta peau le sens-tu ? Là je suis affamé, c'est dans ma nature À base d'again and again, la bitchass ma peiné, j'y pense un peu mais tout va bene Rien peut me freiner ma le-gueu, t'as bien vu comment le jeune il est entrainé Je trap ça comme si je faisais de la peinture, toujours le malin me colle à la ceinture Ce petit serpent veut ta peau le sens-tu ? J'ai pas la boussole, j'suis perdu dans mes bails J'me souviens t'étais pas là quand j'étais en bas Projet trop carré, on a fait ça en balle Tu m'parles de ce que t'as fait mais je m'en bat les RRRaaaa On pensait qu'on était tous un peu condamné Ma gueule t'es mon frère je compte pas c'que je donne Je reste vrai dans ce que je propose dis moi mon négro pourquoi toi t'en fais des tonnes ? Dis-moi mon négro pourquoi tu fais du cap rap ? Les autres ils étaient devant, on les rattrape Je les vois au loin je suis fait comme un rat Je sais que vrais G sont mes camarades Maman elle voulait juste que je brille Mon négro je pense à elle et je prie Y'a beaucoup de zéros mais c'est le prix Je compte pas le temps, le love, qu'on m'a pris On a du charbonner everyday, on sait que ce qu'on met l'univers il le redonne Là j'suis en mode avion ma le-gueu, je suis dans le studio, la mélodie, je fredonne Je me demande si le ciel il nous pardonne Banger music je distribue ça par tonnes On avait pas le choix fallait qu'on cartonne Bitch j'suis maudit, LAF il est ça-comme Je suis en 3.0.5.0, avec FREAKEY! donc on parle pas de la même chose On m'a recommandé ce nouveau plug, là j'suis sous Cali je me sens comme à Crenshaw J'trap ça comme si je faisais de la peinture Toujours le malin me colle à la ceinture Ce petit serpent veut ta peau le sens-tu ?2</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ma copine veut une photo ma copine veut une photo Ma copine fait du porno ma copine fait du porno J'la prend au shopping, au resto shopping, resto J'suis ton big daddy j'suis ton king bitch big daddy Let's go Ma copine veut une photo ma copine veut une photo Ma copine fait du porno ma copine fait du porno J'la prend au shopping, au resto shopping, resto J'suis ton big daddy j'suis ton king bitch Let's go Ma copine elle est gé-char On s'capte, on fume le pétard Dans son ventre j'vais lui mettre un têtard Trap all day comme si j'étais fêtard Avec Chow-Chow on a les crocs crocs Tout l'temps ça fume la dope couleur croco Ptit con viens pas faire genr tu me coco Ma copine dans son nez n'a pas de coco Fat, juicy, trop busy pour m'occuper d'ton back C'qu'on mérite des baffes Vingt - vingt-et-un on débarque Ma copine elle est sauvage, j'peux rien y faire elle talk dirty sur l'sofa Son booty il est so fat, si j'tombe dedans j'espère que Dieu me sauvera You might also like Ma copine veut une photo On veut des photos, bitch Ma copine fait du porno Elle m'fait des scènes de film Shopping, resto Shopping après on va graille Oh, big daddy yes Ma copine veut une photo ma copine veut une photo Ma copine fait du porno ma copine fait du porno J'la prend au shopping, au resto shopping, resto J'suis ton big daddy j'suis ton king bitch big daddy Big daddy, big daddy Yes sir Big daddy, big daddy</t>
+          <t>Ma copine veut une photo ma copine veut une photo Ma copine fait du porno ma copine fait du porno J'la prend au shopping, au resto shopping, resto J'suis ton big daddy j'suis ton king bitch big daddy Let's go Ma copine veut une photo ma copine veut une photo Ma copine fait du porno ma copine fait du porno J'la prend au shopping, au resto shopping, resto J'suis ton big daddy j'suis ton king bitch Let's go Ma copine elle est gé-char On s'capte, on fume le pétard Dans son ventre j'vais lui mettre un têtard Trap all day comme si j'étais fêtard Avec Chow-Chow on a les crocs crocs Tout l'temps ça fume la dope couleur croco Ptit con viens pas faire genr tu me coco Ma copine dans son nez n'a pas de coco Fat, juicy, trop busy pour m'occuper d'ton back C'qu'on mérite des baffes Vingt - vingt-et-un on débarque Ma copine elle est sauvage, j'peux rien y faire elle talk dirty sur l'sofa Son booty il est so fat, si j'tombe dedans j'espère que Dieu me sauvera Ma copine veut une photo On veut des photos, bitch Ma copine fait du porno Elle m'fait des scènes de film Shopping, resto Shopping après on va graille Oh, big daddy yes Ma copine veut une photo ma copine veut une photo Ma copine fait du porno ma copine fait du porno J'la prend au shopping, au resto shopping, resto J'suis ton big daddy j'suis ton king bitch big daddy Big daddy, big daddy Yes sir Big daddy, big daddy</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hextii nell matrice Avant d'gratter un texte, j'ai éclaté un teh, j'prends une cannette à Inter' Hein Ramener mes sous, t'as intérêt Hein, y a des trucs de fou sur Internet Hein J'ai pas d'Samsung, j'suis dans une autre galaxie Ouh, j'm'excuse à tous ceux à qui j'ai fait du mal Hein Si vous montez au paradis, j'espère que vous vous plaindrez pas d'moi auprès du boss Let's go Quand tu dors, y en a qui bossent Qui bossent, j'pète ma tête sur l'bruit des basses Ds basses On fait du sale, il faut qu'on t'éduque, ma l-gueu, il faut qu'on t'explique les bases Yeah J'fume et j'me sens dans l'espace L'espace, matrixé, je pense qu'à l'espèce T'as fauté, tu vas recommencer, pour ça qu'on t'a fait, j't'ai oublié par réflexe Yeah, yeah Par réflexe Hein, j'me mets à réfléchir quand j'suis fait Hein J'aime bien c'qu'elle fait sur ma bite quand j'suis flex Ah J'peux t'visser à deux heures, moi, j'suis flexible Ouh, ah Me parle pas d'jouer en CFA, si ils sont millionnaires, c'est en CFA Ah C'est rapidement que j'me suis effacé, j'vends du te-shi qui t'fait phaser Shoo Mauvais dég' mais si j'te fais un gosse, chérie, j'vais pas l'laisser à l'abandon Pardon, j'reste fidèle au clan, ma le-gu', si y a litige, j'vais pas rayer mon bandeau Eh Un savoir de malade, précis comme ma lame, la gadji, elle m'casse la tête comme mon alarme Mon alarme Avec le B, on prépare un vacarme, j'suis parti à la vallée pour mon premier 20K Yes Ça té-cla une masse, fais un P2 et j'tire une taffe Arigato gozaimas, fais l'fou, j'te jure, nos cousins, ils t'massent Nos coussins, ils t'massent J'suis pas rempli de ciné', de banave, hein, tu m'vois plus dans les parages Ah T'sais qu'on m'a pété pour vol à l'étalage mais on a brassé, j'te parle pas d'la nage, bâtard Et y en avait, ma le-gueu, pourquoi au fond j'me sens plus mauvais qu'hier ? Ton discours change, t'as r'tourné ta veste hier, j'mets les crampons, toi tu r'tournes au vestiaire Ils vont parler sur oi-m, putain, j'crois ces négros sont bons qu'à passer la serpillère Une chienne de life, j'oublie tes conseils, je me lève et je té-cla c'qui reste d'hier Errr Nous, on s'est salis les mains pour de la thune, elle m'dit qu'elle est jeune mais qu'elle est mature T'as fait la star, on va rayer ta 'ture, gros, le négro est doux mais élevé à la dure T'as tiré deux taffes, tu fly comme Aladdin Fly, j'passe par GDN et j'prends la D J'passe par GDN et j'prends la D Si j'sors, c'est pas pour me balader C'est pas pour me balader, c'est pas pour me balader You might also like Hextii nell matrice</t>
+          <t>Hextii nell matrice Avant d'gratter un texte, j'ai éclaté un teh, j'prends une cannette à Inter' Hein Ramener mes sous, t'as intérêt Hein, y a des trucs de fou sur Internet Hein J'ai pas d'Samsung, j'suis dans une autre galaxie Ouh, j'm'excuse à tous ceux à qui j'ai fait du mal Hein Si vous montez au paradis, j'espère que vous vous plaindrez pas d'moi auprès du boss Let's go Quand tu dors, y en a qui bossent Qui bossent, j'pète ma tête sur l'bruit des basses Ds basses On fait du sale, il faut qu'on t'éduque, ma l-gueu, il faut qu'on t'explique les bases Yeah J'fume et j'me sens dans l'espace L'espace, matrixé, je pense qu'à l'espèce T'as fauté, tu vas recommencer, pour ça qu'on t'a fait, j't'ai oublié par réflexe Yeah, yeah Par réflexe Hein, j'me mets à réfléchir quand j'suis fait Hein J'aime bien c'qu'elle fait sur ma bite quand j'suis flex Ah J'peux t'visser à deux heures, moi, j'suis flexible Ouh, ah Me parle pas d'jouer en CFA, si ils sont millionnaires, c'est en CFA Ah C'est rapidement que j'me suis effacé, j'vends du te-shi qui t'fait phaser Shoo Mauvais dég' mais si j'te fais un gosse, chérie, j'vais pas l'laisser à l'abandon Pardon, j'reste fidèle au clan, ma le-gu', si y a litige, j'vais pas rayer mon bandeau Eh Un savoir de malade, précis comme ma lame, la gadji, elle m'casse la tête comme mon alarme Mon alarme Avec le B, on prépare un vacarme, j'suis parti à la vallée pour mon premier 20K Yes Ça té-cla une masse, fais un P2 et j'tire une taffe Arigato gozaimas, fais l'fou, j'te jure, nos cousins, ils t'massent Nos coussins, ils t'massent J'suis pas rempli de ciné', de banave, hein, tu m'vois plus dans les parages Ah T'sais qu'on m'a pété pour vol à l'étalage mais on a brassé, j'te parle pas d'la nage, bâtard Et y en avait, ma le-gueu, pourquoi au fond j'me sens plus mauvais qu'hier ? Ton discours change, t'as r'tourné ta veste hier, j'mets les crampons, toi tu r'tournes au vestiaire Ils vont parler sur oi-m, putain, j'crois ces négros sont bons qu'à passer la serpillère Une chienne de life, j'oublie tes conseils, je me lève et je té-cla c'qui reste d'hier Errr Nous, on s'est salis les mains pour de la thune, elle m'dit qu'elle est jeune mais qu'elle est mature T'as fait la star, on va rayer ta 'ture, gros, le négro est doux mais élevé à la dure T'as tiré deux taffes, tu fly comme Aladdin Fly, j'passe par GDN et j'prends la D J'passe par GDN et j'prends la D Si j'sors, c'est pas pour me balader C'est pas pour me balader, c'est pas pour me balader Hextii nell matrice</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Je pensais que t'étais mon homie Jmets tempête et j'les laisse à l'agonie J'suis pas ton Clyde et t'es pas ma Bonnie Avec Gwapo on prépare des folies J'écoute la voix qui m'dit Fais-le, tous les jours on est en félins Ce G agissait comme un frère, mais là il répond plus au tél', hein Je pensais que t'étais mon homie Jmets tempête et j'les laisse à l'agonie J'suis pas ton Clyde et t'es pas ma Bonnie Avec Gwapo on prépare des folies J'écoute la voix qui m'dit Fais-le, tous les jours on est en félins Ce G agissait comme un frère, mais là il répond plus au tél', hein Ne t'inquiète pas j'ai du sale on the way, sale on the way Big La Fève, je me sens seul sur ma wave Ne t'inquiète pas j'ai du sale on the way, sale on the way Big La Fève, je me sens seul sur ma wave J'veux m'ensommeiller dans le satin Faut ça m'écoute de Marseille à Saint-Ouen Cétait faux, pourquoi t'as dit ça toi ? T'as de l'argent mais tu pensais qu'à toi J'ai toujours un petit il à gauche Chienne de vie, y a a des peines à la louche Maxi kish', j'ai la bave à la bouche J'crois j'me suis fait avoir par son push-up Petit veut devenir immense Autrui fait le fidèle, il ment Des rêves de grandeur t'as peur Nouveau king, ancien amateur On donne la force, j'envoie un cur Dans le laptop de quoi nous refaire Pull up, refais, dans le studio pas d'à peu près Prends pas mon temps, prends pas ma tête Trop ne-jeu, j'en veux à la Terre entière Du nouveau plug, j'ai pris la tête Je n'me souviens plus de ce que j'ai fait hier J'aime pas les peut-être, les on verra J'fais belek à eux, c'est des rats, petit frère Avant j'espérais un miracle La tape elle s'appelle comme un vomi You might also like Je pensais que t'étais mon homie Jmets tempête et j'les laisse à l'agonie J'suis pas ton Clyde et t'es pas ma Bonnie Avec Gwapo on prépare des folies J'écoute la voix qui m'dit Fais-le, tous les jours on est en félins Ce G agissait comme un frère, mais là il répond plus au tél', hein Ne t'inquiète pas j'ai du sale on the way, sale on the way Big La Fève, je me sens seul sur ma wave Ne t'inquiète pas j'ai du sale on the way, sale on the way Big La Fève, je me sens seul sur ma wave1</t>
+          <t>Je pensais que t'étais mon homie Jmets tempête et j'les laisse à l'agonie J'suis pas ton Clyde et t'es pas ma Bonnie Avec Gwapo on prépare des folies J'écoute la voix qui m'dit Fais-le, tous les jours on est en félins Ce G agissait comme un frère, mais là il répond plus au tél', hein Je pensais que t'étais mon homie Jmets tempête et j'les laisse à l'agonie J'suis pas ton Clyde et t'es pas ma Bonnie Avec Gwapo on prépare des folies J'écoute la voix qui m'dit Fais-le, tous les jours on est en félins Ce G agissait comme un frère, mais là il répond plus au tél', hein Ne t'inquiète pas j'ai du sale on the way, sale on the way Big La Fève, je me sens seul sur ma wave Ne t'inquiète pas j'ai du sale on the way, sale on the way Big La Fève, je me sens seul sur ma wave J'veux m'ensommeiller dans le satin Faut ça m'écoute de Marseille à Saint-Ouen Cétait faux, pourquoi t'as dit ça toi ? T'as de l'argent mais tu pensais qu'à toi J'ai toujours un petit il à gauche Chienne de vie, y a a des peines à la louche Maxi kish', j'ai la bave à la bouche J'crois j'me suis fait avoir par son push-up Petit veut devenir immense Autrui fait le fidèle, il ment Des rêves de grandeur t'as peur Nouveau king, ancien amateur On donne la force, j'envoie un cur Dans le laptop de quoi nous refaire Pull up, refais, dans le studio pas d'à peu près Prends pas mon temps, prends pas ma tête Trop ne-jeu, j'en veux à la Terre entière Du nouveau plug, j'ai pris la tête Je n'me souviens plus de ce que j'ai fait hier J'aime pas les peut-être, les on verra J'fais belek à eux, c'est des rats, petit frère Avant j'espérais un miracle La tape elle s'appelle comme un vomi Je pensais que t'étais mon homie Jmets tempête et j'les laisse à l'agonie J'suis pas ton Clyde et t'es pas ma Bonnie Avec Gwapo on prépare des folies J'écoute la voix qui m'dit Fais-le, tous les jours on est en félins Ce G agissait comme un frère, mais là il répond plus au tél', hein Ne t'inquiète pas j'ai du sale on the way, sale on the way Big La Fève, je me sens seul sur ma wave Ne t'inquiète pas j'ai du sale on the way, sale on the way Big La Fève, je me sens seul sur ma wave1</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yeah, R.E.C.L.E.S.S. out of town Out of town Neon party, stup and sex Neon party, he-hey Et j'ai two bitches ambidextres, droite, gauche, up and down Elle vient d'oublier son ex avec une baddie from USA Voulez-vous ? Oui, oui, s'il vous plaît Mmh, s'il vous plaît Elle boit ça comme un Yoplait Ouais Du Benjamin comme Biolay dans une forme bionique Choudenshi Bioman, négro, c'est mon biopic Euros, euros, pounds, dollars, dinars, yens Dollars J'pull up tout en noir avec une Saoudienne Bitch du Qatar, hey J'lui ai cop un bag, elle s'prend pour Sexyy Red tchip Elle veut SkeeYee, qu'on parte au ski, yeah Euros, euros, pounds, dollars, dinars, yens Dollars J'pull up tout en noir avec une Saoudienne Bitch du Qatar, hey J'lui ai cop un bag, elle s'prend pour Sexyy Red Sexyy Elle veut SkeeYee SkeeYee, qu'on parte au- Hey, qu'on parte au ski Ski Hellcat, SRT No cap, full black toujours assorti, à c'qui p', j'suis un jeune prodige, j'enlève son shorty Tu fais quoi maintenant ? T'as l'calibre, t'as l'occas' et là, y a plus qu'à tirer Boh Mon phone fait qu'vibrer Yeah, béni, dans le sale j'ai viré Plus j'remplis mon bank account, plus j'réduis mon cercle, fuck Dis-moi elle veut quoi cette folle ? Tous mes opps, je les baise fort Me parle as-p, j'suis dans l'Nephilim car c'putain d'monde tourne à l'envers Brutal comme une averse, pardonne-moi si y a peu d'métaphores dans mes verse Let's go, yeah Quand tu crois c'est fini, ça rcommence, vrais 'G nous sommes, belek à tu parles comment Ces bitchs sont fake, il n'y a rien d'étonnant Elle a démarré, mets le nitro, pas de rimes, il a dit trop Elle me connait, caresse mes points vitaux, j'reste le même avec ou sans micro You might also like Euros, euros, pounds, dollars, dinars, yens Dollars J'pull up tout en noir avec une Saoudienne Bitch du Qatar, hey J'lui ai cop un bag, elle s'prend pour Sexyy Red tchip Elle veut SkeeYee, qu'on parte au ski, yeah Euros, euros, pounds, dollars, dinars, yens Dollars J'pull up tout en noir avec une Saoudienne Bitch du Qatar, hey J'lui ai cop un bag, elle s'prend pour Sexyy Red Sexyy Elle veut SkeeYee SkeeYee, qu'on parte au- Hey, qu'on parte au ski</t>
+          <t>Yeah, R.E.C.L.E.S.S. out of town Out of town Neon party, stup and sex Neon party, he-hey Et j'ai two bitches ambidextres, droite, gauche, up and down Elle vient d'oublier son ex avec une baddie from USA Voulez-vous ? Oui, oui, s'il vous plaît Mmh, s'il vous plaît Elle boit ça comme un Yoplait Ouais Du Benjamin comme Biolay dans une forme bionique Choudenshi Bioman, négro, c'est mon biopic Euros, euros, pounds, dollars, dinars, yens Dollars J'pull up tout en noir avec une Saoudienne Bitch du Qatar, hey J'lui ai cop un bag, elle s'prend pour Sexyy Red tchip Elle veut SkeeYee, qu'on parte au ski, yeah Euros, euros, pounds, dollars, dinars, yens Dollars J'pull up tout en noir avec une Saoudienne Bitch du Qatar, hey J'lui ai cop un bag, elle s'prend pour Sexyy Red Sexyy Elle veut SkeeYee SkeeYee, qu'on parte au- Hey, qu'on parte au ski Ski Hellcat, SRT No cap, full black toujours assorti, à c'qui p', j'suis un jeune prodige, j'enlève son shorty Tu fais quoi maintenant ? T'as l'calibre, t'as l'occas' et là, y a plus qu'à tirer Boh Mon phone fait qu'vibrer Yeah, béni, dans le sale j'ai viré Plus j'remplis mon bank account, plus j'réduis mon cercle, fuck Dis-moi elle veut quoi cette folle ? Tous mes opps, je les baise fort Me parle as-p, j'suis dans l'Nephilim car c'putain d'monde tourne à l'envers Brutal comme une averse, pardonne-moi si y a peu d'métaphores dans mes verse Let's go, yeah Quand tu crois c'est fini, ça rcommence, vrais 'G nous sommes, belek à tu parles comment Ces bitchs sont fake, il n'y a rien d'étonnant Elle a démarré, mets le nitro, pas de rimes, il a dit trop Elle me connait, caresse mes points vitaux, j'reste le même avec ou sans micro Euros, euros, pounds, dollars, dinars, yens Dollars J'pull up tout en noir avec une Saoudienne Bitch du Qatar, hey J'lui ai cop un bag, elle s'prend pour Sexyy Red tchip Elle veut SkeeYee, qu'on parte au ski, yeah Euros, euros, pounds, dollars, dinars, yens Dollars J'pull up tout en noir avec une Saoudienne Bitch du Qatar, hey J'lui ai cop un bag, elle s'prend pour Sexyy Red Sexyy Elle veut SkeeYee SkeeYee, qu'on parte au- Hey, qu'on parte au ski</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yes Parle pas je réfléchis, mentalité vrai G, alors qu'j'suis pas né dans l'bendo Je pense aux galaxies, faire de la musique c'est facile comme sur la Nintendo Froid comme la tundra, je prends mon temps, j'sais qu'le destin il attendra Froid comme la tundra, je prends mon temps, j'sais qu'le destin il attendra ooh La vie c'est un marathon, je me demande qui est le p'tit con qui peut m'arrêter Qui peut m'arrêter ? Y'a des serpents je n'fait pas la charité Moi j'suis pas né sans goal, j'suis dans mes diez et ma mère elle est en sanglots Toi tu crois qu'tu me ressembles, j'ai le coeur tout noir comme la cendre L'industrie j'vois ça comme un porcherie Et mon négro moi je n'suis pas dedans Éviter l'diable et ses pas de danse Jeune bishop veut the bitch love Autour de moi pas de mouchards Quand j'écris je sors les petits mouchoirs Tu fais peur à qui, t'es une mouche toi Toujours cette voix qui me dit bouge toi Eh, tout l'temps la tête dans les problèmes Yeah, fréro j'crois pas trop tes promesses Eh, tout l'temps la tête dans les problèmes Yeah, fréro j'crois pas trop tes promesses You might also like Yeah Parle pas je réfléchis, mentalité vrai G, alors qu'j'suis pas né dans l'bendo Yeah Je pense aux galaxies, faire de la musique c'est facile comme sur la Nintendo Yeah Froid comme la tundra, je prends mon temps, j'sais qu'le destin il attendra Froid comme la tundra, je prends mon temps, j'sais qu'le destin il attendra ooh Kolaf ça a marché, elle commence la fanbase, bientot je suis plus le rookie Si tu me regarde bien, y'a toujours cette flamme, j'ai les yeux couleur rouquine Avant j'étais par terre, jamais je veux partir, c'était c'que tu disais C'était c'que tu disais, maintenant j'suis jeune et des peines j'en ai des dizaines Je me laisse aller et je produis la mélodie Pour l'argent je n'dois pas plonger dans les félonies J'dois continuer de rapper sur des conneries Trouver la clé et la bonne rime J'ai arrêté de tourner en rond Bientôt c'est le début de mon ère Et la nuit je pense à mes erreurs, erreur, pour la concurrence c'est moi la terreur ooh Eh, tout l'temps la tête dans les problèmes Yeah, fréro j'crois pas trop tes promesses Eh, tout l'temps la tête dans les problèmes Yeah, fréro j'crois pas trop tes promesses</t>
+          <t>Yes Parle pas je réfléchis, mentalité vrai G, alors qu'j'suis pas né dans l'bendo Je pense aux galaxies, faire de la musique c'est facile comme sur la Nintendo Froid comme la tundra, je prends mon temps, j'sais qu'le destin il attendra Froid comme la tundra, je prends mon temps, j'sais qu'le destin il attendra ooh La vie c'est un marathon, je me demande qui est le p'tit con qui peut m'arrêter Qui peut m'arrêter ? Y'a des serpents je n'fait pas la charité Moi j'suis pas né sans goal, j'suis dans mes diez et ma mère elle est en sanglots Toi tu crois qu'tu me ressembles, j'ai le coeur tout noir comme la cendre L'industrie j'vois ça comme un porcherie Et mon négro moi je n'suis pas dedans Éviter l'diable et ses pas de danse Jeune bishop veut the bitch love Autour de moi pas de mouchards Quand j'écris je sors les petits mouchoirs Tu fais peur à qui, t'es une mouche toi Toujours cette voix qui me dit bouge toi Eh, tout l'temps la tête dans les problèmes Yeah, fréro j'crois pas trop tes promesses Eh, tout l'temps la tête dans les problèmes Yeah, fréro j'crois pas trop tes promesses Yeah Parle pas je réfléchis, mentalité vrai G, alors qu'j'suis pas né dans l'bendo Yeah Je pense aux galaxies, faire de la musique c'est facile comme sur la Nintendo Yeah Froid comme la tundra, je prends mon temps, j'sais qu'le destin il attendra Froid comme la tundra, je prends mon temps, j'sais qu'le destin il attendra ooh Kolaf ça a marché, elle commence la fanbase, bientot je suis plus le rookie Si tu me regarde bien, y'a toujours cette flamme, j'ai les yeux couleur rouquine Avant j'étais par terre, jamais je veux partir, c'était c'que tu disais C'était c'que tu disais, maintenant j'suis jeune et des peines j'en ai des dizaines Je me laisse aller et je produis la mélodie Pour l'argent je n'dois pas plonger dans les félonies J'dois continuer de rapper sur des conneries Trouver la clé et la bonne rime J'ai arrêté de tourner en rond Bientôt c'est le début de mon ère Et la nuit je pense à mes erreurs, erreur, pour la concurrence c'est moi la terreur ooh Eh, tout l'temps la tête dans les problèmes Yeah, fréro j'crois pas trop tes promesses Eh, tout l'temps la tête dans les problèmes Yeah, fréro j'crois pas trop tes promesses</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Errr, yeah Yeah, yeah, yeah, yeah Errr J'ai les crocs longs, belek, errr J'ai les crocs longs, belek, errr J'ai les crocs longs, belek, errr J'ai les crocs longs, belek, errr On avait rien, j'me souviens back then J'repense à avant, je dis À la tienne Dieu ma laissé solo dans les problèmes J'ai pas besoin de vendre mon kweh pour té-mon Pourquoi j'ai toujours cette faim, mon négro ? J'suis le même jusqu'à la fin, mon négro J'vois tes yeux, jconnais cette faim, mon négro Petit manque d'argent, j'connais cette faille, mon négro J'me suis mis sous California, ma chérie, donc si tu me causes là j'suis pas en état Ma le-gueu on était trop neu-jeu, on voulait juste casser les cages comme Pauleta Le jeune est né avec un flair hors du commun Mon frérot, c'est comment ? C'est plus trop comme avant Je regardais les vitrines la bouche bavante J'y pense et j'vais m'balader les bras ballants You might also like Belek, là j'ai les crocs de mille pit', mon zin Vrai G, donc c'est no cap sur le beat, mon zin Bentley coup', Merco, Cadillac ou Bentley coup' Pleine découpe, dans le studio j'suis en pleine découpe J'ai les crocs longs, belek, errr J'ai les crocs longs, belek, errr J'ai les crocs longs, belek, errr J'ai les crocs longs, belek, errr1</t>
+          <t>Errr, yeah Yeah, yeah, yeah, yeah Errr J'ai les crocs longs, belek, errr J'ai les crocs longs, belek, errr J'ai les crocs longs, belek, errr J'ai les crocs longs, belek, errr On avait rien, j'me souviens back then J'repense à avant, je dis À la tienne Dieu ma laissé solo dans les problèmes J'ai pas besoin de vendre mon kweh pour té-mon Pourquoi j'ai toujours cette faim, mon négro ? J'suis le même jusqu'à la fin, mon négro J'vois tes yeux, jconnais cette faim, mon négro Petit manque d'argent, j'connais cette faille, mon négro J'me suis mis sous California, ma chérie, donc si tu me causes là j'suis pas en état Ma le-gueu on était trop neu-jeu, on voulait juste casser les cages comme Pauleta Le jeune est né avec un flair hors du commun Mon frérot, c'est comment ? C'est plus trop comme avant Je regardais les vitrines la bouche bavante J'y pense et j'vais m'balader les bras ballants Belek, là j'ai les crocs de mille pit', mon zin Vrai G, donc c'est no cap sur le beat, mon zin Bentley coup', Merco, Cadillac ou Bentley coup' Pleine découpe, dans le studio j'suis en pleine découpe J'ai les crocs longs, belek, errr J'ai les crocs longs, belek, errr J'ai les crocs longs, belek, errr J'ai les crocs longs, belek, errr1</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Put it on then you keep it on Had to put my wrist two tone yeah type shit Yeah we beat it 'till the pack gone Had to get in that mode in that store type shit Les billets pleuvent sur elle, type shit Jai fais un ptit détour à Magic, yeah, type shit Ils connaissaient même pas jétais djà dans les trap shit Ça sent la cali dans le stud, yeah, type shit We don't push no P we don't like to sneak Know that shit get sticky gotta take your lick Know these streets get risky gotta work your way Work the bowl break your wrist type shit Fine shit, run it up, type of bitch type of bitch She with me she hit licks yeah type shit Still got lingo from two years ago i'm talking shit All my twins really right and they really rich Off White on a off night rollin white fade that's my type of ice Big dawg when i put it on she gon eat it up that's my type of night Fly as hell that's my type of flight Top flight he the police type Paper bomin' in type shit Yeah you know we like to tap right let's get it You might also like Put it on then you keep it on Had to put my wrist two tone yeah type shit type shit Yeah we beat it 'till the pack gone Had to get in that mode in that store type shit type shit Les billets pleuvent sur elle, type shit Jai fais un ptit détour à Magic, yeah, type shit Ils connaissaient même pas jétais djà dans les trap shit Ça sent la cali dans le stud, yeah, type shit À leur âge, mon régime, cétait grec, shit Zonard, voleur, rappeur, mon vieux dit Quel gâchis Me parle pas avec des mots, parle avec des chiffres Maintenant, jsais quon explique mieux avec des gifles yessir Jla pilonne ça gicle, elle m'fait faire ma gym, cest tout cque jaime Ne touche pas mon bif, ne touche pas ma mif, cest tout cque jai Tellement icy, bientôt je gèle, tout ltemps sur le feu jai un projet Dans le passé jlai fait souffrir mais ne tinquiète pas maman je gère Jsuis avec Yung L.A dans le hood, en cmoment, ma vie ressemble à un film Jmaccroche pas a des futilités car jsais qutout ça tient quà un fil Chez moi il ny a pas de rat, jvois ça comme la pire des races Ma réussite cest le mektoub et pour le reste cest on verra Put it on then you keep it on Had to put my wrist two tone yeah type shit type shit Yeah we beat it 'till the pack gone Had to get in that mode in that store type shit type shit Les billets pleuvent sur elle, type shit yeah type Jai fais un ptit détour à Magic, yeah, type shit yeah Ils connaissaient même pas jétais djà dans les trap shit trap shi Ça sent la cali dans le stud, yeah, type shit1</t>
+          <t>Put it on then you keep it on Had to put my wrist two tone yeah type shit Yeah we beat it 'till the pack gone Had to get in that mode in that store type shit Les billets pleuvent sur elle, type shit Jai fais un ptit détour à Magic, yeah, type shit Ils connaissaient même pas jétais djà dans les trap shit Ça sent la cali dans le stud, yeah, type shit We don't push no P we don't like to sneak Know that shit get sticky gotta take your lick Know these streets get risky gotta work your way Work the bowl break your wrist type shit Fine shit, run it up, type of bitch type of bitch She with me she hit licks yeah type shit Still got lingo from two years ago i'm talking shit All my twins really right and they really rich Off White on a off night rollin white fade that's my type of ice Big dawg when i put it on she gon eat it up that's my type of night Fly as hell that's my type of flight Top flight he the police type Paper bomin' in type shit Yeah you know we like to tap right let's get it Put it on then you keep it on Had to put my wrist two tone yeah type shit type shit Yeah we beat it 'till the pack gone Had to get in that mode in that store type shit type shit Les billets pleuvent sur elle, type shit Jai fais un ptit détour à Magic, yeah, type shit Ils connaissaient même pas jétais djà dans les trap shit Ça sent la cali dans le stud, yeah, type shit À leur âge, mon régime, cétait grec, shit Zonard, voleur, rappeur, mon vieux dit Quel gâchis Me parle pas avec des mots, parle avec des chiffres Maintenant, jsais quon explique mieux avec des gifles yessir Jla pilonne ça gicle, elle m'fait faire ma gym, cest tout cque jaime Ne touche pas mon bif, ne touche pas ma mif, cest tout cque jai Tellement icy, bientôt je gèle, tout ltemps sur le feu jai un projet Dans le passé jlai fait souffrir mais ne tinquiète pas maman je gère Jsuis avec Yung L.A dans le hood, en cmoment, ma vie ressemble à un film Jmaccroche pas a des futilités car jsais qutout ça tient quà un fil Chez moi il ny a pas de rat, jvois ça comme la pire des races Ma réussite cest le mektoub et pour le reste cest on verra Put it on then you keep it on Had to put my wrist two tone yeah type shit type shit Yeah we beat it 'till the pack gone Had to get in that mode in that store type shit type shit Les billets pleuvent sur elle, type shit yeah type Jai fais un ptit détour à Magic, yeah, type shit yeah Ils connaissaient même pas jétais djà dans les trap shit trap shi Ça sent la cali dans le stud, yeah, type shit1</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Zequin, La Fève, 243 comme le coltan J'écoute pas ces goofy, c'est révoltant J'déboule, fire, fire tel un volcan J'sais que t'as le mort quand Zequin La Fève 5 chiffres, 6 chiffres, j'voulais pas autant 7 Walone, 700 bitch, c'est pas l'OTANIncompris, ça change pas en votant Je sais qu't'as le mort quand Zequin La Fève Des sous j'en veux tarpin Faut recharger son glock et le tartin J'ai déserté la school pour amasser les talbins H9, j'suis sorti sans le calepin Violence drogues en guise de gagne-pain Négro parti de rien pour atteindre le top Que des racks en tête, c'est un délire L'adré' monte à mesure que je remplis mon coffre Tu la fermes quand on parle cash Et jai ramé, jai pété skalape, j'avais déjà skalapes Il a touché le kil' à 2 balles 5 yeah Pour le faire, fallait changer la donne J'ai l'talent mais j'ai pas la somme Sur la route du succès, j'mets la gomme GTD, GTD, j'passe les rapports gnah Que des facettes, ces négros font crari Quand j'ai mal au crâne j'mets la beuh dans son cari Pas mal de suceurs dans les rues d'Colombes city T'as l'autorité, tu t'sens pousser des glaouis J'volais parce que j'étais tapis, Yasmine, Aladin Trap nigga peut laver ses slips à la main, spliff à la main Recompter le biff à la fin yeah You might also like Les diamants dansent comme Michael Jackson ou Tayc Passer du marron à la blanche comme Michael Jackson Les diamants dansent comme Michael Jackson ou Tayc Passer du marron à la blanche comme Michael Jackson Zequin, La Fève, 243 comme le coltan J'écoute pas ces goofy, c'est révoltant J'déboule, fire, fire tel un volcan J'sais que t'as le mort quand Zequin La Fève 5 chiffres, 6 chiffres, j'voulais pas autant 7 Walone, 700 bitch, c'est pas l'OTANIncompris, ça change pas en votant Je sais qu't'as le mort quand Zequin La Fève Pardonne-moi, ça va à l'église dimanche pour laver les pêchés d'la veille Je suis sous purple haze, je m'éveille, y a rien à faire, j'veux toujours plus de 'seille Jchassais mes rêves, ma le-g', j'avais pas l'âge jallais dans les studios de Fontenay jusqu'à Creil Vas là-bas, j'te dois rien, on s'est fait solo J'remercie lsept et celle qui m'a créé Et la Maybach ne fait que crier Elle aime se maquiller, ma bitch est sous diet J'voulais la planète, briller comme une paillette Ça m'a dit Petit, va pousser des palettes J'ai mangé mais cette chienne de vie rassasies pas J'suis au dessus, dis moi qu'est c'que tu saisis pas Il m'faut ma Ratchet, là il me faut ma Jessica Un backwood obèse comme un cigare yes J'appelle Zequin, j'ai un plan pour nous, on est parti pour baiser l'game T'as pas d'cardio, t'as pas d'équipe, dis moi pourquoi tu veux tester l'gang ? Ambiance tragique, duo classique, j'fuck pas avec, il a pas d'principes J'suis busy, dis-moi pourquoi t'insistes, j'sais quils ont le mort quand Zequin, La Fève, 243 comme le coltan J'écoute pas ces goofy, c'est révoltant J'déboule, fire, fire tel un volcan J'sais que t'as le mort quand Zequin La Fève 5 chiffres, 6 chiffres, j'voulais pas autant 7 Walone, 700 bitch, c'est pas l'OTAN Incompris, ça change pas en votant Je sais qu't'as le mort quand Zequin La Fève 243 comme le coltan À part la mif, le reste est pas important Oh, nan 243 comme le coltan À part la mif, tu sais qu'le reste est pas important Oh, nan</t>
+          <t>Zequin, La Fève, 243 comme le coltan J'écoute pas ces goofy, c'est révoltant J'déboule, fire, fire tel un volcan J'sais que t'as le mort quand Zequin La Fève 5 chiffres, 6 chiffres, j'voulais pas autant 7 Walone, 700 bitch, c'est pas l'OTANIncompris, ça change pas en votant Je sais qu't'as le mort quand Zequin La Fève Des sous j'en veux tarpin Faut recharger son glock et le tartin J'ai déserté la school pour amasser les talbins H9, j'suis sorti sans le calepin Violence drogues en guise de gagne-pain Négro parti de rien pour atteindre le top Que des racks en tête, c'est un délire L'adré' monte à mesure que je remplis mon coffre Tu la fermes quand on parle cash Et jai ramé, jai pété skalape, j'avais déjà skalapes Il a touché le kil' à 2 balles 5 yeah Pour le faire, fallait changer la donne J'ai l'talent mais j'ai pas la somme Sur la route du succès, j'mets la gomme GTD, GTD, j'passe les rapports gnah Que des facettes, ces négros font crari Quand j'ai mal au crâne j'mets la beuh dans son cari Pas mal de suceurs dans les rues d'Colombes city T'as l'autorité, tu t'sens pousser des glaouis J'volais parce que j'étais tapis, Yasmine, Aladin Trap nigga peut laver ses slips à la main, spliff à la main Recompter le biff à la fin yeah Les diamants dansent comme Michael Jackson ou Tayc Passer du marron à la blanche comme Michael Jackson Les diamants dansent comme Michael Jackson ou Tayc Passer du marron à la blanche comme Michael Jackson Zequin, La Fève, 243 comme le coltan J'écoute pas ces goofy, c'est révoltant J'déboule, fire, fire tel un volcan J'sais que t'as le mort quand Zequin La Fève 5 chiffres, 6 chiffres, j'voulais pas autant 7 Walone, 700 bitch, c'est pas l'OTANIncompris, ça change pas en votant Je sais qu't'as le mort quand Zequin La Fève Pardonne-moi, ça va à l'église dimanche pour laver les pêchés d'la veille Je suis sous purple haze, je m'éveille, y a rien à faire, j'veux toujours plus de 'seille Jchassais mes rêves, ma le-g', j'avais pas l'âge jallais dans les studios de Fontenay jusqu'à Creil Vas là-bas, j'te dois rien, on s'est fait solo J'remercie lsept et celle qui m'a créé Et la Maybach ne fait que crier Elle aime se maquiller, ma bitch est sous diet J'voulais la planète, briller comme une paillette Ça m'a dit Petit, va pousser des palettes J'ai mangé mais cette chienne de vie rassasies pas J'suis au dessus, dis moi qu'est c'que tu saisis pas Il m'faut ma Ratchet, là il me faut ma Jessica Un backwood obèse comme un cigare yes J'appelle Zequin, j'ai un plan pour nous, on est parti pour baiser l'game T'as pas d'cardio, t'as pas d'équipe, dis moi pourquoi tu veux tester l'gang ? Ambiance tragique, duo classique, j'fuck pas avec, il a pas d'principes J'suis busy, dis-moi pourquoi t'insistes, j'sais quils ont le mort quand Zequin, La Fève, 243 comme le coltan J'écoute pas ces goofy, c'est révoltant J'déboule, fire, fire tel un volcan J'sais que t'as le mort quand Zequin La Fève 5 chiffres, 6 chiffres, j'voulais pas autant 7 Walone, 700 bitch, c'est pas l'OTAN Incompris, ça change pas en votant Je sais qu't'as le mort quand Zequin La Fève 243 comme le coltan À part la mif, le reste est pas important Oh, nan 243 comme le coltan À part la mif, tu sais qu'le reste est pas important Oh, nan</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yeah J'ai toujours la dalle, ma gueule Les p'tits ils aiment trop ça d'façon Ils aiment trop quand t'as la dalle, quand t'es en bas Yeah, yeah Ils m'disaient tous Tu vas faire quoi sans plug ?, j'sais qu'ils font rien eux, mais rien qu'ça joue les thugs J'ai mis du Casamigos dans l'cup, j'suis parti, j'ai laissé maman en- J'suis parti, j'ai laissé maman en pleurs, t'es une salope toi, tu fais tout pour plaire Je parle que en facts mais tu dis l'contraire, j'ai fais trois fois l'tour de la ville avant d'trer-ren Là d'où j'viens, ça peut te faire en dansant, la voisine se plaint d'l'odeur de l'encens Les neveux demandent le prix de l'ensemble, cette baddie pensait qu'on allait finir ensemble Mais on va juste se voir une ou deux fois en bas, s'te plaît, n'ait pas à la haine en y repensant Problème de confiance, problème de vocabulaire, maintenant j'vois l'argent comme un pansement Ils m'disaient tous Tu vas faire quoi sans plug ?, j'sais qu'ils font rien eux, mais rien qu'ça joue les thugs J'ai mis du Casamigos dans l'cup, j'suis parti, j'ai laissé maman en- J'suis parti, j'ai laissé maman en pleurs, t'es une salope toi, tu fais tout pour plaire Je parle que en facts, mais tu dis l'contraire, j'ai fais trois fois l'tour de la ville avant d'trer-ren You might also like J'ai perdu tellement d'gars, ça me laisse des insomnies, j'suis un rapace et y a qu'un seul nid J'ai des dossiers, tu reconnais ou tu nies, parfois j'ai du Nike mais je suis Prada only J'ai jamais suivi l'troupeau, suivi l'mouvement, tu m'as dit t'as oublié mais, j'sais, t'y penses tout le temps J'voulais un plug, on m'a juste dit Fous le camp, éméché j'vois double Parle mal, tu vas manger ta douille Han-han, j'fais des p'tites blagues pendant la fouille Yeah, yeah Par c'que j'les avais rodave patrouiller Patrouiller et qu'ils m'ont pas vu magouiller Non déclarés mais j'ai trop d'enfants D'enfants, la concurrence paye encore en franc En franc J'vais donner mon cur au plus offrant Offrant, j'pose ça, j'suis encore souffrant Souffrant On est pistés, y a les 22, les saisies, les huissiers, les clopes c'est offert, c'est un bon l'épicier Putain, j'suis toujours paro même quand j'vais pisser J'crois ça va être un putain de polar mon roman, trop saoulé mais me demande plus C'est comment ? J'pensais être tiré d'affaire mais ça recommence, j'pensais être tiré d'affaire mais ça recommence Ils m'disaient tous Tu vas faire quoi sans plug ?, j'sais qu'ils font rien eux, mais rien qu'ça joue les thugs J'ai mis du Casamigos dans l'cup, j'suis parti, j'ai laissé maman en- J'suis parti, j'ai laissé maman en pleurs, t'es une salope toi, tu fais tout pour plaire Je parle que en facts, mais tu dis l'contraire, j'ai fais trois fois l'tour de la ville avant d'trer-ren Là d'où j'viens, ça peut te faire en dansant, la voisine se plaint d'l'odeur de l'encens Les neveux demandent le prix de l'ensemble, cette baddie pensait qu'on allait finir ensemble Cette baddie pensait qu'on allait finir ensemble Yeah Problème de confiance, problème de vocabulaire, maintenant j'vois l'argent comme un pansement</t>
+          <t>Yeah J'ai toujours la dalle, ma gueule Les p'tits ils aiment trop ça d'façon Ils aiment trop quand t'as la dalle, quand t'es en bas Yeah, yeah Ils m'disaient tous Tu vas faire quoi sans plug ?, j'sais qu'ils font rien eux, mais rien qu'ça joue les thugs J'ai mis du Casamigos dans l'cup, j'suis parti, j'ai laissé maman en- J'suis parti, j'ai laissé maman en pleurs, t'es une salope toi, tu fais tout pour plaire Je parle que en facts mais tu dis l'contraire, j'ai fais trois fois l'tour de la ville avant d'trer-ren Là d'où j'viens, ça peut te faire en dansant, la voisine se plaint d'l'odeur de l'encens Les neveux demandent le prix de l'ensemble, cette baddie pensait qu'on allait finir ensemble Mais on va juste se voir une ou deux fois en bas, s'te plaît, n'ait pas à la haine en y repensant Problème de confiance, problème de vocabulaire, maintenant j'vois l'argent comme un pansement Ils m'disaient tous Tu vas faire quoi sans plug ?, j'sais qu'ils font rien eux, mais rien qu'ça joue les thugs J'ai mis du Casamigos dans l'cup, j'suis parti, j'ai laissé maman en- J'suis parti, j'ai laissé maman en pleurs, t'es une salope toi, tu fais tout pour plaire Je parle que en facts, mais tu dis l'contraire, j'ai fais trois fois l'tour de la ville avant d'trer-ren J'ai perdu tellement d'gars, ça me laisse des insomnies, j'suis un rapace et y a qu'un seul nid J'ai des dossiers, tu reconnais ou tu nies, parfois j'ai du Nike mais je suis Prada only J'ai jamais suivi l'troupeau, suivi l'mouvement, tu m'as dit t'as oublié mais, j'sais, t'y penses tout le temps J'voulais un plug, on m'a juste dit Fous le camp, éméché j'vois double Parle mal, tu vas manger ta douille Han-han, j'fais des p'tites blagues pendant la fouille Yeah, yeah Par c'que j'les avais rodave patrouiller Patrouiller et qu'ils m'ont pas vu magouiller Non déclarés mais j'ai trop d'enfants D'enfants, la concurrence paye encore en franc En franc J'vais donner mon cur au plus offrant Offrant, j'pose ça, j'suis encore souffrant Souffrant On est pistés, y a les 22, les saisies, les huissiers, les clopes c'est offert, c'est un bon l'épicier Putain, j'suis toujours paro même quand j'vais pisser J'crois ça va être un putain de polar mon roman, trop saoulé mais me demande plus C'est comment ? J'pensais être tiré d'affaire mais ça recommence, j'pensais être tiré d'affaire mais ça recommence Ils m'disaient tous Tu vas faire quoi sans plug ?, j'sais qu'ils font rien eux, mais rien qu'ça joue les thugs J'ai mis du Casamigos dans l'cup, j'suis parti, j'ai laissé maman en- J'suis parti, j'ai laissé maman en pleurs, t'es une salope toi, tu fais tout pour plaire Je parle que en facts, mais tu dis l'contraire, j'ai fais trois fois l'tour de la ville avant d'trer-ren Là d'où j'viens, ça peut te faire en dansant, la voisine se plaint d'l'odeur de l'encens Les neveux demandent le prix de l'ensemble, cette baddie pensait qu'on allait finir ensemble Cette baddie pensait qu'on allait finir ensemble Yeah Problème de confiance, problème de vocabulaire, maintenant j'vois l'argent comme un pansement</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>chaîne Ahah Solo, yeah Bébé je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer yeah, yeah C'est encore moi, qu'est-ce que tu croyais ? J'suis pas ton p'tit donc belek au ton employé, cogno boh, boh J'ai préféré m'éloigner, ils m'comprenaient pas, j'ai préféré m'éloigner fiou Ça fait des années, ça fait des années qu'je suis blessé mais le temps va me soigner Tiako' m'a dit La calle, ça te lâche pas, c'est une poucave, cet enfoiré se cache pas yeah, yeah Ouais, mon négro, que je nage fiou, déter', j'ai quitté mon village fiou 243 donc j'ai ça dans les gènes, iI m'inspire la pitié j'ai même pas la haine Et tu m'as peiné, qu'à cela n'tienne, j'ai fait qu'traîner everyday, j'étais solo Yeah, une étoile filante, je fais même plus de vux, la trap ou la mélo', on a tout c'que tu veux Il a trop l'mort, il a même plus de cheveux, on te connaît, bâtard, ne viens pas chez nous Y a que l'ciel, qui peut me mettre à genoux Tu pars et tu reviens, perso je trouve ça chelou, tu pars et tu reviens, perso... Rraah Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, mmh Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, solo J'avais la vision claire pour la suite avec un objectif dans l'viseur han La solitude ça me paie, j'deviens meilleur Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, solo You might also like C'est devenu noir quand on s'exprime, contrôle de cops, tout l'monde s'excite Paname, c'est devenu le Mexique, tout est gratuit si t'es sexy Oh lala, oh lala, oh lala, oh lala, oh lala, oh lala ah Oh lala, oh lala ah, oh lala, oh lala, oh lala ah-ah, ah-ah Nouveau contrat, ma p'tite j'lui fait un chèque, dès l'intro, t'entends le bruit de la chaîne chaîne Beaucoup de traitres, j'en ai pris de la graine, j'me jette de la scène, j'ressors sans mes lacets yih-yih J'suis désolé si tu t'sens menacé yih-yih Ils ont la tête ailleurs, ils ont la tête ailleurs, pour ça qu'j'ai décidé de marcher solo Où est ma cagoule, où sont mes gants ? C'est dans la calle que sont mes gens J'ai déjà gagné, ça fait des années, j'ai mis des paniers depuis longtemps AR Paris-Bruxelles, dans quel hôtel j'emmène mademoiselle ? Marque italienne comme G.G, le succès m'a rendu inaccessible Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, solo Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, solo J'avais la vision claire pour la suite avec un objectif dans l'viseur J'prie pour qu'demain soit meilleur, j'prie pour que demain soit meilleur Et quand j'y pense, j'y vais, ma vision, solo, solo Eh, eh Formidable Autour de moi, cqui spasse, c'nest pas formidable Jai pas trouvé ma place dans la résine, mais je lai trouvé dans la musique han-han-han Jai pas attendu que les choses viennent jusquà moi pour voir ces choses se réaliser han-han-han Ils pensent quon fait ça pour samuser mmh Moi, tant qujai pas touché la cible Moi, tant qujai pas touché la cible Jaurais toujours du mal à fermer les yeux1</t>
+          <t>chaîne Ahah Solo, yeah Bébé je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer yeah, yeah C'est encore moi, qu'est-ce que tu croyais ? J'suis pas ton p'tit donc belek au ton employé, cogno boh, boh J'ai préféré m'éloigner, ils m'comprenaient pas, j'ai préféré m'éloigner fiou Ça fait des années, ça fait des années qu'je suis blessé mais le temps va me soigner Tiako' m'a dit La calle, ça te lâche pas, c'est une poucave, cet enfoiré se cache pas yeah, yeah Ouais, mon négro, que je nage fiou, déter', j'ai quitté mon village fiou 243 donc j'ai ça dans les gènes, iI m'inspire la pitié j'ai même pas la haine Et tu m'as peiné, qu'à cela n'tienne, j'ai fait qu'traîner everyday, j'étais solo Yeah, une étoile filante, je fais même plus de vux, la trap ou la mélo', on a tout c'que tu veux Il a trop l'mort, il a même plus de cheveux, on te connaît, bâtard, ne viens pas chez nous Y a que l'ciel, qui peut me mettre à genoux Tu pars et tu reviens, perso je trouve ça chelou, tu pars et tu reviens, perso... Rraah Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, mmh Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, solo J'avais la vision claire pour la suite avec un objectif dans l'viseur han La solitude ça me paie, j'deviens meilleur Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, solo C'est devenu noir quand on s'exprime, contrôle de cops, tout l'monde s'excite Paname, c'est devenu le Mexique, tout est gratuit si t'es sexy Oh lala, oh lala, oh lala, oh lala, oh lala, oh lala ah Oh lala, oh lala ah, oh lala, oh lala, oh lala ah-ah, ah-ah Nouveau contrat, ma p'tite j'lui fait un chèque, dès l'intro, t'entends le bruit de la chaîne chaîne Beaucoup de traitres, j'en ai pris de la graine, j'me jette de la scène, j'ressors sans mes lacets yih-yih J'suis désolé si tu t'sens menacé yih-yih Ils ont la tête ailleurs, ils ont la tête ailleurs, pour ça qu'j'ai décidé de marcher solo Où est ma cagoule, où sont mes gants ? C'est dans la calle que sont mes gens J'ai déjà gagné, ça fait des années, j'ai mis des paniers depuis longtemps AR Paris-Bruxelles, dans quel hôtel j'emmène mademoiselle ? Marque italienne comme G.G, le succès m'a rendu inaccessible Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, solo Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, solo J'avais la vision claire pour la suite avec un objectif dans l'viseur J'prie pour qu'demain soit meilleur, j'prie pour que demain soit meilleur Et quand j'y pense, j'y vais, ma vision, solo, solo Eh, eh Formidable Autour de moi, cqui spasse, c'nest pas formidable Jai pas trouvé ma place dans la résine, mais je lai trouvé dans la musique han-han-han Jai pas attendu que les choses viennent jusquà moi pour voir ces choses se réaliser han-han-han Ils pensent quon fait ça pour samuser mmh Moi, tant qujai pas touché la cible Moi, tant qujai pas touché la cible Jaurais toujours du mal à fermer les yeux1</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3G, 3G, 3G... Bricksy J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'suis né d'dans, que ma merde s'écoute partout Wahan, han Beaucoup d'smoke, beaucoup d'gaz Han han han J'suis dans les wey pas les I love you Cicatrice, pas d'tattoo B2K, j'arrive badaboom J'suis comme balling comme joueur de balafon J'peux griller un bandeur, à comment il met l'Lacoste Beaucoup parler et pa-parler, c'est s'mettre un pied dans sa tombe À la base c'était un bon, maintenant que il bombe J'suis là pour poser des bombes Beaucoup parler et pa-parler, c'est s'mettre un pied dans sa tombe A la base c'était un bon, maintenant que il bombe J'suis là pour poser des bombes You might also like J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'suis né d'dans, que ma merde s'écoute partout Wahan, han Beaucoup d'smoke, beaucoup d'gaz Han han han Un frérot vise le sommet, un autre lui porte l'il Comme une routine ma le-gueu on voit trop ça donc faux amis j'ai fait le deuil Lowkey trappin' everyday Si tu nous veux faut tu payes Le temps passe et toi tu play J'vois pas la vie comme un game Jétais bien avant qule ton monte Tellement de grammes dans un poumon Tu sais qu'on fait ça comme personne ma le-gueu pourquoi toi tu fais ça comme tout l'monde ? Méga Rolly sur un poignet, fuck un jambon, fuck un douanier Le rap va payer mon loyer J'voyais au fond de nous on le savait J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'suis né d'dans, que ma merde s'écoute partout Wahan, han Beaucoup d'smoke, beaucoup d'gaz Han han han</t>
+          <t>3G, 3G, 3G... Bricksy J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'suis né d'dans, que ma merde s'écoute partout Wahan, han Beaucoup d'smoke, beaucoup d'gaz Han han han J'suis dans les wey pas les I love you Cicatrice, pas d'tattoo B2K, j'arrive badaboom J'suis comme balling comme joueur de balafon J'peux griller un bandeur, à comment il met l'Lacoste Beaucoup parler et pa-parler, c'est s'mettre un pied dans sa tombe À la base c'était un bon, maintenant que il bombe J'suis là pour poser des bombes Beaucoup parler et pa-parler, c'est s'mettre un pied dans sa tombe A la base c'était un bon, maintenant que il bombe J'suis là pour poser des bombes J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'suis né d'dans, que ma merde s'écoute partout Wahan, han Beaucoup d'smoke, beaucoup d'gaz Han han han Un frérot vise le sommet, un autre lui porte l'il Comme une routine ma le-gueu on voit trop ça donc faux amis j'ai fait le deuil Lowkey trappin' everyday Si tu nous veux faut tu payes Le temps passe et toi tu play J'vois pas la vie comme un game Jétais bien avant qule ton monte Tellement de grammes dans un poumon Tu sais qu'on fait ça comme personne ma le-gueu pourquoi toi tu fais ça comme tout l'monde ? Méga Rolly sur un poignet, fuck un jambon, fuck un douanier Le rap va payer mon loyer J'voyais au fond de nous on le savait J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'veux deux Rollies sur mon poignet, plan à la Fidel Castro J'suis né d'dans, que ma merde s'écoute partout Wahan, han Beaucoup d'smoke, beaucoup d'gaz Han han han</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Agis comme vilain Agis comme vilain Elle met sa langue, elle fait ça bien, j'crois elle est bilingue Bilingue yeah Touche pas mes biens maintenant faut mailler pour les miens Faut mailler C'est bien, direct j'vais au magasin, veste tout satin Veste tout satin Fait que y a Satan qui nous attend pas loin des billets Fait que y a Satan Qui es-tu ? Toi là-bas, tu veux qu'un billet Salut c'est Khali, j'suis avec La Fève, salam enchanté J'suis avec La Fèv T'as fait que jacter, nous c'est la nw-wave, vous c'est les fanés Nous c'est la new-wave J'suis pas sur Paris, sur moi tu paries, c'est assez risqué Les potos valident, les zin-cou aussi j'suis immunisé J't'amène au musée quand t'écoutes l'EP, tu captes la vision Tu captes la vision Regarde pas c'qu'ils ont, regarde dans l'assiette, demain nous mangerons Donne-moi ton assiette Dégaine de mushroom, oui j'ai des grands veuchs, dans la bedroom J'suis un mushroom Sers-nous un gazouz, un Selecto frais, fais-nous un cadeau Ferme donc ta bouche sinon coup d'babouche, j'y vais comme hadou Sinon coup d'babouche Pas de crise d'ado sinon on écoute sinon tu déroutes Pas de crise d'ado Maintenant c'est Babou, demain c'est Gucci, demain c'est à nous Maintenant c'est Babou Boulimique, on a faim jusqu'à en vomir Jusqu'à en vomir Fais ta vie, joue le saint, ils sont pas débiles Ils sont pas débiles Focalise-toi dans ça, et vois si tu mérites Jamais tu mérites, t'es dans le déni You might also like Agis comme vilain Vilain, vilain Elle met sa langue, elle fait ça bien, j'crois elle est bilingue Bilingue yeah Touche pas mes biens maintenant faut mailler pour les miens Faut mailler C'est bien, direct j'vais au magasin, veste tout satin Veste tout satin Fait que y a Satan qui nous attend pas loin des billets Fait que y a Satan Yeah, let's go, tu sais où j'habite c'était mieux jadis, mais on s'adapte Mais on s'adapte J'té-fri indica, poto ça dit quoi ? Comment ça date Let's go Tu sais pas faire donc on va t'apprendre comme à l'école Comme à la school Bentley Mulsanne, grillz en roro et ça décolle Let's go J'suis puissant comme une planète, amen j'traîne pas avec des mecs louches Mecs louches Frérot guette ma dégaine bien sûr qu'j'ai un problème avec les khnouch J'ai un problème avec- Tu vas mal faut qu'au brises tes chaînes homie quand je rap je fais pas l'tho-my Tho-my On s'souvient d'c'qu'on a commis, au mic j'ai le charisme à Malcolm X Yeah Khali La Fève c'est un très bon mélange Gros le temps passe et on prend de l'âge De l'âge Envoie d'la force, ça part de là Yeah Ça sent l'roussi on part de là Yeah, yeah Dans la foule qui m'dit ouais faudrait qu'on m'donne le mérite qu'on m'doit Le mérite qu'on m'doit Tu essayes de suivre les mouvs mais poto on est pas comme toi Tu dis des bullshits, j'rap c'est une boucherie t'as capté l'aura T'as capté l'aura Gros c'est la new-wave so à Kosei le beat c'est du lourd hein Yeah, OK Boulimique on a faim jusqu'à en vomir Jusqu'à en vomir Toi on sait que t'es un serpent on t'a vu venir On t'a vu venir Agis comme vilain Vilain, vilain Elle met sa langue, elle fait ça bien, j'crois elle est bilingue Bilingue yeah Touche pas mes biens maintenant faut mailler pour les miens Faut mailler C'est bien, direct j'vais au magasin, veste tout satin Veste tout satin Fait que y a Satan qui nous attend pas loin des billets3</t>
+          <t>Agis comme vilain Agis comme vilain Elle met sa langue, elle fait ça bien, j'crois elle est bilingue Bilingue yeah Touche pas mes biens maintenant faut mailler pour les miens Faut mailler C'est bien, direct j'vais au magasin, veste tout satin Veste tout satin Fait que y a Satan qui nous attend pas loin des billets Fait que y a Satan Qui es-tu ? Toi là-bas, tu veux qu'un billet Salut c'est Khali, j'suis avec La Fève, salam enchanté J'suis avec La Fèv T'as fait que jacter, nous c'est la nw-wave, vous c'est les fanés Nous c'est la new-wave J'suis pas sur Paris, sur moi tu paries, c'est assez risqué Les potos valident, les zin-cou aussi j'suis immunisé J't'amène au musée quand t'écoutes l'EP, tu captes la vision Tu captes la vision Regarde pas c'qu'ils ont, regarde dans l'assiette, demain nous mangerons Donne-moi ton assiette Dégaine de mushroom, oui j'ai des grands veuchs, dans la bedroom J'suis un mushroom Sers-nous un gazouz, un Selecto frais, fais-nous un cadeau Ferme donc ta bouche sinon coup d'babouche, j'y vais comme hadou Sinon coup d'babouche Pas de crise d'ado sinon on écoute sinon tu déroutes Pas de crise d'ado Maintenant c'est Babou, demain c'est Gucci, demain c'est à nous Maintenant c'est Babou Boulimique, on a faim jusqu'à en vomir Jusqu'à en vomir Fais ta vie, joue le saint, ils sont pas débiles Ils sont pas débiles Focalise-toi dans ça, et vois si tu mérites Jamais tu mérites, t'es dans le déni Agis comme vilain Vilain, vilain Elle met sa langue, elle fait ça bien, j'crois elle est bilingue Bilingue yeah Touche pas mes biens maintenant faut mailler pour les miens Faut mailler C'est bien, direct j'vais au magasin, veste tout satin Veste tout satin Fait que y a Satan qui nous attend pas loin des billets Fait que y a Satan Yeah, let's go, tu sais où j'habite c'était mieux jadis, mais on s'adapte Mais on s'adapte J'té-fri indica, poto ça dit quoi ? Comment ça date Let's go Tu sais pas faire donc on va t'apprendre comme à l'école Comme à la school Bentley Mulsanne, grillz en roro et ça décolle Let's go J'suis puissant comme une planète, amen j'traîne pas avec des mecs louches Mecs louches Frérot guette ma dégaine bien sûr qu'j'ai un problème avec les khnouch J'ai un problème avec- Tu vas mal faut qu'au brises tes chaînes homie quand je rap je fais pas l'tho-my Tho-my On s'souvient d'c'qu'on a commis, au mic j'ai le charisme à Malcolm X Yeah Khali La Fève c'est un très bon mélange Gros le temps passe et on prend de l'âge De l'âge Envoie d'la force, ça part de là Yeah Ça sent l'roussi on part de là Yeah, yeah Dans la foule qui m'dit ouais faudrait qu'on m'donne le mérite qu'on m'doit Le mérite qu'on m'doit Tu essayes de suivre les mouvs mais poto on est pas comme toi Tu dis des bullshits, j'rap c'est une boucherie t'as capté l'aura T'as capté l'aura Gros c'est la new-wave so à Kosei le beat c'est du lourd hein Yeah, OK Boulimique on a faim jusqu'à en vomir Jusqu'à en vomir Toi on sait que t'es un serpent on t'a vu venir On t'a vu venir Agis comme vilain Vilain, vilain Elle met sa langue, elle fait ça bien, j'crois elle est bilingue Bilingue yeah Touche pas mes biens maintenant faut mailler pour les miens Faut mailler C'est bien, direct j'vais au magasin, veste tout satin Veste tout satin Fait que y a Satan qui nous attend pas loin des billets3</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yeah, bon, j'suis sad là, qui partage ma peine ? On cherche le cash err'day, cherche le mapess J'suis angry y'a qu'une bitch qui m'apaise J'suis angry y'a qu'une bitch qui m'apaise Des anciens potos qui rappellent J'suis sad là, qui partage ma peine ? Cherche le cash err'day, cherche le mapess Cherche le cash err'day, cherche le mapess Ce soir j'veux mettr sous Jack honey T'inquiètes la faille, on la connait A ctte misère on est abonné A cette misère on est abonné Quelques plan-gan sous un bonnet Faut faire ce gwap, il faut charbonner Faut faire ce gwap, il faut charbonner, lets go J'suis sad là j'peux pas en parler Avant on s'comprenait sans parler Jsuis La Fève G faut pas m'comparer La Fève G faut pas m'comparer Le temps il passe donc c'est plus pareil Y'a trop de gens qui sont dans l'paraitre J'y pense, jrec ça dans l'appareil J'y pense, jrec ça dans l'appareil J'y pense et on remplit le cahier Des sans le sou qui voulaient juste mailler Des sans le sou qui voulaient juste mailler Des sans le sou qui voulaient juste mailler Tire que des barz, j'me sens comme l'Uzi Fait ça err'day j'me sens comme l'usine Avec le K on fait some good music Avec le K on fait some good music Bientôt la tête dans les magazines Tellement de peine qu'on emmagasine La 808 fait chier la voisine La 808 fait chier la voisine Faut un T-max, faut une Harley Soûl Funk on est pas trop Bob Marley Ce son j'le fais comme si j'te parlais Avant les gadjis elles m'rembarraient Les trahisons ça me rend paro J'vois du goudron des cendres maleug Maleug Donc la vie je la vois pas rose Donc la vie je la vois pas rose T'avais des rêves tu les as barrés T'as tourné la page hier Hier Et puis un autre problème apparait You might also like Yeah, bon, j'suis sad là, qui partage ma peine ? Cherche le cash err'day, cherche le mapess J'suis angry y'a qu'une bitch qui m'apaise J'suis angry y'a qu'une bitch qui m'apaise Des anciens potos qui rappellent J'suis sad là, qui partage ma peine ? Cherche le cash err'day, cherche le mapess Cherche le cash err'day, cherche le mapess Ce soir j'veux mettre sous Jack honey T'inquiètes la faille, on la connait A cette misère on est abonné A cette misère on est abonné Quelques plans-gan sous un bonnet Faut faire ce gwap, il faut charbonner Faut faire ce gwap, il faut charbonner, let's go</t>
+          <t>Yeah, bon, j'suis sad là, qui partage ma peine ? On cherche le cash err'day, cherche le mapess J'suis angry y'a qu'une bitch qui m'apaise J'suis angry y'a qu'une bitch qui m'apaise Des anciens potos qui rappellent J'suis sad là, qui partage ma peine ? Cherche le cash err'day, cherche le mapess Cherche le cash err'day, cherche le mapess Ce soir j'veux mettr sous Jack honey T'inquiètes la faille, on la connait A ctte misère on est abonné A cette misère on est abonné Quelques plan-gan sous un bonnet Faut faire ce gwap, il faut charbonner Faut faire ce gwap, il faut charbonner, lets go J'suis sad là j'peux pas en parler Avant on s'comprenait sans parler Jsuis La Fève G faut pas m'comparer La Fève G faut pas m'comparer Le temps il passe donc c'est plus pareil Y'a trop de gens qui sont dans l'paraitre J'y pense, jrec ça dans l'appareil J'y pense, jrec ça dans l'appareil J'y pense et on remplit le cahier Des sans le sou qui voulaient juste mailler Des sans le sou qui voulaient juste mailler Des sans le sou qui voulaient juste mailler Tire que des barz, j'me sens comme l'Uzi Fait ça err'day j'me sens comme l'usine Avec le K on fait some good music Avec le K on fait some good music Bientôt la tête dans les magazines Tellement de peine qu'on emmagasine La 808 fait chier la voisine La 808 fait chier la voisine Faut un T-max, faut une Harley Soûl Funk on est pas trop Bob Marley Ce son j'le fais comme si j'te parlais Avant les gadjis elles m'rembarraient Les trahisons ça me rend paro J'vois du goudron des cendres maleug Maleug Donc la vie je la vois pas rose Donc la vie je la vois pas rose T'avais des rêves tu les as barrés T'as tourné la page hier Hier Et puis un autre problème apparait Yeah, bon, j'suis sad là, qui partage ma peine ? Cherche le cash err'day, cherche le mapess J'suis angry y'a qu'une bitch qui m'apaise J'suis angry y'a qu'une bitch qui m'apaise Des anciens potos qui rappellent J'suis sad là, qui partage ma peine ? Cherche le cash err'day, cherche le mapess Cherche le cash err'day, cherche le mapess Ce soir j'veux mettre sous Jack honey T'inquiètes la faille, on la connait A cette misère on est abonné A cette misère on est abonné Quelques plans-gan sous un bonnet Faut faire ce gwap, il faut charbonner Faut faire ce gwap, il faut charbonner, let's go</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tu veux de la fame, moi, redev'nir anonyme mais j'arrêterai quand j'aurai pris la money Ouais J'm'en bats les couilles de rapper à la Philharmonie J'm'en bats les couilles J'devenais paro Ouais, ça m'a fait détester la beuh Ah Me faire lécher la queue Han jusqu'au jour où je serais là-haut Hey, voilà tout ce qu'un scélérat veut Let's go C'est des rageux Ouais, ils ont mis ma photo dans le stand de tir T'envoies aucune émotion Han, pourtant, tu rappes qu sur des samples tristes On va nculer vos sons Ouais, ils s'ressemblent comme des centres-villes Comme quoi ? T'as encore fait une dinguerie sans m'le dire Ouais, je vais te saigner sans m'retenir Hey Seigneur, mets-moi loin d'eux, d'être avec les siens, y a rien d'mieux Hey J'en profite avant que la mort ne nous coince Ouais, tout peut basculer en moins d'deux En moins d'deux J'pense à nos morts et j'espère que le divin prend soin d'eux J'espère J'veux slider dans le droit ch'min mais j'fais trop d'erreur, c'est pas simple Eh, eh, eh, eh Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin d'eux Yes Pas d'paradis ici, je vois rien de tel De tel La Fève, t'as changé, elle m'dit On s'parle plus au tél' Au tél' Mais tu sais, moi, je bosse Je bosse pour la place du boss Du boss Tu sais, j'gratte trop l'bitume, frérot, sur l'pied, j'ai des bosses Let's go J'vois ton aura, pourquoi tu mens ? J'vois qu't'es pas sûr de tes mouv' Pas sûr de tes mouv' J'fais comme virgule, roulette, toi, t'essayes de suivre mais t'es où ? T'es honteuse, yeah Cramé comme la Mondéo 'déo, jeune, instable comme la météo Nan, nan, la météo Yes, doué dans l'imagerie genre Pablo, Amedeo Pablo, Amedeo, yeah, yeah You might also like Tu pourrais vendre un frère pour ton propre bénéf' Bénéf' Faut qu'j'reste sur mes appuis, faut que j'fasse belek Yeah Tu pourrais vendre un frère pour ton propre bénéf' Bénéf' Faut qu'j'reste sur mes appuis, faut que j'fasse belek, let's go Eh, eh Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin d'eux Han, OG Sama, c'est l'fucking flow qui s'abat Premier seize à seize ans, direct le cro-mi crama OG Villa avec vestibule Boss, contrat avec six bulles Chérie, tu manques de skills, il est temps qu't'apprennes que même les mecs simulent Oups Dans un motel avec une modèle qui rêve d'exposition Piou-piouh Elle voit ses ambitions en solde comme le modèle d'exposition Si demain, j'croise un pédophile, j'l'écrase dans toutes les positions Mon pays protège les pointeurs, pourquoi faire une déposition ? Ils parlent de bails de RS3, d'histoires qui se règlent au FAMAS En vrai, ils attendent RSA pour mettre des levrettes au Dallas Tous ces thos-my, ces forceurs, ces harceleurs Faut même pas leur ler-par, faut même pas leur passer l'heure Let's go Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin d'eux Oh</t>
+          <t>Tu veux de la fame, moi, redev'nir anonyme mais j'arrêterai quand j'aurai pris la money Ouais J'm'en bats les couilles de rapper à la Philharmonie J'm'en bats les couilles J'devenais paro Ouais, ça m'a fait détester la beuh Ah Me faire lécher la queue Han jusqu'au jour où je serais là-haut Hey, voilà tout ce qu'un scélérat veut Let's go C'est des rageux Ouais, ils ont mis ma photo dans le stand de tir T'envoies aucune émotion Han, pourtant, tu rappes qu sur des samples tristes On va nculer vos sons Ouais, ils s'ressemblent comme des centres-villes Comme quoi ? T'as encore fait une dinguerie sans m'le dire Ouais, je vais te saigner sans m'retenir Hey Seigneur, mets-moi loin d'eux, d'être avec les siens, y a rien d'mieux Hey J'en profite avant que la mort ne nous coince Ouais, tout peut basculer en moins d'deux En moins d'deux J'pense à nos morts et j'espère que le divin prend soin d'eux J'espère J'veux slider dans le droit ch'min mais j'fais trop d'erreur, c'est pas simple Eh, eh, eh, eh Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin d'eux Yes Pas d'paradis ici, je vois rien de tel De tel La Fève, t'as changé, elle m'dit On s'parle plus au tél' Au tél' Mais tu sais, moi, je bosse Je bosse pour la place du boss Du boss Tu sais, j'gratte trop l'bitume, frérot, sur l'pied, j'ai des bosses Let's go J'vois ton aura, pourquoi tu mens ? J'vois qu't'es pas sûr de tes mouv' Pas sûr de tes mouv' J'fais comme virgule, roulette, toi, t'essayes de suivre mais t'es où ? T'es honteuse, yeah Cramé comme la Mondéo 'déo, jeune, instable comme la météo Nan, nan, la météo Yes, doué dans l'imagerie genre Pablo, Amedeo Pablo, Amedeo, yeah, yeah Tu pourrais vendre un frère pour ton propre bénéf' Bénéf' Faut qu'j'reste sur mes appuis, faut que j'fasse belek Yeah Tu pourrais vendre un frère pour ton propre bénéf' Bénéf' Faut qu'j'reste sur mes appuis, faut que j'fasse belek, let's go Eh, eh Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin d'eux Han, OG Sama, c'est l'fucking flow qui s'abat Premier seize à seize ans, direct le cro-mi crama OG Villa avec vestibule Boss, contrat avec six bulles Chérie, tu manques de skills, il est temps qu't'apprennes que même les mecs simulent Oups Dans un motel avec une modèle qui rêve d'exposition Piou-piouh Elle voit ses ambitions en solde comme le modèle d'exposition Si demain, j'croise un pédophile, j'l'écrase dans toutes les positions Mon pays protège les pointeurs, pourquoi faire une déposition ? Ils parlent de bails de RS3, d'histoires qui se règlent au FAMAS En vrai, ils attendent RSA pour mettre des levrettes au Dallas Tous ces thos-my, ces forceurs, ces harceleurs Faut même pas leur ler-par, faut même pas leur passer l'heure Let's go Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin d'eux Oh</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Han, yeah Faudrait quj'arrête de parler de snake mais y a que ça, ma sur Si la mort vient pour toi, reste serein mon sang J'peux pas juger une tête cramée, j'sais qu'la plupart des fils de pute ont l'air innocent S'te plait, arrête de m'affilier, s'te plait, arrête de m'appeler, on n'est pas ensemble Maintenant j'suis même plus étonné, on nous a pris, on a donné Je viens de là où les fleurs restent sous terre On chassait la lumière depuis les souterrains Parfois c'est l'urgence qui t'empêche de douter Là bas, t'es peut-être un grand mais ici t'es rien On m'appelle Fev depuis mon premier couplet On t'appelle Salope depuis ta première faute On s'rappelle même plus des prods qu'on a coupé J'suis resté l'même, même si c'est plus les mêmes flows Comment faire pour garder la foi, pour pas perdre mon calme ? J'suis pas comme eux, c'est mieux j'reste à part Comment faire pour garder la foi, pour pas perdre mon calme ? J'suis pas comme eux, c'est mieux j'reste à part Si j'avais su quj'allais monter si vite, peut-être que j'aurais refusé deux, trois plavons passés On se check, on se parle mais nos liens sont cassés J'mélange la kush avec les opiacés Je suis parti très tôt de mon habitat, ma leug' Prada shopping et j'me ravitaille à l'il Avec le temps, l'amour a pris d'la valeur J'suis venu serein, j'suis reparti larme à l'il Je te dis sincèrement, le game ce n'est pas c'que tu crois Une représaille arrive plus vite que tu crois Donc belek à celui qu't'as pointé du doigt Yeah, j'suis à la fenêtre, j'ai fini mon ce-di J'fais un constat sur cette jungle et j'me dis You might also like Faudrait que j'arrête de parler de snake mais y a que ça, ma sur Si la mort vient pour toi, reste serein mon sang J'peux pas juger une tête cramée, j'sais qu'la plupart des fils de pute ont l'air innocent S'te plait, arrête de m'affilier, s'te plait, arrête de m'appeler, on n'est pas ensemble Maintenant j'suis même plus étonné, on nous a pris, on a donné Je viens de là où les fleurs restent sous terre On chassait la lumière depuis les souterrains Parfois c'est l'urgence qui t'empêche de douter Là bas, t'es peut-être un grand mais ici t'es rien On m'appelle Fev depuis mon premier couplet On t'appelle Salope depuis ta première faute On s'rappelle même plus des prods qu'on a coupé J'suis resté l'même, même si c'est plus les mêmes flows Comment faire pour garder la foi, pour pas perdre mon calme ? J'suis pas comme eux, c'est mieux j'reste à part Comment faire pour garder la foi, pour pas perdre mon calme ? J'suis pas comme eux, c'est mieux j'reste à part</t>
+          <t>Han, yeah Faudrait quj'arrête de parler de snake mais y a que ça, ma sur Si la mort vient pour toi, reste serein mon sang J'peux pas juger une tête cramée, j'sais qu'la plupart des fils de pute ont l'air innocent S'te plait, arrête de m'affilier, s'te plait, arrête de m'appeler, on n'est pas ensemble Maintenant j'suis même plus étonné, on nous a pris, on a donné Je viens de là où les fleurs restent sous terre On chassait la lumière depuis les souterrains Parfois c'est l'urgence qui t'empêche de douter Là bas, t'es peut-être un grand mais ici t'es rien On m'appelle Fev depuis mon premier couplet On t'appelle Salope depuis ta première faute On s'rappelle même plus des prods qu'on a coupé J'suis resté l'même, même si c'est plus les mêmes flows Comment faire pour garder la foi, pour pas perdre mon calme ? J'suis pas comme eux, c'est mieux j'reste à part Comment faire pour garder la foi, pour pas perdre mon calme ? J'suis pas comme eux, c'est mieux j'reste à part Si j'avais su quj'allais monter si vite, peut-être que j'aurais refusé deux, trois plavons passés On se check, on se parle mais nos liens sont cassés J'mélange la kush avec les opiacés Je suis parti très tôt de mon habitat, ma leug' Prada shopping et j'me ravitaille à l'il Avec le temps, l'amour a pris d'la valeur J'suis venu serein, j'suis reparti larme à l'il Je te dis sincèrement, le game ce n'est pas c'que tu crois Une représaille arrive plus vite que tu crois Donc belek à celui qu't'as pointé du doigt Yeah, j'suis à la fenêtre, j'ai fini mon ce-di J'fais un constat sur cette jungle et j'me dis Faudrait que j'arrête de parler de snake mais y a que ça, ma sur Si la mort vient pour toi, reste serein mon sang J'peux pas juger une tête cramée, j'sais qu'la plupart des fils de pute ont l'air innocent S'te plait, arrête de m'affilier, s'te plait, arrête de m'appeler, on n'est pas ensemble Maintenant j'suis même plus étonné, on nous a pris, on a donné Je viens de là où les fleurs restent sous terre On chassait la lumière depuis les souterrains Parfois c'est l'urgence qui t'empêche de douter Là bas, t'es peut-être un grand mais ici t'es rien On m'appelle Fev depuis mon premier couplet On t'appelle Salope depuis ta première faute On s'rappelle même plus des prods qu'on a coupé J'suis resté l'même, même si c'est plus les mêmes flows Comment faire pour garder la foi, pour pas perdre mon calme ? J'suis pas comme eux, c'est mieux j'reste à part Comment faire pour garder la foi, pour pas perdre mon calme ? J'suis pas comme eux, c'est mieux j'reste à part</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>They know that I like my beat, freaky like this hoe Ah, oh yeah, Gwapo Ouvre la porte, c'est Fakri Jenkins à la prod Less' Yes, ok un Faudrait j'me pète une avance à 500 J'achète deux teum et puis j'me refais 500 Ici, trop d'baddies baraudent en Fiat 500, sur pépé j'crois mon radar devient fou Un faux nég' ça date pas d'hier, y en avait déjà dans les années 1500 Ouais, tu m'verras pas trop parler d'avant, les souvenirs que j'ai me remémorent des bains d'sang On a fait du bruit, à pas de souris, on a fait du bruit Jconnais des monuments qui ont fini ruines C'est real rap shit, c'est pas Olivia Ruiz Là, j'suis dans le studio, je chante comme Diana Ross Essence dans la cabine, je pose dans la brume Juda est à tec' toi tu crois qu'c'est un proche Le bourge gratte son nez mais toi tu crois au rhume Ok bitch, get the fuck off Dans ton équipe, il n'y a que des flockos Fait grandir la ppe-fra dans les bocaux Cherche des filons avec Stycoloco Personne qui me stoppe donc je n'peux pas m'arrêter Les mêmes phrases à chaque fois qu'on s'fait arrêter La gadji n'en peux plus, me supplie d'arrêter Fugazi tout-par s'il vous plaît arrêtez Ok, un Non je n'veux pas d'ton avance à 200 Ouais jvis ma vie mais cette chienne n'a pas de sens On m'a toujours appris à faire le bon, le respect jle donne mais ça va dans les deux sens La rue ça pue, ça sent pas le Jacques Dessange Trop paro', avant d'dormir j'ai vu deux anges Depuis le plus jeune âge j'aime la vitesse, ça va en Allemagne juste pour rider à 200, pépère Tu vis mais tu veux aller où sans pépettes ? On m'a dit C'est l'sport ou le rap si t'es bête Chérie, tu veux pas devenir pauvre, si t'es belle faut juste en avoir dans la cab' Back then en hiver, rien à faire, fais TP, ça squattait tout-par même la cave J'suis cheaté, pourquoi tu veux test p'tit teubé, je te prends même si c'est accap Ok, un Ouais faudrait qu'mon avance elle triple ou quadruple Chienne de vie, la mort s'achète au coin d'rue Qu'est c'qu'tu veux faire ici si tu n'as pas d'ruse ? Prada bag, golden bague, grosses coupures en bazar dans le bag J'le connais depuis, si y a besoin c'est l'backup C'est mon sangui jdis faites du bruit pour mon backeur You might also like Ok, un Faudrait j'me pète une avance à 500, j'achète deux teum et puis j'me refais 500 Ici, trop d'baddies baraudent en Fiat 500, sur pépé j'crois qu'mon radar devient fou Un faux nég' ça date pas d'hier, y en avait déjà dans les années 1500 Ouais, tu m'verras pas trop parler d'avant, les souvenirs que j'ai me remémorent des-</t>
+          <t>They know that I like my beat, freaky like this hoe Ah, oh yeah, Gwapo Ouvre la porte, c'est Fakri Jenkins à la prod Less' Yes, ok un Faudrait j'me pète une avance à 500 J'achète deux teum et puis j'me refais 500 Ici, trop d'baddies baraudent en Fiat 500, sur pépé j'crois mon radar devient fou Un faux nég' ça date pas d'hier, y en avait déjà dans les années 1500 Ouais, tu m'verras pas trop parler d'avant, les souvenirs que j'ai me remémorent des bains d'sang On a fait du bruit, à pas de souris, on a fait du bruit Jconnais des monuments qui ont fini ruines C'est real rap shit, c'est pas Olivia Ruiz Là, j'suis dans le studio, je chante comme Diana Ross Essence dans la cabine, je pose dans la brume Juda est à tec' toi tu crois qu'c'est un proche Le bourge gratte son nez mais toi tu crois au rhume Ok bitch, get the fuck off Dans ton équipe, il n'y a que des flockos Fait grandir la ppe-fra dans les bocaux Cherche des filons avec Stycoloco Personne qui me stoppe donc je n'peux pas m'arrêter Les mêmes phrases à chaque fois qu'on s'fait arrêter La gadji n'en peux plus, me supplie d'arrêter Fugazi tout-par s'il vous plaît arrêtez Ok, un Non je n'veux pas d'ton avance à 200 Ouais jvis ma vie mais cette chienne n'a pas de sens On m'a toujours appris à faire le bon, le respect jle donne mais ça va dans les deux sens La rue ça pue, ça sent pas le Jacques Dessange Trop paro', avant d'dormir j'ai vu deux anges Depuis le plus jeune âge j'aime la vitesse, ça va en Allemagne juste pour rider à 200, pépère Tu vis mais tu veux aller où sans pépettes ? On m'a dit C'est l'sport ou le rap si t'es bête Chérie, tu veux pas devenir pauvre, si t'es belle faut juste en avoir dans la cab' Back then en hiver, rien à faire, fais TP, ça squattait tout-par même la cave J'suis cheaté, pourquoi tu veux test p'tit teubé, je te prends même si c'est accap Ok, un Ouais faudrait qu'mon avance elle triple ou quadruple Chienne de vie, la mort s'achète au coin d'rue Qu'est c'qu'tu veux faire ici si tu n'as pas d'ruse ? Prada bag, golden bague, grosses coupures en bazar dans le bag J'le connais depuis, si y a besoin c'est l'backup C'est mon sangui jdis faites du bruit pour mon backeur Ok, un Faudrait j'me pète une avance à 500, j'achète deux teum et puis j'me refais 500 Ici, trop d'baddies baraudent en Fiat 500, sur pépé j'crois qu'mon radar devient fou Un faux nég' ça date pas d'hier, y en avait déjà dans les années 1500 Ouais, tu m'verras pas trop parler d'avant, les souvenirs que j'ai me remémorent des-</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D, Di J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D, Di J'vois pas l'bout du tunnel comme Princesse Diane J'm'en vais mais tu restes al 2020 boy on arrive La jungle c'est aride donc je suis bestial La misère c'est ma bestah La vie d'artiste c'est la pire des vies Dans ma teuté y a deux milles devises A côté d'une très grande pile de vice J'suis dans un tunnel, je n'vois pas la lumière au bout La Fève je t'aime beaucoup Ca fait des années Que j'pilote une grande soucoupe J'vole au dessus d'un nid de coucou J'suis un espion J'observe les vies privées Mes lunettes sont vitrifiées La fève il va vite briller, poto je veux mille billets J'pense à moi, avant que j'fasse un chérubin Avant qu'j'en fasse chier plus qu'un Putain Tant de nejeus qui portent l'oeil alors qu'je veux que du bien Putain j'ai trop de goudron dans mes cavités Je contrôle la gravité Va la bas Poto je n'sais pas qui t'es, La Fève c'est la vanité J'suis dans l'autre monde, de l'autre coté du périph La Fève soldat aguerri J'ai pécho une bactérie et depuis je n'ai pas guéri J'suis arrière gauche, j'fais des roulettes Le coach n'aime pas ça me dit Arrête ça 3 milliards de flow dans ma cabeza Même tout ça peine à me calmer sah J'vois pas le bout du périple Je vis ma jeunesse et c'est terrible Nique sa mere, l'intérim-euh J'te jure, c'est la vérité Jeune La Fève n'est pas tranquille J'entends des fantômes bouger sous mon lit J'suis un grand- espion comme Kim Philby Là-haut je veux 1000 fimbis You might also like J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D, Di J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D, Di J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D, Di J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D, Di</t>
+          <t>J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D, Di J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D, Di J'vois pas l'bout du tunnel comme Princesse Diane J'm'en vais mais tu restes al 2020 boy on arrive La jungle c'est aride donc je suis bestial La misère c'est ma bestah La vie d'artiste c'est la pire des vies Dans ma teuté y a deux milles devises A côté d'une très grande pile de vice J'suis dans un tunnel, je n'vois pas la lumière au bout La Fève je t'aime beaucoup Ca fait des années Que j'pilote une grande soucoupe J'vole au dessus d'un nid de coucou J'suis un espion J'observe les vies privées Mes lunettes sont vitrifiées La fève il va vite briller, poto je veux mille billets J'pense à moi, avant que j'fasse un chérubin Avant qu'j'en fasse chier plus qu'un Putain Tant de nejeus qui portent l'oeil alors qu'je veux que du bien Putain j'ai trop de goudron dans mes cavités Je contrôle la gravité Va la bas Poto je n'sais pas qui t'es, La Fève c'est la vanité J'suis dans l'autre monde, de l'autre coté du périph La Fève soldat aguerri J'ai pécho une bactérie et depuis je n'ai pas guéri J'suis arrière gauche, j'fais des roulettes Le coach n'aime pas ça me dit Arrête ça 3 milliards de flow dans ma cabeza Même tout ça peine à me calmer sah J'vois pas le bout du périple Je vis ma jeunesse et c'est terrible Nique sa mere, l'intérim-euh J'te jure, c'est la vérité Jeune La Fève n'est pas tranquille J'entends des fantômes bouger sous mon lit J'suis un grand- espion comme Kim Philby Là-haut je veux 1000 fimbis J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D, Di J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D, Di J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D, Di J'vois pas l'bout du tunnel comme Lady D, Di Tunnel comme Lady D, Di</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yeah Yes, ok Poto, rien n'a changé depuis longtemps mais bientôt ma vie prend un grand tournant Tu fais confiance aux gens mais ils veulent te voler ta place quand tas ldos tourné On fait les choses à la manière de chez nous, la précision des chinois La F il est yomb, le karma est déchaîné, dehors je vois des chats noirs Et j'aime quand la basse tabasse, quand la prod' me donne des frissons, la chair de poule Des grands au bar tabac que je revois narrivent même plus à tenir debout La Fève veut pas joindre les deux bouts, il veut créer tout un univers Même si tout va mal, je te promets que je ne passe pas le pacte avec Lucifer Toujours pareil dans la cabine je fais des murders again et again J'suis fatigué, je dois soulever le poids de mes péchés, je gaine et je gaine Trop de problèmes, j'en ai des migraines, mon frère, je pense à tout ça dans l'bus J'suis dans le game, c'est toujours la même dégaine de fonblar sous la capuche J'habite à Fontenay-Sous-Bois, mais bientôt je quitte la ville pour aller autre part Gros, on est jeunes et sournois donc bientôt on va tous manger comme des gros porcs Garer sa gov' à laéroport, court derrière ça comme des léopards Faut faire belek, mon gava, si le coup part, jeune espion c'est le coupable J'suis bon dans les gimmicks, flow au dessus de la moyenne, j'ai ça dans les boyaux, mais toi tu es timide Toi tu es un copieur du coup tous les rappeurs, mon négro, tu les imites La Fève c'est du millésime, la zik' me prend pas le sinus De ma mort je vois les signes Yeah, yeah You might also like Que des soldats à ma table, Kosei, La Fève sur le tableau Mets du Walone sur le cable, toi et lui c'est le même taro La Fève s'abat comme la foudre, La Fève s'abat comme la foudre J'suis un ne-jeu j'ai la fougue, j'suis un ne-jeu j'ai la fougue Que des soldats à ma table, Kosei, La Fève sur le tableau Mets du Walone sur le câble, toi et lui c'est le même taro La Fève s'abat comme la foudre, La Fève s'abat comme la foudre J'suis un ne-jeu j'ai la fougue, j'suis un ne-jeu j'ai la fougue La Fève s'abat comme la foudre J'suis un ne-jeu j'ai la fougue1</t>
+          <t>Yeah Yes, ok Poto, rien n'a changé depuis longtemps mais bientôt ma vie prend un grand tournant Tu fais confiance aux gens mais ils veulent te voler ta place quand tas ldos tourné On fait les choses à la manière de chez nous, la précision des chinois La F il est yomb, le karma est déchaîné, dehors je vois des chats noirs Et j'aime quand la basse tabasse, quand la prod' me donne des frissons, la chair de poule Des grands au bar tabac que je revois narrivent même plus à tenir debout La Fève veut pas joindre les deux bouts, il veut créer tout un univers Même si tout va mal, je te promets que je ne passe pas le pacte avec Lucifer Toujours pareil dans la cabine je fais des murders again et again J'suis fatigué, je dois soulever le poids de mes péchés, je gaine et je gaine Trop de problèmes, j'en ai des migraines, mon frère, je pense à tout ça dans l'bus J'suis dans le game, c'est toujours la même dégaine de fonblar sous la capuche J'habite à Fontenay-Sous-Bois, mais bientôt je quitte la ville pour aller autre part Gros, on est jeunes et sournois donc bientôt on va tous manger comme des gros porcs Garer sa gov' à laéroport, court derrière ça comme des léopards Faut faire belek, mon gava, si le coup part, jeune espion c'est le coupable J'suis bon dans les gimmicks, flow au dessus de la moyenne, j'ai ça dans les boyaux, mais toi tu es timide Toi tu es un copieur du coup tous les rappeurs, mon négro, tu les imites La Fève c'est du millésime, la zik' me prend pas le sinus De ma mort je vois les signes Yeah, yeah Que des soldats à ma table, Kosei, La Fève sur le tableau Mets du Walone sur le cable, toi et lui c'est le même taro La Fève s'abat comme la foudre, La Fève s'abat comme la foudre J'suis un ne-jeu j'ai la fougue, j'suis un ne-jeu j'ai la fougue Que des soldats à ma table, Kosei, La Fève sur le tableau Mets du Walone sur le câble, toi et lui c'est le même taro La Fève s'abat comme la foudre, La Fève s'abat comme la foudre J'suis un ne-jeu j'ai la fougue, j'suis un ne-jeu j'ai la fougue La Fève s'abat comme la foudre J'suis un ne-jeu j'ai la fougue1</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yeah, yeah BIGLAF, BIGLAF, BIGLAF Yeah, yeah Yes Tu connais ton gars, BIGLAF 7, j'arrive en full Balenciaga Maintenant c'est Cali', j'prends plus de taga, tu n'as pas de opps, personne te cala J'suis toujours fourré là où tu n'es pas là, mode off quand j'suis avec madame Tu connais ton gars, BIGLAF 7, j'arrive en full Balenci- Hey, hey J'ai essayé d'm'élever mais y a trop de cash en bas-gua Cash en bas-gua Depuis qu'je sais qui appeler, je ne fais plus la bagarre Brr, brr Trop de fake sur Terre, j'vais cacher mon cur comme Jones Davy Elle est love de moi, elle aimerait qu'j'lui fasse douze baby Okay 2K24, reste couvert, dehors c'est chaud, j'te connais pas toi, askip t'es chaud 20K pour que je fasse le show, si j'te sers la main, j'finis manchot Depuis gamin, on a le sang chaud, si j'm'écoute, j'finis au cachot Si j'm'écoute, j'finis au-, hey You might also like Tu connais ton gars, BIGLAF 7, j'arrive en full Balenciaga Maintenant c'est Cali', j'prends plus de taga, tu n'as pas de opps, personne te cala J'suis toujours fourré là où tu n'es pas là, mode off quand j'suis avec madame Tu connais ton gars, BIGLAF 7, j'arrive en full Hey, hey J'suis bouillant, j'suis bouillant, ma vie prend un tournant, il a fait tomber ma conso en me fouillant Ils t'ont dit Garde la pêche en te dépouillant, je n'ai plus l'temps pour les bitchs, les brouillons Je kick, quand j'te parle, tu as l'regard fuyant Grr paw, tu as l'regard fuyant Même si ma ville m'apporte que des sales histoires, il y a moyen que je la fuis en- Moi, je voulais juste voir le haut de la pyramide, j'mets le turbo, je pars à Meuda Tu dis que t'es dans le business, tu n'as même pas d'avocat J'te fais pas confiance, t'as la boca, rien qu'je tourne comme dans un bocal J'suis pas à fond, garde ton calme, j'suis pas à fond, garde ton calme Yeah 2K24, reste couvert, dehors c'est chaud, j'te connais pas toi, askip t'es chaud 20K pour que je fasse le show, si j'te sers la main, j'finis manchot Depuis gamin, on a le sang chaud, si j'm'écoute, j'finis au cachot Si j'm'écoute, j'finis au-, hey Tu connais ton gars, BIGLAF 7, j'arrive en full Balenciaga Maintenant c'est Cali', j'prends plus de taga, tu n'as pas de opps, personne te cala J'suis toujours fourré là où tu n'es pas là, mode off quand j'suis avec madame Tu connais ton gars, BIGLAF 7, j'arrive en full Balenci- Hey, hey</t>
+          <t>Yeah, yeah BIGLAF, BIGLAF, BIGLAF Yeah, yeah Yes Tu connais ton gars, BIGLAF 7, j'arrive en full Balenciaga Maintenant c'est Cali', j'prends plus de taga, tu n'as pas de opps, personne te cala J'suis toujours fourré là où tu n'es pas là, mode off quand j'suis avec madame Tu connais ton gars, BIGLAF 7, j'arrive en full Balenci- Hey, hey J'ai essayé d'm'élever mais y a trop de cash en bas-gua Cash en bas-gua Depuis qu'je sais qui appeler, je ne fais plus la bagarre Brr, brr Trop de fake sur Terre, j'vais cacher mon cur comme Jones Davy Elle est love de moi, elle aimerait qu'j'lui fasse douze baby Okay 2K24, reste couvert, dehors c'est chaud, j'te connais pas toi, askip t'es chaud 20K pour que je fasse le show, si j'te sers la main, j'finis manchot Depuis gamin, on a le sang chaud, si j'm'écoute, j'finis au cachot Si j'm'écoute, j'finis au-, hey Tu connais ton gars, BIGLAF 7, j'arrive en full Balenciaga Maintenant c'est Cali', j'prends plus de taga, tu n'as pas de opps, personne te cala J'suis toujours fourré là où tu n'es pas là, mode off quand j'suis avec madame Tu connais ton gars, BIGLAF 7, j'arrive en full Hey, hey J'suis bouillant, j'suis bouillant, ma vie prend un tournant, il a fait tomber ma conso en me fouillant Ils t'ont dit Garde la pêche en te dépouillant, je n'ai plus l'temps pour les bitchs, les brouillons Je kick, quand j'te parle, tu as l'regard fuyant Grr paw, tu as l'regard fuyant Même si ma ville m'apporte que des sales histoires, il y a moyen que je la fuis en- Moi, je voulais juste voir le haut de la pyramide, j'mets le turbo, je pars à Meuda Tu dis que t'es dans le business, tu n'as même pas d'avocat J'te fais pas confiance, t'as la boca, rien qu'je tourne comme dans un bocal J'suis pas à fond, garde ton calme, j'suis pas à fond, garde ton calme Yeah 2K24, reste couvert, dehors c'est chaud, j'te connais pas toi, askip t'es chaud 20K pour que je fasse le show, si j'te sers la main, j'finis manchot Depuis gamin, on a le sang chaud, si j'm'écoute, j'finis au cachot Si j'm'écoute, j'finis au-, hey Tu connais ton gars, BIGLAF 7, j'arrive en full Balenciaga Maintenant c'est Cali', j'prends plus de taga, tu n'as pas de opps, personne te cala J'suis toujours fourré là où tu n'es pas là, mode off quand j'suis avec madame Tu connais ton gars, BIGLAF 7, j'arrive en full Balenci- Hey, hey</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Who's in the back of the rave, in the yacht of the rich When I flex in peace Who's that bred with the new yat there and She came for the West Indies, ay Who's that phone on your phone that's supposed to connect in Greece One more text I leave Less Please don't stress, Habib Qui fait le plus de chiffre ici, qui est l'con qui parle sur ma ie-v ? Qui veut, qui veut me donnr la rose, qui veut me donnr le Glock nine ? Who had the youngers rushing the stage If it ain't Knucks then it's La Fève Don't feed the lion or roughen the cage Cause me and this pride ain't properly tamed Qui fait le plus de sale là-bas ? Dis à Ticky faut qu'on s'connecte Perverti par cette monnaie, ma le-gueu, j'veux des diamants sur chaque molaire C'est la même merde, dParis à London, d'ici à South Kilburn La ville prend tes proches et cquy a dans tes poches, là j'suis dégouté, j'dis ERRR LONER, parfois j'ai comme des envies d'partir sur une île T'es parti ça m'est égal, j'veux juste l'argent des gens qu'il y a sur Notting Hill Un fer, un casque intégral En espion comme Golden Eye J'suis dans un penthouse de 5 pièces j'emmène pas ma gadji au London Eye Now I got my eye on the Eiffel tower from the window of my sightin' shower Just gone five by the hour and still lined down, but I allow her How are so many man not hip yet? They ain't take a trip yet Quick jet, illuminate like Dipset, oh baby wait, repeat it en inglès In the game I been there Searchin' my name I'm in, yeah From an estate that's bait You can always shaved like chin hair I was at the show but bro did it first So when you play my song in the function Know you should call for the nurse You might also like Who's in the back of the rave, in the yacht of the rich When I flex in peace Who's that bred with the new yat there and She came for the West Indies, ay Who's that phone on your phone that's supposed to connect in Greece One more text I leave Less Please don't stress, Habib Qui fait le plus de chiffre ici, qui est l'con qui parle sur ma ie-v ? Qui veut, qui veut me donner la rose, qui veut me donner le Glock nine ? Who had the youngers rushing the stage If it ain't Knucks then it's La Fève Don't feed the lion or roughen the cage Cause me and this pride ain't properly tamed Did you ever wonder what we do tho Funds that we run through the studio Grab it from John and pass it to Hugo Go ship it then Naruto Some of these things are disgusting, watching em tryna see who blows She wanna twerk for the crew tho She wanna flip and reverse that, uno 2 rolls got me patterned any time I roll in Paris Pattern my drill in Paris One talk and I'm a maestro, no Travis Glide and spin your time Now it's my time When it's high time then we rank you So when I hear man screamin outta mercy I hope you tryna told man thank you Depuis ne-jeu on flaire ce seille J'suis plus dans les vices et les magouilles J'fais tout pour pas quitter l'bon chemin Pourquoi l'sheitan fait des chatouilles? Sur le front j'pense à La Fève J'mets mon nom sur un arbre comme Zoro J'emmène la deuxième à Châtelet et j'emmène ma main à Soho Trop d'mojo, trop chaud Pour ça qu'elle veut toucher ma bave J'reste vrai, tu le sens J'reste reconnaissant car j'suis parti de nada J'ai fait c'truc sans être le fils d'un tel Tu l'as fait c'était juste pour tes intérêts J'pourrais faire autre chose de mes mains Mais moi, il y a pas grand chose qui m'intéresse Who's in the back of the rave, in the yacht of the rich When I flex in peace Who's that bred with the new yat there and She came for the West Indies, ay Who's that phone on your phone that's supposed to connect in Greece One more text I leave Less Please don't stress, Habibi Qui fait le plus de chiffre ici, qui est l'con qui parle sur ma ie-v ? Qui veut, qui veut me donner la rose, qui veut me donner le Glock nine ? Who had the youngers rushing the stage If it ain't Knucks then it's La Fève Don't feed the lion or roughen the cage Cause me and this pride ain't properly</t>
+          <t>Who's in the back of the rave, in the yacht of the rich When I flex in peace Who's that bred with the new yat there and She came for the West Indies, ay Who's that phone on your phone that's supposed to connect in Greece One more text I leave Less Please don't stress, Habib Qui fait le plus de chiffre ici, qui est l'con qui parle sur ma ie-v ? Qui veut, qui veut me donnr la rose, qui veut me donnr le Glock nine ? Who had the youngers rushing the stage If it ain't Knucks then it's La Fève Don't feed the lion or roughen the cage Cause me and this pride ain't properly tamed Qui fait le plus de sale là-bas ? Dis à Ticky faut qu'on s'connecte Perverti par cette monnaie, ma le-gueu, j'veux des diamants sur chaque molaire C'est la même merde, dParis à London, d'ici à South Kilburn La ville prend tes proches et cquy a dans tes poches, là j'suis dégouté, j'dis ERRR LONER, parfois j'ai comme des envies d'partir sur une île T'es parti ça m'est égal, j'veux juste l'argent des gens qu'il y a sur Notting Hill Un fer, un casque intégral En espion comme Golden Eye J'suis dans un penthouse de 5 pièces j'emmène pas ma gadji au London Eye Now I got my eye on the Eiffel tower from the window of my sightin' shower Just gone five by the hour and still lined down, but I allow her How are so many man not hip yet? They ain't take a trip yet Quick jet, illuminate like Dipset, oh baby wait, repeat it en inglès In the game I been there Searchin' my name I'm in, yeah From an estate that's bait You can always shaved like chin hair I was at the show but bro did it first So when you play my song in the function Know you should call for the nurse Who's in the back of the rave, in the yacht of the rich When I flex in peace Who's that bred with the new yat there and She came for the West Indies, ay Who's that phone on your phone that's supposed to connect in Greece One more text I leave Less Please don't stress, Habib Qui fait le plus de chiffre ici, qui est l'con qui parle sur ma ie-v ? Qui veut, qui veut me donner la rose, qui veut me donner le Glock nine ? Who had the youngers rushing the stage If it ain't Knucks then it's La Fève Don't feed the lion or roughen the cage Cause me and this pride ain't properly tamed Did you ever wonder what we do tho Funds that we run through the studio Grab it from John and pass it to Hugo Go ship it then Naruto Some of these things are disgusting, watching em tryna see who blows She wanna twerk for the crew tho She wanna flip and reverse that, uno 2 rolls got me patterned any time I roll in Paris Pattern my drill in Paris One talk and I'm a maestro, no Travis Glide and spin your time Now it's my time When it's high time then we rank you So when I hear man screamin outta mercy I hope you tryna told man thank you Depuis ne-jeu on flaire ce seille J'suis plus dans les vices et les magouilles J'fais tout pour pas quitter l'bon chemin Pourquoi l'sheitan fait des chatouilles? Sur le front j'pense à La Fève J'mets mon nom sur un arbre comme Zoro J'emmène la deuxième à Châtelet et j'emmène ma main à Soho Trop d'mojo, trop chaud Pour ça qu'elle veut toucher ma bave J'reste vrai, tu le sens J'reste reconnaissant car j'suis parti de nada J'ai fait c'truc sans être le fils d'un tel Tu l'as fait c'était juste pour tes intérêts J'pourrais faire autre chose de mes mains Mais moi, il y a pas grand chose qui m'intéresse Who's in the back of the rave, in the yacht of the rich When I flex in peace Who's that bred with the new yat there and She came for the West Indies, ay Who's that phone on your phone that's supposed to connect in Greece One more text I leave Less Please don't stress, Habibi Qui fait le plus de chiffre ici, qui est l'con qui parle sur ma ie-v ? Qui veut, qui veut me donner la rose, qui veut me donner le Glock nine ? Who had the youngers rushing the stage If it ain't Knucks then it's La Fève Don't feed the lion or roughen the cage Cause me and this pride ain't properly</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Yeah, yeah Han, yeah Ça fait des années, que dis-je ? Des siècles que La Fève n'a pas graille un bon repas J'attends d'avoir des gens qui m'détestent, jaloux de ma situation confortable Trop de paragraphes pour un portable, pour ça LaF' il devient loco Poto, rien n'a changé sur la photo, c'est les mêmes saisons, c'est les mêmes joggos À mes trousses, poto, ils sont quatorze, dans la jungle j'esquive les alligators Professeurs n'avaient pas foi n moi, maintenant qu'je suis là ils n'avaient pas tord Dans l'space comme Albator, dans la ville avec quatre batards J'écrivais mes textes quand maman dort, maintenant je peux faire des hits à la carte Je suis un ne-jeu donc j'ai la dalle, montrer mon cavu c'est pas mon dél' Si j'le fais, c'est que la roue tourne et que je me prélasse en soirée mondaine En Ludix sur l'avenue Montaigne, poto, je bave devant les vitrines Avant mon gars j'étais trop déter, je taguais de Montparnasse à Vitry J'suis dans un trou pour ça qu'je veux shine, histoire de briser mes chaînes Je m'imagine plus tard dans ma city en train de ruminer sur mes échecs Toi et moi, poto, c'est pas pareil, mais on a des objectifs en commun Mourir bête, mon ami, je préfère qu'on me mette tout de suite dans un coma J'écoute Carti, j'écoute Gunna, j'cogite à l'arrière de la Laguna J'vois pas la lumière au fond du couloir, je veux de la glace autour du cou, moi Fais gaffe au vice, il est grave sournois, mais parfois tu peux t'dire que c'est ton frère Dans l'ordinateur il y a du tout frais, j'peux pas te montrer sinon t'étoufferais You might also like LAF l'affamé LAF l'affamé Ça fait des années, que dis-je ? Des siècles que La Fève n'a pas graille un bon repas J'attends d'avoir des gens qui m'détestent, jaloux de ma situation confortable Trop de paragraphes pour un portable, pour ça LaF' il devient loco Poto, rien n'a changé sur la photo, c'est les mêmes saisons, c'est les mêmes joggos À mes trousses potos ils sont vingt milles, dans la ville avec la grande famille Jeune Fève, tout pour le faire, tout pour que loin de moi soit la famine Sur la colline je regarde les cieux, belek à moi, je suis malicieux Appelle moi LAF, l'affamé à jamais, je suis jeune et ambitieux Oh, yeah Oh, yeah Oh, yeah</t>
+          <t>Yeah, yeah Han, yeah Ça fait des années, que dis-je ? Des siècles que La Fève n'a pas graille un bon repas J'attends d'avoir des gens qui m'détestent, jaloux de ma situation confortable Trop de paragraphes pour un portable, pour ça LaF' il devient loco Poto, rien n'a changé sur la photo, c'est les mêmes saisons, c'est les mêmes joggos À mes trousses, poto, ils sont quatorze, dans la jungle j'esquive les alligators Professeurs n'avaient pas foi n moi, maintenant qu'je suis là ils n'avaient pas tord Dans l'space comme Albator, dans la ville avec quatre batards J'écrivais mes textes quand maman dort, maintenant je peux faire des hits à la carte Je suis un ne-jeu donc j'ai la dalle, montrer mon cavu c'est pas mon dél' Si j'le fais, c'est que la roue tourne et que je me prélasse en soirée mondaine En Ludix sur l'avenue Montaigne, poto, je bave devant les vitrines Avant mon gars j'étais trop déter, je taguais de Montparnasse à Vitry J'suis dans un trou pour ça qu'je veux shine, histoire de briser mes chaînes Je m'imagine plus tard dans ma city en train de ruminer sur mes échecs Toi et moi, poto, c'est pas pareil, mais on a des objectifs en commun Mourir bête, mon ami, je préfère qu'on me mette tout de suite dans un coma J'écoute Carti, j'écoute Gunna, j'cogite à l'arrière de la Laguna J'vois pas la lumière au fond du couloir, je veux de la glace autour du cou, moi Fais gaffe au vice, il est grave sournois, mais parfois tu peux t'dire que c'est ton frère Dans l'ordinateur il y a du tout frais, j'peux pas te montrer sinon t'étoufferais LAF l'affamé LAF l'affamé Ça fait des années, que dis-je ? Des siècles que La Fève n'a pas graille un bon repas J'attends d'avoir des gens qui m'détestent, jaloux de ma situation confortable Trop de paragraphes pour un portable, pour ça LaF' il devient loco Poto, rien n'a changé sur la photo, c'est les mêmes saisons, c'est les mêmes joggos À mes trousses potos ils sont vingt milles, dans la ville avec la grande famille Jeune Fève, tout pour le faire, tout pour que loin de moi soit la famine Sur la colline je regarde les cieux, belek à moi, je suis malicieux Appelle moi LAF, l'affamé à jamais, je suis jeune et ambitieux Oh, yeah Oh, yeah Oh, yeah</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Je me lève, j'ai des relents d'la veille, que Dieu m'excuse Yeah Là j'suis au stud', j'fais un snap, j'tease une exclu C'est le même tarif pour tout l'monde, pourquoi tu discutes ? Errr Mauvais penchant pour d'la drogue comme des biscuits Un jeune mal informé qui glisse comme un savon Cette tain-p' me l'a mise car j'ai trop fait le bavon La Fève, tu le kiffes pour ses phrases, pour ses travaux Yes Ils rappent comme des G's, dans la vie font les travlos, laisse Laisse, errr Errr Solo, to night, comme Indochine, j'parle à la lune Y a des embrouilles qui m'travaillent trop à la longue Faut le coller, boxer au corps si t'as pas d'allonge Pas de sex friend, que des wifeys, pas de fake friend Moi, je pourrais pop, faire des hits mais à quels frais ? Elle est avec ton pote, t'es pas là, dis-moi c'qu'elle fait Yes J'veux une grosse voiture, bander sur le bruit qu'elle fait Qu'elle fait, qu'elle fait, errr J'demande au miroir C'est qui qui veut me peiner ? Lui, c'était mon reuf, on partageait les béné' Oh Là, c'est moi le père, j'ai dépassé mes ainés Y a une âme et le corps, j'crois, c'est juste une boîte Que des béquilles dans l'stud', tu sors, tu boites Le ciel, j'crois, il voit tout c'que tu m'dois Un jour, j'ai touché la lumière du bout du doigt You might also like J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est, on à fait c'truc à ied-p À ied-p, à ied-p À ied-p À ied-p, il est parti J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est Han, let's go Let's go Je me lève, j'ai des relents d'la veille, que Dieu pardonne Dans un parc, fume un pli, à Cli-Cli', près d'la Sorbonne Yeah Jeune négro libre, j'réponds pas si tu m'ordonnes Tous les jours, j'me rassure, j'me dis qu'j'suis pas comme eux Il est chaud, tu sais qu'le flow n'est pas commun Ouais, on s'est check mais on est pas copain La gadji m'saoule, là elle m'raconte ses potins Déconnecté d'la plupart, quand j'me couche le reste va courir Trop d'flow, j'crois faut te couvrir , j'veux ce VV' qui t'alourdi Errr Trop d'portes qu'on a dû ouvrir, on s'pète, le ciel va s'couvrir C'est pas toujours clair quand la pluie part, c'est pas toujours triste de mourir Berrr J'demande au miroir C'est qui qui veut me peiner ? Lui, c'était mon reuf, on partageait les béné' Oh Là, c'est moi le père, j'ai dépassé mes ainés Y a une âme et le corps, j'crois, c'est juste une boîte Que des béquilles dans l'stud', tu sors, tu boites Le ciel, j'crois, il voit tout c'que tu m'dois Un jour, j'ai touché la lumière du bout du doigt J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est, on à fait c'truc à ied-p À ied-p, à ied-p À ied-p À ied-p, il est parti J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est</t>
+          <t>Je me lève, j'ai des relents d'la veille, que Dieu m'excuse Yeah Là j'suis au stud', j'fais un snap, j'tease une exclu C'est le même tarif pour tout l'monde, pourquoi tu discutes ? Errr Mauvais penchant pour d'la drogue comme des biscuits Un jeune mal informé qui glisse comme un savon Cette tain-p' me l'a mise car j'ai trop fait le bavon La Fève, tu le kiffes pour ses phrases, pour ses travaux Yes Ils rappent comme des G's, dans la vie font les travlos, laisse Laisse, errr Errr Solo, to night, comme Indochine, j'parle à la lune Y a des embrouilles qui m'travaillent trop à la longue Faut le coller, boxer au corps si t'as pas d'allonge Pas de sex friend, que des wifeys, pas de fake friend Moi, je pourrais pop, faire des hits mais à quels frais ? Elle est avec ton pote, t'es pas là, dis-moi c'qu'elle fait Yes J'veux une grosse voiture, bander sur le bruit qu'elle fait Qu'elle fait, qu'elle fait, errr J'demande au miroir C'est qui qui veut me peiner ? Lui, c'était mon reuf, on partageait les béné' Oh Là, c'est moi le père, j'ai dépassé mes ainés Y a une âme et le corps, j'crois, c'est juste une boîte Que des béquilles dans l'stud', tu sors, tu boites Le ciel, j'crois, il voit tout c'que tu m'dois Un jour, j'ai touché la lumière du bout du doigt J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est, on à fait c'truc à ied-p À ied-p, à ied-p À ied-p À ied-p, il est parti J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est Han, let's go Let's go Je me lève, j'ai des relents d'la veille, que Dieu pardonne Dans un parc, fume un pli, à Cli-Cli', près d'la Sorbonne Yeah Jeune négro libre, j'réponds pas si tu m'ordonnes Tous les jours, j'me rassure, j'me dis qu'j'suis pas comme eux Il est chaud, tu sais qu'le flow n'est pas commun Ouais, on s'est check mais on est pas copain La gadji m'saoule, là elle m'raconte ses potins Déconnecté d'la plupart, quand j'me couche le reste va courir Trop d'flow, j'crois faut te couvrir , j'veux ce VV' qui t'alourdi Errr Trop d'portes qu'on a dû ouvrir, on s'pète, le ciel va s'couvrir C'est pas toujours clair quand la pluie part, c'est pas toujours triste de mourir Berrr J'demande au miroir C'est qui qui veut me peiner ? Lui, c'était mon reuf, on partageait les béné' Oh Là, c'est moi le père, j'ai dépassé mes ainés Y a une âme et le corps, j'crois, c'est juste une boîte Que des béquilles dans l'stud', tu sors, tu boites Le ciel, j'crois, il voit tout c'que tu m'dois Un jour, j'ai touché la lumière du bout du doigt J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est, on à fait c'truc à ied-p À ied-p, à ied-p À ied-p À ied-p, il est parti J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>La Fève le roi de la rime, depuis vingt piges coincé dans une matrice chelou Dans ma tête j'ai v'la les crimes à l'aise mais j'ai des relents quand un flic me touche J'suis dans un désert aride, j'suis pas très bien et la misère arrive La misère arrive LAF j'fais pas la victime, eux ils s'inventent des vies, des scénario Fève depuis l'début c'est l'roi, dans l'rap y a pas d'débouchés J'suis toujours debout chez Moi, j'cogite j'suis dans un blues c'est nwar Fève dpuis l'début c'est l'roi, dans l'rap y a pas d'débouchés J'suis toujours debout chez Moi, j'cogit j'suis dans un blues c'est nwar Jamais j'me mets je me mets la race Jamais j'vendrais mon partenaire j'ai Un p'tit cur en porcelaine, La Fève est triste et je persévère Flemmardise me fait des passes, je laisse des traces dans les villes que j'aime mon négro Il faut qu'j'envoie plus de tracks pour les Pesetas, pas baiser des tass mon négro La flemme de Monaflèmit LAF il bouge pas s'il a pas son teh Pour la maille je peux patienter Pas longtemps avant qu'j'sois sous terre Fais ça scret-di shit dans l'teddy, à l'époque j'étais pas content J'graffais périf, camions, vitrines, à l'époque j'avais pas ton temps J'faisais ça que pour la flemme, me lever pour des problèmes les thèmes de tout l'corps enseignant Fève s'réveille en saignant Depuis qu'j'vois la fame, faut que j'taf pour qu'on m'appelle le geois-bour, être le roi d'la basse-cour Car j'suis fait pour ça mec, j'suis fait pour c'domaine C'est la tempête quand la flemme s'en mêle, j'mets l'laptop en veille Quand c'est la merde, des chrysanthèmes, j'écris des crises en thèmes Ça c'est la flemme si j'me r'trouve à Fresnes à guetter l'jour d'après alors que You might also like Fève depuis l'début c'est l'roi, dans l'rap y a pas d'débouchés J'suis toujours debout chez Moi, j'cogite j'suis dans un blues c'est nwar Fève depuis l'début c'est l'roi, dans l'rap y a pas d'débouchés J'suis toujours debout chez Moi, j'cogite j'suis dans un blues c'est nwar La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime, j'suis coincé dans la matrice depuis qu'j'suis môme J'suis môme Et tous les jours moi je rame Pour un jour trouver la lumière, oui toucher l'trône Guette, attends bouges de tro-me Si t'es pas trop mon poto gros on s'check du poing Et mon horloge me plombe, ça fait longtemps qu'on est dans c'truc , j'viens d'loin Toujours posé dans un parc ou sur le corner dans la basse-cour Avec ma flemme on est partout Mais ça fait qu'ruiner mon parcours J'écris des rimes sur mon phone-tél, phone-tél Posé sur un banc à Fontenay Yeah J'compose ma vie, j'fais des fausses notes, fausses notes Avant LAF avait des fossettes Maintenant j'ai des cernes qui touchent mes Jordan 1 La Fève est tout seul dans la brume Les gens qui gloussent j'ai l'habitude J'ai pas là, j'ai pas la flemme t'façon, ils parlent tous de la même manière J'lui dis j'suis dans la production et dans les rimes de merde Et dès l'réveil, mes démons m'appellent avec un bisou dans l'cou Dans l'flou, dès l'matin j'veux mon p'tit niaksou Moi j'suis La Fève, bientôt j'brille et ceux qui l'savent sont au courant du phénomène Rimer c'est mon domaine Depuis tit-pe gars Fève depuis l'début c'est l'roi, dans l'rap y a pas d'débouchés J'suis toujours debout chez Moi, j'cogite j'suis dans un blues c'est nwar Fève depuis l'début c'est l'roi, dans l'rap y a pas d'débouchés J'suis toujours debout chez Moi, j'cogite j'suis dans un blues c'est nwar La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime Oh, LAF le roi de la Oh yeah Oh yeah</t>
+          <t>La Fève le roi de la rime, depuis vingt piges coincé dans une matrice chelou Dans ma tête j'ai v'la les crimes à l'aise mais j'ai des relents quand un flic me touche J'suis dans un désert aride, j'suis pas très bien et la misère arrive La misère arrive LAF j'fais pas la victime, eux ils s'inventent des vies, des scénario Fève depuis l'début c'est l'roi, dans l'rap y a pas d'débouchés J'suis toujours debout chez Moi, j'cogite j'suis dans un blues c'est nwar Fève dpuis l'début c'est l'roi, dans l'rap y a pas d'débouchés J'suis toujours debout chez Moi, j'cogit j'suis dans un blues c'est nwar Jamais j'me mets je me mets la race Jamais j'vendrais mon partenaire j'ai Un p'tit cur en porcelaine, La Fève est triste et je persévère Flemmardise me fait des passes, je laisse des traces dans les villes que j'aime mon négro Il faut qu'j'envoie plus de tracks pour les Pesetas, pas baiser des tass mon négro La flemme de Monaflèmit LAF il bouge pas s'il a pas son teh Pour la maille je peux patienter Pas longtemps avant qu'j'sois sous terre Fais ça scret-di shit dans l'teddy, à l'époque j'étais pas content J'graffais périf, camions, vitrines, à l'époque j'avais pas ton temps J'faisais ça que pour la flemme, me lever pour des problèmes les thèmes de tout l'corps enseignant Fève s'réveille en saignant Depuis qu'j'vois la fame, faut que j'taf pour qu'on m'appelle le geois-bour, être le roi d'la basse-cour Car j'suis fait pour ça mec, j'suis fait pour c'domaine C'est la tempête quand la flemme s'en mêle, j'mets l'laptop en veille Quand c'est la merde, des chrysanthèmes, j'écris des crises en thèmes Ça c'est la flemme si j'me r'trouve à Fresnes à guetter l'jour d'après alors que Fève depuis l'début c'est l'roi, dans l'rap y a pas d'débouchés J'suis toujours debout chez Moi, j'cogite j'suis dans un blues c'est nwar Fève depuis l'début c'est l'roi, dans l'rap y a pas d'débouchés J'suis toujours debout chez Moi, j'cogite j'suis dans un blues c'est nwar La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime, j'suis coincé dans la matrice depuis qu'j'suis môme J'suis môme Et tous les jours moi je rame Pour un jour trouver la lumière, oui toucher l'trône Guette, attends bouges de tro-me Si t'es pas trop mon poto gros on s'check du poing Et mon horloge me plombe, ça fait longtemps qu'on est dans c'truc , j'viens d'loin Toujours posé dans un parc ou sur le corner dans la basse-cour Avec ma flemme on est partout Mais ça fait qu'ruiner mon parcours J'écris des rimes sur mon phone-tél, phone-tél Posé sur un banc à Fontenay Yeah J'compose ma vie, j'fais des fausses notes, fausses notes Avant LAF avait des fossettes Maintenant j'ai des cernes qui touchent mes Jordan 1 La Fève est tout seul dans la brume Les gens qui gloussent j'ai l'habitude J'ai pas là, j'ai pas la flemme t'façon, ils parlent tous de la même manière J'lui dis j'suis dans la production et dans les rimes de merde Et dès l'réveil, mes démons m'appellent avec un bisou dans l'cou Dans l'flou, dès l'matin j'veux mon p'tit niaksou Moi j'suis La Fève, bientôt j'brille et ceux qui l'savent sont au courant du phénomène Rimer c'est mon domaine Depuis tit-pe gars Fève depuis l'début c'est l'roi, dans l'rap y a pas d'débouchés J'suis toujours debout chez Moi, j'cogite j'suis dans un blues c'est nwar Fève depuis l'début c'est l'roi, dans l'rap y a pas d'débouchés J'suis toujours debout chez Moi, j'cogite j'suis dans un blues c'est nwar La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime Oh, LAF le roi de la Oh yeah La Fève le roi de la rime Oh, LAF le roi de la Oh yeah Oh yeah</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Ça fait un bail Un faux reste un faux et une hoe reste une hoe Même si jai les tales, jme sens bien dans le home studio La cali a pris du niveau Jai goutté le ciel, jpensais pas qujpouvais voler si haut Y a plus dpolitesse, y a plus de valeur Tu faisais des grands gestes, là tu cherches le dialogue J'ai gâché sa fête maintenant elle msouhaite le malheur Jai cassé sa tête, j'ai cru cétait une balle Y a pas une bougie et les temps sont sombres, parle pas à Fev quand il est dans son son Ça va jamais changer, cest les lois dla vie donc ressers-moi un miel avec mille glaçons Tu pues la puterie, reste loin, va là-bas, jme reconnais à peine, jétais peace à la base Là j'écoute No Cap jme sens en Alabama Tout ltemps dans la trap, ma leu-gueu, jen ai pas marre Si ten attrapes un, y en a six derrière, j'veux Lamborghini, RR Ladrénaline le soir du plav', jmen souviens comme si cétait hier Everyday jévite les hyènes, jai capté comment ils fonctionnent Les souvenirs veulent remonter, jessaye d'pas penser et cette kichta me console You might also like Jme sens bien dans le home studio mais la cali a pris du niveau Jai goutté le ciel, jpensais pas qujpouvais voler si haut Y a plus dpolitesse, y a plus de valeur Tu faisais des grands gestes, là tu cherches le dialogue J'ai gâché sa fête maintenant elle msouhaite le malheur Jai cassé sa tête, j'ai cru cétait une balle On n'avait pas d'but, on marchait dans le vide, j'voulais kiffer le temps d'une vie Dans mon corps, il manquait un peu de blanc, dans mon cerveau, il manque une vis, on dirait J'suis posé dehors, j'vois une rixe en direct Le meilleur d'ici, j'te l'explique en 6 lettres La misère est moche mais j'admire sa silhouette Et là j'refais ma vie sous gorilla Elle se désape sur le billard C'est pareil, maintenant, j'vise le milliard Avant d'faire dodo dans l'corbillard Les petits m'écoutent, pour eux, j'ai pas trop de conseils À part écouter Kosei, à part chercher l'oseille Moi j'ai glissé, pour c'qui est d'la school, j'ai lâché au lycée J'suis focus dans ma ride, volume à fond C'est comme si j'voulais pas freiner Tu peux pas me suivre, tu peux pas me gêner À part mes sangs, personne fait peur dans ma géné' T'as trop fait le lâche, jdeterre pas la hache Les p'tits n'ont pas l'âge, ils consomment le hasch' Maintenant, c'est en famille qu'on marche J'suis loyal même si j'ai beaucoup de défauts J'sais qu'un faux reste un faux et une hoe reste une hoe Même si jai les tales, jme sens bien dans le home studio La cali a prit du niveau Jai goutté le ciel, jpensais pas qujpouvais voler si haut Y a plus dpolitesse, y a plus de valeur Tu faisais des grands gestes, là tu cherches le dialogue J'ai gâché sa fête maintenant elle msouhaite le malheur Jai gâché sa fête maintenant rrrah1</t>
+          <t>Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Ça fait un bail Un faux reste un faux et une hoe reste une hoe Même si jai les tales, jme sens bien dans le home studio La cali a pris du niveau Jai goutté le ciel, jpensais pas qujpouvais voler si haut Y a plus dpolitesse, y a plus de valeur Tu faisais des grands gestes, là tu cherches le dialogue J'ai gâché sa fête maintenant elle msouhaite le malheur Jai cassé sa tête, j'ai cru cétait une balle Y a pas une bougie et les temps sont sombres, parle pas à Fev quand il est dans son son Ça va jamais changer, cest les lois dla vie donc ressers-moi un miel avec mille glaçons Tu pues la puterie, reste loin, va là-bas, jme reconnais à peine, jétais peace à la base Là j'écoute No Cap jme sens en Alabama Tout ltemps dans la trap, ma leu-gueu, jen ai pas marre Si ten attrapes un, y en a six derrière, j'veux Lamborghini, RR Ladrénaline le soir du plav', jmen souviens comme si cétait hier Everyday jévite les hyènes, jai capté comment ils fonctionnent Les souvenirs veulent remonter, jessaye d'pas penser et cette kichta me console Jme sens bien dans le home studio mais la cali a pris du niveau Jai goutté le ciel, jpensais pas qujpouvais voler si haut Y a plus dpolitesse, y a plus de valeur Tu faisais des grands gestes, là tu cherches le dialogue J'ai gâché sa fête maintenant elle msouhaite le malheur Jai cassé sa tête, j'ai cru cétait une balle On n'avait pas d'but, on marchait dans le vide, j'voulais kiffer le temps d'une vie Dans mon corps, il manquait un peu de blanc, dans mon cerveau, il manque une vis, on dirait J'suis posé dehors, j'vois une rixe en direct Le meilleur d'ici, j'te l'explique en 6 lettres La misère est moche mais j'admire sa silhouette Et là j'refais ma vie sous gorilla Elle se désape sur le billard C'est pareil, maintenant, j'vise le milliard Avant d'faire dodo dans l'corbillard Les petits m'écoutent, pour eux, j'ai pas trop de conseils À part écouter Kosei, à part chercher l'oseille Moi j'ai glissé, pour c'qui est d'la school, j'ai lâché au lycée J'suis focus dans ma ride, volume à fond C'est comme si j'voulais pas freiner Tu peux pas me suivre, tu peux pas me gêner À part mes sangs, personne fait peur dans ma géné' T'as trop fait le lâche, jdeterre pas la hache Les p'tits n'ont pas l'âge, ils consomment le hasch' Maintenant, c'est en famille qu'on marche J'suis loyal même si j'ai beaucoup de défauts J'sais qu'un faux reste un faux et une hoe reste une hoe Même si jai les tales, jme sens bien dans le home studio La cali a prit du niveau Jai goutté le ciel, jpensais pas qujpouvais voler si haut Y a plus dpolitesse, y a plus de valeur Tu faisais des grands gestes, là tu cherches le dialogue J'ai gâché sa fête maintenant elle msouhaite le malheur Jai gâché sa fête maintenant rrrah1</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Yeah, bon, j'suis sad là, qui partage ma peine ? On cherche le cash err'day, cherche le mapess J'suis angry y'a qu'une bitch qui m'apaise J'suis angry y'a qu'une bitch qui m'apaise Des anciens potos qui rappellent J'suis sad là, qui partage ma peine ? Cherche le cash err'day, cherche le mapess Cherche le cash err'day, cherche le mapess Ce soir j'veux mettr sous Jack honey T'inquiètes la faille, on la connait A ctte misère on est abonné A cette misère on est abonné Quelques plan-gan sous un bonnet Faut faire ce gwap, il faut charbonner Faut faire ce gwap, il faut charbonner, lets go J'suis sad là j'peux pas en parler Avant on s'comprenait sans parler Jsuis La Fève G faut pas m'comparer La Fève G faut pas m'comparer Le temps il passe donc c'est plus pareil Y'a trop de gens qui sont dans l'paraitre J'y pense, jrec ça dans l'appareil J'y pense, jrec ça dans l'appareil J'y pense et on remplit le cahier Des sans le sou qui voulaient juste mailler Des sans le sou qui voulaient juste mailler Des sans le sou qui voulaient juste mailler Tire que des barz, j'me sens comme l'Uzi Fait ça err'day j'me sens comme l'usine Avec le K on fait some good music Avec le K on fait some good music Bientôt la tête dans les magazines Tellement de peine qu'on emmagasine La 808 fait chier la voisine La 808 fait chier la voisine Faut un T-max, faut une Harley Soûl Funk on est pas trop Bob Marley Ce son j'le fais comme si j'te parlais Avant les gadjis elles m'rembarraient Les trahisons ça me rend paro J'vois du goudron des cendres maleug Maleug Donc la vie je la vois pas rose Donc la vie je la vois pas rose T'avais des rêves tu les as barrés T'as tourné la page hier Hier Et puis un autre problème apparait You might also like Yeah, bon, j'suis sad là, qui partage ma peine ? Cherche le cash err'day, cherche le mapess J'suis angry y'a qu'une bitch qui m'apaise J'suis angry y'a qu'une bitch qui m'apaise Des anciens potos qui rappellent J'suis sad là, qui partage ma peine ? Cherche le cash err'day, cherche le mapess Cherche le cash err'day, cherche le mapess Ce soir j'veux mettre sous Jack honey T'inquiètes la faille, on la connait A cette misère on est abonné A cette misère on est abonné Quelques plans-gan sous un bonnet Faut faire ce gwap, il faut charbonner Faut faire ce gwap, il faut charbonner, let's go</t>
+          <t>Yeah, bon, j'suis sad là, qui partage ma peine ? On cherche le cash err'day, cherche le mapess J'suis angry y'a qu'une bitch qui m'apaise J'suis angry y'a qu'une bitch qui m'apaise Des anciens potos qui rappellent J'suis sad là, qui partage ma peine ? Cherche le cash err'day, cherche le mapess Cherche le cash err'day, cherche le mapess Ce soir j'veux mettr sous Jack honey T'inquiètes la faille, on la connait A ctte misère on est abonné A cette misère on est abonné Quelques plan-gan sous un bonnet Faut faire ce gwap, il faut charbonner Faut faire ce gwap, il faut charbonner, lets go J'suis sad là j'peux pas en parler Avant on s'comprenait sans parler Jsuis La Fève G faut pas m'comparer La Fève G faut pas m'comparer Le temps il passe donc c'est plus pareil Y'a trop de gens qui sont dans l'paraitre J'y pense, jrec ça dans l'appareil J'y pense, jrec ça dans l'appareil J'y pense et on remplit le cahier Des sans le sou qui voulaient juste mailler Des sans le sou qui voulaient juste mailler Des sans le sou qui voulaient juste mailler Tire que des barz, j'me sens comme l'Uzi Fait ça err'day j'me sens comme l'usine Avec le K on fait some good music Avec le K on fait some good music Bientôt la tête dans les magazines Tellement de peine qu'on emmagasine La 808 fait chier la voisine La 808 fait chier la voisine Faut un T-max, faut une Harley Soûl Funk on est pas trop Bob Marley Ce son j'le fais comme si j'te parlais Avant les gadjis elles m'rembarraient Les trahisons ça me rend paro J'vois du goudron des cendres maleug Maleug Donc la vie je la vois pas rose Donc la vie je la vois pas rose T'avais des rêves tu les as barrés T'as tourné la page hier Hier Et puis un autre problème apparait Yeah, bon, j'suis sad là, qui partage ma peine ? Cherche le cash err'day, cherche le mapess J'suis angry y'a qu'une bitch qui m'apaise J'suis angry y'a qu'une bitch qui m'apaise Des anciens potos qui rappellent J'suis sad là, qui partage ma peine ? Cherche le cash err'day, cherche le mapess Cherche le cash err'day, cherche le mapess Ce soir j'veux mettre sous Jack honey T'inquiètes la faille, on la connait A cette misère on est abonné A cette misère on est abonné Quelques plans-gan sous un bonnet Faut faire ce gwap, il faut charbonner Faut faire ce gwap, il faut charbonner, let's go</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>J'voulais juste baiser le game, j'voulais juste baiser le game J'voulais juste baiser le game J'suis sans âme comme Durk, elle veut son Dior, son Burb' 2020 en errr, tellement de haine en eux Ma le-gueu parle vite, parle en , ma le-gueu parle vite, parle en yes Gramme d'endorphine, c'st fou tout c'qu'on peut faire pour un gramme d'ndorphine, un peu d'morphine Gramme d'endorphine, c'est fou tout c'qu'on peut faire pour un gramme d'endorphine J'vais n'importe où sans plug, biatch me fais pas d'curs I don't do no flirt, I don't do no perc' Ne joue pas avec moi, ma leu-g', tu sais qu'j'te vise, tu pleures J'replonge dans mes ces-vi et tous mes démons chantent en cur J'replonge dans mes ces-vi et tous mes démons chantent en cur Je r'connais, l'oseille a son odeur, ils veulent mon temps mais ces mmh sont pas à ma hauteur Et j'sais qu'tu m'vois juste comme un mec sans cur, depuis qu'j't'ai laissée en pleurs Et j'sais qu'tu m'vois juste comme un mec sans cur, depuis qu'j't'ai laissée en pleurs J'suis sans âme comme Durk, elle veut son Dior, son Burb' 2020 en errr, tellement de haine en eux Ma le-gueu parle vite, parle en , ma le-gueu parle vite, parle en yes Gramme d'endorphine, c'est fou tout c'qu'on peut faire pour un gramme d'endorphine, un peu d'morphine Gramme d'endorphine, c'est fou tout c'qu'on peut faire pour un gramme d'endorphineYou might also like</t>
+          <t>J'voulais juste baiser le game, j'voulais juste baiser le game J'voulais juste baiser le game J'suis sans âme comme Durk, elle veut son Dior, son Burb' 2020 en errr, tellement de haine en eux Ma le-gueu parle vite, parle en , ma le-gueu parle vite, parle en yes Gramme d'endorphine, c'st fou tout c'qu'on peut faire pour un gramme d'ndorphine, un peu d'morphine Gramme d'endorphine, c'est fou tout c'qu'on peut faire pour un gramme d'endorphine J'vais n'importe où sans plug, biatch me fais pas d'curs I don't do no flirt, I don't do no perc' Ne joue pas avec moi, ma leu-g', tu sais qu'j'te vise, tu pleures J'replonge dans mes ces-vi et tous mes démons chantent en cur J'replonge dans mes ces-vi et tous mes démons chantent en cur Je r'connais, l'oseille a son odeur, ils veulent mon temps mais ces mmh sont pas à ma hauteur Et j'sais qu'tu m'vois juste comme un mec sans cur, depuis qu'j't'ai laissée en pleurs Et j'sais qu'tu m'vois juste comme un mec sans cur, depuis qu'j't'ai laissée en pleurs J'suis sans âme comme Durk, elle veut son Dior, son Burb' 2020 en errr, tellement de haine en eux Ma le-gueu parle vite, parle en , ma le-gueu parle vite, parle en yes Gramme d'endorphine, c'est fou tout c'qu'on peut faire pour un gramme d'endorphine, un peu d'morphine Gramme d'endorphine, c'est fou tout c'qu'on peut faire pour un gramme d'endorphine</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah J'ai dit à mes anges de me laisser, j'ai dit à mes anges de me laisser J'ai dit à mes anges de me laisser, j'ai dit à mes anges de me- j'ai dit à mes anges de- J'ai dit à mes anges de me laisser, j'ai dit à mes anges de me laisser J'ai dit à mes anges de me laisser, j'ai dit à mes anges d me- J'ai dit à mes anges d- Arrête de parler, t'en fais trop comme une poucave qui nie S'ils viennent pour me faire, j'disparais comme Houdini Je n'ai pas d'stress, j'étais fait pour cette vie J'aimerais prendre du temps pour moi mais c'est jamais fini J'aimerais arrêter tout ça mais c'est jamais fini J'aimerais arrêter tout ça mais c'est jamais fini Une putain de chèvre c'est comme ça qu'on m'défini J'ai envie d'rouler seul en Lamborghini Quand tu leur donnes un peu, ils veulent toujours trop Donc maintenant j'fais plus de passes, j'fais plus de chrome J'sais rien faire d'autre à part rapper ma life devant l'micro Il veut me faire, j'ai dit Mon frère, faut mettre le nitro J'suis blessé, j'veux m'soigner mais j'suis trop blessé J'étais broke, j'veux encaisser Tout va trop vite, dans ma folie You might also like J'ai dit à mes anges de me laisser, j'ai dit à mes anges de me laisser J'ai dit à mes anges de me laisser, j'ai dit à mes anges de- J'ai dit à mes anges de- Yeah, yeah J'ai dit à mes anges de me laisser, j'ai dit à mes anges de me laisser J'ai dit à mes anges de me laisser, j'ai dit à mes anges de- J'ai dit à mes anges de-</t>
+          <t>Yeah, yeah, yeah J'ai dit à mes anges de me laisser, j'ai dit à mes anges de me laisser J'ai dit à mes anges de me laisser, j'ai dit à mes anges de me- j'ai dit à mes anges de- J'ai dit à mes anges de me laisser, j'ai dit à mes anges de me laisser J'ai dit à mes anges de me laisser, j'ai dit à mes anges d me- J'ai dit à mes anges d- Arrête de parler, t'en fais trop comme une poucave qui nie S'ils viennent pour me faire, j'disparais comme Houdini Je n'ai pas d'stress, j'étais fait pour cette vie J'aimerais prendre du temps pour moi mais c'est jamais fini J'aimerais arrêter tout ça mais c'est jamais fini J'aimerais arrêter tout ça mais c'est jamais fini Une putain de chèvre c'est comme ça qu'on m'défini J'ai envie d'rouler seul en Lamborghini Quand tu leur donnes un peu, ils veulent toujours trop Donc maintenant j'fais plus de passes, j'fais plus de chrome J'sais rien faire d'autre à part rapper ma life devant l'micro Il veut me faire, j'ai dit Mon frère, faut mettre le nitro J'suis blessé, j'veux m'soigner mais j'suis trop blessé J'étais broke, j'veux encaisser Tout va trop vite, dans ma folie J'ai dit à mes anges de me laisser, j'ai dit à mes anges de me laisser J'ai dit à mes anges de me laisser, j'ai dit à mes anges de- J'ai dit à mes anges de- Yeah, yeah J'ai dit à mes anges de me laisser, j'ai dit à mes anges de me laisser J'ai dit à mes anges de me laisser, j'ai dit à mes anges de- J'ai dit à mes anges de-</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Wesh, Wesh 300E la plaquette hm, le biz est alléchant Biz est alléchant L'argent sale c'est pas méchant Wesh, 300E la plaquette hm, le biz' est alléchant Biz est alléchant L'argent sale c'est pas méchant 300E la plaquette hm, le biz est alléchant Biz est alléchant L'argent sale c'est pas méchant 300E la plaquette hm, le biz est alléchant Biz est alléchant L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant Oh yeah Oh yeah Jeune Laf est un peu triste Je n'vois pas les étoiles s'aligner Je veux les palmiers Ça ferait des économies faut pas le nier J'pourrais investir dans bijoux, pétou, gamos Lunettes noires pour pas qu'on m'cala, et j'vendrais des calots J'baroude j'ai des chaussures avec des trous dedans J'vais vendre des 10, des 20 Poto j'ai des objectifs de vente J'vais au parc au calme, j'rentre foncedé mon père le sait T'es pas bien, mais poto y a pire que ça Des camés sous percocet You might also like 300E la plaquette, j'la vends et j'la rachète Jeune La Fève est triste veut arriver dans le VIP en claquettes 300E la plaquette, j'la vends et j'la rachète Jeune La Fève est triste veut arriver dans le VIP en claquettes Wesh 300E la plaquette hm, le biz est alléchant Biz est alléchant L'argent sale c'est pas méchant Wesh, 300E la plaquette hm, le biz' est alléchant Biz est alléchant L'argent sale c'est pas méchant 300E la plaquette hm, le biz est alléchant Biz est alléchant L'argent sale c'est pas méchant 300E la plaquette hm, le biz est alléchant Biz est alléchant L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant1</t>
+          <t>Wesh, Wesh 300E la plaquette hm, le biz est alléchant Biz est alléchant L'argent sale c'est pas méchant Wesh, 300E la plaquette hm, le biz' est alléchant Biz est alléchant L'argent sale c'est pas méchant 300E la plaquette hm, le biz est alléchant Biz est alléchant L'argent sale c'est pas méchant 300E la plaquette hm, le biz est alléchant Biz est alléchant L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant Oh yeah Oh yeah Jeune Laf est un peu triste Je n'vois pas les étoiles s'aligner Je veux les palmiers Ça ferait des économies faut pas le nier J'pourrais investir dans bijoux, pétou, gamos Lunettes noires pour pas qu'on m'cala, et j'vendrais des calots J'baroude j'ai des chaussures avec des trous dedans J'vais vendre des 10, des 20 Poto j'ai des objectifs de vente J'vais au parc au calme, j'rentre foncedé mon père le sait T'es pas bien, mais poto y a pire que ça Des camés sous percocet 300E la plaquette, j'la vends et j'la rachète Jeune La Fève est triste veut arriver dans le VIP en claquettes 300E la plaquette, j'la vends et j'la rachète Jeune La Fève est triste veut arriver dans le VIP en claquettes Wesh 300E la plaquette hm, le biz est alléchant Biz est alléchant L'argent sale c'est pas méchant Wesh, 300E la plaquette hm, le biz' est alléchant Biz est alléchant L'argent sale c'est pas méchant 300E la plaquette hm, le biz est alléchant Biz est alléchant L'argent sale c'est pas méchant 300E la plaquette hm, le biz est alléchant Biz est alléchant L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant Oh yeah L'argent sale c'est pas méchant1</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Elle veut trap Trap, wit' the sticks Sticks Bitch, bitch, bitch Huh Tu sais que je swegg Huh, emoswegg Huh J'ai une bad bitch Huh, elle va make it shake Huh On hop in a Coupe, Alakazam Je veux ces euros et je veux ces bands Elle est too lame elle va pécho des Vans Kick shit dans le trap, just like Liu Kang Elle assume pas, cherche que des problems Elle ne peut pas comprendre l'histoir d'mon partner Elle change d mood, on change de saison Elle veut me catch dans l'hood avec un Glock on my hip Ouais j'suis real tu sais qu'j'peux pas trip Je n'peux pas miss jamais tu sais que je n'click Tu sais j'ai la technique donc je n'peux pas miss click Elle est comme de la dope dans mon putain d'cup bitch J'suis dans l'movie j'suis pas Brad Pitt L'imagination n'a pas d'limite Laisse un souvenir d'cette fille, nan elle est down bad on my dick Elle veut cool avec la fuckin' clique Baby la smoke est too loud, je n'peux même pas te hear Let the smoke all in the air, je peux pas sortir Tu sais qu'at the traphouse on va jouer à Guilty Gear Baby mon love pour toi tu le sais que j'le garde en souvenir You might also like Ahh, La Fève, ouley 3G, Bricksy, Yuri, on est ensemble, 33, OK Poto La Fève il monte comme la marée Petit pont, je mets la frappe à Marhez , y a pas d'arrêt C'est du réel, c'est du live and direct Avec les sangs je me sens dans le 33 Je, me case pas avant mes trente-trois Je, suis en même temps à plusieurs endroits Je, peux te faire en un claquement de doigts En un claquement de doigts Loin de tes shrab et tu n'es plus le même Chérie je m'en fous car tu n'es pas la même Smoke 4g cash tu connais le thème Tout le temps des RDV bientôt La Fève à LV Et j'ai la bête de V, j'ai l'impression j'suis élevé Elle veut trap Trap, wit' the sticks Sticks Bitch, bitch, bitch Huh Tu sais que je swegg Huh, emoswegg Huh J'ai une bad bitch Huh, elle va make it shake Huh Hey, khey khey Là ça t'attends, fais pas de grêve Demande à ta tante, j'suis un phénomène Demande à ton oncle, j'suis un phénomène Dans le 94, t'es camé mon khey Ils sont bon qu'à mentir, à faire mal à la tête Give me head, give me head, give me head, give me head Air Force One en lacet, comme Corey un phénomène Baba c'est pas assez, tu finis dans l'assiette Trop deuspi, j'en ai passé du Baba c'est pas assez, tu finis dans l'assiette Trop deuspi, j'en ai passé du temps à ronfler sur l'cahier On la connais la cous' elle passe pas la douane On hop in a Coupe, Alakazam Je veux ces euros et je veux ces bands Elle est too lame elle va pécho des Vans Kick shit dans le trap, just like Liu Kang Elle assume pas, cherche que des problems Elle ne peut pas comprendre l'histoire d'mon partner Elle change de mood, on change de saison Elle veut me catch dans l'hood avec un Glock on my hip</t>
+          <t>Elle veut trap Trap, wit' the sticks Sticks Bitch, bitch, bitch Huh Tu sais que je swegg Huh, emoswegg Huh J'ai une bad bitch Huh, elle va make it shake Huh On hop in a Coupe, Alakazam Je veux ces euros et je veux ces bands Elle est too lame elle va pécho des Vans Kick shit dans le trap, just like Liu Kang Elle assume pas, cherche que des problems Elle ne peut pas comprendre l'histoir d'mon partner Elle change d mood, on change de saison Elle veut me catch dans l'hood avec un Glock on my hip Ouais j'suis real tu sais qu'j'peux pas trip Je n'peux pas miss jamais tu sais que je n'click Tu sais j'ai la technique donc je n'peux pas miss click Elle est comme de la dope dans mon putain d'cup bitch J'suis dans l'movie j'suis pas Brad Pitt L'imagination n'a pas d'limite Laisse un souvenir d'cette fille, nan elle est down bad on my dick Elle veut cool avec la fuckin' clique Baby la smoke est too loud, je n'peux même pas te hear Let the smoke all in the air, je peux pas sortir Tu sais qu'at the traphouse on va jouer à Guilty Gear Baby mon love pour toi tu le sais que j'le garde en souvenir Ahh, La Fève, ouley 3G, Bricksy, Yuri, on est ensemble, 33, OK Poto La Fève il monte comme la marée Petit pont, je mets la frappe à Marhez , y a pas d'arrêt C'est du réel, c'est du live and direct Avec les sangs je me sens dans le 33 Je, me case pas avant mes trente-trois Je, suis en même temps à plusieurs endroits Je, peux te faire en un claquement de doigts En un claquement de doigts Loin de tes shrab et tu n'es plus le même Chérie je m'en fous car tu n'es pas la même Smoke 4g cash tu connais le thème Tout le temps des RDV bientôt La Fève à LV Et j'ai la bête de V, j'ai l'impression j'suis élevé Elle veut trap Trap, wit' the sticks Sticks Bitch, bitch, bitch Huh Tu sais que je swegg Huh, emoswegg Huh J'ai une bad bitch Huh, elle va make it shake Huh Hey, khey khey Là ça t'attends, fais pas de grêve Demande à ta tante, j'suis un phénomène Demande à ton oncle, j'suis un phénomène Dans le 94, t'es camé mon khey Ils sont bon qu'à mentir, à faire mal à la tête Give me head, give me head, give me head, give me head Air Force One en lacet, comme Corey un phénomène Baba c'est pas assez, tu finis dans l'assiette Trop deuspi, j'en ai passé du Baba c'est pas assez, tu finis dans l'assiette Trop deuspi, j'en ai passé du temps à ronfler sur l'cahier On la connais la cous' elle passe pas la douane On hop in a Coupe, Alakazam Je veux ces euros et je veux ces bands Elle est too lame elle va pécho des Vans Kick shit dans le trap, just like Liu Kang Elle assume pas, cherche que des problems Elle ne peut pas comprendre l'histoire d'mon partner Elle change de mood, on change de saison Elle veut me catch dans l'hood avec un Glock on my hip</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Souviens, souviens-toi d'tout cqu'on a bâti Fais le fou, 38. Special t'es plus dla partie Calcule pas mes cicatrices, j'veux pas t'faire souffrir Pardonne-moi si jamais j'ai du mal à m'ouvrir Yeah Comme un billet d'cent, j'suis propre comme un billet d'cent Oh Tu mvois comme un billet dcinq cents, comme un billet d'cinq cents Yeah, y a rien à gratter dans cmonde, j'prends juste c'qu'il y a à prendre prendre Ils attendent que jdisparaisse comme Pop Smoke pour m'fair comprendre comprendr Dans les tranchées, l'ancien m'dit C'est comme ça qu'on apprend apprend C'putain d'rap game peut pas m'faire, faut que j'm'arrête à temps Yeah Et quand tout va bien, c'est là qu'il faut s'attendre au pire On voulait le faire, on voulait bâtir un empireJ'me mélange pas, la plupart c'est que des acteurs C'est même pas l'.357 mais c'est ta folie qui m'fait peur Comme un billet d'cent, ils m'voient comme un billet d'cent J't'ai cramé, fait pas l'innocent, t'étais mon sang, pourquoi t'as changé ? On a tous grandi ensemble, maintenant tu m'vois comme un étranger Souviens, souviens-toi d'tout c'qu'on a bâti Fais le faux, 38. Special t'es plus d'la partie Calcule pas mes cicatrices, j'veux pas t'faire souffrir Pardonne-moi si jamais j'ai du mal à m'ouvrir Yeah Comme un billet d'cent, j'suis propre comme un billet d'cent Oh Tu m'vois comme un billet d'cinq cents, comme un billet d'cinq cents You might also like Coincé coincé dans ma cellule dans ma cellule Demain c'est loin, pour l'instant j'dois m'assumer j'dois m'assumer J'dois t'rassurer, le temps passe, j'oublie nos fous rires j'oublie nos fous rires Déter', sois sûre qu'j'le fais même si j'ai pas le feu vert j'ai pas le feu vert Gé-char, quand ils t'ont fouillé J'comprends R, dans ma tête c'est comme un fouilli Yeah, j'veux m'envoler, y faut qu'j'aille à Crenshaw Appelle Tiako si tu veux quelque chose Et quand tout va bien, c'est là qu'il faut s'attendre au pire au pire On voulait le faire, on voulait bâtir un empire J'me mélange pas, la plupart c'est que des acteurs C'est même pas l'.357 mais c'est ta folie qui m'fait peur Souviens, souviens-toi d'tout c'qu'on a bâti Fais le faux, 38. Special t'es plus d'la partie Calcule pas mes cicatrices, j'veux pas t'faire souffrir Pardonne-moi si jamais j'ai du mal à m'ouvrir Comme un billet d'cent, j'suis propre comme un billet d'cent Tu m'vois comme un billet d'cinq cents, comme un billet d'cinq cents</t>
+          <t>Souviens, souviens-toi d'tout cqu'on a bâti Fais le fou, 38. Special t'es plus dla partie Calcule pas mes cicatrices, j'veux pas t'faire souffrir Pardonne-moi si jamais j'ai du mal à m'ouvrir Yeah Comme un billet d'cent, j'suis propre comme un billet d'cent Oh Tu mvois comme un billet dcinq cents, comme un billet d'cinq cents Yeah, y a rien à gratter dans cmonde, j'prends juste c'qu'il y a à prendre prendre Ils attendent que jdisparaisse comme Pop Smoke pour m'fair comprendre comprendr Dans les tranchées, l'ancien m'dit C'est comme ça qu'on apprend apprend C'putain d'rap game peut pas m'faire, faut que j'm'arrête à temps Yeah Et quand tout va bien, c'est là qu'il faut s'attendre au pire On voulait le faire, on voulait bâtir un empireJ'me mélange pas, la plupart c'est que des acteurs C'est même pas l'.357 mais c'est ta folie qui m'fait peur Comme un billet d'cent, ils m'voient comme un billet d'cent J't'ai cramé, fait pas l'innocent, t'étais mon sang, pourquoi t'as changé ? On a tous grandi ensemble, maintenant tu m'vois comme un étranger Souviens, souviens-toi d'tout c'qu'on a bâti Fais le faux, 38. Special t'es plus d'la partie Calcule pas mes cicatrices, j'veux pas t'faire souffrir Pardonne-moi si jamais j'ai du mal à m'ouvrir Yeah Comme un billet d'cent, j'suis propre comme un billet d'cent Oh Tu m'vois comme un billet d'cinq cents, comme un billet d'cinq cents Coincé coincé dans ma cellule dans ma cellule Demain c'est loin, pour l'instant j'dois m'assumer j'dois m'assumer J'dois t'rassurer, le temps passe, j'oublie nos fous rires j'oublie nos fous rires Déter', sois sûre qu'j'le fais même si j'ai pas le feu vert j'ai pas le feu vert Gé-char, quand ils t'ont fouillé J'comprends R, dans ma tête c'est comme un fouilli Yeah, j'veux m'envoler, y faut qu'j'aille à Crenshaw Appelle Tiako si tu veux quelque chose Et quand tout va bien, c'est là qu'il faut s'attendre au pire au pire On voulait le faire, on voulait bâtir un empire J'me mélange pas, la plupart c'est que des acteurs C'est même pas l'.357 mais c'est ta folie qui m'fait peur Souviens, souviens-toi d'tout c'qu'on a bâti Fais le faux, 38. Special t'es plus d'la partie Calcule pas mes cicatrices, j'veux pas t'faire souffrir Pardonne-moi si jamais j'ai du mal à m'ouvrir Comme un billet d'cent, j'suis propre comme un billet d'cent Tu m'vois comme un billet d'cinq cents, comme un billet d'cinq cents</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>T'es un, t'es un faux je sens Je fais d'la musica c'est pour développer mes sens On rêve de c'qu'on a pas ma le-gueu c'est indécent Mon gars j'suis qu'un homme j'préfère quand ça va dans mon sens T'es un, t'es un faux je sens Je fais d'la musica c'est pour développer mes sens On rêve de c'qu'on a pas ma le-gueu c'est indécent Mon gars j'suis qu'un homme j'préfère quand ça va dans mon sens Toi tu dis des choses sur moi mais est-ce qu tu nous connais ? J'courrais trop vite fréro mais les péchés ils nous collaient Eh poto c'st la vie elle a un p'tit coté bipolaire Frère on était tout boy y'avait qu'Mehdi pour m'épauler Les sons ils sont trashs J'suis pas dans la triche Gros j'ai trop la dalle j'attends qu'on nous remplisse les dish C'est pas avec de la patience qu'on va faire la diff Y'en a qui nous comprennent pas qu'est-ce tu veux qu'on leur dise Le succès nous passe devant c'est pour ça qu'on est yomb J'ai une ambition qui se compte en millionsions J'te parle d'énergie pas celle qu'ils ont les cocaïnés Bien sûr qu'j'ai vu l'diable, elle a une p'tite odeur vanillée You might also like T'es un, t'es un faux je sens Je fais d'la musica c'est pour développer mes sens On rêve de c'qu'on a pas ma le-gueu c'est indécent Mon gars j'suis qu'un homme j'préfère quand ça va dans mon sens T'es un, t'es un faux je sens Je fais d'la musica c'est pour développer mes sens On rêve de c'qu'on a pas ma le-gueu c'est indécent Mon gars j'suis qu'un homme j'préfère quand ça va dans mon sens</t>
+          <t>T'es un, t'es un faux je sens Je fais d'la musica c'est pour développer mes sens On rêve de c'qu'on a pas ma le-gueu c'est indécent Mon gars j'suis qu'un homme j'préfère quand ça va dans mon sens T'es un, t'es un faux je sens Je fais d'la musica c'est pour développer mes sens On rêve de c'qu'on a pas ma le-gueu c'est indécent Mon gars j'suis qu'un homme j'préfère quand ça va dans mon sens Toi tu dis des choses sur moi mais est-ce qu tu nous connais ? J'courrais trop vite fréro mais les péchés ils nous collaient Eh poto c'st la vie elle a un p'tit coté bipolaire Frère on était tout boy y'avait qu'Mehdi pour m'épauler Les sons ils sont trashs J'suis pas dans la triche Gros j'ai trop la dalle j'attends qu'on nous remplisse les dish C'est pas avec de la patience qu'on va faire la diff Y'en a qui nous comprennent pas qu'est-ce tu veux qu'on leur dise Le succès nous passe devant c'est pour ça qu'on est yomb J'ai une ambition qui se compte en millionsions J'te parle d'énergie pas celle qu'ils ont les cocaïnés Bien sûr qu'j'ai vu l'diable, elle a une p'tite odeur vanillée T'es un, t'es un faux je sens Je fais d'la musica c'est pour développer mes sens On rêve de c'qu'on a pas ma le-gueu c'est indécent Mon gars j'suis qu'un homme j'préfère quand ça va dans mon sens T'es un, t'es un faux je sens Je fais d'la musica c'est pour développer mes sens On rêve de c'qu'on a pas ma le-gueu c'est indécent Mon gars j'suis qu'un homme j'préfère quand ça va dans mon sens</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Yeah, ok, ok Ça bouge dans comme Achille Tu fais l'malin on t'agite J'traine avec des malades, j'récup' la mallette Négro ne parle pas agis Avec mes gavas, on part à l'attaque, j'débarque en classe A mec La frappe à Zlatan, tu fonces dans l'platane On fait pas d'maladresse, ok J'suis à l'aise mon pote c'est la violence qui A fait qu'on est devenu paro J'suis un jeune comme les copines à Polanski La Fève faut qu't'augmentes le taro Dpuis p'tit, coincé dans l'épouvante J'arrive, j'enlèv mon manteau Faut serrer les coudes frérot dans les moments durs J'me demande qui m'a menti La Fève c'est trop chaud quand j'découpe J'ai trop soif j'veux pas des gouttes Y'a que des rapaces, des loups, des bâtards, pour ça qu'le rap ça dégoute Mais La Fève où c'est qu'tu vas trouver tout ça ? J'suis dans cette merde je ne suis pas tout seul L'instru est salace, on veut le salaire d'un PDG et des Avec la prod y'a un feeling Je n'aime pas trop qu'on m'affilie Je traite les infos qu'on m'a filées Au calme quand je té-cla le Philly, yeah Influence Jazz, LAF a la tchatche, faut faire du sale gros c'est ça l'thème Bientôt c'est sale flemme La Fève il rappe et c'est ça qu't'aimes Poto c'est facile, retiens, La Fève c'est comme ça qu'on me nomme On m'a montré cette grosse ta-kish donc j'ai louché j'suis qu'un homme La Fève a faim Tu connais poto, le vide dans mon estomac laisse des séquelles Si moi je reste, toi tu décolles Je suis Verrati tu es Ezekiel You might also like Ça bouge dans comme Achille Tu fais l'malin on t'agite J'traine avec des malades, j'recup' la mallette Négro ne parle pas agis Avec mes gava, on part à l'attaque, j'débarque en classe A mec La frappe à Zlatan, tu fonces dans l'platane On fait pas d'maladresse</t>
+          <t>Yeah, ok, ok Ça bouge dans comme Achille Tu fais l'malin on t'agite J'traine avec des malades, j'récup' la mallette Négro ne parle pas agis Avec mes gavas, on part à l'attaque, j'débarque en classe A mec La frappe à Zlatan, tu fonces dans l'platane On fait pas d'maladresse, ok J'suis à l'aise mon pote c'est la violence qui A fait qu'on est devenu paro J'suis un jeune comme les copines à Polanski La Fève faut qu't'augmentes le taro Dpuis p'tit, coincé dans l'épouvante J'arrive, j'enlèv mon manteau Faut serrer les coudes frérot dans les moments durs J'me demande qui m'a menti La Fève c'est trop chaud quand j'découpe J'ai trop soif j'veux pas des gouttes Y'a que des rapaces, des loups, des bâtards, pour ça qu'le rap ça dégoute Mais La Fève où c'est qu'tu vas trouver tout ça ? J'suis dans cette merde je ne suis pas tout seul L'instru est salace, on veut le salaire d'un PDG et des Avec la prod y'a un feeling Je n'aime pas trop qu'on m'affilie Je traite les infos qu'on m'a filées Au calme quand je té-cla le Philly, yeah Influence Jazz, LAF a la tchatche, faut faire du sale gros c'est ça l'thème Bientôt c'est sale flemme La Fève il rappe et c'est ça qu't'aimes Poto c'est facile, retiens, La Fève c'est comme ça qu'on me nomme On m'a montré cette grosse ta-kish donc j'ai louché j'suis qu'un homme La Fève a faim Tu connais poto, le vide dans mon estomac laisse des séquelles Si moi je reste, toi tu décolles Je suis Verrati tu es Ezekiel Ça bouge dans comme Achille Tu fais l'malin on t'agite J'traine avec des malades, j'recup' la mallette Négro ne parle pas agis Avec mes gava, on part à l'attaque, j'débarque en classe A mec La frappe à Zlatan, tu fonces dans l'platane On fait pas d'maladresse</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Féve 7 Walone J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game Sans bavures Yeah J'voulais brancher, j'fais le bon mais les salopes aiment trop les bad guys Il me fallait du haut standing, ma bitch ne met pas de bas d'gamme J'dois faire le tri dans ma tête parc que j'y vois rien, tout est n pagaille Les yeux globuleux dans la streetzer j'voulais à graille 2015 tu pouvais me voir à tester le Akai Si tu produis du feu, j'peux rapper si ça caille J'cherche la lumière, j'cherche des plav' rentables avec mes racailles J'cherche la lumière, j'cherche des plav' rentables avec mes racailles Que des rimes, des liasses dans mes bagages Ils l'attendent tous donc je vais faire un braquage Tu sais j'ai la peuf qui fait que la balle peut détruire la cage J'ai le cardio, par chez nous t'sais on connait pas les claquages Ouvre les yeux, sauvegarde tout mais s'il te plaît ne parle pas C'est du sérieux, c'est for real donc s'il te plaît ne blague pas Oui moi j'suis d'la pire des races donc s'il te plaît ne pars pas Oui moi j'suis d'la pire des races donc s'il te plaît ne pars pas Pars pas Ne pars pas Je pleure dans ses bras, il revient du placard Plus d'entrées que d'sorties sur ma black card Sisi, j'fais le bien quand le sheitan me drague pas Sisi, j'suis béni, là j'mange autre chose que des plats d'pâtes Sisi, finis la caille, la paille, j'fume que d'la patate Sisi, j'ai porté mes couilles, j'étais seul dans la bataille Sisi, j'ai porté mes couilles, j'étais seul dans la bagarre Han han You might also like Yeah yeah yeah J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais brancher, j'fais le bon mais les salopes aiment trop les bad guys Il me fallait du haut standing, ma bitch ne met pas de bas d'gamme J'dois faire le tri dans ma tête parce que j'y vois rien, tout est en pagaille Les yeux globuleux dans la streetzer j'voulais akai 2015 tu pouvais me voir à tester le Akai Je produis du feu, j'peux rapper si ça caille J'cherche la lumière, j'cherche des plav' rentables avec mes racailles J'cherche la lumière, j'cherche des plav' rentables avec mes racailles</t>
+          <t>Féve 7 Walone J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game Sans bavures Yeah J'voulais brancher, j'fais le bon mais les salopes aiment trop les bad guys Il me fallait du haut standing, ma bitch ne met pas de bas d'gamme J'dois faire le tri dans ma tête parc que j'y vois rien, tout est n pagaille Les yeux globuleux dans la streetzer j'voulais à graille 2015 tu pouvais me voir à tester le Akai Si tu produis du feu, j'peux rapper si ça caille J'cherche la lumière, j'cherche des plav' rentables avec mes racailles J'cherche la lumière, j'cherche des plav' rentables avec mes racailles Que des rimes, des liasses dans mes bagages Ils l'attendent tous donc je vais faire un braquage Tu sais j'ai la peuf qui fait que la balle peut détruire la cage J'ai le cardio, par chez nous t'sais on connait pas les claquages Ouvre les yeux, sauvegarde tout mais s'il te plaît ne parle pas C'est du sérieux, c'est for real donc s'il te plaît ne blague pas Oui moi j'suis d'la pire des races donc s'il te plaît ne pars pas Oui moi j'suis d'la pire des races donc s'il te plaît ne pars pas Pars pas Ne pars pas Je pleure dans ses bras, il revient du placard Plus d'entrées que d'sorties sur ma black card Sisi, j'fais le bien quand le sheitan me drague pas Sisi, j'suis béni, là j'mange autre chose que des plats d'pâtes Sisi, finis la caille, la paille, j'fume que d'la patate Sisi, j'ai porté mes couilles, j'étais seul dans la bataille Sisi, j'ai porté mes couilles, j'étais seul dans la bagarre Han han Yeah yeah yeah J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais brancher, j'fais le bon mais les salopes aiment trop les bad guys Il me fallait du haut standing, ma bitch ne met pas de bas d'gamme J'dois faire le tri dans ma tête parce que j'y vois rien, tout est en pagaille Les yeux globuleux dans la streetzer j'voulais akai 2015 tu pouvais me voir à tester le Akai Je produis du feu, j'peux rapper si ça caille J'cherche la lumière, j'cherche des plav' rentables avec mes racailles J'cherche la lumière, j'cherche des plav' rentables avec mes racailles</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Baby tu as pas ma lolly Pourquoi es-tu si impolie ? Mes frères déchargent tous les colis On prend la place des tes thoties J'mets plus de cons' dans mes souliers Je réponds plus au phone et elle peut garder son sac Channel Me parle plus de love j'vais mettre l'extendo sur le chop T'as fait la folle et tu veux qu'on s'capte Négro passe de l'oseille si tu veux qu'on s'capte Jusqu'à qu'on attnde le décompte Tourn le booth dans la ville j'suis avec 11 gars Euros pas discret rien qu'il fait du zgah Un frérot qu'on intègre et veux faire du ska Maintenant fait d'la trap avec JMK Baby bientôt j'm'enfuis dans un GLK J'fais fructifier de la money Baby tu m'aimes à la folie Qu'est ce tu connais de la folie A part popper de la molly Je fructifie de la money Baby tu m'aimes à la folie Qu'est ce tu connais de la folie A part popper de la molly You might also like Tu dis qu'tu m'aimes à la folie J'ai que du love pour mes soldats Les places dans mon cur sont sold out J'traîne toujours avec mes shab Tu dis qu'tu m'aimes à la folie Mais qu'est ce tu connais de la folie J'ai un spécial il est joli Dis moi que tu m'aimes à la folie J'espère qu't'as le cur solide Elle dit qu'elle m'aime à la folie Tant qu'on peut faire tomber c'est des dominos J'fais des sous all eyes on me A la tâche comme des fourmis Tu dis qu'tu m'aimes à la folie Qu'est ce tu connais de la folie J'ai un spécial il est joli Dis moi qu'tu m'aimes à la folie J'espère qu'ton cur il est solide Baby me donne la tête Et je fume ça me casse Elle est bonne la tête Bonne la tête Pas de réseau ça charbonne la tape Et la gadji veut goûter la verte La liqueur elle veut que je la verse Fait du fuego derrière le micro J'ai du love pour ce jeune il a kiffé mon verse Elle me donne la tête Elle va goûter le jus Tu me donnes la tête Bébé ca sent latex Elle conduit le bateau Elle navigue sur le flow J'suis à peine rentré dedans c'est parti en averse Je l'attrape par les tresses, j'mets ma main sur ses fesses Tu sais qu'entre nous 2 c'est sûrement d'la baise J'fais un ? donc j'ressens plus de stress J'fais fructifier de la money Baby tu m'aimes à la folie Qu'est ce tu connais de la folie A part popper de la molly Je fructifie de la money Baby tu m'aimes à la folie Qu'est ce tu connais de la folie A part popper de la molly Tu dis qu'tu m'aimes à la folie J'ai que du love pour mes soldats Les places dans mon cur sont sold out J'traîne toujours avec mes shab Tu dis qu'tu m'aimes à la folie Mais qu'est ce tu connais de la folie J'ai un spécial il est joli Dis moi que tu m'aimes à la folie J'espère qu't'as le cur solide Elle dit qu'elle m'aime à la folie Tant qu'on peut faire tomber c'est des dominos J'fais des sous all eyes on me A la tâche comme des fourmis Tu dis qu'tu m'aimes à la folie Qu'est ce tu connais de la folie J'ai un spécial il est joli Dis moi qu'tu m'aimes à la folie J'espère qu'ton cur il est solide</t>
+          <t>Baby tu as pas ma lolly Pourquoi es-tu si impolie ? Mes frères déchargent tous les colis On prend la place des tes thoties J'mets plus de cons' dans mes souliers Je réponds plus au phone et elle peut garder son sac Channel Me parle plus de love j'vais mettre l'extendo sur le chop T'as fait la folle et tu veux qu'on s'capte Négro passe de l'oseille si tu veux qu'on s'capte Jusqu'à qu'on attnde le décompte Tourn le booth dans la ville j'suis avec 11 gars Euros pas discret rien qu'il fait du zgah Un frérot qu'on intègre et veux faire du ska Maintenant fait d'la trap avec JMK Baby bientôt j'm'enfuis dans un GLK J'fais fructifier de la money Baby tu m'aimes à la folie Qu'est ce tu connais de la folie A part popper de la molly Je fructifie de la money Baby tu m'aimes à la folie Qu'est ce tu connais de la folie A part popper de la molly Tu dis qu'tu m'aimes à la folie J'ai que du love pour mes soldats Les places dans mon cur sont sold out J'traîne toujours avec mes shab Tu dis qu'tu m'aimes à la folie Mais qu'est ce tu connais de la folie J'ai un spécial il est joli Dis moi que tu m'aimes à la folie J'espère qu't'as le cur solide Elle dit qu'elle m'aime à la folie Tant qu'on peut faire tomber c'est des dominos J'fais des sous all eyes on me A la tâche comme des fourmis Tu dis qu'tu m'aimes à la folie Qu'est ce tu connais de la folie J'ai un spécial il est joli Dis moi qu'tu m'aimes à la folie J'espère qu'ton cur il est solide Baby me donne la tête Et je fume ça me casse Elle est bonne la tête Bonne la tête Pas de réseau ça charbonne la tape Et la gadji veut goûter la verte La liqueur elle veut que je la verse Fait du fuego derrière le micro J'ai du love pour ce jeune il a kiffé mon verse Elle me donne la tête Elle va goûter le jus Tu me donnes la tête Bébé ca sent latex Elle conduit le bateau Elle navigue sur le flow J'suis à peine rentré dedans c'est parti en averse Je l'attrape par les tresses, j'mets ma main sur ses fesses Tu sais qu'entre nous 2 c'est sûrement d'la baise J'fais un ? donc j'ressens plus de stress J'fais fructifier de la money Baby tu m'aimes à la folie Qu'est ce tu connais de la folie A part popper de la molly Je fructifie de la money Baby tu m'aimes à la folie Qu'est ce tu connais de la folie A part popper de la molly Tu dis qu'tu m'aimes à la folie J'ai que du love pour mes soldats Les places dans mon cur sont sold out J'traîne toujours avec mes shab Tu dis qu'tu m'aimes à la folie Mais qu'est ce tu connais de la folie J'ai un spécial il est joli Dis moi que tu m'aimes à la folie J'espère qu't'as le cur solide Elle dit qu'elle m'aime à la folie Tant qu'on peut faire tomber c'est des dominos J'fais des sous all eyes on me A la tâche comme des fourmis Tu dis qu'tu m'aimes à la folie Qu'est ce tu connais de la folie J'ai un spécial il est joli Dis moi qu'tu m'aimes à la folie J'espère qu'ton cur il est solide</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Yeah, yeah, let's go Han, la tension elle change quand j'arrive La Fève dans la Ferrari Bientôt c'est ça l'scénario Tous ces bâtards veulent me faire La bêtise des gens ça nous freine J'entends des mélos quand j'me vé-le Faut garder mes idées au frais Yeah yeah han Yeah, dans un bourbier depuis tant de jours J'suis qu'un homme, j'vais pas tendre la joue Neutron comme Jimmy, La Fèv jeune chimiste Entr moi et la prod', t'as capté l'alchimie Yeah, yeah, si j'viens c'est pas pour la causette Combien d'problèmes on a causés On s'capte à Fontenay gros c'est cosy Yes, on veut l'pactole mon frérot donc ça joue des coudes dans la mêlée Poto j'ai peu d'espoir, tellement croisé les doigts ils sont emmêlés LaF l'affamé Amour que pour ma famille Riche pas famous J'veux péter le score comme Fally Tu côtoies un reuf le lend'main il trouve que t'as gé-chan Paris j'aime pas trop l'ambiance ça sent l'sapin sur les Champs You might also like Yeah, yeah, la tension elle change quand j'arrive P't'être que tout ça c'était qu'un rêve J'aime bien quand le vice me caresse Tous ces bâtards veulent me faire La Fève quand il rap c'est trop fort Le jeune a un phrasé d'enfer Je cherche ma zone de confort Yeah, dans un bourbier depuis tant de jours J'suis qu'un homme, j'vais pas tendre la joue Neutron comme Jimmy, La Fève jeune chimiste Entre moi et la prod', t'as capté l'alchimie</t>
+          <t>Yeah, yeah, let's go Han, la tension elle change quand j'arrive La Fève dans la Ferrari Bientôt c'est ça l'scénario Tous ces bâtards veulent me faire La bêtise des gens ça nous freine J'entends des mélos quand j'me vé-le Faut garder mes idées au frais Yeah yeah han Yeah, dans un bourbier depuis tant de jours J'suis qu'un homme, j'vais pas tendre la joue Neutron comme Jimmy, La Fèv jeune chimiste Entr moi et la prod', t'as capté l'alchimie Yeah, yeah, si j'viens c'est pas pour la causette Combien d'problèmes on a causés On s'capte à Fontenay gros c'est cosy Yes, on veut l'pactole mon frérot donc ça joue des coudes dans la mêlée Poto j'ai peu d'espoir, tellement croisé les doigts ils sont emmêlés LaF l'affamé Amour que pour ma famille Riche pas famous J'veux péter le score comme Fally Tu côtoies un reuf le lend'main il trouve que t'as gé-chan Paris j'aime pas trop l'ambiance ça sent l'sapin sur les Champs Yeah, yeah, la tension elle change quand j'arrive P't'être que tout ça c'était qu'un rêve J'aime bien quand le vice me caresse Tous ces bâtards veulent me faire La Fève quand il rap c'est trop fort Le jeune a un phrasé d'enfer Je cherche ma zone de confort Yeah, dans un bourbier depuis tant de jours J'suis qu'un homme, j'vais pas tendre la joue Neutron comme Jimmy, La Fève jeune chimiste Entre moi et la prod', t'as capté l'alchimie</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Yé, Let's go Only Only Grosse kich bad bitch dans l'lit Bad bitch dans l'lit Paire d'as et jm'ets all in YES! Paire d'as et jm'et all in YESS! D'vant moi toi reste poli zin' Matière sombre dans l'colis Matière sombre dans l'colis J'suis déter' comme jamais Trop d'seum j'avais, au fond j'savais Qu'le destin cétait pas des lol des lol Qu'il fallait trouver ma voie Yé Ya trop d'goudron dans ma voix Ok La Fève tu peux pas l'avoir Ok Rentre pas chez nous chez nous Scientifique comme prof' Chen No Gros la vie c'est une chute chute Quand je pose, chut Shhh... Je fume trop d shit Je fume trop de shit Tous ls jours dans mes shits Tous les jours dans mes shits Je veux augmenter les chiffres Je veux augmenter les chiffres Faire des mélos qui Faire des mélos qui Dans l'pera j'suis legit Dans l'pera j'suis legit Toujours avec les G Toujours avec les G Tu connais j'suis posé solo Poto sa roule que des J sa roule que des Trap ! Nuit, matin, je vois que ça ma gueule je vois que sa ma gueule Vide le keusa ma gueule Vide le keusa ma gueule J'fais ça comme ça ma gueule Let's go La Fève c'est la relève La Fève c'est la relève Y'a des échecs mais on s'relève YES Pour comprendre faut qu'tu relises YES Que des espions à la release Que des espions à la release Elle me dit love you j'dis Really ? Really ? Zin j'suis trop cozy comme Willy Willy Appel l'phone tel jdis Ouai allo ? Ouai allo ? Tu veux un clip appel la Walone Walone J'ai le rap lourd comme Wailord La rhyme et moi c'est une belle histoire histoire Je sais qu'nous écrirons l'histoire YES Gros sois patient canalise toi YES Tu fume du cannabis toi, gros con À la télé ils disent ça tue ils disent ça tue Tous les jours j'suis sur Saturne saturne J'aime quand les bass saturent saturent Faire des sous j'trouve pas ça dur j'trouve pas ça dur Eux ils ont qu'ça à dire ils ont qu'ça à dire Gros le vice ça attire Gros le vice ça attire Toi t'es plus là quand ça tire Ok You might also like Only Only Grosse kich bad bitch dans l'lit Paire d'as et jm'ets all in all in Paire d'as et jm'ets all in Let's go ! D'vant moi toi reste polie zin' Matière sombre dans l'colis Matière sombre J'suis déter' comme jamais Trop d'seum j'avais, au fond j'savais Yé, Yé, Yé, Yé</t>
+          <t>Yé, Let's go Only Only Grosse kich bad bitch dans l'lit Bad bitch dans l'lit Paire d'as et jm'ets all in YES! Paire d'as et jm'et all in YESS! D'vant moi toi reste poli zin' Matière sombre dans l'colis Matière sombre dans l'colis J'suis déter' comme jamais Trop d'seum j'avais, au fond j'savais Qu'le destin cétait pas des lol des lol Qu'il fallait trouver ma voie Yé Ya trop d'goudron dans ma voix Ok La Fève tu peux pas l'avoir Ok Rentre pas chez nous chez nous Scientifique comme prof' Chen No Gros la vie c'est une chute chute Quand je pose, chut Shhh... Je fume trop d shit Je fume trop de shit Tous ls jours dans mes shits Tous les jours dans mes shits Je veux augmenter les chiffres Je veux augmenter les chiffres Faire des mélos qui Faire des mélos qui Dans l'pera j'suis legit Dans l'pera j'suis legit Toujours avec les G Toujours avec les G Tu connais j'suis posé solo Poto sa roule que des J sa roule que des Trap ! Nuit, matin, je vois que ça ma gueule je vois que sa ma gueule Vide le keusa ma gueule Vide le keusa ma gueule J'fais ça comme ça ma gueule Let's go La Fève c'est la relève La Fève c'est la relève Y'a des échecs mais on s'relève YES Pour comprendre faut qu'tu relises YES Que des espions à la release Que des espions à la release Elle me dit love you j'dis Really ? Really ? Zin j'suis trop cozy comme Willy Willy Appel l'phone tel jdis Ouai allo ? Ouai allo ? Tu veux un clip appel la Walone Walone J'ai le rap lourd comme Wailord La rhyme et moi c'est une belle histoire histoire Je sais qu'nous écrirons l'histoire YES Gros sois patient canalise toi YES Tu fume du cannabis toi, gros con À la télé ils disent ça tue ils disent ça tue Tous les jours j'suis sur Saturne saturne J'aime quand les bass saturent saturent Faire des sous j'trouve pas ça dur j'trouve pas ça dur Eux ils ont qu'ça à dire ils ont qu'ça à dire Gros le vice ça attire Gros le vice ça attire Toi t'es plus là quand ça tire Ok Only Only Grosse kich bad bitch dans l'lit Paire d'as et jm'ets all in all in Paire d'as et jm'ets all in Let's go ! D'vant moi toi reste polie zin' Matière sombre dans l'colis Matière sombre J'suis déter' comme jamais Trop d'seum j'avais, au fond j'savais Yé, Yé, Yé, Yé</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Yeah Ok avant, j'ramais Lâcher l'affaire, jamais Yeah, yeah, yeah J'entends mon heure sonner, allô Allô J'ai du chagrin je me couche à l'aube À l'aube T'as un plav', amène Yeah Bientôt là haut, amen Amen Le baveux je lui dis Shalom Baveux je lui dis Shalom J'ai du chagrin je me couche à l'aube Yeah Ok avant, j'ramais J'ramais Lâcher l'affaire, jamais Jamais J'entends mon heure sonner, allô Brrrrr J'ai du chagrin je me couche à l'aube Brrrrr T'as un plav', amène Amène Bientôt là haut, amen Yeah Le baveux je lui dis Shalom Shalom J'ai du chagrin je me couche à l'aube Ok, moi c'est La Fève le fougueux, les vingt-deux j'me fous d'eux Petit espion au city fait du foot Pour ma mère il faut une fourrure en bison Marie m'appelle, j'veux esquiver ses bisous Rapper ça soulage, qu'est ce t'as t'es saoul là Espion à l'écart, j'suis comme Newton sous l'arbre Newton sous l'arbre Je sais qu'tu sais qu'mon phrasé c'est un délice Un délice Gros l'rap c'est un délire J'suis La Fève j'chante comme Dalida Dalida J'me retourne tu m'tire dans le dos Noctambule comme un Wayne Bruce J'suis comme James Bond dans la cambrousse Cambrousse J'ai les crocs, j'suis un dogue Dans la vie faut réaliser c'qu'on t'donne C'qu'on t'donne Ça rappait sous la pluie avec Ben 'vec Ben On est en bas, faudrait changer la donne Yeah, faut que j'médite pour comprendre tous mes chakras Traine dans la savane avec tous mes chacals Des batards, des bavons un peu partout Peu partout Tant d'mauvaises graines sur mon parcours Yeah, yeah Pion sur l'échiquier, ça sent le chéquier, je vois bien qu'tu m'juges alors que j't'ai checké Checké Jeune bientôt au musée du Louvre Louvre Tu comprends pas donc pourquoi tu l'ouvres You might also like Ok avant, j'ramais J'ramais Lâcher l'affaire, jamais Jamais J'entends mon heure sonner, allô Allô J'ai du chagrin, je me couche à l'aube Ayeah T'as un plav, amène Amène Bientôt là haut, amen Amen Le baveux je lui dis Shalom Shalom J'ai du chagrin, je me couche à l'aube Ayeah, yeah, yeah, yeah, yeah, yeah Ok avant, j'ramais J'ramais Lâcher l'affaire, jamais Jamais J'entends mon heure sonner, allô Allô J'ai du chagrin, je me couche à l'aube À l'aube T'as un plav, amène Yeah Bientôt là haut, amen Amen Le baveux je lui dis Shalom Shalom J'ai du chagrin je me couche à l'aube Chagrin je me couche à l'aube1</t>
+          <t>Yeah Ok avant, j'ramais Lâcher l'affaire, jamais Yeah, yeah, yeah J'entends mon heure sonner, allô Allô J'ai du chagrin je me couche à l'aube À l'aube T'as un plav', amène Yeah Bientôt là haut, amen Amen Le baveux je lui dis Shalom Baveux je lui dis Shalom J'ai du chagrin je me couche à l'aube Yeah Ok avant, j'ramais J'ramais Lâcher l'affaire, jamais Jamais J'entends mon heure sonner, allô Brrrrr J'ai du chagrin je me couche à l'aube Brrrrr T'as un plav', amène Amène Bientôt là haut, amen Yeah Le baveux je lui dis Shalom Shalom J'ai du chagrin je me couche à l'aube Ok, moi c'est La Fève le fougueux, les vingt-deux j'me fous d'eux Petit espion au city fait du foot Pour ma mère il faut une fourrure en bison Marie m'appelle, j'veux esquiver ses bisous Rapper ça soulage, qu'est ce t'as t'es saoul là Espion à l'écart, j'suis comme Newton sous l'arbre Newton sous l'arbre Je sais qu'tu sais qu'mon phrasé c'est un délice Un délice Gros l'rap c'est un délire J'suis La Fève j'chante comme Dalida Dalida J'me retourne tu m'tire dans le dos Noctambule comme un Wayne Bruce J'suis comme James Bond dans la cambrousse Cambrousse J'ai les crocs, j'suis un dogue Dans la vie faut réaliser c'qu'on t'donne C'qu'on t'donne Ça rappait sous la pluie avec Ben 'vec Ben On est en bas, faudrait changer la donne Yeah, faut que j'médite pour comprendre tous mes chakras Traine dans la savane avec tous mes chacals Des batards, des bavons un peu partout Peu partout Tant d'mauvaises graines sur mon parcours Yeah, yeah Pion sur l'échiquier, ça sent le chéquier, je vois bien qu'tu m'juges alors que j't'ai checké Checké Jeune bientôt au musée du Louvre Louvre Tu comprends pas donc pourquoi tu l'ouvres Ok avant, j'ramais J'ramais Lâcher l'affaire, jamais Jamais J'entends mon heure sonner, allô Allô J'ai du chagrin, je me couche à l'aube Ayeah T'as un plav, amène Amène Bientôt là haut, amen Amen Le baveux je lui dis Shalom Shalom J'ai du chagrin, je me couche à l'aube Ayeah, yeah, yeah, yeah, yeah, yeah Ok avant, j'ramais J'ramais Lâcher l'affaire, jamais Jamais J'entends mon heure sonner, allô Allô J'ai du chagrin, je me couche à l'aube À l'aube T'as un plav, amène Yeah Bientôt là haut, amen Amen Le baveux je lui dis Shalom Shalom J'ai du chagrin je me couche à l'aube Chagrin je me couche à l'aube1</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah, yeah Ayo, Demnacho Audemars Piguet, bientôt j'ai l'flow à Biggie Faut que j'me pète à Philly, entre G on s'affilie Entre G on s'affilie Ok, tout l'temps dans ma peine, où la chance elle s'est cachée J'l'aime un peu et c'est gâché Audemars Piguet, bientôt j'ai l'flow à Biggie Faut que j'me pète à Philly, entre G on s'affilie Entre G on s'affilie Ok, tout l'temps dans ma peine, où la chance elle s'est cachée J'l'aime un peu et c'est gâché J'ai toi dans ma tête, quelques rimes et des images Faut pas louper les virages, le ciel me dit Tu verras Le ciel me dit Tu verras Ok, faut qu'j'trouve un baveux véreux Faut qu'j'arrête de m'prendre la tête, que l'champ' remplisse le verre Que l'champ' remplisse le verre Hey, évoluer c'est mon leitmotive Le W c'est la lettre maudite, faudrait remplir la mallette, mon G Si je vois la fin, je n'hésite pas Regarde dans les yeux quand mes G... Regarde dans les yeux quand mes G te parlent You might also like Audemars Piguet, bientôt j'ai l'flow à Biggie Faut que j'me pète à Philly, entre G on s'affilie Entre G on s'affilie Ok, tout l'temps dans ma peine, où la chance elle s'est cachée J'l'aime un peu et c'est gâché</t>
+          <t>Yeah, yeah, yeah, yeah Ayo, Demnacho Audemars Piguet, bientôt j'ai l'flow à Biggie Faut que j'me pète à Philly, entre G on s'affilie Entre G on s'affilie Ok, tout l'temps dans ma peine, où la chance elle s'est cachée J'l'aime un peu et c'est gâché Audemars Piguet, bientôt j'ai l'flow à Biggie Faut que j'me pète à Philly, entre G on s'affilie Entre G on s'affilie Ok, tout l'temps dans ma peine, où la chance elle s'est cachée J'l'aime un peu et c'est gâché J'ai toi dans ma tête, quelques rimes et des images Faut pas louper les virages, le ciel me dit Tu verras Le ciel me dit Tu verras Ok, faut qu'j'trouve un baveux véreux Faut qu'j'arrête de m'prendre la tête, que l'champ' remplisse le verre Que l'champ' remplisse le verre Hey, évoluer c'est mon leitmotive Le W c'est la lettre maudite, faudrait remplir la mallette, mon G Si je vois la fin, je n'hésite pas Regarde dans les yeux quand mes G... Regarde dans les yeux quand mes G te parlent Audemars Piguet, bientôt j'ai l'flow à Biggie Faut que j'me pète à Philly, entre G on s'affilie Entre G on s'affilie Ok, tout l'temps dans ma peine, où la chance elle s'est cachée J'l'aime un peu et c'est gâché</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ça dit quoi ? R.A.S Wouh Fève, 7 R.A.S gang, eh J'veux être immunisé contre le cancer, comme si j'étais un requin Wouh 243 comme le coltan, comme dirait Zequin Boum L'état nous ment, veut pas faire la différence entre musulman et taliban Hood À vu d'oeil, j'peux différencier l'alligator et le caïman Dans mon équipe, y a pas de proxénète, y a pas de porc célèbres Si tu t'approches, t'es dead Bah J'aime les femmes, les armes des pays de l'Est Wouh Et les grosses Mercedes Incroyable Pas l'cur en porcelaine, le chemin est parsemé Comme les joueurs d'la première league, mon gars, j'suis payé chaque semaine Ton contrat, ta maison, bien sûr on rachète Wouh Mouammar Kadhafi avec une machette Wouh Fait pas la machine, on sort les machins Dans l'game que des moutons, j'suis la chèvre Le G.O.A.T Les couilles faut pas qu'les vider, mon gars, faut aussi les porter T'imagine si la mère de Michael Jordan Bon courage avait avorté ? Let's go You might also like Une faute avouée à moitié pardonnée, sauf devant un keuf Fort Une faute avouée à moitié pardonnée, sauf devant un keuf Let's go Toi tu parlais beaucoup Beaucoup Mais tu bavardes moins devant le neuf Moins Toi tu parlais beaucoup Beaucoup Mais tu bavardes moins devant le neuf Moins Une faute avouée à moitié pardonnée, sauf devant un keuf Sauvage Une faute avouée à moitié pardonnée, sauf devant un keuf Yes, hood, hood, hood Toi tu parlais beaucoup Bouh Mais tu bavardes moins devant le neuf Moins Toi tu parlais beaucoup Yes, wouh, okay Les années passent, c'est les mêmes thématiques J'vais tout baiser, j'ai pas besoin d'faire une tactique Poto, tout c'que j'dis, c'est problématique J'fais l'tour de la ville dans un gros 4MATIC Bâtard, me prend pas mon énergie Ma gueule, si elle est fit, je vais l'élargir Elle est fraiche, elle veut goûter mon golo Mais comme Crimi', moi j'suis dans la sauvagerie Sauvagerie Je n'ai pas l'temps pour ces négros, ma leug', tu vois bien que je cours Tu vois bien que je cours Chasseur de rêves certifié, pour cette merde, je n'ai pas pris de cours Claquer mon salaire sur ses sses-fe, j'crois que j'étais fait pour J'crois que j'ai des échos, yeah J'ai laissé faire et ce bâtard croit qu'il m'a pris de cours J'crois qu'c'est le seum qui m'a déposé Ouais, j'ai papier, maintenant il faut exploser Les problèmes de ma géné j'ai exposé Là j'suis chaud, j'veux même pas arrêter d'poser Moi j'suis plus Fisherman que verre de rosé Le vers j'ai osé, toi t'es bon qu'à parler sur les gens Sur les gens Qu'à parler sur les gens Sur les gens Rien n'a changé, j'veux toujours du diamant sur mes jantes Une faute avouée à moitié pardonnée, sauf devant un keuf Fort Une faute avouée à moitié pardonnée, sauf devant un keuf Let's go Toi tu parlais beaucoup Beaucoup Mais tu bavardes moins devant le neuf Moins Toi tu parlais beaucoup Beaucoup Mais tu bavardes moins devant le neuf Moins Une faute avouée à moitié pardonnée, sauf devant un keuf Sauvage Une faute avouée à moitié pardonnée, sauf devant un keuf Yes, hood, hood, hood Toi tu parlais beaucoup Bouh Mais tu bavardes moins devant le neuf Moins Toi tu parlais beaucoup Wouh Bouh Bon courage Shooteurs Kala te tozo ya bo banga te 243 bana ya Kin, bana ya Yolo, Matete, Ngaba, Masina 243, Lemba, Bandal, N'Djili, Matonge, bo yebi déjà, kala te 243 GRAND PRETRE Kwanga na ntaba chez Mère Malou neti La Fève Kitok Mabiala matisa casque koh orh</t>
+          <t>Ça dit quoi ? R.A.S Wouh Fève, 7 R.A.S gang, eh J'veux être immunisé contre le cancer, comme si j'étais un requin Wouh 243 comme le coltan, comme dirait Zequin Boum L'état nous ment, veut pas faire la différence entre musulman et taliban Hood À vu d'oeil, j'peux différencier l'alligator et le caïman Dans mon équipe, y a pas de proxénète, y a pas de porc célèbres Si tu t'approches, t'es dead Bah J'aime les femmes, les armes des pays de l'Est Wouh Et les grosses Mercedes Incroyable Pas l'cur en porcelaine, le chemin est parsemé Comme les joueurs d'la première league, mon gars, j'suis payé chaque semaine Ton contrat, ta maison, bien sûr on rachète Wouh Mouammar Kadhafi avec une machette Wouh Fait pas la machine, on sort les machins Dans l'game que des moutons, j'suis la chèvre Le G.O.A.T Les couilles faut pas qu'les vider, mon gars, faut aussi les porter T'imagine si la mère de Michael Jordan Bon courage avait avorté ? Let's go Une faute avouée à moitié pardonnée, sauf devant un keuf Fort Une faute avouée à moitié pardonnée, sauf devant un keuf Let's go Toi tu parlais beaucoup Beaucoup Mais tu bavardes moins devant le neuf Moins Toi tu parlais beaucoup Beaucoup Mais tu bavardes moins devant le neuf Moins Une faute avouée à moitié pardonnée, sauf devant un keuf Sauvage Une faute avouée à moitié pardonnée, sauf devant un keuf Yes, hood, hood, hood Toi tu parlais beaucoup Bouh Mais tu bavardes moins devant le neuf Moins Toi tu parlais beaucoup Yes, wouh, okay Les années passent, c'est les mêmes thématiques J'vais tout baiser, j'ai pas besoin d'faire une tactique Poto, tout c'que j'dis, c'est problématique J'fais l'tour de la ville dans un gros 4MATIC Bâtard, me prend pas mon énergie Ma gueule, si elle est fit, je vais l'élargir Elle est fraiche, elle veut goûter mon golo Mais comme Crimi', moi j'suis dans la sauvagerie Sauvagerie Je n'ai pas l'temps pour ces négros, ma leug', tu vois bien que je cours Tu vois bien que je cours Chasseur de rêves certifié, pour cette merde, je n'ai pas pris de cours Claquer mon salaire sur ses sses-fe, j'crois que j'étais fait pour J'crois que j'ai des échos, yeah J'ai laissé faire et ce bâtard croit qu'il m'a pris de cours J'crois qu'c'est le seum qui m'a déposé Ouais, j'ai papier, maintenant il faut exploser Les problèmes de ma géné j'ai exposé Là j'suis chaud, j'veux même pas arrêter d'poser Moi j'suis plus Fisherman que verre de rosé Le vers j'ai osé, toi t'es bon qu'à parler sur les gens Sur les gens Qu'à parler sur les gens Sur les gens Rien n'a changé, j'veux toujours du diamant sur mes jantes Une faute avouée à moitié pardonnée, sauf devant un keuf Fort Une faute avouée à moitié pardonnée, sauf devant un keuf Let's go Toi tu parlais beaucoup Beaucoup Mais tu bavardes moins devant le neuf Moins Toi tu parlais beaucoup Beaucoup Mais tu bavardes moins devant le neuf Moins Une faute avouée à moitié pardonnée, sauf devant un keuf Sauvage Une faute avouée à moitié pardonnée, sauf devant un keuf Yes, hood, hood, hood Toi tu parlais beaucoup Bouh Mais tu bavardes moins devant le neuf Moins Toi tu parlais beaucoup Wouh Bouh Bon courage Shooteurs Kala te tozo ya bo banga te 243 bana ya Kin, bana ya Yolo, Matete, Ngaba, Masina 243, Lemba, Bandal, N'Djili, Matonge, bo yebi déjà, kala te 243 GRAND PRETRE Kwanga na ntaba chez Mère Malou neti La Fève Kitok Mabiala matisa casque koh orh</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Han han han hi l'humanité compte sur toi Merde Sept dans la gov', deux dans ma tête, on est mille à vouloir le butin J'roule l'hollandaise, j'marche sur la braise depuis qu'j'ai choisi mon quotidien J'fais des efforts, même si j'échoue La Fève n'sera pas un vaurien J'suis sous mon nuage, j'ai des images de leurs pertes donc La Fève est souriant Ça va pas fort depuis qu'ils s'battent pour des ous, ils s'battent pour des broutilles Moi je veux des ous mais jamais je baisserais mon fut pour un poignée de centims Pas d'sentiments, on s'attire avant que le cash disparaisse, hé Fuck les strass et les paillettes, je veux des T-shirts en cachemire Je veux des pulls en or massif, j'ai le brolique où est ma cible, hé J'roule un machin dans les abysses, je serais roi, je serais le dieu Une fois dans la poche j'sortirais l'couteau si rien s'passe comme prévu Je me souviens j'esquivais tes yeux comme pour éviter la bévue Merde, merde Je veux faire le tour du monde en moto, mais je n'trouve pas la motiv' J'veux pas m'endetter au loto Cours, quand la flemmardise te rattrape Quand la mort arrive tu peux rien faire Dans les affaires tu peux rien flairé J'marchais tout seul j'avais pas de frérot, ouais Donc j'roule un John, j'vois les poissons s'porter l'il Et j'aime quand je m'isole, oui quand je ne vois pas l'heure, hey Parfois je rode dans les quartiers riches, les rues chics de Paris pour m'faire une idée du biff You might also like J'suis sur l'banc d'l'Avenue Montaigne L'Avenue Montaigne L'argent ça m'brise, ça rend teigne, ça rend triste, ça m'rend haineux J'crois qu'la misère me rend vide, oui ça m'rend ivre, faut qu'je file à l'anglaise J'crois qu'la vie n'est pas si terne J'suis sur l'banc d'l'Avenue Montaigne D'l'Avenue Montaigne L'argent ça m'brise, ça rend teigne, ça rend triste, ça m'rend haineux J'crois qu'la misère me rend vide, oui ça m'rend ivre faut qu'je file à l'anglaise J'crois qu'la vie n'est pas si terne Laf Putain ! Cet engin a même l'ABS</t>
+          <t>Han han han hi l'humanité compte sur toi Merde Sept dans la gov', deux dans ma tête, on est mille à vouloir le butin J'roule l'hollandaise, j'marche sur la braise depuis qu'j'ai choisi mon quotidien J'fais des efforts, même si j'échoue La Fève n'sera pas un vaurien J'suis sous mon nuage, j'ai des images de leurs pertes donc La Fève est souriant Ça va pas fort depuis qu'ils s'battent pour des ous, ils s'battent pour des broutilles Moi je veux des ous mais jamais je baisserais mon fut pour un poignée de centims Pas d'sentiments, on s'attire avant que le cash disparaisse, hé Fuck les strass et les paillettes, je veux des T-shirts en cachemire Je veux des pulls en or massif, j'ai le brolique où est ma cible, hé J'roule un machin dans les abysses, je serais roi, je serais le dieu Une fois dans la poche j'sortirais l'couteau si rien s'passe comme prévu Je me souviens j'esquivais tes yeux comme pour éviter la bévue Merde, merde Je veux faire le tour du monde en moto, mais je n'trouve pas la motiv' J'veux pas m'endetter au loto Cours, quand la flemmardise te rattrape Quand la mort arrive tu peux rien faire Dans les affaires tu peux rien flairé J'marchais tout seul j'avais pas de frérot, ouais Donc j'roule un John, j'vois les poissons s'porter l'il Et j'aime quand je m'isole, oui quand je ne vois pas l'heure, hey Parfois je rode dans les quartiers riches, les rues chics de Paris pour m'faire une idée du biff J'suis sur l'banc d'l'Avenue Montaigne L'Avenue Montaigne L'argent ça m'brise, ça rend teigne, ça rend triste, ça m'rend haineux J'crois qu'la misère me rend vide, oui ça m'rend ivre, faut qu'je file à l'anglaise J'crois qu'la vie n'est pas si terne J'suis sur l'banc d'l'Avenue Montaigne D'l'Avenue Montaigne L'argent ça m'brise, ça rend teigne, ça rend triste, ça m'rend haineux J'crois qu'la misère me rend vide, oui ça m'rend ivre faut qu'je file à l'anglaise J'crois qu'la vie n'est pas si terne Laf Putain ! Cet engin a même l'ABS</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ça me plait de ouf Yeah, yeah Ça me plait beaucoup Yeah, yeah Ça me plait de ouf Yeah, yeah Ça me plait beaucoup Yeah, yeah Yeah Oh, ça me plait de ouf, c'est weird T'as la corde au cou, c'est triste Tu veux êtres comme nous, t'es vif Twerk fort comme Babyboo, c'est weird Ça me plait de ouf Ça me plait beaucoup Yeah Yeah Poto mon équipe c'est comme la Gesta' Gesta' Frérot sur mes grillz, il faut du cristal Yes Jeune La Fève qui recherche que les kichtas Kichtas Depuis l'époque des Nike et des G-Star Ça me plait beaucoup Gros on fait pas des sommes pour plaire Pour plaire Va là-bas zin', tu m'as pompé l'air Pompé l'air Sur le terrain, fait des bastos Sur le terrain, fait des bastos Sur le terrain, fait des frappes comme Pelé Yes You might also like On est à propos des sommes à dix chiffres Dix chiffres Dans la cabine fait jamais de déchets Dans la cabine fait jamais de déchets Faut prendre du recul, faut changer d'échelles Faut prendre du recul, faut changer d'échelles On économise, on se pète aux Seychelles On économise, on se pète aux Seychelles Ça me plait beaucoup Bientôt on lève un toast, on dit hourra Hourra Pour les bons choix qu'on a fait tous ensemble Bons choix qu'on a fait tous ensemble Y'a des bons mais c'est mauvais dans l'ensemble Y'a des bons mais c'est mauvais dans l'ensemble Merde, j'ai trop marché j'ai les orteils en sang En sang C'est un puzzle de mots et de pensées Pensées Faut me satisfaire avant que mon heure sonne Yes J'ai les lunettes de Mr.Anderson Derson Jeune espion a le gun de Nicky Larson Ça me plait beaucoup Tu sais poto, La Fève il est comme ça Comme ça Je ne souris pas trop sur la Le poids du monde m'a vite étouffé Pour manger mon ami on va tout faire Oh, ça me plait de ouf, c'est real T'as la corde au cou, c'est triste Tu veux être comme nous, t'es vif Twerk fort comme Babyboo, c'est real Ça me plait de ouf De ouf Ça me plait beaucoup Yeah Ça me plait de ouf, c'est real T'as la corde au cou, c'est triste Tu veux êtres comme nous, t'es vif Twerk fort comme Babyboo, c'est real Ça me plait de ouf De ouf Ça me plait beaucoup Yeah, Poto mon équipe c'est comme la Gesta' Gesta' Frérot sur mes grillz, il faut du cristal Yes Jeune La Fève qui recherche que les kichtas Yes Depuis l'époque des Nike et des G-Star Yes Gros on fait pas des sommes pour plaire Pour plaire Va là-bas zin', tu m'as pompé l'air Sur le terrain fait des bastos Terrain fait des bastos Sur le terrain fait des frappes comme Pelé J'ai trop de sons qui do-o-orment T'inquiète pas qu'ça va pren-en-en-dre ?, dans mon so-o-ort Entouré de mes wo-o-olfs Je suis o-o-off Elle veut qu'on baisse les sto-o-ores J'ride deux fois plus comme jo-o-ob Antarisé comme Ro-o-on Yo, han, sur le terrain fait des frappes comme Pelé Tu nous écoutes deux, trois sec' et t'as peau elle a pelée Ils sont dans mon assiette un peu comme tomate pelée Le studio c'est l'atelier, t'as meuf elle fait que de m'appeler On lâche que des feintes, mon négro t'es apeuré Je pense à mes défunts, la boisson s'met à couler Une balance, ça va jamais à la pesée Quatre kilos sept-cent-vingt, moi je suis né pour peser Moi je suis né pour peser, mais j'me suis trop affaissé donc j'me lève pour les fesser Rater c'est un péché, je te donne mon flow tu peux lécher, si t'es intéressé Tu rappes comme un sou, on dirait que t'es éméché S-Tee Deux, quatre, trois, deux, deux, trois j'suis le fils du soleil, je shine Maman m'a qué-blo dans son pagne Elle m'a préservée pour la gagne C'est cheat dans ma tête à chaque où que j'aille S-Tee Oh, ça me plait de ouf, c'est real T'as la corde au cou, c'est triste Tu veux êtres comme nous, t'es vif Twerk fort comme Babyboo, c'est real Ça me plait de ouf Ça me plait beaucoup</t>
+          <t>Ça me plait de ouf Yeah, yeah Ça me plait beaucoup Yeah, yeah Ça me plait de ouf Yeah, yeah Ça me plait beaucoup Yeah, yeah Yeah Oh, ça me plait de ouf, c'est weird T'as la corde au cou, c'est triste Tu veux êtres comme nous, t'es vif Twerk fort comme Babyboo, c'est weird Ça me plait de ouf Ça me plait beaucoup Yeah Yeah Poto mon équipe c'est comme la Gesta' Gesta' Frérot sur mes grillz, il faut du cristal Yes Jeune La Fève qui recherche que les kichtas Kichtas Depuis l'époque des Nike et des G-Star Ça me plait beaucoup Gros on fait pas des sommes pour plaire Pour plaire Va là-bas zin', tu m'as pompé l'air Pompé l'air Sur le terrain, fait des bastos Sur le terrain, fait des bastos Sur le terrain, fait des frappes comme Pelé Yes On est à propos des sommes à dix chiffres Dix chiffres Dans la cabine fait jamais de déchets Dans la cabine fait jamais de déchets Faut prendre du recul, faut changer d'échelles Faut prendre du recul, faut changer d'échelles On économise, on se pète aux Seychelles On économise, on se pète aux Seychelles Ça me plait beaucoup Bientôt on lève un toast, on dit hourra Hourra Pour les bons choix qu'on a fait tous ensemble Bons choix qu'on a fait tous ensemble Y'a des bons mais c'est mauvais dans l'ensemble Y'a des bons mais c'est mauvais dans l'ensemble Merde, j'ai trop marché j'ai les orteils en sang En sang C'est un puzzle de mots et de pensées Pensées Faut me satisfaire avant que mon heure sonne Yes J'ai les lunettes de Mr.Anderson Derson Jeune espion a le gun de Nicky Larson Ça me plait beaucoup Tu sais poto, La Fève il est comme ça Comme ça Je ne souris pas trop sur la Le poids du monde m'a vite étouffé Pour manger mon ami on va tout faire Oh, ça me plait de ouf, c'est real T'as la corde au cou, c'est triste Tu veux être comme nous, t'es vif Twerk fort comme Babyboo, c'est real Ça me plait de ouf De ouf Ça me plait beaucoup Yeah Ça me plait de ouf, c'est real T'as la corde au cou, c'est triste Tu veux êtres comme nous, t'es vif Twerk fort comme Babyboo, c'est real Ça me plait de ouf De ouf Ça me plait beaucoup Yeah, Poto mon équipe c'est comme la Gesta' Gesta' Frérot sur mes grillz, il faut du cristal Yes Jeune La Fève qui recherche que les kichtas Yes Depuis l'époque des Nike et des G-Star Yes Gros on fait pas des sommes pour plaire Pour plaire Va là-bas zin', tu m'as pompé l'air Sur le terrain fait des bastos Terrain fait des bastos Sur le terrain fait des frappes comme Pelé J'ai trop de sons qui do-o-orment T'inquiète pas qu'ça va pren-en-en-dre ?, dans mon so-o-ort Entouré de mes wo-o-olfs Je suis o-o-off Elle veut qu'on baisse les sto-o-ores J'ride deux fois plus comme jo-o-ob Antarisé comme Ro-o-on Yo, han, sur le terrain fait des frappes comme Pelé Tu nous écoutes deux, trois sec' et t'as peau elle a pelée Ils sont dans mon assiette un peu comme tomate pelée Le studio c'est l'atelier, t'as meuf elle fait que de m'appeler On lâche que des feintes, mon négro t'es apeuré Je pense à mes défunts, la boisson s'met à couler Une balance, ça va jamais à la pesée Quatre kilos sept-cent-vingt, moi je suis né pour peser Moi je suis né pour peser, mais j'me suis trop affaissé donc j'me lève pour les fesser Rater c'est un péché, je te donne mon flow tu peux lécher, si t'es intéressé Tu rappes comme un sou, on dirait que t'es éméché S-Tee Deux, quatre, trois, deux, deux, trois j'suis le fils du soleil, je shine Maman m'a qué-blo dans son pagne Elle m'a préservée pour la gagne C'est cheat dans ma tête à chaque où que j'aille S-Tee Oh, ça me plait de ouf, c'est real T'as la corde au cou, c'est triste Tu veux êtres comme nous, t'es vif Twerk fort comme Babyboo, c'est real Ça me plait de ouf Ça me plait beaucoup</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Akim Akim, are you there? Non, non Non, non Yeah, ERRR Yeah, yeah, yeah J'aurais pu le faire pour des faux G, pour zéro dollar mais j'ai gardé la foi dans ma shit Yeah Là, j'suis lonely, j'pense à quand j'étais en chien là-bas, on s'partageait le grec et le shit J'ai jamais dit qu'j'étais parfait, on changerait un peu si c'était à refaire Moi, je n'ai pas le temps pour tes mood swings, ma chérie, j'ai la tête à mes affaires Yeah, yeah Ouh, y a personne qui croyait en moi, back then, y a personne qui croyait en moi, back then Je prépare du salasse, ils sont pas prêts, ils m'ont lâché, ils vont revenir après Avec du recul, on regardait nos vies, c'était moche donc on voulait juste effacer la craie Je repars de zéro, j'vais taffer la mélodie, everyday donc je vais pas sortir c't après-m' T'as cru on fait ça pour la fame, everyday, y a des G qui s'voilent la face On m'appelle l'affamé, on m'appelle La Fève On n'est pas tes amis, on n'est pas frères, sauver la family, c'est un calvaire Toujours un p'tit seum dans mon cur glacé, des faux G qui s'en vont, j'en ai assez J'aurais pu le faire pour des faux G, pour zéro dollar mais j'ai gardé la foi dans ma shit Yeah Là, j'suis lonely, j'pense à quand j'étais en chien là-bas, on s'partageait le grec et le shit J'ai jamais dit qu'j'étais parfait, on changerait un peu si c'était à refaire Moi, je n'ai pas le temps pour tes mood swings, ma chérie, j'ai la tête à mes affaires Yeah, yeah Ouh, y a personne qui croyait en moi, back then, y a personne qui croyait en moi, back then Je prépare du salasse, ils sont pas prêts, ils m'ont lâché, ils vont revenir après Avec du recul, on regardait nos vies, c'était moche donc on voulait juste effacer la craie Je repars de zéro, j'vais taffer la mélodie, everyday donc je vais pas sortir c't après-m' You might also like Mmh Mmh Mmh Mmh Mmh, okay</t>
+          <t>Akim Akim, are you there? Non, non Non, non Yeah, ERRR Yeah, yeah, yeah J'aurais pu le faire pour des faux G, pour zéro dollar mais j'ai gardé la foi dans ma shit Yeah Là, j'suis lonely, j'pense à quand j'étais en chien là-bas, on s'partageait le grec et le shit J'ai jamais dit qu'j'étais parfait, on changerait un peu si c'était à refaire Moi, je n'ai pas le temps pour tes mood swings, ma chérie, j'ai la tête à mes affaires Yeah, yeah Ouh, y a personne qui croyait en moi, back then, y a personne qui croyait en moi, back then Je prépare du salasse, ils sont pas prêts, ils m'ont lâché, ils vont revenir après Avec du recul, on regardait nos vies, c'était moche donc on voulait juste effacer la craie Je repars de zéro, j'vais taffer la mélodie, everyday donc je vais pas sortir c't après-m' T'as cru on fait ça pour la fame, everyday, y a des G qui s'voilent la face On m'appelle l'affamé, on m'appelle La Fève On n'est pas tes amis, on n'est pas frères, sauver la family, c'est un calvaire Toujours un p'tit seum dans mon cur glacé, des faux G qui s'en vont, j'en ai assez J'aurais pu le faire pour des faux G, pour zéro dollar mais j'ai gardé la foi dans ma shit Yeah Là, j'suis lonely, j'pense à quand j'étais en chien là-bas, on s'partageait le grec et le shit J'ai jamais dit qu'j'étais parfait, on changerait un peu si c'était à refaire Moi, je n'ai pas le temps pour tes mood swings, ma chérie, j'ai la tête à mes affaires Yeah, yeah Ouh, y a personne qui croyait en moi, back then, y a personne qui croyait en moi, back then Je prépare du salasse, ils sont pas prêts, ils m'ont lâché, ils vont revenir après Avec du recul, on regardait nos vies, c'était moche donc on voulait juste effacer la craie Je repars de zéro, j'vais taffer la mélodie, everyday donc je vais pas sortir c't après-m' Mmh Mmh Mmh Mmh Mmh, okay</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Même si t'es triste à l'intérieur ais un beau sourire, tu vas voir du hapiness, no cap Let's go No cap, yeah J'ai le sourire pour passer la vie, tu faisais la gueule pendant qu'j'faisais la diff la diff J'ai les techs de Badr Hari, fuis les problèmes on va te casser la sim la sim Dans le djinn, pourtant j'fais des rimes des rimes Dans la zic je ne prends pas la lean la lean J'veux du liquide sans prendre de liquide, j'ai l'index de banquier maintenant donne nous le fric le fric Ils ont volé des biens en Afrique maintenant nos âmes sont vides si on part tu dis oui tu dis oui J'ai tout caché, des rideaux sur mes fers, le Khali est vener va d'mander à La Fève à La Fève Ca génère des sous y'a pas d'paresse, si ça nous saoule pas y'a pas d'place dans la navette navette A la cafet on se , finance un couscous j'y vais comme coup d'coude coup d'coude Yeah J'suis pas dans l'vaudou, tu sais la roue tourne, on décale soon nous on décale vite nous Faut monter la sono, tes pelos sonnent faux, j'y vais en full boost Shit Fais-nous un cadeau fais nous un cadeau Fais-nous un cadeau s'te plait, ferme la sinon j'vais t'gé-bou, demande pas t'es où sale bitch You might also like Ok Ma le-gueu rien n'se perd ma le-gueu rien n'se Sur l'terrain jeune s'opère oooh Espion fou dans la foule espion fou dans la foule Ma le-gueu rien n'se perd oooh Gros c'est moi j'ai l'secret, petit, depuis petit on a les crocs depuis petit on a les Faut canaliser l'ego l'ego Un appel ? Let's go J'fais comme si c'était facile, poto y'a Dieu qui m'fascine poto y'a Dieu qui m' Ici on fait trop d'tentatives, toi ton parcours il est statique toi ton parcours il est statique Petit appel sur l'bigo bigo Petit appel sur l'tel brr Jeune pull-up à l'hôtel, smoke La frappe à Balotel' Han, yeah Où je serais à quarante ans si j'suis pas dans vrai gamos ? j'suis pas dans vrai gamos Yes, j'demande aux G si c'est carré, si c'est bon allez vamos yes, yes, yes, yes Yes, je suis un jeune donc j'ai souvent des peines souvent des peines, peines, peines Yes, j'suis focus jamais je rate les pénos han, yeah Bientôt dans l'camp des riches bientôt dans l'camp des riches Au stud on fait des hits let's go Shoot you comme Kennedy oh yeah Fou mais toi qui t'as dit ? let's go Crack de la décennie la décennie Feat de la décennie la décennie J'suis pas dans la stratégie let's go J'suis pas dans la facilité de ta team, nous on a le niveau Pourquoi tu bandes sur les gars qui dealent, gros ? Ca c'est débile, t'as mené une vie moche Nous c'est legit j'sais pas si tu tilt, c'est ligidilit, c'est pas ça la vie non Ta te-tê est vide, ton esprit est ridé, zehma t'es jdid, tu dis ça à qui man ? tu dis ça à qui man ? Yes, ok On est venu on a pas toqué toqué Ta team elle a coupé les liens, devant l'micro tu radotais d'vant l'micro tu radotes Tes sons c'est pas terrible, y'a pas trop d'intérêt à c'que j'te mette dans mon casque dans mon casque J'regarde le temps qui passe yes Moi j'aime quand y'a les basses qui tapent yes On prépare un truc de fou vas-y, vas-y Palmarès il est sans défaite yeah Ma le-gueu on fait qu'fêter fêter Tous les jours mais c'est pas la fête oooh Bientôt on dit LAF il l'a fait l'a fait Tu fais d'la musique t'as kiffé l'effet yeah Dans la vie y'a les fort les faibles ma le-gueu t'es un srab si on croise les fers J'ai le sourire pour passer la vie, tu faisais la gueule pendant qu'j'faisais la diff la diff J'ai les tech de Badr Hari, fuit les problèmes on va te casser la sim la sim Dans le djinn, pourtant j'fais des rimes des rimes Dans la zic je ne prends pas la lean la lean J'veux du liquide sans prendre de liquide, j'ai l'index de banquier maintenant donne nous le fric le fric</t>
+          <t>Même si t'es triste à l'intérieur ais un beau sourire, tu vas voir du hapiness, no cap Let's go No cap, yeah J'ai le sourire pour passer la vie, tu faisais la gueule pendant qu'j'faisais la diff la diff J'ai les techs de Badr Hari, fuis les problèmes on va te casser la sim la sim Dans le djinn, pourtant j'fais des rimes des rimes Dans la zic je ne prends pas la lean la lean J'veux du liquide sans prendre de liquide, j'ai l'index de banquier maintenant donne nous le fric le fric Ils ont volé des biens en Afrique maintenant nos âmes sont vides si on part tu dis oui tu dis oui J'ai tout caché, des rideaux sur mes fers, le Khali est vener va d'mander à La Fève à La Fève Ca génère des sous y'a pas d'paresse, si ça nous saoule pas y'a pas d'place dans la navette navette A la cafet on se , finance un couscous j'y vais comme coup d'coude coup d'coude Yeah J'suis pas dans l'vaudou, tu sais la roue tourne, on décale soon nous on décale vite nous Faut monter la sono, tes pelos sonnent faux, j'y vais en full boost Shit Fais-nous un cadeau fais nous un cadeau Fais-nous un cadeau s'te plait, ferme la sinon j'vais t'gé-bou, demande pas t'es où sale bitch Ok Ma le-gueu rien n'se perd ma le-gueu rien n'se Sur l'terrain jeune s'opère oooh Espion fou dans la foule espion fou dans la foule Ma le-gueu rien n'se perd oooh Gros c'est moi j'ai l'secret, petit, depuis petit on a les crocs depuis petit on a les Faut canaliser l'ego l'ego Un appel ? Let's go J'fais comme si c'était facile, poto y'a Dieu qui m'fascine poto y'a Dieu qui m' Ici on fait trop d'tentatives, toi ton parcours il est statique toi ton parcours il est statique Petit appel sur l'bigo bigo Petit appel sur l'tel brr Jeune pull-up à l'hôtel, smoke La frappe à Balotel' Han, yeah Où je serais à quarante ans si j'suis pas dans vrai gamos ? j'suis pas dans vrai gamos Yes, j'demande aux G si c'est carré, si c'est bon allez vamos yes, yes, yes, yes Yes, je suis un jeune donc j'ai souvent des peines souvent des peines, peines, peines Yes, j'suis focus jamais je rate les pénos han, yeah Bientôt dans l'camp des riches bientôt dans l'camp des riches Au stud on fait des hits let's go Shoot you comme Kennedy oh yeah Fou mais toi qui t'as dit ? let's go Crack de la décennie la décennie Feat de la décennie la décennie J'suis pas dans la stratégie let's go J'suis pas dans la facilité de ta team, nous on a le niveau Pourquoi tu bandes sur les gars qui dealent, gros ? Ca c'est débile, t'as mené une vie moche Nous c'est legit j'sais pas si tu tilt, c'est ligidilit, c'est pas ça la vie non Ta te-tê est vide, ton esprit est ridé, zehma t'es jdid, tu dis ça à qui man ? tu dis ça à qui man ? Yes, ok On est venu on a pas toqué toqué Ta team elle a coupé les liens, devant l'micro tu radotais d'vant l'micro tu radotes Tes sons c'est pas terrible, y'a pas trop d'intérêt à c'que j'te mette dans mon casque dans mon casque J'regarde le temps qui passe yes Moi j'aime quand y'a les basses qui tapent yes On prépare un truc de fou vas-y, vas-y Palmarès il est sans défaite yeah Ma le-gueu on fait qu'fêter fêter Tous les jours mais c'est pas la fête oooh Bientôt on dit LAF il l'a fait l'a fait Tu fais d'la musique t'as kiffé l'effet yeah Dans la vie y'a les fort les faibles ma le-gueu t'es un srab si on croise les fers J'ai le sourire pour passer la vie, tu faisais la gueule pendant qu'j'faisais la diff la diff J'ai les tech de Badr Hari, fuit les problèmes on va te casser la sim la sim Dans le djinn, pourtant j'fais des rimes des rimes Dans la zic je ne prends pas la lean la lean J'veux du liquide sans prendre de liquide, j'ai l'index de banquier maintenant donne nous le fric le fric</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Eazy Dew, pétasse Merde, hey Faut qu'j'arrête de bédave la cons', ça m'appauvrit, hey J'suis dans la lune, j'pense à tout c'que j'ai commis, hey Autour de moi, ça dit qu'La Fève est un prodige, hey Ça part en couille, j'ai mon casque et j'ai ma de-wee, donc J'suis la Fève pour les tocards et les bandits, hey Et j'suis pas prêt pour les photos et les groupies, hey J'ai vu des gens tomber de haut, ça m'a refroidit Mais bon j'ai pas changé, j'suis la Fève pour les-, ok J'suis La Fève pour les tocards et les bandits, hey J'suis La Fève pour les tocards et les bandits, hey Et j'suis La Fève pour les tocards et les bandits, hey Et j'suis La Fève pour les tocards et les bandits, hey Oh putain d'merde, c'est comme un putain d'rêve, mais bon J'suis La Fève pour les tocards et les bandits, hey Ça pue la crève ici, dans les enfers mais bon J'suis La Fève pour les tocards et les-, hey You might also like Ça parle de moi, j'ai mon pilon dans la chaussette Sache le, équipe est un échec Encaisser les chocs, empiler les chèques Depuis qu'j'suis tit-pe ils ont toujours aimé ma tête Petit débrouillard, Lacoste, fais un best-of J'suis pas n'importe qui, j'ai mon 7 à la rescousse Si tu m'cherches dans dix ans, j'ai pas changé d'adresse J'aurais des cheveux blancs et des sous ma Tu m'as cerné, ah, j'suis La Fève J'aime quand l'équipe dit qu'j'suis le meilleur Mais j'suis qu'un looser, pourquoi tu m'aimes ? Sache que les faux gentils sont les vrais tueurs J'vis ma vie en box-office et des posters de motards C'est ma vantardise, c'est naturel Mais j'suis misanthrope, depuis tit-pe, j'ai le seum Hey, on dirait bien que j'suis La Fève, mais bon Et j'suis La Fève pour les tocards et les bandits, hey Et j'suis La Fève pour les tocards et les bandits, hey Et j'suis La Fève pour les tocards et les bandits, hey Et j'suis La Fève pour les tocards et les bandits, hey Oh putain d'merde, c'est comme un putain d'rêve, mais bon Et j'suis La Fève pour les tocards et les bandits, hey Ça pue la crève ici, dans les enfers mais bon J'suis La Fève pour les tocards et les bandits Ça parle de couper des têtes, j'fais le sourd Marre de regarder le haut de la tour Ça m'fait chier d'y penser mais bon j'ai la frousse Mais faut qu'j'prenne des risques pour qu'ce soit à mon tour de Parler de grosses fesses, palper de gros chèques Péter les scores, être che-ri comme Scorsese Marre de nettoyer le sang sur mes baskets Marre d'être un tocard, un bandit mais j'l'accepte Merde, dans la merde dans l' J'veux pas finir seul, tout triste à Fleury J'baraude, j'marche tout seul à Paris j'suis relou, j'ai pas d'ien-cli Merde, j'suis névrosé, La Fève est rusé J'ai changé d'blaze car Orfev est démodé J'suis un modèle, oui j'suis une icone J'vais pas crever sous le poids de mes péchés, merde Faut qu'j'arrête de bédave la cons', ça m'appauvrit, hey J'suis dans la lune, j'pense à tout c'que j'ai commis, hey Autour de moi, ça dit qu'La Fève est un prodige, hey Ça part en couille, j'ai mon casque et j'ai ma de-wee, donc Et j'suis la Fève pour les tocards et les bandits, hey J'suis pas prêt pour les photos et les groupies J'ai vu des gens tomber de haut, ça m'a refroidit, hey Mais bon j'ai pas changé, j'suis la Fève pour les-, ok J'suis La Fève pour les tocards et les bandits J'suis La Fève pour les tocards et les bandits J'suis La Fève pour les tocards et les bandits Et j'suis La Fève pour les, j'suis La Fève pour les Oh putain d'merde, c'est comme un putain d'rêve, mais bon Et j'suis La Fève pour les tocards et les bandits, hey Ça pue la crève ici, dans les enfers mais bon J'suis La Fève pour les tocards et les bandits Hey, hey, hey, pour les bandits Hey, hey, pour mes bandits Hey, hey pour mes bandits Hey, hey</t>
+          <t>Eazy Dew, pétasse Merde, hey Faut qu'j'arrête de bédave la cons', ça m'appauvrit, hey J'suis dans la lune, j'pense à tout c'que j'ai commis, hey Autour de moi, ça dit qu'La Fève est un prodige, hey Ça part en couille, j'ai mon casque et j'ai ma de-wee, donc J'suis la Fève pour les tocards et les bandits, hey Et j'suis pas prêt pour les photos et les groupies, hey J'ai vu des gens tomber de haut, ça m'a refroidit Mais bon j'ai pas changé, j'suis la Fève pour les-, ok J'suis La Fève pour les tocards et les bandits, hey J'suis La Fève pour les tocards et les bandits, hey Et j'suis La Fève pour les tocards et les bandits, hey Et j'suis La Fève pour les tocards et les bandits, hey Oh putain d'merde, c'est comme un putain d'rêve, mais bon J'suis La Fève pour les tocards et les bandits, hey Ça pue la crève ici, dans les enfers mais bon J'suis La Fève pour les tocards et les-, hey Ça parle de moi, j'ai mon pilon dans la chaussette Sache le, équipe est un échec Encaisser les chocs, empiler les chèques Depuis qu'j'suis tit-pe ils ont toujours aimé ma tête Petit débrouillard, Lacoste, fais un best-of J'suis pas n'importe qui, j'ai mon 7 à la rescousse Si tu m'cherches dans dix ans, j'ai pas changé d'adresse J'aurais des cheveux blancs et des sous ma Tu m'as cerné, ah, j'suis La Fève J'aime quand l'équipe dit qu'j'suis le meilleur Mais j'suis qu'un looser, pourquoi tu m'aimes ? Sache que les faux gentils sont les vrais tueurs J'vis ma vie en box-office et des posters de motards C'est ma vantardise, c'est naturel Mais j'suis misanthrope, depuis tit-pe, j'ai le seum Hey, on dirait bien que j'suis La Fève, mais bon Et j'suis La Fève pour les tocards et les bandits, hey Et j'suis La Fève pour les tocards et les bandits, hey Et j'suis La Fève pour les tocards et les bandits, hey Et j'suis La Fève pour les tocards et les bandits, hey Oh putain d'merde, c'est comme un putain d'rêve, mais bon Et j'suis La Fève pour les tocards et les bandits, hey Ça pue la crève ici, dans les enfers mais bon J'suis La Fève pour les tocards et les bandits Ça parle de couper des têtes, j'fais le sourd Marre de regarder le haut de la tour Ça m'fait chier d'y penser mais bon j'ai la frousse Mais faut qu'j'prenne des risques pour qu'ce soit à mon tour de Parler de grosses fesses, palper de gros chèques Péter les scores, être che-ri comme Scorsese Marre de nettoyer le sang sur mes baskets Marre d'être un tocard, un bandit mais j'l'accepte Merde, dans la merde dans l' J'veux pas finir seul, tout triste à Fleury J'baraude, j'marche tout seul à Paris j'suis relou, j'ai pas d'ien-cli Merde, j'suis névrosé, La Fève est rusé J'ai changé d'blaze car Orfev est démodé J'suis un modèle, oui j'suis une icone J'vais pas crever sous le poids de mes péchés, merde Faut qu'j'arrête de bédave la cons', ça m'appauvrit, hey J'suis dans la lune, j'pense à tout c'que j'ai commis, hey Autour de moi, ça dit qu'La Fève est un prodige, hey Ça part en couille, j'ai mon casque et j'ai ma de-wee, donc Et j'suis la Fève pour les tocards et les bandits, hey J'suis pas prêt pour les photos et les groupies J'ai vu des gens tomber de haut, ça m'a refroidit, hey Mais bon j'ai pas changé, j'suis la Fève pour les-, ok J'suis La Fève pour les tocards et les bandits J'suis La Fève pour les tocards et les bandits J'suis La Fève pour les tocards et les bandits Et j'suis La Fève pour les, j'suis La Fève pour les Oh putain d'merde, c'est comme un putain d'rêve, mais bon Et j'suis La Fève pour les tocards et les bandits, hey Ça pue la crève ici, dans les enfers mais bon J'suis La Fève pour les tocards et les bandits Hey, hey, hey, pour les bandits Hey, hey, pour mes bandits Hey, hey pour mes bandits Hey, hey</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Toi tu m'attaques, mes gars sont au taqué donc c'est eux qui t'accueillent, oh oh Tu vas vouloir quelque chose mais tu vas voir que le diable il est à té-co oh Peut-être qu'un ange surveille mes côtes yeah Mais je suis quand même aux aguets yeah Gros dans mes racines y'a des générations entières élevées par la guerre élevées par la guerre Il est triste ce bas monde, soldat sur l'étalon, du sang sur mes talons, moi j'fais trop le bavon Mais j'lis bien le contrat, m'prend pas pour un con toi, c'que j'fais maintenant c'est l'histoire qu'on racontera La Fève c'est un bonhomme, on recherche le bonheur, je veux m'faire plaisir je veux pas être économe Mais gros j'veux pas lâcher, mes gava sont fâchés, je peux pas compter les occas' qu'on a gâché Sensible de la gâchette, avant je me cachais comme un espion de la faune sauvage sauvage J'ai de la rancur toi t'as fait le rat avec moi, j'ai d'la peine à chaque fois qu'j'te vois qu'j'te vois Chérie je ne sais pas quoi te dire donc à la tache je ne veux pas trop me tuer trop me tuer J'essaie de faire de mon mieux mais j'ai tellement de regrets, je m'suis habitué oh yeah J'suis pas ton ami ami En retard compte pas le temps qu'on a mit oh Pour avoir des gens qui écoutent ce qu'on fait, tous les faits qu'on examine oh yeah, yeah La Fève c'est quand qu'on arrive ? oh A l'ancienne j'avais pas l'niveau oh J'espère ne pas avoir ma tête dans l'océan, mon corps dans le caniveau You might also like Mais toi tu m'attaques, mes gars sont au taqué donc c'est eux qui t'accueillent, oh oh Tu vas vouloir quelque chose mais tu vas voir que le diable il est à té-co mh mh Peut-être qu'un ange surveille mes côtes côtes Mais je suis quand même aux aguets oh yeah Gros dans mes racines y'a des générations entières élevées par la guerre yeah, yeah, yeah, yeah Il est triste ce bas monde, soldat sur l'étalon, du sang sur mes talons, moi j'fais trop le bavon Mais j'lis bien le contrat, m'prend pas pour un con toi, c'que j'fais maintenant c'est l'histoire qu'on racontera La Fève c'est un bonhomme, on recherche le bonheur, je veux m'faire plaisir je veux pas être économe Mais gros j'veux pas lâcher, mes gava sont fâchés, je peux pas compter les occas' qu'on a gâché</t>
+          <t>Toi tu m'attaques, mes gars sont au taqué donc c'est eux qui t'accueillent, oh oh Tu vas vouloir quelque chose mais tu vas voir que le diable il est à té-co oh Peut-être qu'un ange surveille mes côtes yeah Mais je suis quand même aux aguets yeah Gros dans mes racines y'a des générations entières élevées par la guerre élevées par la guerre Il est triste ce bas monde, soldat sur l'étalon, du sang sur mes talons, moi j'fais trop le bavon Mais j'lis bien le contrat, m'prend pas pour un con toi, c'que j'fais maintenant c'est l'histoire qu'on racontera La Fève c'est un bonhomme, on recherche le bonheur, je veux m'faire plaisir je veux pas être économe Mais gros j'veux pas lâcher, mes gava sont fâchés, je peux pas compter les occas' qu'on a gâché Sensible de la gâchette, avant je me cachais comme un espion de la faune sauvage sauvage J'ai de la rancur toi t'as fait le rat avec moi, j'ai d'la peine à chaque fois qu'j'te vois qu'j'te vois Chérie je ne sais pas quoi te dire donc à la tache je ne veux pas trop me tuer trop me tuer J'essaie de faire de mon mieux mais j'ai tellement de regrets, je m'suis habitué oh yeah J'suis pas ton ami ami En retard compte pas le temps qu'on a mit oh Pour avoir des gens qui écoutent ce qu'on fait, tous les faits qu'on examine oh yeah, yeah La Fève c'est quand qu'on arrive ? oh A l'ancienne j'avais pas l'niveau oh J'espère ne pas avoir ma tête dans l'océan, mon corps dans le caniveau Mais toi tu m'attaques, mes gars sont au taqué donc c'est eux qui t'accueillent, oh oh Tu vas vouloir quelque chose mais tu vas voir que le diable il est à té-co mh mh Peut-être qu'un ange surveille mes côtes côtes Mais je suis quand même aux aguets oh yeah Gros dans mes racines y'a des générations entières élevées par la guerre yeah, yeah, yeah, yeah Il est triste ce bas monde, soldat sur l'étalon, du sang sur mes talons, moi j'fais trop le bavon Mais j'lis bien le contrat, m'prend pas pour un con toi, c'que j'fais maintenant c'est l'histoire qu'on racontera La Fève c'est un bonhomme, on recherche le bonheur, je veux m'faire plaisir je veux pas être économe Mais gros j'veux pas lâcher, mes gava sont fâchés, je peux pas compter les occas' qu'on a gâché</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Yeah, yeah Je doute un peu mais je connais ma valeur Il m'faut des sous pour l'stud', mais j'ai pas vingt euros Sacré karma, il m'la mise à l'envers Ma le-gueu, l'ambition ça fait des malheurs Dans l'rap, j'ai des fils, ça commence un poco Maman me dit j'ai la rime kitoko Je doute un peu, mais je connais ma valeur Il m'faut des sous pour l'stud', mais j'ai pas vingt euros Heyo, Demnacho J'ai fait du chemin, j'ai pas attendu ton aide Tu fais comme si, mais avant tu m'as tourné l'dos La Fève arrive, il s'abat comme la tornade Faut la vision, G, fais bellek à ton radar Envoie la sono et l'équipe fait des mooves La vie elle est pas rose, la vie c'est pas un movie Mon Seigneur, dis-moi pourquoi mon cur est mauvais Ne-ne pas me laisser, c'était c'que tu m'avais dit Mais qui peux m'arrêter ? Ma chérie, tu m'aimes mais j'suis qu'un broke boy Tu m'aimes mais j'suis qu'un broke boy Tu m'aimes mais j'suis qu'un broke boy Tu m'aimes mais j'suis qu'un broke boy You might also like Yeah, je doute un peu mais je connais ma valeur Il m'faut des sous pour l'stud', mais j'ai pas vingt euros Sacré karma, il m'la mise à l'envers Ma le-gueu, l'ambition ça fait des malheurs Dans l'rap, j'ai des fils, ça commence un poco Maman me dit j'ai la rime kitoko Je doute un peu, mais je connais ma valeur Il m'faut des sous pour l'stud', mais j'ai pas vingt euros Ça parle de moi dans la mégalopole Tu ne crois pas en moi et tu check mon épaule Je savais mais elle voulait pas m'dire on est pauvre Ma le-gueu, des rappeurs aujourd'hui on est trop Mon G, il faut qu'tu retiennes bien mon name Je parle au ciel, il sait qui on est Pleins de serpents, je m'demande qui on aime Ne-ne pas me laisser, c'était c'que tu m'avais dit Mais qui peux m'arrêter ? Ma chérie, tu m'aimes mais j'suis qu'un broke boy Tu m'aimes mais j'suis qu'un broke boy Tu m'aimes mais j'suis qu'un broke boy Tu m'aimes mais j'suis qu'un broke boy Heyo, Demnacho</t>
+          <t>Yeah, yeah Je doute un peu mais je connais ma valeur Il m'faut des sous pour l'stud', mais j'ai pas vingt euros Sacré karma, il m'la mise à l'envers Ma le-gueu, l'ambition ça fait des malheurs Dans l'rap, j'ai des fils, ça commence un poco Maman me dit j'ai la rime kitoko Je doute un peu, mais je connais ma valeur Il m'faut des sous pour l'stud', mais j'ai pas vingt euros Heyo, Demnacho J'ai fait du chemin, j'ai pas attendu ton aide Tu fais comme si, mais avant tu m'as tourné l'dos La Fève arrive, il s'abat comme la tornade Faut la vision, G, fais bellek à ton radar Envoie la sono et l'équipe fait des mooves La vie elle est pas rose, la vie c'est pas un movie Mon Seigneur, dis-moi pourquoi mon cur est mauvais Ne-ne pas me laisser, c'était c'que tu m'avais dit Mais qui peux m'arrêter ? Ma chérie, tu m'aimes mais j'suis qu'un broke boy Tu m'aimes mais j'suis qu'un broke boy Tu m'aimes mais j'suis qu'un broke boy Tu m'aimes mais j'suis qu'un broke boy Yeah, je doute un peu mais je connais ma valeur Il m'faut des sous pour l'stud', mais j'ai pas vingt euros Sacré karma, il m'la mise à l'envers Ma le-gueu, l'ambition ça fait des malheurs Dans l'rap, j'ai des fils, ça commence un poco Maman me dit j'ai la rime kitoko Je doute un peu, mais je connais ma valeur Il m'faut des sous pour l'stud', mais j'ai pas vingt euros Ça parle de moi dans la mégalopole Tu ne crois pas en moi et tu check mon épaule Je savais mais elle voulait pas m'dire on est pauvre Ma le-gueu, des rappeurs aujourd'hui on est trop Mon G, il faut qu'tu retiennes bien mon name Je parle au ciel, il sait qui on est Pleins de serpents, je m'demande qui on aime Ne-ne pas me laisser, c'était c'que tu m'avais dit Mais qui peux m'arrêter ? Ma chérie, tu m'aimes mais j'suis qu'un broke boy Tu m'aimes mais j'suis qu'un broke boy Tu m'aimes mais j'suis qu'un broke boy Tu m'aimes mais j'suis qu'un broke boy Heyo, Demnacho</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Trop loin, pardonne moi si j'm'envole L'amour s'calcule en dollars Le sol ressent mon love Demna, Demna Le ciel ressent ma douleur Plus Bentley que Plus bootleg que vinyle J'ai mis un genou par terre ces batards on cru que j'étais fini J'suis au stud j'fais de l'art J'voulais pas une vie normale Le buisness bute mon tel J'réponds qu'j'suis vert ahlala Ce soir j'me sens loner j'converse avc une larme de skinny Trop d'nouvaux dans le tieks j'me demande même plus c'est qui Ma vie n'a pas de sens, j'pose des rimes et j'suis payé Beaucoup de chef je veux roll royces je veux Bentley coup Danse avec se rappelle des coups La fève te fais voir même en pleine écoute La vérité c'est qu'j'aime pas trop la manière dont tu parles J'ai l'impression j'suis sur écoute fais belek quand tu parles Y'a des erreurs dans les pas, batard tu sais qu'j'oublie pas Si j'passe prendre le petit gadget, tu verras pas le coup qui part lessgo Yeah, yeah You might also like Trop loin pardonne moi si j'm'envole Mon flow s'calcule en volt J'changeais pas mais j'm'en voulait J'avais pas mais j'le voulait Y'a qu'des nouilles dans le bol Dans le game j'veux foutre le bordel Charbonne cherche pas des bords Très tôt ma peine m'abordait Baby, donne moi ta tête pour la soirée J'espère que tu sais qu'j'suis qu'un enfoiré Que j'suis la pire des mauvaises idées Bébé j'vois l'argent comme quelque chose qui faut liquider yeah Yeah, si c'est ce que je veux je le demande Des frissons quand il démarre J'parle seul les passants me tema La vie de rêve ça coûte deux membres Ils comprennent bien si t'es aimable J'suis béni mais j'suis rempli de manque Parce que cette chienne de vie est vénale La vérité c'est qu'j'aime pas trop la manière dont tu parles J'ai l'impression j'suis sur écoute fais belek quand tu parles Y'a des erreurs dans les pas, batard tu sais qu'j'oublie pas Si j'passe prendre le petit gadget, tu verras pas le coup qui part lessgo Yeah, yeah Trop loin, pardonne moi si j'm'envole L'amour s'calcule en dollars Le sol ressent mon love Demna, Demna Le ciel ressent ma douleur Plus Bentley que Plus bootleg que vinyle J'ai mis un genou par terre ces batards on cru que j'étais fini</t>
+          <t>Trop loin, pardonne moi si j'm'envole L'amour s'calcule en dollars Le sol ressent mon love Demna, Demna Le ciel ressent ma douleur Plus Bentley que Plus bootleg que vinyle J'ai mis un genou par terre ces batards on cru que j'étais fini J'suis au stud j'fais de l'art J'voulais pas une vie normale Le buisness bute mon tel J'réponds qu'j'suis vert ahlala Ce soir j'me sens loner j'converse avc une larme de skinny Trop d'nouvaux dans le tieks j'me demande même plus c'est qui Ma vie n'a pas de sens, j'pose des rimes et j'suis payé Beaucoup de chef je veux roll royces je veux Bentley coup Danse avec se rappelle des coups La fève te fais voir même en pleine écoute La vérité c'est qu'j'aime pas trop la manière dont tu parles J'ai l'impression j'suis sur écoute fais belek quand tu parles Y'a des erreurs dans les pas, batard tu sais qu'j'oublie pas Si j'passe prendre le petit gadget, tu verras pas le coup qui part lessgo Yeah, yeah Trop loin pardonne moi si j'm'envole Mon flow s'calcule en volt J'changeais pas mais j'm'en voulait J'avais pas mais j'le voulait Y'a qu'des nouilles dans le bol Dans le game j'veux foutre le bordel Charbonne cherche pas des bords Très tôt ma peine m'abordait Baby, donne moi ta tête pour la soirée J'espère que tu sais qu'j'suis qu'un enfoiré Que j'suis la pire des mauvaises idées Bébé j'vois l'argent comme quelque chose qui faut liquider yeah Yeah, si c'est ce que je veux je le demande Des frissons quand il démarre J'parle seul les passants me tema La vie de rêve ça coûte deux membres Ils comprennent bien si t'es aimable J'suis béni mais j'suis rempli de manque Parce que cette chienne de vie est vénale La vérité c'est qu'j'aime pas trop la manière dont tu parles J'ai l'impression j'suis sur écoute fais belek quand tu parles Y'a des erreurs dans les pas, batard tu sais qu'j'oublie pas Si j'passe prendre le petit gadget, tu verras pas le coup qui part lessgo Yeah, yeah Trop loin, pardonne moi si j'm'envole L'amour s'calcule en dollars Le sol ressent mon love Demna, Demna Le ciel ressent ma douleur Plus Bentley que Plus bootleg que vinyle J'ai mis un genou par terre ces batards on cru que j'étais fini</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Chérie rentre à la maison Chérie rentre à la maison Ok han yeah La Fève bientôt président De Beverly Hills on veut être résident, ok, ok J'm'appelle Louis comme les rois On est dans la jungle donc je connais bien ces rouages yeah yeah Espion comme les Cinq de Cambridge On est là pour ce papier est-ce que t'as compris, ok Putain il m'faut une Kali Uchis Louis V, Prada, Gucci Avant mes quarante bougies, ok La rim est facile tu l'as capté Fève c'st le capitaine, j'suis bientôt dans le Top Ten bientôt bientôt Tout là-haut je prends de l'altitude yeah Je peux voir si t'es un faux rien qu'à l'attitude, ok La Fève bientôt président président De Beverly Hills on veut être résident, ok, ok En haut d'la pyramide comme Ramsès IV J'maîtrise mon flow le truc est ancestral, ok On est là on crève tous un jour un jour Sur le boulevard la brise me tape la joue, ok la joue Sur le terrain j'suis en léger, trop focus pour échouer, si y'a faute on laisse jouer, ok yeah yeah T'as parlé t'as pas tourné ta langue ta langue Je n'ai pas peur je sais qu'La Fève a un peu de talent talent Sept jours sur sept dans l'stud, j'tournais mes pouces dans l'bus, j'tirais tu rentres dans l'but, ok, ok Ils sont encore sur Wanadoo wanadoo Je les laves donc ces rappeurs sont à la douche, ok à la douche Pas d'vacances pour les vrais gars les vrais gars Donne moi une prod mon ami j'fais des dégâts yeah yeah La Fève bientôt président président De Beverly Hills on veut être résident, ok, ok Écoute La Fève tu m'oublieras pas oublieras pas Faut faire son truc et pas faire quer-cro, y'a que des rapaces, ok Espion comme les Cinq de Cambridge Cambridge On est là pour ce papier est-ce que t'as compris, ok Putain il m'faut une Kali Uchis Louis V, Prada, Gucci Avant mes quarante bougies, ok quarante bougies You might also like Bientôt président, ok Beverly Hills on veut être résident, ok, ok Putain il m'faut une Kali Uchis, ok Louis V, Prada, Gucci yeah yeah yeah yeah</t>
+          <t>Chérie rentre à la maison Chérie rentre à la maison Ok han yeah La Fève bientôt président De Beverly Hills on veut être résident, ok, ok J'm'appelle Louis comme les rois On est dans la jungle donc je connais bien ces rouages yeah yeah Espion comme les Cinq de Cambridge On est là pour ce papier est-ce que t'as compris, ok Putain il m'faut une Kali Uchis Louis V, Prada, Gucci Avant mes quarante bougies, ok La rim est facile tu l'as capté Fève c'st le capitaine, j'suis bientôt dans le Top Ten bientôt bientôt Tout là-haut je prends de l'altitude yeah Je peux voir si t'es un faux rien qu'à l'attitude, ok La Fève bientôt président président De Beverly Hills on veut être résident, ok, ok En haut d'la pyramide comme Ramsès IV J'maîtrise mon flow le truc est ancestral, ok On est là on crève tous un jour un jour Sur le boulevard la brise me tape la joue, ok la joue Sur le terrain j'suis en léger, trop focus pour échouer, si y'a faute on laisse jouer, ok yeah yeah T'as parlé t'as pas tourné ta langue ta langue Je n'ai pas peur je sais qu'La Fève a un peu de talent talent Sept jours sur sept dans l'stud, j'tournais mes pouces dans l'bus, j'tirais tu rentres dans l'but, ok, ok Ils sont encore sur Wanadoo wanadoo Je les laves donc ces rappeurs sont à la douche, ok à la douche Pas d'vacances pour les vrais gars les vrais gars Donne moi une prod mon ami j'fais des dégâts yeah yeah La Fève bientôt président président De Beverly Hills on veut être résident, ok, ok Écoute La Fève tu m'oublieras pas oublieras pas Faut faire son truc et pas faire quer-cro, y'a que des rapaces, ok Espion comme les Cinq de Cambridge Cambridge On est là pour ce papier est-ce que t'as compris, ok Putain il m'faut une Kali Uchis Louis V, Prada, Gucci Avant mes quarante bougies, ok quarante bougies Bientôt président, ok Beverly Hills on veut être résident, ok, ok Putain il m'faut une Kali Uchis, ok Louis V, Prada, Gucci yeah yeah yeah yeah</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>J'crois j'ai cette bitch love J'crois j'ai cette bitch love J'crois j'ai cette bitch love J'crois j'ai cette bitch love J'crois j'ai cette bitch love, ma le-gueu J'crois j'ai cette bitch love J'crois j'ai cette bitch love, ma le-gueu J'crois j'ai cette bitch love J'crois j'ai cette bitch, amour Tu fais des phases, tu les piques à nous On était vite jaloux Quand la poche elle était vide, j'avoue J'crois j'ai cette bitch lov J'vais m'isoler j'suis a bit lonely J'crois j'ai cett bitch love J'vais m'isoler j'suis a bit lonely Elle fait la gadji américaine Mais je sais que tout ça c'est faux Bébé pourquoi tu parles pas fort ? Je t'écoute, je fais un effort J'écoute, la mélodie m'emporte Tu sais y'a que ça qui m'importe J'aimais cette bitch, je me souviens elle est partie, elle a claqué la porte J'suis maudit, j'ai dit mon reuf envoie la dope Que je vide le sachet, là je grandis Faut que je prenne de la sagesse, j'sais que t'en veux J'ai pas de temps pour toi, j'sais que t'en veux J'ai pas de cash pour toi, je suis La Fève Devant cages de Courtois, on fait les choses On s'demande pas pourquoi toi t'es une bitch, mais j'l'aurais fait pour toi You might also like J'crois j'ai cette bitch love J'crois j'ai cette bitch love J'crois j'ai cette bitch love J'crois j'ai cette bitch love J'crois j'ai cette bitch love ma le-gueu J'crois j'ai cette bitch love J'crois j'ai cette bitch love ma le-gueu J'crois j'ai cette bitch love J'crois j'ai cette bitch, amour Tu fais des phases, tu les piques à nous On était vite jaloux Quand la poche elle était vide, j'avoue J'crois j'ai cette bitch love J'vais m'isoler j'suis a bit lonely J'crois j'ai cette bitch love J'vais m'isoler j'suis a bit lonely</t>
+          <t>J'crois j'ai cette bitch love J'crois j'ai cette bitch love J'crois j'ai cette bitch love J'crois j'ai cette bitch love J'crois j'ai cette bitch love, ma le-gueu J'crois j'ai cette bitch love J'crois j'ai cette bitch love, ma le-gueu J'crois j'ai cette bitch love J'crois j'ai cette bitch, amour Tu fais des phases, tu les piques à nous On était vite jaloux Quand la poche elle était vide, j'avoue J'crois j'ai cette bitch lov J'vais m'isoler j'suis a bit lonely J'crois j'ai cett bitch love J'vais m'isoler j'suis a bit lonely Elle fait la gadji américaine Mais je sais que tout ça c'est faux Bébé pourquoi tu parles pas fort ? Je t'écoute, je fais un effort J'écoute, la mélodie m'emporte Tu sais y'a que ça qui m'importe J'aimais cette bitch, je me souviens elle est partie, elle a claqué la porte J'suis maudit, j'ai dit mon reuf envoie la dope Que je vide le sachet, là je grandis Faut que je prenne de la sagesse, j'sais que t'en veux J'ai pas de temps pour toi, j'sais que t'en veux J'ai pas de cash pour toi, je suis La Fève Devant cages de Courtois, on fait les choses On s'demande pas pourquoi toi t'es une bitch, mais j'l'aurais fait pour toi J'crois j'ai cette bitch love J'crois j'ai cette bitch love J'crois j'ai cette bitch love J'crois j'ai cette bitch love J'crois j'ai cette bitch love ma le-gueu J'crois j'ai cette bitch love J'crois j'ai cette bitch love ma le-gueu J'crois j'ai cette bitch love J'crois j'ai cette bitch, amour Tu fais des phases, tu les piques à nous On était vite jaloux Quand la poche elle était vide, j'avoue J'crois j'ai cette bitch love J'vais m'isoler j'suis a bit lonely J'crois j'ai cette bitch love J'vais m'isoler j'suis a bit lonely</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>J'suis en mode fullup d'échos dans mon cala L'argent appelle, on y va le zin Ce sont des faux négros que j'ai pas calés Qui veulent revenir quand je vais bien Genre quoi ? Qui t'a dit que je vais bien ? Je n'ai pas oublié, ne t'inquiète pas, je retiens Je ne suis pas devenu un chien Mais cette grosse chienne me pousse en vain Je ne voulais pas céder à la loi du talion Mais trop de salopes derrière mon talon Moi, je n'ai aucun doute car j'ai du talent J'ai charbonné, trop charbonné Je n'ai pas vu le jour depuis longtemps Je me fraye un chemin et on se taille J'ai dit que ce monde était faux C'était juste un constat C'était juste un constat Genre, il a peur, il ne veut pas qu'on se tape Comme un prédateur, je vais vers la proie Genre, il a peur, il fait la croix Genre, il a peur, il fait la croix Je suis content, je vois mon buzz s'accroître La Feve, Keeqaid donc travaille les épaules Ils ont brûlé sa caisse Ça pue le cramé dans la ville Ne demande pas ce que je fais dans la ville Ne demande pas ce que je fais dans la vie Keeqaid, dis-leur comment ça se passe Dans l'État, je ne peux pas faire la grasse matinée Il faisait le fou, il a fini à quatre pattes Genre, pourquoi as-tu fait ça ? You might also like J'suis en mode fullup d'échos dans mon cala L'argent appelle, on y va le zin Ce sont des faux négros que je n'ai pas calés Qui veulent revenir quand je vais bien Genre quoi ? Qui t'a dit que je vais bien ? Je n'ai pas oublié, ne t'inquiète pas, je retiens Je ne suis pas devenu un chien Mais cette grosse chienne me pousse en vain Soit ce sont des menteurs, soit ce sont des pookies Trop de cali, j'ai dû sortir la pookies Dans ça depuis pas de rookie Je suis le plan comme si je venais de Brooklyn Ce sont des vieux gars, prêtez pas attention Critiquaient, maintenant mettent dans les mentions Beaucoup de lin me fait monter ma tension Je suis en mission, je ne regarde pas les émissions Monte un peu le son, je vais secouer le tiekson Je monte un peu le son, je vais faire bouger l'équipe Monte un peu le son, je vais faire kiffer les petits Sans effort, on a fait la différence Ça c'est fort, désormais faut les tuer Ow arrive deux, j'espère que tu te prépares On était deux mais lui, il n'est pas carré C'était logique, on a dû se séparer Tu es une crasseuse, on ne t'appelle pas shawty Je suis un vrai négro et je l'étais jadis Tu sais bien, tu fais comme si je ne t'avais pas dit C'est seulement quand on rentabilise Qu'on peut enfin dire qu'on va bien Je faisais partir mon prod sur Beriz Je ne suis pas un grossiste Mais je sais qu'ils n'ont jamais eu de Ks J'suis en mode fullup d'échos dans mon cala L'argent appelle, on y va le zin Ce sont des faux négros que j'ai pas calés Qui veulent revenir quand je vais bien Genre quoi ? Qui t'a dit que je vais bien ? Je n'ai pas oublié, ne t'inquiète pas, je retiens Je ne suis pas devenu un chien Mais cette grosse chienne me pousse en vain</t>
+          <t>J'suis en mode fullup d'échos dans mon cala L'argent appelle, on y va le zin Ce sont des faux négros que j'ai pas calés Qui veulent revenir quand je vais bien Genre quoi ? Qui t'a dit que je vais bien ? Je n'ai pas oublié, ne t'inquiète pas, je retiens Je ne suis pas devenu un chien Mais cette grosse chienne me pousse en vain Je ne voulais pas céder à la loi du talion Mais trop de salopes derrière mon talon Moi, je n'ai aucun doute car j'ai du talent J'ai charbonné, trop charbonné Je n'ai pas vu le jour depuis longtemps Je me fraye un chemin et on se taille J'ai dit que ce monde était faux C'était juste un constat C'était juste un constat Genre, il a peur, il ne veut pas qu'on se tape Comme un prédateur, je vais vers la proie Genre, il a peur, il fait la croix Genre, il a peur, il fait la croix Je suis content, je vois mon buzz s'accroître La Feve, Keeqaid donc travaille les épaules Ils ont brûlé sa caisse Ça pue le cramé dans la ville Ne demande pas ce que je fais dans la ville Ne demande pas ce que je fais dans la vie Keeqaid, dis-leur comment ça se passe Dans l'État, je ne peux pas faire la grasse matinée Il faisait le fou, il a fini à quatre pattes Genre, pourquoi as-tu fait ça ? J'suis en mode fullup d'échos dans mon cala L'argent appelle, on y va le zin Ce sont des faux négros que je n'ai pas calés Qui veulent revenir quand je vais bien Genre quoi ? Qui t'a dit que je vais bien ? Je n'ai pas oublié, ne t'inquiète pas, je retiens Je ne suis pas devenu un chien Mais cette grosse chienne me pousse en vain Soit ce sont des menteurs, soit ce sont des pookies Trop de cali, j'ai dû sortir la pookies Dans ça depuis pas de rookie Je suis le plan comme si je venais de Brooklyn Ce sont des vieux gars, prêtez pas attention Critiquaient, maintenant mettent dans les mentions Beaucoup de lin me fait monter ma tension Je suis en mission, je ne regarde pas les émissions Monte un peu le son, je vais secouer le tiekson Je monte un peu le son, je vais faire bouger l'équipe Monte un peu le son, je vais faire kiffer les petits Sans effort, on a fait la différence Ça c'est fort, désormais faut les tuer Ow arrive deux, j'espère que tu te prépares On était deux mais lui, il n'est pas carré C'était logique, on a dû se séparer Tu es une crasseuse, on ne t'appelle pas shawty Je suis un vrai négro et je l'étais jadis Tu sais bien, tu fais comme si je ne t'avais pas dit C'est seulement quand on rentabilise Qu'on peut enfin dire qu'on va bien Je faisais partir mon prod sur Beriz Je ne suis pas un grossiste Mais je sais qu'ils n'ont jamais eu de Ks J'suis en mode fullup d'échos dans mon cala L'argent appelle, on y va le zin Ce sont des faux négros que j'ai pas calés Qui veulent revenir quand je vais bien Genre quoi ? Qui t'a dit que je vais bien ? Je n'ai pas oublié, ne t'inquiète pas, je retiens Je ne suis pas devenu un chien Mais cette grosse chienne me pousse en vain</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Big LAF 2021 j'suis au top G fuck un p'tit serpent, fuck un porc Gros gamos, money bag, passe ça et je bouge Y'a rien mais canalise ton poto il est louche Toi tu savais pas maintenant t'es woke Ce que je fais c'est historique hey Elle me dit je t'aime, je suis stoïque G on attend la victory hey J'ai peur que de demain, Dieu et de mes jnouns Il faut des jugg, j'ai trop de sauce, j'ai trop de juice ERRR Comme un low low Appelle moi LAF, Louis Rappeurs, j'les met en bouillie Toi t'es un clown, do it ERRR J'peux t'donner des conseils, tu sais pas les suivre Tu m'as touché, j'ai des traces de moisi sur mon cuir, ok Tu me veux, vois avec Piz, je suis pas OP Trop en loup derrière cette ta-kish, on a galopé Je rappe comme si j'étais riche Qui m'aimera si je péris J'suis un espion pas Derrick Trou d'boulette sur l'Arcteryx Mauvais G, mauvaise go, c'est pas trop mon del J'suis paro mais y'a toujours cette écoute sur mon tel Trap comme, trap comme si c'était mon birthday, ERRR day ERRR Tape, tu sais la Fève vise le perfect Tu sais La Fève vise les astres Je sais le monde il est vaste Quel train d'vie désastreux J'te crois pas comme le pasteur You might also like Big LAF 2021 j'suis au top G fuck un p'tit serpent, fuck un porc Gros gamos, money bag passe ça et je bouge Y'a rien mais canalise ton poto il est louche</t>
+          <t>Big LAF 2021 j'suis au top G fuck un p'tit serpent, fuck un porc Gros gamos, money bag, passe ça et je bouge Y'a rien mais canalise ton poto il est louche Toi tu savais pas maintenant t'es woke Ce que je fais c'est historique hey Elle me dit je t'aime, je suis stoïque G on attend la victory hey J'ai peur que de demain, Dieu et de mes jnouns Il faut des jugg, j'ai trop de sauce, j'ai trop de juice ERRR Comme un low low Appelle moi LAF, Louis Rappeurs, j'les met en bouillie Toi t'es un clown, do it ERRR J'peux t'donner des conseils, tu sais pas les suivre Tu m'as touché, j'ai des traces de moisi sur mon cuir, ok Tu me veux, vois avec Piz, je suis pas OP Trop en loup derrière cette ta-kish, on a galopé Je rappe comme si j'étais riche Qui m'aimera si je péris J'suis un espion pas Derrick Trou d'boulette sur l'Arcteryx Mauvais G, mauvaise go, c'est pas trop mon del J'suis paro mais y'a toujours cette écoute sur mon tel Trap comme, trap comme si c'était mon birthday, ERRR day ERRR Tape, tu sais la Fève vise le perfect Tu sais La Fève vise les astres Je sais le monde il est vaste Quel train d'vie désastreux J'te crois pas comme le pasteur Big LAF 2021 j'suis au top G fuck un p'tit serpent, fuck un porc Gros gamos, money bag passe ça et je bouge Y'a rien mais canalise ton poto il est louche</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah Parle vrai, pas de zigzag, bien sûr que j'aime ma ville Ville mais jvois les anciens qui s'taillent J'voulais juste une kichta Dollars, on ma dit Canalise-toi Yeah, te mets pas dans les histoires Pourquoi ? Me tester, évite ça Yeah, voir mon équipe débouler chez oi-t, tu n'as pas envie d'ça Tu n'as pas envie Donc dis-moi qu'est-c'qui s'passe ? Et les miens vont dans l'espace Deux trois baddies, sénarii, jy pensais tout la night Tas pas d'flow si tas pas d'maille Yeah, dans ma lancée faut pas qu'j'di Parle vrai, pas de zigzag, Beretta pas de six-packs Yeah Maintenant faut mappeler BIGLAF, maintenant faut m'appeler BIGLAF Yeah J'voulais juste une kichta, on m'a dit Canalise-toi Yeah Ma le-gueu le compte est rempli, maintenant faut m'appeler BIGLAF BIGLAF, BIGLAF, BIGLAF, BIGLAF, BIGLAF Maintenant faut m'appeler BIGLAF BIGLAF, BIGLAF, BIGLAF, BIGLAF, BIGLAF Maintenant faut m'appeler BIGLAF J'voulais juste une kichta, on m'a dit Canalise-toi Ma leu-geu le compte est rempli, maintenant faut m'appeler BIGLAF Yeah, yeah You might also like Tu parles de choses que tu ne maîtrises pas Yeah J'suis en pierre même l'casino me laisse pas J'ai visé l'infini, comment m'stopper ? J'ai visé l'infini Dur est le choix entre Ferrari et, dur est le choix entre Ferrari et 'ghini Yeah, yeah Si tu l'fais pas lui il fera, t'es pas un G, t'es une p'tite frappe J'suis busy, nan, n'insiste pas, fuck les pookies, fuck les cistes-ra Yeah Je ne résiste pas, le sale m'appelle, je ne résiste pas J'suis bouillant ne me néglige pas, parle vrai pas de- Yeah, yeah Parle vrai, pas de zigzag, Beretta pas de six-packs Paw Maintenant faut m'appeler BIGLAF, maintenant faut m'appeler BIGLAF J'voulais juste une kichta, on m'a dit Canalise-toi Ma le-gueu le compte est rempli, maintenant faut m'appeler BIGLAF</t>
+          <t>Yeah, yeah, yeah Parle vrai, pas de zigzag, bien sûr que j'aime ma ville Ville mais jvois les anciens qui s'taillent J'voulais juste une kichta Dollars, on ma dit Canalise-toi Yeah, te mets pas dans les histoires Pourquoi ? Me tester, évite ça Yeah, voir mon équipe débouler chez oi-t, tu n'as pas envie d'ça Tu n'as pas envie Donc dis-moi qu'est-c'qui s'passe ? Et les miens vont dans l'espace Deux trois baddies, sénarii, jy pensais tout la night Tas pas d'flow si tas pas d'maille Yeah, dans ma lancée faut pas qu'j'di Parle vrai, pas de zigzag, Beretta pas de six-packs Yeah Maintenant faut mappeler BIGLAF, maintenant faut m'appeler BIGLAF Yeah J'voulais juste une kichta, on m'a dit Canalise-toi Yeah Ma le-gueu le compte est rempli, maintenant faut m'appeler BIGLAF BIGLAF, BIGLAF, BIGLAF, BIGLAF, BIGLAF Maintenant faut m'appeler BIGLAF BIGLAF, BIGLAF, BIGLAF, BIGLAF, BIGLAF Maintenant faut m'appeler BIGLAF J'voulais juste une kichta, on m'a dit Canalise-toi Ma leu-geu le compte est rempli, maintenant faut m'appeler BIGLAF Yeah, yeah Tu parles de choses que tu ne maîtrises pas Yeah J'suis en pierre même l'casino me laisse pas J'ai visé l'infini, comment m'stopper ? J'ai visé l'infini Dur est le choix entre Ferrari et, dur est le choix entre Ferrari et 'ghini Yeah, yeah Si tu l'fais pas lui il fera, t'es pas un G, t'es une p'tite frappe J'suis busy, nan, n'insiste pas, fuck les pookies, fuck les cistes-ra Yeah Je ne résiste pas, le sale m'appelle, je ne résiste pas J'suis bouillant ne me néglige pas, parle vrai pas de- Yeah, yeah Parle vrai, pas de zigzag, Beretta pas de six-packs Paw Maintenant faut m'appeler BIGLAF, maintenant faut m'appeler BIGLAF J'voulais juste une kichta, on m'a dit Canalise-toi Ma le-gueu le compte est rempli, maintenant faut m'appeler BIGLAF</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Yeah Big LAF tape, 2021, La Fève, le 7, la Walone On arrive fort Yeah, so Dundy, so Khali So tous ceux qui donnent du soutien On va l'faire, let's go Nostal'Boy on the track Yeah, yeah Sors-moi six chiffres au moins, si t'as voulu m'booker, fils M'booker, fils Han, le ce-vi voulait m'avoir, il est venu avec un bouquet, fils Eh, dans l'industrie, faut pas s'faire graille, j'dois garder mon caractère J'dois garder mon caractère Ah, j'dois m'séparer d'mes penchants, même si j'ai du mal à l'faire Yes, mal à produire du sale là, j'me dis faut pas lâcher Ah, y a cett gadji à qui j'pensais, mais il faut pas m'attacher Yes, ys Yes, ma leu-geu, t'as capté, j'crois pas trop aux belles histoires Yeah Ce p'tit serpent est devant moi, y a une voix qui m'dit maîtrise toi Dans ma tête c'est le bazar Bazar Big LAF tape, c'est la base Ca arrive vite comme la baffe Baffe G pourquoi, sur moi tu baves ? Toi, est-c'que t'as capté ? Yes sir J'ai peu d'amour, j'ai le cur couleur café Yes sir On connaît La Fève dans le quartier Quartier Certains Gs, faut les écarter Yeah You might also like Dans l'studio, j'travaille la gamme J'me bats la même si t'es un gros gab' Gab' Entre toi et moi, y a ce gap Entre toi et moi, y a ce gap Si j'le dis, c'est qu'c'est no cap Yeah, yeah Yes, si j'le dis c'est qu'c'est no cap Pourquoi tu voudrais une co-op? Yeah J'suis dur à avoir comme le top Yeah Easy t'es fiché G, est-c'que t'as pigé ? La Fève c'est le boss Yeah, on vise le sommet tous les jours d'la semaine, frérot rien qu'on bosse Faut que t'arrête t'es bêtises ma le-gueu, y a pas de blagues petit imbécile Yes, petit imbécile entre la liberté et l'argent t'es indécis Yeah, plan attrayant on y go J'te parle avec le flow Mygos Trop d'attente comme au comico Toi petit si je te chope Tellement de flow dans le shop Ils croient qu'on est deux sur le son Ils croient qu'on est deux sur le son Yeah, yeah Dans ma tête c'est le bazar Bazar Big LAF tape, c'est la base Errr Ca arrive vite comme la baffe Baffe G pourquoi, sur moi tu baves ? Toi, est-c'que t'as capté ? J'ai peu d'amour, j'ai le cur couleur café On connaît La Fève dans le quartier Certains Gs, faut les écarter</t>
+          <t>Yeah Big LAF tape, 2021, La Fève, le 7, la Walone On arrive fort Yeah, so Dundy, so Khali So tous ceux qui donnent du soutien On va l'faire, let's go Nostal'Boy on the track Yeah, yeah Sors-moi six chiffres au moins, si t'as voulu m'booker, fils M'booker, fils Han, le ce-vi voulait m'avoir, il est venu avec un bouquet, fils Eh, dans l'industrie, faut pas s'faire graille, j'dois garder mon caractère J'dois garder mon caractère Ah, j'dois m'séparer d'mes penchants, même si j'ai du mal à l'faire Yes, mal à produire du sale là, j'me dis faut pas lâcher Ah, y a cett gadji à qui j'pensais, mais il faut pas m'attacher Yes, ys Yes, ma leu-geu, t'as capté, j'crois pas trop aux belles histoires Yeah Ce p'tit serpent est devant moi, y a une voix qui m'dit maîtrise toi Dans ma tête c'est le bazar Bazar Big LAF tape, c'est la base Ca arrive vite comme la baffe Baffe G pourquoi, sur moi tu baves ? Toi, est-c'que t'as capté ? Yes sir J'ai peu d'amour, j'ai le cur couleur café Yes sir On connaît La Fève dans le quartier Quartier Certains Gs, faut les écarter Yeah Dans l'studio, j'travaille la gamme J'me bats la même si t'es un gros gab' Gab' Entre toi et moi, y a ce gap Entre toi et moi, y a ce gap Si j'le dis, c'est qu'c'est no cap Yeah, yeah Yes, si j'le dis c'est qu'c'est no cap Pourquoi tu voudrais une co-op? Yeah J'suis dur à avoir comme le top Yeah Easy t'es fiché G, est-c'que t'as pigé ? La Fève c'est le boss Yeah, on vise le sommet tous les jours d'la semaine, frérot rien qu'on bosse Faut que t'arrête t'es bêtises ma le-gueu, y a pas de blagues petit imbécile Yes, petit imbécile entre la liberté et l'argent t'es indécis Yeah, plan attrayant on y go J'te parle avec le flow Mygos Trop d'attente comme au comico Toi petit si je te chope Tellement de flow dans le shop Ils croient qu'on est deux sur le son Ils croient qu'on est deux sur le son Yeah, yeah Dans ma tête c'est le bazar Bazar Big LAF tape, c'est la base Errr Ca arrive vite comme la baffe Baffe G pourquoi, sur moi tu baves ? Toi, est-c'que t'as capté ? J'ai peu d'amour, j'ai le cur couleur café On connaît La Fève dans le quartier Certains Gs, faut les écarter</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Santa Yeah J'arrive comme le Boeing tu l'as senti passer Dieu je le connais le flambeau il m'a passé Je compte pas les efforts fournis dans le passé Jamais je dis la vie d'artiste m'a dépassé Je fais ça no cap Comme le Boeing tu l'as senti passer Dieu je le connais le flambeau il m'a passé Je compte pas les efforts fournis dans le passé Je fais ça no cap Devant le micro t'as cru que j'étais possédé On s'accroche mon négro on ne va pas céder Le gout d'la pauvreté il est trop acide le gout d'la pauvreté il est trop acide Le gout d'la pauvreté il est trop acide Pour ça que j'dois être un travailleur assidu Je fais une fois et je ressens la lassitude La jeunesse est du-per Ils veulent la duper Le coup franc j'le rentre avec le coup du pied J'suis bien éduqué j'suis bien éduqué J'me demande juste pourquoi ce batard ma reluqué la jeunesse est du-per Je suis un espion c'est pas juste une façade Tellement de hits que j'ai dans mon sac à dos Elle aime quand je kick ça de manière saccadée J'fais ça no cap Pour moi le rap c'est très facile comme un deux trois Je reste a l'affut comme ce sniper sur le toit Tu parlais sur moi mais moi je m'en fous de toi tu parlais sur moi mais moi je m'en fous de toi You might also like J'arrive comme le Boeing tu l'as senti passer Dieu je le connais le flambeau il m'a passé Je compte pas les efforts fournis dans le passé Jamais je dis la vie d'artiste m'a dépassé Je fais ça no cap Comme le Boeing tu l'as senti passer Dieu je le connais le flambeau il m'a passé Je compte pas les efforts fournis dans le passé Je fais ça no cap Ça va très vite il faut que je trouve un avocat Ça fait tellement d'années qu'on est là au calme Un serpent on connait ça a trop la boca un serpent on connait ça a trop la boca Un serpent on connait ça a trop la boca Je veux mettre la californienne dans un bocal Un jeune avec ma technique y'en a pas beaucoup J'voudrais déguster toca me gusta Je vois bien tous ceux qui copient mon le-sty Un jour je deviens riche et j'investis Pour nous bientôt tu auras beaucoup d'estime Petite peste touche pas ma veste Dans mon petit cur il n'y a que des vestiges J'suis un vrai G je connais la modestie Pas sur la Play' que je fais passer l'prestige pas sur la Play' que je fais passer l'prestige Yeah J'arrive comme le Boeing tu l'as senti passer Dieu je le connais le flambeau il m'a passé Je compte pas les efforts fournis dans le passé Jamais je dis la vie d'artiste m'a dépassé Je fais ça no cap Comme le Boeing tu l'as senti passer Dieu je le connais le flambeau il m'a passé Je compte pas les efforts fournis dans le passé Je fais ça no cap Santa1</t>
+          <t>Santa Yeah J'arrive comme le Boeing tu l'as senti passer Dieu je le connais le flambeau il m'a passé Je compte pas les efforts fournis dans le passé Jamais je dis la vie d'artiste m'a dépassé Je fais ça no cap Comme le Boeing tu l'as senti passer Dieu je le connais le flambeau il m'a passé Je compte pas les efforts fournis dans le passé Je fais ça no cap Devant le micro t'as cru que j'étais possédé On s'accroche mon négro on ne va pas céder Le gout d'la pauvreté il est trop acide le gout d'la pauvreté il est trop acide Le gout d'la pauvreté il est trop acide Pour ça que j'dois être un travailleur assidu Je fais une fois et je ressens la lassitude La jeunesse est du-per Ils veulent la duper Le coup franc j'le rentre avec le coup du pied J'suis bien éduqué j'suis bien éduqué J'me demande juste pourquoi ce batard ma reluqué la jeunesse est du-per Je suis un espion c'est pas juste une façade Tellement de hits que j'ai dans mon sac à dos Elle aime quand je kick ça de manière saccadée J'fais ça no cap Pour moi le rap c'est très facile comme un deux trois Je reste a l'affut comme ce sniper sur le toit Tu parlais sur moi mais moi je m'en fous de toi tu parlais sur moi mais moi je m'en fous de toi J'arrive comme le Boeing tu l'as senti passer Dieu je le connais le flambeau il m'a passé Je compte pas les efforts fournis dans le passé Jamais je dis la vie d'artiste m'a dépassé Je fais ça no cap Comme le Boeing tu l'as senti passer Dieu je le connais le flambeau il m'a passé Je compte pas les efforts fournis dans le passé Je fais ça no cap Ça va très vite il faut que je trouve un avocat Ça fait tellement d'années qu'on est là au calme Un serpent on connait ça a trop la boca un serpent on connait ça a trop la boca Un serpent on connait ça a trop la boca Je veux mettre la californienne dans un bocal Un jeune avec ma technique y'en a pas beaucoup J'voudrais déguster toca me gusta Je vois bien tous ceux qui copient mon le-sty Un jour je deviens riche et j'investis Pour nous bientôt tu auras beaucoup d'estime Petite peste touche pas ma veste Dans mon petit cur il n'y a que des vestiges J'suis un vrai G je connais la modestie Pas sur la Play' que je fais passer l'prestige pas sur la Play' que je fais passer l'prestige Yeah J'arrive comme le Boeing tu l'as senti passer Dieu je le connais le flambeau il m'a passé Je compte pas les efforts fournis dans le passé Jamais je dis la vie d'artiste m'a dépassé Je fais ça no cap Comme le Boeing tu l'as senti passer Dieu je le connais le flambeau il m'a passé Je compte pas les efforts fournis dans le passé Je fais ça no cap Santa1</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>J'lui dis Baby, graille cette molly bon appétit Lui dis J'aime bien quand tu twerk pour moi j'apprécie J'dribble les keufs comme si j'avais l'maillot du Brésil Yeah Coach envoie l'équipe faire le pressing J'aime bien quand tu twerk bae, j'aime bien c'que tu proposes Quand je graille vision latérale comme un croco Shoot, shoot Ces négros ne font pas long feu et ne passent même pas le générique Hun J'suis dans la verte yeah Mon négro je n'fume pas le céleri Ok Va là-bas bataradé, dans l'stud' j'fais le karaté J'm'isole un peu maleugueu j'repense aux dingueries qu'on a raté Ce jeune attend mon retour, trap shit j'crois que j'ai fait le tour G moi j'aurais tout fait pour eux mais j'crois ils voulaient pas mon amour Les snakes donnent du fake love, j'veux pas de fake friends Ouh bitch pull up pour le sexe ramène ta best friend J'ai des G's postés dans la trap tous les week-ends J'veux juste une grosse montre au poigné yeah comme Ben 10 Jtape ça en catimini No cap j'fais pas d'tmnik G, ça fait des années que j'science ça donc toi crois pas tu me niques Dans l'industrie y'a des soumis, Hit a lick avec Zoomy Alright C'est des serpents, c'est des souris Là j'pense au futur et je souris, let's go You might also like J'lui dis Baby, graille cette molly bon appétit Lui dis J'aime bien quand tu twerk pour moi j'apprécie J'dribble les keufs comme si j'avais l'maillot du Brésil Yeah Coach envoie l'équipe faire le pressing J'lui dis Baby, graille cette molly bon appétit Lui dis J'aime bien quand tu twerk pour moi j'apprécie J'dribble les keufs comme si j'avais l'maillot du Brésil Yeah Coach envoie l'équipe faire le pressing</t>
+          <t>J'lui dis Baby, graille cette molly bon appétit Lui dis J'aime bien quand tu twerk pour moi j'apprécie J'dribble les keufs comme si j'avais l'maillot du Brésil Yeah Coach envoie l'équipe faire le pressing J'aime bien quand tu twerk bae, j'aime bien c'que tu proposes Quand je graille vision latérale comme un croco Shoot, shoot Ces négros ne font pas long feu et ne passent même pas le générique Hun J'suis dans la verte yeah Mon négro je n'fume pas le céleri Ok Va là-bas bataradé, dans l'stud' j'fais le karaté J'm'isole un peu maleugueu j'repense aux dingueries qu'on a raté Ce jeune attend mon retour, trap shit j'crois que j'ai fait le tour G moi j'aurais tout fait pour eux mais j'crois ils voulaient pas mon amour Les snakes donnent du fake love, j'veux pas de fake friends Ouh bitch pull up pour le sexe ramène ta best friend J'ai des G's postés dans la trap tous les week-ends J'veux juste une grosse montre au poigné yeah comme Ben 10 Jtape ça en catimini No cap j'fais pas d'tmnik G, ça fait des années que j'science ça donc toi crois pas tu me niques Dans l'industrie y'a des soumis, Hit a lick avec Zoomy Alright C'est des serpents, c'est des souris Là j'pense au futur et je souris, let's go J'lui dis Baby, graille cette molly bon appétit Lui dis J'aime bien quand tu twerk pour moi j'apprécie J'dribble les keufs comme si j'avais l'maillot du Brésil Yeah Coach envoie l'équipe faire le pressing J'lui dis Baby, graille cette molly bon appétit Lui dis J'aime bien quand tu twerk pour moi j'apprécie J'dribble les keufs comme si j'avais l'maillot du Brésil Yeah Coach envoie l'équipe faire le pressing</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Yes, ok J'suis un jeune spirituel Spirituel C'est un autre jour mais c'est l'même rituel Han, j'suis tombé du ciel C'est la même dalle depuis des siècles On fait du sale t'inquiète T'inquiète La musique je suis dans ça t'inquiète T'inquiète Je vois que tu parles sur moi t'es qui ? Ouais, t'es qui ? J'sais que rien peut stopper ma quête Si tu m'as vu c'est pas dans un club Toi tu fais que de suivre les gens comme un clebs Poto il fait chaud comme au Caire Poto il fait chaud comme au tel-ho La prod elle est funky Funky Bébé maman veut du Fendi Fendi Je fais ma tâche et je file Et je file Gros la prod ma le-gueu je la feel Comme à l'époque disco Disco Ce serpent a changé d'discours Serpent Han, j'le fais y'a pas d'ristourne Ristourne Fréro si tu vois le vice cours Let's go, yeah, yeah, yeah, yeah, yeah, let's go Ce serpent à changé d'discours Discours Fréro si tu vois le vice cours You might also like Laisse moi solo quand j'suis dans mes soucis J'me dis qu'il m'faudrait des sous vite Sous vite De nos défunts on doit s'souvenir Souvenir, yeah, yeah Laisse moi solo quand j'suis dans les soucis Soucis J'me dis qu'il m'faudrait des sous vite De nos défunts on doit s'souvenir Eh La prod elle est boogie Jamais j'leur ai tout dit Jeune blème dans le hoodie Prada Louis Gucci Gucci La prod elle est boogie Boogie, eh, eh La prod elle est boogie Boogie Jamais j'leur ai tout dit Tout dit Jeune blème dans le hoodie Prada Louis Gucci La prod elle est boogie Laisse moi solo quand j'suis dans mes soucis Soucis J'me dis qu'il m'faudrait des sous vite De nos défunts on doit s'souvenir Laisse moi solo quand j'suis dans les soucis J'me dis qu'il m'faudrait des sous vite De nos défunts on doit s'souvenir Eh</t>
+          <t>Yes, ok J'suis un jeune spirituel Spirituel C'est un autre jour mais c'est l'même rituel Han, j'suis tombé du ciel C'est la même dalle depuis des siècles On fait du sale t'inquiète T'inquiète La musique je suis dans ça t'inquiète T'inquiète Je vois que tu parles sur moi t'es qui ? Ouais, t'es qui ? J'sais que rien peut stopper ma quête Si tu m'as vu c'est pas dans un club Toi tu fais que de suivre les gens comme un clebs Poto il fait chaud comme au Caire Poto il fait chaud comme au tel-ho La prod elle est funky Funky Bébé maman veut du Fendi Fendi Je fais ma tâche et je file Et je file Gros la prod ma le-gueu je la feel Comme à l'époque disco Disco Ce serpent a changé d'discours Serpent Han, j'le fais y'a pas d'ristourne Ristourne Fréro si tu vois le vice cours Let's go, yeah, yeah, yeah, yeah, yeah, let's go Ce serpent à changé d'discours Discours Fréro si tu vois le vice cours Laisse moi solo quand j'suis dans mes soucis J'me dis qu'il m'faudrait des sous vite Sous vite De nos défunts on doit s'souvenir Souvenir, yeah, yeah Laisse moi solo quand j'suis dans les soucis Soucis J'me dis qu'il m'faudrait des sous vite De nos défunts on doit s'souvenir Eh La prod elle est boogie Jamais j'leur ai tout dit Jeune blème dans le hoodie Prada Louis Gucci Gucci La prod elle est boogie Boogie, eh, eh La prod elle est boogie Boogie Jamais j'leur ai tout dit Tout dit Jeune blème dans le hoodie Prada Louis Gucci La prod elle est boogie Laisse moi solo quand j'suis dans mes soucis Soucis J'me dis qu'il m'faudrait des sous vite De nos défunts on doit s'souvenir Laisse moi solo quand j'suis dans les soucis J'me dis qu'il m'faudrait des sous vite De nos défunts on doit s'souvenir Eh</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Demna, Demna On a pris les gants on a tout lâché pour le noble art T'aurais pu me zapper mais ta cons est plutôt faible Ma le-gueu si tu fais tu sais que LAF il va faire mieux Je vois le temps passer sur moi Ticky je me fais vieux J'écoute pas leur rap de pookie j'écoute pas leurs palabres Sortir de la forêt j'ai dû sortir le katana Ces faux G sont français, quand ils parlent j'entends China Ces faux G sont français, quand ils parlent j'entends China J'suis avec Demna, S2, S2 Rat jai la flemme dux, qui test? Merceds avant ma death On fait des dégâts comme si cest légal Smoke avec les gars, les gars Trapper c'est facile comme sur la Sega J'suis avec le sang dans la city, j'suis avec le sang J'ai des infos sur toi donc pourquoi tu fais l'innocent ? Tu sais ma le-gueu, y a que Dieu qu'on a trouvé menaçant Y'a cette rue on s'captait là-bas j'y repense en rpassant Mauvais garçon pourquoi quand j'arrive le ciel s'éclaircit ? J'crois qu'le Grand me dit merci Dans l'stud' je fais d'l'exercice Faire du cash ou nager G, le dilemme était sexy J'crois que la prod est trop flexible j'la prends j'lui met des rects-di Où est ma baby ? Sale c'est daily, comme à New Delhi Toi c'est pour mon argent que t'es friendly J'vais l'faire insh'Allah j'ai un p'tit seum, j'vais faire une balade Serpent rat shit c'est bon débarras You might also like On a pris les gants on a tout lâché pour le noble art T'aurais pu me zapper mais ta cons est plutôt faible Ma le-gueu si tu fais tu sais que LAF il va faire mieux Je vois le temps passer sur moi, Ticky je me fais vieux1</t>
+          <t>Demna, Demna On a pris les gants on a tout lâché pour le noble art T'aurais pu me zapper mais ta cons est plutôt faible Ma le-gueu si tu fais tu sais que LAF il va faire mieux Je vois le temps passer sur moi Ticky je me fais vieux J'écoute pas leur rap de pookie j'écoute pas leurs palabres Sortir de la forêt j'ai dû sortir le katana Ces faux G sont français, quand ils parlent j'entends China Ces faux G sont français, quand ils parlent j'entends China J'suis avec Demna, S2, S2 Rat jai la flemme dux, qui test? Merceds avant ma death On fait des dégâts comme si cest légal Smoke avec les gars, les gars Trapper c'est facile comme sur la Sega J'suis avec le sang dans la city, j'suis avec le sang J'ai des infos sur toi donc pourquoi tu fais l'innocent ? Tu sais ma le-gueu, y a que Dieu qu'on a trouvé menaçant Y'a cette rue on s'captait là-bas j'y repense en rpassant Mauvais garçon pourquoi quand j'arrive le ciel s'éclaircit ? J'crois qu'le Grand me dit merci Dans l'stud' je fais d'l'exercice Faire du cash ou nager G, le dilemme était sexy J'crois que la prod est trop flexible j'la prends j'lui met des rects-di Où est ma baby ? Sale c'est daily, comme à New Delhi Toi c'est pour mon argent que t'es friendly J'vais l'faire insh'Allah j'ai un p'tit seum, j'vais faire une balade Serpent rat shit c'est bon débarras On a pris les gants on a tout lâché pour le noble art T'aurais pu me zapper mais ta cons est plutôt faible Ma le-gueu si tu fais tu sais que LAF il va faire mieux Je vois le temps passer sur moi, Ticky je me fais vieux1</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ma mère, mon père, savent que j'ai la vision ERRR J'me lève, j'fait la mission Dalle mes gars ils ont ERRR Tape 2021 tu connais Yeah, yeah Tellement de petits serpents mon négro c'est des cancers Là je fais du sale à ceux faux qui reprennent les concerts On m'appelle la Fève car dans le studio j'fais des concepts Je regarde le ciel et je m demande à quoi on sert Tu t's trompé si t'as cru qu't'allais m'casser A la table des que mon chemin il est tracé Je m'isole et puis je rumine sur le passé Elle me saoul je dis va là bas, j'en ai assez yeah P'tit bédo, pensant, musique un pansement La j'fais la rocket, bientôt le lancement Bientôt je l'fais comme un Bezos, un Musk Classique banger, c'est c'que we do the most Salam à ceux qui veulent toucher le plafond Y'en a tu capte à leur âme c'est des bavons Je connais pas vous, j'fais du sale j'avoue C'est ça depuis l'époque de Busta contre Ja Rule, let's Dieu pardonnez moi si j'ai des lacunes Newcomers de l'année c'est mon statut ERRR T'as merdé, j'fais blehni on en parle plus Dans le rap jeu y'a un peu de crapules Dans l'rap jeu y'en a qui portent des claquettes Je suis arrivé, j'ai fait un cratère On m'a repêché quand j'étais par terre Les mêmes trous de boulettes sur la jacket You might also like Ma mère, mon père, savent que j'ai la vision ERRR J'me lève j'fait la mission Dalle mes gars ils ont My nigg', j'ai le son qui break ya neck My nigg', j'ai le son qui break ya neck yeah yeah My nigg', j'ai le son qui break ya neck My nigg', j'ai le son qui break ya neck My nigg', j'ai le son qui break ya neck</t>
+          <t>Ma mère, mon père, savent que j'ai la vision ERRR J'me lève, j'fait la mission Dalle mes gars ils ont ERRR Tape 2021 tu connais Yeah, yeah Tellement de petits serpents mon négro c'est des cancers Là je fais du sale à ceux faux qui reprennent les concerts On m'appelle la Fève car dans le studio j'fais des concepts Je regarde le ciel et je m demande à quoi on sert Tu t's trompé si t'as cru qu't'allais m'casser A la table des que mon chemin il est tracé Je m'isole et puis je rumine sur le passé Elle me saoul je dis va là bas, j'en ai assez yeah P'tit bédo, pensant, musique un pansement La j'fais la rocket, bientôt le lancement Bientôt je l'fais comme un Bezos, un Musk Classique banger, c'est c'que we do the most Salam à ceux qui veulent toucher le plafond Y'en a tu capte à leur âme c'est des bavons Je connais pas vous, j'fais du sale j'avoue C'est ça depuis l'époque de Busta contre Ja Rule, let's Dieu pardonnez moi si j'ai des lacunes Newcomers de l'année c'est mon statut ERRR T'as merdé, j'fais blehni on en parle plus Dans le rap jeu y'a un peu de crapules Dans l'rap jeu y'en a qui portent des claquettes Je suis arrivé, j'ai fait un cratère On m'a repêché quand j'étais par terre Les mêmes trous de boulettes sur la jacket Ma mère, mon père, savent que j'ai la vision ERRR J'me lève j'fait la mission Dalle mes gars ils ont My nigg', j'ai le son qui break ya neck My nigg', j'ai le son qui break ya neck yeah yeah My nigg', j'ai le son qui break ya neck My nigg', j'ai le son qui break ya neck My nigg', j'ai le son qui break ya neck</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ERRR Fonscar la bas vec un brodie fait d'la trap avec des prodiges J'veux qu'elle joue d'moi avec son body less Trap avec une voix érotique Parle sur moi, eux, c'que j'verrais en moins dans ma p'tite routine J'ai dis bientôt on pète le chardonnet J'était paro j'le suis encore plus là vu qu'maintenant ça r'connait Fonscar la bas vec un brodie fait d'la trap avec des prodiges J'veux qu'elle joue d'moi avec son body less J'me sens comm un deutsch dans la Merceds fume la sheize Bellek à ceux qui t'envient qui vont juger tes choices Fallait remplir le keuss donc j'ai joué avec ma voice En vac' j'partais pas et j'voyais pas Mickey Mouse Tellement d'sale dans le veau-cer faudrait qu'il fasse le ménage C'est la vie c'est triste, mon ami, j'arrive et tu déménages Y'a trop d'snakes qui gravitent c'est trop grave Seul seul, j'vis ma vie Dieu voit tout donc j'reste brave J'suis avec Kosei qu'es ce tu proposes Y'a pas grand monde qui ose poser comme j'pose Un jeune avec des névroses, G j'ai même pas 30 ans Si j'pouvais j'me dirais contrôle toi même si c'est tentant Un conflit qui se règle en pan-pan, m'en parle pas Court après un bonheur palpable hari y'a pas d'tal Ancien hater nouveau gentleman Carotte je te mets Skinny boy mais tu chauffes je te mèle putain de merde You might also like Fonscar la bas vec un brodie fait d'la trap avec mes prodiges J'veux qu'elle joue d'moi avec son body less Trap avec une voix érotique Parle sur moi, eux, c'que verrais en moins dans ma p'tite routine, euh J'ai dit bientôt on pète le chardonnet J'était paro j'le suis encore plus là vu qu'maintenant ça r'connait Faut scarlap avec un glodi vide la tchop avec tes prodiges J'veux qu'elle joue d'moi avec son body less</t>
+          <t>ERRR Fonscar la bas vec un brodie fait d'la trap avec des prodiges J'veux qu'elle joue d'moi avec son body less Trap avec une voix érotique Parle sur moi, eux, c'que j'verrais en moins dans ma p'tite routine J'ai dis bientôt on pète le chardonnet J'était paro j'le suis encore plus là vu qu'maintenant ça r'connait Fonscar la bas vec un brodie fait d'la trap avec des prodiges J'veux qu'elle joue d'moi avec son body less J'me sens comm un deutsch dans la Merceds fume la sheize Bellek à ceux qui t'envient qui vont juger tes choices Fallait remplir le keuss donc j'ai joué avec ma voice En vac' j'partais pas et j'voyais pas Mickey Mouse Tellement d'sale dans le veau-cer faudrait qu'il fasse le ménage C'est la vie c'est triste, mon ami, j'arrive et tu déménages Y'a trop d'snakes qui gravitent c'est trop grave Seul seul, j'vis ma vie Dieu voit tout donc j'reste brave J'suis avec Kosei qu'es ce tu proposes Y'a pas grand monde qui ose poser comme j'pose Un jeune avec des névroses, G j'ai même pas 30 ans Si j'pouvais j'me dirais contrôle toi même si c'est tentant Un conflit qui se règle en pan-pan, m'en parle pas Court après un bonheur palpable hari y'a pas d'tal Ancien hater nouveau gentleman Carotte je te mets Skinny boy mais tu chauffes je te mèle putain de merde Fonscar la bas vec un brodie fait d'la trap avec mes prodiges J'veux qu'elle joue d'moi avec son body less Trap avec une voix érotique Parle sur moi, eux, c'que verrais en moins dans ma p'tite routine, euh J'ai dit bientôt on pète le chardonnet J'était paro j'le suis encore plus là vu qu'maintenant ça r'connait Faut scarlap avec un glodi vide la tchop avec tes prodiges J'veux qu'elle joue d'moi avec son body less</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Junior Alaprod zanmi' Skuna boy Ahah, yeah, lets go, yeah, lets go, yeah, anhanh, anhanh, anhanh, yeah, anhanh, anhanh, anhanh, yeah, lets go Wake up et je rejoins le bourg, dans la town il y a tellement de choses Eux cest des bitchs niggas, cest des hoes, roule un backwood, puff puff wow Big thrill, on me call big bro, casino lifestyle, wow Jai mon cheat phone comme dans GTA IV, et la bitch est sur TikTok, fait la folle Bikini bottom, ils trap sur la wave et moi tellement je drip que jai un cold case Shoot-out à Junior le beat il est wave, et je run around la town all day Shoot-out à Tony, le monde il est dans mes mains, fuck up le pack jle fais depuis mes twenty one Beat up le back, et je beat up another one, je nfais que geek bitch, jsuis sur Game One Et j'ai su stay real depuis day one, et jai su stack it up sur mon PayPal Et jai su level up nigga, uh, pas comme ces fucking bitches, nigga, uh Et jremercie le ciel, mes slimes ils sont libres, jsuis plug anywhere yeah jai la fibre Marche dans la ville, les opps ils me fixent, jai le big drip négro toujours clean Jai fait hunnid hits, mais jsuis toujours inspiré, dans le stud' jme sens comme un teen Eux cest mes clones, bitch, pas mes twins, sur moi jai deux racks cest des twins Casino lifestyle, all in, jme crois dans DeepSet, young nigga ballin Jai mon flip phone, et money callin Jme sens dans Outkast, so fresh, so clean You might also like Wake up et je rejoins le bro, dans la town il y a tellement de choses Eux cest des bitches niggas, cest des hoes, roule un backwood, puff puff wow Big thrill, on me call big bro, casino lifestyle, wow Jai mon cheat phone comme dans GTA IV, et la bitch est sur tiktok, fait la folle Et ta bitch est sur mon 'gram, fait la folle, jvais lui montrer 2-3 liasses pour laffoler Le ruger a des yeux, ferme les volets, jlai fait cest lmektoub jsuis pas désolé Si jlai fait cest réfléchi ma gueule si ça part, jsais quy a toujours un sanglier pour mépauler Il a voulu fêter, il a pété le honey, cest fini la drague, on a fini de zoner 2k22, jconnais pas la pitié, et ça pue la même merde de Nanterre à Thiais Si jsuis dans le mood jen prends 2-3 daffilé, ouais si jsuis dans le mood jen prends 2-3 daffilé Des faux tous les jours, jsais plus à qui me fier, jsais plus à qui me fier Jai la comme létoile et , jme dis fuck le système pour des billets empilés Toi viens me voir si tu veux les réponses, tu rappelles si tu veux que jtexplique un détail Si je crache tu vas lécher du style, t'as la trend et tu suis ça comme du bétail Rompompom, jcrois quil est die, jveux que des blessings, pas de médaille Focus tout le temps sur un bail ou deux, du samedi au vendredi Wake up et je rejoins le bro, dans la town il y a tellement de choses Eux cest des bitchs niggas, cest des hoes, roule un backwood, puff puff wow Big thrill, on me call big bro, casino lifestyle, wow Jai mon cheat phone comme dans GTA IV, et la bitch est sur TikTok, fait la folle1</t>
+          <t>Junior Alaprod zanmi' Skuna boy Ahah, yeah, lets go, yeah, lets go, yeah, anhanh, anhanh, anhanh, yeah, anhanh, anhanh, anhanh, yeah, lets go Wake up et je rejoins le bourg, dans la town il y a tellement de choses Eux cest des bitchs niggas, cest des hoes, roule un backwood, puff puff wow Big thrill, on me call big bro, casino lifestyle, wow Jai mon cheat phone comme dans GTA IV, et la bitch est sur TikTok, fait la folle Bikini bottom, ils trap sur la wave et moi tellement je drip que jai un cold case Shoot-out à Junior le beat il est wave, et je run around la town all day Shoot-out à Tony, le monde il est dans mes mains, fuck up le pack jle fais depuis mes twenty one Beat up le back, et je beat up another one, je nfais que geek bitch, jsuis sur Game One Et j'ai su stay real depuis day one, et jai su stack it up sur mon PayPal Et jai su level up nigga, uh, pas comme ces fucking bitches, nigga, uh Et jremercie le ciel, mes slimes ils sont libres, jsuis plug anywhere yeah jai la fibre Marche dans la ville, les opps ils me fixent, jai le big drip négro toujours clean Jai fait hunnid hits, mais jsuis toujours inspiré, dans le stud' jme sens comme un teen Eux cest mes clones, bitch, pas mes twins, sur moi jai deux racks cest des twins Casino lifestyle, all in, jme crois dans DeepSet, young nigga ballin Jai mon flip phone, et money callin Jme sens dans Outkast, so fresh, so clean Wake up et je rejoins le bro, dans la town il y a tellement de choses Eux cest des bitches niggas, cest des hoes, roule un backwood, puff puff wow Big thrill, on me call big bro, casino lifestyle, wow Jai mon cheat phone comme dans GTA IV, et la bitch est sur tiktok, fait la folle Et ta bitch est sur mon 'gram, fait la folle, jvais lui montrer 2-3 liasses pour laffoler Le ruger a des yeux, ferme les volets, jlai fait cest lmektoub jsuis pas désolé Si jlai fait cest réfléchi ma gueule si ça part, jsais quy a toujours un sanglier pour mépauler Il a voulu fêter, il a pété le honey, cest fini la drague, on a fini de zoner 2k22, jconnais pas la pitié, et ça pue la même merde de Nanterre à Thiais Si jsuis dans le mood jen prends 2-3 daffilé, ouais si jsuis dans le mood jen prends 2-3 daffilé Des faux tous les jours, jsais plus à qui me fier, jsais plus à qui me fier Jai la comme létoile et , jme dis fuck le système pour des billets empilés Toi viens me voir si tu veux les réponses, tu rappelles si tu veux que jtexplique un détail Si je crache tu vas lécher du style, t'as la trend et tu suis ça comme du bétail Rompompom, jcrois quil est die, jveux que des blessings, pas de médaille Focus tout le temps sur un bail ou deux, du samedi au vendredi Wake up et je rejoins le bro, dans la town il y a tellement de choses Eux cest des bitchs niggas, cest des hoes, roule un backwood, puff puff wow Big thrill, on me call big bro, casino lifestyle, wow Jai mon cheat phone comme dans GTA IV, et la bitch est sur TikTok, fait la folle1</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sur moi tu parlais maintenant ta veste tu l'as retournée connard J'étais avec mes loups-garous je trainais là comme un zonard On apprend à se connaitre et la flamme aussitôt disparais J'ai trop de sauce donc tu sais que les flows y'en a pas deux pareils Poto la prod elle est d'Pinkman gros j'ai trop faim pour un big mac J'veux pas dormir sur un clic-clac tout le temps j'entends des tic-tac Tu m'as trahi comment tu faisais pour m'regarder dans les yeux Depuis tout petit j'ai l'ambition infinie comme les cieux Petit frère l'univers il t'entend J'sors un projet dis moi qu'est c't'en pense Je suis trop jeune tu connais moi jamais je dit que je n'ai plus la fougue t'entends Petit frère l'univers il t'entend J'sors un projet dis moi qu'est c't'en pense Je suis trop jeune tu connais moi jamais je- Sur moi tu parlais maintenant ta veste tu l'as retournée connard J'étais avec mes loups-garous je trainais là comme un zonard On apprend à se connaitre et la flamme aussitôt disparais J'ai trop de sauce donc tu sais que les flows y'en a pas deux pareils You might also like Tout l'temps je vois les mêmes décors tu sais La Fève il veut éclore Faudrait qu'on aille ouvrir les portes de l'industrie, faire un del-bor Comment ne pas faire ce que je fais alors qu'j'ai ça dans les veines J'suis le plus chaud de l'event, on dit LaF il est à l'aise en effet Carnage, j'prépare un carnage Tant d'fuego dans mon carnet Le renouveau on incarne Faire ça c'est maladif Avec, avant, tema la diff' Carnage, j'prépare un carnage Tant d'fuego dans mon carnet Sur moi tu parlais maintenant ta veste tu l'as retournée connard J'étais avec mes loups-garous je trainais là comme un zonard On apprend à se connaitre et la flamme aussitôt disparais J'ai trop de sauce donc tu sais que les flows y'en a pas deux pareils</t>
+          <t>Sur moi tu parlais maintenant ta veste tu l'as retournée connard J'étais avec mes loups-garous je trainais là comme un zonard On apprend à se connaitre et la flamme aussitôt disparais J'ai trop de sauce donc tu sais que les flows y'en a pas deux pareils Poto la prod elle est d'Pinkman gros j'ai trop faim pour un big mac J'veux pas dormir sur un clic-clac tout le temps j'entends des tic-tac Tu m'as trahi comment tu faisais pour m'regarder dans les yeux Depuis tout petit j'ai l'ambition infinie comme les cieux Petit frère l'univers il t'entend J'sors un projet dis moi qu'est c't'en pense Je suis trop jeune tu connais moi jamais je dit que je n'ai plus la fougue t'entends Petit frère l'univers il t'entend J'sors un projet dis moi qu'est c't'en pense Je suis trop jeune tu connais moi jamais je- Sur moi tu parlais maintenant ta veste tu l'as retournée connard J'étais avec mes loups-garous je trainais là comme un zonard On apprend à se connaitre et la flamme aussitôt disparais J'ai trop de sauce donc tu sais que les flows y'en a pas deux pareils Tout l'temps je vois les mêmes décors tu sais La Fève il veut éclore Faudrait qu'on aille ouvrir les portes de l'industrie, faire un del-bor Comment ne pas faire ce que je fais alors qu'j'ai ça dans les veines J'suis le plus chaud de l'event, on dit LaF il est à l'aise en effet Carnage, j'prépare un carnage Tant d'fuego dans mon carnet Le renouveau on incarne Faire ça c'est maladif Avec, avant, tema la diff' Carnage, j'prépare un carnage Tant d'fuego dans mon carnet Sur moi tu parlais maintenant ta veste tu l'as retournée connard J'étais avec mes loups-garous je trainais là comme un zonard On apprend à se connaitre et la flamme aussitôt disparais J'ai trop de sauce donc tu sais que les flows y'en a pas deux pareils</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ERRR Yeah, des enfants qui veulent la vie de château T'es mon frère, on était dans l'même bateau J'regarde le ciel, il est couleur hématome ERRR Des enfants qui veulent la vie de château T'es mon frère, on était dans l'même bateau J'regarde le ciel, il est couleur hématome ERRR J'ai l'coeur en miette j'peux pas fuck avc une hoe T'es pas la maintnant mais t'es là dans les hauts T'es pas la maintenant mais t'es là dans les hauts ERRR J'ai fait des erreurs, G je m'en veux un peu Il fait beau là mais c'est comme si il pleut Avec ce qu'on a on a fait ce qu'on peut Je grandis, maintenant j'ai peur de la mort Cette bitch, pourquoi elle m'appelle mi amor J'ai pas l'mips, faut quand même l'Aventador Ces rappeurs, j'les vois comme des Labradors C'est real talk, parce que je suis trop sincère J'fais du son là, j'me demande à quoi ça sert J'suis lucide, donc je crois pas tes salades On calcine la frappe à momo Salah Yeah, j'me sens Tupac, là j'me sens un peu Shakur J'tire une latte et les cochons ils accourent Le temps passe, on avance par accouds Des enfants qui veulent la vie de mansion Vrais sons, tu l'entends ma le-gueu je fais des sons sortis d'une autre dimension J'avais pas les sous pour un voyage J'voulais juste changer de décor, on m'a dit que le monde il est incroyable Un bébé qui voulait être un homme Un bébé qui voulait effacer tous ses péchés de jadis à la gomme Je prends de l'age, des rages de dents Tellement d'peines que j'nage dedans Tellement d'peines que j'nage dedans ERRR Pourquoi on a pas la patience Tellement d'peines, j'me noie dans ma science J'ai tellement d'peines, j'me noie dans ma science ERRR You might also like Yeah, des enfants qui veulent la vie de château T'es mon frère, on était dans l'même bateau J'regarde le ciel, il est couleur hématome ERRR Des enfants qui veulent la vie de château T'es mon frère, on était dans l'même bateau J'regarde le ciel, il est couleur hématome ERRR J'ai l'coeur en miettes j'peux pas fuck avec une hoe T'es pas la maintenant mais t'es là dans les hauts T'es pas la maintenant mais t'es là dans les hauts ERRR J'ai fait des erreurs, G je m'en veux un peu Il fait beau là mais c'est comme si il pleut Avec ce qu'on a on a fait ce qu'on peut</t>
+          <t>ERRR Yeah, des enfants qui veulent la vie de château T'es mon frère, on était dans l'même bateau J'regarde le ciel, il est couleur hématome ERRR Des enfants qui veulent la vie de château T'es mon frère, on était dans l'même bateau J'regarde le ciel, il est couleur hématome ERRR J'ai l'coeur en miette j'peux pas fuck avc une hoe T'es pas la maintnant mais t'es là dans les hauts T'es pas la maintenant mais t'es là dans les hauts ERRR J'ai fait des erreurs, G je m'en veux un peu Il fait beau là mais c'est comme si il pleut Avec ce qu'on a on a fait ce qu'on peut Je grandis, maintenant j'ai peur de la mort Cette bitch, pourquoi elle m'appelle mi amor J'ai pas l'mips, faut quand même l'Aventador Ces rappeurs, j'les vois comme des Labradors C'est real talk, parce que je suis trop sincère J'fais du son là, j'me demande à quoi ça sert J'suis lucide, donc je crois pas tes salades On calcine la frappe à momo Salah Yeah, j'me sens Tupac, là j'me sens un peu Shakur J'tire une latte et les cochons ils accourent Le temps passe, on avance par accouds Des enfants qui veulent la vie de mansion Vrais sons, tu l'entends ma le-gueu je fais des sons sortis d'une autre dimension J'avais pas les sous pour un voyage J'voulais juste changer de décor, on m'a dit que le monde il est incroyable Un bébé qui voulait être un homme Un bébé qui voulait effacer tous ses péchés de jadis à la gomme Je prends de l'age, des rages de dents Tellement d'peines que j'nage dedans Tellement d'peines que j'nage dedans ERRR Pourquoi on a pas la patience Tellement d'peines, j'me noie dans ma science J'ai tellement d'peines, j'me noie dans ma science ERRR Yeah, des enfants qui veulent la vie de château T'es mon frère, on était dans l'même bateau J'regarde le ciel, il est couleur hématome ERRR Des enfants qui veulent la vie de château T'es mon frère, on était dans l'même bateau J'regarde le ciel, il est couleur hématome ERRR J'ai l'coeur en miettes j'peux pas fuck avec une hoe T'es pas la maintenant mais t'es là dans les hauts T'es pas la maintenant mais t'es là dans les hauts ERRR J'ai fait des erreurs, G je m'en veux un peu Il fait beau là mais c'est comme si il pleut Avec ce qu'on a on a fait ce qu'on peut</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Yuh, Yuh Chérie viens là j'vais tout t'expliquer J'me regarde dans l'miroir j'me demande quelle mouche m'a piqué Yuh, au poignet Audemars Piguet Je suis pas tout seul dans cette merde donc il faut s'appliquer Yuh, gros on l'fait on parle pas chinois J't'ai reconnu batard t'as porté l'il donc vient pas chez nous Yeah, trop d'trou d'boulettes sur l'chino Gros j'suis ambitieux j'veux au moins vingt carats sur ma chaine Yuh, J'suis l'évidence même Bébé j'veux qu'tu danse pour moi c'est pas facile dans c'game Yuh, C'est pas facil dans c'biz Y'a des vautours tout-par ma belle c'st pas facile dans c'biz Yuh, Est-ce que les billets pourront m'soigner Est-ce que j'vais devoir faire des go-fast vesqui les douaniers Yuh, Triste mélodie sur le piano Ça fait trop d'temps j'veux voir ma paire sortir d'un Viano Chérie viens là j'vais tout t'expliquer J'me regarde dans l'miroir j'me demande quelle mouche m'a piqué Yuh, au poignet Audemars Piguet Je suis pas tout seul dans cette merde donc il faut s'appliquer Yuh, Yuh, gros on l'fait on parle pas chinois J't'ai reconnu batard t'as porté l'il donc vient pas chez nous Yeah, trop d'trou d'boulettes sur l'chino Gros j'suis ambitieux j'veux au moins vingt carats sur ma chaine YuhYou might also like</t>
+          <t>Yuh, Yuh Chérie viens là j'vais tout t'expliquer J'me regarde dans l'miroir j'me demande quelle mouche m'a piqué Yuh, au poignet Audemars Piguet Je suis pas tout seul dans cette merde donc il faut s'appliquer Yuh, gros on l'fait on parle pas chinois J't'ai reconnu batard t'as porté l'il donc vient pas chez nous Yeah, trop d'trou d'boulettes sur l'chino Gros j'suis ambitieux j'veux au moins vingt carats sur ma chaine Yuh, J'suis l'évidence même Bébé j'veux qu'tu danse pour moi c'est pas facile dans c'game Yuh, C'est pas facil dans c'biz Y'a des vautours tout-par ma belle c'st pas facile dans c'biz Yuh, Est-ce que les billets pourront m'soigner Est-ce que j'vais devoir faire des go-fast vesqui les douaniers Yuh, Triste mélodie sur le piano Ça fait trop d'temps j'veux voir ma paire sortir d'un Viano Chérie viens là j'vais tout t'expliquer J'me regarde dans l'miroir j'me demande quelle mouche m'a piqué Yuh, au poignet Audemars Piguet Je suis pas tout seul dans cette merde donc il faut s'appliquer Yuh, Yuh, gros on l'fait on parle pas chinois J't'ai reconnu batard t'as porté l'il donc vient pas chez nous Yeah, trop d'trou d'boulettes sur l'chino Gros j'suis ambitieux j'veux au moins vingt carats sur ma chaine Yuh</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>yeah Moi j'suis qu'un homme donc j'ai qu'ma gue-lan pour parler Poto j'suis pas bien ma sentence approche faut s'préparer Autant d'étoiles dans l'ciel que d'ne-jeu qui sont égaré La fève il est paré j'monte sur l'plavon si c'est carré L'Homme c'est la pire des races, mon frérot t'sais qu'il est savage J'écris des tonnes de seize tu s'rais choqué si tu savais La fève il est comme ça d'puis ti-peu, il voit monochrome Moins d'chance d'aller draguer une meuf que d'gagnr au loto Pour l'instant j'suis bien loti, poto y'en a qui dorment à l'hôtl Le karma il part au calme, il revient avec la frappe à balotell On s'appelle des fois au tel avec les mêmes Salut ça dis quoi ? La fève il est dans son stud' il recherche le flow adéquat Yeah Moi j'suis qu'un homme donc j'ai qu'ma gue-lan pour parler Maman est fatiguée son fils smoke ça comme Bob Marley J'fais pas du son pour m'marrer bâtard ma vie j'veux la narrer Ils rappent comme à l'ancienne mon frère leurs flow il est avarié On rêve de la belle vie avec mes G's c'est mes kholoto Gros j'suis dans la belle ville avec Dundy et Stycoloco Je cours vite après mes rêves Mais j'ai rien en r'tour à part des cernes La vie c'est un safari combien de temps qu'on est dans l'désert You might also like Moi j'suis qu'un homme donc j'ai qu'ma gue-lan pour parler Poto j'suis pas bien ma sentence approche faut s'préparer Autant d'étoiles dans l'ciel que d'ne-jeu qui sont égarés La fève il est paré j'monte sur l'plavon si c'est carré</t>
+          <t>yeah Moi j'suis qu'un homme donc j'ai qu'ma gue-lan pour parler Poto j'suis pas bien ma sentence approche faut s'préparer Autant d'étoiles dans l'ciel que d'ne-jeu qui sont égaré La fève il est paré j'monte sur l'plavon si c'est carré L'Homme c'est la pire des races, mon frérot t'sais qu'il est savage J'écris des tonnes de seize tu s'rais choqué si tu savais La fève il est comme ça d'puis ti-peu, il voit monochrome Moins d'chance d'aller draguer une meuf que d'gagnr au loto Pour l'instant j'suis bien loti, poto y'en a qui dorment à l'hôtl Le karma il part au calme, il revient avec la frappe à balotell On s'appelle des fois au tel avec les mêmes Salut ça dis quoi ? La fève il est dans son stud' il recherche le flow adéquat Yeah Moi j'suis qu'un homme donc j'ai qu'ma gue-lan pour parler Maman est fatiguée son fils smoke ça comme Bob Marley J'fais pas du son pour m'marrer bâtard ma vie j'veux la narrer Ils rappent comme à l'ancienne mon frère leurs flow il est avarié On rêve de la belle vie avec mes G's c'est mes kholoto Gros j'suis dans la belle ville avec Dundy et Stycoloco Je cours vite après mes rêves Mais j'ai rien en r'tour à part des cernes La vie c'est un safari combien de temps qu'on est dans l'désert Moi j'suis qu'un homme donc j'ai qu'ma gue-lan pour parler Poto j'suis pas bien ma sentence approche faut s'préparer Autant d'étoiles dans l'ciel que d'ne-jeu qui sont égarés La fève il est paré j'monte sur l'plavon si c'est carré</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Pourquoi le ciel il m'accable ? A l'aise devant la cam Y'a que des OGs à la table Comme un zombie dans l'avenue, t'a appelé on est venus Maintenant tu connais mon nom mais j'sais qu'avant personne suivait à part mon ombre Mais j'me demande pourquoi le ciel m'accable A l'aise devant la cam Y'a que des OGs dans le repas Si t'es un snake on ouvre pas Comme un zombie dans l'avenue, t'a appelé on est venus Maintenant tu connais mon nom mais j'sais qu'avant personne suivait à part mon ombre Y'a pas d'autres chances si je loupe, si on le fait je dis ouf Jeune qui maîtrise le clout, si j'avais su j'aurais fait des alley-oops Combien de mensonges on a gobé ? Combien de cordes à mon arc ? Bientôt j'dis On a guéri Vif comme soldat aguerri Tu t'es reconnu dans mes thèmes C'est parce que t'es jeune toi aussi Faut qu'je fasse tout mon possible, pour la famille et les pussys Toi je sais que t'a du venin, mais pas de snake dans l'équipe Toi je sais que tu m'as porté l'il, j'ai une dent contre toi on est quitte You might also like Pourquoi le ciel il m'accable ? A l'aise devant la cam Y'a que des OGs à la table Comme un zombie dans l'avenue, t'a appelé on est venus Maintenant tu connais mon nom mais j'sais qu'avant personne suivait à part mon ombre Yeah, Yeah Yeah, Yeah Yeah, Yeah Yeah, Yeah Yeah, Yeah Yeah, Yeah Met le sous la veste en jeans, j'me demande qui me soulage Mon gava rien à changé, éméché comme un p'tit soulard T'as planté mon talon d'Achille, mais tu m'as laissé dans l'sauna Dans la vie y'a pas de magie, jeune espion se cache sous l'foulard Est-ce que t'as compris les mots ? Dans le cur j'ai des maux Faut que j'éloigne tous mes démons Dans la cabine j'ai du coffre, La foudre elle tombe sur moi Le vice et les sournois Gros si t'appelle on est OP Des grosses peines j'veux pas écoper Plein de vibe dans mes sons Amertume dans mes couplets Amertume dans ma vida Tu peux pas trop comprendre senorita Je sais mettre ma voix sur la guitare Pour te chanter ma foi comme un rital J'vois pas des grammes, je veux le calme han Tu connais La Fève j'ai trop la dalle han Est-ce que tu sais toi si l'univers m'écoute ? Le karma nous tabasse mais on sent pas les coups Pourquoi le ciel il m'accable ? A l'aise devant la cam Y'a que des OGs à la table Comme un zombie dans l'avenue, t'a appelé on est venus Maintenant tu connais mon nom mais j'sais qu'avant personne suivait à part mon ombre1</t>
+          <t>Pourquoi le ciel il m'accable ? A l'aise devant la cam Y'a que des OGs à la table Comme un zombie dans l'avenue, t'a appelé on est venus Maintenant tu connais mon nom mais j'sais qu'avant personne suivait à part mon ombre Mais j'me demande pourquoi le ciel m'accable A l'aise devant la cam Y'a que des OGs dans le repas Si t'es un snake on ouvre pas Comme un zombie dans l'avenue, t'a appelé on est venus Maintenant tu connais mon nom mais j'sais qu'avant personne suivait à part mon ombre Y'a pas d'autres chances si je loupe, si on le fait je dis ouf Jeune qui maîtrise le clout, si j'avais su j'aurais fait des alley-oops Combien de mensonges on a gobé ? Combien de cordes à mon arc ? Bientôt j'dis On a guéri Vif comme soldat aguerri Tu t'es reconnu dans mes thèmes C'est parce que t'es jeune toi aussi Faut qu'je fasse tout mon possible, pour la famille et les pussys Toi je sais que t'a du venin, mais pas de snake dans l'équipe Toi je sais que tu m'as porté l'il, j'ai une dent contre toi on est quitte Pourquoi le ciel il m'accable ? A l'aise devant la cam Y'a que des OGs à la table Comme un zombie dans l'avenue, t'a appelé on est venus Maintenant tu connais mon nom mais j'sais qu'avant personne suivait à part mon ombre Yeah, Yeah Yeah, Yeah Yeah, Yeah Yeah, Yeah Yeah, Yeah Yeah, Yeah Met le sous la veste en jeans, j'me demande qui me soulage Mon gava rien à changé, éméché comme un p'tit soulard T'as planté mon talon d'Achille, mais tu m'as laissé dans l'sauna Dans la vie y'a pas de magie, jeune espion se cache sous l'foulard Est-ce que t'as compris les mots ? Dans le cur j'ai des maux Faut que j'éloigne tous mes démons Dans la cabine j'ai du coffre, La foudre elle tombe sur moi Le vice et les sournois Gros si t'appelle on est OP Des grosses peines j'veux pas écoper Plein de vibe dans mes sons Amertume dans mes couplets Amertume dans ma vida Tu peux pas trop comprendre senorita Je sais mettre ma voix sur la guitare Pour te chanter ma foi comme un rital J'vois pas des grammes, je veux le calme han Tu connais La Fève j'ai trop la dalle han Est-ce que tu sais toi si l'univers m'écoute ? Le karma nous tabasse mais on sent pas les coups Pourquoi le ciel il m'accable ? A l'aise devant la cam Y'a que des OGs à la table Comme un zombie dans l'avenue, t'a appelé on est venus Maintenant tu connais mon nom mais j'sais qu'avant personne suivait à part mon ombre1</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Yeah J'vais dire les choses clairement, autrement ils comprennent pas Le temps file vite, c'est pour ça que j'm'arrête pas J'étais recherché dans la ville, j'le savais même pas Jeune et indépendant, j'crois qu'c'est pour ça qu'ils ne m'aiment pas J'crois j'suis insomniaque, des problèmes sous l'oreiller J'savais qu'j'avais un don mais j'savais juste pas le monnayer Si j'drop, c'est l'hécatombe, trap life, c'est un marathon J'serai sous chains même dans ma tombe, fuck les snitch, ls matons Elle dit qu'elle m'aime, c'est juste des choses qu'elle imagine Baiser le game pour faire du cash, telle est ma vie Ouais les dés sont pipés si tu veux mon avis Comment partir au front et revenir les mains vides ? Désolé mais pour moi t'étais qu'un pansement J'ai arrêté d'tout dire tout haut, les gens s'blessent quand j'parle franchement Ma le-g', ça dit quoi ? Rien à faire en c'moment Trop souvent dans l'dio-stu, j'fais même du sale par accident J'vais dire les choses clairement, autrement j'sais pas comment faire J'suis bon qu'à chasser comme un putain d'mammifère Rap game, j'suis déçu, c'est comme des somnifères Rap game, j'suis déçu, j'écoute pas, c'est comme des somnifères J'm'envole mais même la gue-dro ne m'fait plus effet Fontenay-sous-Bois, j'ai vu sur la Tour Eiffel Tu m'dis d'les pardonner mais j'ai trop fais Si tu m'vois arriver, déclare forfait Sauvage dans l'comportement, j'les baise tous fortement Différent mentalement, j'suis une chèvre apparemment J't'oublie pas, t'étais là, j'avais b'soin d'un appartement Mon cerveau s'barre en couille, mes souvenirs, j'en ai des fragments J'peux rapper ma peine pendant des heures La misère et la gloire, c'est comme des surs Big La Fève 7, le professeur, late night, il faut me laisser seul You might also like Elle dit qu'elle m'aime, c'est juste des choses qu'elle imagine Baiser le game pour faire du cash, telle est ma vie Ouais les dés sont pipés si tu veux mon avis Comment partir au front et revenir les mains vides ? J'vais dire les choses clairement, autrement ils comprennent pas Le temps file vite, c'est pour ça que j'm'arrête pas J'étais recherché dans la ville, j'le savais même pas Jeune et indépendant, j'crois qu'c'est pour ça qu'ils ne m'aiment pas J'crois j'suis insomniaque, des problèmes sous l'oreiller J'savais qu'j'avais un don mais j'savais juste pas le monnayer Si j'drop, c'est l'hécatombe, trap life, c'est un marathon J'serai sous chêne même dans ma tombe, fuck les snitch, les matons</t>
+          <t>Yeah J'vais dire les choses clairement, autrement ils comprennent pas Le temps file vite, c'est pour ça que j'm'arrête pas J'étais recherché dans la ville, j'le savais même pas Jeune et indépendant, j'crois qu'c'est pour ça qu'ils ne m'aiment pas J'crois j'suis insomniaque, des problèmes sous l'oreiller J'savais qu'j'avais un don mais j'savais juste pas le monnayer Si j'drop, c'est l'hécatombe, trap life, c'est un marathon J'serai sous chains même dans ma tombe, fuck les snitch, ls matons Elle dit qu'elle m'aime, c'est juste des choses qu'elle imagine Baiser le game pour faire du cash, telle est ma vie Ouais les dés sont pipés si tu veux mon avis Comment partir au front et revenir les mains vides ? Désolé mais pour moi t'étais qu'un pansement J'ai arrêté d'tout dire tout haut, les gens s'blessent quand j'parle franchement Ma le-g', ça dit quoi ? Rien à faire en c'moment Trop souvent dans l'dio-stu, j'fais même du sale par accident J'vais dire les choses clairement, autrement j'sais pas comment faire J'suis bon qu'à chasser comme un putain d'mammifère Rap game, j'suis déçu, c'est comme des somnifères Rap game, j'suis déçu, j'écoute pas, c'est comme des somnifères J'm'envole mais même la gue-dro ne m'fait plus effet Fontenay-sous-Bois, j'ai vu sur la Tour Eiffel Tu m'dis d'les pardonner mais j'ai trop fais Si tu m'vois arriver, déclare forfait Sauvage dans l'comportement, j'les baise tous fortement Différent mentalement, j'suis une chèvre apparemment J't'oublie pas, t'étais là, j'avais b'soin d'un appartement Mon cerveau s'barre en couille, mes souvenirs, j'en ai des fragments J'peux rapper ma peine pendant des heures La misère et la gloire, c'est comme des surs Big La Fève 7, le professeur, late night, il faut me laisser seul Elle dit qu'elle m'aime, c'est juste des choses qu'elle imagine Baiser le game pour faire du cash, telle est ma vie Ouais les dés sont pipés si tu veux mon avis Comment partir au front et revenir les mains vides ? J'vais dire les choses clairement, autrement ils comprennent pas Le temps file vite, c'est pour ça que j'm'arrête pas J'étais recherché dans la ville, j'le savais même pas Jeune et indépendant, j'crois qu'c'est pour ça qu'ils ne m'aiment pas J'crois j'suis insomniaque, des problèmes sous l'oreiller J'savais qu'j'avais un don mais j'savais juste pas le monnayer Si j'drop, c'est l'hécatombe, trap life, c'est un marathon J'serai sous chêne même dans ma tombe, fuck les snitch, les matons</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Pourquoi courir après les gens ? Quand on peut courir après l'argent J'peux niquer mon mood juste en pensant J'peux niquer ta sur juste en rappant Mes paroles sont dures à encaisser Comme devoir ber-tom un jour de l'an Comme s'faire piétiner sur le ciment Ou un nique ta mère ouvertement Et chaque jour, j'cours après l'bénéfice Comme s'il pouvait effacer ma peine Comme s'il pouvait effacer ma hain Comme s'il me f'rait être aimé ds Le Pen Elle a fait vu Eh baby Ske' bientôt tu nous trouves dans tous les coins Marie une feu-meu qui cuisine bien, un gros cul passe mais pas la faim J'fais ça pour manger à ma faim Petit pont, le six a mangé ma feinte Maladie d'argent, il y a pas de vaccin T'as baisé lui hier, pourquoi tu fais la sainte ? Tu t'es attaché chérie, j't'ai laissé, toi t'as pleuré une rivière comme Justin Timberlake Nike pas de Timberland J'me vois à L.A avec une Kimberley J'veux que des sommes à six chiffres Ne fais pas d'chichi, on accepte que les chèques Ma leugue, j'veux mourir comme un chef et voir une liasse quand ma vie s'achève Fuck Gandhi, j'connais pas l'pardon, garçon la guerre a ces qualités, ouais Dans la vie, j'ai fait le bavon mais y a beaucoup de bitches, c'est une réalité You might also like La Fève baby Skefre quand on pull up mmmh Ma chérie essaye d'me joindre mais j'suis dans l'block mmmh Combien d'ces mecs font comme moi, comme moi, comme moi ? mmmh On frime en Gucci coste-La, coste-La, coste-La, mmmh Ouais j'suis toujours dans mes diezs, mes diezs, toujours dans mes mmmh Et là, ils parlent sur nous après, j'sais qu'ils vont tous mmmh mmmh Pourquoi tu veux faire comme moi, comme moi, comme moi ? mmmh mmmh Laisse, j'ai fait un trou sur l'coste-La, coste-La, coste-La, mmmh J'suis entouré d'vendeurs d'coco Joue avec nous, tu perds comme au loto On t'a tellement piétiné qu'on t'reconnait même plus sur les photos Elle peut t'sucer dans l'auto juste parce que tu lui as pris un cheese au McDo Elle peut t'sucer dans l'auto juste parce que tu lui as pris un cheese au McDo Baby Skefre, no Offset, j'ai couper la 'quette à la machette Et quand j'fais pas d'sous, sa mère j'me déteste La beuh dans mon sac, bien sûr qu'elle empeste J'suis entouré de mecs pas nets, demain j'signe un deal, j'fais plus d'tête-à-tête M'invite pas à ta rée-soi, c'est quasiment sûr qu'j'volerais à ta fête Petit con, ta vie elle s'achète huh J'suis chaud faut que tu le saches huh Le temps passe, on tourne pas la page huh Y a des blessures, j'ai toujours la rage huh Jamais j'aurais pensé qu'j'allais faire mon blé dans la vente de disques Focus sur un problème et si j'réponds pas, j'suis avec Baby Ske Kassos music, c'est pour les zincs Au ballon parce qu'il a chourave un sac Et j'suis parti la voir, j'suis reparti à cinq Rapper, c'est facile comme sur la PS5 Écoute si t'as fauté, assume c'est tout J'me vois bien dans ce gros cavu t'as vu J'me vois bien dans une Bentley Coupe La Fève baby Skefre quand on pull up mmmh Ma chérie essaye d'me joindre mais j'suis dans le block mmmh Combien d'ces mecs font comme moi, comme moi, comme moi ?mmmh On frime en Gucci coste-La, coste-La, coste-La mmmh Ouais j'suis toujours dans mes diezs, mes diezs, toujours dans mes mmmh Et là, ils parlent sur nous après j'sais qu'ils vont mmmh mmmh Pourquoi tu veux faire comme moi, comme moi, comme moi ? mmmh mmmh Laisse, j'ai fait un trou sur l'coste-La, coste-La, coste-La mmmh mmmh La Fève baby Skefre quand on pull up Ouais j'suis toujours dans mes diezs, mes diezs, toujours dans mes... Combien d'ces mecs font comme moi, comme moi, comme moi ? Pourquoi tu veux faire comme moi, comme moi, comme moi ?</t>
+          <t>Pourquoi courir après les gens ? Quand on peut courir après l'argent J'peux niquer mon mood juste en pensant J'peux niquer ta sur juste en rappant Mes paroles sont dures à encaisser Comme devoir ber-tom un jour de l'an Comme s'faire piétiner sur le ciment Ou un nique ta mère ouvertement Et chaque jour, j'cours après l'bénéfice Comme s'il pouvait effacer ma peine Comme s'il pouvait effacer ma hain Comme s'il me f'rait être aimé ds Le Pen Elle a fait vu Eh baby Ske' bientôt tu nous trouves dans tous les coins Marie une feu-meu qui cuisine bien, un gros cul passe mais pas la faim J'fais ça pour manger à ma faim Petit pont, le six a mangé ma feinte Maladie d'argent, il y a pas de vaccin T'as baisé lui hier, pourquoi tu fais la sainte ? Tu t'es attaché chérie, j't'ai laissé, toi t'as pleuré une rivière comme Justin Timberlake Nike pas de Timberland J'me vois à L.A avec une Kimberley J'veux que des sommes à six chiffres Ne fais pas d'chichi, on accepte que les chèques Ma leugue, j'veux mourir comme un chef et voir une liasse quand ma vie s'achève Fuck Gandhi, j'connais pas l'pardon, garçon la guerre a ces qualités, ouais Dans la vie, j'ai fait le bavon mais y a beaucoup de bitches, c'est une réalité La Fève baby Skefre quand on pull up mmmh Ma chérie essaye d'me joindre mais j'suis dans l'block mmmh Combien d'ces mecs font comme moi, comme moi, comme moi ? mmmh On frime en Gucci coste-La, coste-La, coste-La, mmmh Ouais j'suis toujours dans mes diezs, mes diezs, toujours dans mes mmmh Et là, ils parlent sur nous après, j'sais qu'ils vont tous mmmh mmmh Pourquoi tu veux faire comme moi, comme moi, comme moi ? mmmh mmmh Laisse, j'ai fait un trou sur l'coste-La, coste-La, coste-La, mmmh J'suis entouré d'vendeurs d'coco Joue avec nous, tu perds comme au loto On t'a tellement piétiné qu'on t'reconnait même plus sur les photos Elle peut t'sucer dans l'auto juste parce que tu lui as pris un cheese au McDo Elle peut t'sucer dans l'auto juste parce que tu lui as pris un cheese au McDo Baby Skefre, no Offset, j'ai couper la 'quette à la machette Et quand j'fais pas d'sous, sa mère j'me déteste La beuh dans mon sac, bien sûr qu'elle empeste J'suis entouré de mecs pas nets, demain j'signe un deal, j'fais plus d'tête-à-tête M'invite pas à ta rée-soi, c'est quasiment sûr qu'j'volerais à ta fête Petit con, ta vie elle s'achète huh J'suis chaud faut que tu le saches huh Le temps passe, on tourne pas la page huh Y a des blessures, j'ai toujours la rage huh Jamais j'aurais pensé qu'j'allais faire mon blé dans la vente de disques Focus sur un problème et si j'réponds pas, j'suis avec Baby Ske Kassos music, c'est pour les zincs Au ballon parce qu'il a chourave un sac Et j'suis parti la voir, j'suis reparti à cinq Rapper, c'est facile comme sur la PS5 Écoute si t'as fauté, assume c'est tout J'me vois bien dans ce gros cavu t'as vu J'me vois bien dans une Bentley Coupe La Fève baby Skefre quand on pull up mmmh Ma chérie essaye d'me joindre mais j'suis dans le block mmmh Combien d'ces mecs font comme moi, comme moi, comme moi ?mmmh On frime en Gucci coste-La, coste-La, coste-La mmmh Ouais j'suis toujours dans mes diezs, mes diezs, toujours dans mes mmmh Et là, ils parlent sur nous après j'sais qu'ils vont mmmh mmmh Pourquoi tu veux faire comme moi, comme moi, comme moi ? mmmh mmmh Laisse, j'ai fait un trou sur l'coste-La, coste-La, coste-La mmmh mmmh La Fève baby Skefre quand on pull up Ouais j'suis toujours dans mes diezs, mes diezs, toujours dans mes... Combien d'ces mecs font comme moi, comme moi, comme moi ? Pourquoi tu veux faire comme moi, comme moi, comme moi ?</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Merde, quand j'suis né j'étais qu'un lascar paumé La vie était belle, j'm'amusais comme j'pouvais J'trainais dans des ruelles avec des bombes toutes chromées J'pensais à ma life, j'étais seul dans l'tro-mé J'me rappelle quand j'passais mes journées à errer J'graffais des camions mon héros Maintenant c'est fini cette merde, j'suis navré J'pensais qu'j'étais quelqu'un mais tout repart à zéro, ok A l'école j'suis sweet, c'est pas qu'j'aime pas les cours mais j'aime pas être entouré Je n'suis pas la victime, j'suis mon propre bourreau Mes parents comprennent pas qu'La Fève est enfermé Dans une cage, dans ma tête, ça pour l'éternité Si j'dédicace , c'est pour les r'mercier Donc moi j'marche seul seulement quand j'veux pas crever Donc moi j'marche seul seulement quand j'veux pas crever Oh, la vie est terne, la vie est rude J'traine des pieds, j'suis à l'arrêt d'bus J'veux voir ma mort, j'veux m'spoiler la fin J'suis seul dans ma chambre, mes potes disent qu'ils m'voient plus C'est pas qu'j'aime pas le rap, mais j'sais pas quoi en faire Parfois je fume un peu mais j'suis pas sous amphète Donc si j'perce on préparera un grande fête En hommage à la Fève et au roi des-, merde Pour la guerre j'suis paré, j'suis misanthrope car ils sont tous pareils J'suis un corbeau, c'est des vautours Bien sûr que j'ai toujours mon 7 mais des fois faut qu'j'arrête Faut qu'j'arrête de m'parler mal, Les gens croient qu'c'est facile d'blasphémer Tous les jours j'veux la vie d'bohème J'suis la Fève, moi j'fais pas d'poèmes, merde Popo dans la pocket, profite avant qu'La Fève soit un prophète J'suis qu'un névrosé, au fait j'pisse dans les violons car je n'sais plus c'que je profane Je sais plus si j'aime pas ça, plus si c'est l'bazar, donc j'veux des bras cassés Haussmann, Saint-Lazare, dans l', oui je brille quand j'vesqui les placards, je-, merde J'assume mes choix, mes ambitions, merde J'assume mes goûts, mes traditions, hey J'entends du bruit, j'ai la pression, j'ai placé des pièges pour les s'mer, alors traçons Vrais sont mes vers, ouais déter', j'en ai bavé, je suis prioritaire Elle est loin l'époque où j'allais à pied avec pour raser les murs à Nanterre Donc depuis petit, j'ai compris deux trois choses Je n'écoute plus ce que disent les juges Un couteau froid dans la poche de mon sac Je n'écoute plus ce que disent les murs Je n'écoute plus car les armes me dépassent Donc je les ai tracés avant qu'faucheuse m'enterre Je suis déterminé pour les exterminer Si l'un d'eux s'approche du roi des enfers, You might also like</t>
+          <t>Merde, quand j'suis né j'étais qu'un lascar paumé La vie était belle, j'm'amusais comme j'pouvais J'trainais dans des ruelles avec des bombes toutes chromées J'pensais à ma life, j'étais seul dans l'tro-mé J'me rappelle quand j'passais mes journées à errer J'graffais des camions mon héros Maintenant c'est fini cette merde, j'suis navré J'pensais qu'j'étais quelqu'un mais tout repart à zéro, ok A l'école j'suis sweet, c'est pas qu'j'aime pas les cours mais j'aime pas être entouré Je n'suis pas la victime, j'suis mon propre bourreau Mes parents comprennent pas qu'La Fève est enfermé Dans une cage, dans ma tête, ça pour l'éternité Si j'dédicace , c'est pour les r'mercier Donc moi j'marche seul seulement quand j'veux pas crever Donc moi j'marche seul seulement quand j'veux pas crever Oh, la vie est terne, la vie est rude J'traine des pieds, j'suis à l'arrêt d'bus J'veux voir ma mort, j'veux m'spoiler la fin J'suis seul dans ma chambre, mes potes disent qu'ils m'voient plus C'est pas qu'j'aime pas le rap, mais j'sais pas quoi en faire Parfois je fume un peu mais j'suis pas sous amphète Donc si j'perce on préparera un grande fête En hommage à la Fève et au roi des-, merde Pour la guerre j'suis paré, j'suis misanthrope car ils sont tous pareils J'suis un corbeau, c'est des vautours Bien sûr que j'ai toujours mon 7 mais des fois faut qu'j'arrête Faut qu'j'arrête de m'parler mal, Les gens croient qu'c'est facile d'blasphémer Tous les jours j'veux la vie d'bohème J'suis la Fève, moi j'fais pas d'poèmes, merde Popo dans la pocket, profite avant qu'La Fève soit un prophète J'suis qu'un névrosé, au fait j'pisse dans les violons car je n'sais plus c'que je profane Je sais plus si j'aime pas ça, plus si c'est l'bazar, donc j'veux des bras cassés Haussmann, Saint-Lazare, dans l', oui je brille quand j'vesqui les placards, je-, merde J'assume mes choix, mes ambitions, merde J'assume mes goûts, mes traditions, hey J'entends du bruit, j'ai la pression, j'ai placé des pièges pour les s'mer, alors traçons Vrais sont mes vers, ouais déter', j'en ai bavé, je suis prioritaire Elle est loin l'époque où j'allais à pied avec pour raser les murs à Nanterre Donc depuis petit, j'ai compris deux trois choses Je n'écoute plus ce que disent les juges Un couteau froid dans la poche de mon sac Je n'écoute plus ce que disent les murs Je n'écoute plus car les armes me dépassent Donc je les ai tracés avant qu'faucheuse m'enterre Je suis déterminé pour les exterminer Si l'un d'eux s'approche du roi des enfers,</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>4-4-4Matic Yeah, yeah, yeah Jeune à la couleur ébène, j'suis tricar à la dégaine Petit rappeur, je le baise, Murciélago, Merco Benz Jeune à la couleur ébène, bientôt je dis Ça va bene Jeune à la couleur ébène, j'suis tricar à la dégaine Douleurs à la cage thoracique, maman, j'vais ssé-per dans la 'sique Mon négro, j'ai la flamme olympique, moi, j'suis pas touché par un pique J'espère qu'il m'accordera le pardon, rien ne paye sauf le charbon Jeune à la couleur ébène, j'suis tricar à la Je fais en soum-soum, leur vida me saoule-saoule Je me demande pourquoi je cours après les sous-sous Je veux du repos, il faudrait que je souffle-souffle Bien que je souffre-souffre, je regarde le ciel, il est couleur saphir La vie, un safari, yeah Jeune à la couleur ébène, tout le temps je dis Va bene Petit rappeur je le baise, petit rappeur je le baise Ma chérie, pourquoi tu boudes ? Ma chérie, pourquoi tu boudes ? La tape elle est very good la tape elle est very good Y a les couleurs et les goûts, y a les douleurs et les coups Y a les douleurs et les coups, pour les serpents je ressens un dégout Y en a qui dorment dans les égouts, la mort a un bon rendez-vous Est-c'que t'as capté mon trap ? J'vais le faire tu sais déjà Chérie, tu me fais du charme, cur blindé comme le char You might also like Jeune à la couleur ébène, j'suis tricar à la dégaine Petit rappeur, je le baise, Murciélago, Merco Benz Jeune à la couleur ébène, bientôt je dis Ça va bene Jeune à la couleur ébène, j'suis tricar à la dégaine Douleurs à la cage thoracique, maman, j'vais ssé-per dans la 'sique Mon négro, j'ai la flamme olympique, moi, j'suis pas touché par un pique J'espère qu'il m'accordera le pardon, rien ne paye sauf le charbon Jeune à la couleur ébène, j'suis tricar à la dégaine</t>
+          <t>4-4-4Matic Yeah, yeah, yeah Jeune à la couleur ébène, j'suis tricar à la dégaine Petit rappeur, je le baise, Murciélago, Merco Benz Jeune à la couleur ébène, bientôt je dis Ça va bene Jeune à la couleur ébène, j'suis tricar à la dégaine Douleurs à la cage thoracique, maman, j'vais ssé-per dans la 'sique Mon négro, j'ai la flamme olympique, moi, j'suis pas touché par un pique J'espère qu'il m'accordera le pardon, rien ne paye sauf le charbon Jeune à la couleur ébène, j'suis tricar à la Je fais en soum-soum, leur vida me saoule-saoule Je me demande pourquoi je cours après les sous-sous Je veux du repos, il faudrait que je souffle-souffle Bien que je souffre-souffre, je regarde le ciel, il est couleur saphir La vie, un safari, yeah Jeune à la couleur ébène, tout le temps je dis Va bene Petit rappeur je le baise, petit rappeur je le baise Ma chérie, pourquoi tu boudes ? Ma chérie, pourquoi tu boudes ? La tape elle est very good la tape elle est very good Y a les couleurs et les goûts, y a les douleurs et les coups Y a les douleurs et les coups, pour les serpents je ressens un dégout Y en a qui dorment dans les égouts, la mort a un bon rendez-vous Est-c'que t'as capté mon trap ? J'vais le faire tu sais déjà Chérie, tu me fais du charme, cur blindé comme le char Jeune à la couleur ébène, j'suis tricar à la dégaine Petit rappeur, je le baise, Murciélago, Merco Benz Jeune à la couleur ébène, bientôt je dis Ça va bene Jeune à la couleur ébène, j'suis tricar à la dégaine Douleurs à la cage thoracique, maman, j'vais ssé-per dans la 'sique Mon négro, j'ai la flamme olympique, moi, j'suis pas touché par un pique J'espère qu'il m'accordera le pardon, rien ne paye sauf le charbon Jeune à la couleur ébène, j'suis tricar à la dégaine</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Trop paro gros j'ai les yeux couleur fil T'es un p'tit prend moi une canette vas-y file Dans ma tête y'a v'la les images qui défilent Si tu vois la vie en rose tu t'fais des films Gros j'suis unique me compare pas à tes rappeurs C'est des serpents donc eux et moi j'vois pas l'rapport Gros c'est la paresse on remet tout à demain J'espère qu'on s'trompe pas quand on s'dit à demain Dans l'futur j'vois mon commerce qui bat de l'aile On prépar le projet d'l'année mon frèr c'est pas des lol C'est pas des lol, donc quand j'te l'dis tu fais l'choqué Faut plus de ronds si tu veux La Fève en showcase Pas d'amour donc fuck un dimanche à Bamako Faire des courbatures pour 1200 moi j'suis pas d'accord J'ai mal au pied comme si j'avais fait Paris-Dakar Jolie somme, c'est la même mission d'ici à Madagascar Tu comprends pas tout c'que tu vois ça met KOLAF dans la ture-voi J'flex avec ta chica toi tu grattes pour ta dédicace Frère j'suis sur la A4 ya Dundy qui pilotent le bolides Toi t'as parlé sur moi mais devant moi t'es resté poli Diamant sur ma chaine, Judas qui nous cherche Frère ne parle pas trop rajoute des zéros sur le chèque Gros j'ai pas assez pour un quet-pa donc j'ai trop le démon Gros derrière la night t'as vu l'espion quand j'sortais d'la pénombre You might also like Trop paro gros j'ai les yeux couleur fil T'es un p'tit prend moi une canette vas-y file Dans ma tête y'a v'la les images qui défilent Si tu vois la vie en rose tu t'fais des films Gros j'suis unique me compare pas à tes rappeurs C'est des serpents donc eux et moi j'vois pas l'rapport Gros c'est la paresse on remet tout à demain J'espère qu'on s'trompe pas quand on s'dit à demain</t>
+          <t>Trop paro gros j'ai les yeux couleur fil T'es un p'tit prend moi une canette vas-y file Dans ma tête y'a v'la les images qui défilent Si tu vois la vie en rose tu t'fais des films Gros j'suis unique me compare pas à tes rappeurs C'est des serpents donc eux et moi j'vois pas l'rapport Gros c'est la paresse on remet tout à demain J'espère qu'on s'trompe pas quand on s'dit à demain Dans l'futur j'vois mon commerce qui bat de l'aile On prépar le projet d'l'année mon frèr c'est pas des lol C'est pas des lol, donc quand j'te l'dis tu fais l'choqué Faut plus de ronds si tu veux La Fève en showcase Pas d'amour donc fuck un dimanche à Bamako Faire des courbatures pour 1200 moi j'suis pas d'accord J'ai mal au pied comme si j'avais fait Paris-Dakar Jolie somme, c'est la même mission d'ici à Madagascar Tu comprends pas tout c'que tu vois ça met KOLAF dans la ture-voi J'flex avec ta chica toi tu grattes pour ta dédicace Frère j'suis sur la A4 ya Dundy qui pilotent le bolides Toi t'as parlé sur moi mais devant moi t'es resté poli Diamant sur ma chaine, Judas qui nous cherche Frère ne parle pas trop rajoute des zéros sur le chèque Gros j'ai pas assez pour un quet-pa donc j'ai trop le démon Gros derrière la night t'as vu l'espion quand j'sortais d'la pénombre Trop paro gros j'ai les yeux couleur fil T'es un p'tit prend moi une canette vas-y file Dans ma tête y'a v'la les images qui défilent Si tu vois la vie en rose tu t'fais des films Gros j'suis unique me compare pas à tes rappeurs C'est des serpents donc eux et moi j'vois pas l'rapport Gros c'est la paresse on remet tout à demain J'espère qu'on s'trompe pas quand on s'dit à demain</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Yeah Chérie, j'suis maudit là, s'te-plaît, ne commence pas Oh, M4tic Yeah Là, j'dois fuir en douce, j'suis toujours en retard à la mission Mission Mon G j'ai la musique, quand t'écoutes, ça t'donne des frissons Frissons J'reste avec mes bisons, tu sais pas je fais ça comment Je fais ça comment S'te-plait chérie, commence pas, là, j'ai le seum de c'qu'ils ont Yes sir Ouais, s'te-plaît, commence pas, pas J'ai les nerfs à vif, j'ai les nerfs à vif j'kicke la prod' et j'me sens comm Badr Hari Badr Hari J'ai changé, j'ai la sauce Sauce, j'ai mélangé Mélangé Étranger, là j'm sens, sens comme cramé à vie, yeah Big boy life, Cadillac 'llac, j'meurs si j'lack Lack Toi, t'as cru qu'on faisait des blagues Blagues, là j'suis back Back Il faudrait secure le bag Bag, marier une bad gyal Ça dit quoi mon 'sin ? j'dis à-l, j'fume la Cal' Cal' Là, je trap avec mes salauds Salauds, laisse un message Laisse un message J'sais pas pourquoi la gadji 'dji, elle fait la sotte Elle fait la sotte J'ai des pensées négatives 'tives, c'est relatif C'est relatif Je suis pas trop fanatique Yeah, j'ai pas ton âge Âge, yeah Racks now, faut empiler Faut empiler, public rap FR, j'vais les guider J'vais les guider Tu sais qu'on l'a fait par nécessité Tu sais qu'on l'a fait par nécessité J'sais pas d'où ça vient, j'ai v'là les idées Yeah, let's go Marche à pas d'heure dans la ville de l'amour De l'amour T'as flow ancien, blocage, faut flow glamour Glamour Et quand j'y pense, j'ai versé des larmes Et quand j'y pense, j'ai versé des larmes Tu sais, on navigue mais t'es cramé Yeah, yeah You might also like Là, j'dois fuir en douce, j'suis toujours en retard à la mission Mission Mon G j'ai la musique, quand t'écoutes, ça t'donne des frissons Frissons J'reste avec mes bisons, tu sais pas je fais ça comment Je fais ça comment S'te-plait chérie, commence pas, là, j'ai le seum de c'qu'ils ont Yes sir Ouais, s'te-plaît, commence pas, pas J'ai les nerfs à vif, j'ai les nerfs à vif j'kicke la prod' et j'me sens comme Badr Hari Badr Hari J'ai changé, j'ai la sauce Sauce, j'ai mélangé Mélangé Étranger, là j'me sens, sens comme cramé à vie Oh, M4tic</t>
+          <t>Yeah Chérie, j'suis maudit là, s'te-plaît, ne commence pas Oh, M4tic Yeah Là, j'dois fuir en douce, j'suis toujours en retard à la mission Mission Mon G j'ai la musique, quand t'écoutes, ça t'donne des frissons Frissons J'reste avec mes bisons, tu sais pas je fais ça comment Je fais ça comment S'te-plait chérie, commence pas, là, j'ai le seum de c'qu'ils ont Yes sir Ouais, s'te-plaît, commence pas, pas J'ai les nerfs à vif, j'ai les nerfs à vif j'kicke la prod' et j'me sens comm Badr Hari Badr Hari J'ai changé, j'ai la sauce Sauce, j'ai mélangé Mélangé Étranger, là j'm sens, sens comme cramé à vie, yeah Big boy life, Cadillac 'llac, j'meurs si j'lack Lack Toi, t'as cru qu'on faisait des blagues Blagues, là j'suis back Back Il faudrait secure le bag Bag, marier une bad gyal Ça dit quoi mon 'sin ? j'dis à-l, j'fume la Cal' Cal' Là, je trap avec mes salauds Salauds, laisse un message Laisse un message J'sais pas pourquoi la gadji 'dji, elle fait la sotte Elle fait la sotte J'ai des pensées négatives 'tives, c'est relatif C'est relatif Je suis pas trop fanatique Yeah, j'ai pas ton âge Âge, yeah Racks now, faut empiler Faut empiler, public rap FR, j'vais les guider J'vais les guider Tu sais qu'on l'a fait par nécessité Tu sais qu'on l'a fait par nécessité J'sais pas d'où ça vient, j'ai v'là les idées Yeah, let's go Marche à pas d'heure dans la ville de l'amour De l'amour T'as flow ancien, blocage, faut flow glamour Glamour Et quand j'y pense, j'ai versé des larmes Et quand j'y pense, j'ai versé des larmes Tu sais, on navigue mais t'es cramé Yeah, yeah Là, j'dois fuir en douce, j'suis toujours en retard à la mission Mission Mon G j'ai la musique, quand t'écoutes, ça t'donne des frissons Frissons J'reste avec mes bisons, tu sais pas je fais ça comment Je fais ça comment S'te-plait chérie, commence pas, là, j'ai le seum de c'qu'ils ont Yes sir Ouais, s'te-plaît, commence pas, pas J'ai les nerfs à vif, j'ai les nerfs à vif j'kicke la prod' et j'me sens comme Badr Hari Badr Hari J'ai changé, j'ai la sauce Sauce, j'ai mélangé Mélangé Étranger, là j'me sens, sens comme cramé à vie Oh, M4tic</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Yeah Yeah Dis-moi tu parles à qui ? On est douze dans ma tête Ça peut t'trouver vite si tu rembourses pas ta dette Pensif, j'ai fait deux-trois fois le tour de la tess, j'ai toujours les mêmes images en boucle dans ma tête Okay Faut qu'j'trouve de quoi chasser les images sombres dans ma tête Okay Faut qu'j'trouve de quoi chasser les images sombres dans ma- Sombres dans ma- Autour de moi y a pas d'paix que d'la violence C fils de pute veut m'palpr, il est trop lent Yeah J'dois m'faire comprendre, c'est pour ça qu'j'suis insolent Yeah À part La Fève, dans ma vie, rien d'impressionnant J'suis une erreur de calcul, il faut pas qu'j'me perde, il faut qu'j'reste dans ma bulle Il pleut dehors là, j'bédave sous la capuche, j'reste qu'entre crapules J'ai perdu trop d'temps donc maintenant j'm'arrête plus Dis-moi tu parles à qui ? On est douze dans ma tête Ça peut t'trouver vite si tu rembourses pas ta dette Pensif, j'ai fait deux-trois fois le tour de la tess, j'ai toujours les mêmes images en boucle dans ma tête Faut qu'j'trouve de quoi chasser les images sombres dans ma tête Okay You might also like Pas d'baddie, pas d'Cali', j'ai dû quitter la fête Okay Je n'avais même pas d'rêve à part vider la caisse Caisse Il fallait qu'j'me fasse comprendre, j'ai dû viser la tête Okay Quel putain d'drôle de parcours, j'vois ma tête partout Tu veux jouer ? Y a pas d'soucis, cette trap life, y a pas d'raccourci J'fais confiance à moi même, ils sont tous à l'ouest Y a personne qui peut m'faire car bulletproof est ma veste Dis-moi tu parles à qui ? Ils sont douze dans ma tête Douze dans ma- Ils sont douze dans ma tête Ça peut t'trouver vite si tu rembourses pas ta dette Rembourses pas ta dette, yeah Yeah, yeah, yeah Rembourse pas ta dette Pensif, j'ai fait deux-trois fois le tour de la tess Tour de ma- J'ai toujours les mêmes images en boucle dans ma tête En boucle dans ma- Faut qu'j'trouve de quoi chasser les pensées sombres dans ma tête Faut qu'j'trouve de quoi cha- Faut qu'j'trouve de quoi chasser les pensées sombres dans ma- Sombres dans ma-</t>
+          <t>Yeah Yeah Dis-moi tu parles à qui ? On est douze dans ma tête Ça peut t'trouver vite si tu rembourses pas ta dette Pensif, j'ai fait deux-trois fois le tour de la tess, j'ai toujours les mêmes images en boucle dans ma tête Okay Faut qu'j'trouve de quoi chasser les images sombres dans ma tête Okay Faut qu'j'trouve de quoi chasser les images sombres dans ma- Sombres dans ma- Autour de moi y a pas d'paix que d'la violence C fils de pute veut m'palpr, il est trop lent Yeah J'dois m'faire comprendre, c'est pour ça qu'j'suis insolent Yeah À part La Fève, dans ma vie, rien d'impressionnant J'suis une erreur de calcul, il faut pas qu'j'me perde, il faut qu'j'reste dans ma bulle Il pleut dehors là, j'bédave sous la capuche, j'reste qu'entre crapules J'ai perdu trop d'temps donc maintenant j'm'arrête plus Dis-moi tu parles à qui ? On est douze dans ma tête Ça peut t'trouver vite si tu rembourses pas ta dette Pensif, j'ai fait deux-trois fois le tour de la tess, j'ai toujours les mêmes images en boucle dans ma tête Faut qu'j'trouve de quoi chasser les images sombres dans ma tête Okay Pas d'baddie, pas d'Cali', j'ai dû quitter la fête Okay Je n'avais même pas d'rêve à part vider la caisse Caisse Il fallait qu'j'me fasse comprendre, j'ai dû viser la tête Okay Quel putain d'drôle de parcours, j'vois ma tête partout Tu veux jouer ? Y a pas d'soucis, cette trap life, y a pas d'raccourci J'fais confiance à moi même, ils sont tous à l'ouest Y a personne qui peut m'faire car bulletproof est ma veste Dis-moi tu parles à qui ? Ils sont douze dans ma tête Douze dans ma- Ils sont douze dans ma tête Ça peut t'trouver vite si tu rembourses pas ta dette Rembourses pas ta dette, yeah Yeah, yeah, yeah Rembourse pas ta dette Pensif, j'ai fait deux-trois fois le tour de la tess Tour de ma- J'ai toujours les mêmes images en boucle dans ma tête En boucle dans ma- Faut qu'j'trouve de quoi chasser les pensées sombres dans ma tête Faut qu'j'trouve de quoi cha- Faut qu'j'trouve de quoi chasser les pensées sombres dans ma- Sombres dans ma-</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J'suis v'nu au monde j'ai fais des dégâts dégâts J'suis v'nu au monde j'ai fais des dégâts dégâts Est-ce que tu vois l'énergie qu'on dégage Est-ce que tu vois l'énergie qu'on dégage La fève en bande organisée Posé là haut comme la NASA Je ne suis pas dans l'engrenage Et je met le paquet dans la masse ??? Ça dit quoi masta J'suis un jeune donc tout le temps j'ai le meuseu Bientôt on dit la fève c'est un monsieur Attends mets un pu de mousseux Dans le r-ve pour que je le lève Y se passe quoi quand une âme s'éleve? Mon plus grand défaut c'est les loves Frérot j'ai le démon, la fève il veut témon, la fève il veut pop Je pense à ça et les minutes passent passent Frérot j'ai le démon, la fève il veut témon, la fève il veut pop Je pense à ça et les minutes passent passent J'suis v'nu au monde j'ai fais des dégâts dégâts J'suis v'nu au monde j'ai fais des dégâts dégâts Est-ce que tu vois l'énergie qu'on dégage Est-ce que tu vois l'énergie qu'on dégage La fève en bande organisée Posé là haut comme la NASA Je ne suis pas dans l'engrenage Et je met le paquet dans la masse You might also likeJ'suis v'nu au monde j'ai fais des dégâts dégâts J'suis v'nu au monde j'ai fais des dégâts dégâts Est-ce que tu vois l'énergie qu'on dégage Est-ce que tu vois l'énergie qu'on dégage J'suis v'nu au monde j'ai fais des dégâts dégâts J'suis v'nu au monde j'ai fais des dégâts dégâts Est-ce que tu vois l'énergie qu'on dégage Est-ce que tu vois l'énergie qu'on dégage Frère les étoiles elles me guident La vie c'est un vélo sans guidon C'est petit merdier que nous vivons On écrit ça et le coeur nous vidons Est-ce que l'argent ça me rassasiera Est ce que Le problème je l'ai saisi Je veux l'appartement dans le XVI La réponse c'est le ciel qui le sait Je suis né j'voulais déjà shyne Brisé le poids de mes chaines Tout le temps LaF il a la shame Dans l'studio je fais d'la chimie Est-ce que t'as capté l'alchimie Gros mon phrasé a du charme Il n'y a pas de serpents chez moi J'les connais ils veulent t'écarter du chemin J'suis v'nu au monde j'ai fais des dégâts dégâts J'suis v'nu au monde j'ai fais des dégâts dégâts Est-ce que tu vois l'énergie qu'on dégage Est-ce que tu vois l'énergie qu'on dégage La fève en bande organisée Posé là haut comme la NASA Je ne suis pas dans l'engrenage Et je met le paquet dans la masse</t>
+          <t>J'suis v'nu au monde j'ai fais des dégâts dégâts J'suis v'nu au monde j'ai fais des dégâts dégâts Est-ce que tu vois l'énergie qu'on dégage Est-ce que tu vois l'énergie qu'on dégage La fève en bande organisée Posé là haut comme la NASA Je ne suis pas dans l'engrenage Et je met le paquet dans la masse ??? Ça dit quoi masta J'suis un jeune donc tout le temps j'ai le meuseu Bientôt on dit la fève c'est un monsieur Attends mets un pu de mousseux Dans le r-ve pour que je le lève Y se passe quoi quand une âme s'éleve? Mon plus grand défaut c'est les loves Frérot j'ai le démon, la fève il veut témon, la fève il veut pop Je pense à ça et les minutes passent passent Frérot j'ai le démon, la fève il veut témon, la fève il veut pop Je pense à ça et les minutes passent passent J'suis v'nu au monde j'ai fais des dégâts dégâts J'suis v'nu au monde j'ai fais des dégâts dégâts Est-ce que tu vois l'énergie qu'on dégage Est-ce que tu vois l'énergie qu'on dégage La fève en bande organisée Posé là haut comme la NASA Je ne suis pas dans l'engrenage Et je met le paquet dans la masse J'suis v'nu au monde j'ai fais des dégâts dégâts J'suis v'nu au monde j'ai fais des dégâts dégâts Est-ce que tu vois l'énergie qu'on dégage Est-ce que tu vois l'énergie qu'on dégage J'suis v'nu au monde j'ai fais des dégâts dégâts J'suis v'nu au monde j'ai fais des dégâts dégâts Est-ce que tu vois l'énergie qu'on dégage Est-ce que tu vois l'énergie qu'on dégage Frère les étoiles elles me guident La vie c'est un vélo sans guidon C'est petit merdier que nous vivons On écrit ça et le coeur nous vidons Est-ce que l'argent ça me rassasiera Est ce que Le problème je l'ai saisi Je veux l'appartement dans le XVI La réponse c'est le ciel qui le sait Je suis né j'voulais déjà shyne Brisé le poids de mes chaines Tout le temps LaF il a la shame Dans l'studio je fais d'la chimie Est-ce que t'as capté l'alchimie Gros mon phrasé a du charme Il n'y a pas de serpents chez moi J'les connais ils veulent t'écarter du chemin J'suis v'nu au monde j'ai fais des dégâts dégâts J'suis v'nu au monde j'ai fais des dégâts dégâts Est-ce que tu vois l'énergie qu'on dégage Est-ce que tu vois l'énergie qu'on dégage La fève en bande organisée Posé là haut comme la NASA Je ne suis pas dans l'engrenage Et je met le paquet dans la masse</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah ERRR Laisse, ma vie, c'est un gage, big liasses, j'reste focus sur ma shit Tchop Tchop, pas d'bombastick, un traître c'est classique Une fille bien, une fille facile, j'ai pas trop d'serpents sur ma SIM Concurrence, c'est trop basique, c'est qu'une trace de plus sous ma Asics Fais Fais d'l'argent comme si c'était magique, j'sais qu'ma vision, il faut l'élargir On arrive comme la gifle, dans le stud', je science ma 'sique J'suis sad là, j'veux qu'une gadji me zouke L'autre m'a saoulé, il voulait voir Vesoul, des animaux, je vis dans un zoo Brr, zoo, mon reuf Mon reuf Mon reuf, mon reuf, c'est la même, ERRR day Impliqué dans cette course au gouap, j'y pense même le jour de mon birthday Birthday Même le jour de mon anniv', trop dans l'brouillard, j'sais pas j'ai quel âge Avec eux, j'ai comme un décalage, une vengeance, un concert de Kalash' De Kalash', de Kalash' Kin', 2.4.3, la vie c'est une jungle donc j'reste adroit, j'te connais pas trop toi donc reste à droite Bâtard, j'connais mes droits, j'suis tranquille, j'sais que le ciel m'aidera Milli', on verra, c'est des sangsues, des rats ERRR La vie, c'est bizarre, la vie, c'est che-lou Pourquoi tout l'temps l'diable fait des yeux doux? cette go a trop d'poux sur les genoux sous Brésil, ra-ta-ta, coup d'te-tê de Basil Bouge ton qwer, vas-y, ma 'sine assis, j'cogite sur ma vie, ma vie You might also like Big, big liasses, j'reste focus sur ma shit Tchop Tchop, pas d'bombastick, un traître c'est classique Une fille bien, une fille facile, j'ai pas trop d'serpents sur ma SIM Concurrence, c'est trop basique, c'est qu'une trace de plus sous ma Asics Fais d'l'argent comme si c'était magique, j'sais qu'ma vision, il faut l'élargir On arrive comme la gifle, dans le stud', je science ma 'sique J'suis sad là, j'veux qu'une gadji me zouke L'autre m'a saoulé, il voulait voir Vesoul, des animaux, je vis dans un zoo Yeah, yeah, yeah, zoo, mon reuf</t>
+          <t>Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah ERRR Laisse, ma vie, c'est un gage, big liasses, j'reste focus sur ma shit Tchop Tchop, pas d'bombastick, un traître c'est classique Une fille bien, une fille facile, j'ai pas trop d'serpents sur ma SIM Concurrence, c'est trop basique, c'est qu'une trace de plus sous ma Asics Fais Fais d'l'argent comme si c'était magique, j'sais qu'ma vision, il faut l'élargir On arrive comme la gifle, dans le stud', je science ma 'sique J'suis sad là, j'veux qu'une gadji me zouke L'autre m'a saoulé, il voulait voir Vesoul, des animaux, je vis dans un zoo Brr, zoo, mon reuf Mon reuf Mon reuf, mon reuf, c'est la même, ERRR day Impliqué dans cette course au gouap, j'y pense même le jour de mon birthday Birthday Même le jour de mon anniv', trop dans l'brouillard, j'sais pas j'ai quel âge Avec eux, j'ai comme un décalage, une vengeance, un concert de Kalash' De Kalash', de Kalash' Kin', 2.4.3, la vie c'est une jungle donc j'reste adroit, j'te connais pas trop toi donc reste à droite Bâtard, j'connais mes droits, j'suis tranquille, j'sais que le ciel m'aidera Milli', on verra, c'est des sangsues, des rats ERRR La vie, c'est bizarre, la vie, c'est che-lou Pourquoi tout l'temps l'diable fait des yeux doux? cette go a trop d'poux sur les genoux sous Brésil, ra-ta-ta, coup d'te-tê de Basil Bouge ton qwer, vas-y, ma 'sine assis, j'cogite sur ma vie, ma vie Big, big liasses, j'reste focus sur ma shit Tchop Tchop, pas d'bombastick, un traître c'est classique Une fille bien, une fille facile, j'ai pas trop d'serpents sur ma SIM Concurrence, c'est trop basique, c'est qu'une trace de plus sous ma Asics Fais d'l'argent comme si c'était magique, j'sais qu'ma vision, il faut l'élargir On arrive comme la gifle, dans le stud', je science ma 'sique J'suis sad là, j'veux qu'une gadji me zouke L'autre m'a saoulé, il voulait voir Vesoul, des animaux, je vis dans un zoo Yeah, yeah, yeah, zoo, mon reuf</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Yeah Yeah, yeah Yeah, yeah J'me sens pas bien, j'vais m'isoler J'me sens pas bien, j'vais m'isoler J'ai fait ça et j'ai pas réfléchi Pas réfléchi Maintenant, j'y pense, j'suis désolé Maintenant, j'y pense, j'suis désolé, maintenant, j'y pense, j'suis désolé, yeah J'me sens pas bien, j'vais m'isoler J'me sens pas bien, j'vais m'isoler J'ai fait ça et j'ai pas réfléchi Pas réfléchi Maintenant, j'y pense, j'suis désolé Maintenant, j'y pense, j'suis désolé, maintenant, j'y pense, j'suis désolé, yah J'dis Maman, facture no more, jamais on n'oubliera nos morts J'dis Maman, factur no more, jamais on n'oubliera nos morts 20-21, faut faire belek Belek, on devient riches, y a eu un délais Eh Toi, parle de mon sang, on te delete Eh, je réfléchis à tout c'qui m'élève J'me sens pas bien, j'mets sur papier les vers, sur l'ordinateur, Ninety met la reverb Ouh Là, j'suis maudit, j'vais m'isoler M'isoler, mon G, pourquoi tu t'affoles ? Pourquoi tu t'affoles ? Petite bitch, fais pas ta folle Petite bitch, fais pas ta folle On est là, on est partis de rien Partis de rien Avant, j'pouvais aller vendre mon rein pour recevoir quelques gouttes d'amour, hein Cette go me parle, tu crois que j'l'aimais elle ? On m'écoute de Bériz à MTL Je fais some trap shit avec M.E.L, appelle-moi Fève la , appelle-moi le L You might also like J'me sens pas bien là, pas bien là, ma le-gueu, y a ce détail qui m'interpella J'ai des visions de ma bella, là je fais du sale et j'envoie l'a cappella L'a cappella J'dis Maman, facture plus jamais, nouvelles sonorités j'amène Move Laf y découpe comme en lamelle en lamelle, veux beaucoup d'liquide comme à la mer ERRR, eh Eh J'ai fait ça et j'ai pas réfléchi Pas réfléchi Maintenant, j'y pense, j'suis désolé Maintenant, j'y pense, j'suis désolé, maintenant, j'y pense, j'suis désolé, yeah J'me sens pas bien, j'vais m'isoler J'me sens pas bien, j'vais m'isoler J'ai fait ça et j'ai pas réfléchi Pas réfléchi Maintenant, j'y pense, j'suis désolé Maintenant, j'y pense, j'suis désolé, maintenant, j'y pense, j'suis désolé J'dis Maman, facture no more, jamais on n'oubliera nos morts J'dis Maman, facture no more, jamais on n'oubliera nos morts J'me sens pas bien, j'vais m'isoler J'me sens pas bien, j'vais m'isoler J'ai fait ça et j'ai pas réfléchi Pas réfléchi Maintenant, j'y pense, j'suis désolé Maintenant, j'y pense, j'suis désolé, maintenant, j'y pense, j'suis désolé, yeah</t>
+          <t>Yeah Yeah, yeah Yeah, yeah J'me sens pas bien, j'vais m'isoler J'me sens pas bien, j'vais m'isoler J'ai fait ça et j'ai pas réfléchi Pas réfléchi Maintenant, j'y pense, j'suis désolé Maintenant, j'y pense, j'suis désolé, maintenant, j'y pense, j'suis désolé, yeah J'me sens pas bien, j'vais m'isoler J'me sens pas bien, j'vais m'isoler J'ai fait ça et j'ai pas réfléchi Pas réfléchi Maintenant, j'y pense, j'suis désolé Maintenant, j'y pense, j'suis désolé, maintenant, j'y pense, j'suis désolé, yah J'dis Maman, facture no more, jamais on n'oubliera nos morts J'dis Maman, factur no more, jamais on n'oubliera nos morts 20-21, faut faire belek Belek, on devient riches, y a eu un délais Eh Toi, parle de mon sang, on te delete Eh, je réfléchis à tout c'qui m'élève J'me sens pas bien, j'mets sur papier les vers, sur l'ordinateur, Ninety met la reverb Ouh Là, j'suis maudit, j'vais m'isoler M'isoler, mon G, pourquoi tu t'affoles ? Pourquoi tu t'affoles ? Petite bitch, fais pas ta folle Petite bitch, fais pas ta folle On est là, on est partis de rien Partis de rien Avant, j'pouvais aller vendre mon rein pour recevoir quelques gouttes d'amour, hein Cette go me parle, tu crois que j'l'aimais elle ? On m'écoute de Bériz à MTL Je fais some trap shit avec M.E.L, appelle-moi Fève la , appelle-moi le L J'me sens pas bien là, pas bien là, ma le-gueu, y a ce détail qui m'interpella J'ai des visions de ma bella, là je fais du sale et j'envoie l'a cappella L'a cappella J'dis Maman, facture plus jamais, nouvelles sonorités j'amène Move Laf y découpe comme en lamelle en lamelle, veux beaucoup d'liquide comme à la mer ERRR, eh Eh J'ai fait ça et j'ai pas réfléchi Pas réfléchi Maintenant, j'y pense, j'suis désolé Maintenant, j'y pense, j'suis désolé, maintenant, j'y pense, j'suis désolé, yeah J'me sens pas bien, j'vais m'isoler J'me sens pas bien, j'vais m'isoler J'ai fait ça et j'ai pas réfléchi Pas réfléchi Maintenant, j'y pense, j'suis désolé Maintenant, j'y pense, j'suis désolé, maintenant, j'y pense, j'suis désolé J'dis Maman, facture no more, jamais on n'oubliera nos morts J'dis Maman, facture no more, jamais on n'oubliera nos morts J'me sens pas bien, j'vais m'isoler J'me sens pas bien, j'vais m'isoler J'ai fait ça et j'ai pas réfléchi Pas réfléchi Maintenant, j'y pense, j'suis désolé Maintenant, j'y pense, j'suis désolé, maintenant, j'y pense, j'suis désolé, yeah</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Yeah Yeah Han, poto j'ai le démon On est les plus forts on le démontre Combien de collines on a té-mon ? Yeah, comme un samouraï dans l'temple J'parle et y a personne qu'entend C'était pas meilleur dans l'temps, yeah J'ai l'flow magique La Fève son rap il est imagé J'suis comme une machine, combien de MC on a mâché han LAF Machiavelli, l'énergie des gens c'est un délire Quand il rap c'est un délice Ça smoke, y a pas l'temps d'atterrir Yeah, j'fais mes diez, c'est pas ton dos Yo, tu m'prends la tête, prends-la à d'autres Yeah, j'suis dans mes diez, poto ça fait des lustres Tout pour ce papier, le faire avant le déluge Han, j'fais mes diez, c'est pas ton dos Yeah, tu m'prends la tête, prends-la à d'autres Yeah, j'suis dans mes diez, poto ça fait des lustres Tout pour ce papier, le faire avant le déluge You might also like Yes, Ok, si j'te bats c'est à plat d'couture Au poignet j'veux quatre montures J'ai l'équipe en cas d'coup dur J'tire sur le biz avec mes équipiers, mes nakamas On est dans cette merde jusqu'à pas d'heure donc mon ami je ne vois pas le tin-ma Jeune espion 'vec le teint mate Mêmes saisons, les mêmes thèmes En équipe à Rotterdam Mon pote tous les jours fuck un gendarme Déterminé comme jamais La Fève marche seul tout dans la calle J'rap si la mélodie j'aime Jeune fou veut rider la Porche Cayenne J'suis dans mes diez, c'est pas ton dos Yeah, tu m'prends la tête, prends-la à d'autres Yeah, J'suis dans mes diez pote ça fait des lustres Tout pour ce papier, le faire avant le déluge</t>
+          <t>Yeah Yeah Han, poto j'ai le démon On est les plus forts on le démontre Combien de collines on a té-mon ? Yeah, comme un samouraï dans l'temple J'parle et y a personne qu'entend C'était pas meilleur dans l'temps, yeah J'ai l'flow magique La Fève son rap il est imagé J'suis comme une machine, combien de MC on a mâché han LAF Machiavelli, l'énergie des gens c'est un délire Quand il rap c'est un délice Ça smoke, y a pas l'temps d'atterrir Yeah, j'fais mes diez, c'est pas ton dos Yo, tu m'prends la tête, prends-la à d'autres Yeah, j'suis dans mes diez, poto ça fait des lustres Tout pour ce papier, le faire avant le déluge Han, j'fais mes diez, c'est pas ton dos Yeah, tu m'prends la tête, prends-la à d'autres Yeah, j'suis dans mes diez, poto ça fait des lustres Tout pour ce papier, le faire avant le déluge Yes, Ok, si j'te bats c'est à plat d'couture Au poignet j'veux quatre montures J'ai l'équipe en cas d'coup dur J'tire sur le biz avec mes équipiers, mes nakamas On est dans cette merde jusqu'à pas d'heure donc mon ami je ne vois pas le tin-ma Jeune espion 'vec le teint mate Mêmes saisons, les mêmes thèmes En équipe à Rotterdam Mon pote tous les jours fuck un gendarme Déterminé comme jamais La Fève marche seul tout dans la calle J'rap si la mélodie j'aime Jeune fou veut rider la Porche Cayenne J'suis dans mes diez, c'est pas ton dos Yeah, tu m'prends la tête, prends-la à d'autres Yeah, J'suis dans mes diez pote ça fait des lustres Tout pour ce papier, le faire avant le déluge</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>J'ai besoin d'faire des achats pour oublier mes peines j'arrête pas d'faire du shopping Bah ouais faut du blé et délier les chaînes ouais, ouais, ouais Que des gros chèques la banquière faut qu'j'la choque faut des tals, faut des tals, faut du biff Faire rentrer des sommes pour éviter l'échec bah ouais En moi la mort mais c'est banal en moi la mort mais c'est banal Mon cur ressemble à l'hiver au Canada il est froid et sombre comme le blizzard J'ressens plus grand chose à caus de l'homme J'repnse au beau temps où j'pensais pas à ça Maintenant j'fais des lobs comme si j'étais Alaba Oh woah, Yeah J'ressens plus grand chose à cause de l'homme Tout le temps les pieds dans un dilemme Couplet intense comme la douleur Oh woah, Yeah J'ressens plus grand chose à cause de l'homme Tout le temps les pieds dans un dilemme Couplet intense comme la douleur Oh, woah, oh, woah Everyday, j'pense à des racks Oh, woah, oh, woah Dans mes rêves, j'repasse des liasses You might also like Eh Belle vision, comment doit je faire pour la réaliser ? wow Ca part en vacs que dans les pays où c'est dépénalisé J'fais qu'analyser milliard de chaines pour nous canaliser Mate la canine Sens-tu ma faim ? yeah J'essaye de garder la foi Plusieurs problèmes à la fois Sur moi la foudre qui tombe La Fève tu peux pas l'avoir Avec Edge, ça va payer De quoi nourrir nos pupilles Nourrir nos pupilles Xénon phares, ouverture papillon En moi la mort mais c'est banal en moi la mort mais c'est banal Mon cur ressemble à l'hiver au Canada brr J'ressens plus grand chose à cause de l'homme J'repense au beau temps où j'pensais pas à ça Maintenant j'fais des lobs comme si j'étais Alaba Oh woah, Yeah J'ressens plus grand chose à cause de l'homme Tout le temps les pieds dans un dilemme Couplet intense comme la douleur Oh woah, Yeah J'ressens plus grand chose à cause de l'homme Tout le temps les pieds dans l'même dilemme Couplet intense comme la douleur Oh woah, oh woah Everyday j'pense à des racks Oh woah, oh woah Dans mes rêves j'repasse des liasses1</t>
+          <t>J'ai besoin d'faire des achats pour oublier mes peines j'arrête pas d'faire du shopping Bah ouais faut du blé et délier les chaînes ouais, ouais, ouais Que des gros chèques la banquière faut qu'j'la choque faut des tals, faut des tals, faut du biff Faire rentrer des sommes pour éviter l'échec bah ouais En moi la mort mais c'est banal en moi la mort mais c'est banal Mon cur ressemble à l'hiver au Canada il est froid et sombre comme le blizzard J'ressens plus grand chose à caus de l'homme J'repnse au beau temps où j'pensais pas à ça Maintenant j'fais des lobs comme si j'étais Alaba Oh woah, Yeah J'ressens plus grand chose à cause de l'homme Tout le temps les pieds dans un dilemme Couplet intense comme la douleur Oh woah, Yeah J'ressens plus grand chose à cause de l'homme Tout le temps les pieds dans un dilemme Couplet intense comme la douleur Oh, woah, oh, woah Everyday, j'pense à des racks Oh, woah, oh, woah Dans mes rêves, j'repasse des liasses Eh Belle vision, comment doit je faire pour la réaliser ? wow Ca part en vacs que dans les pays où c'est dépénalisé J'fais qu'analyser milliard de chaines pour nous canaliser Mate la canine Sens-tu ma faim ? yeah J'essaye de garder la foi Plusieurs problèmes à la fois Sur moi la foudre qui tombe La Fève tu peux pas l'avoir Avec Edge, ça va payer De quoi nourrir nos pupilles Nourrir nos pupilles Xénon phares, ouverture papillon En moi la mort mais c'est banal en moi la mort mais c'est banal Mon cur ressemble à l'hiver au Canada brr J'ressens plus grand chose à cause de l'homme J'repense au beau temps où j'pensais pas à ça Maintenant j'fais des lobs comme si j'étais Alaba Oh woah, Yeah J'ressens plus grand chose à cause de l'homme Tout le temps les pieds dans un dilemme Couplet intense comme la douleur Oh woah, Yeah J'ressens plus grand chose à cause de l'homme Tout le temps les pieds dans l'même dilemme Couplet intense comme la douleur Oh woah, oh woah Everyday j'pense à des racks Oh woah, oh woah Dans mes rêves j'repasse des liasses1</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Yeah Walone Yeah Yeah, yeah Yeah Yeah Yeah C'est pour le 7, la Walone Pas grave ma le-gu' Grr J'suis disque d'or, j'suis pas mainstream Mainstream, trop parano, faut qu'on me laisse vivre Laisse vivre J'pense qu'à ma mif et mon ness-bi Ness-bi, je trap, c'est comme ça que j'm'exprime M'exprime Blasé en général Blasé en général et c'est la même pour mes rats Et c'est la même pour mes rats Il faut toujours plus de carats Il faut toujours plus de carats, il faut toujours plus de carats Yeah, ok Habitués, les condés sortent même plus Même plus, trop déçu, pardon si je ne rêve plus Rêve plus Ils voulaient m'essayer, j'me suis ret'nu Re'tnu, c'étaient plus les mêmes quand j'suis rev'nu Rev'nu J'suis blasé en général Blasé en général et c'est la même pour mes rats Et c'est la même pour mes rats Il faut toujours plus de carats Il faut toujours plus de, il faut toujours plus de carats Yeah, ok Faire du le-sa, j'avais pas l'choix Pas l'choix, j'avais un don mais j'savais pas quoi Pas quoi Le cerveau toujours dans un aqua Aqua, t'es mon zin, t'étais là, j'avais pas d'toit T'es petit, tu sais pas c'qu'on sait, Big La Fève, c'est mon nom d'scène Nom d'scène On efface c'que tu fais, j'ai plus l'âge Plus l'âge, t'as un truc à dire, on se concerte Bow, bow, bow Yeah, j'reste moi-même, j'fais des jaloux Jaloux, trop d'poseurs qu'font les voyous Fast life, mais dis-moi, on va où ? Yeah Trop déter', j'ai zéro seconde chance J'vise la tête, je vise pas tes longues jambes Yeah J'baise le game, j'en ai pas pour longtemps J'baise le game, j'en ai pas pour longtemps Yeah You might also like J'suis disque d'or, j'suis pas mainstream Hey, trop parano, faut qu'on me laisse vivre Hey J'pense qu'à ma mif et mon ness-bi Hey, je trap, c'est comme ça que j'm'exprime Hey Blasé en général Blasé en général et c'est la même pour mes rats Et c'est la même pour mes rats Il faut toujours plus de carats Il faut toujours plus de, il faut toujours plus de carats Yeah, ok Habitués, les condés sortent même plus, trop déçu, pardon si je ne rêve plus Ils voulaient m'essayer, j'me suis ret'nu, c'étaient plus les mêmes quand j'suis rev'nu J'suis blasé en général et c'est la même pour mes rats Et c'est la même pour mes rats Il faut toujours plus de carats Faut toujours plus de, il faut toujours plus de carats Yeah, ok J'suis disque d'or, j'suis pas mainstream, trop parano, faut qu'on me laisse vivre J'pense qu'à ma mif et mon ness-bi,je trap, c'est comme ça que je m'exprime Blasé en général et c'est la même pour mes rats Il faut toujours plus de carats, il faut toujours plus de carats</t>
+          <t>Yeah Walone Yeah Yeah, yeah Yeah Yeah Yeah C'est pour le 7, la Walone Pas grave ma le-gu' Grr J'suis disque d'or, j'suis pas mainstream Mainstream, trop parano, faut qu'on me laisse vivre Laisse vivre J'pense qu'à ma mif et mon ness-bi Ness-bi, je trap, c'est comme ça que j'm'exprime M'exprime Blasé en général Blasé en général et c'est la même pour mes rats Et c'est la même pour mes rats Il faut toujours plus de carats Il faut toujours plus de carats, il faut toujours plus de carats Yeah, ok Habitués, les condés sortent même plus Même plus, trop déçu, pardon si je ne rêve plus Rêve plus Ils voulaient m'essayer, j'me suis ret'nu Re'tnu, c'étaient plus les mêmes quand j'suis rev'nu Rev'nu J'suis blasé en général Blasé en général et c'est la même pour mes rats Et c'est la même pour mes rats Il faut toujours plus de carats Il faut toujours plus de, il faut toujours plus de carats Yeah, ok Faire du le-sa, j'avais pas l'choix Pas l'choix, j'avais un don mais j'savais pas quoi Pas quoi Le cerveau toujours dans un aqua Aqua, t'es mon zin, t'étais là, j'avais pas d'toit T'es petit, tu sais pas c'qu'on sait, Big La Fève, c'est mon nom d'scène Nom d'scène On efface c'que tu fais, j'ai plus l'âge Plus l'âge, t'as un truc à dire, on se concerte Bow, bow, bow Yeah, j'reste moi-même, j'fais des jaloux Jaloux, trop d'poseurs qu'font les voyous Fast life, mais dis-moi, on va où ? Yeah Trop déter', j'ai zéro seconde chance J'vise la tête, je vise pas tes longues jambes Yeah J'baise le game, j'en ai pas pour longtemps J'baise le game, j'en ai pas pour longtemps Yeah J'suis disque d'or, j'suis pas mainstream Hey, trop parano, faut qu'on me laisse vivre Hey J'pense qu'à ma mif et mon ness-bi Hey, je trap, c'est comme ça que j'm'exprime Hey Blasé en général Blasé en général et c'est la même pour mes rats Et c'est la même pour mes rats Il faut toujours plus de carats Il faut toujours plus de, il faut toujours plus de carats Yeah, ok Habitués, les condés sortent même plus, trop déçu, pardon si je ne rêve plus Ils voulaient m'essayer, j'me suis ret'nu, c'étaient plus les mêmes quand j'suis rev'nu J'suis blasé en général et c'est la même pour mes rats Et c'est la même pour mes rats Il faut toujours plus de carats Faut toujours plus de, il faut toujours plus de carats Yeah, ok J'suis disque d'or, j'suis pas mainstream, trop parano, faut qu'on me laisse vivre J'pense qu'à ma mif et mon ness-bi,je trap, c'est comme ça que je m'exprime Blasé en général et c'est la même pour mes rats Il faut toujours plus de carats, il faut toujours plus de carats</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Yeah, yeah On va parler vrai Le 7, Walone Yes, DJ augmente le niveau sonore qu'on entende La Fève du sud au nord Faudrait quj'apprenne à assumer mes torts, à voir c'qu'y a d'bien dans ce putain d'décor Tu m'connais pas, juge pas mon passé J'suis béni, là mon cou est glacé C'est sans rancune que j'lève mon verre en hommage aux relations gâchées J'ai toujours pas quitté la débauche tu peux me croiser dans le coin à gratter deux trois garbiches La Walone ça dat que c'est officiel, on n'a pas attndu le premier Kbis Malgré nos efforts on est toujours en perte, c'est pour ça que j'suis fâché dans la cabine J'ai vue sur un lac, j'profite du silence, j'regarde le ciel et j'repense à Kapi ma sur C'est du rap de hustler, du rap de vicieux, malgré les tacles on est resté ambitieux Maleug on est trop à voir le bon côté dans la guerre, ici bas y a pas de love and peace J'ai le ciel avec moi, my gang derrière moi, alors salope cherche pas ldiss J'suis toujours dans la buée, toujours dans les ruelles, rien n'a changé depuis Ptit Seum L'argent fait des allers, des venues, tu m'as pas marqué, je t'ai pas retenu Avant j'étais calme, j'avais le sourire mais mon Dieu qu'est ce que je suis devenu ? You might also like Tu sais qu'ils auront pas une miette même si y a une somme énorme Cette chienne de vie m'a trop blessé, chérie, je veux pas fall in love DJ augmente le niveau sonore qu'on entende La Fève du sud au nord Faudrait que j'apprenne à assumer mes torts, à voir c'qu'y a d'bien dans ce putain d'décor Tu m'connais pas, juge pas mon passé J'suis béni, là mon cou est glacé C'est sans rancune que j'lève mon verre en hommage aux relations gâchées Elle flashe sur mon médaillon, elle retire son maillot, elle veut déjà me marier J'ai fait ça parce que y'a que ça qui pouvait m'sauver, toi tu faisais du rap pour te marrer La quête de soi m'a rendu morose Du mal à donner un bouquet de roses Si j'étais pas un footeux, j'le ferais comme Wemby, j'le ferais comme D.Rose L'univers récompense celui qui ose, on a pris deux cailloux on est parti les faire Si t'es mon frère, ma réussite c'est ta réussite Même sous stress il faut rester lucide Y a quelque chose de pur dans ma musique Ceux qui l'ont capté sont mes semblables Du mal à rire même après cent blagues yes Du mal à rire même après cent blagues han Tu sais qu'ils auront pas une miette même si y a une somme énorme Cette chienne de vie m'a trop blessé, chérie, je veux pas fall in love DJ augmente le niveau sonore qu'on entende La Fève du sud au nord Faudrait que j'apprenne à assumer mes torts, à voir c'qu'y a d'bien dans ce putain d'décor Tu m'connais pas, juge pas mon passé, j'suis béni, là mon cou est glacé C'est sans rancune que j'lève mon verre en hommage aux relations gâchées J'ai toujours pas quitté la débauche tu peux me croiser dans le coin à gratter deux trois garbiches La Walone ça date que c'est officiel, on n'a pas attendu le premier Kbis Malgré nos efforts on est toujours en perte, c'est pour ça que j'suis fâché dans la cabine J'ai vu sur un lac, j'profite du silence, j'regarde le ciel et j'repense à Kapi ma soeur C'est du rap de hustler, du rap de vicieux, malgré les tacles on est restés ambitieux Ma leug on est trop à voir le bon côté dans la guerre, ici bas y a pas de love and peace J'ai le ciel avec moi, my gang derrière moi, alors salope cherche pas à diss J'suis toujours dans la buée, toujours dans les ruelles, rien n'a changé depuis Ptit Seum L'argent fait des allers, des venues Tu m'as pas marqué je t'ai pas retenu Avant j'étais calme, j'avais le sourire Mais mon Dieu qu'est ce que je suis devenu ? Tu sais qu'ils auront pas une miette même si y a une somme énorme Cette chienne de vie m'a trop blessé, chérie, je veux pas fall in love Yes</t>
+          <t>Yeah, yeah On va parler vrai Le 7, Walone Yes, DJ augmente le niveau sonore qu'on entende La Fève du sud au nord Faudrait quj'apprenne à assumer mes torts, à voir c'qu'y a d'bien dans ce putain d'décor Tu m'connais pas, juge pas mon passé J'suis béni, là mon cou est glacé C'est sans rancune que j'lève mon verre en hommage aux relations gâchées J'ai toujours pas quitté la débauche tu peux me croiser dans le coin à gratter deux trois garbiches La Walone ça dat que c'est officiel, on n'a pas attndu le premier Kbis Malgré nos efforts on est toujours en perte, c'est pour ça que j'suis fâché dans la cabine J'ai vue sur un lac, j'profite du silence, j'regarde le ciel et j'repense à Kapi ma sur C'est du rap de hustler, du rap de vicieux, malgré les tacles on est resté ambitieux Maleug on est trop à voir le bon côté dans la guerre, ici bas y a pas de love and peace J'ai le ciel avec moi, my gang derrière moi, alors salope cherche pas ldiss J'suis toujours dans la buée, toujours dans les ruelles, rien n'a changé depuis Ptit Seum L'argent fait des allers, des venues, tu m'as pas marqué, je t'ai pas retenu Avant j'étais calme, j'avais le sourire mais mon Dieu qu'est ce que je suis devenu ? Tu sais qu'ils auront pas une miette même si y a une somme énorme Cette chienne de vie m'a trop blessé, chérie, je veux pas fall in love DJ augmente le niveau sonore qu'on entende La Fève du sud au nord Faudrait que j'apprenne à assumer mes torts, à voir c'qu'y a d'bien dans ce putain d'décor Tu m'connais pas, juge pas mon passé J'suis béni, là mon cou est glacé C'est sans rancune que j'lève mon verre en hommage aux relations gâchées Elle flashe sur mon médaillon, elle retire son maillot, elle veut déjà me marier J'ai fait ça parce que y'a que ça qui pouvait m'sauver, toi tu faisais du rap pour te marrer La quête de soi m'a rendu morose Du mal à donner un bouquet de roses Si j'étais pas un footeux, j'le ferais comme Wemby, j'le ferais comme D.Rose L'univers récompense celui qui ose, on a pris deux cailloux on est parti les faire Si t'es mon frère, ma réussite c'est ta réussite Même sous stress il faut rester lucide Y a quelque chose de pur dans ma musique Ceux qui l'ont capté sont mes semblables Du mal à rire même après cent blagues yes Du mal à rire même après cent blagues han Tu sais qu'ils auront pas une miette même si y a une somme énorme Cette chienne de vie m'a trop blessé, chérie, je veux pas fall in love DJ augmente le niveau sonore qu'on entende La Fève du sud au nord Faudrait que j'apprenne à assumer mes torts, à voir c'qu'y a d'bien dans ce putain d'décor Tu m'connais pas, juge pas mon passé, j'suis béni, là mon cou est glacé C'est sans rancune que j'lève mon verre en hommage aux relations gâchées J'ai toujours pas quitté la débauche tu peux me croiser dans le coin à gratter deux trois garbiches La Walone ça date que c'est officiel, on n'a pas attendu le premier Kbis Malgré nos efforts on est toujours en perte, c'est pour ça que j'suis fâché dans la cabine J'ai vu sur un lac, j'profite du silence, j'regarde le ciel et j'repense à Kapi ma soeur C'est du rap de hustler, du rap de vicieux, malgré les tacles on est restés ambitieux Ma leug on est trop à voir le bon côté dans la guerre, ici bas y a pas de love and peace J'ai le ciel avec moi, my gang derrière moi, alors salope cherche pas à diss J'suis toujours dans la buée, toujours dans les ruelles, rien n'a changé depuis Ptit Seum L'argent fait des allers, des venues Tu m'as pas marqué je t'ai pas retenu Avant j'étais calme, j'avais le sourire Mais mon Dieu qu'est ce que je suis devenu ? Tu sais qu'ils auront pas une miette même si y a une somme énorme Cette chienne de vie m'a trop blessé, chérie, je veux pas fall in love Yes</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Jeune Finesseur, hey Rah Tu sais déjà c'est LA VIE RAPIDE Donc je vais m'mettre à l'aise, donc j'me mets bien à l'aise Faire cette vrai merde sale, ce vrai rap sale Doom still here La Fève 7, Walone FREAKEY! Mango Sapphire dans le joint Je chase le bag, jamais je chase les tchoins Pull up au studio, je fous l'incendie La Finesse, la Fève, double F comme Fendi Huh, je sers l'audio dope à tous mes ienclis Y a même des fans qui veulent je baise leurs raclis C'est une escorte de luxe en vacances à Bali Depuis je rap, je vois plein d'anomalies J'fais ça comme avant, Rowjay m'appelle pour découper la viande Les choses que tu rap, ma leug' que tu les inventes, il a vu les dégâts, il a stoppé avant Comme 'Jay, j'suis solo dans l'avenue, l'avenue, j'repense à cette gadji qui s'est fait la belle J'suis parti hiberner solo dans la ruche, ma leug' j'ai du bon miel car je connais l'abeille T'inquiète You might also like J'me sens comme L'Empereur, j'suis un baiseur de mères De Montréal et Paris, je suis le maire J'ai une bad bitch qui est non-binaire Depuis day one, j'reste ce jeune visionnaire Pour make it dans le game, faut t'aies les nerfs J'suis jeune mais j'ai un portefeuille septuagénaire Quand je flex, tellement de gens sont vénères Depuis je win, y a plus d'préliminaires C'est vrai, c'est réel, ma shit, on dit d'Louis qu'il rappe comme une machine Tu m'gênes comme la salade sur ta chicot, comme les racistes qu'y a dans la chaîne J'ai passé l'âge pour arrache des sacs à main, pour vendre du rêve au camés L'argent, la loud, les potos, les gos, négro, y a que ça pour nous calmer Depuis Hors Catégorie, je vends le rêve J'ne dors plus, maintenant, je vis le rêve Viens de loin, maintenant, on est la relève Toujours sous grind, on n'est jamais en grève Si tu niaise trop, ta carrière va être brève La vie est rapide, le temps vient de Genève Vrai rap sale, je l'fais avec La Fève Yes, let's go Tous ces rappeurs sont devenus nos élèves J'étais dans la soucoupe, j'ai fait de la musique ignorante Elle m'fait des folies en scred, j'lui dis Quand tu veux, on rentre Ok Fast life, la vie que l'on mène, elle est très rapide, malade, pas de thérapie Ça gamberge un plan dans un coin avec mes ratpis Hahaha, tu sais déjà comment on fait cette merde Jeune Rowjay AKA Jeune Finesseur Dans c'merdier, une démonstration de vrai rap sale Gros shout out à mon gars La Fève On a montré à ces paysans comment on fait Parce que la paysannerie elle est jamais finie T'inquiète</t>
+          <t>Jeune Finesseur, hey Rah Tu sais déjà c'est LA VIE RAPIDE Donc je vais m'mettre à l'aise, donc j'me mets bien à l'aise Faire cette vrai merde sale, ce vrai rap sale Doom still here La Fève 7, Walone FREAKEY! Mango Sapphire dans le joint Je chase le bag, jamais je chase les tchoins Pull up au studio, je fous l'incendie La Finesse, la Fève, double F comme Fendi Huh, je sers l'audio dope à tous mes ienclis Y a même des fans qui veulent je baise leurs raclis C'est une escorte de luxe en vacances à Bali Depuis je rap, je vois plein d'anomalies J'fais ça comme avant, Rowjay m'appelle pour découper la viande Les choses que tu rap, ma leug' que tu les inventes, il a vu les dégâts, il a stoppé avant Comme 'Jay, j'suis solo dans l'avenue, l'avenue, j'repense à cette gadji qui s'est fait la belle J'suis parti hiberner solo dans la ruche, ma leug' j'ai du bon miel car je connais l'abeille T'inquiète J'me sens comme L'Empereur, j'suis un baiseur de mères De Montréal et Paris, je suis le maire J'ai une bad bitch qui est non-binaire Depuis day one, j'reste ce jeune visionnaire Pour make it dans le game, faut t'aies les nerfs J'suis jeune mais j'ai un portefeuille septuagénaire Quand je flex, tellement de gens sont vénères Depuis je win, y a plus d'préliminaires C'est vrai, c'est réel, ma shit, on dit d'Louis qu'il rappe comme une machine Tu m'gênes comme la salade sur ta chicot, comme les racistes qu'y a dans la chaîne J'ai passé l'âge pour arrache des sacs à main, pour vendre du rêve au camés L'argent, la loud, les potos, les gos, négro, y a que ça pour nous calmer Depuis Hors Catégorie, je vends le rêve J'ne dors plus, maintenant, je vis le rêve Viens de loin, maintenant, on est la relève Toujours sous grind, on n'est jamais en grève Si tu niaise trop, ta carrière va être brève La vie est rapide, le temps vient de Genève Vrai rap sale, je l'fais avec La Fève Yes, let's go Tous ces rappeurs sont devenus nos élèves J'étais dans la soucoupe, j'ai fait de la musique ignorante Elle m'fait des folies en scred, j'lui dis Quand tu veux, on rentre Ok Fast life, la vie que l'on mène, elle est très rapide, malade, pas de thérapie Ça gamberge un plan dans un coin avec mes ratpis Hahaha, tu sais déjà comment on fait cette merde Jeune Rowjay AKA Jeune Finesseur Dans c'merdier, une démonstration de vrai rap sale Gros shout out à mon gars La Fève On a montré à ces paysans comment on fait Parce que la paysannerie elle est jamais finie T'inquiète</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Yeah, Yeah, ok, diamant sur mes jantes Sur ma tête, faut des diamants sur mes jantes Yeah, ok, diamant sur mes jantes Gros on est grave en loup, faut des calmants pour mes gens Trop d'peine faut qu'j'me noie dans la gnôle Flow tranchant comme les griffes à Wolverine La Fève entouré d'plein d'agneaux J'me sens comme le loup dans la bergerie Poser sur la prod c'est mon devoir Des ligns j'en ai trop jamais d'pénuries Tu m'f'ras pas avaler ta pills Frérot j'vux les lunettes à Keanu Reeves Dans la Trap-maison comme à ATL J'ai une meuf de rêve mais crois pas qu't'es elle La Fève il est bientôt très riche Rap c'est facile c'est dans mon ADN Combien se disent coincés dans la TN Connecte avec les quartiers mitoyens L'hypocrisie frère c'est grave pitoyable Bien éduqué donc j'respecte les doyens Jeune dans la city observe les habitudes des poulets Que des espions dans l'clip ils sont cagoulés T'as senti l'aura quand on a déboulé Yeah, ok, LaF il est comme ça, j'arrive j'suis à se-l'ai Objectivement y'en a trop qu'ça a saoulé Donc maintenant on traîne un peu trop nos souliers You might also like Yeah, Yeah, ok, diamant sur mes jantes Sur ma tête, faut des diamants sur mes jantes Yeah, ok, diamant sur mes jantes Gros on est grave en loup, faut des calmants pour mes gens Yeah, Yeah, ok, diamant sur mes jantes Sur ma tête, faut des diamants sur mes jantes Yeah, ok, diamant sur mes jantes Gros on est grave en loup, faut des calmants pour mes gens Trop d'peine faut qu'j'me noie dans la gnôle Flow tranchant comme les griffes à Wolverine La Fève entouré d'plein d'agneaux J'me sens comme le loup dans la bergerie Poser sur la prod c'est mon devoir Des lignes j'en ai trop jamais d'pénuries Tu m'f'ras pas avaler ta pills Frérot j'veux les lunettes à Keanu Reeves</t>
+          <t>Yeah, Yeah, ok, diamant sur mes jantes Sur ma tête, faut des diamants sur mes jantes Yeah, ok, diamant sur mes jantes Gros on est grave en loup, faut des calmants pour mes gens Trop d'peine faut qu'j'me noie dans la gnôle Flow tranchant comme les griffes à Wolverine La Fève entouré d'plein d'agneaux J'me sens comme le loup dans la bergerie Poser sur la prod c'est mon devoir Des ligns j'en ai trop jamais d'pénuries Tu m'f'ras pas avaler ta pills Frérot j'vux les lunettes à Keanu Reeves Dans la Trap-maison comme à ATL J'ai une meuf de rêve mais crois pas qu't'es elle La Fève il est bientôt très riche Rap c'est facile c'est dans mon ADN Combien se disent coincés dans la TN Connecte avec les quartiers mitoyens L'hypocrisie frère c'est grave pitoyable Bien éduqué donc j'respecte les doyens Jeune dans la city observe les habitudes des poulets Que des espions dans l'clip ils sont cagoulés T'as senti l'aura quand on a déboulé Yeah, ok, LaF il est comme ça, j'arrive j'suis à se-l'ai Objectivement y'en a trop qu'ça a saoulé Donc maintenant on traîne un peu trop nos souliers Yeah, Yeah, ok, diamant sur mes jantes Sur ma tête, faut des diamants sur mes jantes Yeah, ok, diamant sur mes jantes Gros on est grave en loup, faut des calmants pour mes gens Yeah, Yeah, ok, diamant sur mes jantes Sur ma tête, faut des diamants sur mes jantes Yeah, ok, diamant sur mes jantes Gros on est grave en loup, faut des calmants pour mes gens Trop d'peine faut qu'j'me noie dans la gnôle Flow tranchant comme les griffes à Wolverine La Fève entouré d'plein d'agneaux J'me sens comme le loup dans la bergerie Poser sur la prod c'est mon devoir Des lignes j'en ai trop jamais d'pénuries Tu m'f'ras pas avaler ta pills Frérot j'veux les lunettes à Keanu Reeves</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Hey, let's go La même déter' qu'à l'époque On communique et tu crois qu'on est potes Billets mauves pour essuyer nos peines Billets mauves pour essuyer nos peines Je sais qui tu es au serrage de main On se juge, on se dit à demain Très nombreux sont les reufs que je tue Jeune très ambitieux je fus Han, comme à la guerre Dans le studio j'suis comme à la guerre Billets mauves pour essuyer nos pleurs Billets mauves pour essuyer nos pleurs Han, comme à la guerre Dans le studio j'suis comme à la guerre Billets mauves pour essuyer nos pleurs Billets mauves pour essuyer nos pleurs Fréro j'étais trop jeune, j'avais pas compris tout c'qu'ils m'disaient J'ai l'pe-ra politisé, ambiance bataille comme au Colisée La vie une belle odyssée J'me rend compte qu'il m'manque une case mon frère j'étais pas trop là au lycée J'veux pas cé-per pour la mala J'ai pas avalé tes palabres Pardonner j'ai du mal He, j'veux pas cé-per pour la mala J'ai pas avalé tes palabres Pardonner j'ai du mal You might also like On t'carna, au j'suis en jogging, dans l'jeu j'mets les Margiela, j'ai la balle et je joue vite Rosh' Captaine, envoie le centre j'mets la tête J'tolère pas les racistes, les soumis, la police, cache pas pour les on-dits, va sur ton bigo mets la zik C'est là qu'on deal, j'suis plus Vers la gare, la hess m'a effrayé Toujours là quand c'est payé pour mailler j'ai les tactiques et Les vrais dièses pas les factices, pastis Les finis avec Lobby, Papiss Micro-boule mais j'pose quand même avec J'suis comme un peau rouge, on peut ramener l'averse Salace, découpe à l'hachette Écris des bangers à la chaîne Ça a pas changé, j'aime pas les flockos Pour son nez, bitch j'veux les flocons Les sous comme jamais, j'vais pas doucement Car c'est salace quand j'les envoie sur les cordes Cogne en Nike, pas trop Sean John Gros cavu en DM direct, pas d'comm J'manie les beujs comme Patson moi J'les envoie sur les cordes Cogne en Nike, pas trop Sean John Gros cavu en DM direct, pas d'comm J'manie les beujs comme Patson moi J'veux pas cé-per pour la mala J'ai pas avalé tes palabres Pardonner j'ai du mal He, j'veux pas cé-per pour la mala J'ai pas avalé tes palabres Pardonner j'ai du mal</t>
+          <t>Hey, let's go La même déter' qu'à l'époque On communique et tu crois qu'on est potes Billets mauves pour essuyer nos peines Billets mauves pour essuyer nos peines Je sais qui tu es au serrage de main On se juge, on se dit à demain Très nombreux sont les reufs que je tue Jeune très ambitieux je fus Han, comme à la guerre Dans le studio j'suis comme à la guerre Billets mauves pour essuyer nos pleurs Billets mauves pour essuyer nos pleurs Han, comme à la guerre Dans le studio j'suis comme à la guerre Billets mauves pour essuyer nos pleurs Billets mauves pour essuyer nos pleurs Fréro j'étais trop jeune, j'avais pas compris tout c'qu'ils m'disaient J'ai l'pe-ra politisé, ambiance bataille comme au Colisée La vie une belle odyssée J'me rend compte qu'il m'manque une case mon frère j'étais pas trop là au lycée J'veux pas cé-per pour la mala J'ai pas avalé tes palabres Pardonner j'ai du mal He, j'veux pas cé-per pour la mala J'ai pas avalé tes palabres Pardonner j'ai du mal On t'carna, au j'suis en jogging, dans l'jeu j'mets les Margiela, j'ai la balle et je joue vite Rosh' Captaine, envoie le centre j'mets la tête J'tolère pas les racistes, les soumis, la police, cache pas pour les on-dits, va sur ton bigo mets la zik C'est là qu'on deal, j'suis plus Vers la gare, la hess m'a effrayé Toujours là quand c'est payé pour mailler j'ai les tactiques et Les vrais dièses pas les factices, pastis Les finis avec Lobby, Papiss Micro-boule mais j'pose quand même avec J'suis comme un peau rouge, on peut ramener l'averse Salace, découpe à l'hachette Écris des bangers à la chaîne Ça a pas changé, j'aime pas les flockos Pour son nez, bitch j'veux les flocons Les sous comme jamais, j'vais pas doucement Car c'est salace quand j'les envoie sur les cordes Cogne en Nike, pas trop Sean John Gros cavu en DM direct, pas d'comm J'manie les beujs comme Patson moi J'les envoie sur les cordes Cogne en Nike, pas trop Sean John Gros cavu en DM direct, pas d'comm J'manie les beujs comme Patson moi J'veux pas cé-per pour la mala J'ai pas avalé tes palabres Pardonner j'ai du mal He, j'veux pas cé-per pour la mala J'ai pas avalé tes palabres Pardonner j'ai du mal</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Le manque de sous me donne l'appétit, Salpêtrière la Pitié, tu finis là-bas si tu rembourses pas l'liquide T'as cru impressionner une beu-beu d'Paris parce qu'elle t'as appelé Mon bébé, j'parie J'avoue, gentil, j'parais mais j'peux découper ton corps et l'faire disparaitre Le succès c'est comme le soleil, depuis qu'j'ai dis ça, ils disent pareil Nous, on va t'masser, pas à la crème solaire, nous on l'prend, on l'rend pas l'appareil C'est comme ça à Paris, tu sors d'un problèm, y en a d'autres qui réapparaissent L fric, c'est l'ennemi d'la paresse, j'suis l'ennemi des prêtres pédophiles dans les paroisses J'pose même quand la prod', elle fait Bum tcha tcha, en haut, le sheitan, il vient tchacher Le sheitan, il vient direct T'es bizarre, t'hésites entre la mort et l'tchetche, j'vais mourir iconique, un peu comme El Che J'vais mourir super riche, un peu comme Pablo Cash, cash, si t'as des talles, tu plais, même si t'es pas beau Ah-ah Même si j'ai des talles, ils m'voient comme un babouin Rah, si j'te gaze, t'y vois rien comme Laurent Gbagbo Yes, yes, let's go, let's go Toute sa vie, elle a péché, pourquoi cette bitch elle veut un anneau ? Berline, elle est quatre anneaux, j'me sens mieux You might also like</t>
+          <t>Le manque de sous me donne l'appétit, Salpêtrière la Pitié, tu finis là-bas si tu rembourses pas l'liquide T'as cru impressionner une beu-beu d'Paris parce qu'elle t'as appelé Mon bébé, j'parie J'avoue, gentil, j'parais mais j'peux découper ton corps et l'faire disparaitre Le succès c'est comme le soleil, depuis qu'j'ai dis ça, ils disent pareil Nous, on va t'masser, pas à la crème solaire, nous on l'prend, on l'rend pas l'appareil C'est comme ça à Paris, tu sors d'un problèm, y en a d'autres qui réapparaissent L fric, c'est l'ennemi d'la paresse, j'suis l'ennemi des prêtres pédophiles dans les paroisses J'pose même quand la prod', elle fait Bum tcha tcha, en haut, le sheitan, il vient tchacher Le sheitan, il vient direct T'es bizarre, t'hésites entre la mort et l'tchetche, j'vais mourir iconique, un peu comme El Che J'vais mourir super riche, un peu comme Pablo Cash, cash, si t'as des talles, tu plais, même si t'es pas beau Ah-ah Même si j'ai des talles, ils m'voient comme un babouin Rah, si j'te gaze, t'y vois rien comme Laurent Gbagbo Yes, yes, let's go, let's go Toute sa vie, elle a péché, pourquoi cette bitch elle veut un anneau ? Berline, elle est quatre anneaux, j'me sens mieux</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Bricksy, 3G yeah, yeah La Fève, 7, Wallone yeah, yeah Less yeah, yeah Tu peux mappeler par mon prénom si tu vois cqui y a dans mes yeux Mental de renard tu crois cest qui qutu vas finesse ? ERRR Téma les vieux et ma life its a pretty mess Trop ne-jeu, la de ma dit askip la vie cest précieux Jai la valeur, jcrois jai pas pas déquivalent Là tes yomb, tu peux mle redire en parlant normalement st-plaît ? Un avis peut changer en rgardant de près Dans p'tet' deux ans jachète une house, jfais pas de prêt Jfais pas de bleh, un noir libre comme lair Le monde va mal et mon dégoût jlécris avec 3 R Avec Bricksy et 3G du 33R ils font le beat, je rap dessus, et le public adhère yeah, yeah Ouais mais plus le temps il passe, G plus cest dur de faire un sourire Cque tas dit ça ma blessé mais jai juste lâché un soupir Jai jamais fait ça dma life, chérie jai du mal à mouvrir Jrappe pour mes souris, avec eux jpartage tous mes fous rires Jviens du mauvais endroit, au mauvais moment Jla vois elle dort par terre, meskine jcrois jvais sauver maman Jmen voulais à mort avant, jai tenu mentalement Jsais qubientôt LAF il senfuit dans un bolide allemand Ouais mais faut qujrègle deux trois trucs, finir un calcul Et cette opps traîne, il a plu, le reuf il abuse Il fait comme si mais il veut juste ma pub, juste mon blase, juste mon temps Des négros milliardaires, quand jvoyais ça fallait quon tend Jsuis dans le tunnel, maintenant cest lheure des récompenses Parle moi juste montant, et jsuis bien si tu payes comptant Y a trop dreufs perdus, jpensais pas quils étaient autant Jme bats pour le camp, jsais qujpeux finir mal pour le clan ERRR You might also like Pour le clan, finir mal pour le clan ERRR Yess, yess Yess, yess ERRR Tu peux mappeler par mon prénom si tu vois cqui y a dans mes yeux Mental de renard tu crois cest qui qutu vas finesse ? Téma les vieux et ma life its a pretty mess Trop ne-jeu, la de ma dit askip la vie cest précieux Jai la valeur, jcrois jai pas pas déquivalent Là tes yomb, tu peux mle redire en parlant normalement ste-plaît ?1</t>
+          <t>Bricksy, 3G yeah, yeah La Fève, 7, Wallone yeah, yeah Less yeah, yeah Tu peux mappeler par mon prénom si tu vois cqui y a dans mes yeux Mental de renard tu crois cest qui qutu vas finesse ? ERRR Téma les vieux et ma life its a pretty mess Trop ne-jeu, la de ma dit askip la vie cest précieux Jai la valeur, jcrois jai pas pas déquivalent Là tes yomb, tu peux mle redire en parlant normalement st-plaît ? Un avis peut changer en rgardant de près Dans p'tet' deux ans jachète une house, jfais pas de prêt Jfais pas de bleh, un noir libre comme lair Le monde va mal et mon dégoût jlécris avec 3 R Avec Bricksy et 3G du 33R ils font le beat, je rap dessus, et le public adhère yeah, yeah Ouais mais plus le temps il passe, G plus cest dur de faire un sourire Cque tas dit ça ma blessé mais jai juste lâché un soupir Jai jamais fait ça dma life, chérie jai du mal à mouvrir Jrappe pour mes souris, avec eux jpartage tous mes fous rires Jviens du mauvais endroit, au mauvais moment Jla vois elle dort par terre, meskine jcrois jvais sauver maman Jmen voulais à mort avant, jai tenu mentalement Jsais qubientôt LAF il senfuit dans un bolide allemand Ouais mais faut qujrègle deux trois trucs, finir un calcul Et cette opps traîne, il a plu, le reuf il abuse Il fait comme si mais il veut juste ma pub, juste mon blase, juste mon temps Des négros milliardaires, quand jvoyais ça fallait quon tend Jsuis dans le tunnel, maintenant cest lheure des récompenses Parle moi juste montant, et jsuis bien si tu payes comptant Y a trop dreufs perdus, jpensais pas quils étaient autant Jme bats pour le camp, jsais qujpeux finir mal pour le clan ERRR Pour le clan, finir mal pour le clan ERRR Yess, yess Yess, yess ERRR Tu peux mappeler par mon prénom si tu vois cqui y a dans mes yeux Mental de renard tu crois cest qui qutu vas finesse ? Téma les vieux et ma life its a pretty mess Trop ne-jeu, la de ma dit askip la vie cest précieux Jai la valeur, jcrois jai pas pas déquivalent Là tes yomb, tu peux mle redire en parlant normalement ste-plaît ?1</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Spleef et spleen ça va ensemble Si j'pars c'est avec les poings devant J'ai rêvé d'bif, j'ai rêvé d'samples La mif j'fais avec j'ferai jamais sans J'suis l'ennemi d'la routine, l'âme, le cur du malaise Et si ça revient beaucoup de fois c'est qu'le crew c'est pas qu'une parenthèse J'ai soif de peura , j'avais un peu de rimes sous ma semelle Terrifiant c'est l'essentiel, on est du bon te-cô d'l'opinel La passion c'est l'essence même du moteur d'un bon poète J'suis la source , le rap jeu Orfevo c'est son squelette Pour les toys, les cons les bandits Breu-cham d'luxe ou dans un taudis Le rap mon amoureuse et le soir j'me shoote a l'adrénaline Pour ceux qui partent en couilles et le soir commencent à freestyler Futur ingé', futur boucher, teint café teint basané C'est pour les frères pour qui la fougue n'a jamais eu aucune rupture Qui n'ont rien d'un artiste mais bombe en main s'essaient dans la peinture On est dans les codes, les quotes, les cordes mais jamais ko Car si les geush trainent en bas c'est pour éviter d'tomber de haut Spleef et spleen ça va ensemble Si j'pars c'est avec les poings devant J'ai rêvé d'bif, j'ai rêvé d'samples La mif j'fais avec j'ferai jamais sans J'suis l'ennemi d'la routine, l'âme, le cur du malaise Et si ça revient beaucoup de fois c'est qu'le crew c'est pas qu'une parenthèse You might also like Un couteau sous l'bomber, un brolique sous la soutane Ça démarre vite quand derrière toi y a qu'le regard d'ton escouade A l'appel ma haine a levé le doigt mon stylo a pris les devants Pour ceux qui en bavent jusqu'à ce que leur passion crie pour sa délivrance C'est du vrai son dans l'oreiller, pas la coke qu'on viendra becqueter Car les tipeu ont des histoires mais manquent de mots pour les narrer L'instru m'aguiche j'la mets à nue, le rap game c'est v'la du déjà vu Y aura toujours rien à signaler, on reste politiquement inconnu L'équipe a ses valeurs, on met sur l'te-cô la bêtise humaine On aime tous le gazon, la joie des frères viendra cacher ma peine J'fais qu'avancer dans le noir et le peura c'est ma lumière J'fais en scredi pas la pour plaire les ragots j'les ai déjà fait taire Spleef et spleen ça va ensemble Si j'pars c'est avec les poings devant J'ai rêvé d'bif, j'ai rêvé d'samples La mif j'fais avec j'ferai jamais sans J'suis l'ennemi d'la routine, l'âme, le cur du malaise Et si ça revient beaucoup de fois c'est qu'le crew c'est pas qu'une parenthèse Spleef et spleen ça va ensemble Si j'pars c'est avec les poings devants J'ai rêvé d'bif, j'ai rêvé d'samples La mif j'fais avec j'ferai jamais sans J'suis l'ennemi d'la routine, l'âme, le cur du malaise Et si ça revient beaucoup de fois c'est qu'le crew c'est pas qu'une parenthèse Les comiques qui au comico canneraient pas pour des meukro Même en loups, sang sur les crocs balancent sonne-per pour une merko J'rappe pour les frérots poing sur le torse, j'ai laissé mon cur crier Pas d'regrets dans l'insouciance, j'ai laissé le bitume m'embrasser Derrière moi ça manque pas d'air Ça gribouille les RER Jamais Caos devant la rafle ma rime arh mais reste osper On attend pas d'avoir le mi-per, on escaladerait les portes blindées On veut pas vivre remplis de remords comme un ex frère qu'a trop parlé Ça fait longtemps qu'j'hiberne, j'suis maintenu la tête sous l'eau Parce qu'on aime ta basse et ta charley c'est mieux que de tabasser des charclots Alors, depuis l'temps il a muri le Jackson Five Depuis les rimes grattées au square, rien a changé appart l'escouade Spleef et spleen ça va ensemble Si j'pars c'est avec les poings devant J'ai rêvé d'bif, j'ai rêvé d'samples La mif j'fais avec j'ferai jamais sans J'suis l'ennemi d'la routine, l'âme, le cur du malaise Et si ça revient beaucoup de fois c'est qu'le crew c'est pas qu'une parenthèse Spleef et spleen ça va ensemble Si j'pars c'est avec les poings devants J'ai rêvé d'bif, j'ai rêvé d'samples La mif j'fais avec j'ferai jamais sans J'suis l'ennemi d'la routine, l'âme, le cur du malaise Et si ça revient beaucoup de fois c'est qu'le crew c'est pas qu'une parenthèse2</t>
+          <t>Spleef et spleen ça va ensemble Si j'pars c'est avec les poings devant J'ai rêvé d'bif, j'ai rêvé d'samples La mif j'fais avec j'ferai jamais sans J'suis l'ennemi d'la routine, l'âme, le cur du malaise Et si ça revient beaucoup de fois c'est qu'le crew c'est pas qu'une parenthèse J'ai soif de peura , j'avais un peu de rimes sous ma semelle Terrifiant c'est l'essentiel, on est du bon te-cô d'l'opinel La passion c'est l'essence même du moteur d'un bon poète J'suis la source , le rap jeu Orfevo c'est son squelette Pour les toys, les cons les bandits Breu-cham d'luxe ou dans un taudis Le rap mon amoureuse et le soir j'me shoote a l'adrénaline Pour ceux qui partent en couilles et le soir commencent à freestyler Futur ingé', futur boucher, teint café teint basané C'est pour les frères pour qui la fougue n'a jamais eu aucune rupture Qui n'ont rien d'un artiste mais bombe en main s'essaient dans la peinture On est dans les codes, les quotes, les cordes mais jamais ko Car si les geush trainent en bas c'est pour éviter d'tomber de haut Spleef et spleen ça va ensemble Si j'pars c'est avec les poings devant J'ai rêvé d'bif, j'ai rêvé d'samples La mif j'fais avec j'ferai jamais sans J'suis l'ennemi d'la routine, l'âme, le cur du malaise Et si ça revient beaucoup de fois c'est qu'le crew c'est pas qu'une parenthèse Un couteau sous l'bomber, un brolique sous la soutane Ça démarre vite quand derrière toi y a qu'le regard d'ton escouade A l'appel ma haine a levé le doigt mon stylo a pris les devants Pour ceux qui en bavent jusqu'à ce que leur passion crie pour sa délivrance C'est du vrai son dans l'oreiller, pas la coke qu'on viendra becqueter Car les tipeu ont des histoires mais manquent de mots pour les narrer L'instru m'aguiche j'la mets à nue, le rap game c'est v'la du déjà vu Y aura toujours rien à signaler, on reste politiquement inconnu L'équipe a ses valeurs, on met sur l'te-cô la bêtise humaine On aime tous le gazon, la joie des frères viendra cacher ma peine J'fais qu'avancer dans le noir et le peura c'est ma lumière J'fais en scredi pas la pour plaire les ragots j'les ai déjà fait taire Spleef et spleen ça va ensemble Si j'pars c'est avec les poings devant J'ai rêvé d'bif, j'ai rêvé d'samples La mif j'fais avec j'ferai jamais sans J'suis l'ennemi d'la routine, l'âme, le cur du malaise Et si ça revient beaucoup de fois c'est qu'le crew c'est pas qu'une parenthèse Spleef et spleen ça va ensemble Si j'pars c'est avec les poings devants J'ai rêvé d'bif, j'ai rêvé d'samples La mif j'fais avec j'ferai jamais sans J'suis l'ennemi d'la routine, l'âme, le cur du malaise Et si ça revient beaucoup de fois c'est qu'le crew c'est pas qu'une parenthèse Les comiques qui au comico canneraient pas pour des meukro Même en loups, sang sur les crocs balancent sonne-per pour une merko J'rappe pour les frérots poing sur le torse, j'ai laissé mon cur crier Pas d'regrets dans l'insouciance, j'ai laissé le bitume m'embrasser Derrière moi ça manque pas d'air Ça gribouille les RER Jamais Caos devant la rafle ma rime arh mais reste osper On attend pas d'avoir le mi-per, on escaladerait les portes blindées On veut pas vivre remplis de remords comme un ex frère qu'a trop parlé Ça fait longtemps qu'j'hiberne, j'suis maintenu la tête sous l'eau Parce qu'on aime ta basse et ta charley c'est mieux que de tabasser des charclots Alors, depuis l'temps il a muri le Jackson Five Depuis les rimes grattées au square, rien a changé appart l'escouade Spleef et spleen ça va ensemble Si j'pars c'est avec les poings devant J'ai rêvé d'bif, j'ai rêvé d'samples La mif j'fais avec j'ferai jamais sans J'suis l'ennemi d'la routine, l'âme, le cur du malaise Et si ça revient beaucoup de fois c'est qu'le crew c'est pas qu'une parenthèse Spleef et spleen ça va ensemble Si j'pars c'est avec les poings devants J'ai rêvé d'bif, j'ai rêvé d'samples La mif j'fais avec j'ferai jamais sans J'suis l'ennemi d'la routine, l'âme, le cur du malaise Et si ça revient beaucoup de fois c'est qu'le crew c'est pas qu'une parenthèse2</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Un jeune qui en mêle un autre C'est l'diable qui nous met l'anneau, laisse J'ai un peu d'or dans les mano Un jeune qui en mêle un autre C'est l'diable qui nous met l'anneau ERRR Tape 2021 J'ai un peu d'or dans les mano J'suis né Paris 20, meurs dans l'seize Une connaissance finit je n'sais où Des pulsions bizarres faut qu'ça cesse Ils blanchissent l'argent, vendent la cess' Tu fais le Many si je fais le Tony T's pas de la mif si tu fais le tho-my J'ai appelé la tap, c'est comme ça qu'on vomit ERRR J'ai appelé la tape, c'est comme ça qu'on vomit J'suis né ric-rac, meurt confortable Millions d'dollars dans un portable Manque de wari c'était insupportable G, classic shit music insortable Back Then l'ennui c'était insoutenable Donc on a choisi d'courir après l'mauve Un peu d'magie, un peu d'voyage, un peu d'lovés, un peu d'love Yeah, c'est l'diable qui nous met l'anneau Des serpents qui se mêlent à nous Tu veux test ? Carotte, mets-là nous mon G, une aura puissante j'émane LAF gère dans le fond, la manière J'repense à des années en arrière On v-esqui la vie, ses barrières Une gadji pour m'écouter Un reuf pour pas être le seul Un peu de feu dans ma sueur J'croyais qu'cette âme c'était la sur Mes gars savent mes faiblesses, ils savent qu'errrday j'me tue à la tâche Quelle putain d'paradoxe, on s'mort les doigts pour tourner la page Less' Un jeune qui en mêle un autre Ça provoque en moi rien de bien J't'en voulais, tu voulais mon bien Ce p'tit serpents voudrait mes biens 2021 on s'met bien J'ai le cur couleur Viano C'est l'diable qui nous met l'anneau ERRR Tape 2021, le 7, la Walone Yeah, yeah, yeah You might also like Un jeune qui en mêle un autre C'est l'diable qui nous met l'anneau, laisse J'ai un peu d'or dans les mano Un jeune qui en mêle un autre C'est l'diable qui nous met l'anneau ERRR J'ai un peu d'or dans les mano J'suis né Paris 20, meurs dans l'seize Une connaissance finit je n'sais où Des pulsions bizarres faut qu'ça cesse Ils blanchissent l'argent, vendent la cess' Tu fais le Many si je fais le Tony T'es pas de la mif si tu fais le tho-my J'ai appelé la tape, c'est comme ça qu'on vomit J'ai appelé la tape, c'est comme ça qu'on vomit ERRR1</t>
+          <t>Un jeune qui en mêle un autre C'est l'diable qui nous met l'anneau, laisse J'ai un peu d'or dans les mano Un jeune qui en mêle un autre C'est l'diable qui nous met l'anneau ERRR Tape 2021 J'ai un peu d'or dans les mano J'suis né Paris 20, meurs dans l'seize Une connaissance finit je n'sais où Des pulsions bizarres faut qu'ça cesse Ils blanchissent l'argent, vendent la cess' Tu fais le Many si je fais le Tony T's pas de la mif si tu fais le tho-my J'ai appelé la tap, c'est comme ça qu'on vomit ERRR J'ai appelé la tape, c'est comme ça qu'on vomit J'suis né ric-rac, meurt confortable Millions d'dollars dans un portable Manque de wari c'était insupportable G, classic shit music insortable Back Then l'ennui c'était insoutenable Donc on a choisi d'courir après l'mauve Un peu d'magie, un peu d'voyage, un peu d'lovés, un peu d'love Yeah, c'est l'diable qui nous met l'anneau Des serpents qui se mêlent à nous Tu veux test ? Carotte, mets-là nous mon G, une aura puissante j'émane LAF gère dans le fond, la manière J'repense à des années en arrière On v-esqui la vie, ses barrières Une gadji pour m'écouter Un reuf pour pas être le seul Un peu de feu dans ma sueur J'croyais qu'cette âme c'était la sur Mes gars savent mes faiblesses, ils savent qu'errrday j'me tue à la tâche Quelle putain d'paradoxe, on s'mort les doigts pour tourner la page Less' Un jeune qui en mêle un autre Ça provoque en moi rien de bien J't'en voulais, tu voulais mon bien Ce p'tit serpents voudrait mes biens 2021 on s'met bien J'ai le cur couleur Viano C'est l'diable qui nous met l'anneau ERRR Tape 2021, le 7, la Walone Yeah, yeah, yeah Un jeune qui en mêle un autre C'est l'diable qui nous met l'anneau, laisse J'ai un peu d'or dans les mano Un jeune qui en mêle un autre C'est l'diable qui nous met l'anneau ERRR J'ai un peu d'or dans les mano J'suis né Paris 20, meurs dans l'seize Une connaissance finit je n'sais où Des pulsions bizarres faut qu'ça cesse Ils blanchissent l'argent, vendent la cess' Tu fais le Many si je fais le Tony T'es pas de la mif si tu fais le tho-my J'ai appelé la tape, c'est comme ça qu'on vomit J'ai appelé la tape, c'est comme ça qu'on vomit ERRR1</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>J'ai découpé des galettes avant d'feater avec La Fève, tu crois qu'c'est la fête ? J'vais t'dire c'est laquelle Han, découper des prod', c'est facile à faire J'avoue, il rappe bien, l'frère mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Le shit t'met dans des états pas possibles, j'suis pas Kurt Zouma mais je tape sa pussy Quand y avait pas d'argent, ça poussait, j'te parle pas d'la fonte mais d'c'qui t'fait toussr Je mens si j'dis qu'j'me suis fait tout sul Ouais, j'peux t'racketter la nuit si t'es tout seul Et si t'as tes écouteurs, j'te d'mande de mettre pause avant d't'étouffer Le sage ne parle pas avec les fous Nan mais les fous pensent que le sage lui est fou Ouais J'suis aveugle ou bien c'est l'monde qui est flou ? J'suis une teub ou bien c'est l'monde qui part en couille ? Il pécho sa drogue quand il va en cours, on a l'sens du partage, chaque fois on coupe en deux Beendo, La Fève, c'est vos rappeurs en mieux En mieux, en mieux J'avoue, il rappe bien, l'frère mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Ma le-gu', tu sais, j'suis prêt pour le jour de paie Mmh Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Yeah Ma le-gu', tu sais, j'suis prêt pour le jour de paie You might also like On arrive, on t'a prévenu, faut qu'tu leur dises Yah, en deuz, fais plus de gouap que deux lers-dea Yes J'grandis, j'crois là, j'suis l'homme de la house De la house, toi, t'es bon qu'à parler derrière l'ordi' J'étais jeune, j'en voulais à la Terre, droite, gauche, crochet, il a fini par terre T'as trahi donc me dis pas À la tienne, t'es en canard mais t'arrives pas à la ken Ken, ken Berrr, gamberge sur une décision à prendre, t'as senti, la saleté qui Viens si t'es dépassée, chérie, je peux t'apprendre Yes J'crois qu'j'suis né avec une envie d'tout prendre, fais que du boucan, c'est pour remplir mon Belly Belly J'sais qu'y a qu'l'euro qui peut m'embellir Yes, poissard, j'crois pas qu'Dieu, il m'a béni Laisse Errr, j'assume les tonneaux, les sorties de route J'sais d'où je viens, j'sais qu'en une heure ou deux, j'traverse la mer et j'suis back in the hood Beendo, La Fève, nouvelle pollution, Kenzo jacket, tu la trouves pas aux puces La santé, c'est qu'un bonus, à trente piges, j'me vois avec 10M ou plus J'avoue, il rappe bien, l'frère mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Ma le-gu', tu sais, j'suis prêt pour le jour de paie Mmh Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Ma le-gu', tu sais, j'suis prêt pour le jour de paie1</t>
+          <t>J'ai découpé des galettes avant d'feater avec La Fève, tu crois qu'c'est la fête ? J'vais t'dire c'est laquelle Han, découper des prod', c'est facile à faire J'avoue, il rappe bien, l'frère mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Le shit t'met dans des états pas possibles, j'suis pas Kurt Zouma mais je tape sa pussy Quand y avait pas d'argent, ça poussait, j'te parle pas d'la fonte mais d'c'qui t'fait toussr Je mens si j'dis qu'j'me suis fait tout sul Ouais, j'peux t'racketter la nuit si t'es tout seul Et si t'as tes écouteurs, j'te d'mande de mettre pause avant d't'étouffer Le sage ne parle pas avec les fous Nan mais les fous pensent que le sage lui est fou Ouais J'suis aveugle ou bien c'est l'monde qui est flou ? J'suis une teub ou bien c'est l'monde qui part en couille ? Il pécho sa drogue quand il va en cours, on a l'sens du partage, chaque fois on coupe en deux Beendo, La Fève, c'est vos rappeurs en mieux En mieux, en mieux J'avoue, il rappe bien, l'frère mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Ma le-gu', tu sais, j'suis prêt pour le jour de paie Mmh Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Yeah Ma le-gu', tu sais, j'suis prêt pour le jour de paie On arrive, on t'a prévenu, faut qu'tu leur dises Yah, en deuz, fais plus de gouap que deux lers-dea Yes J'grandis, j'crois là, j'suis l'homme de la house De la house, toi, t'es bon qu'à parler derrière l'ordi' J'étais jeune, j'en voulais à la Terre, droite, gauche, crochet, il a fini par terre T'as trahi donc me dis pas À la tienne, t'es en canard mais t'arrives pas à la ken Ken, ken Berrr, gamberge sur une décision à prendre, t'as senti, la saleté qui Viens si t'es dépassée, chérie, je peux t'apprendre Yes J'crois qu'j'suis né avec une envie d'tout prendre, fais que du boucan, c'est pour remplir mon Belly Belly J'sais qu'y a qu'l'euro qui peut m'embellir Yes, poissard, j'crois pas qu'Dieu, il m'a béni Laisse Errr, j'assume les tonneaux, les sorties de route J'sais d'où je viens, j'sais qu'en une heure ou deux, j'traverse la mer et j'suis back in the hood Beendo, La Fève, nouvelle pollution, Kenzo jacket, tu la trouves pas aux puces La santé, c'est qu'un bonus, à trente piges, j'me vois avec 10M ou plus J'avoue, il rappe bien, l'frère mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Ma le-gu', tu sais, j'suis prêt pour le jour de paie Mmh Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Ma le-gu', tu sais, j'suis prêt pour le jour de paie1</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>On revient de loin mon négro, j'ai la te-tê coincée dans un étau Sur mon cou je veux des métaux, pour ça j'ai des bangers sous le manteau Pourquoi tu m'as lâché bâtard ? Les rats et les serpents c'est pas ma came Dans la vie y'a pas de hasard, tout le temps dans ma tête y'a un bazar Je regarde le ciel et je me perds dans ma rue A la fin de ma vie La Fève sera un érudit Pour l'instant everyday j'ai les yeux couleur rubis Pour l'instant everyday j'ai les yeux couleur rubis On me dit c'est qui le nouveau ? Moi je sais que l'industrie elle nous voit Si tu me parles, vouvoie, toi tu fais le you-voi J'en connais un paquet qui veulent tester pour voir On revient de loin mon négro, j'ai la te-tê coincée dans un étau Sur mon cou je veux des métaux, pour ça j'ai des bangers sous le manteau Pourquoi tu m'as lâché bâtard ? On s'était préparé pour la bataille Moi je n'écoute pas un 3atai, tu me parles pas si t'es pas de taille J'croyais qu't'avais compris, tout c'qu'on a construit Maman m'a dit faire du c'est la consigne Tu sais y'a qu'un très gros billet qui me console Je me demande qui il y avait quand j'étais tout seul J'croyais qu't'avais compris, tout c'qu'on a construit Maman m'a dit faire du c'est la consigne Tu sais y'a qu'un très gros billet qui me console J'croyais qu't'avais compris, tout c'qu'on a construit You might also like On revient de loin mon négro, j'ai la te-tê coincée dans un étau Sur mon cou je veux des métaux, pour ça j'ai des bangers sous le manteau Pourquoi tu m'as lâché bâtard ? Les rats et les serpents c'est pas ma came Dans la vie y'a pas de hasard, tout le temps dans ma tête y'a un bazar</t>
+          <t>On revient de loin mon négro, j'ai la te-tê coincée dans un étau Sur mon cou je veux des métaux, pour ça j'ai des bangers sous le manteau Pourquoi tu m'as lâché bâtard ? Les rats et les serpents c'est pas ma came Dans la vie y'a pas de hasard, tout le temps dans ma tête y'a un bazar Je regarde le ciel et je me perds dans ma rue A la fin de ma vie La Fève sera un érudit Pour l'instant everyday j'ai les yeux couleur rubis Pour l'instant everyday j'ai les yeux couleur rubis On me dit c'est qui le nouveau ? Moi je sais que l'industrie elle nous voit Si tu me parles, vouvoie, toi tu fais le you-voi J'en connais un paquet qui veulent tester pour voir On revient de loin mon négro, j'ai la te-tê coincée dans un étau Sur mon cou je veux des métaux, pour ça j'ai des bangers sous le manteau Pourquoi tu m'as lâché bâtard ? On s'était préparé pour la bataille Moi je n'écoute pas un 3atai, tu me parles pas si t'es pas de taille J'croyais qu't'avais compris, tout c'qu'on a construit Maman m'a dit faire du c'est la consigne Tu sais y'a qu'un très gros billet qui me console Je me demande qui il y avait quand j'étais tout seul J'croyais qu't'avais compris, tout c'qu'on a construit Maman m'a dit faire du c'est la consigne Tu sais y'a qu'un très gros billet qui me console J'croyais qu't'avais compris, tout c'qu'on a construit On revient de loin mon négro, j'ai la te-tê coincée dans un étau Sur mon cou je veux des métaux, pour ça j'ai des bangers sous le manteau Pourquoi tu m'as lâché bâtard ? Les rats et les serpents c'est pas ma came Dans la vie y'a pas de hasard, tout le temps dans ma tête y'a un bazar</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Yeah Yeah, yeah Yeah Yeah Yeah, yeah Yeah Yeah Yeah, yeah Yeah Yeah Big LAF, big LAF, big LAF, big LAF Yeah, yeah Big LAF, big LAF, big LAF, big LAF Yeah Yeah Yeah, yeah J'suis v'nu pour faire la guerre, pas pour faire la paix là, j'ai b'soin d'argent et cetera Yeah Si c'est go fast, lâche pas la pédale, no love ici, range tes pétales Pétales Tu connais rien mais tu fais que pénave Pénave, dans toute la ville, ça sent la bédave Yeah Elle est bad elle, j'lui prépare l'intégrale, va là-bas, ici y a rien à ter-gra Yeah Nouveau riche, j'étais dans l'fond, Dieu sait que j'suis bon dans l'fond Déter', j'ai dit J'veux faire ma place dans l'son, déter', j'ai dit J'veux faire ma place dans l'son Yeah Dans m'a vie, t'es qu'un détail Détail, même quand j'suis triste, j'suis en pétard Berrr Peu de wifey, trop de pétasses, ma le-g', no love ici, range tes pétales Pétales Yeah, S.O.S, t'as besoin d'un shooteur, pas d'pause, cherche les plavons à toute heure Ouais, tu parles bien mais j'ai comme un doute, mais j'ai comme un doute Yeah VVS, toi tu veux juste une goutte, j'garde mon temps et j'continue ma p'tite route Yeah Mal luné, j'm'isole une heure ou deux, quand j'me confie, qui écoute ? T'es un bon, j'te garde sous le coude, je sais qui t'es en un coup d'il Coup d'il, je sais qui t'es en un coup d'il Dundy, mets-moi du Diplomatic', chercher les plavons, c'est systématique Les années passent et c'est les mêmes thématiques, les années passent et Yeah You might also like Nouveau riche, j'étais dans l'fond, Dieu sait que j'suis bon dans l'fond Déter', j'ai dit J'veux faire ma place dans l'son, déter', j'ai dit J'veux faire ma place dans l'son Place dans l'son Dans m'a vie, t'es qu'un détail Dans ma vie, t'es qu'un, même quand j'suis triste, j'suis en pétard Yeah Peu de wifey, trop de pétasses, ma le-g', no love ici, range tes pétales Yeah J'ai b'soin d'argent et cetera Yeah Si c'est go fast, lâche pas la pédale Pédale, no love ici, range tes pétales Yeah Tu connais rien mais tu fais que pénave Pénave, dans toute la ville, ça sent la bédave Bédave Elle est bad elle, j'lui prépare l'intégrale, va là-bas, ici y a rien à ter-gra Yeah</t>
+          <t>Yeah Yeah, yeah Yeah Yeah Yeah, yeah Yeah Yeah Yeah, yeah Yeah Yeah Big LAF, big LAF, big LAF, big LAF Yeah, yeah Big LAF, big LAF, big LAF, big LAF Yeah Yeah Yeah, yeah J'suis v'nu pour faire la guerre, pas pour faire la paix là, j'ai b'soin d'argent et cetera Yeah Si c'est go fast, lâche pas la pédale, no love ici, range tes pétales Pétales Tu connais rien mais tu fais que pénave Pénave, dans toute la ville, ça sent la bédave Yeah Elle est bad elle, j'lui prépare l'intégrale, va là-bas, ici y a rien à ter-gra Yeah Nouveau riche, j'étais dans l'fond, Dieu sait que j'suis bon dans l'fond Déter', j'ai dit J'veux faire ma place dans l'son, déter', j'ai dit J'veux faire ma place dans l'son Yeah Dans m'a vie, t'es qu'un détail Détail, même quand j'suis triste, j'suis en pétard Berrr Peu de wifey, trop de pétasses, ma le-g', no love ici, range tes pétales Pétales Yeah, S.O.S, t'as besoin d'un shooteur, pas d'pause, cherche les plavons à toute heure Ouais, tu parles bien mais j'ai comme un doute, mais j'ai comme un doute Yeah VVS, toi tu veux juste une goutte, j'garde mon temps et j'continue ma p'tite route Yeah Mal luné, j'm'isole une heure ou deux, quand j'me confie, qui écoute ? T'es un bon, j'te garde sous le coude, je sais qui t'es en un coup d'il Coup d'il, je sais qui t'es en un coup d'il Dundy, mets-moi du Diplomatic', chercher les plavons, c'est systématique Les années passent et c'est les mêmes thématiques, les années passent et Yeah Nouveau riche, j'étais dans l'fond, Dieu sait que j'suis bon dans l'fond Déter', j'ai dit J'veux faire ma place dans l'son, déter', j'ai dit J'veux faire ma place dans l'son Place dans l'son Dans m'a vie, t'es qu'un détail Dans ma vie, t'es qu'un, même quand j'suis triste, j'suis en pétard Yeah Peu de wifey, trop de pétasses, ma le-g', no love ici, range tes pétales Yeah J'ai b'soin d'argent et cetera Yeah Si c'est go fast, lâche pas la pédale Pédale, no love ici, range tes pétales Yeah Tu connais rien mais tu fais que pénave Pénave, dans toute la ville, ça sent la bédave Bédave Elle est bad elle, j'lui prépare l'intégrale, va là-bas, ici y a rien à ter-gra Yeah</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ERRR Yeah, ERRR, Yeah Yeah, ERRR, Yeah Nouveau ice o lator , ma bitch est so icy Dans le mal j'envoie pas d'SOS Et ce petit tox il vient pécho ma zip Let's go, let's go Je donne mon temps pour les éduquer mais qui me dit merci, dans le studio fais de l'exercice La eight-o-eight a cassé le plexi, je parle calme et la go dit que sauvage est mon lexique Toi on t'a dépasser, ma zic à dégagé une aura d malade dans le neighborhood Pourquoi tu vux clasher, j'te bois comme le cachet, j'te fume comme le sachet, ma gueule t'étais où Quand j'étais en bizarre là bas avec cinq G Quand j'ai vu l'premier contrat à cinq chiffres Le jour est différent mais c'est la same shit Le jour est différent mais c'est la same shit Nouveau ice o lator, ma bitch est so icy Dans le mal j'envoie pas d'SOS Et ce petit tox il vient pécho ma zik, il veut qu'en vidéo je le so so Quotidiennement cherche le peso peso, si j'le fait ma le-gueu y'a pas d'essai d'essai Pense à ses courbes, à son fessier fessier Penses aux trahisons, aux décès décès Du jour au lendemain vit de sa passion au fond je n'sais pas c'qui s'est passé passé Dan un ennuis on voit le seum emballer les G qui font que s'entasser-tasser De l'oseille il faut placer Serpents, je parle au passé ERRR J'l'aimais mais elle s'est cassée j'l'aimais mais elle s'est cassée J'l'aimais mais elle s'est cassée j'l'aimais mais elle s'est cassée Je le fais avec manière, on à l'art et la méthode Baby mama veut m'attendrir elle utilise des mots doux Mes gavas sont bavons, ont visé le plafond, OG éducation, sur mon cou le glaçon Faut rester logique dans ses associations Tu dis qu't'es des notres, t'es là bas mais bon passons Faire la part des choses ma le-gueu c'est difficile Jeune à la fin joue avec les syllabes Dans le studio prépare un missile Sur le terrain j'me sens en mission You might also like Je donne mon temps pour les éduquer mais qui me dit merci, dans le studio fais de l'exercice La eight-o-eight a cassé le plexi, je parle calme et la go dit que sauvage est mon lexique Toi on t'a dépasser, ma zic à dégagé une aura de malade dans le neighborhood Pourquoi tu veux clasher, j'te bois comme le cachet, j'te fume comme le sachet, ma gueule t'étais où Yeah ERRR Yeah Yeah ERRR Yeah</t>
+          <t>ERRR Yeah, ERRR, Yeah Yeah, ERRR, Yeah Nouveau ice o lator , ma bitch est so icy Dans le mal j'envoie pas d'SOS Et ce petit tox il vient pécho ma zip Let's go, let's go Je donne mon temps pour les éduquer mais qui me dit merci, dans le studio fais de l'exercice La eight-o-eight a cassé le plexi, je parle calme et la go dit que sauvage est mon lexique Toi on t'a dépasser, ma zic à dégagé une aura d malade dans le neighborhood Pourquoi tu vux clasher, j'te bois comme le cachet, j'te fume comme le sachet, ma gueule t'étais où Quand j'étais en bizarre là bas avec cinq G Quand j'ai vu l'premier contrat à cinq chiffres Le jour est différent mais c'est la same shit Le jour est différent mais c'est la same shit Nouveau ice o lator, ma bitch est so icy Dans le mal j'envoie pas d'SOS Et ce petit tox il vient pécho ma zik, il veut qu'en vidéo je le so so Quotidiennement cherche le peso peso, si j'le fait ma le-gueu y'a pas d'essai d'essai Pense à ses courbes, à son fessier fessier Penses aux trahisons, aux décès décès Du jour au lendemain vit de sa passion au fond je n'sais pas c'qui s'est passé passé Dan un ennuis on voit le seum emballer les G qui font que s'entasser-tasser De l'oseille il faut placer Serpents, je parle au passé ERRR J'l'aimais mais elle s'est cassée j'l'aimais mais elle s'est cassée J'l'aimais mais elle s'est cassée j'l'aimais mais elle s'est cassée Je le fais avec manière, on à l'art et la méthode Baby mama veut m'attendrir elle utilise des mots doux Mes gavas sont bavons, ont visé le plafond, OG éducation, sur mon cou le glaçon Faut rester logique dans ses associations Tu dis qu't'es des notres, t'es là bas mais bon passons Faire la part des choses ma le-gueu c'est difficile Jeune à la fin joue avec les syllabes Dans le studio prépare un missile Sur le terrain j'me sens en mission Je donne mon temps pour les éduquer mais qui me dit merci, dans le studio fais de l'exercice La eight-o-eight a cassé le plexi, je parle calme et la go dit que sauvage est mon lexique Toi on t'a dépasser, ma zic à dégagé une aura de malade dans le neighborhood Pourquoi tu veux clasher, j'te bois comme le cachet, j'te fume comme le sachet, ma gueule t'étais où Yeah ERRR Yeah Yeah ERRR Yeah</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EYA! Yeah Errr Yeah ! Yeah Errr Yeah ! EYA! Yeah Errr Yeah Err! Yeah Errr Yeah Err! EYA! Yeah Errr Yeah Err! Yeah Errr Yeah Err! EYA! Des faux G m'ont déçu pour des histoires d'écu, c'est du passé maintenant EYA! Faut mettre de côté, réinvestir après j'veux un million sous le matelas EYA! Des faux G m'ont déçu pour des histoires d'écu, c'est du passé maintenant EYA! On a trop attendu la chance, ma le-gueu donc on veut tout maintenant J'me lève en bonne humeur, plus carré tu meurt Castro go crazy a tué ça Tire sur le gaz, rendez-vous là-bas, j'étais en retard donc j'ai tué ça Faut que j'me pète ailleurs, nouveau design, dis moi La Fève ou t'as trouvé ça Twenty - twenty-one, la Fève on charbonne, Rooky d'l'année on va prouver ça Au lieu de se motiver, ces négros se noient dans la jalousie Petite larme j'ai, quand mes gars versent le Henessy New bitch, nouveau salomom Trap illégalement yeah, chop elle est Allemande Elle m'a dit La Fève, Pourquoi tu mens ? J'ai une chienne de vie, pourquoi tu m'en veux ? Je voulais mais le ciel ma dit non Ma le-g' c'est du passé maintenant J'étais ce jeune intenable Toujours le mauvais côté te nargue T'es mon frère, alors baisse ton arme T'es mon frère, alors baisse ton arme Castro go crazy a tué ça J'écris La Fève dans la BM' Avec moi t'a voulu jouer EYA! Six o clock j'hote ma peine Errr day, le devoir m'appelle La conso cache le papel La conso cache le papel EYA! You might also like Des faux G m'ont déçu pour des histoires d'écu, c'est du passé maintenant EYA! Faut mettre de côté, réinvestir après j'veux un million sous le matelas EYA! Des faux G m'ont déçu pour des histoires d'écu, c'est du passé maintenant EYA! On a trop attendu la chance, ma le-gueu donc on veut tout maintenant EYA! Yeah Errr Yeah Err! Yeah Errr Yeah Err! Yeah Errr Yeah Err! Yeah Errr Yeah Err! Yeah Errr Yeah Err! Yeah Errr Yeah Err!</t>
+          <t>EYA! Yeah Errr Yeah ! Yeah Errr Yeah ! EYA! Yeah Errr Yeah Err! Yeah Errr Yeah Err! EYA! Yeah Errr Yeah Err! Yeah Errr Yeah Err! EYA! Des faux G m'ont déçu pour des histoires d'écu, c'est du passé maintenant EYA! Faut mettre de côté, réinvestir après j'veux un million sous le matelas EYA! Des faux G m'ont déçu pour des histoires d'écu, c'est du passé maintenant EYA! On a trop attendu la chance, ma le-gueu donc on veut tout maintenant J'me lève en bonne humeur, plus carré tu meurt Castro go crazy a tué ça Tire sur le gaz, rendez-vous là-bas, j'étais en retard donc j'ai tué ça Faut que j'me pète ailleurs, nouveau design, dis moi La Fève ou t'as trouvé ça Twenty - twenty-one, la Fève on charbonne, Rooky d'l'année on va prouver ça Au lieu de se motiver, ces négros se noient dans la jalousie Petite larme j'ai, quand mes gars versent le Henessy New bitch, nouveau salomom Trap illégalement yeah, chop elle est Allemande Elle m'a dit La Fève, Pourquoi tu mens ? J'ai une chienne de vie, pourquoi tu m'en veux ? Je voulais mais le ciel ma dit non Ma le-g' c'est du passé maintenant J'étais ce jeune intenable Toujours le mauvais côté te nargue T'es mon frère, alors baisse ton arme T'es mon frère, alors baisse ton arme Castro go crazy a tué ça J'écris La Fève dans la BM' Avec moi t'a voulu jouer EYA! Six o clock j'hote ma peine Errr day, le devoir m'appelle La conso cache le papel La conso cache le papel EYA! Des faux G m'ont déçu pour des histoires d'écu, c'est du passé maintenant EYA! Faut mettre de côté, réinvestir après j'veux un million sous le matelas EYA! Des faux G m'ont déçu pour des histoires d'écu, c'est du passé maintenant EYA! On a trop attendu la chance, ma le-gueu donc on veut tout maintenant EYA! Yeah Errr Yeah Err! Yeah Errr Yeah Err! Yeah Errr Yeah Err! Yeah Errr Yeah Err! Yeah Errr Yeah Err! Yeah Errr Yeah Err!</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tema la tête des faibles Donne-moi la date des faits Tema la tête des faibles Han Donne-moi la date des faits Han Et j'pull-up dans l'arène Han Tema la tête des faibles Yeah Tema la tête des faibles Pas content quand j'suis solo, wow Pas content quand j'm'arrête Non Tema la tête des faibles Non De ceux qui votent FN Ouh Eh, eh, eh, let's go Go Passe mon zin-cou Passe mon zin-cou J'te couche d'un coup J'vois tu kiffes, j'dis thank u Yah, je sais qu'tu nous connais Je sais qu'tu nous connais Ce trio tu l connais Ce trio tu le connais Test si tu veux caner Si tu veux canner Yeah, tema la toile des fois On pull up tous les soirs Médical quand j'fume bien Me dis pas que j'suis loin Tema la gueule des faibles Qui jouent que sur leur PlayStation Station Tema la tête des jeunes Des jeunes Qui gueulent quand ils perdent contre Dun You might also like Hey, hey, hey Ils veulent être riches comme Jeff Mais ne peuvent pas être vif comme chef, ok Tu sais je suis qui quand même Wow Y'a qu'un taxi qui t'emmène, ok Trouvé sur le darknet Tu sais qu'il n'y aura pas de prise d'antenne, ok Tu bouges on t'enterre mec T'inquiète on oubliera pas les chrysanthèmes Yeah, yeah, yeah Yeah J'suis sur la prod comme un fantôme J'ai flashé sur son anatomie Deux g critical dans le tommy Poto rien qu'au micro tu tho-my J'ai des rêves, pour ça qu'on à la foi gars Je suis un ne-jeu, j'ai la fougue Poto y'a des serpents fais gaffe Fais gaffe Poto, serpent, fais gaffe Yeah Donne-moi la date des faits Han Et j'pull-up dans l'arène Han Tema la tête des faibles Yeah Tema la tête des faibles Pas content quand j'suis solo, wow Pas content quand j'm'arrête Non Tema la tête des faibles Non De ceux qui votent FN Ouh Eh, eh, eh, let's go Go Passe mon zin-cou Passe mon zin-cou J'te couche d'un coup J'vois tu kiffe, j'dis thank u Yeah, je sais qu'tu nous connais Je sais qu'tu nous connais Ce trio tu le connais Ce trio tu le connais Test si tu veux caner Tu veux canner Wow, wow Toi et moi on est pas potes On vient pas de la même époque Non ne tiens pas mon épaule Han, han J'trouve qu'a nous trois on est jeune On est jeune Toi et moi on est pas potes Non ne tiens pas mon épaule Hey, hey, hey J'ai vu trop d'amis dans de grandes détresses L'état ne fait que leur prendre les fesses L'éthanol fait que mon centre équestre Accélère bien fort dans leur forteresse Ils m'apprécieront que tant qu'c'est frais On s'trouve à huit dans le tank serré La pauvreté, le crime font que tant s'aimer Les anciens de ma ville ont les dents pétées Président j'fais l'opération Tre-trai c'est la pire des races Je fais ma vie, on verra Entouré d'mes scélérats J'ai mis un uzi sous mon kimono Poto belzebuth c'est qui my nigg Donne-moi la date des faits J't'ai mis un score, passe la manette Donne-moi la date des faits Et j'pull-up dans l'arène Han Tema la tête des faibles Yeah Tema la tête des faibles Pas content quand j'suis solo, wow Pas content quand j'm'arrête Non Tema la tête des faibles Non De ceux qui votent FN Ouh Eh, eh, eh, let's go Go Passe mon zin-cou Passe mon zin-cou J'te couche d'un coup J'vois tu kiffe, j'dis thank u Yeah, je sais qu'tu nous connais Je sais qu'tu nous connais Ce trio tu le connais Ce trio tu le connais Test si tu veux caner Tu veux canner</t>
+          <t>Tema la tête des faibles Donne-moi la date des faits Tema la tête des faibles Han Donne-moi la date des faits Han Et j'pull-up dans l'arène Han Tema la tête des faibles Yeah Tema la tête des faibles Pas content quand j'suis solo, wow Pas content quand j'm'arrête Non Tema la tête des faibles Non De ceux qui votent FN Ouh Eh, eh, eh, let's go Go Passe mon zin-cou Passe mon zin-cou J'te couche d'un coup J'vois tu kiffes, j'dis thank u Yah, je sais qu'tu nous connais Je sais qu'tu nous connais Ce trio tu l connais Ce trio tu le connais Test si tu veux caner Si tu veux canner Yeah, tema la toile des fois On pull up tous les soirs Médical quand j'fume bien Me dis pas que j'suis loin Tema la gueule des faibles Qui jouent que sur leur PlayStation Station Tema la tête des jeunes Des jeunes Qui gueulent quand ils perdent contre Dun Hey, hey, hey Ils veulent être riches comme Jeff Mais ne peuvent pas être vif comme chef, ok Tu sais je suis qui quand même Wow Y'a qu'un taxi qui t'emmène, ok Trouvé sur le darknet Tu sais qu'il n'y aura pas de prise d'antenne, ok Tu bouges on t'enterre mec T'inquiète on oubliera pas les chrysanthèmes Yeah, yeah, yeah Yeah J'suis sur la prod comme un fantôme J'ai flashé sur son anatomie Deux g critical dans le tommy Poto rien qu'au micro tu tho-my J'ai des rêves, pour ça qu'on à la foi gars Je suis un ne-jeu, j'ai la fougue Poto y'a des serpents fais gaffe Fais gaffe Poto, serpent, fais gaffe Yeah Donne-moi la date des faits Han Et j'pull-up dans l'arène Han Tema la tête des faibles Yeah Tema la tête des faibles Pas content quand j'suis solo, wow Pas content quand j'm'arrête Non Tema la tête des faibles Non De ceux qui votent FN Ouh Eh, eh, eh, let's go Go Passe mon zin-cou Passe mon zin-cou J'te couche d'un coup J'vois tu kiffe, j'dis thank u Yeah, je sais qu'tu nous connais Je sais qu'tu nous connais Ce trio tu le connais Ce trio tu le connais Test si tu veux caner Tu veux canner Wow, wow Toi et moi on est pas potes On vient pas de la même époque Non ne tiens pas mon épaule Han, han J'trouve qu'a nous trois on est jeune On est jeune Toi et moi on est pas potes Non ne tiens pas mon épaule Hey, hey, hey J'ai vu trop d'amis dans de grandes détresses L'état ne fait que leur prendre les fesses L'éthanol fait que mon centre équestre Accélère bien fort dans leur forteresse Ils m'apprécieront que tant qu'c'est frais On s'trouve à huit dans le tank serré La pauvreté, le crime font que tant s'aimer Les anciens de ma ville ont les dents pétées Président j'fais l'opération Tre-trai c'est la pire des races Je fais ma vie, on verra Entouré d'mes scélérats J'ai mis un uzi sous mon kimono Poto belzebuth c'est qui my nigg Donne-moi la date des faits J't'ai mis un score, passe la manette Donne-moi la date des faits Et j'pull-up dans l'arène Han Tema la tête des faibles Yeah Tema la tête des faibles Pas content quand j'suis solo, wow Pas content quand j'm'arrête Non Tema la tête des faibles Non De ceux qui votent FN Ouh Eh, eh, eh, let's go Go Passe mon zin-cou Passe mon zin-cou J'te couche d'un coup J'vois tu kiffe, j'dis thank u Yeah, je sais qu'tu nous connais Je sais qu'tu nous connais Ce trio tu le connais Ce trio tu le connais Test si tu veux caner Tu veux canner</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>J'marche seul et j'en ai marre, ça fait des kilomètres J'ai la migraine alors j'gronde sur le baromètre J'ai pas les sous mais j'ai les srabs qui gardent mes arrières Moi c'est Fev, enchanté, viens dans mes affaires Moi j'aime le quick a c'qui parait-vous aimez l'White Castle J'sais pas m'battre alors si t'es qué-cho ne prends pas peur Moi j'aime les zouz et mon crew qui gardent mes arrières Moi c'est Fev enchanté viens dans mes affaires J'ai pas trouvé d'instru fun pour les présentations Sourire en coin, j'ai taffé pour soigner la prestation Ridicule est ma dégaine mais j'm'aime bien quand même Mais j'ai la haine et ça vous gêne si j'commence l'affront Lève ton 7 ou bien ton verre si t'es dans mon équipe Sur les seufés a Charline moi j'ai fait des kick flip Si t'as les yeux qui brillent c'est que t'as compris qui j'étais Si t'as les fesses qui piquent c'est qu'Sevi t'as montré qui c'est J'gratte pour les frères EryTevan mes femmes Malheureusement avec le temps leurs dédicaces s'effacent J'vais finir par terre J'crois qu'j'aurai jamais d'fan J'suis l'ennemi d'la routine alors faut pas que Louis m'écrase J'vais m'faire virer, j'ai encore rien lé-bran de ma semaine J'graille les toys de temps en temps qui gênent ma semelle J'ai peur du noir depuis que la mort demeure dans mon veau-cer You might also like Moi c'est Fev enchanté, viens dans mes affaires J'marche seul et j'en ai marre ca fait des kilomètres J'ai la migraine alors j'gronde sur le baromètre J'ai pas les sous mais j'ai les srabs qui gardent mes arrières Moi c'est Fev, enchanté, viens dans mes affaires Paris pue y a que des tox' et des clodos Des putes et des bobos qui jurent uniquement par ton dos Paris tue car j'ai posé quelques promos Sa2c mon soss 'vec qui j'ai graffé jusqu'à l'aube Le 7op c'est la patrie, j'ai donné tout mon sang Je pourrai pas faire sans, ils répondent jamais absent Moi j'les aime car je sais qu'ils gardent mes arrières Moi c'est fev , enchanté viens dans mes affaires Ca a changé depuis le temps où j'aimais pas rapper J'sais pas si j'suis bon ou bien qu'un autre emcee raté J'fais le rap que j'écoute donc j'suis déterminé à les exterminer à coup d'cobras coincés dans l'nez Le pavé de lezizou il pue un peu la pisse Ouais j'suis nerveux et j'graille tous les merdeux les pacifistes J'ai les yeux rouges et les jambes lourdes C'est pour ma plume sans qui j'aurai forcé des jours pour que mes reufs approuvent Mes parents comprennent pas Que j'suis l'roi des Enfers Sans déconner, j'ai l'air d'un bouffon qui manque pas d'air J'connais plus l'amour Apart celui d'Tevan Est-ce que j'ai l'air de rigoler enfoiré range tes vannes Quand on débarque impossible de diviser la meute On aime le froid et la chaleur, a 50 ou a 2 Louis c'est qu'une merde et j'le froisse droit dans les artères Moi c'est Fev, enchanté, viens dans mes affaires J'suis l'enfant du fond du bus, un peu trop dans la lune Mon miroir il est cassé pour ca qu'j'ai des lacunes J'ai pas changé enfin j'suis plus Michael Jackson junior J'ai trop d'ego et j'crois qu'mon fils s'appellera Fev-or Mais j'suis ridicule, et ouais t'es sexy J'graff sur plexi, depuis 16 ans les mêmes cibles J'suis mort-né en vérité, j'rappe à six pieds sous terres Moi c'est Fev enchanté, viens dans mes affaires J'marche seul et j'en ai marre ca fait des kilomètres J'ai la migraine alors j'gronde sur le baromètre J'ai pas les sous mais j'ai les srabs qui gardent mes arrières Moi c'est Fev, enchanté</t>
+          <t>J'marche seul et j'en ai marre, ça fait des kilomètres J'ai la migraine alors j'gronde sur le baromètre J'ai pas les sous mais j'ai les srabs qui gardent mes arrières Moi c'est Fev, enchanté, viens dans mes affaires Moi j'aime le quick a c'qui parait-vous aimez l'White Castle J'sais pas m'battre alors si t'es qué-cho ne prends pas peur Moi j'aime les zouz et mon crew qui gardent mes arrières Moi c'est Fev enchanté viens dans mes affaires J'ai pas trouvé d'instru fun pour les présentations Sourire en coin, j'ai taffé pour soigner la prestation Ridicule est ma dégaine mais j'm'aime bien quand même Mais j'ai la haine et ça vous gêne si j'commence l'affront Lève ton 7 ou bien ton verre si t'es dans mon équipe Sur les seufés a Charline moi j'ai fait des kick flip Si t'as les yeux qui brillent c'est que t'as compris qui j'étais Si t'as les fesses qui piquent c'est qu'Sevi t'as montré qui c'est J'gratte pour les frères EryTevan mes femmes Malheureusement avec le temps leurs dédicaces s'effacent J'vais finir par terre J'crois qu'j'aurai jamais d'fan J'suis l'ennemi d'la routine alors faut pas que Louis m'écrase J'vais m'faire virer, j'ai encore rien lé-bran de ma semaine J'graille les toys de temps en temps qui gênent ma semelle J'ai peur du noir depuis que la mort demeure dans mon veau-cer Moi c'est Fev enchanté, viens dans mes affaires J'marche seul et j'en ai marre ca fait des kilomètres J'ai la migraine alors j'gronde sur le baromètre J'ai pas les sous mais j'ai les srabs qui gardent mes arrières Moi c'est Fev, enchanté, viens dans mes affaires Paris pue y a que des tox' et des clodos Des putes et des bobos qui jurent uniquement par ton dos Paris tue car j'ai posé quelques promos Sa2c mon soss 'vec qui j'ai graffé jusqu'à l'aube Le 7op c'est la patrie, j'ai donné tout mon sang Je pourrai pas faire sans, ils répondent jamais absent Moi j'les aime car je sais qu'ils gardent mes arrières Moi c'est fev , enchanté viens dans mes affaires Ca a changé depuis le temps où j'aimais pas rapper J'sais pas si j'suis bon ou bien qu'un autre emcee raté J'fais le rap que j'écoute donc j'suis déterminé à les exterminer à coup d'cobras coincés dans l'nez Le pavé de lezizou il pue un peu la pisse Ouais j'suis nerveux et j'graille tous les merdeux les pacifistes J'ai les yeux rouges et les jambes lourdes C'est pour ma plume sans qui j'aurai forcé des jours pour que mes reufs approuvent Mes parents comprennent pas Que j'suis l'roi des Enfers Sans déconner, j'ai l'air d'un bouffon qui manque pas d'air J'connais plus l'amour Apart celui d'Tevan Est-ce que j'ai l'air de rigoler enfoiré range tes vannes Quand on débarque impossible de diviser la meute On aime le froid et la chaleur, a 50 ou a 2 Louis c'est qu'une merde et j'le froisse droit dans les artères Moi c'est Fev, enchanté, viens dans mes affaires J'suis l'enfant du fond du bus, un peu trop dans la lune Mon miroir il est cassé pour ca qu'j'ai des lacunes J'ai pas changé enfin j'suis plus Michael Jackson junior J'ai trop d'ego et j'crois qu'mon fils s'appellera Fev-or Mais j'suis ridicule, et ouais t'es sexy J'graff sur plexi, depuis 16 ans les mêmes cibles J'suis mort-né en vérité, j'rappe à six pieds sous terres Moi c'est Fev enchanté, viens dans mes affaires J'marche seul et j'en ai marre ca fait des kilomètres J'ai la migraine alors j'gronde sur le baromètre J'ai pas les sous mais j'ai les srabs qui gardent mes arrières Moi c'est Fev, enchanté</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Yeah, yeah han, han Fais-le mon G G T'veux l'faire fais-le mon G han han Gorila glue dans mon jean Jean Fucked up c'est la logique yeah yeah Fais-le mon G G T'veux l'faire fais-le mon G han han Gorila glue dans mon jean Jean Fucked up c'est la logique ok yeah yeah Pourquoi tu trembles ? trembles La fève il est très grand grand J'regarde, le monde est grand grand J'fleurte avec les méchants yeah yah Une gadji me shine shin Yeux bridés comme un chinois J'veux du Louis vi pas de gucci -cci T'veux l'faire fait le mon G Combien de temps avant qu'ma sentence me tombe dessus frère ? J'ai du sang royal dans les veines ok J'ai des rêves poto, j'ai des rêves Pour ça qu'faut pas chômer chômer Dans ça comme un chimiste J'fais mon truc, all eyes on me yeah yeah You might also like Fais-le mon G G T'veux l'faire fais-le mon G han han Gorila glue dans mon jean Jean Fucked up c'est la logique yeah yeah Fais-le mon G G T'veux l'faire fais-le mon G han han Gorila glue dans mon jean Jean Fucked up c'est la logique yeah yeah Très grand, la fève il est très grand poto J'sort donc je mets les gants Quand j'rentre ça sent le pilon dans le Avec la fine équipe J'me demande pas qui me kiffe La fève j'ai pas d'pire ennemie Jeune qui smoke du J'vais pas vendre mon âme a l'industrie ni à lucifer Jeune laf qui pose sur les mélos de YASSUNIVERS J'fais mes diez poto j'fais mes diez seul ou accompagné On économise, des daleux, poto on est dans l'même panier Fais-le mon G G T'veux l'faire fais-le mon G han han Gorila glue dans mon jean Jean Fucked up c'est la logique yeah yeah Fais-le mon G G T'veux l'faire fais-le mon G han han Gorila glue dans mon jean Jean Fucked up c'est la logique ok yeah yeah</t>
+          <t>Yeah, yeah han, han Fais-le mon G G T'veux l'faire fais-le mon G han han Gorila glue dans mon jean Jean Fucked up c'est la logique yeah yeah Fais-le mon G G T'veux l'faire fais-le mon G han han Gorila glue dans mon jean Jean Fucked up c'est la logique ok yeah yeah Pourquoi tu trembles ? trembles La fève il est très grand grand J'regarde, le monde est grand grand J'fleurte avec les méchants yeah yah Une gadji me shine shin Yeux bridés comme un chinois J'veux du Louis vi pas de gucci -cci T'veux l'faire fait le mon G Combien de temps avant qu'ma sentence me tombe dessus frère ? J'ai du sang royal dans les veines ok J'ai des rêves poto, j'ai des rêves Pour ça qu'faut pas chômer chômer Dans ça comme un chimiste J'fais mon truc, all eyes on me yeah yeah Fais-le mon G G T'veux l'faire fais-le mon G han han Gorila glue dans mon jean Jean Fucked up c'est la logique yeah yeah Fais-le mon G G T'veux l'faire fais-le mon G han han Gorila glue dans mon jean Jean Fucked up c'est la logique yeah yeah Très grand, la fève il est très grand poto J'sort donc je mets les gants Quand j'rentre ça sent le pilon dans le Avec la fine équipe J'me demande pas qui me kiffe La fève j'ai pas d'pire ennemie Jeune qui smoke du J'vais pas vendre mon âme a l'industrie ni à lucifer Jeune laf qui pose sur les mélos de YASSUNIVERS J'fais mes diez poto j'fais mes diez seul ou accompagné On économise, des daleux, poto on est dans l'même panier Fais-le mon G G T'veux l'faire fais-le mon G han han Gorila glue dans mon jean Jean Fucked up c'est la logique yeah yeah Fais-le mon G G T'veux l'faire fais-le mon G han han Gorila glue dans mon jean Jean Fucked up c'est la logique ok yeah yeah</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Merde, jmarche ne viens plus dans mes affaires Courane a droite jai le 7 pour lhiver Coupable a geu jai mon chien qui ldévore Pétasse ta douter du roi des Enfers Merde ohdieu faites les équipes Jai choisi les connards du fond de la classe Ma bécane et jdémarre pour démarrer le casque Jtai pas sonner connard tes comme ??? Ça parle seulement quand la fève dort, jlais tuerais sur un son ???, avec un broliquard et lcorridor, dors fils de pute allez sort tout Jsuis pas un mec de maison, attendez dvoir avant de buter mes hommes Ya des gens qui se lèvent pour mourir a temps plein Moi jsuis dans les airs jvais pas sucer des hommes Tu fais des passes, moi jmaitrise bien les diagonales Je cache le corps y mfaut une teille de carbonate Pétard au bord du lac jveux plus être astronaute Putain jsuis monstrueux jai parler a la psychologue Merde jai la recette pour les bassiner ??? Quand jsuis dans les cieux jdis pourquoi seigneur ? Si la vie est si rosie alors pourquoi je saigne Jsirote avant qla seringue me perce, jconnais pas tout lor, jconnais les baffes de mon père Je connais mes vices et je connais mes tords Déjà a lécole la feve cest mon mentor Tes fan de psychopathe dans les merveilles, les pétasses qui parlent mal sont des morveux Moi jsuis le roi jsuis pas héros de chez marvel Ils tueraient leurs eufton moi jte mord freulon Merde personne ne maime, si lmonde part en couille moi j'fais la momie Ils seront ridés avant que faucheuse matteigne ??? Moi jsuis qun poisseux dans le fond, jbaraude jbaraude pour être dans le feu de laction Jen ai marre de ceux qui te foutent sans pression, jsuis pas le poisson connard qui mordille a lhameçon Pense que la fève périra tot ou tard Mes souvenirs reviennent alors tétais ou toi Jessayais de comprendre pourquoi jlaimais autant, jai pas changé mon coeur donne moi tout ce que tas Merde fais vite fais vite ??? Sifflent les baceux, les condés moppressent Jattends jattend pour que le démon passe ??? Misanthrope depuis 240 piges Jai que la Fève pour vous mettre quelques baffes Jsuis le roi jai mon trône dis moi est ce que tu piges Merde freulon 7, merde jsuis dans le skrrr, merde jsuis dans le 7 aye aye, cest la Fève merdeYou might also like</t>
+          <t>Merde, jmarche ne viens plus dans mes affaires Courane a droite jai le 7 pour lhiver Coupable a geu jai mon chien qui ldévore Pétasse ta douter du roi des Enfers Merde ohdieu faites les équipes Jai choisi les connards du fond de la classe Ma bécane et jdémarre pour démarrer le casque Jtai pas sonner connard tes comme ??? Ça parle seulement quand la fève dort, jlais tuerais sur un son ???, avec un broliquard et lcorridor, dors fils de pute allez sort tout Jsuis pas un mec de maison, attendez dvoir avant de buter mes hommes Ya des gens qui se lèvent pour mourir a temps plein Moi jsuis dans les airs jvais pas sucer des hommes Tu fais des passes, moi jmaitrise bien les diagonales Je cache le corps y mfaut une teille de carbonate Pétard au bord du lac jveux plus être astronaute Putain jsuis monstrueux jai parler a la psychologue Merde jai la recette pour les bassiner ??? Quand jsuis dans les cieux jdis pourquoi seigneur ? Si la vie est si rosie alors pourquoi je saigne Jsirote avant qla seringue me perce, jconnais pas tout lor, jconnais les baffes de mon père Je connais mes vices et je connais mes tords Déjà a lécole la feve cest mon mentor Tes fan de psychopathe dans les merveilles, les pétasses qui parlent mal sont des morveux Moi jsuis le roi jsuis pas héros de chez marvel Ils tueraient leurs eufton moi jte mord freulon Merde personne ne maime, si lmonde part en couille moi j'fais la momie Ils seront ridés avant que faucheuse matteigne ??? Moi jsuis qun poisseux dans le fond, jbaraude jbaraude pour être dans le feu de laction Jen ai marre de ceux qui te foutent sans pression, jsuis pas le poisson connard qui mordille a lhameçon Pense que la fève périra tot ou tard Mes souvenirs reviennent alors tétais ou toi Jessayais de comprendre pourquoi jlaimais autant, jai pas changé mon coeur donne moi tout ce que tas Merde fais vite fais vite ??? Sifflent les baceux, les condés moppressent Jattends jattend pour que le démon passe ??? Misanthrope depuis 240 piges Jai que la Fève pour vous mettre quelques baffes Jsuis le roi jai mon trône dis moi est ce que tu piges Merde freulon 7, merde jsuis dans le skrrr, merde jsuis dans le 7 aye aye, cest la Fève merde</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>J'le savais, cétait prévisible Ma le-gueu cherche qui nous freine ici Toujours dans la frénésie Ok, j'le savais, c'était prévisible Ma le-gueu cherche qui nous freine ici Toujours dans la frénésie On mappelle l'espion, les regrets nous laissons, maman était triste quand j'ai quitté la maison Depuis j'vois passer les saisons mais tu sais mon frère j'suis un jeune donc j'assume mes décisions J'ai confiance en l'univers, comment passer lhiver avec rien dans lfrigo mon gava ? Est-ce qu le diablotin dit vrai ? Les soirs dans une ivrsse dans le salon s'enivrer Mon frère je suis le même que jétais Rêve d'AMG et de GT Combien de morceaux on a jetés ? J'écris comme si j'étais le JT Mon frère je suis le même que jétais Rêve d'AMG et de GT Combien de morceaux on a jetés ? J'écris comme si j'étais le JT J'le savais, c'était prévisible Ma le-gueu cherche qui nous freine ici Toujours dans la frénésie Ok, j'le savais, c'était prévisible Ma le-gueu cherche qui nous freine ici Toujours dans la frénésie On m'appelle l'espion, les regrets nous laissons, maman était triste quand j'ai quitté la maison Depuis j'vois passer les saisons mais tu sais mon frère j'suis un jeune donc j'assume mes décisions J'ai confiance en l'univers, comment passer l'hiver avec rien dans l'frigo mon gava ? Est-ce que le diablotin dit vrai ? Les soirs dans une ivresse dans le salon s'enivrerYou might also like</t>
+          <t>J'le savais, cétait prévisible Ma le-gueu cherche qui nous freine ici Toujours dans la frénésie Ok, j'le savais, c'était prévisible Ma le-gueu cherche qui nous freine ici Toujours dans la frénésie On mappelle l'espion, les regrets nous laissons, maman était triste quand j'ai quitté la maison Depuis j'vois passer les saisons mais tu sais mon frère j'suis un jeune donc j'assume mes décisions J'ai confiance en l'univers, comment passer lhiver avec rien dans lfrigo mon gava ? Est-ce qu le diablotin dit vrai ? Les soirs dans une ivrsse dans le salon s'enivrer Mon frère je suis le même que jétais Rêve d'AMG et de GT Combien de morceaux on a jetés ? J'écris comme si j'étais le JT Mon frère je suis le même que jétais Rêve d'AMG et de GT Combien de morceaux on a jetés ? J'écris comme si j'étais le JT J'le savais, c'était prévisible Ma le-gueu cherche qui nous freine ici Toujours dans la frénésie Ok, j'le savais, c'était prévisible Ma le-gueu cherche qui nous freine ici Toujours dans la frénésie On m'appelle l'espion, les regrets nous laissons, maman était triste quand j'ai quitté la maison Depuis j'vois passer les saisons mais tu sais mon frère j'suis un jeune donc j'assume mes décisions J'ai confiance en l'univers, comment passer l'hiver avec rien dans l'frigo mon gava ? Est-ce que le diablotin dit vrai ? Les soirs dans une ivresse dans le salon s'enivrer</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Yeah, yeah, ok Si tu viens pas pour des sous bon vent Avec l'équipe on est devant Pour voir qu'on va l'faire pas besoin d'devin Yeah, ok Dans l'histoire beaucoup d'faux nous présidèrent Jeune à la recherche du trésor Frérot faut qu'on remplisse le frigidaire Yeah, le frigo J'réponds pas trop au bigo J'réponds pas trop au tel Y'a ma dar' qui taf à l'hôtel Tu me parle j'ai l'nez dans mes shits Je prépare le biz d'mes futurs achats Je vois bien le démon me chine On veut tous le saint Graal faut pas qu'il m'échappe Yeah, ok La Fève c'est l'méchant dans le moovie T'as capté la prod elle est groovy On fonce pas dans l'platane comme Schumie Yeah, Michael J'fais des erreurs j'suis un jeune Dans la cabine c'est du génie Pas trop d'compliments tu me gènes Toujours posté La Fève c'est un spy J'veux plus compter c'qu'on s'paye Tu n'as pas le même discours en face de moi gros je trouve ça un peu trop suspect Tu as porté l'il donc suce pas Y'a des gosses y'a des baffes qui s'perdent J'ai du love pour la capitale mais frérot dans la seine y'a des morts qui s'baignent You might also like Yeah, ok Si tu viens pas pour des sous bon vent Avec l'équipe on est devant Pour voir qu'on va l'faire pas besoin d'devin Yeah, ok Dans l'histoire beaucoup d'faux nous présidèrent Jeune à la recherche du trésor Frérot faut qu'on remplisse le frigidaire</t>
+          <t>Yeah, yeah, ok Si tu viens pas pour des sous bon vent Avec l'équipe on est devant Pour voir qu'on va l'faire pas besoin d'devin Yeah, ok Dans l'histoire beaucoup d'faux nous présidèrent Jeune à la recherche du trésor Frérot faut qu'on remplisse le frigidaire Yeah, le frigo J'réponds pas trop au bigo J'réponds pas trop au tel Y'a ma dar' qui taf à l'hôtel Tu me parle j'ai l'nez dans mes shits Je prépare le biz d'mes futurs achats Je vois bien le démon me chine On veut tous le saint Graal faut pas qu'il m'échappe Yeah, ok La Fève c'est l'méchant dans le moovie T'as capté la prod elle est groovy On fonce pas dans l'platane comme Schumie Yeah, Michael J'fais des erreurs j'suis un jeune Dans la cabine c'est du génie Pas trop d'compliments tu me gènes Toujours posté La Fève c'est un spy J'veux plus compter c'qu'on s'paye Tu n'as pas le même discours en face de moi gros je trouve ça un peu trop suspect Tu as porté l'il donc suce pas Y'a des gosses y'a des baffes qui s'perdent J'ai du love pour la capitale mais frérot dans la seine y'a des morts qui s'baignent Yeah, ok Si tu viens pas pour des sous bon vent Avec l'équipe on est devant Pour voir qu'on va l'faire pas besoin d'devin Yeah, ok Dans l'histoire beaucoup d'faux nous présidèrent Jeune à la recherche du trésor Frérot faut qu'on remplisse le frigidaire</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fuckd up, fucked up Cerveau d'gauch, cerveau d'droite j'sais pas gros On cherche le magot, beaucoup dans l'même bateau Avec mes gars on veut notre part du gâteau J'me lève pas tôt, j'vois l'matin mais pas trop La vie c'est dur donc il faut s'accrocher s'accrocher Tous les jours je cherche des rimes Je n'peux pas m'empêcher m'empêcher J'perds du temps, de l'argent donc faut se dépêcher se dépêcher J'suis coupable J'espère que Dieu regarde pas mes péchés yah mes péchés Pas trop foi en l'homme Mon pote j'veux que dalle sur ma tombe tombe Des loups qui parlent sur moi Quand ils m'voient changent de tons tons Sur l'terrain j'fais des feintes J'sais qu'tu m'souhaites du malheur -lheur Jeune canidé j'ai faim, j'veux dépenser à lil ! l'il You might also like Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up</t>
+          <t>Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fuckd up, fucked up Cerveau d'gauch, cerveau d'droite j'sais pas gros On cherche le magot, beaucoup dans l'même bateau Avec mes gars on veut notre part du gâteau J'me lève pas tôt, j'vois l'matin mais pas trop La vie c'est dur donc il faut s'accrocher s'accrocher Tous les jours je cherche des rimes Je n'peux pas m'empêcher m'empêcher J'perds du temps, de l'argent donc faut se dépêcher se dépêcher J'suis coupable J'espère que Dieu regarde pas mes péchés yah mes péchés Pas trop foi en l'homme Mon pote j'veux que dalle sur ma tombe tombe Des loups qui parlent sur moi Quand ils m'voient changent de tons tons Sur l'terrain j'fais des feintes J'sais qu'tu m'souhaites du malheur -lheur Jeune canidé j'ai faim, j'veux dépenser à lil ! l'il Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up Cerveau d'gauche, cerveau d'droite J'sais pas l'quel est l'plus fucked up Fucked up, fucked up</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Hun Oh-oh-oh LOW, LOW, LOW J'suis sur la lune j'suis sur la lune, j'ai un mood galactique oh Baby, mon coeur comme stalactite oh-oh Tu sais que j'ai les keys keys, tu sais que j'ai les keys keys Tu veux faire du sale à qui ? qui Tu veux faire du sale à qui ? J'suis sur la lune j'suis sur la lune, j'ai un mood galactique oh Baby, mon coeur comme stalactite oh-oh Tu sais que j'ai les keys keys, tu sais que j'ai les keys keys Tu veux faire du sale à qui ? qui Tu veux faire du sale à qui ? Je sais que péter mon cierge cierge J'y pense en regardant le ciel Couplet tranchant comme le silex, 2-4-3 mob donc je suis fier À base de OK, de orrh, avant je zonais dehors hors Tu sais la fille veut de l'or J'ai bien capté ce serpent qui me lorgne Fat track, je fais ça trop bien Il faudrait qu'je vide le trop-plein qu'je vide le trop-plein 10 platines au moins, je regarde le soleil au loin yeah, yeah Yeah, appelle-moi La F' le fougueux Qu'ils paradent, j'm'en fous d'eux Il faut j'écarte mes doutes J'ai la vie elle est trop courte let's go You might also like Baby, dehors c'est chaud, j'te parle de la vraie vie Des jeunes cramés qui rêvent de l'Amérique La barque est trouée j'te laisse à la dérive Lady, pour les vacances ça sera sans Dundy Occupé je cruise moi, j'suis sur le périph' L'été sera chaud, j'fais des hits sur Paris J'fais des hits sur Paris, sa mère, ils sont pas prêts J'fais des hits sur Paris l'aprèm et des hits à Lille juste après Demande à S-Tee han, demande à La Fève han Demande à S-Tee, man, demande à La Fève J'suis sur la lune j'suis sur la lune, j'ai un mood galactique oh Baby, mon coeur comme stalactite oh-oh Tu sais que j'ai les keys keys, tu sais que j'ai les keys keys Tu veux faire du sale à qui ? qui Tu veux faire du sale à qui ? J'suis sur la lune j'suis sur la lune, j'ai un mood galactique oh Baby, mon coeur comme stalactite oh-oh Tu sais que j'ai les keys keys, tu sais que j'ai les keys keys Tu veux faire du sale à qui ? qui Tu veux faire du sale à qui ?</t>
+          <t>Hun Oh-oh-oh LOW, LOW, LOW J'suis sur la lune j'suis sur la lune, j'ai un mood galactique oh Baby, mon coeur comme stalactite oh-oh Tu sais que j'ai les keys keys, tu sais que j'ai les keys keys Tu veux faire du sale à qui ? qui Tu veux faire du sale à qui ? J'suis sur la lune j'suis sur la lune, j'ai un mood galactique oh Baby, mon coeur comme stalactite oh-oh Tu sais que j'ai les keys keys, tu sais que j'ai les keys keys Tu veux faire du sale à qui ? qui Tu veux faire du sale à qui ? Je sais que péter mon cierge cierge J'y pense en regardant le ciel Couplet tranchant comme le silex, 2-4-3 mob donc je suis fier À base de OK, de orrh, avant je zonais dehors hors Tu sais la fille veut de l'or J'ai bien capté ce serpent qui me lorgne Fat track, je fais ça trop bien Il faudrait qu'je vide le trop-plein qu'je vide le trop-plein 10 platines au moins, je regarde le soleil au loin yeah, yeah Yeah, appelle-moi La F' le fougueux Qu'ils paradent, j'm'en fous d'eux Il faut j'écarte mes doutes J'ai la vie elle est trop courte let's go Baby, dehors c'est chaud, j'te parle de la vraie vie Des jeunes cramés qui rêvent de l'Amérique La barque est trouée j'te laisse à la dérive Lady, pour les vacances ça sera sans Dundy Occupé je cruise moi, j'suis sur le périph' L'été sera chaud, j'fais des hits sur Paris J'fais des hits sur Paris, sa mère, ils sont pas prêts J'fais des hits sur Paris l'aprèm et des hits à Lille juste après Demande à S-Tee han, demande à La Fève han Demande à S-Tee, man, demande à La Fève J'suis sur la lune j'suis sur la lune, j'ai un mood galactique oh Baby, mon coeur comme stalactite oh-oh Tu sais que j'ai les keys keys, tu sais que j'ai les keys keys Tu veux faire du sale à qui ? qui Tu veux faire du sale à qui ? J'suis sur la lune j'suis sur la lune, j'ai un mood galactique oh Baby, mon coeur comme stalactite oh-oh Tu sais que j'ai les keys keys, tu sais que j'ai les keys keys Tu veux faire du sale à qui ? qui Tu veux faire du sale à qui ?</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4-4-4-M4TIC Pour arriver là on a galéré On a galéré Pour arriver là on a galéré Ouuuh Pour arriver là on a galéré Pour arriver là on a galéré On a galéré Pour arriver là on a galéré On a galéré Pour arriver là on a galéré Yeah Yeah Yeah Pour arriver là on a galéré Ouuuh Pour arriver là on a galéré Riche ngro J'veux être, sans la triche ngro triche ngro J'vois bien qu'dans la 'zic y'a des actrices ngro 'trices ngro J'dois éviter l'diable et son emprise ngro 'prise ngro Rien d'neuf ici tu sais c'est la crise ngro J'dois capter cette gadji mais j'ai pas la flamme pas la flamme J'me dis qu'ça serait galère pour que j'trouve ma femme trouv ma femme Qu'est c'qu'on srait prêt à faire pour mettre bien la famille la famille Appelle moi La Fève, appelle moi l'affamé Ouuuh Pour rafraichir mon cou, ouh Mon cou, ouh Je le fais j'réfléchis bien mon coup, ouh Mon coup, ouh J'me demandais si j'suis pas la pire des races Pire des races J'penserai à ça plus tard sur une big terrasse J'effrite ce truc couleur praline J'suis un ninety-nine comme Khali Toujours à propos du khaliss L'univers est tentant est-ce que tu réalises You might also like Chérie j'pensais pas c'que j'ai dit hier Toujours les mêmes mots dans mes prières Chérie j'pensais pas c'que j'ai dit hier Toujours les mêmes mots dans mes prières On a galéré Pour arriver là on a galéré Pour arriver là on a galéré Pour arriver là on a galéré Pour arriver là on a galéré On a galéré Pour arriver là on a galéré Yeah Yeah Yeah Pour arriver là on a galéré Ouuuh Pour arriver là on a galéré</t>
+          <t>4-4-4-M4TIC Pour arriver là on a galéré On a galéré Pour arriver là on a galéré Ouuuh Pour arriver là on a galéré Pour arriver là on a galéré On a galéré Pour arriver là on a galéré On a galéré Pour arriver là on a galéré Yeah Yeah Yeah Pour arriver là on a galéré Ouuuh Pour arriver là on a galéré Riche ngro J'veux être, sans la triche ngro triche ngro J'vois bien qu'dans la 'zic y'a des actrices ngro 'trices ngro J'dois éviter l'diable et son emprise ngro 'prise ngro Rien d'neuf ici tu sais c'est la crise ngro J'dois capter cette gadji mais j'ai pas la flamme pas la flamme J'me dis qu'ça serait galère pour que j'trouve ma femme trouv ma femme Qu'est c'qu'on srait prêt à faire pour mettre bien la famille la famille Appelle moi La Fève, appelle moi l'affamé Ouuuh Pour rafraichir mon cou, ouh Mon cou, ouh Je le fais j'réfléchis bien mon coup, ouh Mon coup, ouh J'me demandais si j'suis pas la pire des races Pire des races J'penserai à ça plus tard sur une big terrasse J'effrite ce truc couleur praline J'suis un ninety-nine comme Khali Toujours à propos du khaliss L'univers est tentant est-ce que tu réalises Chérie j'pensais pas c'que j'ai dit hier Toujours les mêmes mots dans mes prières Chérie j'pensais pas c'que j'ai dit hier Toujours les mêmes mots dans mes prières On a galéré Pour arriver là on a galéré Pour arriver là on a galéré Pour arriver là on a galéré Pour arriver là on a galéré On a galéré Pour arriver là on a galéré Yeah Yeah Yeah Pour arriver là on a galéré Ouuuh Pour arriver là on a galéré</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Baby, pardonne-moi si le soir je m'isole Yeah, malade, j'crois qu'il faut me mettre sous camisole Yeah Ces fils de ne respectaient pas le G-code Yeah, yeah, ces fils de ne respectaient pas le G-code Yeah, yeah J'pensais qu'j'allais die comme une rockstar Yeah, il sait qu'j'suis plus wifey que pornstar Yeah Nan, j'ai pas fais mes sous dans l'Bitcoin Dans l'Bitcoin, ces fils de ne respectaient pas le G-code Trop focus, je donne pas de nouvelles, bulletproof, personne va me trouer L'ancien voit la vie comme une poubelle, les âmes perdues que personne va trouver Où ils sont, on était déjà là, sans effort, on fait que des jaloux Big La Fève, tu sais déjà, non ? Les années passent et je prends du galon Pardonne-moi si ma nouvelle vie m'a rendu solitaire Yeah, yeah J'ai besoin d'un Famas comme chez les militaires Paw J'suis un vrai leader, tu n'penses qu'à imiter Yeah, yeah, j'suis un vrai leader, tu n'penses qu'à- Yeah, yeah Baby, pardonne-moi si le soir je m'isole Si le soir, je m'isole, malade, j'crois qu'il faut me mettre sous camisole Camisole Ces fils de ne respectaient pas le G-code Le G-code, ces fils de ne respectaient pas le G-code Le G-code J'pensais qu'j'allais die comme une rockstar Comme une rockstar, il sait qu'j'suis plus wifey que pornstar Que pornstar Nan, j'ai pas fais mes sous dans l'Bitcoin Yeah, yeah, ces fils de ne respectaient pas le G-code Yeah C'est triste à dire mais j'suis mieux ivre, dans ma trap life, je me sens vivre Maxi kichta, je la veux vite, ce soir j'ai du mal à faire le vide Genre avoir les idées claires, je n'suis plus le même qu'hier Dans la cabine, faut m'laisser faire, dans la cabine, faut m'laisser faire J'suis vrai, c'est certifié, j'respecte rien à part le code Elle aime quand j'la dirige, quand je la prends pas le col Motivé, j'suis obligé, on apprend pas à l'école Motivé, j'suis obligé, on apprend pas à l'école You might also like Baby, pardonne-moi si le soir je m'isole Yeah, malade, j'crois qu'il faut me mettre sous camisole Yeah Ces fils de ne respectaient pas le G-code Yeah, yeah, ces fils de ne respectaient pas le G-code Yeah, yeah J'pensais qu'j'allais die comme une rockstar Comme une rockstar, il sait qu'j'suis plus wifey que pornstar Yeah Nan, j'ai pas fais mes sous dans l'Bitcoin Dans l'Bitcoin, ces fils de ne respectaient pas le G-code Yeah1</t>
+          <t>Baby, pardonne-moi si le soir je m'isole Yeah, malade, j'crois qu'il faut me mettre sous camisole Yeah Ces fils de ne respectaient pas le G-code Yeah, yeah, ces fils de ne respectaient pas le G-code Yeah, yeah J'pensais qu'j'allais die comme une rockstar Yeah, il sait qu'j'suis plus wifey que pornstar Yeah Nan, j'ai pas fais mes sous dans l'Bitcoin Dans l'Bitcoin, ces fils de ne respectaient pas le G-code Trop focus, je donne pas de nouvelles, bulletproof, personne va me trouer L'ancien voit la vie comme une poubelle, les âmes perdues que personne va trouver Où ils sont, on était déjà là, sans effort, on fait que des jaloux Big La Fève, tu sais déjà, non ? Les années passent et je prends du galon Pardonne-moi si ma nouvelle vie m'a rendu solitaire Yeah, yeah J'ai besoin d'un Famas comme chez les militaires Paw J'suis un vrai leader, tu n'penses qu'à imiter Yeah, yeah, j'suis un vrai leader, tu n'penses qu'à- Yeah, yeah Baby, pardonne-moi si le soir je m'isole Si le soir, je m'isole, malade, j'crois qu'il faut me mettre sous camisole Camisole Ces fils de ne respectaient pas le G-code Le G-code, ces fils de ne respectaient pas le G-code Le G-code J'pensais qu'j'allais die comme une rockstar Comme une rockstar, il sait qu'j'suis plus wifey que pornstar Que pornstar Nan, j'ai pas fais mes sous dans l'Bitcoin Yeah, yeah, ces fils de ne respectaient pas le G-code Yeah C'est triste à dire mais j'suis mieux ivre, dans ma trap life, je me sens vivre Maxi kichta, je la veux vite, ce soir j'ai du mal à faire le vide Genre avoir les idées claires, je n'suis plus le même qu'hier Dans la cabine, faut m'laisser faire, dans la cabine, faut m'laisser faire J'suis vrai, c'est certifié, j'respecte rien à part le code Elle aime quand j'la dirige, quand je la prends pas le col Motivé, j'suis obligé, on apprend pas à l'école Motivé, j'suis obligé, on apprend pas à l'école Baby, pardonne-moi si le soir je m'isole Yeah, malade, j'crois qu'il faut me mettre sous camisole Yeah Ces fils de ne respectaient pas le G-code Yeah, yeah, ces fils de ne respectaient pas le G-code Yeah, yeah J'pensais qu'j'allais die comme une rockstar Comme une rockstar, il sait qu'j'suis plus wifey que pornstar Yeah Nan, j'ai pas fais mes sous dans l'Bitcoin Dans l'Bitcoin, ces fils de ne respectaient pas le G-code Yeah1</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Traîne dans la ville comme un ghost Avec mes G's c'est des ghosts Elle demande c'est quand qu'on l'accoste Elle demande c'est quand qu'on l'accoste Everyday, again and again Qui me parlait quand j'étais peiné Des fois c'est la merde mais tout va bene Je commence à croire qu'on est béni Avec mes G's c'est des ghosts Elle demande c'est quand qu'on l'accoste Elle demand c'est quand qu'on l'accoste Everyday, again and again Qui m parlait quand j'etais peiné Des fois c'est la merde mais tout va bene Je commence à croire qu'on est béni T'écoute LAF on t'a recommandé On t'a donné t'as redemandé Jamais ma musique elle s'ra démodée Eux pour faire des streams ils sont denudés J'me réveille la nuit et j'ai pleins d'idées J'me réveille la nuit et j'ai pleins d'idées Si l'occasion arrive faut pas hésiter Toute ma vie je recherche la felicité J'ai marché j'ai marché des kilomètres J'aimerais bien savoir c'qui pourrait m'calmer À part les vapeurs du calumet Tu veux du flow Call me Caramel, toujours recherche le caramel Le démon arriva nous courrâmes Je suis un homme j'ai du courage J'suis bien conscient qu'dans ma tete c'est le bazar J'ai les memes reves depuis qu'j'suis en bas age Comme un espion regarde les bleus dans le Passat Comme un espion regarde les bleus dans le Passat Je sais bien qu'on est que d'passage J'suis dans cette merde et c'est pas facile Dans la cabine j'fais une ? You might also like Avec mes G's c'est des ghosts Elle demande c'est quand qu'on l'accoste Elle demande c'est quand qu'on l'accoste Everyday, again and again Qui me parlait quand j'etais peiné Des fois c'est la merde mais tout va bene Je commence à croire qu'on est béni Avec mes G's c'est des ghosts Elle demande c'est quand qu'on accoste Elle demande c'est quand qu'on accoste Everyday, again and again Qui me parlait quand j'etais peiné Des fois c'est la merde mais tout va bene Je commence à croire qu'on est béni</t>
+          <t>Traîne dans la ville comme un ghost Avec mes G's c'est des ghosts Elle demande c'est quand qu'on l'accoste Elle demande c'est quand qu'on l'accoste Everyday, again and again Qui me parlait quand j'étais peiné Des fois c'est la merde mais tout va bene Je commence à croire qu'on est béni Avec mes G's c'est des ghosts Elle demande c'est quand qu'on l'accoste Elle demand c'est quand qu'on l'accoste Everyday, again and again Qui m parlait quand j'etais peiné Des fois c'est la merde mais tout va bene Je commence à croire qu'on est béni T'écoute LAF on t'a recommandé On t'a donné t'as redemandé Jamais ma musique elle s'ra démodée Eux pour faire des streams ils sont denudés J'me réveille la nuit et j'ai pleins d'idées J'me réveille la nuit et j'ai pleins d'idées Si l'occasion arrive faut pas hésiter Toute ma vie je recherche la felicité J'ai marché j'ai marché des kilomètres J'aimerais bien savoir c'qui pourrait m'calmer À part les vapeurs du calumet Tu veux du flow Call me Caramel, toujours recherche le caramel Le démon arriva nous courrâmes Je suis un homme j'ai du courage J'suis bien conscient qu'dans ma tete c'est le bazar J'ai les memes reves depuis qu'j'suis en bas age Comme un espion regarde les bleus dans le Passat Comme un espion regarde les bleus dans le Passat Je sais bien qu'on est que d'passage J'suis dans cette merde et c'est pas facile Dans la cabine j'fais une ? Avec mes G's c'est des ghosts Elle demande c'est quand qu'on l'accoste Elle demande c'est quand qu'on l'accoste Everyday, again and again Qui me parlait quand j'etais peiné Des fois c'est la merde mais tout va bene Je commence à croire qu'on est béni Avec mes G's c'est des ghosts Elle demande c'est quand qu'on accoste Elle demande c'est quand qu'on accoste Everyday, again and again Qui me parlait quand j'etais peiné Des fois c'est la merde mais tout va bene Je commence à croire qu'on est béni</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Je marche serein dans la ville après minuit tu peux me croiser je suis fucked up Sache qu'ici un miss peut têtre fatal une dette et c'est le murder M.A.R.S je représente le 8 chez nous y'a pas de frontières Je marche serein dans ma ville je continue ma vie car jai su resté prospère Ils savent que je flex donc ils m'envient à sec Sept zéro sur le chèque non c'est jamais assez, pense à neuf chipo pour pouvoir mettre bien tout le gang, on peut monter à dix quitte à faire des litiges La lady veut du sexe, bébé montre sa pêche Elle croit qu'elle est fraîche, t'es fraîche mets la veste Je peux pas te dire combien de fois je l'ai fait mais tout que je peux dire c'est que je l'ai déjà fait pour faire la monnaie jai pas attendu la fée, pour faire de leffet c'est pas seulement Avant 10h je suis loin jai mis tempête Les petits sont loco pensent qu'à couper la quette Un Glock A4 pour commencer la guerre Une balle suffit à mettre un corps à terre Yeah, parlons bien, parlons peu, yeah Vilain depuis tit-pe, yeah J'avais rien je voulais Le taff' carré pas dà-peu-près La frappe ils arrivent ils sont pas prêts Tu sais que derrière nous y'a eux, y'a Entre sangs, tu sais déjà que mon gang fait les dégâts Je crois qu'on a ça dans les gênes, pour les tal toujours en gigite Entre sangs tu sais déjà que mon gang fait les dégâts Tu sais déjà qu'on est quillé je voulais Kylie je voulais Kiki You might also like A la base y'avait r j'étais jeune Je voulais Bella je voulais Gigi Je crois qu'on a ça dans les gènes Pour les tal toujours en gigite Fais en 2-3 y'a le temps c'est pour la maison détends toi Tu m'as pas aidé pour la vendre La voiture sans toit je l'aurai sans toi Ma G je dois protéger mon énergie Ma G c'est des rats laisse-les c'est leur vie Qn pardonne QN jamais n'oublie Suceur de sang ne sera jamais le Blood QN si tu fautes tu vas parler au glock J'ai cheaté le code elle veut me donner son corps A la base je viens du nord j'allais jamais aux ports Soldat devenu chef, dites bonjour aux chèvres 1 point la paire on l'achète, n'importe quel prod on l'achève Elle se croit boujee la bitch est rachet Y'avais r à la base yavait r Je voulais Bella je voulais Gigi S JMK Feve Faut faire les tal t'as capté la gigite Yeah, parlons bien, parlons peu, yeah Vilain depuis tit-pe, yeah J'avais rien je voulais Le taff' carré pas d'à-peu-près La frappe ils arrivent ils sont pas prêts Tu sais que derrière nous y'a eux, y'a Entre sangs, tu sais déjà que mon gang fait les dégâts Je crois qu'on a ça dans les gênes, pour les tal toujours en gigite Entre sangs tu sais déjà que mon gang fait les dégâts Tu sais déjà qu'on est quillé je voulais Kylie je voulais Kiki</t>
+          <t>Je marche serein dans la ville après minuit tu peux me croiser je suis fucked up Sache qu'ici un miss peut têtre fatal une dette et c'est le murder M.A.R.S je représente le 8 chez nous y'a pas de frontières Je marche serein dans ma ville je continue ma vie car jai su resté prospère Ils savent que je flex donc ils m'envient à sec Sept zéro sur le chèque non c'est jamais assez, pense à neuf chipo pour pouvoir mettre bien tout le gang, on peut monter à dix quitte à faire des litiges La lady veut du sexe, bébé montre sa pêche Elle croit qu'elle est fraîche, t'es fraîche mets la veste Je peux pas te dire combien de fois je l'ai fait mais tout que je peux dire c'est que je l'ai déjà fait pour faire la monnaie jai pas attendu la fée, pour faire de leffet c'est pas seulement Avant 10h je suis loin jai mis tempête Les petits sont loco pensent qu'à couper la quette Un Glock A4 pour commencer la guerre Une balle suffit à mettre un corps à terre Yeah, parlons bien, parlons peu, yeah Vilain depuis tit-pe, yeah J'avais rien je voulais Le taff' carré pas dà-peu-près La frappe ils arrivent ils sont pas prêts Tu sais que derrière nous y'a eux, y'a Entre sangs, tu sais déjà que mon gang fait les dégâts Je crois qu'on a ça dans les gênes, pour les tal toujours en gigite Entre sangs tu sais déjà que mon gang fait les dégâts Tu sais déjà qu'on est quillé je voulais Kylie je voulais Kiki A la base y'avait r j'étais jeune Je voulais Bella je voulais Gigi Je crois qu'on a ça dans les gènes Pour les tal toujours en gigite Fais en 2-3 y'a le temps c'est pour la maison détends toi Tu m'as pas aidé pour la vendre La voiture sans toit je l'aurai sans toi Ma G je dois protéger mon énergie Ma G c'est des rats laisse-les c'est leur vie Qn pardonne QN jamais n'oublie Suceur de sang ne sera jamais le Blood QN si tu fautes tu vas parler au glock J'ai cheaté le code elle veut me donner son corps A la base je viens du nord j'allais jamais aux ports Soldat devenu chef, dites bonjour aux chèvres 1 point la paire on l'achète, n'importe quel prod on l'achève Elle se croit boujee la bitch est rachet Y'avais r à la base yavait r Je voulais Bella je voulais Gigi S JMK Feve Faut faire les tal t'as capté la gigite Yeah, parlons bien, parlons peu, yeah Vilain depuis tit-pe, yeah J'avais rien je voulais Le taff' carré pas d'à-peu-près La frappe ils arrivent ils sont pas prêts Tu sais que derrière nous y'a eux, y'a Entre sangs, tu sais déjà que mon gang fait les dégâts Je crois qu'on a ça dans les gênes, pour les tal toujours en gigite Entre sangs tu sais déjà que mon gang fait les dégâts Tu sais déjà qu'on est quillé je voulais Kylie je voulais Kiki</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Yes, let's go, lets go Yes, yes, yes En lowkey on fait ce gouap, gouap La go veut montrer sa wap, ERRR Tu sais mon plan c'est quoi, quoi J'avais pas la tête adéquat là Jai la mixtape, G, t'en dis quoi ? T'en dis quoi ? Un mal de te-té dans l'aqua', ERRR Faudrait qu'on me soulage d'un poids, yes J'suis La Fève, jchange pas dun poil, yeah J'smoke ça et jvais m'allonger, ERRR Tape, j'ai annoncé, j'vois la light, jai foncé Toujours le ciel couleur bleu foncé, tu m'donnes un bouquet, j'vois qu'il est roncé Tu m'endors pas avec tes flatteries, j'm'endors et j'rêve qu j'quitte la Terre Là, j'suis dans l'sud, j'cré la matière, let's go, let's go En lowkey on fait du gouap et nez-' hein J'l'ai pas montré mais tu m'as peiné, 'zin J'm'en vais en deus-pi, tu commences à cracher sur mon nom, devant moi tu m'appelles le 'zin Vrai G reconnait donc vrais Gs nous sommes Braquage d'industrie, yes we can to some J'ai pas compris, toi, tu m'as chargé T'as cru j'allais changé pour une jolie somme You might also like Jamais j'retourne la Prada Jacket Jamais j'oublie le seum que j'avais Ils croyaient que mais on a pas lacké Ils croyaient que mais on a pas lacké Tu sais de bangers, j'en ai un paquet Tellement de souvenirs emballé La gadji crois son doigt, j'vais embaguer Là, j'ai trop faim,G je suis en dalle ERRR, let's go En lowkey on fait ce guouap Toi, j'te vois pas sur la map mais tu m'jettes quand même l'il de Fetty Wap En lowkey on fait ce guouap En lowkey on fait ce guouap</t>
+          <t>Yes, let's go, lets go Yes, yes, yes En lowkey on fait ce gouap, gouap La go veut montrer sa wap, ERRR Tu sais mon plan c'est quoi, quoi J'avais pas la tête adéquat là Jai la mixtape, G, t'en dis quoi ? T'en dis quoi ? Un mal de te-té dans l'aqua', ERRR Faudrait qu'on me soulage d'un poids, yes J'suis La Fève, jchange pas dun poil, yeah J'smoke ça et jvais m'allonger, ERRR Tape, j'ai annoncé, j'vois la light, jai foncé Toujours le ciel couleur bleu foncé, tu m'donnes un bouquet, j'vois qu'il est roncé Tu m'endors pas avec tes flatteries, j'm'endors et j'rêve qu j'quitte la Terre Là, j'suis dans l'sud, j'cré la matière, let's go, let's go En lowkey on fait du gouap et nez-' hein J'l'ai pas montré mais tu m'as peiné, 'zin J'm'en vais en deus-pi, tu commences à cracher sur mon nom, devant moi tu m'appelles le 'zin Vrai G reconnait donc vrais Gs nous sommes Braquage d'industrie, yes we can to some J'ai pas compris, toi, tu m'as chargé T'as cru j'allais changé pour une jolie somme Jamais j'retourne la Prada Jacket Jamais j'oublie le seum que j'avais Ils croyaient que mais on a pas lacké Ils croyaient que mais on a pas lacké Tu sais de bangers, j'en ai un paquet Tellement de souvenirs emballé La gadji crois son doigt, j'vais embaguer Là, j'ai trop faim,G je suis en dalle ERRR, let's go En lowkey on fait ce guouap Toi, j'te vois pas sur la map mais tu m'jettes quand même l'il de Fetty Wap En lowkey on fait ce guouap En lowkey on fait ce guouap</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>La Fève comme le ciel après l'orage Écris si t'es pas à l'aise à l'oral J'ai du flair et un mauvais odorat donc j'peux voir qui t'es à la couleur de l'aura Si tu ressens un vide t'es comme moi, l'sentiment est commun négro on veut tous la même Tout ça pour les talbins, le business est alléchant donc pourquoi pas couper des lamelles Ca fait tant d'années que j'suis dans l'jeu Poto La Fève il est dangereux On croit tous avoir un cur étanche Je ressens milles peines c'est étrange J'écoute la mélodie je savoure La Fève c'est un savant fou dans une grande savane Merci mon père pour les coups d'savate mais j'suis un espion donc j'te mens quand j'dis ça va J'suis le sheriff dans le saloon J'regarde dans les yeux, j'dis salud Ca dit rien tu connais, on économise on s'pète à Marbela ou à Salou Comme Hugo Boss je n'veux pas grandir Ecoute La Fève c'est frisson garanti La nuit tout est violet je parle aux étoiles, j'danse avec la lune c'est ma valentine Qui suis-je ? Où vais-je ? Je me demande Des frissons quand je pense à demain On sait pas de quoi la vie est faite mon fréro donc faut tenir le brolique à deux mains Sur le terrain rester focus, courir ou mourir il faut choisir Tu connais mon fréro, on veut c'qu'on a pas donc j'suis attiré par la bourgeoisie J'baroude Fontenay-sous-Bois, le diable il est sournois il t'fais voir le truc avant d'l'avaler J'compte même plus mes du'aa, mes waves sous les durag, La Fève comme le coyote dans la vallée Roro sur mes bagouzes poto je rêve de ça, tu sais qu'on a tous un grand vice Les pieds dans la gadoue donc Laf n'est pas relax et mon appétit s'agrandit Tu t'mets dans un bourbier si t'as voulu m'doubler en m'disant l'contraire dans les yeuz Tu m'portes l'il alors que j'souhaite à la plupart d'avoir un futur merveilleux J'rêve de chaleur d'ambiance andalouse Maman dit regarde le monde à la loupe Qu'est-ce que j'serais dans dix ans ? Poto c'est la disette et ça devient lassant à la longue La Fève comme le ciel après l'orage Ecris si t'es pas à l'aise à l'oral J'ai du flair et un mauvais odorat donc j'peux voir qui t'es à la couleur de l'auraYou might also like1</t>
+          <t>La Fève comme le ciel après l'orage Écris si t'es pas à l'aise à l'oral J'ai du flair et un mauvais odorat donc j'peux voir qui t'es à la couleur de l'aura Si tu ressens un vide t'es comme moi, l'sentiment est commun négro on veut tous la même Tout ça pour les talbins, le business est alléchant donc pourquoi pas couper des lamelles Ca fait tant d'années que j'suis dans l'jeu Poto La Fève il est dangereux On croit tous avoir un cur étanche Je ressens milles peines c'est étrange J'écoute la mélodie je savoure La Fève c'est un savant fou dans une grande savane Merci mon père pour les coups d'savate mais j'suis un espion donc j'te mens quand j'dis ça va J'suis le sheriff dans le saloon J'regarde dans les yeux, j'dis salud Ca dit rien tu connais, on économise on s'pète à Marbela ou à Salou Comme Hugo Boss je n'veux pas grandir Ecoute La Fève c'est frisson garanti La nuit tout est violet je parle aux étoiles, j'danse avec la lune c'est ma valentine Qui suis-je ? Où vais-je ? Je me demande Des frissons quand je pense à demain On sait pas de quoi la vie est faite mon fréro donc faut tenir le brolique à deux mains Sur le terrain rester focus, courir ou mourir il faut choisir Tu connais mon fréro, on veut c'qu'on a pas donc j'suis attiré par la bourgeoisie J'baroude Fontenay-sous-Bois, le diable il est sournois il t'fais voir le truc avant d'l'avaler J'compte même plus mes du'aa, mes waves sous les durag, La Fève comme le coyote dans la vallée Roro sur mes bagouzes poto je rêve de ça, tu sais qu'on a tous un grand vice Les pieds dans la gadoue donc Laf n'est pas relax et mon appétit s'agrandit Tu t'mets dans un bourbier si t'as voulu m'doubler en m'disant l'contraire dans les yeuz Tu m'portes l'il alors que j'souhaite à la plupart d'avoir un futur merveilleux J'rêve de chaleur d'ambiance andalouse Maman dit regarde le monde à la loupe Qu'est-ce que j'serais dans dix ans ? Poto c'est la disette et ça devient lassant à la longue La Fève comme le ciel après l'orage Ecris si t'es pas à l'aise à l'oral J'ai du flair et un mauvais odorat donc j'peux voir qui t'es à la couleur de l'aura1</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Ya Louis J'suis dans les endroits où quand t'en sors t'es plus le même Roule un machin à l'arrière de la soucoupe Dans la jungle, j'ai de la boue sur mes bulles d'air La Fève a tout pris et tu n'as rien pu faire Tout érudit dans le dojo, même essoufflés on est trop chauds Je ne suis pas Henri Salvador moi je ne veux pas mourir sous les projos 'Zin, j'ai du mal à maitriser mes pouvoirs, sur un coup d'tête j'peux exploser un continent Un continent J'suis dans le studio comme à l'usine, je ne fais pas de comptines La Fève est très fort et ceux qui l'ont compris ils ont en quelque chose en plus Quelque chose en plus La Fève la peste, beaucoup me détestent, milli dans la veste Espion fait l'enquête comme à Dallas Tu viens tester, on te ramasse Le shit ça fait maigrir, j'pèse 20 kilos Avec vous j'ai un gros décalage Personne pour comprendre tout le mal que j'ai La Fève est moche, pas de mannequinat Sur le terrain fais des petits ponts comme Hatem, tu frappes comme Stéphane Guivarc'h Y a que la musique qui me calme Stycoloco prend la cam Toucher le smic, on est où là ? Où là ? Si y a cochons, je détale La fève au sommet du donjon comme les princesses dans les livres pour kids Parle moi meilleur, tu m'as pris pour qui ? J'm'enfuis tu sais mais le vice court vite J'reviens de loin j'ai des balafres Balafres Mais faut pas cala, j'rappe j'fais des balades Lâche-moi la grappe petit bolloss Bolloss Créer des mondes c'est mon boulot Boulot Parle moi si tu fais des diez Diez Je ne bosse pas pour des pièces Pour des pièces J'veux la recette de la structure qui domine Liasses sur abdominaux Jeune espion dans les hautes herbes, veut le pouvoir de deux milles patrons J'sais qui appeler quand j'suis dans l'pétrin Jeune businessman étudie l'pétrole J'suis dans un bourbier monstre, comme celui qui m'habite Qui m'habite La Fève c'est pas les Beatles J'ai la rime qui pique You might also like J'suis dans les endroits où quand t'en sors t'es plus le même Roule un machin à l'arrière de la soucoupe Dans la jungle, j'ai de la boue sur mes bulles d'air La Fève a tout pris et tu n'as rien pu faire Tout érudit dans le dojo, même essoufflés on est trop chauds Je ne suis pas Henri Salvador moi je ne veux pas mourir sous les projos</t>
+          <t>Ya Louis J'suis dans les endroits où quand t'en sors t'es plus le même Roule un machin à l'arrière de la soucoupe Dans la jungle, j'ai de la boue sur mes bulles d'air La Fève a tout pris et tu n'as rien pu faire Tout érudit dans le dojo, même essoufflés on est trop chauds Je ne suis pas Henri Salvador moi je ne veux pas mourir sous les projos 'Zin, j'ai du mal à maitriser mes pouvoirs, sur un coup d'tête j'peux exploser un continent Un continent J'suis dans le studio comme à l'usine, je ne fais pas de comptines La Fève est très fort et ceux qui l'ont compris ils ont en quelque chose en plus Quelque chose en plus La Fève la peste, beaucoup me détestent, milli dans la veste Espion fait l'enquête comme à Dallas Tu viens tester, on te ramasse Le shit ça fait maigrir, j'pèse 20 kilos Avec vous j'ai un gros décalage Personne pour comprendre tout le mal que j'ai La Fève est moche, pas de mannequinat Sur le terrain fais des petits ponts comme Hatem, tu frappes comme Stéphane Guivarc'h Y a que la musique qui me calme Stycoloco prend la cam Toucher le smic, on est où là ? Où là ? Si y a cochons, je détale La fève au sommet du donjon comme les princesses dans les livres pour kids Parle moi meilleur, tu m'as pris pour qui ? J'm'enfuis tu sais mais le vice court vite J'reviens de loin j'ai des balafres Balafres Mais faut pas cala, j'rappe j'fais des balades Lâche-moi la grappe petit bolloss Bolloss Créer des mondes c'est mon boulot Boulot Parle moi si tu fais des diez Diez Je ne bosse pas pour des pièces Pour des pièces J'veux la recette de la structure qui domine Liasses sur abdominaux Jeune espion dans les hautes herbes, veut le pouvoir de deux milles patrons J'sais qui appeler quand j'suis dans l'pétrin Jeune businessman étudie l'pétrole J'suis dans un bourbier monstre, comme celui qui m'habite Qui m'habite La Fève c'est pas les Beatles J'ai la rime qui pique J'suis dans les endroits où quand t'en sors t'es plus le même Roule un machin à l'arrière de la soucoupe Dans la jungle, j'ai de la boue sur mes bulles d'air La Fève a tout pris et tu n'as rien pu faire Tout érudit dans le dojo, même essoufflés on est trop chauds Je ne suis pas Henri Salvador moi je ne veux pas mourir sous les projos</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Je reste le même everyday no cap Pourquoi moi j'ai monté, t'as commencé à changer Encore une déception ma le-gueu, c'est comme ça sous amour on voit pas trop le danger Il a fait la pute avec toi c'est la vie mais toi t'étais trop jeune tu pensais qu'à te venger Aujourd'hui, on fête, là t'es à mes côtés mais est-ce que t'étais là quand j'avais rien à manger Je fais que du salace, il faudrait me ranger Toi tu m'en voulais mais t'as tout mélanger Je fais que du salace, il faudrait me ranger Toi tu m'en voulais mais t'as tout mélanger Je reste le même everyday no cap Pourquoi moi j'ai monté, t'as commencé à changer Yeah J'avance sur mon chemin, pourquoi tu mets des bâtons? Je vois que des bat' il faudrait changer d'air T'étais mon sin j'te voyais comme mes 10 doigts Quand j'disais ça dit quoi? tu m'laissais en R L'argent ça divise t'as bafoué ta devise mets l'mode sport comme si j'ai 2 vies Y a trop eu des bourbiers maintenant je reste avec mon équipe Pas d'nouvelles rencontres y a que ça de vrai J'vois que des histoires comme aç à droite et à gauche Un frère qui en lâche un autre comment c'est moche Tout le temps comme un brouillard dans mes émotions J'ai pas su le dire mais j'y repense la noche Petit batard t'as cru t'allais passer devant Pour une histoire de monnaie t'as cassé 2 dents On est dans une city on est tassé dedans Cet ancien reviens m'voir il s'est lassé de vendre You might also like Et quand nous partons là tu dis pardon Et quand nous partons là tu dis pardon Les jours y passent et dignité nous gardons nous gardons Yeah yeah yeah yeah Je reste le même everyday no cap Pourquoi moi j'ai monté, t'as commencé à changer Encore une déception ma le-gueu, c'est comme ça sous amour on voit pas trop le danger Il a fait la pute avec toi c'est la vie mais toi t'étais trop jeune tu pensais qu'à te venger Aujourd'hui, on fête, là t'es à mes côtés mais est-ce que t'étais là quand j'avais rien à manger Je fais que du salace, il faudrait me ranger Toi tu m'en voulais mais t'as tout mélanger Je fais que du salace, il faudrait me ranger Toi tu m'en voulais mais t'as tout mélanger Je reste le même everyday no cap Pourquoi moi j'ai monté, t'as commencé à changer Yeah</t>
+          <t>Je reste le même everyday no cap Pourquoi moi j'ai monté, t'as commencé à changer Encore une déception ma le-gueu, c'est comme ça sous amour on voit pas trop le danger Il a fait la pute avec toi c'est la vie mais toi t'étais trop jeune tu pensais qu'à te venger Aujourd'hui, on fête, là t'es à mes côtés mais est-ce que t'étais là quand j'avais rien à manger Je fais que du salace, il faudrait me ranger Toi tu m'en voulais mais t'as tout mélanger Je fais que du salace, il faudrait me ranger Toi tu m'en voulais mais t'as tout mélanger Je reste le même everyday no cap Pourquoi moi j'ai monté, t'as commencé à changer Yeah J'avance sur mon chemin, pourquoi tu mets des bâtons? Je vois que des bat' il faudrait changer d'air T'étais mon sin j'te voyais comme mes 10 doigts Quand j'disais ça dit quoi? tu m'laissais en R L'argent ça divise t'as bafoué ta devise mets l'mode sport comme si j'ai 2 vies Y a trop eu des bourbiers maintenant je reste avec mon équipe Pas d'nouvelles rencontres y a que ça de vrai J'vois que des histoires comme aç à droite et à gauche Un frère qui en lâche un autre comment c'est moche Tout le temps comme un brouillard dans mes émotions J'ai pas su le dire mais j'y repense la noche Petit batard t'as cru t'allais passer devant Pour une histoire de monnaie t'as cassé 2 dents On est dans une city on est tassé dedans Cet ancien reviens m'voir il s'est lassé de vendre Et quand nous partons là tu dis pardon Et quand nous partons là tu dis pardon Les jours y passent et dignité nous gardons nous gardons Yeah yeah yeah yeah Je reste le même everyday no cap Pourquoi moi j'ai monté, t'as commencé à changer Encore une déception ma le-gueu, c'est comme ça sous amour on voit pas trop le danger Il a fait la pute avec toi c'est la vie mais toi t'étais trop jeune tu pensais qu'à te venger Aujourd'hui, on fête, là t'es à mes côtés mais est-ce que t'étais là quand j'avais rien à manger Je fais que du salace, il faudrait me ranger Toi tu m'en voulais mais t'as tout mélanger Je fais que du salace, il faudrait me ranger Toi tu m'en voulais mais t'as tout mélanger Je reste le même everyday no cap Pourquoi moi j'ai monté, t'as commencé à changer Yeah</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Demna, Demna On a pris les gants on a tout lâché pour le noble art T'aurais pu me zapper mais ta cons est plutôt faible Ma le-gueu si tu fais tu sais que LAF il va faire mieux Je vois le temps passer sur moi Ticky je me fais vieux J'écoute pas leur rap de pookie j'écoute pas leurs palabres Sortir de la forêt j'ai dû sortir le katana Ces faux G sont français, quand ils parlent j'entends China Ces faux G sont français, quand ils parlent j'entends China J'suis avec Demna, S2, S2 Rat jai la flemme dux, qui test? Merceds avant ma death On fait des dégâts comme si cest légal Smoke avec les gars, les gars Trapper c'est facile comme sur la Sega J'suis avec le sang dans la city, j'suis avec le sang J'ai des infos sur toi donc pourquoi tu fais l'innocent ? Tu sais ma le-gueu, y a que Dieu qu'on a trouvé menaçant Y'a cette rue on s'captait là-bas j'y repense en rpassant Mauvais garçon pourquoi quand j'arrive le ciel s'éclaircit ? J'crois qu'le Grand me dit merci Dans l'stud' je fais d'l'exercice Faire du cash ou nager G, le dilemme était sexy J'crois que la prod est trop flexible j'la prends j'lui met des rects-di Où est ma baby ? Sale c'est daily, comme à New Delhi Toi c'est pour mon argent que t'es friendly J'vais l'faire insh'Allah j'ai un p'tit seum, j'vais faire une balade Serpent rat shit c'est bon débarras You might also like On a pris les gants on a tout lâché pour le noble art T'aurais pu me zapper mais ta cons est plutôt faible Ma le-gueu si tu fais tu sais que LAF il va faire mieux Je vois le temps passer sur moi, Ticky je me fais vieux1</t>
+          <t>Demna, Demna On a pris les gants on a tout lâché pour le noble art T'aurais pu me zapper mais ta cons est plutôt faible Ma le-gueu si tu fais tu sais que LAF il va faire mieux Je vois le temps passer sur moi Ticky je me fais vieux J'écoute pas leur rap de pookie j'écoute pas leurs palabres Sortir de la forêt j'ai dû sortir le katana Ces faux G sont français, quand ils parlent j'entends China Ces faux G sont français, quand ils parlent j'entends China J'suis avec Demna, S2, S2 Rat jai la flemme dux, qui test? Merceds avant ma death On fait des dégâts comme si cest légal Smoke avec les gars, les gars Trapper c'est facile comme sur la Sega J'suis avec le sang dans la city, j'suis avec le sang J'ai des infos sur toi donc pourquoi tu fais l'innocent ? Tu sais ma le-gueu, y a que Dieu qu'on a trouvé menaçant Y'a cette rue on s'captait là-bas j'y repense en rpassant Mauvais garçon pourquoi quand j'arrive le ciel s'éclaircit ? J'crois qu'le Grand me dit merci Dans l'stud' je fais d'l'exercice Faire du cash ou nager G, le dilemme était sexy J'crois que la prod est trop flexible j'la prends j'lui met des rects-di Où est ma baby ? Sale c'est daily, comme à New Delhi Toi c'est pour mon argent que t'es friendly J'vais l'faire insh'Allah j'ai un p'tit seum, j'vais faire une balade Serpent rat shit c'est bon débarras On a pris les gants on a tout lâché pour le noble art T'aurais pu me zapper mais ta cons est plutôt faible Ma le-gueu si tu fais tu sais que LAF il va faire mieux Je vois le temps passer sur moi, Ticky je me fais vieux1</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ERRR tape, 2021 lessgo Kosei Gwapo Du nord au sud on fait les choses tu connais déjà lessgo Big LAF, Big LAF, Big LAF, Big LAF yeah Big LAF, Big LAF errr, Big LAF, Big LAF J'etais petit dans mes mains j'avais de l'or et un poil De l'or dans mes paumes on était jeunes on était paumés Une embrouille elle est partie pour un regard dans le trom Trop d'peines pour un seul homme quand j'y repense c'était trop errr Le gars se demande comment je peux faire cette merde comme un pro Là j'en vois les dégâts j'crois qu'la course au cash rend accro Trop affamé donc je vais pas donner toute mon âme pour un croc Cet ancien m'donnait des conseils maintenant il est là boit d'la kro Avec le sang on compte les blessings un faux zin on compte pas sur lui Petite mélancholia pour ça la dope on survit M'en bas les couilles de ce qui disent eux ils étaient pas là j'étais mieux Le temps passe, ma le-geu faut le GLA avant qu'on vrille Bientôt ça brille, amis faut les trier Ils profitent du moment et parlent sur toi quand tu t'es tiré Chérie ne me ment pas je vois tu fais ton numéro Le monde tourne à l'envers je sais mais j'vais pas faire le héros La gadji tema, Pizsunny démarre, j'donne trop d'sous à Uber faut que j'me pète un t-max Dans le coeur j'ai mal Cali j'immole Dans le stud' j'fais l'artiste dans la zic' on innove Économise mon frère faut du stack it up Si j'tappelle c'est juste pour voir ton booty shake it up Amen, je n'suis pas comme eux je le sais Que le 7, errrday ma chicot je l'assere You might also likeLAF, Big LAF, LAF, Big LAF yeah LAF, Big LAF errr, LAF, Big LAF lessgo</t>
+          <t>ERRR tape, 2021 lessgo Kosei Gwapo Du nord au sud on fait les choses tu connais déjà lessgo Big LAF, Big LAF, Big LAF, Big LAF yeah Big LAF, Big LAF errr, Big LAF, Big LAF J'etais petit dans mes mains j'avais de l'or et un poil De l'or dans mes paumes on était jeunes on était paumés Une embrouille elle est partie pour un regard dans le trom Trop d'peines pour un seul homme quand j'y repense c'était trop errr Le gars se demande comment je peux faire cette merde comme un pro Là j'en vois les dégâts j'crois qu'la course au cash rend accro Trop affamé donc je vais pas donner toute mon âme pour un croc Cet ancien m'donnait des conseils maintenant il est là boit d'la kro Avec le sang on compte les blessings un faux zin on compte pas sur lui Petite mélancholia pour ça la dope on survit M'en bas les couilles de ce qui disent eux ils étaient pas là j'étais mieux Le temps passe, ma le-geu faut le GLA avant qu'on vrille Bientôt ça brille, amis faut les trier Ils profitent du moment et parlent sur toi quand tu t'es tiré Chérie ne me ment pas je vois tu fais ton numéro Le monde tourne à l'envers je sais mais j'vais pas faire le héros La gadji tema, Pizsunny démarre, j'donne trop d'sous à Uber faut que j'me pète un t-max Dans le coeur j'ai mal Cali j'immole Dans le stud' j'fais l'artiste dans la zic' on innove Économise mon frère faut du stack it up Si j'tappelle c'est juste pour voir ton booty shake it up Amen, je n'suis pas comme eux je le sais Que le 7, errrday ma chicot je l'assere LAF, Big LAF, LAF, Big LAF yeah LAF, Big LAF errr, LAF, Big LAF lessgo</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>J'parle au petit mec sur mon épaule gauche tous les jours Tous les jours J'me balade dans mon petit secteur C'est mieux qu'en haut des tours J'viens d'un endroit pas commun, heureusement ça vaut l'détour La flemmardise attrape des potos, leur fait des suçons dans l'cou Dans ma bre-cham j'fais d'la magie Avec mes yous-voi Sur un Ludix ou dans berline, dans l'16, dans l'15 Plus rien, on n'prend pas les restes Pour ça qu'La Fève est détesté Si t'écoutes tu fais partie des vrais De ceux qu'ont quelque chose dans la tête Merde, j'sors mon pied gauche de la voiture d'mamie Dans leurs bureaux cherche la prométhazine Si tu m'cherches j'suis en meute Dans les endroits ou t'aimerais pas promener ta zine J'vais bientôt briller, j'veux la félicité en récompense On réalise pas tout l'temps qu'on a passé à chercher des sous Moi j'sais pas ce que t'en pense Nique les porcs, nique le 22 J'veux ma paire, j'veux un baveu J'veux encore plus de cash J'vise l'Eden à chaque projet Dans ma tête on est vingt milliards Mon gros j'arrêterai dans douze décennies Des dettes j'en ai vingt milliards Mon gros des frères j'en ai pas dix, l'ami Tous les jours c'est la galère j'écris des punchs dans mes notes Y'a plus personne pour analyser tous les faits que j'relate J'allais en ville, c'était la jungle ouais le Rap c'était l'antidote Ils voulaient changer la Fève, ça fait des années qu'ça rappe You might also likex2 Dans ma bre-cham j'fais d'la magie Avec mes yous-voi Sur un Ludix ou dans berline, dans l'16, dans l'15 Plus rien, on n'prend pas les restes Pour ça que La Fève est détesté Si t'écoutes tu fais partie des vrais De ceux qui ont quelque chose dans la tête</t>
+          <t>J'parle au petit mec sur mon épaule gauche tous les jours Tous les jours J'me balade dans mon petit secteur C'est mieux qu'en haut des tours J'viens d'un endroit pas commun, heureusement ça vaut l'détour La flemmardise attrape des potos, leur fait des suçons dans l'cou Dans ma bre-cham j'fais d'la magie Avec mes yous-voi Sur un Ludix ou dans berline, dans l'16, dans l'15 Plus rien, on n'prend pas les restes Pour ça qu'La Fève est détesté Si t'écoutes tu fais partie des vrais De ceux qu'ont quelque chose dans la tête Merde, j'sors mon pied gauche de la voiture d'mamie Dans leurs bureaux cherche la prométhazine Si tu m'cherches j'suis en meute Dans les endroits ou t'aimerais pas promener ta zine J'vais bientôt briller, j'veux la félicité en récompense On réalise pas tout l'temps qu'on a passé à chercher des sous Moi j'sais pas ce que t'en pense Nique les porcs, nique le 22 J'veux ma paire, j'veux un baveu J'veux encore plus de cash J'vise l'Eden à chaque projet Dans ma tête on est vingt milliards Mon gros j'arrêterai dans douze décennies Des dettes j'en ai vingt milliards Mon gros des frères j'en ai pas dix, l'ami Tous les jours c'est la galère j'écris des punchs dans mes notes Y'a plus personne pour analyser tous les faits que j'relate J'allais en ville, c'était la jungle ouais le Rap c'était l'antidote Ils voulaient changer la Fève, ça fait des années qu'ça rappe x2 Dans ma bre-cham j'fais d'la magie Avec mes yous-voi Sur un Ludix ou dans berline, dans l'16, dans l'15 Plus rien, on n'prend pas les restes Pour ça que La Fève est détesté Si t'écoutes tu fais partie des vrais De ceux qui ont quelque chose dans la tête</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Han, et La Fève perdu dans un tourbillon Billon Calé sur un banc j'fais des croquis Croquis Jeune LAF veut être le roi du monde Ayeah Comme tous les méchants dans les comics Comics À Montréal, je smoke du pot Du pot Pour l'instant je suis dans le tro-mé Tro-mé Pas de vacances, pas de pause Je veux de l'argent sur l'abdomen Pas trop d'sous, hamdoullah j'ai la santé Je rappe mais j'sais pas chanter Trop d'serpents Qui rôdent autour de mon pied Coincés dans baraque hantée Pas beaucoup d'temps Avant que mon âme monte Avant que ma ville m'enterre Trop d'blasphèmes J'rappe tu dis oh mon dieu Et t'as pas tout vu ma chère, yah Moi, j'suis dans la trap j'étouffe J'étouffe J'aime pas quand les jnouns me touchent Me touchent Jeune espion dans la brousse Vise le sommet de la tour Ayeah La Fève vaut plus que ça Des milliers, des milliers, 'zin faut pas déconner Conner Sous l'arrêt d'bus 'vec mes collègues Collègues Seum de la vie depuis l'collège Ah, yeah J'sors du studio j'ai un lumbago Lumbago Faut pas m'faire chier dans mon bungalow Bungalow La Fève le plus fort des gringalets Gringalets Perdu dans l'univers parallèle Parallèle Sur le terrain je joue perso Perso Comme Hatem Ben Arfa j'fais des crari Crari La Fève sait bien ce qu'il vaut C'qu'il vaut Donc fuck un Award, fuck un Grammy La plupart des gens que je vois m'analysent comme si La Fève était mauvais Mauvais Tu m'as chauffé ne fais pas la bise, la nuit tous les chats sont mauves Mauves La fumette se banalise, j'suis dans la soucoupe avec des grands gaillards Ayeah Toujours groupés comme la police, j'aime bien quand c'est discret n'sois pas trop bavard BavardYou might also like</t>
+          <t>Han, et La Fève perdu dans un tourbillon Billon Calé sur un banc j'fais des croquis Croquis Jeune LAF veut être le roi du monde Ayeah Comme tous les méchants dans les comics Comics À Montréal, je smoke du pot Du pot Pour l'instant je suis dans le tro-mé Tro-mé Pas de vacances, pas de pause Je veux de l'argent sur l'abdomen Pas trop d'sous, hamdoullah j'ai la santé Je rappe mais j'sais pas chanter Trop d'serpents Qui rôdent autour de mon pied Coincés dans baraque hantée Pas beaucoup d'temps Avant que mon âme monte Avant que ma ville m'enterre Trop d'blasphèmes J'rappe tu dis oh mon dieu Et t'as pas tout vu ma chère, yah Moi, j'suis dans la trap j'étouffe J'étouffe J'aime pas quand les jnouns me touchent Me touchent Jeune espion dans la brousse Vise le sommet de la tour Ayeah La Fève vaut plus que ça Des milliers, des milliers, 'zin faut pas déconner Conner Sous l'arrêt d'bus 'vec mes collègues Collègues Seum de la vie depuis l'collège Ah, yeah J'sors du studio j'ai un lumbago Lumbago Faut pas m'faire chier dans mon bungalow Bungalow La Fève le plus fort des gringalets Gringalets Perdu dans l'univers parallèle Parallèle Sur le terrain je joue perso Perso Comme Hatem Ben Arfa j'fais des crari Crari La Fève sait bien ce qu'il vaut C'qu'il vaut Donc fuck un Award, fuck un Grammy La plupart des gens que je vois m'analysent comme si La Fève était mauvais Mauvais Tu m'as chauffé ne fais pas la bise, la nuit tous les chats sont mauves Mauves La fumette se banalise, j'suis dans la soucoupe avec des grands gaillards Ayeah Toujours groupés comme la police, j'aime bien quand c'est discret n'sois pas trop bavard Bavard</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Yeah, ok Mes parents m'ont donné mon nom d'famille et ma fougue Et ma fougue Jeune qui smoke son bail, s'parle tout seul comme un fou Tout seul comme un fou Nocturne c'est d'la musique, ça s'écoute tard la nuit Tard la nuit J'vois que la lune, mon pseudo marqué dans la buée Yeah, yeah, yeah Yeah, j'vois des mirages la nuit je rêve de l'oasis L'oasis Elle m'dit t'en veux combien, j'ai dit j'en veux un zeste J'en veux un zeste La Fève c'est pas commun, faut qu'tu rentres dans la bulle Dans la bulle On veut bien faire un effort mais y'a trop d'gens dans l'abus Yeah, L'avenir appartient à ceux qui s'lèvent pour quelqu'chose, boy Vision monochrome je veux d'la couleur comme la Gameboy Comme la Gameboy Yeah, t'essaie d'gratter avec moi Avec moi On s'comprend même si c'est pas les mots adéquats Yeah, y a trop d'choses qui dégoutent, les putes, les traitres, le game Les putes, les traitres La Fève c'est un espion, tu l'vois à la dégaine À la tête La zik est passionnelle, écoute le saxophone Écoute Jeune espion, dis pas trop mon blaze au phone Yeah, toujours à faire des sons à cinq heures du matin So 3010 bientôt nemosé y a plus rien qui m'atteint Plus rien qui m'atteint Yeah, on voit pas l'bout mais gros on fait tout pour l'atteindre J'suis qu'un homme, jeune, j'ai conscience qu'il faut qu'une balle pour m'éteindre Une balle pour m'éteindre Poto j'ai grave chaud, j'ai des malheurs à mes trousses Malheurs à mes trousses Je parle à la bonne étoile, j'aimerais laisser des traces Aimerais laisser des traces Nocturne c'est d'la musique, ça s'écoute tard la night S'écoute tard la yeah J'veux une bitch pour faire d'la bécane avec ses nattes Bécane avec ses nattes Yeah, yeah, jeune LAF Juge Falcone Falcone Gros tu m'fait pas rire donc fait pas l'comique Ayeah Yeah, Nocturne d'la musique qu'on fait pas comme eux Pas comme eux Dans le labo c'qu'on fait c'est atomique Yeah, yeah, moi j't'appelle pas monsieur Monsieur J'suis triste j'ai le me-seu Me-seu Jeune qui roule que du meusseu Roule que du meusseu Yeah, jeune LAF Machiavelli Chiavelli J'veux des maxi kichta vertes dans la valise Ayeah You might also like Yeah, j'suis un jeune donc j'ai d'la fougue j'ai d'la fougue Smoke mon bail, parle tout seul comme un fou Han yeah Yeah, Nocturne c'est d'la musique, ça s'écoute tard la nuit Tard la nuit J'vois que la lune, mon pseudo marqué dans la buée J'vois des mirages la nuit, je rêve de l'oasis L'oasis Elle m'dit j'en veux combien, j'ai dit j'en veux un zeste La Fève c'est pas commun faut qu'tu rentres dans la bulle Dans la On veut bien faire un effort mais y'a trop d'gens dans l'abus, yeah</t>
+          <t>Yeah, ok Mes parents m'ont donné mon nom d'famille et ma fougue Et ma fougue Jeune qui smoke son bail, s'parle tout seul comme un fou Tout seul comme un fou Nocturne c'est d'la musique, ça s'écoute tard la nuit Tard la nuit J'vois que la lune, mon pseudo marqué dans la buée Yeah, yeah, yeah Yeah, j'vois des mirages la nuit je rêve de l'oasis L'oasis Elle m'dit t'en veux combien, j'ai dit j'en veux un zeste J'en veux un zeste La Fève c'est pas commun, faut qu'tu rentres dans la bulle Dans la bulle On veut bien faire un effort mais y'a trop d'gens dans l'abus Yeah, L'avenir appartient à ceux qui s'lèvent pour quelqu'chose, boy Vision monochrome je veux d'la couleur comme la Gameboy Comme la Gameboy Yeah, t'essaie d'gratter avec moi Avec moi On s'comprend même si c'est pas les mots adéquats Yeah, y a trop d'choses qui dégoutent, les putes, les traitres, le game Les putes, les traitres La Fève c'est un espion, tu l'vois à la dégaine À la tête La zik est passionnelle, écoute le saxophone Écoute Jeune espion, dis pas trop mon blaze au phone Yeah, toujours à faire des sons à cinq heures du matin So 3010 bientôt nemosé y a plus rien qui m'atteint Plus rien qui m'atteint Yeah, on voit pas l'bout mais gros on fait tout pour l'atteindre J'suis qu'un homme, jeune, j'ai conscience qu'il faut qu'une balle pour m'éteindre Une balle pour m'éteindre Poto j'ai grave chaud, j'ai des malheurs à mes trousses Malheurs à mes trousses Je parle à la bonne étoile, j'aimerais laisser des traces Aimerais laisser des traces Nocturne c'est d'la musique, ça s'écoute tard la night S'écoute tard la yeah J'veux une bitch pour faire d'la bécane avec ses nattes Bécane avec ses nattes Yeah, yeah, jeune LAF Juge Falcone Falcone Gros tu m'fait pas rire donc fait pas l'comique Ayeah Yeah, Nocturne d'la musique qu'on fait pas comme eux Pas comme eux Dans le labo c'qu'on fait c'est atomique Yeah, yeah, moi j't'appelle pas monsieur Monsieur J'suis triste j'ai le me-seu Me-seu Jeune qui roule que du meusseu Roule que du meusseu Yeah, jeune LAF Machiavelli Chiavelli J'veux des maxi kichta vertes dans la valise Ayeah Yeah, j'suis un jeune donc j'ai d'la fougue j'ai d'la fougue Smoke mon bail, parle tout seul comme un fou Han yeah Yeah, Nocturne c'est d'la musique, ça s'écoute tard la nuit Tard la nuit J'vois que la lune, mon pseudo marqué dans la buée J'vois des mirages la nuit, je rêve de l'oasis L'oasis Elle m'dit j'en veux combien, j'ai dit j'en veux un zeste La Fève c'est pas commun faut qu'tu rentres dans la bulle Dans la On veut bien faire un effort mais y'a trop d'gens dans l'abus, yeah</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Je me lève, j'ai des relents d'la veille, que Dieu m'excuse Yeah Là j'suis au stud', j'fais un snap, j'tease une exclu C'est le même tarif pour tout l'monde, pourquoi tu discutes ? Errr Mauvais penchant pour d'la drogue comme des biscuits Un jeune mal informé qui glisse comme un savon Cette tain-p' me l'a mise car j'ai trop fait le bavon La Fève, tu le kiffes pour ses phrases, pour ses travaux Yes Ils rappent comme des G's, dans la vie font les travlos, laisse Laisse, errr Errr Solo, to night, comme Indochine, j'parle à la lune Y a des embrouilles qui m'travaillent trop à la longue Faut le coller, boxer au corps si t'as pas d'allonge Pas de sex friend, que des wifeys, pas de fake friend Moi, je pourrais pop, faire des hits mais à quels frais ? Elle est avec ton pote, t'es pas là, dis-moi c'qu'elle fait Yes J'veux une grosse voiture, bander sur le bruit qu'elle fait Qu'elle fait, qu'elle fait, errr J'demande au miroir C'est qui qui veut me peiner ? Lui, c'était mon reuf, on partageait les béné' Oh Là, c'est moi le père, j'ai dépassé mes ainés Y a une âme et le corps, j'crois, c'est juste une boîte Que des béquilles dans l'stud', tu sors, tu boites Le ciel, j'crois, il voit tout c'que tu m'dois Un jour, j'ai touché la lumière du bout du doigt You might also like J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est, on à fait c'truc à ied-p À ied-p, à ied-p À ied-p À ied-p, il est parti J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est Han, let's go Let's go Je me lève, j'ai des relents d'la veille, que Dieu pardonne Dans un parc, fume un pli, à Cli-Cli', près d'la Sorbonne Yeah Jeune négro libre, j'réponds pas si tu m'ordonnes Tous les jours, j'me rassure, j'me dis qu'j'suis pas comme eux Il est chaud, tu sais qu'le flow n'est pas commun Ouais, on s'est check mais on est pas copain La gadji m'saoule, là elle m'raconte ses potins Déconnecté d'la plupart, quand j'me couche le reste va courir Trop d'flow, j'crois faut te couvrir , j'veux ce VV' qui t'alourdi Errr Trop d'portes qu'on a dû ouvrir, on s'pète, le ciel va s'couvrir C'est pas toujours clair quand la pluie part, c'est pas toujours triste de mourir Berrr J'demande au miroir C'est qui qui veut me peiner ? Lui, c'était mon reuf, on partageait les béné' Oh Là, c'est moi le père, j'ai dépassé mes ainés Y a une âme et le corps, j'crois, c'est juste une boîte Que des béquilles dans l'stud', tu sors, tu boites Le ciel, j'crois, il voit tout c'que tu m'dois Un jour, j'ai touché la lumière du bout du doigt J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est, on à fait c'truc à ied-p À ied-p, à ied-p À ied-p À ied-p, il est parti J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est</t>
+          <t>Je me lève, j'ai des relents d'la veille, que Dieu m'excuse Yeah Là j'suis au stud', j'fais un snap, j'tease une exclu C'est le même tarif pour tout l'monde, pourquoi tu discutes ? Errr Mauvais penchant pour d'la drogue comme des biscuits Un jeune mal informé qui glisse comme un savon Cette tain-p' me l'a mise car j'ai trop fait le bavon La Fève, tu le kiffes pour ses phrases, pour ses travaux Yes Ils rappent comme des G's, dans la vie font les travlos, laisse Laisse, errr Errr Solo, to night, comme Indochine, j'parle à la lune Y a des embrouilles qui m'travaillent trop à la longue Faut le coller, boxer au corps si t'as pas d'allonge Pas de sex friend, que des wifeys, pas de fake friend Moi, je pourrais pop, faire des hits mais à quels frais ? Elle est avec ton pote, t'es pas là, dis-moi c'qu'elle fait Yes J'veux une grosse voiture, bander sur le bruit qu'elle fait Qu'elle fait, qu'elle fait, errr J'demande au miroir C'est qui qui veut me peiner ? Lui, c'était mon reuf, on partageait les béné' Oh Là, c'est moi le père, j'ai dépassé mes ainés Y a une âme et le corps, j'crois, c'est juste une boîte Que des béquilles dans l'stud', tu sors, tu boites Le ciel, j'crois, il voit tout c'que tu m'dois Un jour, j'ai touché la lumière du bout du doigt J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est, on à fait c'truc à ied-p À ied-p, à ied-p À ied-p À ied-p, il est parti J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est Han, let's go Let's go Je me lève, j'ai des relents d'la veille, que Dieu pardonne Dans un parc, fume un pli, à Cli-Cli', près d'la Sorbonne Yeah Jeune négro libre, j'réponds pas si tu m'ordonnes Tous les jours, j'me rassure, j'me dis qu'j'suis pas comme eux Il est chaud, tu sais qu'le flow n'est pas commun Ouais, on s'est check mais on est pas copain La gadji m'saoule, là elle m'raconte ses potins Déconnecté d'la plupart, quand j'me couche le reste va courir Trop d'flow, j'crois faut te couvrir , j'veux ce VV' qui t'alourdi Errr Trop d'portes qu'on a dû ouvrir, on s'pète, le ciel va s'couvrir C'est pas toujours clair quand la pluie part, c'est pas toujours triste de mourir Berrr J'demande au miroir C'est qui qui veut me peiner ? Lui, c'était mon reuf, on partageait les béné' Oh Là, c'est moi le père, j'ai dépassé mes ainés Y a une âme et le corps, j'crois, c'est juste une boîte Que des béquilles dans l'stud', tu sors, tu boites Le ciel, j'crois, il voit tout c'que tu m'dois Un jour, j'ai touché la lumière du bout du doigt J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est, on à fait c'truc à ied-p À ied-p, à ied-p À ied-p À ied-p, il est parti J'savais J'savais, quand il parle, pourquoi il change sa veste ? J'me mélange plus, ça y est Ça y est</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Juan, Juan Rrraah Jle fais parce que cest obligé Jle fais parce que cest obligé yeah Faut pas quces connards oublient -blient Regarde maintenant, jbrille yeah À l'époque, jroulais des grosses fusées yeah Maintenant jsuis dans la fusée berrr Maintenant elle veut sexcuser pew , il veulent sexcuser, il comprend quil a schizé pew Et faut pas quce connard oublie -blie Jlaveugle avec mes blings blings Il sait qujsuis un charo de Saint-Denis -nis Jsuis connu, jfais pas dcrari -ri Jles tape rapide, comme un plat driz Il pensait quça allait durer Cédric Doumbé, 9 secondes Il attend que jvrille, ce bâtard peut vieillir ce bâtard peut vieillir Ce bâtard peut mourir Même si ça ma touché, back then Jsais qucette merde ma fait mûrir Avec une balle, jsais qujpeux touvrir bow Si jpeux lannuler ton sourire bow Et devenir pour toi quun souvenir Cagoulé, masqué, jsuis jsuis Incognito dans ta putain Dans la vie, ils veulent tous mon adresse , mais ils veulent pas que jmengraisse Ils veulent pas que jbrille , 2-4-3 oblige Jai flex sur eux avant quils moublient pew, pew Dans son corps jsuis resté immobile Walone cest le MOB, pour ça ya que sur le phone mobile , il faut qutu nous payes bien Bâtard, ya quça qui nous motive pew Jcrois qutout mes sangs sont maudits pew Peu importe les faits, cest nous les fautifs Jle fais parce que faut pas quces batards Jle fais parce que faut pas quces batards oublient Jle fais parce que cest obligé Jle fais parce que cest obligé yeah Faut pas quces connards oublient -blient Regarde maintenant, jbrille yeah Jle fais parce que cest obligé Il pensait quça allait durer berrr Cédric Doumbé, 9 secondes Jbrille JbrilleYou might also like</t>
+          <t>Juan, Juan Rrraah Jle fais parce que cest obligé Jle fais parce que cest obligé yeah Faut pas quces connards oublient -blient Regarde maintenant, jbrille yeah À l'époque, jroulais des grosses fusées yeah Maintenant jsuis dans la fusée berrr Maintenant elle veut sexcuser pew , il veulent sexcuser, il comprend quil a schizé pew Et faut pas quce connard oublie -blie Jlaveugle avec mes blings blings Il sait qujsuis un charo de Saint-Denis -nis Jsuis connu, jfais pas dcrari -ri Jles tape rapide, comme un plat driz Il pensait quça allait durer Cédric Doumbé, 9 secondes Il attend que jvrille, ce bâtard peut vieillir ce bâtard peut vieillir Ce bâtard peut mourir Même si ça ma touché, back then Jsais qucette merde ma fait mûrir Avec une balle, jsais qujpeux touvrir bow Si jpeux lannuler ton sourire bow Et devenir pour toi quun souvenir Cagoulé, masqué, jsuis jsuis Incognito dans ta putain Dans la vie, ils veulent tous mon adresse , mais ils veulent pas que jmengraisse Ils veulent pas que jbrille , 2-4-3 oblige Jai flex sur eux avant quils moublient pew, pew Dans son corps jsuis resté immobile Walone cest le MOB, pour ça ya que sur le phone mobile , il faut qutu nous payes bien Bâtard, ya quça qui nous motive pew Jcrois qutout mes sangs sont maudits pew Peu importe les faits, cest nous les fautifs Jle fais parce que faut pas quces batards Jle fais parce que faut pas quces batards oublient Jle fais parce que cest obligé Jle fais parce que cest obligé yeah Faut pas quces connards oublient -blient Regarde maintenant, jbrille yeah Jle fais parce que cest obligé Il pensait quça allait durer berrr Cédric Doumbé, 9 secondes Jbrille Jbrille</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Han Les gens faut pas les écouter C'qui compte c'est ceux à tes côtés On parle de la vie on s'adapte L'amour des gens comment ça date La rime elle est fabuleuse Sweatshirt mielleux sous le pull Le truc y'en a plein qui l'ont pas J'navigue mais je sais où l'on va Très jdid est la dégaine J'me retourne et tu dégaines Cash monnaie c'est la course Jeun étudie la bourse Tu captes l'aura qu'on dégag Les occasions on les gâche Ca sent l'roussi on décale Trop fort, tu rentres dans les cages Ya des G faut pas les suivre Mon amigo la plupart il font des crari J'suis dans la chop allemande sur l'autoroute mon gars Dundy fait du rallye Poto j'me dois d'être efficace Pour les bavons qui soutiennent l'équipage J'arrive j'entends il est fou La Fève rapide comme la foudre Han, yeah, je met les gants frère Fève c'est le grand chef J't'ai capté a vu d'il fais pas de grands gestes Rap comme un américain sous backwood de LA Faut faire belek à judas mon gars il est ailé, han You might also like Très jdid est la dégaine J'me retourne et tu dégaines Cash monnaie c'est la course Jeune étudie la bourse Tu captes l'aura qu'on dégage Les occasions on les gâche Ca sent l'roussi on décale Trop fort, tu rentres dans les cages Très jdid est la dégaine J'me retourne et tu dégaines Cash monnaie c'est la course Jeune étudie la bourse Tu captes l'aura qu'on dégage Les occasions on les gâche Ca sent l'roussi on décale Trop fort, tu rentres dans les cages</t>
+          <t>Han Les gens faut pas les écouter C'qui compte c'est ceux à tes côtés On parle de la vie on s'adapte L'amour des gens comment ça date La rime elle est fabuleuse Sweatshirt mielleux sous le pull Le truc y'en a plein qui l'ont pas J'navigue mais je sais où l'on va Très jdid est la dégaine J'me retourne et tu dégaines Cash monnaie c'est la course Jeun étudie la bourse Tu captes l'aura qu'on dégag Les occasions on les gâche Ca sent l'roussi on décale Trop fort, tu rentres dans les cages Ya des G faut pas les suivre Mon amigo la plupart il font des crari J'suis dans la chop allemande sur l'autoroute mon gars Dundy fait du rallye Poto j'me dois d'être efficace Pour les bavons qui soutiennent l'équipage J'arrive j'entends il est fou La Fève rapide comme la foudre Han, yeah, je met les gants frère Fève c'est le grand chef J't'ai capté a vu d'il fais pas de grands gestes Rap comme un américain sous backwood de LA Faut faire belek à judas mon gars il est ailé, han Très jdid est la dégaine J'me retourne et tu dégaines Cash monnaie c'est la course Jeune étudie la bourse Tu captes l'aura qu'on dégage Les occasions on les gâche Ca sent l'roussi on décale Trop fort, tu rentres dans les cages Très jdid est la dégaine J'me retourne et tu dégaines Cash monnaie c'est la course Jeune étudie la bourse Tu captes l'aura qu'on dégage Les occasions on les gâche Ca sent l'roussi on décale Trop fort, tu rentres dans les cages</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah Jeune dans l'brouillard Jeune dans l'brouillard Jeune dans l'brouillard Yeah, yeah Jeune dans l'brouillard Jeune dans l'brouillard Jeune dans l'brouillard Yeah, yeah Jeune dans l'brouillard Jeune dans l'brouillard Jeune dans l'brouillard Yeah, yeah, yeah Jeune dans l'brouillard Jeune dans l'brouillard Yeah Jeune dans l'brouillard Yeah Ok, ok, jeune dans l'brouillard Jeune dans l'brouillard Jeune dans l'brouillard Yeah, yeah Ok, jeune dans l'brouillard Jeune dans l'brouillard Yeah, yeah You might also like Ok, .9 dans l'hoodie j'le garde c'est un outil Baraude avec mes ours, baraude avec mes souris Tellement d'problèmes derrière moi, chérie j'peux pas tout t'expliquer Pliquer Mais comme ça j'ai plus rien, La Fève veut grave finir friqué J'aide ton pote, c'est la politesse mais va pas trop loin Va pas trop loin T'étais là hier mais rien dit qu'tu s'ra là demain S'ra là demain J'ai des peines donc j'les énumère Je sais qu'j'ai du mérite, j'ai du flair jeune ambitieux frère La Fève veut l'Amérique J'suis là comme dans un coma, So Fabe Koma Arrête de croire qu'on est poto sale connard Sale Des barres on s'confine, les autres c'est des Goofy Goofy J'ai peur de d'voir assumer mes péchés dans l'coffin J'suis un Jeune Jeune dans l'brouillard Dans l'brouillard Jeune dans l'brouillard Yeah Jeune dans l'brouillard Ok Yeah Ok Jeune dans l'brouillard Yeah Jeune dans l'brouillard Yeah Jeune dans l'brouillard Ok, yeah J'dédicace mon 7 et ma ville, les g's dans les stud' Ceux qui taffent, ceux qui font leurs shits, font des études J'fais confiance, parfois j'fais confiance mais ça m'a déçu Tu connais pas La Fève mon pote, tu n'a pas d'excuses Jeune espion, sur un gros poisson baraude du nord au sud Sud Écoute fils, jenvoie des bonnes ondes est ce que t'as bien reçu J'ai une maquette dans l'écouteur Couteur, j'ai froid sur l'scooter Scooter Fuck un bad trip négro, fuck un Brad' Cooper Combien d'fois on a voulu m'faire avaler un tas d'salades Faudrait pas que mon âme s'envole avant qu'on passe à l'acte J'suis un jeune, donc j'suis débrouillard mon frère c'est l'minimum Ma silhouette s'enfonce dans l'brouillard J'veux juste un dernier moment j'suis un J'suis un Jeune Jeune dans l'brouillard Dans l'brouillard Jeune dans l'brouillard Yeah Jeune dans l'brouillard Ok Yeah Ok Jeune dans l'brouillard Yeah Jeune dans l'brouillard Yeah Jeune dans l'brouillard Ok, yeah Ok, Jeune dans l'brouillard Jeune dans l'brouillard Dans l'brouillard Jeune dans l'brouillard Yeah, ok Yeah Jeune dans l'brouillard Ok Jeune dans l'brouillard Yeah Jeune dans l'brouillard yeah Jeune dans yeah Jeune dans l'brouillard Jeune dans l'brouillard Jeune dans l'brouillard yeah Yeah Jeune dans l'brouillard Jeune dans l'brouillard Jeune dans l'brouillard yeah Yeah</t>
+          <t>Yeah, yeah, yeah Jeune dans l'brouillard Jeune dans l'brouillard Jeune dans l'brouillard Yeah, yeah Jeune dans l'brouillard Jeune dans l'brouillard Jeune dans l'brouillard Yeah, yeah Jeune dans l'brouillard Jeune dans l'brouillard Jeune dans l'brouillard Yeah, yeah, yeah Jeune dans l'brouillard Jeune dans l'brouillard Yeah Jeune dans l'brouillard Yeah Ok, ok, jeune dans l'brouillard Jeune dans l'brouillard Jeune dans l'brouillard Yeah, yeah Ok, jeune dans l'brouillard Jeune dans l'brouillard Yeah, yeah Ok, .9 dans l'hoodie j'le garde c'est un outil Baraude avec mes ours, baraude avec mes souris Tellement d'problèmes derrière moi, chérie j'peux pas tout t'expliquer Pliquer Mais comme ça j'ai plus rien, La Fève veut grave finir friqué J'aide ton pote, c'est la politesse mais va pas trop loin Va pas trop loin T'étais là hier mais rien dit qu'tu s'ra là demain S'ra là demain J'ai des peines donc j'les énumère Je sais qu'j'ai du mérite, j'ai du flair jeune ambitieux frère La Fève veut l'Amérique J'suis là comme dans un coma, So Fabe Koma Arrête de croire qu'on est poto sale connard Sale Des barres on s'confine, les autres c'est des Goofy Goofy J'ai peur de d'voir assumer mes péchés dans l'coffin J'suis un Jeune Jeune dans l'brouillard Dans l'brouillard Jeune dans l'brouillard Yeah Jeune dans l'brouillard Ok Yeah Ok Jeune dans l'brouillard Yeah Jeune dans l'brouillard Yeah Jeune dans l'brouillard Ok, yeah J'dédicace mon 7 et ma ville, les g's dans les stud' Ceux qui taffent, ceux qui font leurs shits, font des études J'fais confiance, parfois j'fais confiance mais ça m'a déçu Tu connais pas La Fève mon pote, tu n'a pas d'excuses Jeune espion, sur un gros poisson baraude du nord au sud Sud Écoute fils, jenvoie des bonnes ondes est ce que t'as bien reçu J'ai une maquette dans l'écouteur Couteur, j'ai froid sur l'scooter Scooter Fuck un bad trip négro, fuck un Brad' Cooper Combien d'fois on a voulu m'faire avaler un tas d'salades Faudrait pas que mon âme s'envole avant qu'on passe à l'acte J'suis un jeune, donc j'suis débrouillard mon frère c'est l'minimum Ma silhouette s'enfonce dans l'brouillard J'veux juste un dernier moment j'suis un J'suis un Jeune Jeune dans l'brouillard Dans l'brouillard Jeune dans l'brouillard Yeah Jeune dans l'brouillard Ok Yeah Ok Jeune dans l'brouillard Yeah Jeune dans l'brouillard Yeah Jeune dans l'brouillard Ok, yeah Ok, Jeune dans l'brouillard Jeune dans l'brouillard Dans l'brouillard Jeune dans l'brouillard Yeah, ok Yeah Jeune dans l'brouillard Ok Jeune dans l'brouillard Yeah Jeune dans l'brouillard yeah Jeune dans yeah Jeune dans l'brouillard Jeune dans l'brouillard Jeune dans l'brouillard yeah Yeah Jeune dans l'brouillard Jeune dans l'brouillard Jeune dans l'brouillard yeah Yeah</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Han, yeah Han, yeah J'suis un ne-jeu, j'ai faim Sur le terrain je fais des crochets, des feintes Je regarde le ciel puis je pense à mes défunts Jeune espion devin qui veut son verre de vin Je vis dans un trou, je vais en perdre ma tête Poto ça dit rien, je taffe, je fais des maquettes Je suis beau mon jeune et la liberté s'achète Le vice est brutal, il vient il t'arrache ta chaîne La Fève 1er, Ambroise Louis J'suis un loup qui veut la chance du rookie Je viens d'ici mais bientôt on décolle Je pense fort à ma mission donc dissipé à l'école Un jour j'vais partir, là-haut dans l'sky Poto chez moi c'est l'hiver tous les jours on s'caille Dans la trap on est serrés comme de la poiscaille Jeune et fougueux, à propos des choses qui s'gagnent J'suis un ne-jeu dans un trou qui veut shine Tu sais qu'le soleil a du charme J'suis un ne-jeu dans un trou qui veut briller Smoke Gelato, verte comme les billets J'suis un ne-jeu dans un trou qui veut shine Tu sais qu'le soleil a du charme J'suis un ne-jeu dans un trou qui veut briller Smoke Gelato, verte comme les billets You might also like Les problèmes s'en vont, ils reviennent en un éclair Poto ici-bas y a du bitume, des glaires Des gens qui parlent beaucoup et quand ça chauffe filent à l'anglaise Et si j'ai confiance, tu peux m'la faire à l'envers Jeune espion à la recherche d'la On a la même vie donc c'est pas la fête qu'on dessine J'suis dans une trap life et la gloire me fait des signes Si un choix doit se faire, je ne suis pas indécis Belek mon G, j'te dépasse si t'es pas dedans Les démons dansaient sur de la valse à 4 temps J't'envoie de la ce-for, on s'connecte si t'es partant Elle m'envoie un DM, elle a kiffé mes pas de danse J'suis un ne-jeu dans un trou qui veut shine Tu sais qu'le soleil a du charme J'suis un ne-jeu dans un trou qui veut briller Smoke Gelato, verte comme les billets J'suis un ne-jeu dans un trou qui veut shine Tu sais qu'le soleil a du charme J'suis un ne-jeu dans un trou qui veut briller Smoke Gelato, verte comme les billets</t>
+          <t>Han, yeah Han, yeah J'suis un ne-jeu, j'ai faim Sur le terrain je fais des crochets, des feintes Je regarde le ciel puis je pense à mes défunts Jeune espion devin qui veut son verre de vin Je vis dans un trou, je vais en perdre ma tête Poto ça dit rien, je taffe, je fais des maquettes Je suis beau mon jeune et la liberté s'achète Le vice est brutal, il vient il t'arrache ta chaîne La Fève 1er, Ambroise Louis J'suis un loup qui veut la chance du rookie Je viens d'ici mais bientôt on décolle Je pense fort à ma mission donc dissipé à l'école Un jour j'vais partir, là-haut dans l'sky Poto chez moi c'est l'hiver tous les jours on s'caille Dans la trap on est serrés comme de la poiscaille Jeune et fougueux, à propos des choses qui s'gagnent J'suis un ne-jeu dans un trou qui veut shine Tu sais qu'le soleil a du charme J'suis un ne-jeu dans un trou qui veut briller Smoke Gelato, verte comme les billets J'suis un ne-jeu dans un trou qui veut shine Tu sais qu'le soleil a du charme J'suis un ne-jeu dans un trou qui veut briller Smoke Gelato, verte comme les billets Les problèmes s'en vont, ils reviennent en un éclair Poto ici-bas y a du bitume, des glaires Des gens qui parlent beaucoup et quand ça chauffe filent à l'anglaise Et si j'ai confiance, tu peux m'la faire à l'envers Jeune espion à la recherche d'la On a la même vie donc c'est pas la fête qu'on dessine J'suis dans une trap life et la gloire me fait des signes Si un choix doit se faire, je ne suis pas indécis Belek mon G, j'te dépasse si t'es pas dedans Les démons dansaient sur de la valse à 4 temps J't'envoie de la ce-for, on s'connecte si t'es partant Elle m'envoie un DM, elle a kiffé mes pas de danse J'suis un ne-jeu dans un trou qui veut shine Tu sais qu'le soleil a du charme J'suis un ne-jeu dans un trou qui veut briller Smoke Gelato, verte comme les billets J'suis un ne-jeu dans un trou qui veut shine Tu sais qu'le soleil a du charme J'suis un ne-jeu dans un trou qui veut briller Smoke Gelato, verte comme les billets</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Cette femme voudrait savoir mon vrai nom J'lui réponds pas gros c'est dead Jeune pull up en Mercedes Toujours focus dans ces diez Chérie j'vais pas t'passer l'anneau Tu cherches quelqu'un, on est là nous À Barcelone, à l'aise Comme si j'parlais castellano La ville elle est plus belle le soir Pas comme cette gadji à qui j'parlais Gros c'est sur moi qu'il faut parier Arrête tes blagues, tu fais pas rire J'ai une mélodie dans la tête Pas b'soin d'la noter j'en aurai d'autres Gros ils sont 20 sur le radeau Comme eux ça cherche l'Eldorado J'suis jeune donc j'ai trop d'énergie Moi j'fais confiance aux énergies Ne-jeu dans le trou Nage dans l'eau trouble Avec les G on est là-haut Gros ça dit quoi ? On est là Appelle-moi si c'est pour les dollars Autour du cou je veux de l'or You might also like Cette femme voudrait savoir mon vrai nom J'lui répond pas gros c'est dead Jeune pull up en Mercedes Toujours focus dans ces diez Chérie j'vais pas t'passer l'anneau Tu cherches quelqu'un, on est là nous À Barcelone, à l'aise Comme si j'parlais castellano</t>
+          <t>Cette femme voudrait savoir mon vrai nom J'lui réponds pas gros c'est dead Jeune pull up en Mercedes Toujours focus dans ces diez Chérie j'vais pas t'passer l'anneau Tu cherches quelqu'un, on est là nous À Barcelone, à l'aise Comme si j'parlais castellano La ville elle est plus belle le soir Pas comme cette gadji à qui j'parlais Gros c'est sur moi qu'il faut parier Arrête tes blagues, tu fais pas rire J'ai une mélodie dans la tête Pas b'soin d'la noter j'en aurai d'autres Gros ils sont 20 sur le radeau Comme eux ça cherche l'Eldorado J'suis jeune donc j'ai trop d'énergie Moi j'fais confiance aux énergies Ne-jeu dans le trou Nage dans l'eau trouble Avec les G on est là-haut Gros ça dit quoi ? On est là Appelle-moi si c'est pour les dollars Autour du cou je veux de l'or Cette femme voudrait savoir mon vrai nom J'lui répond pas gros c'est dead Jeune pull up en Mercedes Toujours focus dans ces diez Chérie j'vais pas t'passer l'anneau Tu cherches quelqu'un, on est là nous À Barcelone, à l'aise Comme si j'parlais castellano</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Jpose sur du tigre ou sur du on joue pas avec la nourriture ma fille fra pas déquitation fumer cest ma méditation moi jai pas bsoin dcours de yoga en vrai jpourrais voir lboule de tchatcheur depuis llogo ya quau poste qferme la boca jeune tue coco faut laisser faire lavocat si jreponds pas laissé un vocal elle mdit il est full op comme box PAS FINI You might also like</t>
+          <t>Jpose sur du tigre ou sur du on joue pas avec la nourriture ma fille fra pas déquitation fumer cest ma méditation moi jai pas bsoin dcours de yoga en vrai jpourrais voir lboule de tchatcheur depuis llogo ya quau poste qferme la boca jeune tue coco faut laisser faire lavocat si jreponds pas laissé un vocal elle mdit il est full op comme box PAS FINI</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Jeune négro dans la capitale Jolie kishta sous l'appuie tête Toi quand tu nous parles c'est bizarre ohhhhh Jeune négro dans la capitale J'crois qu'au fond c'est mon habitat Fais ça comme si c'était vital Jeune négro dans la capitale Jolie kishta sous l'appuie tête Dans la voiture comme un espion J'crois qu'on suit la bonne direction Jeune négro dans la capitale J'crois qu'au fond c'est mon habitat C'est intense dans la cabine Tant de papiers dans la bin Jeune négro dans la capitale Trainé les pieds dans l'avenue Sang royal dans mes veines T'as appelé on est venus Bientôt je passe le quart de siècle J'écris une ligne dans la cab' Gros si j'arrive on t'écarte oh C'est La fève qui tient les cartes C'est La fève qui tient les rennes La fève, Louis c'est mon prénom 3-0 fin de la game C'est toujours la meme rengaine Poto le chemin est très long En hiver je prend les créneaux Es-ce que tu vois ce que nous créons De belles images avec un crayon Jeune négro dans la capitale J'crois qu'au fond c'est mon habitat Dans la voiture comme un espion J'crois qu'on suit la bonne direction Un jour les démons m'aggicha En me montrant jolie kichtas Pas besoin que tu développes ce que tu penses je suis parti fissa You might also likeJeune négro dans la capitale Trainé les pieds dans l'avenue Sang royal dans mes veines T'as appelé on est venus Bientôt je passe le cap J'écris une ligne dans la cab' Gros si j'arrive on t'écarte oh C'est La fève qui tient les cartes Jamais je vendrai la mèche, pas besoin de jurer la Mecque Jeune émécher sous le néon J'suis effrayé par le néant Jamais je vendrai la mèche, jeune négro seule dans la merde Viens on règle ça à l'amiable Je danse toujours pas le mia Je danse toujours pas le mia Je trainasse les pieds comme un minable J'écris trop j'ai cassé la mine Des fois un mode petite mine Je danse toujours pas le mia Je travaille pour devenir meilleur Je ne fais pas ça pour la maille Je le fais pour mouiller l'maillot en yeah yeah en Jeune négro dans la capitale Jolie kishta sous l'appuie tête Toi quand tu nous parles c'est bizarre ohhhhh Jeune négro dans la capitale J'crois qu'au fond c'est mon habitat Fais ça comme si c'était vital Jeune négro dans la capitale Sang royal dans mes veines T'as appelé on est venus Bientôt je passe le quart de siecle J'écris une ligne dans la cab' Gros si j'arrive on t'écarte oh C'est La fève qui tient les cartes</t>
+          <t>Jeune négro dans la capitale Jolie kishta sous l'appuie tête Toi quand tu nous parles c'est bizarre ohhhhh Jeune négro dans la capitale J'crois qu'au fond c'est mon habitat Fais ça comme si c'était vital Jeune négro dans la capitale Jolie kishta sous l'appuie tête Dans la voiture comme un espion J'crois qu'on suit la bonne direction Jeune négro dans la capitale J'crois qu'au fond c'est mon habitat C'est intense dans la cabine Tant de papiers dans la bin Jeune négro dans la capitale Trainé les pieds dans l'avenue Sang royal dans mes veines T'as appelé on est venus Bientôt je passe le quart de siècle J'écris une ligne dans la cab' Gros si j'arrive on t'écarte oh C'est La fève qui tient les cartes C'est La fève qui tient les rennes La fève, Louis c'est mon prénom 3-0 fin de la game C'est toujours la meme rengaine Poto le chemin est très long En hiver je prend les créneaux Es-ce que tu vois ce que nous créons De belles images avec un crayon Jeune négro dans la capitale J'crois qu'au fond c'est mon habitat Dans la voiture comme un espion J'crois qu'on suit la bonne direction Un jour les démons m'aggicha En me montrant jolie kichtas Pas besoin que tu développes ce que tu penses je suis parti fissa Jeune négro dans la capitale Trainé les pieds dans l'avenue Sang royal dans mes veines T'as appelé on est venus Bientôt je passe le cap J'écris une ligne dans la cab' Gros si j'arrive on t'écarte oh C'est La fève qui tient les cartes Jamais je vendrai la mèche, pas besoin de jurer la Mecque Jeune émécher sous le néon J'suis effrayé par le néant Jamais je vendrai la mèche, jeune négro seule dans la merde Viens on règle ça à l'amiable Je danse toujours pas le mia Je danse toujours pas le mia Je trainasse les pieds comme un minable J'écris trop j'ai cassé la mine Des fois un mode petite mine Je danse toujours pas le mia Je travaille pour devenir meilleur Je ne fais pas ça pour la maille Je le fais pour mouiller l'maillot en yeah yeah en Jeune négro dans la capitale Jolie kishta sous l'appuie tête Toi quand tu nous parles c'est bizarre ohhhhh Jeune négro dans la capitale J'crois qu'au fond c'est mon habitat Fais ça comme si c'était vital Jeune négro dans la capitale Sang royal dans mes veines T'as appelé on est venus Bientôt je passe le quart de siecle J'écris une ligne dans la cab' Gros si j'arrive on t'écarte oh C'est La fève qui tient les cartes</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Yah, yah, ah J'porte ma city dans mon cur LAF c'est le juge Falcone C'est le juge Falcone C'est le juge Falcone Bitch allez passe moi l'code J'porte ma city dans mon cur Cur LAF c'est le juge Falcone C'est le juge Falcone C'est le juge Falcone Bitch allez, bitch allez passe moi l'code J'ai d'la frappe dans mes chaussettes J'ai d'la frappe dans mes shoes Ayeah J'ai d'la frappe dans mes chaussettes Comme la plupart de mes bougs Yeah J'porte ma city dans mon cur Cur LAF c'est le juge Falcone C'est le juge Falcone C'est le juge Falcone Bitch allez, bitch allez passe moi l'code J'discutais avec un ancien, il a vesqui les cops mais ils ont pris son chien sa mère J'attends qu'la mort s'amène La faucheuse j'la baise elle a un beau p'tit cul sa mère Oui mon sin-cou j'ai la dalle, comme la plupart des jeunes comme toi qui sont mal lunés Fonce-dé j'ai pas d'lunettes Si t'écoutes tu saignes du nez La Fève en BM sur l'avenue Ils pensent tous que j'n'ai pas d'avenir Jeune espion ne veut pas être vu Le pe-ra m'a eu, j'l'ai pas vu venir J'repense au passé ça me véner Trop de traitrise pour voler mes trophées Dans les abysses, jeune tu fais des crochets Tant des traitrise pour vesqui un procès Dégage petit allez va là-bas Va là-bas Sur le terrain je n'fais pas la passe Pas la passe Même si t'es déter tu touches pas la balle Pas la balle La Fève devait faire du foot à la base À la base Moi j'ouvre des portes, j'ai des séquelles c'était dur dans les tranchées J'ai quelques gouttes de seum au fond d'la gorge Des hématomes de misère dans la trachée La Fève le plus grand des conquérants j'veux pas crever dans ma chop comme le juge Falcone Toi t'es connu mais qui t'connait ? Bitch allez passe moi l'code Suce moi mieux qu'ça tu fais mal le job Depuis qu'faut compter j'étudie l'algèbre Oui je veux la monnaie de deux Steve Jobs Quand je vois qu't'es Sith et bah j'ai la gerbe You might also like J'porte ma city dans mon cur Cur LAF c'est le juge Falcone C'est le juge Falcone C'est le juge Falcone Bitch allez passe moi l'code J'porte ma city dans mon cur Cur LAF c'est le juge Falcone C'est le juge Falcone C'est le juge Falcone Bitch allez, bitch allez passe moi l'code J'ai d'la frappe dans mes chaussettes J'ai d'la frappe dans mes shoes Ayeah J'ai d'la frappe dans mes chaussettes Comme la plupart de mes bougs Ayeah J'porte ma city dans mon cur Cur LAF c'est le juge Falcone C'est le juge Falcone C'est le juge Falcone Bitch allez, bitch allez passe moi l'code Ayeah L'humanité compte sur toi</t>
+          <t>Yah, yah, ah J'porte ma city dans mon cur LAF c'est le juge Falcone C'est le juge Falcone C'est le juge Falcone Bitch allez passe moi l'code J'porte ma city dans mon cur Cur LAF c'est le juge Falcone C'est le juge Falcone C'est le juge Falcone Bitch allez, bitch allez passe moi l'code J'ai d'la frappe dans mes chaussettes J'ai d'la frappe dans mes shoes Ayeah J'ai d'la frappe dans mes chaussettes Comme la plupart de mes bougs Yeah J'porte ma city dans mon cur Cur LAF c'est le juge Falcone C'est le juge Falcone C'est le juge Falcone Bitch allez, bitch allez passe moi l'code J'discutais avec un ancien, il a vesqui les cops mais ils ont pris son chien sa mère J'attends qu'la mort s'amène La faucheuse j'la baise elle a un beau p'tit cul sa mère Oui mon sin-cou j'ai la dalle, comme la plupart des jeunes comme toi qui sont mal lunés Fonce-dé j'ai pas d'lunettes Si t'écoutes tu saignes du nez La Fève en BM sur l'avenue Ils pensent tous que j'n'ai pas d'avenir Jeune espion ne veut pas être vu Le pe-ra m'a eu, j'l'ai pas vu venir J'repense au passé ça me véner Trop de traitrise pour voler mes trophées Dans les abysses, jeune tu fais des crochets Tant des traitrise pour vesqui un procès Dégage petit allez va là-bas Va là-bas Sur le terrain je n'fais pas la passe Pas la passe Même si t'es déter tu touches pas la balle Pas la balle La Fève devait faire du foot à la base À la base Moi j'ouvre des portes, j'ai des séquelles c'était dur dans les tranchées J'ai quelques gouttes de seum au fond d'la gorge Des hématomes de misère dans la trachée La Fève le plus grand des conquérants j'veux pas crever dans ma chop comme le juge Falcone Toi t'es connu mais qui t'connait ? Bitch allez passe moi l'code Suce moi mieux qu'ça tu fais mal le job Depuis qu'faut compter j'étudie l'algèbre Oui je veux la monnaie de deux Steve Jobs Quand je vois qu't'es Sith et bah j'ai la gerbe J'porte ma city dans mon cur Cur LAF c'est le juge Falcone C'est le juge Falcone C'est le juge Falcone Bitch allez passe moi l'code J'porte ma city dans mon cur Cur LAF c'est le juge Falcone C'est le juge Falcone C'est le juge Falcone Bitch allez, bitch allez passe moi l'code J'ai d'la frappe dans mes chaussettes J'ai d'la frappe dans mes shoes Ayeah J'ai d'la frappe dans mes chaussettes Comme la plupart de mes bougs Ayeah J'porte ma city dans mon cur Cur LAF c'est le juge Falcone C'est le juge Falcone C'est le juge Falcone Bitch allez, bitch allez passe moi l'code Ayeah L'humanité compte sur toi</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ERRR, yeah, pour les blancs on va pas danser Négro j'ai senti le danger, tellement de pensées mélangées yes Ton équipe on va la manger yes, j'ai un sentiment étranger ERRR J'ai ma dope, j'ai mon Smith Wes' Dans le stud', j'me sens Kanye West J'ai ma dope, j'ai mon Smith Wes' Dans le, dans le stud', j'me sens Kanye West J'suis dans la création, pas de récréation J'suis dans la création, pas de récréation, yeah J'ai ma dope, j'ai mon Smith Wes' Dans le, dans le stud', j'me sens Kanye West Dans l'stud', j'me sens comme Kanye Des anciens avec les dents cariées Sale bitch tu m'as contrarié sale bitch Tu as le flair si sur moi tu as parié let's go Trois zéros c'est l'minimum Placard cest une mini-mort Pourquoi tu m'ignores ? pourquoi tu m'ignores ? J'veux juste un milliard j'veux juste un milliard Y'a qu'le ciel qui mhumilie Yeah, yeah, yeah You might also like ERRR, yeah, pour les blancs on va pas danser Négro j'ai senti le danger, tellement de pensées mélangées yes Ton équipe on va la manger yes, j'ai un sentiment étranger ERRR J'ai ma dope, j'ai mon Smith Wes' Dans le stud', j'me sens Kanye West J'ai ma dope, j'ai mon Smith Wes' Dans le, dans le stud', j'me sens Kanye West J'suis dans la création, pas de récréation J'suis dans la création, pas de récréation, yeah J'ai ma dope, j'ai mon Smith Wes' Dans le, dans le stud', j'me sens Kanye West1</t>
+          <t>ERRR, yeah, pour les blancs on va pas danser Négro j'ai senti le danger, tellement de pensées mélangées yes Ton équipe on va la manger yes, j'ai un sentiment étranger ERRR J'ai ma dope, j'ai mon Smith Wes' Dans le stud', j'me sens Kanye West J'ai ma dope, j'ai mon Smith Wes' Dans le, dans le stud', j'me sens Kanye West J'suis dans la création, pas de récréation J'suis dans la création, pas de récréation, yeah J'ai ma dope, j'ai mon Smith Wes' Dans le, dans le stud', j'me sens Kanye West Dans l'stud', j'me sens comme Kanye Des anciens avec les dents cariées Sale bitch tu m'as contrarié sale bitch Tu as le flair si sur moi tu as parié let's go Trois zéros c'est l'minimum Placard cest une mini-mort Pourquoi tu m'ignores ? pourquoi tu m'ignores ? J'veux juste un milliard j'veux juste un milliard Y'a qu'le ciel qui mhumilie Yeah, yeah, yeah ERRR, yeah, pour les blancs on va pas danser Négro j'ai senti le danger, tellement de pensées mélangées yes Ton équipe on va la manger yes, j'ai un sentiment étranger ERRR J'ai ma dope, j'ai mon Smith Wes' Dans le stud', j'me sens Kanye West J'ai ma dope, j'ai mon Smith Wes' Dans le, dans le stud', j'me sens Kanye West J'suis dans la création, pas de récréation J'suis dans la création, pas de récréation, yeah J'ai ma dope, j'ai mon Smith Wes' Dans le, dans le stud', j'me sens Kanye West1</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>WOOOH ERRR ERRR ERRR ERRR J'fais pleurer le pencil Toujours je m'aime saoul Ma vision est handsome Papa veut la Benzo' Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo J'fais pleurer le pencil C'est toujours le même soul Ma vision est handsome Papa veut la Benzo' Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo Train de vie néfaste Les souvenirs, ils s'ffacent Problèmes, on y fait face Kolaf, c'st la préface Tant d'nouveaux thèmes, dit J'ai un peu de peine, G J'ai un peu de haine, G Walone c'est l'ONG LaF, il est insatiable Copie, y a pas ça La dope de Barça Mondeo et Passat Envie d'sous, c'est une maladie T'es solo et le mal agit Désolé si j'ai mal agit J'arrive et je fais la magie J'fais pleurer le stylo Ta gadji a kiffé le style Faut mieux qu'je le kill Bientôt à Beverly Hills J'étais stone j'ai pas vu l'heure Les démons me tirent le pull J'me sens sur la Lune J'passe pas ma vie, j'en ai qu'une Pourquoi tu m'as oublié ? J'ves-qui les bourbiers Tu croyais que, mais frérot on a pas roupillé Mercedes Cadillac, pourquoi tu portes pas tes 'ieucs Tes G respectent pas les 'ieuvs On a pas les mêmes cibles You might also like Pleurer le penc' ERRR J'fais pleurer le penc' Ha J'fais pleurer le pencil Toujours je m'aime saoul Ma vision est handsome Papa veut la Benzo' Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo J'fais pleurer le pencil Toujours je m'aime saoul Ma vision est handsome Papa veut la Benzo' Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo</t>
+          <t>WOOOH ERRR ERRR ERRR ERRR J'fais pleurer le pencil Toujours je m'aime saoul Ma vision est handsome Papa veut la Benzo' Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo J'fais pleurer le pencil C'est toujours le même soul Ma vision est handsome Papa veut la Benzo' Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo Train de vie néfaste Les souvenirs, ils s'ffacent Problèmes, on y fait face Kolaf, c'st la préface Tant d'nouveaux thèmes, dit J'ai un peu de peine, G J'ai un peu de haine, G Walone c'est l'ONG LaF, il est insatiable Copie, y a pas ça La dope de Barça Mondeo et Passat Envie d'sous, c'est une maladie T'es solo et le mal agit Désolé si j'ai mal agit J'arrive et je fais la magie J'fais pleurer le stylo Ta gadji a kiffé le style Faut mieux qu'je le kill Bientôt à Beverly Hills J'étais stone j'ai pas vu l'heure Les démons me tirent le pull J'me sens sur la Lune J'passe pas ma vie, j'en ai qu'une Pourquoi tu m'as oublié ? J'ves-qui les bourbiers Tu croyais que, mais frérot on a pas roupillé Mercedes Cadillac, pourquoi tu portes pas tes 'ieucs Tes G respectent pas les 'ieuvs On a pas les mêmes cibles Pleurer le penc' ERRR J'fais pleurer le penc' Ha J'fais pleurer le pencil Toujours je m'aime saoul Ma vision est handsome Papa veut la Benzo' Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo J'fais pleurer le pencil Toujours je m'aime saoul Ma vision est handsome Papa veut la Benzo' Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo Maman veut du Kenzo</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>This for all you, this for all you, this for all you This for all you playa hataz who be talkin' that shit Y a trop d'faux, j'vais les trier J'le fais parce que j'me sens obligé D'une autre planète, est-ce que tu m'as pigé ? J'ai des trucs offerts par l'fils d'Christian Audigier On s'déplace toujours pour la monnaie, moi et mon gros nez On s'déplace toujours pour la monnaie, moi et mon gros nez J'ai une p'tite blonde, ils vont me revoir au sommet avec elle ils vont me prendre pour King Kong J'lâche une petite bombe dans l'stud' qui donn potentiellemnt une Rollie qui fait ding dong Eh, j'fume, j'm'enfume, jusqu'à c'que BUHI devienne Kim Jong Elle supprime les DMs, elle veut pas qu'on sache qu'elle fait droite à gauche comme une balle de ping-pong J'lâche des pépites pour l'cash, tu lâches des commentaires, tu fais tâche J'représente 9-7-4 34, et 6-9 je sais que je les éclate J'lâche des pépites pour l'cash, tu lâches des commentaires, tu fais tâche J'représente 9-7-4 34, et 6-9 je sais que je les éclate Fais belek aux faux mon négro BUSHI Tape, ERRR Tape, 2021-22 tu connais You might also like Y'a trop d'faux, j'vais les trier J'le fais parce que j'me sens obligé D'une autre planète, est-ce que tu m'as pigé ? J'ai des trucs offerts par l'fils d'Christian Audigier On s'déplace toujours pour la monnaie, moi et mon gros nez On s'déplace toujours pour la monnaie, moi et mon gros nez Trop d'faux, faudrait faire un tri un tri Y a ce souci qui m'intrigue Errr Cette go j'sais pas c'qu'elle a pris dans l'zen, pour ça j'la vois ça m'attriste Errr Trop d'haine j'sais pas quoi faire d'ce feu Trap shit tu sais j'maîtrise ce jeu Ton plavon il est pas sûr Négro, j'vais pas crever pour des me-je Lessgo, j'aurais quel âge à mon premier million ? Broke boy, mais elle me trouve mignon Faut grave pop, comme le Dom Perignon Trop d'serpents fais belek à toi Je compte les frérots sur mes dix doigts dix doigts Walo-n-e fait le convoi J'suis vrai G' donc on va rendre c'qu'on doit, Lessgo Yes, mon négro t'as cru qu'on était pareil pareil J'parle du Ciel, car y a que lui qui m'arrête qui m'arrête Everyday, consomme la frappe à Mahrez Mahrez Plutôt Jorja qu'Halle Berry Berry Aime que les dollars, les berry Errr Plus de Guap, Bushi dis-leur dis-leur Faire ce cash comme le Drug dealer, Yes</t>
+          <t>This for all you, this for all you, this for all you This for all you playa hataz who be talkin' that shit Y a trop d'faux, j'vais les trier J'le fais parce que j'me sens obligé D'une autre planète, est-ce que tu m'as pigé ? J'ai des trucs offerts par l'fils d'Christian Audigier On s'déplace toujours pour la monnaie, moi et mon gros nez On s'déplace toujours pour la monnaie, moi et mon gros nez J'ai une p'tite blonde, ils vont me revoir au sommet avec elle ils vont me prendre pour King Kong J'lâche une petite bombe dans l'stud' qui donn potentiellemnt une Rollie qui fait ding dong Eh, j'fume, j'm'enfume, jusqu'à c'que BUHI devienne Kim Jong Elle supprime les DMs, elle veut pas qu'on sache qu'elle fait droite à gauche comme une balle de ping-pong J'lâche des pépites pour l'cash, tu lâches des commentaires, tu fais tâche J'représente 9-7-4 34, et 6-9 je sais que je les éclate J'lâche des pépites pour l'cash, tu lâches des commentaires, tu fais tâche J'représente 9-7-4 34, et 6-9 je sais que je les éclate Fais belek aux faux mon négro BUSHI Tape, ERRR Tape, 2021-22 tu connais Y'a trop d'faux, j'vais les trier J'le fais parce que j'me sens obligé D'une autre planète, est-ce que tu m'as pigé ? J'ai des trucs offerts par l'fils d'Christian Audigier On s'déplace toujours pour la monnaie, moi et mon gros nez On s'déplace toujours pour la monnaie, moi et mon gros nez Trop d'faux, faudrait faire un tri un tri Y a ce souci qui m'intrigue Errr Cette go j'sais pas c'qu'elle a pris dans l'zen, pour ça j'la vois ça m'attriste Errr Trop d'haine j'sais pas quoi faire d'ce feu Trap shit tu sais j'maîtrise ce jeu Ton plavon il est pas sûr Négro, j'vais pas crever pour des me-je Lessgo, j'aurais quel âge à mon premier million ? Broke boy, mais elle me trouve mignon Faut grave pop, comme le Dom Perignon Trop d'serpents fais belek à toi Je compte les frérots sur mes dix doigts dix doigts Walo-n-e fait le convoi J'suis vrai G' donc on va rendre c'qu'on doit, Lessgo Yes, mon négro t'as cru qu'on était pareil pareil J'parle du Ciel, car y a que lui qui m'arrête qui m'arrête Everyday, consomme la frappe à Mahrez Mahrez Plutôt Jorja qu'Halle Berry Berry Aime que les dollars, les berry Errr Plus de Guap, Bushi dis-leur dis-leur Faire ce cash comme le Drug dealer, Yes</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Là jsuis déter, jpourrais gifler le premier négro qui parle mal sur ma life Sur ma life Mal sur ma life Sur ma life, c'est faux même si jl'ai juré sur ma life Ah ouais Jsuis solo j'écris, perso' moi jtrouve cest un crime Il est v'nu sous les larmes et les cris, ouais lhuissier cest une pute, joublie pas cquil a pris, yeah J'ai repéré dans la ville tous les flokos, les flokos qui parlaient sur nos vies Parlaient sur nos vies, les grands perdent du poids, les ptits sont plus des novices Deux, trois soupapes et tu paniques, c'est rap, on chante pas du Pagny 243, jsuis fier de mes racines, je vais pas m'marier sur Agadir Te méprends pas toi, moi, cest pas la même chose Dans le J, on a pas mis la même dose, jcomprends pas, cest la merde et les mecs chôment Et jme fais du mal avec cque jaime trop Jvois il brille, jai nettoyé lextendo, jai pas de stress même si jles vois dans lrétro' Là jsuis déter', jpourrais gifler le premier négro qui parle mal sur ma life Mal sur ma life, c'est faux même si jl'ai juré sur ma life Jsuis solo, j'écris, perso' moi jtrouve cest un crime Il est v'nu sous les larmes et les cris, ouais lhuissier cest une pute, joublie pas cquil a pris, yeah J'ai plus les yeux sur la recette, j'ai assez capté comment faire, yeah Le temps il passe, il y a quelques bad news qu'on enterre, yeah J'me fie à moi même, fuck se calquer sur leurs têtes 2K22, KOLAF, déter' comme tout gros, déter' comme mon père, yeah You might also likeLowkey comme dans la vraie vie, on force rien à part la voix J'suis avec le F, Kosei, Lazur, 2022 pour tout le monde toujours en lowkey shit x3 Ok, lowkey shit, en dessous d'mes yeux, des milliers de lignes, des billets de mille Pour les voir en vrai, j'ai pas attendu ton avis, des faits comme a-ç, des milliers de signes Je vois Papa triste sous garette-ci Ma vie a changé, je dis merci Elle me direct message pour une lehsa, hier elle se montrait vraiment hyper sage Ok Ça y est, négocier des plavons, sur l'gazon, le terrain C'est pas nous on chauffait le banc C'est pas fait pour oi-m de bosser au black, fais ça mieux quand tu peps, il faut penser aux dents Si à 22 t'as pas fait autant d'sous qu'oi-m C'est que t'as pas dû y penser autant On bouge Ça vient pas en patientant J'ai fait J'ai pas dit je sais pas si j'tente Pourquoi tu changerais pour là-c'ui? Tentes J'ai toujours été prêt pour la suite Tentes On a su combler les places vides Hier chaud, maintenant, j'le paye en cash, lui Pourquoi tu changerais pour là-c'ui ? Tentes J'ai toujours été prêt pour la suite Tentes On a su combler les places vides Hier chaud, maintenant, j'le paye en cash, lui Caaaaaaash2</t>
+          <t>Là jsuis déter, jpourrais gifler le premier négro qui parle mal sur ma life Sur ma life Mal sur ma life Sur ma life, c'est faux même si jl'ai juré sur ma life Ah ouais Jsuis solo j'écris, perso' moi jtrouve cest un crime Il est v'nu sous les larmes et les cris, ouais lhuissier cest une pute, joublie pas cquil a pris, yeah J'ai repéré dans la ville tous les flokos, les flokos qui parlaient sur nos vies Parlaient sur nos vies, les grands perdent du poids, les ptits sont plus des novices Deux, trois soupapes et tu paniques, c'est rap, on chante pas du Pagny 243, jsuis fier de mes racines, je vais pas m'marier sur Agadir Te méprends pas toi, moi, cest pas la même chose Dans le J, on a pas mis la même dose, jcomprends pas, cest la merde et les mecs chôment Et jme fais du mal avec cque jaime trop Jvois il brille, jai nettoyé lextendo, jai pas de stress même si jles vois dans lrétro' Là jsuis déter', jpourrais gifler le premier négro qui parle mal sur ma life Mal sur ma life, c'est faux même si jl'ai juré sur ma life Jsuis solo, j'écris, perso' moi jtrouve cest un crime Il est v'nu sous les larmes et les cris, ouais lhuissier cest une pute, joublie pas cquil a pris, yeah J'ai plus les yeux sur la recette, j'ai assez capté comment faire, yeah Le temps il passe, il y a quelques bad news qu'on enterre, yeah J'me fie à moi même, fuck se calquer sur leurs têtes 2K22, KOLAF, déter' comme tout gros, déter' comme mon père, yeah Lowkey comme dans la vraie vie, on force rien à part la voix J'suis avec le F, Kosei, Lazur, 2022 pour tout le monde toujours en lowkey shit x3 Ok, lowkey shit, en dessous d'mes yeux, des milliers de lignes, des billets de mille Pour les voir en vrai, j'ai pas attendu ton avis, des faits comme a-ç, des milliers de signes Je vois Papa triste sous garette-ci Ma vie a changé, je dis merci Elle me direct message pour une lehsa, hier elle se montrait vraiment hyper sage Ok Ça y est, négocier des plavons, sur l'gazon, le terrain C'est pas nous on chauffait le banc C'est pas fait pour oi-m de bosser au black, fais ça mieux quand tu peps, il faut penser aux dents Si à 22 t'as pas fait autant d'sous qu'oi-m C'est que t'as pas dû y penser autant On bouge Ça vient pas en patientant J'ai fait J'ai pas dit je sais pas si j'tente Pourquoi tu changerais pour là-c'ui? Tentes J'ai toujours été prêt pour la suite Tentes On a su combler les places vides Hier chaud, maintenant, j'le paye en cash, lui Pourquoi tu changerais pour là-c'ui ? Tentes J'ai toujours été prêt pour la suite Tentes On a su combler les places vides Hier chaud, maintenant, j'le paye en cash, lui Caaaaaaash2</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Vrai, tous mes G le sont Jme noie dans mes songes, tu l'sens dans mes sons Jle fais pas si jvise pas la lune Jai des lacunes, jeune espion traînait dans la brume, let's go Jsuis dans la brume Jsuis dans la brume Jsuis dans la brume Jeune espion traînait dans la brume, let's go Jsuis dans la brume ... Jparle à ceux qui voient dquoi jparle, jme souviens quand ça traînait Javais pas lâge jprenais beaucoup dimages dans ma prunelle Moi jaime pas quon massimile Peu dgns sur ma SIM Jsuis vrai, poto la vie tout le temps jdonn mon maximum Gros y en a trop qui veulent ma peau Faudrait soulager le poids sur mon dos poids sur mon dos Gros lunivers cest lui qui lance les dés qui lance les dés Mais les occasions quon a, on les a créées on les a créé Si je veux je fais des tubes, oui le karma il est dur Cest dans ma nature, je réfléchis dans la 'ur Oui le ce-vi il mattire, jsais quil finira dans larmoire Mais je veux choper le titre, ma situation mattriste You might also like J'suis un jeune, lami Donc ce porc me touche à cause de ma mélanine Vrai, tous mes G le sont Jme noie dans mes songes, tu l'sens dans mes sons Jle fais pas si jvise pas la lune Jai des lacunes, jeune espion traînait dans la brume Jle fais pas si jvise pas la lune Jai des lacunes, jeune espion traînait dans la brume let's go Jsuis dans la brume Jsuis dans la brume Jsuis dans la brume Jeune espion traînait dans la brume, let's go Jsuis dans la brume ... Jeune espion traînait dans la brume, let's go Juste un peu, avant que tu ten ailles à jamais Acharné, je suis un jeune donc j'suis acharné Jeune bavon traîne les pieds dans les jeunes bas-fonds Jsuis pas contre, 2-3 chèques et puis on sla raconte On cherche la monnaie, du lundi au dimanche Ride dans lAudi blanche, Fouquets on y mange Jeune dans la pénombre, Fève La cest mon nom Jme souviens personne me suivait à part mon ombre J'suis un jeune, lami Donc ce porc me touche à cause de ma mélanine Vrai, tous mes G le sont Jme noie dans mes songes, tu l'sens dans mes sons let's go Jle fais pas si jvise pas la lune Jai des lacunes, jeune espion traînait dans la brume, let's go Jle fais pas si jvise pas la lune Jai des lacunes, jeune espion traînait dans la brume, let's go Jsuis dans la brume Jsuis dans la brume Jsuis dans la brume Jeune espion traînait dans la brume, let's go Jsuis dans la brume ... Jeune espion traînait dans la brume, let's go1</t>
+          <t>Vrai, tous mes G le sont Jme noie dans mes songes, tu l'sens dans mes sons Jle fais pas si jvise pas la lune Jai des lacunes, jeune espion traînait dans la brume, let's go Jsuis dans la brume Jsuis dans la brume Jsuis dans la brume Jeune espion traînait dans la brume, let's go Jsuis dans la brume ... Jparle à ceux qui voient dquoi jparle, jme souviens quand ça traînait Javais pas lâge jprenais beaucoup dimages dans ma prunelle Moi jaime pas quon massimile Peu dgns sur ma SIM Jsuis vrai, poto la vie tout le temps jdonn mon maximum Gros y en a trop qui veulent ma peau Faudrait soulager le poids sur mon dos poids sur mon dos Gros lunivers cest lui qui lance les dés qui lance les dés Mais les occasions quon a, on les a créées on les a créé Si je veux je fais des tubes, oui le karma il est dur Cest dans ma nature, je réfléchis dans la 'ur Oui le ce-vi il mattire, jsais quil finira dans larmoire Mais je veux choper le titre, ma situation mattriste J'suis un jeune, lami Donc ce porc me touche à cause de ma mélanine Vrai, tous mes G le sont Jme noie dans mes songes, tu l'sens dans mes sons Jle fais pas si jvise pas la lune Jai des lacunes, jeune espion traînait dans la brume Jle fais pas si jvise pas la lune Jai des lacunes, jeune espion traînait dans la brume let's go Jsuis dans la brume Jsuis dans la brume Jsuis dans la brume Jeune espion traînait dans la brume, let's go Jsuis dans la brume ... Jeune espion traînait dans la brume, let's go Juste un peu, avant que tu ten ailles à jamais Acharné, je suis un jeune donc j'suis acharné Jeune bavon traîne les pieds dans les jeunes bas-fonds Jsuis pas contre, 2-3 chèques et puis on sla raconte On cherche la monnaie, du lundi au dimanche Ride dans lAudi blanche, Fouquets on y mange Jeune dans la pénombre, Fève La cest mon nom Jme souviens personne me suivait à part mon ombre J'suis un jeune, lami Donc ce porc me touche à cause de ma mélanine Vrai, tous mes G le sont Jme noie dans mes songes, tu l'sens dans mes sons let's go Jle fais pas si jvise pas la lune Jai des lacunes, jeune espion traînait dans la brume, let's go Jle fais pas si jvise pas la lune Jai des lacunes, jeune espion traînait dans la brume, let's go Jsuis dans la brume Jsuis dans la brume Jsuis dans la brume Jeune espion traînait dans la brume, let's go Jsuis dans la brume ... Jeune espion traînait dans la brume, let's go1</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Le temps passe et mes pieds ils prennent racine T'es naïf si tu penses c'que j'fais c'est facile Le rap j'suis pas trop dans cette bassine J'fais des classiques si t'aimes pas t'es pas la cible T'as capté la rime elle est costaud J'crois l'énergie que j'possède elle est claustro Ce G c'est un serpent il cause trop J'fais que défendr ma cause gros La vie c'est un grand pêl-mêle Le brolic il chante frérot j'aime pas la mélo Ferrari j'ai rangé le vélo Jeune à la peau couleur swisher caramelo Les jours s'enchainent j'écris ma story Les trahisons je trouve ça horrible Ma le-gueu je chante comme les choristes C'est l'aura des hommes qui nous corrige J'ai des écarts de temps en temps C'est rien c'est la vie Laisse, j'ai des écarts de temps en temps C'est rien c'est la vie You might also like Le temps passe et mes pieds ils prennent racine T'es naïf si tu penses c'que j'fais c'est facile Le rap j'suis pas trop dans cette bassine J'fais des classiques si t'aimes pas t'es pas la cible Le piano m'rappelle Nina Simone LaF il a la rime assassine J'capte pas trop elle veut quoi la zine ? Le son est fou faut j'l'amène à l'asile Faudrait qu'j'ai un petit truc en plus J'comprends pas cette chose qui me blesse La Fève c'est pour la noblesse Mon point de vue a des limites Tout c'qui me gêne je l'élimine Pourquoi tu copies mes gimmicks ? Du futur rap à l'ancienne J'regarde le ciel j'parle à mes ancêtres L.A.F.E.V c'est le 7 Tu parles de moi tu me cites Le démon joue de la lyre Dans la gov à vive allure Quelques regrets sur un chemin H2O sur le parchemin Ma le-gueu je chante comme les choristes C'est l'aura des hommes qui corrige J'ai des écarts de temps en temps C'est rien c'est la vie Laisse, j'ai des écarts de temps en temps C'est rien, c'est la vie</t>
+          <t>Le temps passe et mes pieds ils prennent racine T'es naïf si tu penses c'que j'fais c'est facile Le rap j'suis pas trop dans cette bassine J'fais des classiques si t'aimes pas t'es pas la cible T'as capté la rime elle est costaud J'crois l'énergie que j'possède elle est claustro Ce G c'est un serpent il cause trop J'fais que défendr ma cause gros La vie c'est un grand pêl-mêle Le brolic il chante frérot j'aime pas la mélo Ferrari j'ai rangé le vélo Jeune à la peau couleur swisher caramelo Les jours s'enchainent j'écris ma story Les trahisons je trouve ça horrible Ma le-gueu je chante comme les choristes C'est l'aura des hommes qui nous corrige J'ai des écarts de temps en temps C'est rien c'est la vie Laisse, j'ai des écarts de temps en temps C'est rien c'est la vie Le temps passe et mes pieds ils prennent racine T'es naïf si tu penses c'que j'fais c'est facile Le rap j'suis pas trop dans cette bassine J'fais des classiques si t'aimes pas t'es pas la cible Le piano m'rappelle Nina Simone LaF il a la rime assassine J'capte pas trop elle veut quoi la zine ? Le son est fou faut j'l'amène à l'asile Faudrait qu'j'ai un petit truc en plus J'comprends pas cette chose qui me blesse La Fève c'est pour la noblesse Mon point de vue a des limites Tout c'qui me gêne je l'élimine Pourquoi tu copies mes gimmicks ? Du futur rap à l'ancienne J'regarde le ciel j'parle à mes ancêtres L.A.F.E.V c'est le 7 Tu parles de moi tu me cites Le démon joue de la lyre Dans la gov à vive allure Quelques regrets sur un chemin H2O sur le parchemin Ma le-gueu je chante comme les choristes C'est l'aura des hommes qui corrige J'ai des écarts de temps en temps C'est rien c'est la vie Laisse, j'ai des écarts de temps en temps C'est rien, c'est la vie</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Dans ma tête, j'ai des bangers et des meurtres en série, le rap cest un délire La routine des ne-jeu c'est terrible, la fume rend hystérique J'veux finir roi, pas avec la tête découpée Posé dans mon re-re jécris des couplets Les tendances de maintenant m'ont toutes dégoutées Y'a des rappeurs qui pop, j'les graille en dux couplets J'veux pas crevr tout seul, pour ça qu'j'm'applique sur mon entourage La Fève dans quatre, cinq ans cest lprofesseur, y a des gens qui l'ont senti ils mencouragent J'fais pas d'rap pour qu'les gadji sambiancent Depuis l'début l'école c'était mon plan C J'pense qu'argent argent, shit c'est insensé d'vouloir devenir riche avec mon mode de pensée Dans la ville comme d'hab La Fève dans la ville comme Gavroche, hey Impertinent comme Fabe Les embrouilles d'salopards, ça m'gave, hey, hey J'suis la Fève tu l'sais, si un jour j'le dis plus c'est qu'j'suis mort mon ne-jeu J'suis mort mon ne-jeu Si un jour j'le dis plus c'est qu'j'suis mort mon ne-jeu J'prie pour qu'les étoiles s'alignent Pour qu'un jour j'arrête de gaspiller ma salive C'est l'vice des autres qui m'a sali J'suis dans l'124 une gadji raconte sa vie J'ai la flemme de tout faut qu'je change J'veux pas ber-tom dans la vente de chanvre C'est mon équipage, c'est c'qui fait qu'j'suis pas seul à bruler dans les cendres Ca fait dix-neuf piges que j'tue mon ennui, j'suis pas d'Bélize et c'est la crise mon ami C'est la crise mon ami, quand y'a zéro sur l'compte j'réévalue mon avenir J'écris des rimes pour rien, 'zin, moi j'donne mon avis Sur l'seum que m'ont laissé les nuits dans ma ville Bientôt gros pull-up dans un club à Madrid, j'suis dans l'piège, ça m'vener quand les démons m'agrippent Grosse comme Hagrid Le rap c'est une mauvaise habitude Dans un monde où suivre ses passions c'est comme marcher pieds nus sur du bitume Grave précis je suis, je vise les tours qu'on voit à la télé, mon gars Faut parier sur moi, si j'le dis c'est qu'j'suis confiant, j'suis pas fêlé mon gars You might also like Dans la ville comme d'hab La Fève dans la ville comme Gavroche Impertinent comme Fabe Les embrouilles d'salopards, ça m'gave moi, hey J'suis la Fève tu l'sais, si un jour j'le dis plus c'est qu'j'suis mort mon ne-jeu J'suis mort mon ne-jeu Si un jour j'le dis plus c'est qu'j'suis mort Dans la ville comme d'hab La Fève dans la ville comme Gavroche, hey Impertinent comme Fabe Les embrouilles d'salopards, ça m'gave moi, hey J'suis la Fève tu l'sais, si un jour j'le dis plus c'est qu'j'suis mort mon ne-jeu J'suis mort mon ne-jeu Si un jour j'le dis plus c'est qu'j'suis mort mon ne-jeu</t>
+          <t>Dans ma tête, j'ai des bangers et des meurtres en série, le rap cest un délire La routine des ne-jeu c'est terrible, la fume rend hystérique J'veux finir roi, pas avec la tête découpée Posé dans mon re-re jécris des couplets Les tendances de maintenant m'ont toutes dégoutées Y'a des rappeurs qui pop, j'les graille en dux couplets J'veux pas crevr tout seul, pour ça qu'j'm'applique sur mon entourage La Fève dans quatre, cinq ans cest lprofesseur, y a des gens qui l'ont senti ils mencouragent J'fais pas d'rap pour qu'les gadji sambiancent Depuis l'début l'école c'était mon plan C J'pense qu'argent argent, shit c'est insensé d'vouloir devenir riche avec mon mode de pensée Dans la ville comme d'hab La Fève dans la ville comme Gavroche, hey Impertinent comme Fabe Les embrouilles d'salopards, ça m'gave, hey, hey J'suis la Fève tu l'sais, si un jour j'le dis plus c'est qu'j'suis mort mon ne-jeu J'suis mort mon ne-jeu Si un jour j'le dis plus c'est qu'j'suis mort mon ne-jeu J'prie pour qu'les étoiles s'alignent Pour qu'un jour j'arrête de gaspiller ma salive C'est l'vice des autres qui m'a sali J'suis dans l'124 une gadji raconte sa vie J'ai la flemme de tout faut qu'je change J'veux pas ber-tom dans la vente de chanvre C'est mon équipage, c'est c'qui fait qu'j'suis pas seul à bruler dans les cendres Ca fait dix-neuf piges que j'tue mon ennui, j'suis pas d'Bélize et c'est la crise mon ami C'est la crise mon ami, quand y'a zéro sur l'compte j'réévalue mon avenir J'écris des rimes pour rien, 'zin, moi j'donne mon avis Sur l'seum que m'ont laissé les nuits dans ma ville Bientôt gros pull-up dans un club à Madrid, j'suis dans l'piège, ça m'vener quand les démons m'agrippent Grosse comme Hagrid Le rap c'est une mauvaise habitude Dans un monde où suivre ses passions c'est comme marcher pieds nus sur du bitume Grave précis je suis, je vise les tours qu'on voit à la télé, mon gars Faut parier sur moi, si j'le dis c'est qu'j'suis confiant, j'suis pas fêlé mon gars Dans la ville comme d'hab La Fève dans la ville comme Gavroche Impertinent comme Fabe Les embrouilles d'salopards, ça m'gave moi, hey J'suis la Fève tu l'sais, si un jour j'le dis plus c'est qu'j'suis mort mon ne-jeu J'suis mort mon ne-jeu Si un jour j'le dis plus c'est qu'j'suis mort Dans la ville comme d'hab La Fève dans la ville comme Gavroche, hey Impertinent comme Fabe Les embrouilles d'salopards, ça m'gave moi, hey J'suis la Fève tu l'sais, si un jour j'le dis plus c'est qu'j'suis mort mon ne-jeu J'suis mort mon ne-jeu Si un jour j'le dis plus c'est qu'j'suis mort mon ne-jeu</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>J'tourne mes pouces Dans l'fond du bus 124 J'trouve des douilles Sur l'sol de la butte Montmartre Chouf ton flouze Avant qu'ça finisse en vide ton sac Le fric me passionne Le biff, le cash J'ai commencé l'peu-ra j'étais direct dans les temps, c'est dur c'est entêtant quand t'es seul dans les tranchées Au début l'peu-ra c'était tentant c'était pas trop tendance et mes loubards s'ambiançaient J'attends les autres car j'ai pris d'l'avance, je n'compte plus sur la chance pour voir l'équipe avancer, avancer J'les vois de loin ils sont marrants ils observent ma cadence comme si Fève pouvait flancher Mamacita amène moi c'qu'il faut Dans ma bulle j'suis dans mon spleen oh yeah Avec le Dun avec le Styco Dans les voitures comme dans les films oh yeah Y'a l'gueush de la dernière fois devant la pharmacie il pourrait sucer pour des pills J'prends l'noctilien le lendemain j'le vois au même endroit allongé dans sa pisse allongé dans sa pisse J'fais ça pour frimer Pour éviter la déprime On va pas trimer J'veux les privilèges le beurre et l'estime J'arrive avec ma dream team Avec l'équipe type Ca s'casse le dos pour des centimes fils 22 y'a les cochons ça s'tire J'suis pas poli mon pote Shit dans l'colis mon pote Smoke doobie comme un mongole J'place sur un compte offshore Mon job c'est quoi ? C'est d'péter les scores mon pote J'ai des rimes des proses, c'est la crise les amis c'est le fric des pauvres Dans la ville c'est aride y'a des flics des porcs, on est tous condamné par le vice des autres par le vice des autres Jonathan Joestar dans l'sang Enfant, déjà nostalgique de ma vie d'antan J'regarde pas mes pompes dans les transports En c'moment y'a pas d'sous j'en veux encore En France on a la flemme, faut pas brusquer La Fève dans ses p'tites manies Personne m'arrête zin, en maison d'arrêt y'a des gueush des tarés pour ça qu'j'vise le mille J'bataille tous les jours batard, 7 dans l'équipage pas d'bras cassés Fracasse quand on part à Dam, j'veux des trucs à graille, j'suis pas dans les bails de C J'brille tout seul comme d'hab Sur la rue Sarasate j'rap pour le kiff à la base Bois d'l'eau d'vie à la tasse Nage dans l'Styx oklm à la brasse La Fève c'est pas ton ami gros moi j'veux du fric et hasta la vista hasta la vista Bientôt ça pop comme les Migos, moi j'ai d'la veine j'suis prêt pour la vie d'star J'écris des rimes sur mon bigo, j'traine avec des salauds avec des douchebags Y'a d'la poussière dans mon frigo, je vise le très haut le business est bestial Mais j'tourne mes pouces Dans l'fond du bus 124 J'compte les douilles Sur l'sol de la butte Montmartre Chouf ton flouze Avant qu'ça finisse en vide ton sac Le fric me passionne Le biff, le cash Oh yeahYou might also like</t>
+          <t>J'tourne mes pouces Dans l'fond du bus 124 J'trouve des douilles Sur l'sol de la butte Montmartre Chouf ton flouze Avant qu'ça finisse en vide ton sac Le fric me passionne Le biff, le cash J'ai commencé l'peu-ra j'étais direct dans les temps, c'est dur c'est entêtant quand t'es seul dans les tranchées Au début l'peu-ra c'était tentant c'était pas trop tendance et mes loubards s'ambiançaient J'attends les autres car j'ai pris d'l'avance, je n'compte plus sur la chance pour voir l'équipe avancer, avancer J'les vois de loin ils sont marrants ils observent ma cadence comme si Fève pouvait flancher Mamacita amène moi c'qu'il faut Dans ma bulle j'suis dans mon spleen oh yeah Avec le Dun avec le Styco Dans les voitures comme dans les films oh yeah Y'a l'gueush de la dernière fois devant la pharmacie il pourrait sucer pour des pills J'prends l'noctilien le lendemain j'le vois au même endroit allongé dans sa pisse allongé dans sa pisse J'fais ça pour frimer Pour éviter la déprime On va pas trimer J'veux les privilèges le beurre et l'estime J'arrive avec ma dream team Avec l'équipe type Ca s'casse le dos pour des centimes fils 22 y'a les cochons ça s'tire J'suis pas poli mon pote Shit dans l'colis mon pote Smoke doobie comme un mongole J'place sur un compte offshore Mon job c'est quoi ? C'est d'péter les scores mon pote J'ai des rimes des proses, c'est la crise les amis c'est le fric des pauvres Dans la ville c'est aride y'a des flics des porcs, on est tous condamné par le vice des autres par le vice des autres Jonathan Joestar dans l'sang Enfant, déjà nostalgique de ma vie d'antan J'regarde pas mes pompes dans les transports En c'moment y'a pas d'sous j'en veux encore En France on a la flemme, faut pas brusquer La Fève dans ses p'tites manies Personne m'arrête zin, en maison d'arrêt y'a des gueush des tarés pour ça qu'j'vise le mille J'bataille tous les jours batard, 7 dans l'équipage pas d'bras cassés Fracasse quand on part à Dam, j'veux des trucs à graille, j'suis pas dans les bails de C J'brille tout seul comme d'hab Sur la rue Sarasate j'rap pour le kiff à la base Bois d'l'eau d'vie à la tasse Nage dans l'Styx oklm à la brasse La Fève c'est pas ton ami gros moi j'veux du fric et hasta la vista hasta la vista Bientôt ça pop comme les Migos, moi j'ai d'la veine j'suis prêt pour la vie d'star J'écris des rimes sur mon bigo, j'traine avec des salauds avec des douchebags Y'a d'la poussière dans mon frigo, je vise le très haut le business est bestial Mais j'tourne mes pouces Dans l'fond du bus 124 J'compte les douilles Sur l'sol de la butte Montmartre Chouf ton flouze Avant qu'ça finisse en vide ton sac Le fric me passionne Le biff, le cash Oh yeah</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Han, Han, Yeah Han, Han, Yeah Han, Han, Yeah Han, Han, Yeah Merde, j'suis la pour envoyer des baffes La Fève on débarque comme équipe de martiens J'suis pas la pour des embrassades Je veux des liasses ??? Tu m'a vue devant la vitrine bavé devant les sacs a main et les diamants Tous les matins y'en a qui trimes, y'en a qui douilles Moi j'trouve qui sont patients Pas naïf comme Caliméro trop triste si un frérot m'lâche Le rap ça paie moins qu cocaïne héro', et j'me tu à la tâche Tous les jours sa baraude en ville comme d'hab, le soir j'pense a l'espace La fève j'fais ma vie me parle pas mal mon poto j'ai pas ton âge Lyriciste bantou, il sur la montre man et j'arrive j'prend tout Odeur de riz pondu dans l'appart Rendez-vous chelou avec le kid en dessous J'crois qu'le biz' rend fou Dans les tours y'a des ??? et j'les touchent même pas J'galérais solo dans tous besbar La Fève le feras même si la foule m'aime pas J'ai des frères dans la merde j'écris des bouteilles à la mer J'aime la débrouille, pas la dèche J'suis dans un troue j'trouve pas la brèche C'est le vague a l'âme j'suis sur le macadam J'ai l'habitude mais quelqu'un rend parano Si tu m'voie l'ami, c'est pas par hasard J'veux pas la vie de merde dans une caravane Pas de passe, des ??? Faut du gibier on par a la chasse Dans 20 ans mon corps dans un linceul Devant la vitre, j'bavais devant les sacs a mains et les diamants Tous les matins y'en a qui trime y'en a qui douille Moi j'trouve qu'ils sont patients Ils s'battent pour un quotidien pas simple J'aimerais avoir le train de vie des ??? C'est lassant, c'est agaçant Seul et ??? 2 4 3 c'est le thème Nique les strass et la fame Arnold Schwarzenegger J'fais qu'gratter des vers et des fresques Y'a pas d'excuses Si j'perce pas c'est qu'j'suis mauvais un point c'est tout J'fais pas des ???, j'crache du feu dans l'stud seulement quand j'voie tout flou J'suis sous l'enclume L'ambition c'est bien pas quand tu chôme de trop La fève le DUC j'suis dans mon truc J'pense a mes soucis mes blèmes-pro Flow comme une vague J'pars a l'attaque, comme équipe de Saint-Ouen Tu parle en cash, ou parle en bails, moi j'suis pas ton gars Moi j'suis as ton larbin Tu m'a vue devant la vitrine j'bavais devant les sacs a main et les diamants Tous les matins y'en a qui trimes Y'en a qui douilles, moi j'trouve qu'ils sont patientsYou might also like</t>
+          <t>Han, Han, Yeah Han, Han, Yeah Han, Han, Yeah Han, Han, Yeah Merde, j'suis la pour envoyer des baffes La Fève on débarque comme équipe de martiens J'suis pas la pour des embrassades Je veux des liasses ??? Tu m'a vue devant la vitrine bavé devant les sacs a main et les diamants Tous les matins y'en a qui trimes, y'en a qui douilles Moi j'trouve qui sont patients Pas naïf comme Caliméro trop triste si un frérot m'lâche Le rap ça paie moins qu cocaïne héro', et j'me tu à la tâche Tous les jours sa baraude en ville comme d'hab, le soir j'pense a l'espace La fève j'fais ma vie me parle pas mal mon poto j'ai pas ton âge Lyriciste bantou, il sur la montre man et j'arrive j'prend tout Odeur de riz pondu dans l'appart Rendez-vous chelou avec le kid en dessous J'crois qu'le biz' rend fou Dans les tours y'a des ??? et j'les touchent même pas J'galérais solo dans tous besbar La Fève le feras même si la foule m'aime pas J'ai des frères dans la merde j'écris des bouteilles à la mer J'aime la débrouille, pas la dèche J'suis dans un troue j'trouve pas la brèche C'est le vague a l'âme j'suis sur le macadam J'ai l'habitude mais quelqu'un rend parano Si tu m'voie l'ami, c'est pas par hasard J'veux pas la vie de merde dans une caravane Pas de passe, des ??? Faut du gibier on par a la chasse Dans 20 ans mon corps dans un linceul Devant la vitre, j'bavais devant les sacs a mains et les diamants Tous les matins y'en a qui trime y'en a qui douille Moi j'trouve qu'ils sont patients Ils s'battent pour un quotidien pas simple J'aimerais avoir le train de vie des ??? C'est lassant, c'est agaçant Seul et ??? 2 4 3 c'est le thème Nique les strass et la fame Arnold Schwarzenegger J'fais qu'gratter des vers et des fresques Y'a pas d'excuses Si j'perce pas c'est qu'j'suis mauvais un point c'est tout J'fais pas des ???, j'crache du feu dans l'stud seulement quand j'voie tout flou J'suis sous l'enclume L'ambition c'est bien pas quand tu chôme de trop La fève le DUC j'suis dans mon truc J'pense a mes soucis mes blèmes-pro Flow comme une vague J'pars a l'attaque, comme équipe de Saint-Ouen Tu parle en cash, ou parle en bails, moi j'suis pas ton gars Moi j'suis as ton larbin Tu m'a vue devant la vitrine j'bavais devant les sacs a main et les diamants Tous les matins y'en a qui trimes Y'en a qui douilles, moi j'trouve qu'ils sont patients</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>La Fève a les crocs aiguisés J'crois qu'mon père m'a laissé glissé Tant de liens qu'on a tissé Quand j'arrive elle se demande qui c'est En quoi le sheitan s'est déguisé Pour m'faire avaler tous ces palabres ? Jeune espion je suis visé Si tu me cherches je ne suis pas là La Fève a les crocs aiguisés J'crois qu'mon père m'a laissé glissé Tant de liens qu'on a tissé Quand j'arrive elle se demande qui c'est En quoi le sheitan s'est déguisé Pour m'faire avaler tous ces palabres ? Jeune espion je suis visé Si tu me cherches je ne suis pas là Si tu me cherches je ne suis pas là Jeune espion je ne suis pas là Mon père m'a laissé glissé Tant de liens qu'on a tissé En quoi l'sheitan s'est déguisé pour me faire la peau J'suis dans le vice, je suis pourri jusqu'à la tombe Je suis au calme, j'ai d'la peufra dans la paume Toujours dans l'stud, toujours coffré dans un labo Je veux le trône, la suite présidentielle Je suis loin, la lune est si p'tite dans l'ciel J'vais l'faire j'ai juré sur mes ancêtres J'vais l'faire j'ai juré sur mes ancêtres You might also like La Fève a les crocs aiguisés J'crois qu'mon père m'a laissé glissé Tant de liens qu'on a tissé Quand j'arrive elle se demande qui c'est En quoi le sheitan s'est déguisé Pour m'faire avaler tous ces palabres Jeune espion je suis visé Si tu me cherches je ne suis pas là La Fève a les crocs aiguisés J'crois qu'mon père m'a laissé glissé Tant de liens qu'on a tissé Quand j'arrive elle se demande qui c'est En quoi le sheitan s'est déguisé En quoi le sheitan s'est déguisé</t>
+          <t>La Fève a les crocs aiguisés J'crois qu'mon père m'a laissé glissé Tant de liens qu'on a tissé Quand j'arrive elle se demande qui c'est En quoi le sheitan s'est déguisé Pour m'faire avaler tous ces palabres ? Jeune espion je suis visé Si tu me cherches je ne suis pas là La Fève a les crocs aiguisés J'crois qu'mon père m'a laissé glissé Tant de liens qu'on a tissé Quand j'arrive elle se demande qui c'est En quoi le sheitan s'est déguisé Pour m'faire avaler tous ces palabres ? Jeune espion je suis visé Si tu me cherches je ne suis pas là Si tu me cherches je ne suis pas là Jeune espion je ne suis pas là Mon père m'a laissé glissé Tant de liens qu'on a tissé En quoi l'sheitan s'est déguisé pour me faire la peau J'suis dans le vice, je suis pourri jusqu'à la tombe Je suis au calme, j'ai d'la peufra dans la paume Toujours dans l'stud, toujours coffré dans un labo Je veux le trône, la suite présidentielle Je suis loin, la lune est si p'tite dans l'ciel J'vais l'faire j'ai juré sur mes ancêtres J'vais l'faire j'ai juré sur mes ancêtres La Fève a les crocs aiguisés J'crois qu'mon père m'a laissé glissé Tant de liens qu'on a tissé Quand j'arrive elle se demande qui c'est En quoi le sheitan s'est déguisé Pour m'faire avaler tous ces palabres Jeune espion je suis visé Si tu me cherches je ne suis pas là La Fève a les crocs aiguisés J'crois qu'mon père m'a laissé glissé Tant de liens qu'on a tissé Quand j'arrive elle se demande qui c'est En quoi le sheitan s'est déguisé En quoi le sheitan s'est déguisé</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Demna, demna Bounce Yeah Let's go Bounce Nouveau che-ri, ancien mauvais payeur, pas de frayeur, mes G savent que j'suis le meilleur Bounce J'parle avec une voix intérieure, le temps il passe, ancien simp, nouveau player Bounce Si j'arrive, je fais un dawa, j'm'en beurre d'la loi, j'suis un jeune à la peau kawa Bounce Mon frérot, j'savais pas moi, tant de parois, j'compte pas l temps qu'on perd par mois ERRR Bon, t'es parti, j'ai phasé, ds souvenirs effacés, bon, c'est du passé Bon, c'est du passé, la bitch elle prend des cachets, c'est gâché, toujours pas cette Rollie, j'suis fâché Bounce Yeah, mental d'assassin, j'aime que la feu-meu qui m'a donné le saint sein le saint sein, le saint sein Trap comme un zinzin, j'ai trop de cur, j'peux tout donner pour un 'zin Bounce Yeah, on l'fait pour ce paper, j'sais que t'as eu peur, j'ai la dope couleur Laker J'ai la dope couleur Laker Faut on s'pète en Jamaica, je drop ça comme Michael, je suis pauvre, oh my god Bounce Ce charisme au mic', c'est pour ça que le p'tit jeune, il veut le featuring ERRR Bientôt, tu vois La Fève en figurine, toi, tu fais le G mais quand ça part, tu t'enfuis du ring Bounce Rap FR, je n'suis pas dans les classements, avec Pizsunny, j'suis en déplacement On pourrait s'en passer mais les gars s'mentent, on pourrait s'en passer mais les gars s'mentent Sortir de ce piège, on veut ça tous les jours ma le-gueu, je pensais t'étais mon frère, à quoi tu joues ma le-gueu ? J'ai arrêté d'croire qu'la chance arrive à l'heure, toi, quand t'as des occasions pourquoi tu fais le peureux ? Bounce J'crois la vie, c'est comme un casse-tête, pas de casquette, tour du monde, j'fais pas de basket Basket, basket Eh, première scène c'est salle pleine, sale, c'est ça l'thème, ma chérie, je sais c'est ça qu't'aimes, less Bounce Une chienne est la vida, un boofpack, on vide ça, des plavons, on vit d'ça Des plavons on vit d'ça Dubaï ou Ibiza ? J'vois tu fais l'jaloux mon garçon, t'es bizarre Bounce You might also like Nouveau che-ri, ancien mauvais payeur, pas de frayeur, mes G savent que j'suis le meilleur Bounce J'parle avec une voix intérieure, le temps il passe, ancien simp, nouveau player Bounce Si j'arrive, je fais un dawa, j'm'en beurre d'la loi, j'suis un jeune à la peau kawa Bounce Mon frérot, j'savais pas moi, tant de parois, j'compte pas le temps qu'on perd par mois ERRR</t>
+          <t>Demna, demna Bounce Yeah Let's go Bounce Nouveau che-ri, ancien mauvais payeur, pas de frayeur, mes G savent que j'suis le meilleur Bounce J'parle avec une voix intérieure, le temps il passe, ancien simp, nouveau player Bounce Si j'arrive, je fais un dawa, j'm'en beurre d'la loi, j'suis un jeune à la peau kawa Bounce Mon frérot, j'savais pas moi, tant de parois, j'compte pas l temps qu'on perd par mois ERRR Bon, t'es parti, j'ai phasé, ds souvenirs effacés, bon, c'est du passé Bon, c'est du passé, la bitch elle prend des cachets, c'est gâché, toujours pas cette Rollie, j'suis fâché Bounce Yeah, mental d'assassin, j'aime que la feu-meu qui m'a donné le saint sein le saint sein, le saint sein Trap comme un zinzin, j'ai trop de cur, j'peux tout donner pour un 'zin Bounce Yeah, on l'fait pour ce paper, j'sais que t'as eu peur, j'ai la dope couleur Laker J'ai la dope couleur Laker Faut on s'pète en Jamaica, je drop ça comme Michael, je suis pauvre, oh my god Bounce Ce charisme au mic', c'est pour ça que le p'tit jeune, il veut le featuring ERRR Bientôt, tu vois La Fève en figurine, toi, tu fais le G mais quand ça part, tu t'enfuis du ring Bounce Rap FR, je n'suis pas dans les classements, avec Pizsunny, j'suis en déplacement On pourrait s'en passer mais les gars s'mentent, on pourrait s'en passer mais les gars s'mentent Sortir de ce piège, on veut ça tous les jours ma le-gueu, je pensais t'étais mon frère, à quoi tu joues ma le-gueu ? J'ai arrêté d'croire qu'la chance arrive à l'heure, toi, quand t'as des occasions pourquoi tu fais le peureux ? Bounce J'crois la vie, c'est comme un casse-tête, pas de casquette, tour du monde, j'fais pas de basket Basket, basket Eh, première scène c'est salle pleine, sale, c'est ça l'thème, ma chérie, je sais c'est ça qu't'aimes, less Bounce Une chienne est la vida, un boofpack, on vide ça, des plavons, on vit d'ça Des plavons on vit d'ça Dubaï ou Ibiza ? J'vois tu fais l'jaloux mon garçon, t'es bizarre Bounce Nouveau che-ri, ancien mauvais payeur, pas de frayeur, mes G savent que j'suis le meilleur Bounce J'parle avec une voix intérieure, le temps il passe, ancien simp, nouveau player Bounce Si j'arrive, je fais un dawa, j'm'en beurre d'la loi, j'suis un jeune à la peau kawa Bounce Mon frérot, j'savais pas moi, tant de parois, j'compte pas le temps qu'on perd par mois ERRR</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Louis Tant d'semblables qui portent l'il, j'en ai la fièvre Bientôt on pourra tous dire qu'La Fève l'a fait Paro dans la house, 243 j'suis fier Trop d'ne-jeu infidèles, 'zin ça m'donne la fièvre Tant d'semblables qui portent l'il, j'en ai la fièvre Bientôt on pourra tous dire qu'La Fève l'a fait Paro dans la house, 243 j'suis fier Trop d'ne-jeu infidèles, 'zin ça m'donne la fièvre Oh merde, j'suis trop cainri pour vous tous J'suis trop cain-cain pour la plupart Fini l'pétard dans la trousse, smoking Swisher sur le trottoir J'ai des démons à mes trousses, des jnouns chelous dans mes cauchemars Dans mon labo, j'ai ma blouse Faire des rimes, moi j'fais ça comme ça J'fais ça comme aç, facilement, 'zin j'fais ça à l'aise Dans la de-mer, jeune La Fève au bord d'la falaise Pull up au paki, un 12 feuilles, Caraïbos, si tu comprends le délire on est bon, sinon c'est pas mon dos Tant d'semblables qui portent l'il, j'en ai la fièvre Bientôt on pourra tous dire qu'La Fève l'a fait Paro dans la house, 243 j'suis fier Trop d'ne-jeu infidèles, 'zin ça m'donne la fièvre Tant d'semblables qui portent l'il, j'en ai la fièvre Bientôt on pourra tous dire qu'La Fève l'a fait Paro dans la house, 243 j'suis fier Trop d'ne-jeu infidèles, 'zin ça m'donne la fièvre You might also like Perverti par le rêve américain La Fève, une bombe latine Persiste, fais du boom-bap, vise, j'fais des bangers pas du boombastic Quand j'fais le taf c'est impec Quand j'fais le taf c'est impeccable Petit La Fève sur sa bécane Sur le terrain comme Beckham Ouvre la fenêtre j'manque d'air J'fais des expériences comme un laborantin Petit La Fève est déter mais pour investir faut qu'le tout soit rentable Si tu m'serres la main, regarde-moi dans les yeux La Fève gamberge sur un futur qui s'annonce merveilleux Tant d'semblables qui portent l'il, j'en ai la fièvre Bientôt on pourra tous dire qu'La Fève l'a fait Paro dans la house, 243 j'suis fier Trop d'ne-jeu infidèles, 'zin ça m'donne la fièvre Tant d'semblables qui portent l'il, j'en ai la fièvre Bientôt on pourra tous dire qu'La Fève l'a fait Paro dans la house, 243 j'suis fier Trop d'ne-jeu infidèles, 'zin ça m'donne la fièvre</t>
+          <t>Louis Tant d'semblables qui portent l'il, j'en ai la fièvre Bientôt on pourra tous dire qu'La Fève l'a fait Paro dans la house, 243 j'suis fier Trop d'ne-jeu infidèles, 'zin ça m'donne la fièvre Tant d'semblables qui portent l'il, j'en ai la fièvre Bientôt on pourra tous dire qu'La Fève l'a fait Paro dans la house, 243 j'suis fier Trop d'ne-jeu infidèles, 'zin ça m'donne la fièvre Oh merde, j'suis trop cainri pour vous tous J'suis trop cain-cain pour la plupart Fini l'pétard dans la trousse, smoking Swisher sur le trottoir J'ai des démons à mes trousses, des jnouns chelous dans mes cauchemars Dans mon labo, j'ai ma blouse Faire des rimes, moi j'fais ça comme ça J'fais ça comme aç, facilement, 'zin j'fais ça à l'aise Dans la de-mer, jeune La Fève au bord d'la falaise Pull up au paki, un 12 feuilles, Caraïbos, si tu comprends le délire on est bon, sinon c'est pas mon dos Tant d'semblables qui portent l'il, j'en ai la fièvre Bientôt on pourra tous dire qu'La Fève l'a fait Paro dans la house, 243 j'suis fier Trop d'ne-jeu infidèles, 'zin ça m'donne la fièvre Tant d'semblables qui portent l'il, j'en ai la fièvre Bientôt on pourra tous dire qu'La Fève l'a fait Paro dans la house, 243 j'suis fier Trop d'ne-jeu infidèles, 'zin ça m'donne la fièvre Perverti par le rêve américain La Fève, une bombe latine Persiste, fais du boom-bap, vise, j'fais des bangers pas du boombastic Quand j'fais le taf c'est impec Quand j'fais le taf c'est impeccable Petit La Fève sur sa bécane Sur le terrain comme Beckham Ouvre la fenêtre j'manque d'air J'fais des expériences comme un laborantin Petit La Fève est déter mais pour investir faut qu'le tout soit rentable Si tu m'serres la main, regarde-moi dans les yeux La Fève gamberge sur un futur qui s'annonce merveilleux Tant d'semblables qui portent l'il, j'en ai la fièvre Bientôt on pourra tous dire qu'La Fève l'a fait Paro dans la house, 243 j'suis fier Trop d'ne-jeu infidèles, 'zin ça m'donne la fièvre Tant d'semblables qui portent l'il, j'en ai la fièvre Bientôt on pourra tous dire qu'La Fève l'a fait Paro dans la house, 243 j'suis fier Trop d'ne-jeu infidèles, 'zin ça m'donne la fièvre</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Han, yeah, han Han, yeah, han Yeah, yeah, yeah, yeah Han, yeah, han Yeah, yeah, yeah, yeah Laf il est comme ça, ouais Envoie d'la prod mon ne-jeu, je dégomme ça ouais Poto la France m'a ué-t J'suis dans un bourbier depuis ma naissance, bah ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Envoie d'la prod mon ne-jeu, je dégomme ça ouais Poto la France m'a ué-t J'suis dans un bourbier depuis ma naissance, bah ouais Laf il est comm ça, ouais Laf il est comme ça, ouais Laf il est comm ça, ouais Laf il est comme ça, ouais Laf il est ça-comme, ouais J'arrive dans la ville on est cinquante Tu sais ce qu'il y a dans la sacoche Je cours vite mais le ce-vi s'accroche Si t'as parlé, tourne ta langue Je sais qu'au fond j'ai un peu de talent Smoke ça comme un catalan J'me rappelle des moments d'avant, des belles mélodies que j'invente Sur le terrain j'mets des vents Je sais que le Ciel me défend Je veux un motif pour péter le Champ' Si le démon chante, je le sample Dans un trom', j'descends à Malakoff Trois cent eu la plaquette, téma la kichta Poto, méfie-toi Tu me parles mais gros t'es qui toi ? You might also like Laf il est comme ça, ouais Envoie d'la prod mon ne-jeu, je dégomme ça ouais Poto la France m'a ué-t J'suis dans un bourbier depuis ma naissance, bah ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais J'n'aimerais qu'la femme qui m'a enfanté J'ai des gros projets en chantier La Fève, salut, enchanté On est pas mal autour de oim Les reufs c'est la grande famille J'te passe devant, l'ami La 'sère dans ma mélanine Nique les contrôleurs, les skins J'veux pas un succès d'estime J'ai les yeux plissés comme Servietsky La diff' avec toi, c'est le style Laf il est trop têtu Pull up en ville tout de noir vêtu Mon ami la vie c'est dur Faut serrer les coudes, serrer la ceinture Laf il est comme ça, ouais Envoie d'la prod mon ne-jeu, je dégomme ça ouais Poto la France m'a ué-t J'suis dans un bourbier depuis ma naissance, bah ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais</t>
+          <t>Han, yeah, han Han, yeah, han Yeah, yeah, yeah, yeah Han, yeah, han Yeah, yeah, yeah, yeah Laf il est comme ça, ouais Envoie d'la prod mon ne-jeu, je dégomme ça ouais Poto la France m'a ué-t J'suis dans un bourbier depuis ma naissance, bah ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Envoie d'la prod mon ne-jeu, je dégomme ça ouais Poto la France m'a ué-t J'suis dans un bourbier depuis ma naissance, bah ouais Laf il est comm ça, ouais Laf il est comme ça, ouais Laf il est comm ça, ouais Laf il est comme ça, ouais Laf il est ça-comme, ouais J'arrive dans la ville on est cinquante Tu sais ce qu'il y a dans la sacoche Je cours vite mais le ce-vi s'accroche Si t'as parlé, tourne ta langue Je sais qu'au fond j'ai un peu de talent Smoke ça comme un catalan J'me rappelle des moments d'avant, des belles mélodies que j'invente Sur le terrain j'mets des vents Je sais que le Ciel me défend Je veux un motif pour péter le Champ' Si le démon chante, je le sample Dans un trom', j'descends à Malakoff Trois cent eu la plaquette, téma la kichta Poto, méfie-toi Tu me parles mais gros t'es qui toi ? Laf il est comme ça, ouais Envoie d'la prod mon ne-jeu, je dégomme ça ouais Poto la France m'a ué-t J'suis dans un bourbier depuis ma naissance, bah ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais J'n'aimerais qu'la femme qui m'a enfanté J'ai des gros projets en chantier La Fève, salut, enchanté On est pas mal autour de oim Les reufs c'est la grande famille J'te passe devant, l'ami La 'sère dans ma mélanine Nique les contrôleurs, les skins J'veux pas un succès d'estime J'ai les yeux plissés comme Servietsky La diff' avec toi, c'est le style Laf il est trop têtu Pull up en ville tout de noir vêtu Mon ami la vie c'est dur Faut serrer les coudes, serrer la ceinture Laf il est comme ça, ouais Envoie d'la prod mon ne-jeu, je dégomme ça ouais Poto la France m'a ué-t J'suis dans un bourbier depuis ma naissance, bah ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais Laf il est comme ça, ouais</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Hey Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse J'suis posé dans l'même square avec les mêmes débiles Le 7 Sur un banc à Montpar', on connait bien Bélize Parl-moi travail j'te réponds par mon amigo, j'ai la flemme J'ai la flmme Ça fait des années qu'j'suis comme ça, enfoiré mon nom c'est La Fève C'est La fève Pas envie d'échouer, c'est grâce au pe-ra si j'finis pas écroué Dans ma city c'est mieux qu'être dans un trou et j'veux pas toucher l'bout du main-che et m'écrouler Fève va débouler dans des années, pour ça qu'pour l'instant j'suis saoulé La chance met des douilles et le travail me souille et j'suis trouillard au fond j'veux pas m'dire qu'c'est à cause de You might also like Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse J'faisais un ceau-mor tous les jours, maintenant j'suis grave à la bourre Bientôt tout en haut des tours, l'argent t'fait faire des détours Fuck la routine me rend faible, c'est toujours les mêmes problèmes Yeah, procrastiner c'est mon domaine mais ici le travail paye, paye</t>
+          <t>Hey Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse J'suis posé dans l'même square avec les mêmes débiles Le 7 Sur un banc à Montpar', on connait bien Bélize Parl-moi travail j'te réponds par mon amigo, j'ai la flemme J'ai la flmme Ça fait des années qu'j'suis comme ça, enfoiré mon nom c'est La Fève C'est La fève Pas envie d'échouer, c'est grâce au pe-ra si j'finis pas écroué Dans ma city c'est mieux qu'être dans un trou et j'veux pas toucher l'bout du main-che et m'écrouler Fève va débouler dans des années, pour ça qu'pour l'instant j'suis saoulé La chance met des douilles et le travail me souille et j'suis trouillard au fond j'veux pas m'dire qu'c'est à cause de Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse Ma flemme, ma paresse J'faisais un ceau-mor tous les jours, maintenant j'suis grave à la bourre Bientôt tout en haut des tours, l'argent t'fait faire des détours Fuck la routine me rend faible, c'est toujours les mêmes problèmes Yeah, procrastiner c'est mon domaine mais ici le travail paye, paye</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>han, yeah J'suis un jeune demande pas j'ai quel âge j'ai quel âge Dans l'océan je nage 2 4 3 donc j'suis avantagé avantagé Je chante pour soigner l'hémorragie yeah Et peut-être qu'un jour ma le-gueu je pourrais mourir âgé Si ta dis qu'tu m'a vue t'a tho-my, j'suis dans l'vaisseau atomique Me parle aps, j'suis avec mes acolytes Ont patrouille comme des gorilles J'veux une bitch, j'veux une pour m'faire des p'tits massages J'sais qu'ici ont est d'passage donc j'mt l'flash dans la J'suis un jeune j'ai d'la fougue June j'ai d'la fougue poto Jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Cherche tu me trouve Cherche tu me trouve poto Cherche tu me trouve Cherche tu me trouve poto Jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Cherche tu me trouve Cherche tu me trouve poto Cherche tu me trouve Cherche tu me trouve poto You might also like Jeune espion, dans la pièce il check tout check tout Si j'le fais poto c'étais l'mektoub yeah Elle veut mes oides dans ça chatte elle veut mes oides dans ça ch- Elle veut mes oides dans ça chatte, j'lui met l'coude ! J'fais ça en catimini, faut qu't'arrête d'être La concurrence c'est minime, je met les frappes comme Milik J'me réveil j'entend des phrases des Bientôt les gens ils m'imitent Sur le terrain j'fais des passes, des pénos Poto les temps changent Pour la misère pas de pansements Qu'est-ce-que t'en pense toi ? Pour la saleté j'ai un penchant J'te dis ça franchement, La fève le plus grand de France gros J'ai pas de chance gros Je profite demain je J'suis un jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Cherche tu me trouve Cherche tu me trouve poto Cherche tu me trouve Cherche tu me trouve poto Jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Cherche tu me trouve Cherche tu me trouve poto Cherche tu me trouve Cherche tu me trouve poto</t>
+          <t>han, yeah J'suis un jeune demande pas j'ai quel âge j'ai quel âge Dans l'océan je nage 2 4 3 donc j'suis avantagé avantagé Je chante pour soigner l'hémorragie yeah Et peut-être qu'un jour ma le-gueu je pourrais mourir âgé Si ta dis qu'tu m'a vue t'a tho-my, j'suis dans l'vaisseau atomique Me parle aps, j'suis avec mes acolytes Ont patrouille comme des gorilles J'veux une bitch, j'veux une pour m'faire des p'tits massages J'sais qu'ici ont est d'passage donc j'mt l'flash dans la J'suis un jeune j'ai d'la fougue June j'ai d'la fougue poto Jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Cherche tu me trouve Cherche tu me trouve poto Cherche tu me trouve Cherche tu me trouve poto Jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Cherche tu me trouve Cherche tu me trouve poto Cherche tu me trouve Cherche tu me trouve poto Jeune espion, dans la pièce il check tout check tout Si j'le fais poto c'étais l'mektoub yeah Elle veut mes oides dans ça chatte elle veut mes oides dans ça ch- Elle veut mes oides dans ça chatte, j'lui met l'coude ! J'fais ça en catimini, faut qu't'arrête d'être La concurrence c'est minime, je met les frappes comme Milik J'me réveil j'entend des phrases des Bientôt les gens ils m'imitent Sur le terrain j'fais des passes, des pénos Poto les temps changent Pour la misère pas de pansements Qu'est-ce-que t'en pense toi ? Pour la saleté j'ai un penchant J'te dis ça franchement, La fève le plus grand de France gros J'ai pas de chance gros Je profite demain je J'suis un jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Cherche tu me trouve Cherche tu me trouve poto Cherche tu me trouve Cherche tu me trouve poto Jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Jeune j'ai d'la fougue Jeune j'ai d'la fougue poto Cherche tu me trouve Cherche tu me trouve poto Cherche tu me trouve Cherche tu me trouve poto</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>J'suis dans une belle benz Poto la vie c'est un pêle-mêle pêle-mêle Jeune espion seul à la guerre guerre Je prends l'info je m'interne Dans le brouillard on se perdra Tu vois qu'il a accepté mon pardon Je sais bien qu'il ne faudra pas regarder derrière si nous partons J'suis dans mes Lafshits, j'suis dans mes Lafshits J'ai pas d'potes j'agis, j'ai pas d'potes j'agis J'suis dans mes Lafshits shit, j'suis dans mes Lafshits J'ai pas d'potes j'agis, j'ai pas d'potes j'agis On danse toujours pas le Mia, toujours on attend le miracle Je crois en ce que je vois ma leu-gueu mais j'ai tout le temps la tête dans un mirage On danse toujours pas le Mia, toujours on attend le miracle Je crois en ce que je vois ma leu-gueu mais j'ai tout le temps la tête dans un mirage Deux milles- deux milles vingt-, vingt et un c'est pour nous G J'souffle sur les bougies, j'pense à tout ce qui nous gifle Mélo, cadence La vie une décadence, dans l'clip j'fais les pas d'danse toi t'es pas d'dans Moi j'suis juste un jeune ouf, dans l'hood Qui veut s'pète à Hollywood J'veux pas t'expliquer ma trap J'ai chanté tout le mois d'août Des doutes des doutes des peines C'est facile d'viser les têtes Ambitieux fou on était, tu connais les thèmes les mots et les termes Jusqu'au dernier quart temps Même si on est mal barré La Fève dans le cabaret Pourquoi on s'égare autant Il faut que le nécessaire Conquérant comme César Poète comme Césaire You might also like J'suis dans une belle benz Poto la vie c'est un pêle-mêle pêle-mêle Jeune espion seul à la guerre guerre Je prends l'info je m'interne Dans le brouillard on se perdra Tu vois qu'il a accepté mon pardon Je sais bien qu'il ne faudra pas regarder derrière si nous partons J'suis dans mes Lafshits, j'suis dans mes Lafshits J'ai pas d'potes j'agis, j'ai pas d'potes j'agis J'suis dans mes Lafshits shit, j'suis dans mes Lafshits J'ai pas d'potes j'agis, j'ai pas d'potes j'agis</t>
+          <t>J'suis dans une belle benz Poto la vie c'est un pêle-mêle pêle-mêle Jeune espion seul à la guerre guerre Je prends l'info je m'interne Dans le brouillard on se perdra Tu vois qu'il a accepté mon pardon Je sais bien qu'il ne faudra pas regarder derrière si nous partons J'suis dans mes Lafshits, j'suis dans mes Lafshits J'ai pas d'potes j'agis, j'ai pas d'potes j'agis J'suis dans mes Lafshits shit, j'suis dans mes Lafshits J'ai pas d'potes j'agis, j'ai pas d'potes j'agis On danse toujours pas le Mia, toujours on attend le miracle Je crois en ce que je vois ma leu-gueu mais j'ai tout le temps la tête dans un mirage On danse toujours pas le Mia, toujours on attend le miracle Je crois en ce que je vois ma leu-gueu mais j'ai tout le temps la tête dans un mirage Deux milles- deux milles vingt-, vingt et un c'est pour nous G J'souffle sur les bougies, j'pense à tout ce qui nous gifle Mélo, cadence La vie une décadence, dans l'clip j'fais les pas d'danse toi t'es pas d'dans Moi j'suis juste un jeune ouf, dans l'hood Qui veut s'pète à Hollywood J'veux pas t'expliquer ma trap J'ai chanté tout le mois d'août Des doutes des doutes des peines C'est facile d'viser les têtes Ambitieux fou on était, tu connais les thèmes les mots et les termes Jusqu'au dernier quart temps Même si on est mal barré La Fève dans le cabaret Pourquoi on s'égare autant Il faut que le nécessaire Conquérant comme César Poète comme Césaire J'suis dans une belle benz Poto la vie c'est un pêle-mêle pêle-mêle Jeune espion seul à la guerre guerre Je prends l'info je m'interne Dans le brouillard on se perdra Tu vois qu'il a accepté mon pardon Je sais bien qu'il ne faudra pas regarder derrière si nous partons J'suis dans mes Lafshits, j'suis dans mes Lafshits J'ai pas d'potes j'agis, j'ai pas d'potes j'agis J'suis dans mes Lafshits shit, j'suis dans mes Lafshits J'ai pas d'potes j'agis, j'ai pas d'potes j'agis</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Parle pas comme ça ma chérie parle pas comme ça ma chérie J'me sent bien quand j'atterris hmmmm Toi tu rappes j'aime pas tes rhymes Toi tu rappes j'aime pas tes rhymes Toi tu rappes c'est pas terrible Deadinside le beatmaker Deadinside le beatmaker Merde let's go yes Moi j'veux gouter un délice Même si j'ai v'la les vices Merde let's go yes yeah yeah yeah Poto téma l'aisance J'suis affamé j'l'étais déjà à ma naissance Mélo c'est mon essence J'fais ça c'est vital T'sais quand j'vais à Kin, tu sais j'suis un prince là-bas Fais rien tu la prends ta baffe J'lai prise pour acquis, pour acquis Elle est partie mon zincou Faudrait charger mon 6 coups tu parles comme ça à qui ? Parle pas comme ça ma chérie parle pas comme ça ma chérie J'me sent bien quand j'atterris hmmmm Toi tu rappes j'aime pas tes rhymes Toi tu rappes j'aime pas tes rhymes Tes sons c'est pas terrible You might also likeEspion sur le macadam, j'le dit avec du vocodeur Tu sais ce que je vaut connard j'le dit avec du vocodeur Tu sais ce que je vaut connard On chercher Sarah Connor Trop d'amour, noir et blanc comme aux dames Grandes vapeurs à 'Dam T'sais qu'ça vire au drame J'ai trop d'amour Au fond on est damnés Ok vannez vannez La Fève y pop cette année hmmm Parle pas comme ça ma chérie parle pas comme ça ma chérie J'me sent bien quand j'atterris hmmmm Toi tu rappes j'aime pas tes rhymes Toi tu rappes j'aime pas tes rhymes Toi tu rappes c'est pas terrible beatmaker</t>
+          <t>Parle pas comme ça ma chérie parle pas comme ça ma chérie J'me sent bien quand j'atterris hmmmm Toi tu rappes j'aime pas tes rhymes Toi tu rappes j'aime pas tes rhymes Toi tu rappes c'est pas terrible Deadinside le beatmaker Deadinside le beatmaker Merde let's go yes Moi j'veux gouter un délice Même si j'ai v'la les vices Merde let's go yes yeah yeah yeah Poto téma l'aisance J'suis affamé j'l'étais déjà à ma naissance Mélo c'est mon essence J'fais ça c'est vital T'sais quand j'vais à Kin, tu sais j'suis un prince là-bas Fais rien tu la prends ta baffe J'lai prise pour acquis, pour acquis Elle est partie mon zincou Faudrait charger mon 6 coups tu parles comme ça à qui ? Parle pas comme ça ma chérie parle pas comme ça ma chérie J'me sent bien quand j'atterris hmmmm Toi tu rappes j'aime pas tes rhymes Toi tu rappes j'aime pas tes rhymes Tes sons c'est pas terrible Espion sur le macadam, j'le dit avec du vocodeur Tu sais ce que je vaut connard j'le dit avec du vocodeur Tu sais ce que je vaut connard On chercher Sarah Connor Trop d'amour, noir et blanc comme aux dames Grandes vapeurs à 'Dam T'sais qu'ça vire au drame J'ai trop d'amour Au fond on est damnés Ok vannez vannez La Fève y pop cette année hmmm Parle pas comme ça ma chérie parle pas comme ça ma chérie J'me sent bien quand j'atterris hmmmm Toi tu rappes j'aime pas tes rhymes Toi tu rappes j'aime pas tes rhymes Toi tu rappes c'est pas terrible beatmaker</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Yeeshy Kalimero Yeah, Yeah, Yeah, Yeah Yeah, Let's go Kalimero, Yeeshy, ZEYN Yeah Hey, Ok, Yeah, Han Yeah, faut qu'j'me propage comme la peste T'es là pourquoi tu me test La Fe-La Fe c'est le best Yeah, faut qu'j'me propage comme la peste T'es là pourquoi tu me test La Fe-La Fe c'est le best Marche dans la city signe pas avec Satan j'suis vrai tu l'as senti Tu l'as senti frero j'en ai marre de compter les centimes T'inquiète pas on s'en tire J'ai toujours un il sur mon futur Petit frère ma montée fut dure J'me souviens qu'avant j'étais sur le qui-vive Notre histoire qui vivra verra Les serpent veulent l'faire à l'envers Bissap rhum dans mon verre Avant j'écoutais Saké Zaka R.I.P Arafat et Douk Saga Pas là quand le karma s'agace On est au début d'ma saga Capable de demander si ça gaze petit con la vie c'est du bon c'est du mauvais J'ai ni du love ni des lovés J'ai ni du love ni des lovés Génie de la nuit à l'aube Dos tourné comme ce gars là bas Jokes on you tu fais le bavard Univers infini comme le savoir You might also like Faut qu'j'me propage comme la peste T'es là pourquoi tu me test La Fe-La Fe c'est le best Yeah, faut qu'j'me propage comme la peste T'es là pourquoi tu me test La Fe-La Fe c'est le best Ok, faut qu'j'me propage comme la peste T'es là pourquoi tu me test La Fe-La Fe c'est le best Yeah, faut qu'j'me propage comme la peste T'es là pourquoi tu me test La Fe-La Fe c'est le best</t>
+          <t>Yeeshy Kalimero Yeah, Yeah, Yeah, Yeah Yeah, Let's go Kalimero, Yeeshy, ZEYN Yeah Hey, Ok, Yeah, Han Yeah, faut qu'j'me propage comme la peste T'es là pourquoi tu me test La Fe-La Fe c'est le best Yeah, faut qu'j'me propage comme la peste T'es là pourquoi tu me test La Fe-La Fe c'est le best Marche dans la city signe pas avec Satan j'suis vrai tu l'as senti Tu l'as senti frero j'en ai marre de compter les centimes T'inquiète pas on s'en tire J'ai toujours un il sur mon futur Petit frère ma montée fut dure J'me souviens qu'avant j'étais sur le qui-vive Notre histoire qui vivra verra Les serpent veulent l'faire à l'envers Bissap rhum dans mon verre Avant j'écoutais Saké Zaka R.I.P Arafat et Douk Saga Pas là quand le karma s'agace On est au début d'ma saga Capable de demander si ça gaze petit con la vie c'est du bon c'est du mauvais J'ai ni du love ni des lovés J'ai ni du love ni des lovés Génie de la nuit à l'aube Dos tourné comme ce gars là bas Jokes on you tu fais le bavard Univers infini comme le savoir Faut qu'j'me propage comme la peste T'es là pourquoi tu me test La Fe-La Fe c'est le best Yeah, faut qu'j'me propage comme la peste T'es là pourquoi tu me test La Fe-La Fe c'est le best Ok, faut qu'j'me propage comme la peste T'es là pourquoi tu me test La Fe-La Fe c'est le best Yeah, faut qu'j'me propage comme la peste T'es là pourquoi tu me test La Fe-La Fe c'est le best</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Yeah, yeah J'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas J'suis d'la pire, j'suis d'la pire, j'suis d'la pire j'suis d'la pire des races donc m'approche pas J'suis d'la pire, j'suis d'la pire, j'suis d'la pire j'suis d'la pire des races donc m'approche pas J'connais bien mes limits, tu copies mes gimmicks J'les sns comme des guillis, pourquoi es-tu gainé ? Pourquoi hate tu donnes, bientôt La Fève c'est l'Don Tout l'temps cherche un idylle de minuit à midi Maintenant l'rap c'est mon taf, j'ai un comme la montagne J'me sens stressé mon gars, qui peut ruminer sur mon cas ? J'connais bien mes limites J'sais quand je vais flancher Bien sur qu'on à des rêves mais ma le-gueu on est fauchés Un il sur ma droite, un il sur le ce-vi Qu'est ce qu'on ferait pour une se-lia ? Qu'est ce qu'on ferait pour un se-di ? Qu'est c'que tu veux de moi ? J'suis d'la pire espèce Donc pourquoi tu veux on s'pète Donc pourquoi tu veux on s'pète You might also like J'suis d'la pire, j'suis d'la pire, j'suis d'la pire j'suis d'la pire des races donc m'approche pas J'suis d'la pire, j'suis d'la pire, j'suis d'la pire j'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas</t>
+          <t>Yeah, yeah J'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas J'suis d'la pire, j'suis d'la pire, j'suis d'la pire j'suis d'la pire des races donc m'approche pas J'suis d'la pire, j'suis d'la pire, j'suis d'la pire j'suis d'la pire des races donc m'approche pas J'connais bien mes limits, tu copies mes gimmicks J'les sns comme des guillis, pourquoi es-tu gainé ? Pourquoi hate tu donnes, bientôt La Fève c'est l'Don Tout l'temps cherche un idylle de minuit à midi Maintenant l'rap c'est mon taf, j'ai un comme la montagne J'me sens stressé mon gars, qui peut ruminer sur mon cas ? J'connais bien mes limites J'sais quand je vais flancher Bien sur qu'on à des rêves mais ma le-gueu on est fauchés Un il sur ma droite, un il sur le ce-vi Qu'est ce qu'on ferait pour une se-lia ? Qu'est ce qu'on ferait pour un se-di ? Qu'est c'que tu veux de moi ? J'suis d'la pire espèce Donc pourquoi tu veux on s'pète Donc pourquoi tu veux on s'pète J'suis d'la pire, j'suis d'la pire, j'suis d'la pire j'suis d'la pire des races donc m'approche pas J'suis d'la pire, j'suis d'la pire, j'suis d'la pire j'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas J'suis d'la pire des races donc m'approche pas</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Même si t'es triste a l'intérieur, ai un beau sourire, tu vas voir du happiness, no cap C'est malgré moi mais quand j'étais petit je voulais porter tous les bijoux que je voyais Je ne veux pas courir après un salaire, me manger des coups de pression pour le loyer Je suis un jeune loup mon ami, j'étais un jeune donc je pouvais rien faire à part aboyer Je fais ça bien donc avant de te faire je vérifie que ms outils sont nettoyés La vie, les savurs J'viderai le sac C'est le manque d'argent qui m'a rendu chic Toujours les mêmes gars dans mon équipe Je n'ai pas l'temps et tu veux qu'on t'explique Cherche médicament C'est pas mieux qu'avant Y'a que ce job qui pourrait être mon calmant Je suis sérieux c'que j'fais est passionnel donc quand je le fais la qualité est allemande Grimpe dans la 'rrari, bientôt La Fève voit des Ce que j'ai je le mérite Mon idole c'est pas Mary Des mois j'vois les semelles, maman a le seum et j'passe plus à la casa Toute la semaine j'fais des big ceaux-mor LaF il est inclassable You might also like C'est malgré moi mais quand j'étais petit je voulais porter tous les bijoux que je voyais Je ne veux pas courir après un salaire, me manger des coups de pression pour le loyer Je suis un jeune loup mon ami, j'étais un jeune donc je pouvais rien faire à part aboyer Je fais ça bien donc avant de te faire je vérifie que mes outils sont nettoyés C'est malgré moi mais quand j'étais petit je voulais porter tous les bijoux que je voyais Je ne veux pas courir après un salaire, me manger des coups de pression pour le loyer Je suis un jeune loup mon ami, j'étais un jeune donc je pouvais rien faire à part aboyer Je fais ça bien donc avant de te faire je vérifie que mes outils sont nettoyés</t>
+          <t>Même si t'es triste a l'intérieur, ai un beau sourire, tu vas voir du happiness, no cap C'est malgré moi mais quand j'étais petit je voulais porter tous les bijoux que je voyais Je ne veux pas courir après un salaire, me manger des coups de pression pour le loyer Je suis un jeune loup mon ami, j'étais un jeune donc je pouvais rien faire à part aboyer Je fais ça bien donc avant de te faire je vérifie que ms outils sont nettoyés La vie, les savurs J'viderai le sac C'est le manque d'argent qui m'a rendu chic Toujours les mêmes gars dans mon équipe Je n'ai pas l'temps et tu veux qu'on t'explique Cherche médicament C'est pas mieux qu'avant Y'a que ce job qui pourrait être mon calmant Je suis sérieux c'que j'fais est passionnel donc quand je le fais la qualité est allemande Grimpe dans la 'rrari, bientôt La Fève voit des Ce que j'ai je le mérite Mon idole c'est pas Mary Des mois j'vois les semelles, maman a le seum et j'passe plus à la casa Toute la semaine j'fais des big ceaux-mor LaF il est inclassable C'est malgré moi mais quand j'étais petit je voulais porter tous les bijoux que je voyais Je ne veux pas courir après un salaire, me manger des coups de pression pour le loyer Je suis un jeune loup mon ami, j'étais un jeune donc je pouvais rien faire à part aboyer Je fais ça bien donc avant de te faire je vérifie que mes outils sont nettoyés C'est malgré moi mais quand j'étais petit je voulais porter tous les bijoux que je voyais Je ne veux pas courir après un salaire, me manger des coups de pression pour le loyer Je suis un jeune loup mon ami, j'étais un jeune donc je pouvais rien faire à part aboyer Je fais ça bien donc avant de te faire je vérifie que mes outils sont nettoyés</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Y'a personne qui m'entend le soir Je parle à la lune ma gueule J'suis derrière la dune ma gueule Je cherche les thunes ma gueule Y'a personne qui m'entend le soir Je parle à la lune ma gueule J'suis derrière la dune ma gueule Je cherche les thunes ma guule Je crois en la forc des miens, en tout ce que j'ai dans les mains La musique c'est magique, La Fève il est agile Je resterai toujours jeune, mauvais sort j'suis allergique Il faut rester à l'air, G, je connais la galère, G Je connais la galère, les nuits à zoner, tu sais La Fève est dur à raisonner Bientôt je pars au Minnesota je veux un lévrier qui sort de ma son-mai Poto j'ai des principes, comme pas voler dans le sac à maman Les wack MC's je trouve pas ça marrant J'me rappelle des moments d'avant Y'a personne qui m'entend le soir Je parle à la lune ma gueule J'suis derrière la dune ma gueule Je cherche les thunes ma gueule Y'a personne qui m'entend le soir Je parle à la lune ma gueule J'suis derrière la dune ma gueule Je cherche les thunes ma gueule You might also like La vie une histoire sans fin, La Fève il est assoiffé Je marche tellement, ça fait combien de temps qu'jsuis dans l'safari La Fève il va pop ça arrive Jeune qui parle de ses fantasmes Dans les coins on s'entasse Tu veux aller où sans taff ? J'ai confiance en l'univers, avec lui j'suis en symbiose Avec le temps on s'impose, ferme la quand ça pose Je ne crois pas au hasard si on s'est vu c'est qu'y'a sans doute une raison Poto ça dit quoi de neuf tu sais que rien ne change à part les saisons Y'a personne qui m'entend le soir Je parle à la lune ma gueule J'suis derrière la dune ma gueule Je cherche les thunes ma gueule Y'a personne qui m'entend le soir Je parle à la lune ma gueule J'suis derrière la dune ma gueule Je cherche les thunes ma gueule</t>
+          <t>Y'a personne qui m'entend le soir Je parle à la lune ma gueule J'suis derrière la dune ma gueule Je cherche les thunes ma gueule Y'a personne qui m'entend le soir Je parle à la lune ma gueule J'suis derrière la dune ma gueule Je cherche les thunes ma guule Je crois en la forc des miens, en tout ce que j'ai dans les mains La musique c'est magique, La Fève il est agile Je resterai toujours jeune, mauvais sort j'suis allergique Il faut rester à l'air, G, je connais la galère, G Je connais la galère, les nuits à zoner, tu sais La Fève est dur à raisonner Bientôt je pars au Minnesota je veux un lévrier qui sort de ma son-mai Poto j'ai des principes, comme pas voler dans le sac à maman Les wack MC's je trouve pas ça marrant J'me rappelle des moments d'avant Y'a personne qui m'entend le soir Je parle à la lune ma gueule J'suis derrière la dune ma gueule Je cherche les thunes ma gueule Y'a personne qui m'entend le soir Je parle à la lune ma gueule J'suis derrière la dune ma gueule Je cherche les thunes ma gueule La vie une histoire sans fin, La Fève il est assoiffé Je marche tellement, ça fait combien de temps qu'jsuis dans l'safari La Fève il va pop ça arrive Jeune qui parle de ses fantasmes Dans les coins on s'entasse Tu veux aller où sans taff ? J'ai confiance en l'univers, avec lui j'suis en symbiose Avec le temps on s'impose, ferme la quand ça pose Je ne crois pas au hasard si on s'est vu c'est qu'y'a sans doute une raison Poto ça dit quoi de neuf tu sais que rien ne change à part les saisons Y'a personne qui m'entend le soir Je parle à la lune ma gueule J'suis derrière la dune ma gueule Je cherche les thunes ma gueule Y'a personne qui m'entend le soir Je parle à la lune ma gueule J'suis derrière la dune ma gueule Je cherche les thunes ma gueule</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Faut qu'je taffe, taffe, taffe, taffe J'ai des bails à faire, j'ai des bails en scred Faut qu'je taffe, taffe, taffe, taffe J'ai des plav' dans l'game, j'ai une dalle d'enfer Faut qu'je taffe, taffe, taffe, taffe J'ai des bails à faire, j'ai des bails en scred Faut qu'je taffe, taffe, taffe, taffe J'ai des plav' dans l'game, j'ai une dalle d'enfer C'st mon butin, c'est le mien Min Faut pas toucher c'est la base mon pote Ou on t'fait danser le mia Le mia Sur le terrain j'fais pas d'passes mongoles Dans ma tête ça va pas bien, j'suis à l'affut des démons sur le mirador Poto j'sais à qui me fier, j'suis à propos des dégâts et des mises à mort Parfait Parfait, nickel Nickel quand tu fermes ta boca J'suis dans les vapes au calme, Au calme j'roule des au lac Yeah Business, vitesse Vitesse La Fève sors d'ta piaule Faut qu'je taf pour stop l'ennui avant qu'roi LAF implose Ayeah J'passe pas par quatre chemins, moi, j'passe pas par quatre chemins La Fève écrit des lignes sur parchemin Avec des sur mon lit d'chômeur J'suis dans un monde où y a pas d'soleil, il faut que j'taf de ouf pour vesqui la brume Et je n'aime pas l'sommeil J'fais des rêves de banqueroute posté sur la lune You might also like Maman me dit qu'les grands hommes ils font que d'bosser Même dans la zik c'est comme dans tout il faut qu'tu taffes J't'entends la nuit, tu fais des textes, j'prie pour qu'ça marche J'pense à ça l'lendemain j'me dis qu'il faut que Faut qu'je taffe, taffe, taffe, taffe J'ai des bails à faire, j'ai des bails en scred Faut qu'je taffe, taffe, taffe, taffe J'ai des plav' dans l'game, j'ai une dalle d'enfer Faut qu'je taffe, taffe, taffe, taffe J'ai des bails à faire, j'ai des bails en scred Faut qu'je taffe, taffe, taffe, taffe J'ai des plav' dans l'game, j'ai une dalle d'enfer J'tourne mes pouces, dans mon 77 y'avait pas grand-chose à tema J'ai eu des meufs, ça m'a déçu, pour ça qu'j'écoute pas trop tes mots J'me fais pas trop d'potes, ça ralentit moi j'reste focus sur ma route Donc check en deuspi, p't'être de l'épaule mais j'reste focus sur ma route M'lever d'mon lit c'est pas facile, ceux qui charbonnent ça me fascine J'ai des idées, j'ai mes idées et mes principes Le travail paye c'est un classique J'suis dans l'ciel, la flemme c'est un tourbillon C'est l'effet boule de neige, ceux qui charbonnent le font pas pour l'billion là où ils sniffent la neige Sniffent la neige Francs suisses, sterlings, dollars, euros jeune j'veux tout Faire d'l'argent et taffer pour Vis cette vie avant qu'j'me shoote Ayeah Dirams, dinars, yens, pesos mon jeune j'veux tout Faire d'l'argent et taffer pour Vis cette vie avant qu'j'me shoote Maman me dit qu'les grands hommes ils font que d'bosser Même dans la zik c'est comme dans tout il faut qu'tu taffes J't'entends la nuit, tu fais des textes j'prie pour qu'ça marche J'pense à ça l'lendemain, j'me dis qu'il faut que Faut qu'je taf, taf, taf, taf J'ai des bails à faire, j'ai des bails en scred Faut qu'je taf, taf, taf, taf J'ai des plav' dans l'game, j'ai une dalle d'enfer Faut qu'je taf, taf, taf, taf J'ai des bails à faire, j'ai des bails en scred Faut qu'je taf, taf, taf, taf J'ai des plav' dans l'game, j'ai une dalle d'enfer Ayeah</t>
+          <t>Faut qu'je taffe, taffe, taffe, taffe J'ai des bails à faire, j'ai des bails en scred Faut qu'je taffe, taffe, taffe, taffe J'ai des plav' dans l'game, j'ai une dalle d'enfer Faut qu'je taffe, taffe, taffe, taffe J'ai des bails à faire, j'ai des bails en scred Faut qu'je taffe, taffe, taffe, taffe J'ai des plav' dans l'game, j'ai une dalle d'enfer C'st mon butin, c'est le mien Min Faut pas toucher c'est la base mon pote Ou on t'fait danser le mia Le mia Sur le terrain j'fais pas d'passes mongoles Dans ma tête ça va pas bien, j'suis à l'affut des démons sur le mirador Poto j'sais à qui me fier, j'suis à propos des dégâts et des mises à mort Parfait Parfait, nickel Nickel quand tu fermes ta boca J'suis dans les vapes au calme, Au calme j'roule des au lac Yeah Business, vitesse Vitesse La Fève sors d'ta piaule Faut qu'je taf pour stop l'ennui avant qu'roi LAF implose Ayeah J'passe pas par quatre chemins, moi, j'passe pas par quatre chemins La Fève écrit des lignes sur parchemin Avec des sur mon lit d'chômeur J'suis dans un monde où y a pas d'soleil, il faut que j'taf de ouf pour vesqui la brume Et je n'aime pas l'sommeil J'fais des rêves de banqueroute posté sur la lune Maman me dit qu'les grands hommes ils font que d'bosser Même dans la zik c'est comme dans tout il faut qu'tu taffes J't'entends la nuit, tu fais des textes, j'prie pour qu'ça marche J'pense à ça l'lendemain j'me dis qu'il faut que Faut qu'je taffe, taffe, taffe, taffe J'ai des bails à faire, j'ai des bails en scred Faut qu'je taffe, taffe, taffe, taffe J'ai des plav' dans l'game, j'ai une dalle d'enfer Faut qu'je taffe, taffe, taffe, taffe J'ai des bails à faire, j'ai des bails en scred Faut qu'je taffe, taffe, taffe, taffe J'ai des plav' dans l'game, j'ai une dalle d'enfer J'tourne mes pouces, dans mon 77 y'avait pas grand-chose à tema J'ai eu des meufs, ça m'a déçu, pour ça qu'j'écoute pas trop tes mots J'me fais pas trop d'potes, ça ralentit moi j'reste focus sur ma route Donc check en deuspi, p't'être de l'épaule mais j'reste focus sur ma route M'lever d'mon lit c'est pas facile, ceux qui charbonnent ça me fascine J'ai des idées, j'ai mes idées et mes principes Le travail paye c'est un classique J'suis dans l'ciel, la flemme c'est un tourbillon C'est l'effet boule de neige, ceux qui charbonnent le font pas pour l'billion là où ils sniffent la neige Sniffent la neige Francs suisses, sterlings, dollars, euros jeune j'veux tout Faire d'l'argent et taffer pour Vis cette vie avant qu'j'me shoote Ayeah Dirams, dinars, yens, pesos mon jeune j'veux tout Faire d'l'argent et taffer pour Vis cette vie avant qu'j'me shoote Maman me dit qu'les grands hommes ils font que d'bosser Même dans la zik c'est comme dans tout il faut qu'tu taffes J't'entends la nuit, tu fais des textes j'prie pour qu'ça marche J'pense à ça l'lendemain, j'me dis qu'il faut que Faut qu'je taf, taf, taf, taf J'ai des bails à faire, j'ai des bails en scred Faut qu'je taf, taf, taf, taf J'ai des plav' dans l'game, j'ai une dalle d'enfer Faut qu'je taf, taf, taf, taf J'ai des bails à faire, j'ai des bails en scred Faut qu'je taf, taf, taf, taf J'ai des plav' dans l'game, j'ai une dalle d'enfer Ayeah</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>J'ai peur que du temps qui passe Que du temps qui passe Espion voit les gens qui passent Ça parle sur le groupe d'en face La Fève dis-moi t'as mal où ? Frère t'as la réponse sous l'nez J'observe le monde à la loupe Même rengaine depuis qu'j'suis né Je sens le vent sur ma joue Je vois le taro c'est du sunshine J'le fais mais j'espère qu'un jour On nous paiera pour écrire des punchlines Ya des grands ils s'sont fais qué-bar T'as des govs et des camions Ils disent que les gens en bleu C'pas des putes c'est des bavons Jeune fou dans la grosse allemande 'Vec le sapin qui sent la menthe On est là poto faut qu'on branche Trop de cannabis dans les bronches Ca regarde mal où que j'aille Autour du cou j'veux des joyaux On est où déjà ? On a b'soin d'ça pour être joyeux Je vois les signes J'ai d'quoi t'faire halluciner Ok, c'est pas du cinéma Quand j'le fais j'donne le maximum LAF Machiavelli Bloqué constamment dans mon délire J'veux manger du délice Poto j'rappe comme si c'était un délit You might also like Yeah, yeah Poto dis moi c'est comment On prend les mêmes on recommence Espion La Fève aux commandes Yeah, yeah Poto dis moi c'est comment On prend les mêmes on recommence Espion La Fève aux commandes J'ai peur que du temps qui passe Que du temps qui passe Espion voit les gens qui passent Ça parle sur le groupe d'en face La Fève dis-moi t'as mal où ? Frère t'as la réponse sous l'nez J'observe le monde à la loupe Même rengaine depuis qu'j'suis né La Fève c'est un vrai génie Au stud' comme un ingénieur La prod c'est angélique Dans c'jeu on est les meilleurs Un il sur le compte à rebours Le son c'est une goutte d'amour Le temps laisse un goût amer J'entends pas le bruit d'la mer J'ai des gava qui m'accompagnent Y'en a d'autres qui sont partis Beaucoup d'gens qui m'condamnaient J'suis toujours dans la partie Ca brille c'est du VVS Ca doit être bien d'en porter J'étais sous l'eau sous la pluie Et le vent m'a emporté Yeah Yeah Tête de Basile, tu l'veux vas-y Je sens mon esprit qui vacille J'ai la tête dans la bassine Logo sur la J'suis un jeune, pas un novice On essaye de soigner nos vices Jeune espion dans sa paranoïa J'me suis caché chez la nourrice Poto dis moi c'est comment On prend les mêmes on recommence Espion La Fève aux commandes Poto dis moi c'est comment On prend les mêmes on recommence Espion La Fève aux commandes J'ai peur que du temps qui passe1</t>
+          <t>J'ai peur que du temps qui passe Que du temps qui passe Espion voit les gens qui passent Ça parle sur le groupe d'en face La Fève dis-moi t'as mal où ? Frère t'as la réponse sous l'nez J'observe le monde à la loupe Même rengaine depuis qu'j'suis né Je sens le vent sur ma joue Je vois le taro c'est du sunshine J'le fais mais j'espère qu'un jour On nous paiera pour écrire des punchlines Ya des grands ils s'sont fais qué-bar T'as des govs et des camions Ils disent que les gens en bleu C'pas des putes c'est des bavons Jeune fou dans la grosse allemande 'Vec le sapin qui sent la menthe On est là poto faut qu'on branche Trop de cannabis dans les bronches Ca regarde mal où que j'aille Autour du cou j'veux des joyaux On est où déjà ? On a b'soin d'ça pour être joyeux Je vois les signes J'ai d'quoi t'faire halluciner Ok, c'est pas du cinéma Quand j'le fais j'donne le maximum LAF Machiavelli Bloqué constamment dans mon délire J'veux manger du délice Poto j'rappe comme si c'était un délit Yeah, yeah Poto dis moi c'est comment On prend les mêmes on recommence Espion La Fève aux commandes Yeah, yeah Poto dis moi c'est comment On prend les mêmes on recommence Espion La Fève aux commandes J'ai peur que du temps qui passe Que du temps qui passe Espion voit les gens qui passent Ça parle sur le groupe d'en face La Fève dis-moi t'as mal où ? Frère t'as la réponse sous l'nez J'observe le monde à la loupe Même rengaine depuis qu'j'suis né La Fève c'est un vrai génie Au stud' comme un ingénieur La prod c'est angélique Dans c'jeu on est les meilleurs Un il sur le compte à rebours Le son c'est une goutte d'amour Le temps laisse un goût amer J'entends pas le bruit d'la mer J'ai des gava qui m'accompagnent Y'en a d'autres qui sont partis Beaucoup d'gens qui m'condamnaient J'suis toujours dans la partie Ca brille c'est du VVS Ca doit être bien d'en porter J'étais sous l'eau sous la pluie Et le vent m'a emporté Yeah Yeah Tête de Basile, tu l'veux vas-y Je sens mon esprit qui vacille J'ai la tête dans la bassine Logo sur la J'suis un jeune, pas un novice On essaye de soigner nos vices Jeune espion dans sa paranoïa J'me suis caché chez la nourrice Poto dis moi c'est comment On prend les mêmes on recommence Espion La Fève aux commandes Poto dis moi c'est comment On prend les mêmes on recommence Espion La Fève aux commandes J'ai peur que du temps qui passe1</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>J'vois l'horloge tous les jours, ça m'fait faire des dingueries Pour ça qu'moi j'remets tout à demain À demain J'veux des favs c'est affligeant, j'vois des potes qui triment mais ça dit quoi ? Ok, à demain À demain Le destin m'a laissé, j'veux pas qu'on s'rabaisse à rer-pleu en joignant les deux mains J'ai peur pour mon futur, l'horloge fait des grands tours mais j'ai pas trop l'temps, j'veux tout remettre à demain Dans ma tête y a des démons, j'ai zappé ton prénom mais faudrait qu'on s'capte à l'occas' Un jour j'trouverai le bon filon, ds taz et de pilons, c'est c'qu j'vois dans les endroits crades J'suis pris dans un grand tourbillon, La Fève veut des millions mais pleure quand l'horloge le retarde Jamais d'ma vie j's'rais un péon tout l'temps j'fais des thèses pour trouver ma vida loca Il m'faut un taf pour maitriser mes pulsions, il m'faut un taf pour maitriser mes nerfs J'veux pas faire vieillir le 7 sur l'écusson J'fais rien d'ma vie et ma paresse m'énerve Depuis qu'j'suis né j'veux mon butin, La Fève tourne en rond Et l'horloge s'arrêtera avant moi Avant moi J'veux pas mourir seul dans l'oubli, y a pleins d'gens comme moi Et l'périple s'arrête à mon trépas J'pense à celle qui m'attriste, j'me sens d'plus en plus seul Le soir j'ai des visions très noires Des visions très noires Mon train d'vie m'donne des frissons, j'ai choisi ma mission J'vois très bien qu'la flemme m'en éloigne J'sais bien qu'La Fève est pas patient, j'écris c'est ma façon d'implorer la clémence des cieux Très tôt noyé dans l'grand bain Zin j'ai grand 7 sur l'blason, c'que tu fais nous l'ferons en mieux Aujourd'hui les gens se débrouillent, ils cherchent tous des 'ous pour pouvoir assouvir leur entourage L'horloge fait peur à tout l'monde dans le poulailler Laisse des séquelles à des hommes de tout âge Pour les passionnés comme toi et moi c'est compliqué d'attendre le revers d'la médaille Mais j'bosse pas comme un ouvrier, est-c'qu'on a du mérite à vouloir le triple de c'qu'ils gagnent ? Ça s'la tue au taf J'suis un taf L'horloge met des baffes L'horloge met des baffes J'fais des tours dans mon parc au calme et j'm'endors dans les vapeurs, aïe J'viens d'une contrée très calme, loin d'la capitale Capitale La Fève veut tout l'or et tout l'capital L'horloge tourne très vite, j'crois qu'la chance m'évite Dans les enfers la flemmardise me ravitaille You might also like J'vois l'horloge tous les jours, ça m'fait faire des dingueries Pour ça qu'moi j'remets tout à demain À demain J'veux des favs c'est affligeant, j'vois des potes qui crient mais ça dit quoi ? Ok, à demain À demain Le destin m'a laissé, j'veux pas qu'on s'rabaisse à rerpleu en joignant les deux mains J'ai peur pour mon futur, l'horloge fait des grands tours mais j'ai pas trop l'temps, j'veux tout remettre à demain1</t>
+          <t>J'vois l'horloge tous les jours, ça m'fait faire des dingueries Pour ça qu'moi j'remets tout à demain À demain J'veux des favs c'est affligeant, j'vois des potes qui triment mais ça dit quoi ? Ok, à demain À demain Le destin m'a laissé, j'veux pas qu'on s'rabaisse à rer-pleu en joignant les deux mains J'ai peur pour mon futur, l'horloge fait des grands tours mais j'ai pas trop l'temps, j'veux tout remettre à demain Dans ma tête y a des démons, j'ai zappé ton prénom mais faudrait qu'on s'capte à l'occas' Un jour j'trouverai le bon filon, ds taz et de pilons, c'est c'qu j'vois dans les endroits crades J'suis pris dans un grand tourbillon, La Fève veut des millions mais pleure quand l'horloge le retarde Jamais d'ma vie j's'rais un péon tout l'temps j'fais des thèses pour trouver ma vida loca Il m'faut un taf pour maitriser mes pulsions, il m'faut un taf pour maitriser mes nerfs J'veux pas faire vieillir le 7 sur l'écusson J'fais rien d'ma vie et ma paresse m'énerve Depuis qu'j'suis né j'veux mon butin, La Fève tourne en rond Et l'horloge s'arrêtera avant moi Avant moi J'veux pas mourir seul dans l'oubli, y a pleins d'gens comme moi Et l'périple s'arrête à mon trépas J'pense à celle qui m'attriste, j'me sens d'plus en plus seul Le soir j'ai des visions très noires Des visions très noires Mon train d'vie m'donne des frissons, j'ai choisi ma mission J'vois très bien qu'la flemme m'en éloigne J'sais bien qu'La Fève est pas patient, j'écris c'est ma façon d'implorer la clémence des cieux Très tôt noyé dans l'grand bain Zin j'ai grand 7 sur l'blason, c'que tu fais nous l'ferons en mieux Aujourd'hui les gens se débrouillent, ils cherchent tous des 'ous pour pouvoir assouvir leur entourage L'horloge fait peur à tout l'monde dans le poulailler Laisse des séquelles à des hommes de tout âge Pour les passionnés comme toi et moi c'est compliqué d'attendre le revers d'la médaille Mais j'bosse pas comme un ouvrier, est-c'qu'on a du mérite à vouloir le triple de c'qu'ils gagnent ? Ça s'la tue au taf J'suis un taf L'horloge met des baffes L'horloge met des baffes J'fais des tours dans mon parc au calme et j'm'endors dans les vapeurs, aïe J'viens d'une contrée très calme, loin d'la capitale Capitale La Fève veut tout l'or et tout l'capital L'horloge tourne très vite, j'crois qu'la chance m'évite Dans les enfers la flemmardise me ravitaille J'vois l'horloge tous les jours, ça m'fait faire des dingueries Pour ça qu'moi j'remets tout à demain À demain J'veux des favs c'est affligeant, j'vois des potes qui crient mais ça dit quoi ? Ok, à demain À demain Le destin m'a laissé, j'veux pas qu'on s'rabaisse à rerpleu en joignant les deux mains J'ai peur pour mon futur, l'horloge fait des grands tours mais j'ai pas trop l'temps, j'veux tout remettre à demain1</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Pas d'paradis ici, je vois rien de tel De tel La Fève, t'as changé, elle m'dit On s'parle plus au tél' Au tél' Mais tu sais, moi, je bosse Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin d'eux Yes Pas d'paradis ici, je vois rien de tel De tel La Fève, t'as changé, elle m'dit On s'parle plus au tél' Au tél' Mais tu sais, moi, je bosse Je bosse pour la place du boss Du boss Tu sais, j'gratte trop l'bitume, frérot, sur l'pied, j'ai des bosses Let's go J'vois ton aura, pourquoi tu mens ? J'vois qu't'es pas sûr de tes mouv' Pas sûr de tes mouv' J'fais comme virgule, roulette, toi, t'essayes de suivre mais t'es où ? T'es honteuse, yeah Cramé comme la Mondéo 'déo, jeune, instable comme la météo Nan, nan, la météo Yes, doué dans l'imagerie genre Pablo, Amedeo Pablo, Amedeo, yeah, yeah Tu pourrais vendre un frère pour ton propre bénéf' Bénéf' Faut qu'j'reste sur mes appuis, faut que j'fasse belek Yeah Tu pourrais vendre un frère pour ton propre bénéf' Bénéf' Faut qu'j'reste sur mes appuis, faut que j'fasse belek, let's go Eh, eh You might also like Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin d'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin d'eux Yes</t>
+          <t>Pas d'paradis ici, je vois rien de tel De tel La Fève, t'as changé, elle m'dit On s'parle plus au tél' Au tél' Mais tu sais, moi, je bosse Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin d'eux Yes Pas d'paradis ici, je vois rien de tel De tel La Fève, t'as changé, elle m'dit On s'parle plus au tél' Au tél' Mais tu sais, moi, je bosse Je bosse pour la place du boss Du boss Tu sais, j'gratte trop l'bitume, frérot, sur l'pied, j'ai des bosses Let's go J'vois ton aura, pourquoi tu mens ? J'vois qu't'es pas sûr de tes mouv' Pas sûr de tes mouv' J'fais comme virgule, roulette, toi, t'essayes de suivre mais t'es où ? T'es honteuse, yeah Cramé comme la Mondéo 'déo, jeune, instable comme la météo Nan, nan, la météo Yes, doué dans l'imagerie genre Pablo, Amedeo Pablo, Amedeo, yeah, yeah Tu pourrais vendre un frère pour ton propre bénéf' Bénéf' Faut qu'j'reste sur mes appuis, faut que j'fasse belek Yeah Tu pourrais vendre un frère pour ton propre bénéf' Bénéf' Faut qu'j'reste sur mes appuis, faut que j'fasse belek, let's go Eh, eh Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin d'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin Loin d'eux D'eux Faux G, mytho, Seigneur, mets-moi loin d'eux Yes</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Louis Hen, yeah Dans ma gamberge, je veux le monde Jeune flamme veut de l'essence Jamais La Fève s'ra à la mode Mauvais, déjà à la naissance J'écris des lignes depuis belle lurette J'ai toujours la solitude comme thème Dans les buissons je suis c'crédit Je n'suis pas crédible Si je te dis je t'aime car Petit La Fève veut de l'or Peu d lumière dans mon corps Bédave donc je n'ai pas sommil Longtemps qu'n'ai pas vu le soleil Petit La Fève veut de l'or Peu de lumière dans mon corps Bédave donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil yeah Petit La Fève vue du ro-ro, pour mettre à l'aise tous mes partenaires Maman me dit qu'il n'y a pas l'temps, qu'il faut vite coffrer, l'plus dur c'est pas d'le faire Mais moi je veux faire des moneys mauves, vivre ma vie être un monument La Fève sortira d'l'anonymat, animal, tu peux prouver poto bas les reins ? Je me souviens mieux qu'un rêve, La Fève n'est pas toléré Mais ??? on décalote ?, chérie pas le Tokarev Dis moi comment tu vas, Louis tu parles pas de moi dans tes sons J'suis bien dans ma maison ? Je vois les 4 saisons You might also like Dans ma gamberge, je veux le monde Jeune flamme veut de l'essence Jamais La Fève s'ra à la mode Mauvais, déjà à la naissance J'écris des lignes depuis belle lurette J'ai toujours la solitude comme thème Dans les buissons je suis c'crédit Je n'suis pas crédible Si je te dis je t'aime car Petit La Fève veut de l'or Peu de lumière dans mon corps Bédave donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil Petit La Fève veut de l'or Peu de lumière dans mon corps Bédave donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil yeah J'étais tout jeune, sécheresse veut des coups La Fève ? veut des grands hommes Toi t'es l'pantin J'vois des fantômes, où j'me couche J'suis dans l'QG, je médite Slow comme un ??? qui m'entoure J'suis un rapace mais c'est pas mes terres Je ne fais qu'esquiver les vautours Oh que j'ai mal J'parle au mala tous les jours comme si c'était mon pote Pas de problème qui toque à ma porte Y'a que la félicité qui m'importe Mais comment ? Mais comment je faisais avant ? Mourir sans ça que c'est marrant J'te jure poto ça me désole Mais petit La Fève veut plein d'argents Petit La Fève veut de l'or Peu de lumière dans mon corps Déter donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil Petit La Fève veut de l'or Peu de lumière dans mon corps Déter donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil Petit La Fève veut de l'or Peu de lumière dans mon corps Déter donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil Petit La Fève veut de l'or Peu de lumière dans mon corps Déter donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil hen</t>
+          <t>Louis Hen, yeah Dans ma gamberge, je veux le monde Jeune flamme veut de l'essence Jamais La Fève s'ra à la mode Mauvais, déjà à la naissance J'écris des lignes depuis belle lurette J'ai toujours la solitude comme thème Dans les buissons je suis c'crédit Je n'suis pas crédible Si je te dis je t'aime car Petit La Fève veut de l'or Peu d lumière dans mon corps Bédave donc je n'ai pas sommil Longtemps qu'n'ai pas vu le soleil Petit La Fève veut de l'or Peu de lumière dans mon corps Bédave donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil yeah Petit La Fève vue du ro-ro, pour mettre à l'aise tous mes partenaires Maman me dit qu'il n'y a pas l'temps, qu'il faut vite coffrer, l'plus dur c'est pas d'le faire Mais moi je veux faire des moneys mauves, vivre ma vie être un monument La Fève sortira d'l'anonymat, animal, tu peux prouver poto bas les reins ? Je me souviens mieux qu'un rêve, La Fève n'est pas toléré Mais ??? on décalote ?, chérie pas le Tokarev Dis moi comment tu vas, Louis tu parles pas de moi dans tes sons J'suis bien dans ma maison ? Je vois les 4 saisons Dans ma gamberge, je veux le monde Jeune flamme veut de l'essence Jamais La Fève s'ra à la mode Mauvais, déjà à la naissance J'écris des lignes depuis belle lurette J'ai toujours la solitude comme thème Dans les buissons je suis c'crédit Je n'suis pas crédible Si je te dis je t'aime car Petit La Fève veut de l'or Peu de lumière dans mon corps Bédave donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil Petit La Fève veut de l'or Peu de lumière dans mon corps Bédave donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil yeah J'étais tout jeune, sécheresse veut des coups La Fève ? veut des grands hommes Toi t'es l'pantin J'vois des fantômes, où j'me couche J'suis dans l'QG, je médite Slow comme un ??? qui m'entoure J'suis un rapace mais c'est pas mes terres Je ne fais qu'esquiver les vautours Oh que j'ai mal J'parle au mala tous les jours comme si c'était mon pote Pas de problème qui toque à ma porte Y'a que la félicité qui m'importe Mais comment ? Mais comment je faisais avant ? Mourir sans ça que c'est marrant J'te jure poto ça me désole Mais petit La Fève veut plein d'argents Petit La Fève veut de l'or Peu de lumière dans mon corps Déter donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil Petit La Fève veut de l'or Peu de lumière dans mon corps Déter donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil Petit La Fève veut de l'or Peu de lumière dans mon corps Déter donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil Petit La Fève veut de l'or Peu de lumière dans mon corps Déter donc je n'ai pas sommeil Longtemps qu'n'ai pas vu le soleil hen</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Eh J'reste le même, sois patiente maman, j'attends mon moment Chut quand ça commence Le vice et moi, une bromance Eh, rappe comme un sauvage Rappe comme à l'époque où j'avais trop faim de ça Cons dans le falzar Je sais qu'faut rester innovant Travail décembre à novembre Histoire de booster nos ventes Histoire de remplir nos ventres Je parle au ciel le nez au vent T'as pas le level, mauvais élève, souvent j'étais pas là J'te check de l'épaule, on rêvait de cette vie on en avait pas l'âge Depuis enfant on veut tout l'or du monde Je suis qu'un homme donc j'ai pardonné Depuis enfant on veut tout l'or du monde Depuis enfant on veut tout l'or du monde Je suis qu'un homme donc j'ai pardonné Je suis qu'un homme donc j'ai pardonné You might also like T'es revenu, tu m'as demandé des nouvelles Jeune espion jamais à découvert Talent musical j'ai découvert Je choisis les mots comme un prince Serpent, ça n'me sert pas la pince Avant mon coeur il était ouvert Dans ma peine printemps, été, hiver Uh, j'me demande si tu m'as pardonné J'voulais la paire qui était pas donnée Tu sais faut qu'ça pop comme le Chardonnay Uh, à la deter on est abonné Je veux juste voir mon Dieu m'offrir, ça fait longtemps qu'on a charbonné Depuis enfant on veut tout l'or du monde Je suis qu'un homme donc j'ai pardonné Depuis enfant on veut tout l'or du monde Depuis enfant on veut tout l'or du monde Je suis qu'un homme donc j'ai pardonné Je suis qu'un homme donc j'ai pardonné</t>
+          <t>Eh J'reste le même, sois patiente maman, j'attends mon moment Chut quand ça commence Le vice et moi, une bromance Eh, rappe comme un sauvage Rappe comme à l'époque où j'avais trop faim de ça Cons dans le falzar Je sais qu'faut rester innovant Travail décembre à novembre Histoire de booster nos ventes Histoire de remplir nos ventres Je parle au ciel le nez au vent T'as pas le level, mauvais élève, souvent j'étais pas là J'te check de l'épaule, on rêvait de cette vie on en avait pas l'âge Depuis enfant on veut tout l'or du monde Je suis qu'un homme donc j'ai pardonné Depuis enfant on veut tout l'or du monde Depuis enfant on veut tout l'or du monde Je suis qu'un homme donc j'ai pardonné Je suis qu'un homme donc j'ai pardonné T'es revenu, tu m'as demandé des nouvelles Jeune espion jamais à découvert Talent musical j'ai découvert Je choisis les mots comme un prince Serpent, ça n'me sert pas la pince Avant mon coeur il était ouvert Dans ma peine printemps, été, hiver Uh, j'me demande si tu m'as pardonné J'voulais la paire qui était pas donnée Tu sais faut qu'ça pop comme le Chardonnay Uh, à la deter on est abonné Je veux juste voir mon Dieu m'offrir, ça fait longtemps qu'on a charbonné Depuis enfant on veut tout l'or du monde Je suis qu'un homme donc j'ai pardonné Depuis enfant on veut tout l'or du monde Depuis enfant on veut tout l'or du monde Je suis qu'un homme donc j'ai pardonné Je suis qu'un homme donc j'ai pardonné</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Hé, hé, hé, hé, hé, hé Hé Pour te dire ce que je pense j'ai pas les mots j'ai pas les mots Everyday tout en noir comme un émo everyday Perdu, dans locéan comme un Némo comme un Némo Barode du 77 à Massy-Palaiseau Est-ce que les billets pourront soigner tous mes maux ? J'me souvient jenregistrais mes premiers hits sur le mémo dictaphone Jeune LAF vers le légendaire Tout l'temps en chien, il faut qu'j'aille chez le véto, to Call spike, personne colle J'fais pas des sons pour bailar J'suis plus kill que dollaz, eh J'me demandait si on pouvait m'aimer moi m'aimer moi J'sais plus trop qui t'es mais j'ai ta tête dans ma mémoire Eh, yah, eh J'ai pas les mots Vrai G donc on verse une lame pour les nôtres pour les nôtres Uh, dusty dirty Chaque couplet y'a deux litres flow C'est trop vrai si j'te dis faux You might also like Elle veut d'la galanterie Depuis longtemps on tri Du mal à faire le tri Je dis j'ai pas menti Vrai G je l'suis, je le garanti Je suis trop speed G Je le fais on me dit Ralentis! Pour te dire ce que je pense j'ai pas les mots j'ai pas les mots Everyday tout en noir comme un émo everyday Perdu, dans locéan comme un Némo comme un Némo À route du 77 à Massy-Palaiseau</t>
+          <t>Hé, hé, hé, hé, hé, hé Hé Pour te dire ce que je pense j'ai pas les mots j'ai pas les mots Everyday tout en noir comme un émo everyday Perdu, dans locéan comme un Némo comme un Némo Barode du 77 à Massy-Palaiseau Est-ce que les billets pourront soigner tous mes maux ? J'me souvient jenregistrais mes premiers hits sur le mémo dictaphone Jeune LAF vers le légendaire Tout l'temps en chien, il faut qu'j'aille chez le véto, to Call spike, personne colle J'fais pas des sons pour bailar J'suis plus kill que dollaz, eh J'me demandait si on pouvait m'aimer moi m'aimer moi J'sais plus trop qui t'es mais j'ai ta tête dans ma mémoire Eh, yah, eh J'ai pas les mots Vrai G donc on verse une lame pour les nôtres pour les nôtres Uh, dusty dirty Chaque couplet y'a deux litres flow C'est trop vrai si j'te dis faux Elle veut d'la galanterie Depuis longtemps on tri Du mal à faire le tri Je dis j'ai pas menti Vrai G je l'suis, je le garanti Je suis trop speed G Je le fais on me dit Ralentis! Pour te dire ce que je pense j'ai pas les mots j'ai pas les mots Everyday tout en noir comme un émo everyday Perdu, dans locéan comme un Némo comme un Némo À route du 77 à Massy-Palaiseau</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Come join the band Come shag the damned God I blow them away A heart of chrome A broken home I got plenty to say Who are you doing? Don't spoil my day A bigger better offer baby He's on his way You gotta love LA I feel gigantic Gonna burst a vein I'm stopping traffic 'Cause they dig the fame And I'm just the same So Ebay baby Haven't seen you lately Do you still give it away So get my peeps To call your peeps 'Cause we've got nothing to say You might also likeDon't feed the models Don't look at police Don't go to Crenshaw boule 'Cause whitey can get fleeced God I love LA I feel gigantic Gonna burst a vein I'm stopping traffic 'Cause I dig the fame I'm hearing voices, voices Like a jumbo jay Too many choices, choices Gotta love LA Californi-a .. USA baby Who you doing baby? Don't spoil my day You've been gloating lately baby And I dig LA I'd have to say I feel gigantic Gonna burst a vein I'm stopping traffic I kinda dig the fame I'm hearing voices voices I've gotta jumbo jay Too many choices, choices Gotta love LA Californi-a USA USA USA</t>
+          <t>Come join the band Come shag the damned God I blow them away A heart of chrome A broken home I got plenty to say Who are you doing? Don't spoil my day A bigger better offer baby He's on his way You gotta love LA I feel gigantic Gonna burst a vein I'm stopping traffic 'Cause they dig the fame And I'm just the same So Ebay baby Haven't seen you lately Do you still give it away So get my peeps To call your peeps 'Cause we've got nothing to say Don't feed the models Don't look at police Don't go to Crenshaw boule 'Cause whitey can get fleeced God I love LA I feel gigantic Gonna burst a vein I'm stopping traffic 'Cause I dig the fame I'm hearing voices, voices Like a jumbo jay Too many choices, choices Gotta love LA Californi-a .. USA baby Who you doing baby? Don't spoil my day You've been gloating lately baby And I dig LA I'd have to say I feel gigantic Gonna burst a vein I'm stopping traffic I kinda dig the fame I'm hearing voices voices I've gotta jumbo jay Too many choices, choices Gotta love LA Californi-a USA USA USA</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Eh, on s'est quittés mais je pense qu'on avait un commun encore Qu'on avait un commun encore Eh, j'peux lâcher demain mais y a cette ambition qui me colle le corps Colle le corps Eh, on s'est quittés mais je pense qu'on avait un commun encore Qu'on avait un commun encore Eh, j'peux lâcher demain mais y a cette ambition qui me colle le corps Colle le corps Eh, j'regarde mes poches, elles sont trouées, négro, tu sais comment les temps sont Comment les temps sont J'ai personne au-d'ssus de moi, j'sais que j'peux tout dire dans mes chansons Tout dire dans mes chansons Eh, t'as bien vu, j'suis dans mes soucis donc pourquoi t'as voulu me causer ? Ah, ouh Tu l'entends, j'suis dans mon élément quand la prod', elle est cosy Ouais, cosy J'ai pas trop faim pour des biscuits, j'roule cette merde couleur whisky Eh, j'aime pas trop les raclis qui s'kiffent, toujours le Diable, il veut kiss-kiss Gucci, Louis Vuitton et Prada, j'suis pas trop Dior, c'est des nazis Tellement de faux sur mon radar, tellement de faux sous ma Asics ERRR Dans l'fond, ton âme, elle est pourrie, j'le vois à des kilomètres À des kilomètres Eh, la politique, j'y crois pas, j'vois toutes les bananes qui nous mettent Qui nous mettent Eh, j'avais des plans pour nous deux, j'pensais qu't'avais à-peu-près les mêmes Mêmes Amour et trahison, ma le-gueu, c'est très souvent les thèmes Ouh Eh, on s'est quittés mais je pense qu'on avait un commun encore Qu'on avait un commun encore Eh, j'peux lâcher demain mais y a cette ambition qui me colle le corps Colle le corps Eh, on s'est quittés mais je pense qu'on avait un commun encore Qu'on avait un commun encore Eh, j'peux lâcher demain mais y a cette ambition qui me colle le corps Colle le corps You might also like ERRR Commun encore Mmh-mmh Qui me colle le corps Colle le corps ERRR Commun encore Commun encore Ouh Qui me colle le corps Colle le corps</t>
+          <t>Eh, on s'est quittés mais je pense qu'on avait un commun encore Qu'on avait un commun encore Eh, j'peux lâcher demain mais y a cette ambition qui me colle le corps Colle le corps Eh, on s'est quittés mais je pense qu'on avait un commun encore Qu'on avait un commun encore Eh, j'peux lâcher demain mais y a cette ambition qui me colle le corps Colle le corps Eh, j'regarde mes poches, elles sont trouées, négro, tu sais comment les temps sont Comment les temps sont J'ai personne au-d'ssus de moi, j'sais que j'peux tout dire dans mes chansons Tout dire dans mes chansons Eh, t'as bien vu, j'suis dans mes soucis donc pourquoi t'as voulu me causer ? Ah, ouh Tu l'entends, j'suis dans mon élément quand la prod', elle est cosy Ouais, cosy J'ai pas trop faim pour des biscuits, j'roule cette merde couleur whisky Eh, j'aime pas trop les raclis qui s'kiffent, toujours le Diable, il veut kiss-kiss Gucci, Louis Vuitton et Prada, j'suis pas trop Dior, c'est des nazis Tellement de faux sur mon radar, tellement de faux sous ma Asics ERRR Dans l'fond, ton âme, elle est pourrie, j'le vois à des kilomètres À des kilomètres Eh, la politique, j'y crois pas, j'vois toutes les bananes qui nous mettent Qui nous mettent Eh, j'avais des plans pour nous deux, j'pensais qu't'avais à-peu-près les mêmes Mêmes Amour et trahison, ma le-gueu, c'est très souvent les thèmes Ouh Eh, on s'est quittés mais je pense qu'on avait un commun encore Qu'on avait un commun encore Eh, j'peux lâcher demain mais y a cette ambition qui me colle le corps Colle le corps Eh, on s'est quittés mais je pense qu'on avait un commun encore Qu'on avait un commun encore Eh, j'peux lâcher demain mais y a cette ambition qui me colle le corps Colle le corps ERRR Commun encore Mmh-mmh Qui me colle le corps Colle le corps ERRR Commun encore Commun encore Ouh Qui me colle le corps Colle le corps</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Ah ah yeah, brrr Ah ah yeah LAF Machiavelli Velli Sur ma planète je les prélis Prélis J'vais t'apprendre la vraie vie Vraie vie 7 sur la scène on l'a prédit Prédit Bientôt là-haut j'fais des houbas Houbas La Fève perdu dans un brouillard Brouillard Dans le stud' fait des meurtres Des meurtres Dans le stud' fait des trous noirs Ah J'adore engrainer Grainer La Fève ne fait pas d'sons khene Khene Je fais mon règne Règne Tisse ma toile comme l'araignée Ayeah Je n'veux pas d'César Tout c'qui m'importe c'est l'harmonie Monie Je n'aime pas les cérémonies Monie Pull-up et j'vais serrer Monique Monique, ah yeah C'que j'fais c'est facile Facile J'écris en mode automatique Matique Mon vers semi-automatique Matique Derrière un sac ou un portique, oh yeah Fuck une vie c'est un boomerang Boomerang Les problèmes s'en vont et reviennent Reviennent Je suis un loup j'ai les crocs blancs Crocs blancs Et je veux qu'le monde s'en souvienne J'suis trop Khali j'fais des rallyes 'vec ma soucoupe tu sais Tu sais Dieu si t'es là où t'es ? Où t'es ? Plus t-bag que sucre sucre Pas trop d'amis, beaucoup d'famille du coup tout roule tu sais Tu sais Plus vite, chelou, cul-sec Cul-sec J'crache des flammes dans l'Q7 Yah Passants me guettent Dans ma ville je lâche des graffs et des guts Jeune espion dans les endroits qui dégoutent Dans repère pédophile ou dans les égouts La prod est soignée, drip sur les poignets Faut suivre La Fève mon ami j'suis le doyen Tellement de sauce mon ami, tu t'es noyé Des djinns mal intentionnés dans mon foyer, oh yeah You might also like LAF Machiavelli Velli Sur ma planète je les prélis Yeah J'vais t'apprendre la vraie vie Vraie vie 7 sur la scène on l'a prédit Ah, ah, ah Bientôt là-haut j'fais des houbas Houbas La Fève perdu dans un brouillard Brouillard Dans le stud fait des meurtres Des meurtres Dans le stud fait des trous noirs Ah Yeah LAF dans l'arène L'arène Je prends le trône et la reine La reine Celui qui veut, qu'il m'arrête M'arrête Laser rouge sort d'ma rétine Rétine LAF Machiavelli Velli Sur ma planète je les prélis Prélis J'vais t'apprendre la vraie vie Vraie vie 7 sur la scène on l'a prédit Prédit</t>
+          <t>Ah ah yeah, brrr Ah ah yeah LAF Machiavelli Velli Sur ma planète je les prélis Prélis J'vais t'apprendre la vraie vie Vraie vie 7 sur la scène on l'a prédit Prédit Bientôt là-haut j'fais des houbas Houbas La Fève perdu dans un brouillard Brouillard Dans le stud' fait des meurtres Des meurtres Dans le stud' fait des trous noirs Ah J'adore engrainer Grainer La Fève ne fait pas d'sons khene Khene Je fais mon règne Règne Tisse ma toile comme l'araignée Ayeah Je n'veux pas d'César Tout c'qui m'importe c'est l'harmonie Monie Je n'aime pas les cérémonies Monie Pull-up et j'vais serrer Monique Monique, ah yeah C'que j'fais c'est facile Facile J'écris en mode automatique Matique Mon vers semi-automatique Matique Derrière un sac ou un portique, oh yeah Fuck une vie c'est un boomerang Boomerang Les problèmes s'en vont et reviennent Reviennent Je suis un loup j'ai les crocs blancs Crocs blancs Et je veux qu'le monde s'en souvienne J'suis trop Khali j'fais des rallyes 'vec ma soucoupe tu sais Tu sais Dieu si t'es là où t'es ? Où t'es ? Plus t-bag que sucre sucre Pas trop d'amis, beaucoup d'famille du coup tout roule tu sais Tu sais Plus vite, chelou, cul-sec Cul-sec J'crache des flammes dans l'Q7 Yah Passants me guettent Dans ma ville je lâche des graffs et des guts Jeune espion dans les endroits qui dégoutent Dans repère pédophile ou dans les égouts La prod est soignée, drip sur les poignets Faut suivre La Fève mon ami j'suis le doyen Tellement de sauce mon ami, tu t'es noyé Des djinns mal intentionnés dans mon foyer, oh yeah LAF Machiavelli Velli Sur ma planète je les prélis Yeah J'vais t'apprendre la vraie vie Vraie vie 7 sur la scène on l'a prédit Ah, ah, ah Bientôt là-haut j'fais des houbas Houbas La Fève perdu dans un brouillard Brouillard Dans le stud fait des meurtres Des meurtres Dans le stud fait des trous noirs Ah Yeah LAF dans l'arène L'arène Je prends le trône et la reine La reine Celui qui veut, qu'il m'arrête M'arrête Laser rouge sort d'ma rétine Rétine LAF Machiavelli Velli Sur ma planète je les prélis Prélis J'vais t'apprendre la vraie vie Vraie vie 7 sur la scène on l'a prédit Prédit</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, j'suis vrai J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, j'suis vrai J'suis vrai, pour ça qu'j'ai le karma J'suis jeune, je n'me fais pas qu-arna Poto on prépare un carnage La Fève il prépare un carnage Mais est ce que t'es prêt mon sin-cou Dans me te-tê j'ai plus d'un coup Sur le terrain en retrait Mais dans la jungle je joue des coudes La prod est lourde elle me soulage J'ai l'impression qu'mon poids il s'allège Poto la vie elle était salée J'ai eu des périodes chaudes mais ça allait Frérot le verre il est vide Dans le studio je lévite Le vice est rentré dans mon corps j'ai rien demandé il a cassé la vitre You might also like J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, j'suis vrai J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, j'suis vrai J'suis vrai, cette gadji l'a compris Que j'visais plus haut qu'la moyenne Je sais qu'autour y'a que des hyènes Tout le temps le karma fait des siennes Je vois l'amour dans le ciel Ca me rassure je suis paro J'vois noir et blanc comme les carreaux Moi je tire la Merco je la gare où La Fève le taré, j'étais dans ta rue, pull up c'est carré J'le dis sur Antarès, moi j'suis un ne-jeu j'veux pas être égaré La Fève le taré, j'étais dans ta rue, pull up c'est carré J'le dis sur Antarès, moi j'suis un jeune j'veux pas m'égarer Ok J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, j'suis vrai J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, j'suis vrai</t>
+          <t>J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, j'suis vrai J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, j'suis vrai J'suis vrai, pour ça qu'j'ai le karma J'suis jeune, je n'me fais pas qu-arna Poto on prépare un carnage La Fève il prépare un carnage Mais est ce que t'es prêt mon sin-cou Dans me te-tê j'ai plus d'un coup Sur le terrain en retrait Mais dans la jungle je joue des coudes La prod est lourde elle me soulage J'ai l'impression qu'mon poids il s'allège Poto la vie elle était salée J'ai eu des périodes chaudes mais ça allait Frérot le verre il est vide Dans le studio je lévite Le vice est rentré dans mon corps j'ai rien demandé il a cassé la vitre J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, j'suis vrai J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, j'suis vrai J'suis vrai, cette gadji l'a compris Que j'visais plus haut qu'la moyenne Je sais qu'autour y'a que des hyènes Tout le temps le karma fait des siennes Je vois l'amour dans le ciel Ca me rassure je suis paro J'vois noir et blanc comme les carreaux Moi je tire la Merco je la gare où La Fève le taré, j'étais dans ta rue, pull up c'est carré J'le dis sur Antarès, moi j'suis un ne-jeu j'veux pas être égaré La Fève le taré, j'étais dans ta rue, pull up c'est carré J'le dis sur Antarès, moi j'suis un jeune j'veux pas m'égarer Ok J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, j'suis vrai J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, pour ça qu'j'ai confiance J'suis vrai, j'suis vrai</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>La Fève il est mal-aimé, sunglasses je les mets Mon inspi n'a pas d'limite, faut calmer ma boulimie J't'aime pas, j'aime pas tes manières Faut capter Farid à Anières On veut tout péter comme Kanye Être sur le dessus du panier Tu crois pas en toi mon G, faut qu'tu guettes mon ascension Ici bas y'a des snakes, faudrait que j'fasse attention Tes rappeurs c'est des marionnettes, frérot c'est des pantins Les condés ils comprennnt pas donc faudrait qu'on en pende un J'attnds pas un sauveur, j'ai confiance en mon mob Suivre les gens c'est la mode, donc tout le temps je suis mad Damn, ok, La Fève c'est un monstre Gros comprends c'que j'montre, capte un plug à Montreuil La Fève il est mal-aimé, sunglasses je les mets Mon inspi n'a pas d'limite, faut calmer ma boulimie J't'aime pas, j'aime pas tes manières Faut capter Farid à Anières On veut tout péter comme Kanye Être sur le dessus du panierYou might also like</t>
+          <t>La Fève il est mal-aimé, sunglasses je les mets Mon inspi n'a pas d'limite, faut calmer ma boulimie J't'aime pas, j'aime pas tes manières Faut capter Farid à Anières On veut tout péter comme Kanye Être sur le dessus du panier Tu crois pas en toi mon G, faut qu'tu guettes mon ascension Ici bas y'a des snakes, faudrait que j'fasse attention Tes rappeurs c'est des marionnettes, frérot c'est des pantins Les condés ils comprennnt pas donc faudrait qu'on en pende un J'attnds pas un sauveur, j'ai confiance en mon mob Suivre les gens c'est la mode, donc tout le temps je suis mad Damn, ok, La Fève c'est un monstre Gros comprends c'que j'montre, capte un plug à Montreuil La Fève il est mal-aimé, sunglasses je les mets Mon inspi n'a pas d'limite, faut calmer ma boulimie J't'aime pas, j'aime pas tes manières Faut capter Farid à Anières On veut tout péter comme Kanye Être sur le dessus du panier</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Elle c'est une bitch, elle m'dit qu'elle marche droit dans ses bottes Au final on sait qu'c'est une hoe J'lâche pas d'piques, il faut qu'j'garde mes mots J'ai que du Rick et Prada sur l'dos J'suis constamment dans un nuage de fumée Tu sais, parle pas d'sape, des sous j'en ai trop J'suis pas piqué mais j'l'ai dans la peau J'sais pas qui t'es mais j'connais ta go Pas compliqué d'faire genre, tu vas faire quoi vraiment quand ça t'arrives Tu bois au bistrot, j'passe à lalim J'la baise, elle m'appelle Obito ou Qatari J'ai mal aux poumons, j'consomme tout la cali J'ai mal à la bite quand elle mt les canines Eh, j'voulais être solo dans mon trip Les diamants donnent la grippe mais je sais cest d'la kick Même si t'es bonne tu fumes pas sur ma weed Même si on s'connaît d'puis gamin, demande pas comment ça va C'est pas avec toi que j'ai retourné la ville J'viens d'loin fils de putain, j'ai quitté mon île Pour m'soulager, faut qu'j'regarde un chiffre Que j'mette mes écouteurs, que j'allume un shit You might also like Même si t'es bonne tu fumes pas sur ma weed Même si on s'connaît d'puis gamin, demande pas comment ça va C'est pas avec toi que j'ai retourné la ville J'viens d'loin fils de putain, j'ai quitté mon île, eh Pour m'soulager, faut qu'j'regarde un chiffre Que j'mette mes écouteurs, que j'allume un shit Elle c'est une bitch, elle m'dit qu'elle marche droit dans ses bottes Au final on sait qu'c'est une hoe J'lâche pas d'piques, il faut qu'j'garde mes mots J'ai que du Rick et Prada sur l'dos J'suis constamment dans un nuage de fumée Tu sais, parle pas d'sape, des sous j'en ai trop J'suis pas piqué mais j'l'ai dans la peau J'sais pas qui t'es mais j'connais ta go T'es bavon, on s'attrape, dans l'69 ça trap, j'suis avec le B 10 vrais G nous sommes, tu fais l'gentil mais, toi tu veux nous B Laisse, ce rat veut m'doubler, j'le fais sans efforts, j'lui mets une tempête J'pourrais fuck une poupée sur Paname y en a deux trois qui me rendent bête Le monde il est bizarre j'comprends pas des choses, le G dit c'est son reuf, il l'encule à l'automatique Toujours dans les multiplications, les additions, ma leugueu, j'appelle ça le monnaie mathématiques J'ai beau rester précis, j'dois compter les blessings, y en a ils ont douillé pour un mauvais timing Des te-pu des groupies ma leugue ça me termine, fait de la magie avec Bushi, Taemin Des hits sur un laptop, elle veut qu'on papote, t'sais qu'j'suis une pépite Bon, quelle ville de requins, t'as pas les requis ma leugeu, on t'évite Trop paro à c't'heure, Martin Aston, j'me mets en stoner Le diable il est a tec, me fait des appels, il veut qu'on se bastonne Même si t'es bonne tu fumes pas sur ma weed même si t'es bonne tu fumes pas sur la zaza Même si on s'connaît d'puis gamin, demande pas comment ça va C'est pas avec toi que j'ai retourné la ville J'viens d'loin fils de putain, j'ai quitté mon île, eh Pour m'soulager, faut qu'j'regarde un chiffre Que j'mette mes écouteurs, que j'allume un shit Elle c'est une bitch, elle m'dit qu'elle marche droit dans ses bottes Au final on sait qu'c'est une hoe J'lâche pas d'piques, il faut qu'j'garde mes mots J'ai que du Rick et Prada sur l'dos J'suis constamment dans un nuage de fumée Tu sais, parle pas d'sape, des sous j'en ai trop J'suis pas piqué mais j'l'ai dans la peau J'sais pas qui t'es mais j'connais ta go</t>
+          <t>Elle c'est une bitch, elle m'dit qu'elle marche droit dans ses bottes Au final on sait qu'c'est une hoe J'lâche pas d'piques, il faut qu'j'garde mes mots J'ai que du Rick et Prada sur l'dos J'suis constamment dans un nuage de fumée Tu sais, parle pas d'sape, des sous j'en ai trop J'suis pas piqué mais j'l'ai dans la peau J'sais pas qui t'es mais j'connais ta go Pas compliqué d'faire genre, tu vas faire quoi vraiment quand ça t'arrives Tu bois au bistrot, j'passe à lalim J'la baise, elle m'appelle Obito ou Qatari J'ai mal aux poumons, j'consomme tout la cali J'ai mal à la bite quand elle mt les canines Eh, j'voulais être solo dans mon trip Les diamants donnent la grippe mais je sais cest d'la kick Même si t'es bonne tu fumes pas sur ma weed Même si on s'connaît d'puis gamin, demande pas comment ça va C'est pas avec toi que j'ai retourné la ville J'viens d'loin fils de putain, j'ai quitté mon île Pour m'soulager, faut qu'j'regarde un chiffre Que j'mette mes écouteurs, que j'allume un shit Même si t'es bonne tu fumes pas sur ma weed Même si on s'connaît d'puis gamin, demande pas comment ça va C'est pas avec toi que j'ai retourné la ville J'viens d'loin fils de putain, j'ai quitté mon île, eh Pour m'soulager, faut qu'j'regarde un chiffre Que j'mette mes écouteurs, que j'allume un shit Elle c'est une bitch, elle m'dit qu'elle marche droit dans ses bottes Au final on sait qu'c'est une hoe J'lâche pas d'piques, il faut qu'j'garde mes mots J'ai que du Rick et Prada sur l'dos J'suis constamment dans un nuage de fumée Tu sais, parle pas d'sape, des sous j'en ai trop J'suis pas piqué mais j'l'ai dans la peau J'sais pas qui t'es mais j'connais ta go T'es bavon, on s'attrape, dans l'69 ça trap, j'suis avec le B 10 vrais G nous sommes, tu fais l'gentil mais, toi tu veux nous B Laisse, ce rat veut m'doubler, j'le fais sans efforts, j'lui mets une tempête J'pourrais fuck une poupée sur Paname y en a deux trois qui me rendent bête Le monde il est bizarre j'comprends pas des choses, le G dit c'est son reuf, il l'encule à l'automatique Toujours dans les multiplications, les additions, ma leugueu, j'appelle ça le monnaie mathématiques J'ai beau rester précis, j'dois compter les blessings, y en a ils ont douillé pour un mauvais timing Des te-pu des groupies ma leugue ça me termine, fait de la magie avec Bushi, Taemin Des hits sur un laptop, elle veut qu'on papote, t'sais qu'j'suis une pépite Bon, quelle ville de requins, t'as pas les requis ma leugeu, on t'évite Trop paro à c't'heure, Martin Aston, j'me mets en stoner Le diable il est a tec, me fait des appels, il veut qu'on se bastonne Même si t'es bonne tu fumes pas sur ma weed même si t'es bonne tu fumes pas sur la zaza Même si on s'connaît d'puis gamin, demande pas comment ça va C'est pas avec toi que j'ai retourné la ville J'viens d'loin fils de putain, j'ai quitté mon île, eh Pour m'soulager, faut qu'j'regarde un chiffre Que j'mette mes écouteurs, que j'allume un shit Elle c'est une bitch, elle m'dit qu'elle marche droit dans ses bottes Au final on sait qu'c'est une hoe J'lâche pas d'piques, il faut qu'j'garde mes mots J'ai que du Rick et Prada sur l'dos J'suis constamment dans un nuage de fumée Tu sais, parle pas d'sape, des sous j'en ai trop J'suis pas piqué mais j'l'ai dans la peau J'sais pas qui t'es mais j'connais ta go</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>J'ai pas le time Manque de time Le monde est à nous J'ai pas le time Le monde est à nous Manque de time Tu voulais pas fallait me dire Poto je suis là, je médite Tout l'temps les démons ils me tirent J'ai mal au cur elle me dit Je pense à cette merde A tout ce qu'on ferait pour les renégats Pas de temps, prépare de gros dégâts Ride dans la Benz beige Je veux du cash, cash Devant les choufs faut pas reculer 94 sera immatriculé Au cro-mi faut articuler On te masse comme chez le kiné On m'dit tu vas pop mais c'est quand ? T'inquiètes pas je prends les commandes Frérot ça dit quoi c'est comment You might also like Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Tu sais La Fève c'est un bavon On va le faire nous le savons Devant les bijoux nous bavons Grosse monture comme un étalon Parle mal et j'te passe le savon J'suis dans la grande salle J'suis dans mes peines, peines, toi t'es là tu demandes si ça va Toujours qué-blo dans mes peines Jamais j'ai raté les pénos Je suis un jeune dans la pénombre , solo j'enseigne Faudrait qu'je brise mes chaines Jamais j'écris des déchets Chez moi le ciel se déchaine 94 sera immatriculé Au cro-mi faut articuler On te masse comme chez le kiné On m'dit tu vas pop mais c'est quand ? T'inquiètes pas je prends les commandes Frero ça dit quoi c'est comment Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Tu sais la vie c'est un bavon On va le faire nous le savons Devant les bijoux nous bavons Grosse monture comme un étalon Parle mal et j'te passe le savon J'suis dans la grande salle J'suis dans mes peines, peines, toi t'es là tu demandes si ça va</t>
+          <t>J'ai pas le time Manque de time Le monde est à nous J'ai pas le time Le monde est à nous Manque de time Tu voulais pas fallait me dire Poto je suis là, je médite Tout l'temps les démons ils me tirent J'ai mal au cur elle me dit Je pense à cette merde A tout ce qu'on ferait pour les renégats Pas de temps, prépare de gros dégâts Ride dans la Benz beige Je veux du cash, cash Devant les choufs faut pas reculer 94 sera immatriculé Au cro-mi faut articuler On te masse comme chez le kiné On m'dit tu vas pop mais c'est quand ? T'inquiètes pas je prends les commandes Frérot ça dit quoi c'est comment Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Tu sais La Fève c'est un bavon On va le faire nous le savons Devant les bijoux nous bavons Grosse monture comme un étalon Parle mal et j'te passe le savon J'suis dans la grande salle J'suis dans mes peines, peines, toi t'es là tu demandes si ça va Toujours qué-blo dans mes peines Jamais j'ai raté les pénos Je suis un jeune dans la pénombre , solo j'enseigne Faudrait qu'je brise mes chaines Jamais j'écris des déchets Chez moi le ciel se déchaine 94 sera immatriculé Au cro-mi faut articuler On te masse comme chez le kiné On m'dit tu vas pop mais c'est quand ? T'inquiètes pas je prends les commandes Frero ça dit quoi c'est comment Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Toujours qué-blo dans mes peines Tu sais la vie c'est un bavon On va le faire nous le savons Devant les bijoux nous bavons Grosse monture comme un étalon Parle mal et j'te passe le savon J'suis dans la grande salle J'suis dans mes peines, peines, toi t'es là tu demandes si ça va</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Yeah, let's go Yeah, yeah, yeah C'est quoi mon métier ? Métier Chanter tout l'été ? Han Pour cette big house, ma G, j'vais pas m'endetter J'vais pas m'endetter J'trap ça dans les temps Les temps, trop d'rappeurs incompétents Let's go J'aime bien la prod, la mélodie, elle est entêtante Y a ceux qui parlent vrai, j'préfère ceux qui parlent cash Qui parlent cash J'veux pas chercher la vérité, c'st Dieu qui la cache C'est Diu qui la cache Mes pires défauts, c'est Bentley et Ferrari Et Ferrari T'as prié devant moi et puis mon fer a rit Let's go Faut patienter, ma musique faut pas sciencer Des noirs qui tuent des noirs, ma G c'est insensé La gadji dit mais c'est des mots, c'est que des disquettes C'est que des disquettes L'amour j'en parle dans mes textes, de façon discrète De façon discrète Mais le temps passe et les flammes s'éteignent Le temps passe et les flammes s'éteignent Et, on s'habitue, après on dit c'est mieux On s'habitue, après on dit c'est mieux Ce petit ingrat n'est pas reconnaissant Ingrat n'est pas reconnaissant J'sais, j'dois élargir ma connaissance Yeah, yeah, yeah You might also like C'est quoi mon métier ? Métier Chanter tout l'été ? L'été Pour cette big house, ma G, j'vais pas m'endetter Pas m'endetter Barça, on y va quand ? Va quand Envie de vacances Envie de vacances Je suis un dog, évidemment, j'veux le trône vacant Yes, yes, yes Maman s'inquiète plus trop, là j'souris un peu plus Là j'souris un peu plus J'suis qu'un Homme, mon frère j'en veux toujours un peu plus Yes, yes Tu sais, j'étais jeune, j'étais pas ce gosse à part Gosse à part J'voulais une maison à la campagne et un gros appart' Un gros appart' Mais le temps passe et les flammes s'éteignent Le temps passe et les flammes s'éteignent Et, on s'habitue, après on dit c'est mieux Ce petit ingrat n'est pas reconnaissant Reconnaissant, reconnaissant J'sais, j'dois élargir ma connaissance Yeah, yeah, yeah C'est quoi mon métier ? Chanter tout l'été ? Pour cette big house, ma G, j'vais pas m'endetter J'trap ça dans les temps, trop d'rappeurs incompétents J'aime bien la prod, la mélodie</t>
+          <t>Yeah, let's go Yeah, yeah, yeah C'est quoi mon métier ? Métier Chanter tout l'été ? Han Pour cette big house, ma G, j'vais pas m'endetter J'vais pas m'endetter J'trap ça dans les temps Les temps, trop d'rappeurs incompétents Let's go J'aime bien la prod, la mélodie, elle est entêtante Y a ceux qui parlent vrai, j'préfère ceux qui parlent cash Qui parlent cash J'veux pas chercher la vérité, c'st Dieu qui la cache C'est Diu qui la cache Mes pires défauts, c'est Bentley et Ferrari Et Ferrari T'as prié devant moi et puis mon fer a rit Let's go Faut patienter, ma musique faut pas sciencer Des noirs qui tuent des noirs, ma G c'est insensé La gadji dit mais c'est des mots, c'est que des disquettes C'est que des disquettes L'amour j'en parle dans mes textes, de façon discrète De façon discrète Mais le temps passe et les flammes s'éteignent Le temps passe et les flammes s'éteignent Et, on s'habitue, après on dit c'est mieux On s'habitue, après on dit c'est mieux Ce petit ingrat n'est pas reconnaissant Ingrat n'est pas reconnaissant J'sais, j'dois élargir ma connaissance Yeah, yeah, yeah C'est quoi mon métier ? Métier Chanter tout l'été ? L'été Pour cette big house, ma G, j'vais pas m'endetter Pas m'endetter Barça, on y va quand ? Va quand Envie de vacances Envie de vacances Je suis un dog, évidemment, j'veux le trône vacant Yes, yes, yes Maman s'inquiète plus trop, là j'souris un peu plus Là j'souris un peu plus J'suis qu'un Homme, mon frère j'en veux toujours un peu plus Yes, yes Tu sais, j'étais jeune, j'étais pas ce gosse à part Gosse à part J'voulais une maison à la campagne et un gros appart' Un gros appart' Mais le temps passe et les flammes s'éteignent Le temps passe et les flammes s'éteignent Et, on s'habitue, après on dit c'est mieux Ce petit ingrat n'est pas reconnaissant Reconnaissant, reconnaissant J'sais, j'dois élargir ma connaissance Yeah, yeah, yeah C'est quoi mon métier ? Chanter tout l'été ? Pour cette big house, ma G, j'vais pas m'endetter J'trap ça dans les temps, trop d'rappeurs incompétents J'aime bien la prod, la mélodie</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Faudrait qu'j'me cop un mili', ce s'rait pas méchant T'es masqué, tant mieux Que ma fougue, qu'elle qu'a pas gé-chan Pourquoi l'diable nous craint-il ? J'comprends pas, dis-moi J'ai la dalle comme si j'avais pas graille d'puis 6 mois Y a des bons, y a des traîtres partout, bébé c'est la life J'veux pas me voir au bout du tunnel, j'peux t'jurer wallay J'guette les bijoux derrière la vitre comme un espion aguerri La fève à propos d'c'qui brille C'est l'seul vice qui m'a guéri J'suis un jeune, poto j'suis un jeune donc j'suis insouciant J'vois pas l'bout, j'suis au fond du trou Comme c'corps dans l'océan J'ai des doutes mais t'inquiète j'reste aux aguets J'suis dans l'même stud' again, donc un plav' ramène Des choses nous savons, donc j'trainais dans la savane Mais j'stresse un peu moins qu'avant J'veux pas vendre le savon Devant toutes les sommes nous bavons Secrets nous les savons, donc j'raisonne comme un savant Mais avant j'étais solo sans le sous Très jeune espion dans le zoo J'vais faire du sale je peux te le promettre J'ai cette rage dans l'abdomen Tu m'crois pas, c'est ton dos mec Faire du sale, c'est mon domaine You might also like Faudrait qu'j'me cop un mili', ce s'rait pas méchant T'es masqué, tant mieux Que ma fougue, qu'elle qu'a pas gé-chan Pourquoi l'diable nous craint-il ? J'comprends pas, dis-moi J'ai la dalle comme si j'avais pas graille d'puis 6 mois Y a des bons, y a des traîtres partout, bébé c'est la life J'veux pas me voir au bout du tunnel, j'peux t'jurer wallay J'guette les bijoux derrière la vitre comme un espion aguerri</t>
+          <t>Faudrait qu'j'me cop un mili', ce s'rait pas méchant T'es masqué, tant mieux Que ma fougue, qu'elle qu'a pas gé-chan Pourquoi l'diable nous craint-il ? J'comprends pas, dis-moi J'ai la dalle comme si j'avais pas graille d'puis 6 mois Y a des bons, y a des traîtres partout, bébé c'est la life J'veux pas me voir au bout du tunnel, j'peux t'jurer wallay J'guette les bijoux derrière la vitre comme un espion aguerri La fève à propos d'c'qui brille C'est l'seul vice qui m'a guéri J'suis un jeune, poto j'suis un jeune donc j'suis insouciant J'vois pas l'bout, j'suis au fond du trou Comme c'corps dans l'océan J'ai des doutes mais t'inquiète j'reste aux aguets J'suis dans l'même stud' again, donc un plav' ramène Des choses nous savons, donc j'trainais dans la savane Mais j'stresse un peu moins qu'avant J'veux pas vendre le savon Devant toutes les sommes nous bavons Secrets nous les savons, donc j'raisonne comme un savant Mais avant j'étais solo sans le sous Très jeune espion dans le zoo J'vais faire du sale je peux te le promettre J'ai cette rage dans l'abdomen Tu m'crois pas, c'est ton dos mec Faire du sale, c'est mon domaine Faudrait qu'j'me cop un mili', ce s'rait pas méchant T'es masqué, tant mieux Que ma fougue, qu'elle qu'a pas gé-chan Pourquoi l'diable nous craint-il ? J'comprends pas, dis-moi J'ai la dalle comme si j'avais pas graille d'puis 6 mois Y a des bons, y a des traîtres partout, bébé c'est la life J'veux pas me voir au bout du tunnel, j'peux t'jurer wallay J'guette les bijoux derrière la vitre comme un espion aguerri</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah Ouh J'fais tellement d'couplets à la minute Minute, c'est un sacré bordel dans mes notes Mes notes Je vis cette vie, je fais belek, je ne veux pas voir ms poignets dans les menotts Yeah, yeah, yeah Poto, tous les jours, c'est pareil Pareil, de la carte, on va te rayer Rayer Je dors très peu, je pense à c'que j'ai raté quand je pose ma tête sur l'oreiller Yes L'être-humain, tu sais à quoi il sert ? Sert Moi, je ne sais pas trop, je t'avoue T'avoue Y en a qui se vendent pour faire plus de chiffres mais c'est pas trop mon délire, je t'avoue Délire, je t'avoue Est-ce que y a un Dieu dans le ciel ? Dans le ciel P't-être que j'me sentirais moins solo Moins solo Je suis né avec le cur dans la menace, les pieds dans la merde et la tête sous l'eau Sous l'eau Tu sais qu'l'univers, il t'écoute ? T'écoute Dans la jungle il faut jouer des coudes des coudes Zin, j'écoutais pas trop les cours Les cours, tu vois la lumière ? Elle est courte Courte La Fève il profite de sa jeunesse Jeunesse et de ma carrière, c'est la genèse Genèse Du coup, j'ai ça dans l'sang Dans l'sang, chérie, viens danser Yeah Je ne lui disais pas mais j'ai cramé les factures que ma mère dissimulait J'ai cramé Tu sais, je suis jeune et donc, je n'écoute pas forcément quand on m'dit C'est malin C'est malin, yeah Mets tout le cash dans la mallette La malle, puis elle m'envoie la manette La manette Je suis La Fève donc je suis affamé, frérot, je veux tout l'or de la planète Je veux tout l'or de la planète Je t'ai en doublé dans mon 'phone Mon 'phone, quand je parle, je sais plus comment faire Plus comment faire Je me passe de tes commentaires Commentaires, millionnaire avant qu'on m'enterre Yes, yes Crois en toi, écoute les étoiles Étoiles, le tableau scintille sur la toile La toile Ça va faire dix ans Ça va faire dix ans, La Fève, l'artisan Oh, yeah, yeah You might also like J'fais tellement d'couplets à la minute À la minute, c'est un sacré bordel dans mes notes C'est un sacré bordel dans es notes Je vis cette vie, je fais belek, je ne veux pas voir mes poignets dans les menottes Ouh Poto, tous les jours, c'est pareil Pareil, de la carte, on va te rayer Rayer Je dors très peu, je pense à c'que j'ai raté quand je pose ma tête sur l'oreiller Yes L'être-humain, tu sais à quoi il sert ? Il sert Moi, je ne sais pas trop, je t'avoue Je sais pas trop, je t'avoue Y en a qui se vendent pour faire plus de chiffres mais c'est pas trop mon délire, je t'avoue Délire, je t'avoue Est-ce que y a un Dieu dans le ciel ? Dans le ciel P't-être que j'me sentirais moins solo Moins solo Je suis né avec le cur dans la menace, les pieds dans la merde et la tête sous l'eau Sous l'eau Yeah, yeah, yeah, yeah Ouh Yeah Shee, shee, shee Yeah</t>
+          <t>Yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah Ouh J'fais tellement d'couplets à la minute Minute, c'est un sacré bordel dans mes notes Mes notes Je vis cette vie, je fais belek, je ne veux pas voir ms poignets dans les menotts Yeah, yeah, yeah Poto, tous les jours, c'est pareil Pareil, de la carte, on va te rayer Rayer Je dors très peu, je pense à c'que j'ai raté quand je pose ma tête sur l'oreiller Yes L'être-humain, tu sais à quoi il sert ? Sert Moi, je ne sais pas trop, je t'avoue T'avoue Y en a qui se vendent pour faire plus de chiffres mais c'est pas trop mon délire, je t'avoue Délire, je t'avoue Est-ce que y a un Dieu dans le ciel ? Dans le ciel P't-être que j'me sentirais moins solo Moins solo Je suis né avec le cur dans la menace, les pieds dans la merde et la tête sous l'eau Sous l'eau Tu sais qu'l'univers, il t'écoute ? T'écoute Dans la jungle il faut jouer des coudes des coudes Zin, j'écoutais pas trop les cours Les cours, tu vois la lumière ? Elle est courte Courte La Fève il profite de sa jeunesse Jeunesse et de ma carrière, c'est la genèse Genèse Du coup, j'ai ça dans l'sang Dans l'sang, chérie, viens danser Yeah Je ne lui disais pas mais j'ai cramé les factures que ma mère dissimulait J'ai cramé Tu sais, je suis jeune et donc, je n'écoute pas forcément quand on m'dit C'est malin C'est malin, yeah Mets tout le cash dans la mallette La malle, puis elle m'envoie la manette La manette Je suis La Fève donc je suis affamé, frérot, je veux tout l'or de la planète Je veux tout l'or de la planète Je t'ai en doublé dans mon 'phone Mon 'phone, quand je parle, je sais plus comment faire Plus comment faire Je me passe de tes commentaires Commentaires, millionnaire avant qu'on m'enterre Yes, yes Crois en toi, écoute les étoiles Étoiles, le tableau scintille sur la toile La toile Ça va faire dix ans Ça va faire dix ans, La Fève, l'artisan Oh, yeah, yeah J'fais tellement d'couplets à la minute À la minute, c'est un sacré bordel dans mes notes C'est un sacré bordel dans es notes Je vis cette vie, je fais belek, je ne veux pas voir mes poignets dans les menottes Ouh Poto, tous les jours, c'est pareil Pareil, de la carte, on va te rayer Rayer Je dors très peu, je pense à c'que j'ai raté quand je pose ma tête sur l'oreiller Yes L'être-humain, tu sais à quoi il sert ? Il sert Moi, je ne sais pas trop, je t'avoue Je sais pas trop, je t'avoue Y en a qui se vendent pour faire plus de chiffres mais c'est pas trop mon délire, je t'avoue Délire, je t'avoue Est-ce que y a un Dieu dans le ciel ? Dans le ciel P't-être que j'me sentirais moins solo Moins solo Je suis né avec le cur dans la menace, les pieds dans la merde et la tête sous l'eau Sous l'eau Yeah, yeah, yeah, yeah Ouh Yeah Shee, shee, shee Yeah</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Je m'endors, je veux me réveiller et voir que le cash tombe Je compte pas les anciens qui sont tombés dans les cachetons Mon négro si tu veux le faire il faut que tu le fasses à fond Petit serpent fais gaffe c'est que du salace que mes gars font Je m'endors, je veux me réveiller et voir que le cash tomb Je compte pas les ancins qui sont tombés dans les cachetons Mon négro si tu veux le faire il faut que tu le fasses à fond Petit serpent fais gaffe c'est que du salace que mes gars font On est que des hommes donc bien sur que parfois nous gaffons Moi je veux de l'ice et mon cur il fond comme un glaçon Toi t'es un débile si t'as cru que La Fève il allait mordre à lhameçon Je m'endors je veux me réveiller et voir que le cash tombe Représente les zin, les zines, qui font les bails en soum' en cachette On a du s'faire un chemin, on a du sortir la machette Là je smoke la cali obligé de mettre un encens Je parle plus à cette gadji, tu crois je vais sortir le pansement Mon négro tu trouves pas c'est bizarre les gens ils ont des phases Mon négro c'est le jeu tu sais m'en veux pas si j'te dépasse Là j'suis impatient, je suis trop curieux de voir la suite A la base j'suis ti-gen mais j'me demande il veut quoi là-cui Il veut quoi là-cui Je sais qu'Dieu me suis Donc confiant je suis You might also like Je m'endors, je veux me réveiller et voir que le cash tombe Je compte pas les anciens qui sont tombés dans les cachetons Mon négro si tu veux le faire il faut que tu le fasses à fond Petit serpent fais gaffe c'est que du salace que mes gars font On est que des hommes donc bien sur que parfois nous gaffons Moi je veux de l'ice et mon cur il fond comme un glaçon Toi t'es un débile si t'as cru que La Fève il allait mordre à lhameçon Je m'endors, je veux me réveiller et voir que le cash tombe</t>
+          <t>Je m'endors, je veux me réveiller et voir que le cash tombe Je compte pas les anciens qui sont tombés dans les cachetons Mon négro si tu veux le faire il faut que tu le fasses à fond Petit serpent fais gaffe c'est que du salace que mes gars font Je m'endors, je veux me réveiller et voir que le cash tomb Je compte pas les ancins qui sont tombés dans les cachetons Mon négro si tu veux le faire il faut que tu le fasses à fond Petit serpent fais gaffe c'est que du salace que mes gars font On est que des hommes donc bien sur que parfois nous gaffons Moi je veux de l'ice et mon cur il fond comme un glaçon Toi t'es un débile si t'as cru que La Fève il allait mordre à lhameçon Je m'endors je veux me réveiller et voir que le cash tombe Représente les zin, les zines, qui font les bails en soum' en cachette On a du s'faire un chemin, on a du sortir la machette Là je smoke la cali obligé de mettre un encens Je parle plus à cette gadji, tu crois je vais sortir le pansement Mon négro tu trouves pas c'est bizarre les gens ils ont des phases Mon négro c'est le jeu tu sais m'en veux pas si j'te dépasse Là j'suis impatient, je suis trop curieux de voir la suite A la base j'suis ti-gen mais j'me demande il veut quoi là-cui Il veut quoi là-cui Je sais qu'Dieu me suis Donc confiant je suis Je m'endors, je veux me réveiller et voir que le cash tombe Je compte pas les anciens qui sont tombés dans les cachetons Mon négro si tu veux le faire il faut que tu le fasses à fond Petit serpent fais gaffe c'est que du salace que mes gars font On est que des hommes donc bien sur que parfois nous gaffons Moi je veux de l'ice et mon cur il fond comme un glaçon Toi t'es un débile si t'as cru que La Fève il allait mordre à lhameçon Je m'endors, je veux me réveiller et voir que le cash tombe</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Merde, le 7 c'est ma vie, c'est ma mif' et j'crève si j'les déçois Déçois, j'fais exprès de la descendre J'aime bien mes dessins, j'fais genre tous les jours j'm'aime pas C'est la merde, bats les reins d'être spécial J'm'en fous d'être c'qu'il veut J'en ai marre, j'ai peur de m'montrer J'fume un doobie, la tête dans les cieux J'côtoie les dieux, je suis amusé, hey La nuit je baraude, j'parle de mon futur, j'parle et je marche, hey Le taf c'est une arnaque, y a trop d'injustices brulons les banques Parfois j'ai peur de mourir mais j'aimerais tellement savoir si les Si tu le sais, oui tout pour le 7 La nuit je pleure car la Fève est suspect, merde Et j'aime trop ça, le rap, l'amour j'aime trop ça J'suis seul et J'ai l'seum, j'suis dans le skurt comme d'hab' Donc parfois j'aimerais trouver l'Saint Graal Trouver c'qui m'anime Trouver c'qui va pas chez moi et pourquoi j'en veux aux dieux, merde Aigreur, c'est lourd, ça éclate mes nerfs J'me met à l'aise, tu perds ton ténor Mon cur, j'aime pas tes potes et ta pute m'énerves Donc dans les merveilles tu bégayes tes morts Dans les merveilles tu bégayes tes morts J'connais des gens qui sont morts d'amour les démons veulent omettre les normes Donc ceux qui dirigent sont biens dans les toursYou might also like</t>
+          <t>Merde, le 7 c'est ma vie, c'est ma mif' et j'crève si j'les déçois Déçois, j'fais exprès de la descendre J'aime bien mes dessins, j'fais genre tous les jours j'm'aime pas C'est la merde, bats les reins d'être spécial J'm'en fous d'être c'qu'il veut J'en ai marre, j'ai peur de m'montrer J'fume un doobie, la tête dans les cieux J'côtoie les dieux, je suis amusé, hey La nuit je baraude, j'parle de mon futur, j'parle et je marche, hey Le taf c'est une arnaque, y a trop d'injustices brulons les banques Parfois j'ai peur de mourir mais j'aimerais tellement savoir si les Si tu le sais, oui tout pour le 7 La nuit je pleure car la Fève est suspect, merde Et j'aime trop ça, le rap, l'amour j'aime trop ça J'suis seul et J'ai l'seum, j'suis dans le skurt comme d'hab' Donc parfois j'aimerais trouver l'Saint Graal Trouver c'qui m'anime Trouver c'qui va pas chez moi et pourquoi j'en veux aux dieux, merde Aigreur, c'est lourd, ça éclate mes nerfs J'me met à l'aise, tu perds ton ténor Mon cur, j'aime pas tes potes et ta pute m'énerves Donc dans les merveilles tu bégayes tes morts Dans les merveilles tu bégayes tes morts J'connais des gens qui sont morts d'amour les démons veulent omettre les normes Donc ceux qui dirigent sont biens dans les tours</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Trop paro donc avec toi, y a comme une barrière Des G en loup-garou ils sont prêts à tout pour une carrière On est devant ceux qui parlaient quand on était derrière On est devant ceux qui parlaient quand on était derrière Habitué des regards avec le G, c'est la life C'est mon métier, bien sûr que je suis chaud dans le cypher Des coups bas, y en a eu, ma le-geu, j'étais naïf Des coups bas, y en a eu Avant, LAF, il trainait sur un quatre temps Dis-leur qu'on n'a pas fuck avec Satan Devenir che-ri, ça fait 20 ans que j'attends Si tu, si tu me proposes un plan sous, tu penses j'suis partant ? De cette merde, on en dépendait Cours après rien de lundi à monday J'chantais ça, y a personne qui m'entendait J'ai pas, j'ai pas su prendre ta main quand tu me la tendais Quitter ici, sortir du piège J'aimais cette gadji, elle touche la neige Les mains dans la mierda, depuis ne-jeu Everyday trap shit, y a que ça qui m'allège Il nous faudrait du repos Si tu m'appelles on fait ça pe-pro Moncler jacket, j'suis à propos J'me souviens j'bavais devant quand j'étais vre-pau ERRR, la c'est la même merde Yeah, pourquoi elle m'aime elle ? Trop naïf, j'en ai payé les frais Des âmes s'endorment, faut réveiller les frères You might also like Avec toi, y a comme une barrière Des G en loup-garou ils sont prêts à tout pour une carrière On est devant ceux qui parlaient quand on était derrière On est devant ceux qui parlaient quand on était derrière Habitué des regards avec les G, c'est la life C'est mon métier, bien sûr que je suis chaud dans le cypher Des coups bas, y en a eu, ma le-geu, j'étais naïf Des coups bas, y en a eu Avant, LAF, il trainait sur un quatre temps Dis-leur qu'on n'a pas fuck avec Satan Devenir che-ri, ça fait 20 ans que j'attends Si tu, si tu me proposes un plan sous, tu penses j'suis partant ?</t>
+          <t>Trop paro donc avec toi, y a comme une barrière Des G en loup-garou ils sont prêts à tout pour une carrière On est devant ceux qui parlaient quand on était derrière On est devant ceux qui parlaient quand on était derrière Habitué des regards avec le G, c'est la life C'est mon métier, bien sûr que je suis chaud dans le cypher Des coups bas, y en a eu, ma le-geu, j'étais naïf Des coups bas, y en a eu Avant, LAF, il trainait sur un quatre temps Dis-leur qu'on n'a pas fuck avec Satan Devenir che-ri, ça fait 20 ans que j'attends Si tu, si tu me proposes un plan sous, tu penses j'suis partant ? De cette merde, on en dépendait Cours après rien de lundi à monday J'chantais ça, y a personne qui m'entendait J'ai pas, j'ai pas su prendre ta main quand tu me la tendais Quitter ici, sortir du piège J'aimais cette gadji, elle touche la neige Les mains dans la mierda, depuis ne-jeu Everyday trap shit, y a que ça qui m'allège Il nous faudrait du repos Si tu m'appelles on fait ça pe-pro Moncler jacket, j'suis à propos J'me souviens j'bavais devant quand j'étais vre-pau ERRR, la c'est la même merde Yeah, pourquoi elle m'aime elle ? Trop naïf, j'en ai payé les frais Des âmes s'endorment, faut réveiller les frères Avec toi, y a comme une barrière Des G en loup-garou ils sont prêts à tout pour une carrière On est devant ceux qui parlaient quand on était derrière On est devant ceux qui parlaient quand on était derrière Habitué des regards avec les G, c'est la life C'est mon métier, bien sûr que je suis chaud dans le cypher Des coups bas, y en a eu, ma le-geu, j'étais naïf Des coups bas, y en a eu Avant, LAF, il trainait sur un quatre temps Dis-leur qu'on n'a pas fuck avec Satan Devenir che-ri, ça fait 20 ans que j'attends Si tu, si tu me proposes un plan sous, tu penses j'suis partant ?</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>FREAKEY transforme ta meuf en bitch Yeah, yeah, yeah Un jeune qui en voulait trop, un jeune, un jeune qui voulait blow up Blow up J'en place une pour les anciens et j'mets un peu d'miel dans le syrup Syrup Je trap, c'est comme si je dessinais, j'vais faire du sale, on est destinés Pour ma vie, j'fais confiance au Puissant, j'lui ai fait, c'est pas moi qui décide Yeah M.A.L.O, c'est du solide, ils sont en plastique Han La Fève, Platinum, FREAKEY, Khali plus forts que les Quatre Fantastiques Fuck boy, tu veux m'remplacer ? Travaille tes katas, révise tes classiques Toujours en Nike Air, jamais en Asics, bosser l'plus dur possible, c'est basique J'suis pas dans la drogua, je dis pas C'est dommage YeahMalo a géré l'volume et la tona' Nah Ça fini en cocard, tu fais le tocard Oh nah et quand c'est trop tard, tu fais l'mort Let's, let's goL'esprit dans les nuages, je fais du putain d'ski Yeah, yeah, yeah, je fais du putain d'ski Let's, let's go La descente est raide, sa mère, si ça glisse fort, c'est qu'c'était un putain d'feat Let's, let's go, t'es fou C'est qu'c'était un putain d'feat Yeah-yeah, yeah-yeah, yeah-yeah, yeah-yeah C'était un putain d'feat, mec Yeah, yeah La Fève Yeah, yeah, wesh Malo, yeah-yeah, let's get it Yeah, yeah, yeah, yeah Yeah, yeah Let's get it Frérot, la prod', elle est jazzy, jazzy, j'crois, j'vais faire un fugazi Fugazi Trop d'serpents qui parlent sur moi, ma le-gu', j'les vois en paparazzi Yeah Coup d'tête de Materazzi 'razzi, j'rappe, trap, c'est ma thérapie Rah Pas d'talent particulier zin, mais j'vais faire ce cash en rapide Yeah, yeah, rapide Même avec du rhum dedans, j'ai le sang glacé La vie est méchante, mes gars sont fâchés, silencieux, vissé, j'shoot sans flashé Piouh-piouh-piouh-piouh Yeah, ceux qui m'ont trahi sont tous dans l'passé J'roulais un gros, j'ai pas b'soin d'le tasser, j'suis toujours focus, j'suis toujours blasé J'ai des pensées bizarres, reste pas collé à moi, le brouillard en face me fait tourner à droite Regarde-moi chercher les sous où y a moy', papa a vu Disney en passant la douane Focus, attention aux thotihanas, les problèmes, tu les cherches ou de base, tu en as Sous ce toit, j'en ai coffré des tracks, racks on aura, en fuyant la trap You might also like1</t>
+          <t>FREAKEY transforme ta meuf en bitch Yeah, yeah, yeah Un jeune qui en voulait trop, un jeune, un jeune qui voulait blow up Blow up J'en place une pour les anciens et j'mets un peu d'miel dans le syrup Syrup Je trap, c'est comme si je dessinais, j'vais faire du sale, on est destinés Pour ma vie, j'fais confiance au Puissant, j'lui ai fait, c'est pas moi qui décide Yeah M.A.L.O, c'est du solide, ils sont en plastique Han La Fève, Platinum, FREAKEY, Khali plus forts que les Quatre Fantastiques Fuck boy, tu veux m'remplacer ? Travaille tes katas, révise tes classiques Toujours en Nike Air, jamais en Asics, bosser l'plus dur possible, c'est basique J'suis pas dans la drogua, je dis pas C'est dommage YeahMalo a géré l'volume et la tona' Nah Ça fini en cocard, tu fais le tocard Oh nah et quand c'est trop tard, tu fais l'mort Let's, let's goL'esprit dans les nuages, je fais du putain d'ski Yeah, yeah, yeah, je fais du putain d'ski Let's, let's go La descente est raide, sa mère, si ça glisse fort, c'est qu'c'était un putain d'feat Let's, let's go, t'es fou C'est qu'c'était un putain d'feat Yeah-yeah, yeah-yeah, yeah-yeah, yeah-yeah C'était un putain d'feat, mec Yeah, yeah La Fève Yeah, yeah, wesh Malo, yeah-yeah, let's get it Yeah, yeah, yeah, yeah Yeah, yeah Let's get it Frérot, la prod', elle est jazzy, jazzy, j'crois, j'vais faire un fugazi Fugazi Trop d'serpents qui parlent sur moi, ma le-gu', j'les vois en paparazzi Yeah Coup d'tête de Materazzi 'razzi, j'rappe, trap, c'est ma thérapie Rah Pas d'talent particulier zin, mais j'vais faire ce cash en rapide Yeah, yeah, rapide Même avec du rhum dedans, j'ai le sang glacé La vie est méchante, mes gars sont fâchés, silencieux, vissé, j'shoot sans flashé Piouh-piouh-piouh-piouh Yeah, ceux qui m'ont trahi sont tous dans l'passé J'roulais un gros, j'ai pas b'soin d'le tasser, j'suis toujours focus, j'suis toujours blasé J'ai des pensées bizarres, reste pas collé à moi, le brouillard en face me fait tourner à droite Regarde-moi chercher les sous où y a moy', papa a vu Disney en passant la douane Focus, attention aux thotihanas, les problèmes, tu les cherches ou de base, tu en as Sous ce toit, j'en ai coffré des tracks, racks on aura, en fuyant la trap 1</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Baby veut que j'passe la voir dans la night Baby veut que j'passe la voir dans la night Cet été, j'ai pas les sous pour voir la playa Cet été, j'ai pas les sous pour voir la playa Baby veut que j'passe la voir dans la night Baby veut que j'passe la voir dans la night Cet été, j'ai pas les sous pour voir la playa Cet été, j'ai pas les sous pour voir la playa T'es mauvaise, jeune dans un mauvais neighborhood Je cherchais du sweet charm mais ils étaient où là ? Jeune espion qui est resté caché sous le foulard ERRR Il est triste, tendu, j'crois qu'il fait as-p le fou là ERRR On a connu les tes-traî, les abendons Excusez nos déchets nous demandons Baby veut que j'passe la voir sans mon cordon G j'peux tout laisser pour un plavon qui sent bon Y a que Kosei qui me fait danser la samba Samba On essaye de pas y croire avant qu'on s'emballe Qu'on s'emballe P'tit con, tu croyais mais on se ressemble pas Hey J'ai faim, j'me dis que j'pourrais p't-être signer pour 100K Hey J'ai dit Oui à cette gadji qui me rend bête Me rend bête J'ai pas l'temps, j'ai beaucoup trop d'choses dans la tête Tête J'ai pas l'temps, j'ai beaucoup trop d'choses dans la tête Tête You might also like Baby veut que j'passe la voir dans la night Baby veut que j'passe la voir dans la night Cet été, j'ai pas les sous pour voir la playa Cet été, j'ai pas les sous pour voir la playa Baby veut que j'passe la voir dans la night Baby veut que j'passe la voir dans la night Cet été, j'ai pas les sous pour voir la playa Cet été, j'ai pas les sous pour voir la playa</t>
+          <t>Baby veut que j'passe la voir dans la night Baby veut que j'passe la voir dans la night Cet été, j'ai pas les sous pour voir la playa Cet été, j'ai pas les sous pour voir la playa Baby veut que j'passe la voir dans la night Baby veut que j'passe la voir dans la night Cet été, j'ai pas les sous pour voir la playa Cet été, j'ai pas les sous pour voir la playa T'es mauvaise, jeune dans un mauvais neighborhood Je cherchais du sweet charm mais ils étaient où là ? Jeune espion qui est resté caché sous le foulard ERRR Il est triste, tendu, j'crois qu'il fait as-p le fou là ERRR On a connu les tes-traî, les abendons Excusez nos déchets nous demandons Baby veut que j'passe la voir sans mon cordon G j'peux tout laisser pour un plavon qui sent bon Y a que Kosei qui me fait danser la samba Samba On essaye de pas y croire avant qu'on s'emballe Qu'on s'emballe P'tit con, tu croyais mais on se ressemble pas Hey J'ai faim, j'me dis que j'pourrais p't-être signer pour 100K Hey J'ai dit Oui à cette gadji qui me rend bête Me rend bête J'ai pas l'temps, j'ai beaucoup trop d'choses dans la tête Tête J'ai pas l'temps, j'ai beaucoup trop d'choses dans la tête Tête Baby veut que j'passe la voir dans la night Baby veut que j'passe la voir dans la night Cet été, j'ai pas les sous pour voir la playa Cet été, j'ai pas les sous pour voir la playa Baby veut que j'passe la voir dans la night Baby veut que j'passe la voir dans la night Cet été, j'ai pas les sous pour voir la playa Cet été, j'ai pas les sous pour voir la playa</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>J'ai gardé mon pant pant Err, err, ouais, yes FREAKEY! Yeah, yeah, yeah ha J'ai gardé mon pant, donc dis-moi pourquoi ils sont tous sur ma bite Bien sûr que j'ai vu qu'ils louchent tous sur ma bitch Jsuis jnouné, je sais pas quel démon m'habite Chef, mets-moi la viande la plus chère de la carte J'me regarde dans la glace j'pense aux gueushs de la gare Parfois on s'enlace parfois on se bagarre, yes Faire le sale, on est chauds dans ça Hustle hustle on est chauds dans ça Business jamais on n'échoue dans ça Que des G dans le vaisseau mère Rien à foutre, j'reste visionnaire Nouveau nèg' libre millionaire, nouveau nèg' libre millionaire FREAKEY! Ma maman veut 10K, le concert à 10K je l'offre à cette bitch mais cette bitch veut ma dick-ah J'suis so radical avec le syndicat Le plav' est mort, du coup ma legueu ça dit quoi? J'suis plutôt efficace, dans le stud' Nonchalant, futuriste, dans le style Y a mon vécu, mes états d'âme, dans le stylo J'écris ça, je pleure, je pars, j'tue le stick Ouais mon reuf, on évolue, on est connus Y a l'argent, la santé, c'est un bonus Ils ont peur, j'crois ils veulent appeler l'ONU Gros gamos, j'regarde pas si ça pollue Ma legueu j'ai tout vu, ouais j'ai tout vu J'crois qu'un dieu m'a laissé au dépourvu J'étais jeune appauvri dans une chienne de vie, le sheitan voulait pas ton avis, on a couru FREAKEY! Yeah You might also like J'ai gardé mon pant, donc dis-moi pourquoi ils sont tous sur ma bite Bien sûr que j'ai vu qu'ils louchent tous sur ma bitch Jsuis jnouné, je sais pas quel démon m'habite Chef, mets-moi la viande la plus chère de la carte J'me regarde dans la glace j'pense aux gueushs de la gare Parfois on s'enlace parfois on se bagarre, yes Faire le sale, on est chauds dans ça Hustle, hustle on est dans chauds dans ça Business jamais on n'échoue dans ça Que des G dans le vaisseau mère Rien à foutre, j'reste visionnaire Nouveau nèg' libre millionaire, nouveau nèg' libre millionaire FREAKEY!3</t>
+          <t>J'ai gardé mon pant pant Err, err, ouais, yes FREAKEY! Yeah, yeah, yeah ha J'ai gardé mon pant, donc dis-moi pourquoi ils sont tous sur ma bite Bien sûr que j'ai vu qu'ils louchent tous sur ma bitch Jsuis jnouné, je sais pas quel démon m'habite Chef, mets-moi la viande la plus chère de la carte J'me regarde dans la glace j'pense aux gueushs de la gare Parfois on s'enlace parfois on se bagarre, yes Faire le sale, on est chauds dans ça Hustle hustle on est chauds dans ça Business jamais on n'échoue dans ça Que des G dans le vaisseau mère Rien à foutre, j'reste visionnaire Nouveau nèg' libre millionaire, nouveau nèg' libre millionaire FREAKEY! Ma maman veut 10K, le concert à 10K je l'offre à cette bitch mais cette bitch veut ma dick-ah J'suis so radical avec le syndicat Le plav' est mort, du coup ma legueu ça dit quoi? J'suis plutôt efficace, dans le stud' Nonchalant, futuriste, dans le style Y a mon vécu, mes états d'âme, dans le stylo J'écris ça, je pleure, je pars, j'tue le stick Ouais mon reuf, on évolue, on est connus Y a l'argent, la santé, c'est un bonus Ils ont peur, j'crois ils veulent appeler l'ONU Gros gamos, j'regarde pas si ça pollue Ma legueu j'ai tout vu, ouais j'ai tout vu J'crois qu'un dieu m'a laissé au dépourvu J'étais jeune appauvri dans une chienne de vie, le sheitan voulait pas ton avis, on a couru FREAKEY! Yeah J'ai gardé mon pant, donc dis-moi pourquoi ils sont tous sur ma bite Bien sûr que j'ai vu qu'ils louchent tous sur ma bitch Jsuis jnouné, je sais pas quel démon m'habite Chef, mets-moi la viande la plus chère de la carte J'me regarde dans la glace j'pense aux gueushs de la gare Parfois on s'enlace parfois on se bagarre, yes Faire le sale, on est chauds dans ça Hustle, hustle on est dans chauds dans ça Business jamais on n'échoue dans ça Que des G dans le vaisseau mère Rien à foutre, j'reste visionnaire Nouveau nèg' libre millionaire, nouveau nèg' libre millionaire FREAKEY!3</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Hey, hey Heya Fève du 7op Fève du 7op L'équipe du siècle L'équipe du siècle J'ai mon escorte J'ai mon escorte Huit sur la scène Fève du 7op Yeah Shit dans l'ulcère Shit dans l'ulcère J'ride en vitres teintées Teintées Donc maman t'inquiètes pas Fève du 7op Fève du 7op L'équipe du siècle L'équipe du siècle J'ai mon escorte J'ai mon escorte Huit sur la scène Fève du 7op Yeah Shit dans l'ulcère Shit dans l'ulcère J'ride en vitres teintées Teintées Donc maman t'inquiètes pas J'fais des gimmicks, pas des belles proses J'ai des soucis et des blème-pros Y a des enculés qui voulaient s'en tirer maintenant qu'j'suis revenu j'vois qu'ils m'aiment trop Tevan junior pour la décennie Tu connais l'adresse et La Fève c'est mieux que les balivernes que les gadjis kiffent Parce quelles aiment pas quand La Fève crache le feu Elles aiment pas La Fève tout court, elles Préfèrent quand c'est tout lisse J'ai finis d'marcher, tout roule maintenant moi j'vais chasser les bleues J'pécho pas des meuj de blanche J'suis dans la meute j'avance J'veux d'l'oseille, pas d'la chance J'suis pas dans la vente de chanvre J'performe que quand j'ai pas la mise J't'ai vu chouffer donc fais pas l'ami Des coups d'couteaux pour d'la kétamine Belek a toi si j'tai dans le viseur J'ai peur car très grosse est la mise Pour qu'un jour moins grosse soit la misère Et on t'apprend pas ca dans les livres, que la passion fait passer l'hiver You might also like Fève du 7op Fève du 7op L'équipe du siècle L'équipe du siècle J'ai mon escorte J'ai mon escorte Huit sur la scène Yeah Fève du 7op Shit dans l'ulcère Shit dans l'ulcère J'ride en vitres teintées Teintées Donc maman t'inquiètes pas Fève du 7op Fève du 7op L'équipe du siècle L'équipe du siècle J'ai mon escorte J'ai mon escorte Huit sur la scène Fève du 7op Yeah Shit dans l'ulcère Shit dans l'ulcère J'ride en vitres teintées Donc maman t'inquiètes pas Un p'tit cadeau pour les rookies J'pécho a Brooklyn trop d'énergie, impossible que j'aille bouquiner Faut qu'j'trouve un bout d'shit J'passe à la boutique J'ai la maitrise t'es halluciné Pour des seudi ils t'caressent les glaouis ces bâtards ils t'regardent en banalisé La mort fait les yeux doux a ceux qu'ils ont pris j'ai des potos qu'j'revois ils sont matrixé J'suis la Fève du 7 Si j'le répète c'est parce que c'est mon seul bijoux Des écrasements d'tête Sur la Rue Abel-Ferry, vers la Porte de Saint-Cloud Empereur pas clown Pour le coffre j'ai la clé donc Mets ton manteau on décale Quatre flow en un pour la com Moi j'suis Fève du 7op Fève du 7op L'équipe du siècle L'équipe du siècle J'ai mon escorte J'ai mon escorte Huit sur la scène Yeah Fève du 7op Yeah Shit dans l'ulcère Shit dans l'ulcère J'ride en vitres teintées Teintées Donc maman t'inquiètes pas Fève du 7op Fève du 7op L'équipe du siècle L'équipe du siècle J'ai mon escorte Huit sur la scène Fève du 7op Yeah Shit dans l'ulcère Shit dans l'ulcère J'ride en vitres teintées Donc maman t'inquiètes pas</t>
+          <t>Hey, hey Heya Fève du 7op Fève du 7op L'équipe du siècle L'équipe du siècle J'ai mon escorte J'ai mon escorte Huit sur la scène Fève du 7op Yeah Shit dans l'ulcère Shit dans l'ulcère J'ride en vitres teintées Teintées Donc maman t'inquiètes pas Fève du 7op Fève du 7op L'équipe du siècle L'équipe du siècle J'ai mon escorte J'ai mon escorte Huit sur la scène Fève du 7op Yeah Shit dans l'ulcère Shit dans l'ulcère J'ride en vitres teintées Teintées Donc maman t'inquiètes pas J'fais des gimmicks, pas des belles proses J'ai des soucis et des blème-pros Y a des enculés qui voulaient s'en tirer maintenant qu'j'suis revenu j'vois qu'ils m'aiment trop Tevan junior pour la décennie Tu connais l'adresse et La Fève c'est mieux que les balivernes que les gadjis kiffent Parce quelles aiment pas quand La Fève crache le feu Elles aiment pas La Fève tout court, elles Préfèrent quand c'est tout lisse J'ai finis d'marcher, tout roule maintenant moi j'vais chasser les bleues J'pécho pas des meuj de blanche J'suis dans la meute j'avance J'veux d'l'oseille, pas d'la chance J'suis pas dans la vente de chanvre J'performe que quand j'ai pas la mise J't'ai vu chouffer donc fais pas l'ami Des coups d'couteaux pour d'la kétamine Belek a toi si j'tai dans le viseur J'ai peur car très grosse est la mise Pour qu'un jour moins grosse soit la misère Et on t'apprend pas ca dans les livres, que la passion fait passer l'hiver Fève du 7op Fève du 7op L'équipe du siècle L'équipe du siècle J'ai mon escorte J'ai mon escorte Huit sur la scène Yeah Fève du 7op Shit dans l'ulcère Shit dans l'ulcère J'ride en vitres teintées Teintées Donc maman t'inquiètes pas Fève du 7op Fève du 7op L'équipe du siècle L'équipe du siècle J'ai mon escorte J'ai mon escorte Huit sur la scène Fève du 7op Yeah Shit dans l'ulcère Shit dans l'ulcère J'ride en vitres teintées Donc maman t'inquiètes pas Un p'tit cadeau pour les rookies J'pécho a Brooklyn trop d'énergie, impossible que j'aille bouquiner Faut qu'j'trouve un bout d'shit J'passe à la boutique J'ai la maitrise t'es halluciné Pour des seudi ils t'caressent les glaouis ces bâtards ils t'regardent en banalisé La mort fait les yeux doux a ceux qu'ils ont pris j'ai des potos qu'j'revois ils sont matrixé J'suis la Fève du 7 Si j'le répète c'est parce que c'est mon seul bijoux Des écrasements d'tête Sur la Rue Abel-Ferry, vers la Porte de Saint-Cloud Empereur pas clown Pour le coffre j'ai la clé donc Mets ton manteau on décale Quatre flow en un pour la com Moi j'suis Fève du 7op Fève du 7op L'équipe du siècle L'équipe du siècle J'ai mon escorte J'ai mon escorte Huit sur la scène Yeah Fève du 7op Yeah Shit dans l'ulcère Shit dans l'ulcère J'ride en vitres teintées Teintées Donc maman t'inquiètes pas Fève du 7op Fève du 7op L'équipe du siècle L'équipe du siècle J'ai mon escorte Huit sur la scène Fève du 7op Yeah Shit dans l'ulcère Shit dans l'ulcère J'ride en vitres teintées Donc maman t'inquiètes pas</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Celui qui me fera taire il est pas né Traine dans la ville avec les damnés Pourquoi tout ce que j'aime ça se fane ? Ok mon khey le regard des gens vaut des rêves Ok mon khey tant d'années gachés dans l'arène yeahh Mais qui appuie sur la gâchette Quand les démons de la mort t'achètent La fève veut monter les étages Mon fiston ici tout s'achète Et j'augmente le taro Tu connais La fève il est paro J'ouvr la main j'léchouille la garo Yeah mais combien d plans on a gâché LaF il aime trop se voir en cachette Y'en a qui commencent dans les cachets Tu connais ma mère est agacé De voir que son fils aie la passion Prend du temps pour passer à l'action Traine dans la ville avec la faction Yeah ok Yeah ok Record ça comme un imbécile Pour ma sentence je suis indécis Je connais ma faiblesse le désirs On veux la chaleur, l'ambiance des iles La douceur de vivre de Monaco On veut monter sur le magot Écoute mon reuf jeune laF veut le monde entier Ma ville je veut pas me contenter Elle rentre un peu dans ma routine Elle ressort épouvantée J'me passe de ces commentaires Tu crois qu'j'sais pas comment faire Moi j'cherche que la vérité Ma quête j'y crois dur comme fer You might also likeMais qui m'a menti ici Mais qui m'a menti ici Mais qui m'a menti Mais qui m'a menti ici Ok mon khey avec les démons danse la valse Mais qui avale ça, la fève s'ra en haut et ça va de soi Mais qui m'a menti Mais qui m'a menti ici Mais qui m'a menti Mais qui m'a menti ici Ok mon khey avec les démons danse la valse Mais qui avale ça, la fève s'ra en haut et ça va de soi</t>
+          <t>Celui qui me fera taire il est pas né Traine dans la ville avec les damnés Pourquoi tout ce que j'aime ça se fane ? Ok mon khey le regard des gens vaut des rêves Ok mon khey tant d'années gachés dans l'arène yeahh Mais qui appuie sur la gâchette Quand les démons de la mort t'achètent La fève veut monter les étages Mon fiston ici tout s'achète Et j'augmente le taro Tu connais La fève il est paro J'ouvr la main j'léchouille la garo Yeah mais combien d plans on a gâché LaF il aime trop se voir en cachette Y'en a qui commencent dans les cachets Tu connais ma mère est agacé De voir que son fils aie la passion Prend du temps pour passer à l'action Traine dans la ville avec la faction Yeah ok Yeah ok Record ça comme un imbécile Pour ma sentence je suis indécis Je connais ma faiblesse le désirs On veux la chaleur, l'ambiance des iles La douceur de vivre de Monaco On veut monter sur le magot Écoute mon reuf jeune laF veut le monde entier Ma ville je veut pas me contenter Elle rentre un peu dans ma routine Elle ressort épouvantée J'me passe de ces commentaires Tu crois qu'j'sais pas comment faire Moi j'cherche que la vérité Ma quête j'y crois dur comme fer Mais qui m'a menti ici Mais qui m'a menti ici Mais qui m'a menti Mais qui m'a menti ici Ok mon khey avec les démons danse la valse Mais qui avale ça, la fève s'ra en haut et ça va de soi Mais qui m'a menti Mais qui m'a menti ici Mais qui m'a menti Mais qui m'a menti ici Ok mon khey avec les démons danse la valse Mais qui avale ça, la fève s'ra en haut et ça va de soi</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Il y a ce serpent qui m'écure 'cure, pas de casquette, pas de make-up ERRR Pense à cette galère à pas d'heure Pas d'heure, des carottes, y en aura pas deux Eh, eh L.A.F.E.V, sept, Walone FREAKEY! FREAKEY! Let's go Il y a ce serpent qui m'écure 'cure, pas de casquette, pas de make-up ERRR Pense à cette galère il faut qu'j'arrête Qu'j'arrête Il faut qu'j'bicrave l'EP comme la barrette ERRR Le flow, il est mystique, je vois le bas mais y a peu de vrais ici Y a peu de vrais ici J'arrive comme le missile, négro, j'lache le couplet comme un homicide Eh, eh Yes, toi tu veux parler de moi, tu devrais t'occuper d'ton goal Yes, elle aimerait en savoir plus mais la ville est froide comme les pôles ERRR Le son, il est nouveau Nouveau, milliers de racks on vaut Racks T'as capté l'équipe, on est les prochains, YMCMB OVO Eh, eh Mauvais jeune instable, toi tu fais l'aimable L'aimable avec moi Mais j'sais que si j'me retourne, toi tu lèves ton arme Ton arme Lâche le mic', imbécile Imbécile, t'as un plav', tu m'fais signe ERRR Side bitch, baby maman Maman, LAF, il est indécis Eh, eh À base de ok, de let's go, tour du monde, roulette, me parle pas de baseball baseball Là-bas, y a des escrocs, moi, j'voulais savoir pourquoi tu me testes, gros ? Testes, gros Des trains d'vie de lascar, cette voix me dit Faut qu'j'me pète au Nebraska Nebraska Faut qu'j'remonte la cascade, autour du cou, j'ai ce ice qui vaut qu'15K Eh, eh You might also like Il y a ce serpent qui m'écure 'cure, pas de casquette, pas de make-up ERRR Pense à cette galère à pas d'heure, des carottes, y en aura pas deux Eh, eh Pas de casquette, pas de make-up ERRR Pense à cette galère il faut qu'j'arrête Qu'j'arrête Il faut qu'j'bicrave l'EP comme la barrette Eh, eh, ERRR</t>
+          <t>Il y a ce serpent qui m'écure 'cure, pas de casquette, pas de make-up ERRR Pense à cette galère à pas d'heure Pas d'heure, des carottes, y en aura pas deux Eh, eh L.A.F.E.V, sept, Walone FREAKEY! FREAKEY! Let's go Il y a ce serpent qui m'écure 'cure, pas de casquette, pas de make-up ERRR Pense à cette galère il faut qu'j'arrête Qu'j'arrête Il faut qu'j'bicrave l'EP comme la barrette ERRR Le flow, il est mystique, je vois le bas mais y a peu de vrais ici Y a peu de vrais ici J'arrive comme le missile, négro, j'lache le couplet comme un homicide Eh, eh Yes, toi tu veux parler de moi, tu devrais t'occuper d'ton goal Yes, elle aimerait en savoir plus mais la ville est froide comme les pôles ERRR Le son, il est nouveau Nouveau, milliers de racks on vaut Racks T'as capté l'équipe, on est les prochains, YMCMB OVO Eh, eh Mauvais jeune instable, toi tu fais l'aimable L'aimable avec moi Mais j'sais que si j'me retourne, toi tu lèves ton arme Ton arme Lâche le mic', imbécile Imbécile, t'as un plav', tu m'fais signe ERRR Side bitch, baby maman Maman, LAF, il est indécis Eh, eh À base de ok, de let's go, tour du monde, roulette, me parle pas de baseball baseball Là-bas, y a des escrocs, moi, j'voulais savoir pourquoi tu me testes, gros ? Testes, gros Des trains d'vie de lascar, cette voix me dit Faut qu'j'me pète au Nebraska Nebraska Faut qu'j'remonte la cascade, autour du cou, j'ai ce ice qui vaut qu'15K Eh, eh Il y a ce serpent qui m'écure 'cure, pas de casquette, pas de make-up ERRR Pense à cette galère à pas d'heure, des carottes, y en aura pas deux Eh, eh Pas de casquette, pas de make-up ERRR Pense à cette galère il faut qu'j'arrête Qu'j'arrête Il faut qu'j'bicrave l'EP comme la barrette Eh, eh, ERRR</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>No snake No snake No snake No snake No snake No snake No snake No snake No snake Va la bas serpent La haine me sert tant Sur la scène on est septante Me touche pas avec ton venin Gros ces gars c'est des haineux Je sais qu'j'ai de la veine Y'a pas d'ça dans mes veines No snake Poto mon ego est grave tenace Ca sent le roussi on s'barre de là Merci pour la ce-for ça part de là Gros j'apprécie mon département Fais gaffe si ton entourage te mens Je n'pourrais pas supporter l'idée qu'il y ait déjà eu des snakes dans l'appartement No snake Pharaon comme Méphisto Chez nous c'est no snake fiston C'est pas pour trahir que nous existons Tu les vois à leur attitude Je l'espionne donc j'ai l'habitude Je prends mes jumelles pour les voir de loin j'vais là haut j'prends de l'altitude No snake Trop chaud faut call la police Viens la despi ma poule Bientôt on s'pète à Napoli Ce jeune il est trop impoli L'espion récupère le colis Je pense à tous ces snakes Et le soleil s'lève sur la colline You might also like No snake No snake No snake No snake No snake No snake No snake No snake No snake Chez nous c'est no snake No snake Chez nous c'est no snake No snake, no No snake No snake, no</t>
+          <t>No snake No snake No snake No snake No snake No snake No snake No snake No snake Va la bas serpent La haine me sert tant Sur la scène on est septante Me touche pas avec ton venin Gros ces gars c'est des haineux Je sais qu'j'ai de la veine Y'a pas d'ça dans mes veines No snake Poto mon ego est grave tenace Ca sent le roussi on s'barre de là Merci pour la ce-for ça part de là Gros j'apprécie mon département Fais gaffe si ton entourage te mens Je n'pourrais pas supporter l'idée qu'il y ait déjà eu des snakes dans l'appartement No snake Pharaon comme Méphisto Chez nous c'est no snake fiston C'est pas pour trahir que nous existons Tu les vois à leur attitude Je l'espionne donc j'ai l'habitude Je prends mes jumelles pour les voir de loin j'vais là haut j'prends de l'altitude No snake Trop chaud faut call la police Viens la despi ma poule Bientôt on s'pète à Napoli Ce jeune il est trop impoli L'espion récupère le colis Je pense à tous ces snakes Et le soleil s'lève sur la colline No snake No snake No snake No snake No snake No snake No snake No snake No snake Chez nous c'est no snake No snake Chez nous c'est no snake No snake, no No snake No snake, no</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>J'men bats les couilles de c'rap de merde, moi j'voulais juste vivre de mon art Il est juste né dans un confort, ce bâtard parle comme un monarque Jamais j'ai fais l'BDG mais j'vais chercher une baddie à CDG Mama s'inquiétait, j'partais sobre et j'revenais éméché Jai une vie de merde, j'enchaine les pertes et j'achète pour combler le manque Tu veux capter La Fève, j'suis là, ça dépnd qui le demande La vill se décompose, même si le maire fait son maximum C'est plus comme avant, nan, c'est plus comme avant J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'm'en bats les couilles de c'rap de merde, j'suis pas là pour m'faire des amis Tu sais, chaque carotte que t'as pris, c'est toujours un proche qui t'l'a mise Si tu m'vises, fais pas semblant pas semblant, vas-y tire Jsais quces bâtards, il m'aimeront quand jserais sous terre Jveux une playa de galets, cette traplife me fatigue J'suis jnouné, et rallé, là j'désape une fille facile J'ai fait tout c'qu'il fallait, les bâtons, les galères J'ai l'respect car maintenant il a grandit mon salaire You might also like J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'm'en bats les couilles de c'rap de merde, j'sais qu'il va pas nous faire changer J'men bats les couilles de c'rap de merde, j'sais qu'il va pas nous faire changer Les guet-apens ça forge un homme, maintenant j'sais flairer le danger C'est le blues du jeune espion du jeune espion, du jeune espion Au ballon, il compte les secondes, parfois les heures La guitare rappelle le sable chaud, dans le désert Pour oublier, l'idiot fume un teh de lavande J'ai tout sifflé, jsuis dans la misère comme avant comme avant Eh, comme avant J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique</t>
+          <t>J'men bats les couilles de c'rap de merde, moi j'voulais juste vivre de mon art Il est juste né dans un confort, ce bâtard parle comme un monarque Jamais j'ai fais l'BDG mais j'vais chercher une baddie à CDG Mama s'inquiétait, j'partais sobre et j'revenais éméché Jai une vie de merde, j'enchaine les pertes et j'achète pour combler le manque Tu veux capter La Fève, j'suis là, ça dépnd qui le demande La vill se décompose, même si le maire fait son maximum C'est plus comme avant, nan, c'est plus comme avant J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'm'en bats les couilles de c'rap de merde, j'suis pas là pour m'faire des amis Tu sais, chaque carotte que t'as pris, c'est toujours un proche qui t'l'a mise Si tu m'vises, fais pas semblant pas semblant, vas-y tire Jsais quces bâtards, il m'aimeront quand jserais sous terre Jveux une playa de galets, cette traplife me fatigue J'suis jnouné, et rallé, là j'désape une fille facile J'ai fait tout c'qu'il fallait, les bâtons, les galères J'ai l'respect car maintenant il a grandit mon salaire J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'm'en bats les couilles de c'rap de merde, j'sais qu'il va pas nous faire changer J'men bats les couilles de c'rap de merde, j'sais qu'il va pas nous faire changer Les guet-apens ça forge un homme, maintenant j'sais flairer le danger C'est le blues du jeune espion du jeune espion, du jeune espion Au ballon, il compte les secondes, parfois les heures La guitare rappelle le sable chaud, dans le désert Pour oublier, l'idiot fume un teh de lavande J'ai tout sifflé, jsuis dans la misère comme avant comme avant Eh, comme avant J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique J'dis pas qu'c'est mieux là mais mes souvenirs me rendent nostalgique</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Yeah, Yeah, Yeah, Yeah Yeeshy Toi, t'es l'rappeur timide Let's go, c'est ma gimmick Au micro t'es timide La musique c'est intimiste J'en donne 24 comme le carats Yeeshy qu'est c'que t'as encore fait Frero la prod elle est corsée Dans le brouillard il s'égara Vite, G, Boss De quoi me remplir le ventre now Elle me dit please j'ai dit not now Pas maintenant Je vais là où le diable m'attend Je fais des sauts de bon matin Toi on t'oublie comme le latin A la tienne Trop d'gens sont déguisés Le dimanche j'suis à l'église Mon lexique il est aiguisé Toi t'es resté figé J't'ai fait écouter t'étais figé Tu parles sur moi je m'en fiche Tu tournes en rond comme le fish You might also like Toi, t'es l'rappeur timide Let's go, c'est ma gimmick Au micro t'es timide La musique c'est intimiste J'en donne 24 comme le carats Yeeshy qu'est c'que t'as encore fait Frero la prod elle est corsée Dans le brouillard il s'égara</t>
+          <t>Yeah, Yeah, Yeah, Yeah Yeeshy Toi, t'es l'rappeur timide Let's go, c'est ma gimmick Au micro t'es timide La musique c'est intimiste J'en donne 24 comme le carats Yeeshy qu'est c'que t'as encore fait Frero la prod elle est corsée Dans le brouillard il s'égara Vite, G, Boss De quoi me remplir le ventre now Elle me dit please j'ai dit not now Pas maintenant Je vais là où le diable m'attend Je fais des sauts de bon matin Toi on t'oublie comme le latin A la tienne Trop d'gens sont déguisés Le dimanche j'suis à l'église Mon lexique il est aiguisé Toi t'es resté figé J't'ai fait écouter t'étais figé Tu parles sur moi je m'en fiche Tu tournes en rond comme le fish Toi, t'es l'rappeur timide Let's go, c'est ma gimmick Au micro t'es timide La musique c'est intimiste J'en donne 24 comme le carats Yeeshy qu'est c'que t'as encore fait Frero la prod elle est corsée Dans le brouillard il s'égara</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>J'suis dans la gova, j'écoute à fond radio Nova yeah Studio en sauna, met pas tes pieds sur le sofa yeah Ne t'inquiète pas j'ai les gâchettes oh oui Et y a deux-trois écrans à la son-mai, j'le fais à fond et pas à la journée, si t'as cru nous décourager, tu t'es trompé J'suis dans la gova, j'écoute à fond radio Nova yeah Studio en sauna, met pas tes pieds sur le sofa yeah Ne t'inquiète pas j'ai les gâchettes oh oui Et y a deux-trois écrans à la son-mai, j'le fais à fond et pas à la journée, si t'as cru nous décourager, tu t'es trompé Là pour le combat, si t'es pas bien on te sauvera J'évite les coups bas, si c'est toxique moi j'écoute pas Si c'est méchant moi j'l'ai pas fait, j'buvais de l'eau dans des sachets So BX, so Flagey J'fais genre j'suis surpris mais au fond j'le savais han yuh So tous ceux qui font un peu d'sport, prochaine rentrée, j'prends mes cachés et j'évite les mauvais sorts han Compte la dope, consomme à fond la co Là j'suis en tye dye so les Masai et là, la prod j'la cuis à l'eau À toute vitesse sous la pression, j'crois j'suis à fond, j'ai l'impression yeah Ça tise à mort à la pression, j'crois j'suis le seul qui voit clair dans la session J'remets des bases dans le caisson yeah, j'aime bien quand ça fait des frissons yeah, s'il fait froid c'est ma saison yeah, y a pas d'chauffage dans la maison yeah J'suis dans la gova, j'écoute à fond radio Nova yeah Studio en sauna, met pas tes pieds sur le sofa yeah Ne t'inquiète pas j'ai les gâchettes oh oui Et y a deux-trois écrans à la son-mai, j'le fais à fond et pas à la journée, si t'as cru nous décourager, tu t'es trompé J'suis dans la gova, j'écoute à fond radio Nova yeah Studio en sauna, met pas tes pieds sur le sofa yeah Ne t'inquiète pas j'ai les gâchettes oh oui Et y a deux-trois écrans à la son-mai, j'le fais à fond et pas à la journée, si t'as cru nous décourager, tu t'es trompé You might also like Tu t'es trompé, t'approche pas trop près J'ai des flash-backs quand elle mangeait ma trompe Bout de pilon, il est gros comme le tronc Je fais des choix mais jamais je me trompe Depuis petit cours après un idéal Ce con me demande des conseils sur sa D.A Comme le Don, faut jamais lâcher c'steak Maintenant je vois que ma carrière c'est le départ J'suis dans la gov' gov' Te-ma elle veut quoi la go go Je peux faire des hits à gogo J'suis un espion comme le Gogo Hendek aux vautours autours de toi Je veux l'hélico qui m'dépose sur le toit Tu veux tester mais es que t'es sûr de toi ? Tu veux tester mais es que t'es sûr de toi ? es que t'es sûr ? Tellement d'années que je manie les mots J'voulais m'vider, elle a cru que je l'aimais La concurrence mon négro elle est lame lame, lame, lame, lame Tellement d'années que je manie les mots J'voulais m'vider, elle a cru que je l'aimais La concurrence mon négro elle est lame J'suis dans la gova, j'écoute à fond radio Nova yeah Studio en sauna, met pas tes pieds sur le sofa yeah Ne t'inquiète pas j'ai les gâchettes oh oui Et y a deux-trois écrans à la son-mai, j'le fais à fond et pas à la journée, si t'as cru nous décourager, tu t'es trompé J'suis dans la gova, j'écoute à fond radio Nova yeah Studio en sauna, met pas tes pieds sur le sofa yeah Ne t'inquiète pas j'ai les gâchettes oh oui Et y a deux-trois écrans à la son-mai, j'le fais à fond et pas à la journée, si t'as cru nous décourager, tu t'es trompé</t>
+          <t>J'suis dans la gova, j'écoute à fond radio Nova yeah Studio en sauna, met pas tes pieds sur le sofa yeah Ne t'inquiète pas j'ai les gâchettes oh oui Et y a deux-trois écrans à la son-mai, j'le fais à fond et pas à la journée, si t'as cru nous décourager, tu t'es trompé J'suis dans la gova, j'écoute à fond radio Nova yeah Studio en sauna, met pas tes pieds sur le sofa yeah Ne t'inquiète pas j'ai les gâchettes oh oui Et y a deux-trois écrans à la son-mai, j'le fais à fond et pas à la journée, si t'as cru nous décourager, tu t'es trompé Là pour le combat, si t'es pas bien on te sauvera J'évite les coups bas, si c'est toxique moi j'écoute pas Si c'est méchant moi j'l'ai pas fait, j'buvais de l'eau dans des sachets So BX, so Flagey J'fais genre j'suis surpris mais au fond j'le savais han yuh So tous ceux qui font un peu d'sport, prochaine rentrée, j'prends mes cachés et j'évite les mauvais sorts han Compte la dope, consomme à fond la co Là j'suis en tye dye so les Masai et là, la prod j'la cuis à l'eau À toute vitesse sous la pression, j'crois j'suis à fond, j'ai l'impression yeah Ça tise à mort à la pression, j'crois j'suis le seul qui voit clair dans la session J'remets des bases dans le caisson yeah, j'aime bien quand ça fait des frissons yeah, s'il fait froid c'est ma saison yeah, y a pas d'chauffage dans la maison yeah J'suis dans la gova, j'écoute à fond radio Nova yeah Studio en sauna, met pas tes pieds sur le sofa yeah Ne t'inquiète pas j'ai les gâchettes oh oui Et y a deux-trois écrans à la son-mai, j'le fais à fond et pas à la journée, si t'as cru nous décourager, tu t'es trompé J'suis dans la gova, j'écoute à fond radio Nova yeah Studio en sauna, met pas tes pieds sur le sofa yeah Ne t'inquiète pas j'ai les gâchettes oh oui Et y a deux-trois écrans à la son-mai, j'le fais à fond et pas à la journée, si t'as cru nous décourager, tu t'es trompé Tu t'es trompé, t'approche pas trop près J'ai des flash-backs quand elle mangeait ma trompe Bout de pilon, il est gros comme le tronc Je fais des choix mais jamais je me trompe Depuis petit cours après un idéal Ce con me demande des conseils sur sa D.A Comme le Don, faut jamais lâcher c'steak Maintenant je vois que ma carrière c'est le départ J'suis dans la gov' gov' Te-ma elle veut quoi la go go Je peux faire des hits à gogo J'suis un espion comme le Gogo Hendek aux vautours autours de toi Je veux l'hélico qui m'dépose sur le toit Tu veux tester mais es que t'es sûr de toi ? Tu veux tester mais es que t'es sûr de toi ? es que t'es sûr ? Tellement d'années que je manie les mots J'voulais m'vider, elle a cru que je l'aimais La concurrence mon négro elle est lame lame, lame, lame, lame Tellement d'années que je manie les mots J'voulais m'vider, elle a cru que je l'aimais La concurrence mon négro elle est lame J'suis dans la gova, j'écoute à fond radio Nova yeah Studio en sauna, met pas tes pieds sur le sofa yeah Ne t'inquiète pas j'ai les gâchettes oh oui Et y a deux-trois écrans à la son-mai, j'le fais à fond et pas à la journée, si t'as cru nous décourager, tu t'es trompé J'suis dans la gova, j'écoute à fond radio Nova yeah Studio en sauna, met pas tes pieds sur le sofa yeah Ne t'inquiète pas j'ai les gâchettes oh oui Et y a deux-trois écrans à la son-mai, j'le fais à fond et pas à la journée, si t'as cru nous décourager, tu t'es trompé</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Yeah, yeah J'suis dans une impasse, ça fait longtemps que j'ronfle, j'entends le ciel qui m'gronde J'pense à c'type, il dort il a pas d'maison, ça pendant les quatre saisons Si tu savais, La Fève gros il rappe depuis, fallait qu'on nous sorte du puits Mais qu'à cela n'tienne, sur ma tête ils cassent la tête, La Fève c'est l'inverse du pire C'est l'inverse du pire Yeah, ok Fume sur le parvis J'veux pas ton avis Avec ls pirates au bord des grands navires June espion ne recherche que la quali' La prod est Hermes La graine a germé Ne viens pas faire l'ancien boy on t'a cerné Je veux le trésor Maudit comme treize Ambition aussi obèse que mes cernes J'suis dans une merde obscure Et j'garde ma posture Mon négro dans l'milieu grave des imposteurs La Fève en poster Quand j'pe-ra faut s'taire Posé à Hollywood comme Jodie Foster Avec le 7 on baraude Big paire dans la ville gros c'est la capitale Les poches sèches, mon négro sèche Comme les cours de maths et mes amygdales La Fève la machine Quand j'rappe c'est magique Moi j'aime quand la mélodie elle est tragique J'laisse ma trace Jamais on s'crash Espion qui sort sous parapluie, sous crachin Me tend pas la main J'veux pas d'ton amour Quand tu recherchais quelqu'un j'étais là moi Maintenant La Fève il a plus qu'des larmes Mon négro jamais on baissera les armes You might also like Pas besoin d'changer Changer À jamais une gueule d'étranger Tranger Tellement d'bandits à mes trousses, mon cur ils veulent me trancher Ils veulent me trancher Pour l'ce-vi j'ai penché Penché J'me sens comme la goute dans l'océan L'océan Pour l'ce-vi j'ai penché J'me sens comme la goute dans l'océan Pas besoin d'changer Changer À jamais une gueule d'étranger Tranger Tellement d'bandits à mes trousses mon cur ils veulent me trancher Ils veulent me trancher Pour l'ce-vi j'ai penché Penché J'me sens comme la goute dans l'océan Pour l'ce-vi j'ai penché J'me sens comme la goute dans l'océan</t>
+          <t>Yeah, yeah J'suis dans une impasse, ça fait longtemps que j'ronfle, j'entends le ciel qui m'gronde J'pense à c'type, il dort il a pas d'maison, ça pendant les quatre saisons Si tu savais, La Fève gros il rappe depuis, fallait qu'on nous sorte du puits Mais qu'à cela n'tienne, sur ma tête ils cassent la tête, La Fève c'est l'inverse du pire C'est l'inverse du pire Yeah, ok Fume sur le parvis J'veux pas ton avis Avec ls pirates au bord des grands navires June espion ne recherche que la quali' La prod est Hermes La graine a germé Ne viens pas faire l'ancien boy on t'a cerné Je veux le trésor Maudit comme treize Ambition aussi obèse que mes cernes J'suis dans une merde obscure Et j'garde ma posture Mon négro dans l'milieu grave des imposteurs La Fève en poster Quand j'pe-ra faut s'taire Posé à Hollywood comme Jodie Foster Avec le 7 on baraude Big paire dans la ville gros c'est la capitale Les poches sèches, mon négro sèche Comme les cours de maths et mes amygdales La Fève la machine Quand j'rappe c'est magique Moi j'aime quand la mélodie elle est tragique J'laisse ma trace Jamais on s'crash Espion qui sort sous parapluie, sous crachin Me tend pas la main J'veux pas d'ton amour Quand tu recherchais quelqu'un j'étais là moi Maintenant La Fève il a plus qu'des larmes Mon négro jamais on baissera les armes Pas besoin d'changer Changer À jamais une gueule d'étranger Tranger Tellement d'bandits à mes trousses, mon cur ils veulent me trancher Ils veulent me trancher Pour l'ce-vi j'ai penché Penché J'me sens comme la goute dans l'océan L'océan Pour l'ce-vi j'ai penché J'me sens comme la goute dans l'océan Pas besoin d'changer Changer À jamais une gueule d'étranger Tranger Tellement d'bandits à mes trousses mon cur ils veulent me trancher Ils veulent me trancher Pour l'ce-vi j'ai penché Penché J'me sens comme la goute dans l'océan Pour l'ce-vi j'ai penché J'me sens comme la goute dans l'océan</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Yuh, yuh Toi et moi on veut pas la même chose La même chose Avec les G, ça traînait tout le temps dans la même zone Dans la même zone Yuh, On veut de l'or sur la Benz Sur la Benz J'suis parti mais je savais qu'au fond on pensait la même chose Yuh Toi et moi on veut pas la même chose La même chose Avec les G, ça traînait tout le temps dans la même zone Dans la même zone Yuh, On veut de l'or sur la Benz Sur la Benz J'suis parti mais je savais qu'au fond on pensait la même chose Yeah Ok j't'ai capté sale pookie La Fève c'est pas l'rookie Ça s'explique pas, faire des classiques c'est la routine Jeune qui smoke gelato qui smoke et la cookie La Fève qu'est c'que tu prépare, qu'est c'que t'as cooké Les hommes c'est des loups entre eux ils t'laissent dans l'pétrin frero 'Zin faut courir vite quand l'vice t'attrapes tu peux rien faire Comme un espion marche seul sur le grand boulevard À Fontenay dans les environs t'as pu me voir Yuh Yuh J'ai un flow gros il est criminel Je trouve ça trop facile toi tu es si minable Yuh J'vois des étoiles dans l'ciel J'veux une présidentielle J'aime ça quand tu danses babe Yuh Yuh You might also like Tu veux un truc j'te l'amène On s'est embrouillé la veille On savait pas qu'on passait la même Yuh On aurait pu se le dire mais nan Je suis La Fève donc je préfère tout te dire sur la mélo Yuh Yuh Toi et moi on veut pas la même chose La même chose Avec les G, ça traînait tout le temps dans la même zone Dans la même zone Yuh, On veut de l'or sur la Benz Sur la Benz J'suis parti mais je savais qu'au fond on pensait la même chose Yuh Toi et moi on veut pas la même chose La même chose Avec les G, ça traînait tout le temps dans la même zone Dans la même zone Yuh, On veut de l'or sur la Benz Sur la Benz J'suis parti mais je savais qu'au fond on pensait la même chose</t>
+          <t>Yuh, yuh Toi et moi on veut pas la même chose La même chose Avec les G, ça traînait tout le temps dans la même zone Dans la même zone Yuh, On veut de l'or sur la Benz Sur la Benz J'suis parti mais je savais qu'au fond on pensait la même chose Yuh Toi et moi on veut pas la même chose La même chose Avec les G, ça traînait tout le temps dans la même zone Dans la même zone Yuh, On veut de l'or sur la Benz Sur la Benz J'suis parti mais je savais qu'au fond on pensait la même chose Yeah Ok j't'ai capté sale pookie La Fève c'est pas l'rookie Ça s'explique pas, faire des classiques c'est la routine Jeune qui smoke gelato qui smoke et la cookie La Fève qu'est c'que tu prépare, qu'est c'que t'as cooké Les hommes c'est des loups entre eux ils t'laissent dans l'pétrin frero 'Zin faut courir vite quand l'vice t'attrapes tu peux rien faire Comme un espion marche seul sur le grand boulevard À Fontenay dans les environs t'as pu me voir Yuh Yuh J'ai un flow gros il est criminel Je trouve ça trop facile toi tu es si minable Yuh J'vois des étoiles dans l'ciel J'veux une présidentielle J'aime ça quand tu danses babe Yuh Yuh Tu veux un truc j'te l'amène On s'est embrouillé la veille On savait pas qu'on passait la même Yuh On aurait pu se le dire mais nan Je suis La Fève donc je préfère tout te dire sur la mélo Yuh Yuh Toi et moi on veut pas la même chose La même chose Avec les G, ça traînait tout le temps dans la même zone Dans la même zone Yuh, On veut de l'or sur la Benz Sur la Benz J'suis parti mais je savais qu'au fond on pensait la même chose Yuh Toi et moi on veut pas la même chose La même chose Avec les G, ça traînait tout le temps dans la même zone Dans la même zone Yuh, On veut de l'or sur la Benz Sur la Benz J'suis parti mais je savais qu'au fond on pensait la même chose</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Meow, meow Yeah, yeah Yeah, combien d'kilomètres derrière moi ? J'sais qu'à l'arrivée, on sera moins Je suis un jeune, donc j'ai d'l'espoir Tu vois pas tout, on te laisse voir Combien d'kilomètres on a baroude' ? Pour espérer aller là-haut J'suis parti de rien mon frère J'suis parti de rien mon frérot Han, yeah, j'suis parti de rien mon jeune Ride dans la Merco comme un jeune Tu comprends pas, c'est dans mes gènes Han, yeah, j'suis parti de rien mon jeune Ride dans la Merco comme un jeune Tu comprends pas, c'est dans mes gènes Han, j'arrive comme la brise en hiver Jeune affamé, je dévore Toi, t'étais trop guez, on t'a viré Mais tu sais bien, moi je suis tout l'temps perdu dans mes songes Chérie, retiens la leçon Même lame shitty routine, babe moi je fais des sons L'amour des billets rend mal Mon frérot a fait la mala Tu joues un rôle, on t'a rodave Donc frérot, toi, vas par là-bas Le tir est précis comme la rime Là, mon portefeuille est aride Y a un 'blème, call, on arrive L'univers, il dégoute akhi La Fève, Le Tigre, c'est hard Mes pensées, elles s'éparpillent Y a que l'ciel qui nous sépare Qui je suis, je ne sais pas Tout l'temps, les keufs ils veulent palper Moi, j'ai mes clopes et mes papiers J'prépare du lourd, ils sont pas prêts J'prépare du lourd, ils sont pas prêts You might also like Combien d'kilomètres derrière moi ? J'sais qu'à l'arrivée, on sera moins Je suis un jeune, donc j'ai d'l'espoir Tu vois pas tout, on te laisse voir Combien d'kilomètres on a baroude' ? Pour espérer aller là-haut J'suis parti de rien mon frère J'suis parti de rien mon frérot Han, Yeah Han j'suis parti de rien mon jeune Ride dans la Merco Comme un jeune Tu comprends pas, c'est dans mes gènes Han, yeah, j'suis parti de rien mon jeune Ride dans la Merco comme un jeune Tu comprends pas, c'est dans mes gènes</t>
+          <t>Meow, meow Yeah, yeah Yeah, combien d'kilomètres derrière moi ? J'sais qu'à l'arrivée, on sera moins Je suis un jeune, donc j'ai d'l'espoir Tu vois pas tout, on te laisse voir Combien d'kilomètres on a baroude' ? Pour espérer aller là-haut J'suis parti de rien mon frère J'suis parti de rien mon frérot Han, yeah, j'suis parti de rien mon jeune Ride dans la Merco comme un jeune Tu comprends pas, c'est dans mes gènes Han, yeah, j'suis parti de rien mon jeune Ride dans la Merco comme un jeune Tu comprends pas, c'est dans mes gènes Han, j'arrive comme la brise en hiver Jeune affamé, je dévore Toi, t'étais trop guez, on t'a viré Mais tu sais bien, moi je suis tout l'temps perdu dans mes songes Chérie, retiens la leçon Même lame shitty routine, babe moi je fais des sons L'amour des billets rend mal Mon frérot a fait la mala Tu joues un rôle, on t'a rodave Donc frérot, toi, vas par là-bas Le tir est précis comme la rime Là, mon portefeuille est aride Y a un 'blème, call, on arrive L'univers, il dégoute akhi La Fève, Le Tigre, c'est hard Mes pensées, elles s'éparpillent Y a que l'ciel qui nous sépare Qui je suis, je ne sais pas Tout l'temps, les keufs ils veulent palper Moi, j'ai mes clopes et mes papiers J'prépare du lourd, ils sont pas prêts J'prépare du lourd, ils sont pas prêts Combien d'kilomètres derrière moi ? J'sais qu'à l'arrivée, on sera moins Je suis un jeune, donc j'ai d'l'espoir Tu vois pas tout, on te laisse voir Combien d'kilomètres on a baroude' ? Pour espérer aller là-haut J'suis parti de rien mon frère J'suis parti de rien mon frérot Han, Yeah Han j'suis parti de rien mon jeune Ride dans la Merco Comme un jeune Tu comprends pas, c'est dans mes gènes Han, yeah, j'suis parti de rien mon jeune Ride dans la Merco comme un jeune Tu comprends pas, c'est dans mes gènes</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Wouh, hey J'marche comme d'hab' J'marche comme d'hab', hey, check je fly Check je fly Pas l'temps, pas l'time, j'ai pas d'ous', j'dois prendre la mallette, hey Fuck un bosseur, moi j'ai, moi j'ai pas besoin d'bosser Pas besoin d'bosser Donc j'fume un boze, j'ai pas, j'ai pas l'choix j'veux monter Et j'veux grimper dans les tours J'veux pas juste péter les scores Péter les scores Si j'meurs c'est Dun' qui prends l'relais donc faites un ffort, oui faites un effort Beaucoup d'loubards à ms côtés me veulent encore mais c'est bien trop tard Maintenant Fève c'est l'misanthrope et c'est pas trop tôt et j'suis dans le trap Faut qu'les bruits s'taisent, faut qu'j'effrite et qu'j'prenne la fuite, hey Faut qu'j'évite le stress, les filles, mon père, ma mif', hey Tous les jours j'm'en fous, tous les jours c'est la paresse Bah oui, pourquoi m'forcer ? Les discours ça m'fane, ces discours ça s'calme car La fève n'est pas-, hey J'marche comme d'hab' J'marche comme d'hab', hey, check je fly Check je fly Pas l'temps, pas l'time, j'ai pas d'ous', j'dois prendre la mallette, hey Fuck un bosseur, moi j'ai, moi j'ai pas besoin d'bosser Pas besoin d'bosser J'fume un boze, j'ai pas, j'ai pas l'choix j'veux monter, hyey You might also like Vive les merveilles, nique les tox' et les froussards Ni queue ni tête mais j'veux des fans, moi Je n'me cache pas dans la broussaille hey Fuck un bosseur, moi j'ai, moi j'ai pas besoin d'bosser Pas besoin d'bosser Donc j'fume un boze j'ai pas, j'ai pas l'choix, gars j'suis pas parfait, hey, hey J'suis dans l'skurt, ayayayaya J'suis dans l'skurt, ayaya Hey, hey, wouh, merde Depuis qu'j'suis petit j'suis sa majesté Majesté Trop d'gens autour de moi pour venir m'aider J'ai la chance de venir d'un milieu aisé Oui je suis parfait mais j'ai les pieds ridés J'ai mon 7 pour la vie, pour m'accompagner J'ai mon style pour la vie, pour l'apprivoiser J'suis pas chelou c'est juste que j'me prépare r'viennent tous pour m'utiliser J'suis le roi des enfers pour des décennies Pas pour des années, mon gars j'suis pas éphémère C'est pas qu'fais du bon son mais j'aime bien parler tout seul Et c'est relaxant comme ASMR J'suis pépère au soleil, j'ai mon thé, j'ai ma garette-ci J'regarde les rayons ça brille Vive le 7 et vive la piraterie, je suis la Fève, de rien je vous en prie, hey J'marche comme d'hab' J'marche comme d'hab', hey, check je fly Check je fly Pas l'temps, pas l'time, j'ai pas d'ous', j'dois prendre la mallette, hey Fuck un bosseur, moi j'ai, moi j'ai pas besoin d'bosser Pas besoin d'bosser Donc j'fume un boze, j'ai pas l'choix, moi j'suis pas parfait, hey</t>
+          <t>Wouh, hey J'marche comme d'hab' J'marche comme d'hab', hey, check je fly Check je fly Pas l'temps, pas l'time, j'ai pas d'ous', j'dois prendre la mallette, hey Fuck un bosseur, moi j'ai, moi j'ai pas besoin d'bosser Pas besoin d'bosser Donc j'fume un boze, j'ai pas, j'ai pas l'choix j'veux monter Et j'veux grimper dans les tours J'veux pas juste péter les scores Péter les scores Si j'meurs c'est Dun' qui prends l'relais donc faites un ffort, oui faites un effort Beaucoup d'loubards à ms côtés me veulent encore mais c'est bien trop tard Maintenant Fève c'est l'misanthrope et c'est pas trop tôt et j'suis dans le trap Faut qu'les bruits s'taisent, faut qu'j'effrite et qu'j'prenne la fuite, hey Faut qu'j'évite le stress, les filles, mon père, ma mif', hey Tous les jours j'm'en fous, tous les jours c'est la paresse Bah oui, pourquoi m'forcer ? Les discours ça m'fane, ces discours ça s'calme car La fève n'est pas-, hey J'marche comme d'hab' J'marche comme d'hab', hey, check je fly Check je fly Pas l'temps, pas l'time, j'ai pas d'ous', j'dois prendre la mallette, hey Fuck un bosseur, moi j'ai, moi j'ai pas besoin d'bosser Pas besoin d'bosser J'fume un boze, j'ai pas, j'ai pas l'choix j'veux monter, hyey Vive les merveilles, nique les tox' et les froussards Ni queue ni tête mais j'veux des fans, moi Je n'me cache pas dans la broussaille hey Fuck un bosseur, moi j'ai, moi j'ai pas besoin d'bosser Pas besoin d'bosser Donc j'fume un boze j'ai pas, j'ai pas l'choix, gars j'suis pas parfait, hey, hey J'suis dans l'skurt, ayayayaya J'suis dans l'skurt, ayaya Hey, hey, wouh, merde Depuis qu'j'suis petit j'suis sa majesté Majesté Trop d'gens autour de moi pour venir m'aider J'ai la chance de venir d'un milieu aisé Oui je suis parfait mais j'ai les pieds ridés J'ai mon 7 pour la vie, pour m'accompagner J'ai mon style pour la vie, pour l'apprivoiser J'suis pas chelou c'est juste que j'me prépare r'viennent tous pour m'utiliser J'suis le roi des enfers pour des décennies Pas pour des années, mon gars j'suis pas éphémère C'est pas qu'fais du bon son mais j'aime bien parler tout seul Et c'est relaxant comme ASMR J'suis pépère au soleil, j'ai mon thé, j'ai ma garette-ci J'regarde les rayons ça brille Vive le 7 et vive la piraterie, je suis la Fève, de rien je vous en prie, hey J'marche comme d'hab' J'marche comme d'hab', hey, check je fly Check je fly Pas l'temps, pas l'time, j'ai pas d'ous', j'dois prendre la mallette, hey Fuck un bosseur, moi j'ai, moi j'ai pas besoin d'bosser Pas besoin d'bosser Donc j'fume un boze, j'ai pas l'choix, moi j'suis pas parfait, hey</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Oh On m'appelle l'espion car j'suis en arrière En arrière On voulait seulement enlever nos barrières ERRR On croyait que non mais c'est une taupe, frérot Taupe, frérot Faut t'écoutes la mixtape, elle est dope, frérot Dope, frérot Où on va ? Où on va ? J'ai pas trop le morale, j'fais des jongles J'ai pas trop le morale, j'fais des jongles Je vois l'énergie, je vois les ondes Les ondes, Seignur, dis-moi pourquoi je veux le mond ? Le monde On évite le mauvais il des passants là Des passants là Dans la cabine, j'travaille les placements là ERRR En ce moment, j'ai le seum à la mort là La mort là Y a ce p'tit serpent qui me dit Mord-la Mord-la La flûte, elle me chuchote à l'oreille À l'oreille J'suis maudit, là j'vis dans mon sommeil Mon sommeil T'as cru, moi, j'avais cru tes promesses Tes promesses Et je bibi ces paroles, lé-lo, lé-lo-lé Lo-lé, lo-lé, lo-lé-lo Et la morale, c'est lo-lé, lo-lé, lo-lé Lo-lé, lo-lé, lo-lé-lo Et je bibi ces paroles, lé-lo, lé-lo-lé Lo-lé, lo-lé, lo-lé-lo Et la morale, c'est lo-lé, lo-lé, lo-lé Lo-lé, lo-lé, lo-lé-lo You might also like Lo-lé-lo-lé-lo-lay-lo-lay-lo Lo-lé-lo-lé-lo-lay-lo-lay-lo-lay-lo-lay</t>
+          <t>Oh On m'appelle l'espion car j'suis en arrière En arrière On voulait seulement enlever nos barrières ERRR On croyait que non mais c'est une taupe, frérot Taupe, frérot Faut t'écoutes la mixtape, elle est dope, frérot Dope, frérot Où on va ? Où on va ? J'ai pas trop le morale, j'fais des jongles J'ai pas trop le morale, j'fais des jongles Je vois l'énergie, je vois les ondes Les ondes, Seignur, dis-moi pourquoi je veux le mond ? Le monde On évite le mauvais il des passants là Des passants là Dans la cabine, j'travaille les placements là ERRR En ce moment, j'ai le seum à la mort là La mort là Y a ce p'tit serpent qui me dit Mord-la Mord-la La flûte, elle me chuchote à l'oreille À l'oreille J'suis maudit, là j'vis dans mon sommeil Mon sommeil T'as cru, moi, j'avais cru tes promesses Tes promesses Et je bibi ces paroles, lé-lo, lé-lo-lé Lo-lé, lo-lé, lo-lé-lo Et la morale, c'est lo-lé, lo-lé, lo-lé Lo-lé, lo-lé, lo-lé-lo Et je bibi ces paroles, lé-lo, lé-lo-lé Lo-lé, lo-lé, lo-lé-lo Et la morale, c'est lo-lé, lo-lé, lo-lé Lo-lé, lo-lé, lo-lé-lo Lo-lé-lo-lé-lo-lay-lo-lay-lo Lo-lé-lo-lé-lo-lay-lo-lay-lo-lay-lo-lay</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Je passe le salam à ceux qui donnent la ce-for pour pas lâcher Sur la prod j'me balade, G moi jamais je fais des sons à la chaîne Guinz à l'épicier, bien sûr je suis peace, je n'ai pas peur des pucerons J'ai pris le stylo tu connais depuis je découpe comme le bûcheron On m'appelle l'espion ma leu-gueu, je suis bon dans la discrétion J'écoute pas trop les conseils G, je dois rester dans ma direction Pourquoi tu suis les autres G, tu sais que la vérité c'est toi Mon frère j'ai mal à la nuque je me suis trop tourné vers les étoiles Faudrait que j'aille voir le Mississippi Je sais que j'suis bon dans ma discipline Élevé par Dionne et Aretha Que Dieu me pardonne j'suis inarrêtable Crois en tous tes projets maramé Mélange entre vanille et caramel Que des pirates sur la caravelle Petit con revoit tes paramètres Yessir Je veux pas la vie rock'n'roll Toi dans ta vie tu as quel rôle ? Toi dans la vie tu as quel rôle ? Je veux pas la vie rock'n'roll Toi dans ta vie tu as quel rôle ? Toi dans la vie tu as quel rôle ? You might also like Je passe le salam à ceux qui donnent la ce-for pour pas lâcher Sur la prod j'me balade, G moi jamais je fais des sons à la chaîne Guinz à l'épicier bien sûr je suis peace, je n'ai pas peur des pucerons J'ai pris le stylo tu connais depuis je découpe comme le bûcheron Tu sais faut chasser les billets, tu sais faut chasser les billets Tu sais faut chasser les billets, tu sais faut chasser les billets Tu sais faut chasser les billets, tu sais faut chasser les billets Il y a ce bijou qui me tape à l'oeil J'sors de la tchop j'ai le teint pâle Tous les soucis qu'on se trimballe Kosei fait taper les cymbales Je veux changer ma génération Walone 7 la fédération Faut m'écouter en abondance Faut m'écouter sans modération Le nom je vais pas donner bâtard Le rap FR c'est la bagarre Tu sais mon frère on arrive, toi tu vas faire tes bagages J'voulais les building à King Kong La baraque où quand tu sonnes ça fait ding dong Il y a toujours un petit problème qui m'gonfle Jeune futur dictateur comme Kim Jong Tu sais faut chasser les billets, tu sais faut chasser les billets Tu sais faut chasser les billets, tu sais faut chasser les billets</t>
+          <t>Je passe le salam à ceux qui donnent la ce-for pour pas lâcher Sur la prod j'me balade, G moi jamais je fais des sons à la chaîne Guinz à l'épicier, bien sûr je suis peace, je n'ai pas peur des pucerons J'ai pris le stylo tu connais depuis je découpe comme le bûcheron On m'appelle l'espion ma leu-gueu, je suis bon dans la discrétion J'écoute pas trop les conseils G, je dois rester dans ma direction Pourquoi tu suis les autres G, tu sais que la vérité c'est toi Mon frère j'ai mal à la nuque je me suis trop tourné vers les étoiles Faudrait que j'aille voir le Mississippi Je sais que j'suis bon dans ma discipline Élevé par Dionne et Aretha Que Dieu me pardonne j'suis inarrêtable Crois en tous tes projets maramé Mélange entre vanille et caramel Que des pirates sur la caravelle Petit con revoit tes paramètres Yessir Je veux pas la vie rock'n'roll Toi dans ta vie tu as quel rôle ? Toi dans la vie tu as quel rôle ? Je veux pas la vie rock'n'roll Toi dans ta vie tu as quel rôle ? Toi dans la vie tu as quel rôle ? Je passe le salam à ceux qui donnent la ce-for pour pas lâcher Sur la prod j'me balade, G moi jamais je fais des sons à la chaîne Guinz à l'épicier bien sûr je suis peace, je n'ai pas peur des pucerons J'ai pris le stylo tu connais depuis je découpe comme le bûcheron Tu sais faut chasser les billets, tu sais faut chasser les billets Tu sais faut chasser les billets, tu sais faut chasser les billets Tu sais faut chasser les billets, tu sais faut chasser les billets Il y a ce bijou qui me tape à l'oeil J'sors de la tchop j'ai le teint pâle Tous les soucis qu'on se trimballe Kosei fait taper les cymbales Je veux changer ma génération Walone 7 la fédération Faut m'écouter en abondance Faut m'écouter sans modération Le nom je vais pas donner bâtard Le rap FR c'est la bagarre Tu sais mon frère on arrive, toi tu vas faire tes bagages J'voulais les building à King Kong La baraque où quand tu sonnes ça fait ding dong Il y a toujours un petit problème qui m'gonfle Jeune futur dictateur comme Kim Jong Tu sais faut chasser les billets, tu sais faut chasser les billets Tu sais faut chasser les billets, tu sais faut chasser les billets</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Depuis qu'j'fais d'la maille, j'fais l'tour du globe, j'ai besoin d'un passeport Quand j'vois comment j'les éduque, j'me dis qu'j'aurais pu finir pasteur Yeah Yeah Depuis qu'j'fais d'la maille, j'fais l'tour du globe, j'ai besoin d'un passeport Yeah Quand j'vois comment j'les éduque, j'me dis qu'j'aurais pu finir pasteur Yeah Je sais qu'pour avoir mon salaire, il faut au moins deux-trois masters Fais péter l'son dans la caisse, ma gueule, c'est fini les ghetto-blasters Big LAF, si j'viens pour t'expliquer, c'est mieux tu rests assis Elle me veut mais j'ai rin pour elle, elle veut que de l'ecstasy Parle de moi et le brrr qui va t'apprendre la courtoisie Si j'reste ici, j'vais moisir, faut que je goûte la bourgeoisie L'ainé m'a dit Faut les faire depuis je n'ai pas arrêté Mes haters vivent dans la précarité, j'les baise tous, en toute sincérité Je rappe que des vérités, vrai chasseur, tu veux vérifier ? Toutes les poucaves sont les mêmes, y a rien qui change à part le pedigree Full black everyday, tu m'connais, j'peux pas changer mon dress code Pours les te-trai dans ton genre, y a du taf sur la rue d'Aerschot De cette merde, j'suis le président, de cette merde, j'suis la mascotte De cette merde, j'suis le président, de cette merde, j'suis la mascotte You might also like Depuis qu'j'fais d'la maille, j'fais l'tour du globe, j'ai besoin d'un passeport Yeah, yeah Quand j'vois comment j'les éduque, j'me dis qu'j'aurais pu finir pasteur Je sais qu'pour avoir mon salaire, il faut au moins deux-trois masters Yeah Fais péter l'son dans la caisse, ma gueule, c'est fini les ghetto-blasters Big LAF Big LAF Big LAF Big LAF</t>
+          <t>Depuis qu'j'fais d'la maille, j'fais l'tour du globe, j'ai besoin d'un passeport Quand j'vois comment j'les éduque, j'me dis qu'j'aurais pu finir pasteur Yeah Yeah Depuis qu'j'fais d'la maille, j'fais l'tour du globe, j'ai besoin d'un passeport Yeah Quand j'vois comment j'les éduque, j'me dis qu'j'aurais pu finir pasteur Yeah Je sais qu'pour avoir mon salaire, il faut au moins deux-trois masters Fais péter l'son dans la caisse, ma gueule, c'est fini les ghetto-blasters Big LAF, si j'viens pour t'expliquer, c'est mieux tu rests assis Elle me veut mais j'ai rin pour elle, elle veut que de l'ecstasy Parle de moi et le brrr qui va t'apprendre la courtoisie Si j'reste ici, j'vais moisir, faut que je goûte la bourgeoisie L'ainé m'a dit Faut les faire depuis je n'ai pas arrêté Mes haters vivent dans la précarité, j'les baise tous, en toute sincérité Je rappe que des vérités, vrai chasseur, tu veux vérifier ? Toutes les poucaves sont les mêmes, y a rien qui change à part le pedigree Full black everyday, tu m'connais, j'peux pas changer mon dress code Pours les te-trai dans ton genre, y a du taf sur la rue d'Aerschot De cette merde, j'suis le président, de cette merde, j'suis la mascotte De cette merde, j'suis le président, de cette merde, j'suis la mascotte Depuis qu'j'fais d'la maille, j'fais l'tour du globe, j'ai besoin d'un passeport Yeah, yeah Quand j'vois comment j'les éduque, j'me dis qu'j'aurais pu finir pasteur Je sais qu'pour avoir mon salaire, il faut au moins deux-trois masters Yeah Fais péter l'son dans la caisse, ma gueule, c'est fini les ghetto-blasters Big LAF Big LAF Big LAF Big LAF</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>BIGLAF, BIGLAF, BIGLAF, chaque projet j't'épate, hein Garde ta gentillesse, j'veux pas qu'tu prennes mes patins J'me sens comme iceberg, j'les vois tous comme des catins Hustle dès le matin, hustle dès le matin Yeah Je flex car j'ai trop souffert back then, j'étais sous terre J'm'attache pas car j'vais finir poussière, dans l'game y a trop d'pussy J'suis maudit, j'ai trop d'problèmes, pas assez d'solutions J'ai trop d'chaleur pour eux, belek à l'insolation J'veux pas finir comme l'ancien avec les dents cariées Pisté, j'hésite puis ils enclenchent la marche arrière Malgré moi la plupart m'voit comme un alien Le broski a des rêves, il est de ma lignée Yeah, yeah J'pète la caisse après quoi j'me fais oublier Yeah Tu sais j'ai peur que d'ce putain d'sablier Yeah, yeah J'les baise tous en force et pas besoin d'concentration paw, paw Maintenant c'est l'heure des gadgets, teubé arrête les tractions Yeah, yeah BIGLAF, BIGLAF, BIGLAF, chaque projet j't'épate, hein Garde ta gentillesse, j'veux pas qu'tu prennes mes patins J'me sens comme iceberg, j'les vois tous comme des catins Grrr paw Hustle dès le matin, hustle dès le matinYou might also like</t>
+          <t>BIGLAF, BIGLAF, BIGLAF, chaque projet j't'épate, hein Garde ta gentillesse, j'veux pas qu'tu prennes mes patins J'me sens comme iceberg, j'les vois tous comme des catins Hustle dès le matin, hustle dès le matin Yeah Je flex car j'ai trop souffert back then, j'étais sous terre J'm'attache pas car j'vais finir poussière, dans l'game y a trop d'pussy J'suis maudit, j'ai trop d'problèmes, pas assez d'solutions J'ai trop d'chaleur pour eux, belek à l'insolation J'veux pas finir comme l'ancien avec les dents cariées Pisté, j'hésite puis ils enclenchent la marche arrière Malgré moi la plupart m'voit comme un alien Le broski a des rêves, il est de ma lignée Yeah, yeah J'pète la caisse après quoi j'me fais oublier Yeah Tu sais j'ai peur que d'ce putain d'sablier Yeah, yeah J'les baise tous en force et pas besoin d'concentration paw, paw Maintenant c'est l'heure des gadgets, teubé arrête les tractions Yeah, yeah BIGLAF, BIGLAF, BIGLAF, chaque projet j't'épate, hein Garde ta gentillesse, j'veux pas qu'tu prennes mes patins J'me sens comme iceberg, j'les vois tous comme des catins Grrr paw Hustle dès le matin, hustle dès le matin</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Yeah J'suis dans le piège donc on se capte après Yeah Laisse moi un message si t'as le time rappelle Yeah Combien de pro, combien de projets avortés J'étais p'tit, y'a qu'la puissance qui m'a porté Yeah J'suis dans le piège donc on se capte après Yeah Laisse moi un message si t'as le time rappelle Yeah Combien de pro, combien de projets avortés J'étais p'tit, y'a qu'la puissance qui m'a porté J'suis dans le piège, J'suis dans le piège J'suis dans le piège, J'suis dans le piège J'suis dans le piège, J'suis dans le piège Laisse moi un message si t'as le time rappelle Tant de faits J'suis un coyote dans la vallée 'Zin, j'suis un jeune, j'suis un jeune donc j'suis affamé Pourquoi tu portes l'il Pourquoi tu portes l'il frère J'te vois tu sers la main mais je sens qu'au fond y a rien d'vrai Il est maudit La Fève il est maudit Ca dit quoi mon gars j'suis dans l'stud j'suis dans mon taudis Rider dans une Audi, rider dans la Merco Everyday j'pense à elle, j'pense à mes blème-pro Laisse pas trainer ton gosse Ou bien il deviendra comme oim Jeune a du stup sur les oide Dans la ville avec la Walone Laisse pas trainer ton gosse Ou bien il deviendra comme oim Jeune a du stup sur les oide Dans la ville avec la Walone You might also like Yeah J'suis dans le piège donc on se capte après Yeah Laisse moi un message si t'as le time rappelle Yeah Combien de pro, combien de projets avortés J'étais p'tit, y'a qu'la puissance qui m'a porté Yeah J'suis dans le piège donc on se capte après Yeah Laisse moi un message si t'as le time rappelle Yeah Combien de pro, combien de projets avortés J'étais p'tit, ya qu'la puissance qui m'a porté J'suis dans le piège, J'suis dans le piège J'suis dans le piège, J'suis dans le piège J'suis dans le piège, J'suis dans le piège Laisse moi un message si t'as le time rappelle</t>
+          <t>Yeah J'suis dans le piège donc on se capte après Yeah Laisse moi un message si t'as le time rappelle Yeah Combien de pro, combien de projets avortés J'étais p'tit, y'a qu'la puissance qui m'a porté Yeah J'suis dans le piège donc on se capte après Yeah Laisse moi un message si t'as le time rappelle Yeah Combien de pro, combien de projets avortés J'étais p'tit, y'a qu'la puissance qui m'a porté J'suis dans le piège, J'suis dans le piège J'suis dans le piège, J'suis dans le piège J'suis dans le piège, J'suis dans le piège Laisse moi un message si t'as le time rappelle Tant de faits J'suis un coyote dans la vallée 'Zin, j'suis un jeune, j'suis un jeune donc j'suis affamé Pourquoi tu portes l'il Pourquoi tu portes l'il frère J'te vois tu sers la main mais je sens qu'au fond y a rien d'vrai Il est maudit La Fève il est maudit Ca dit quoi mon gars j'suis dans l'stud j'suis dans mon taudis Rider dans une Audi, rider dans la Merco Everyday j'pense à elle, j'pense à mes blème-pro Laisse pas trainer ton gosse Ou bien il deviendra comme oim Jeune a du stup sur les oide Dans la ville avec la Walone Laisse pas trainer ton gosse Ou bien il deviendra comme oim Jeune a du stup sur les oide Dans la ville avec la Walone Yeah J'suis dans le piège donc on se capte après Yeah Laisse moi un message si t'as le time rappelle Yeah Combien de pro, combien de projets avortés J'étais p'tit, y'a qu'la puissance qui m'a porté Yeah J'suis dans le piège donc on se capte après Yeah Laisse moi un message si t'as le time rappelle Yeah Combien de pro, combien de projets avortés J'étais p'tit, ya qu'la puissance qui m'a porté J'suis dans le piège, J'suis dans le piège J'suis dans le piège, J'suis dans le piège J'suis dans le piège, J'suis dans le piège Laisse moi un message si t'as le time rappelle</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Faut du biff shawty, j'me sens trop seul Elle a soufflé sur mon coeur comme un pissenlit Et j'fume trop d'seum, ouais j'suis désolé Si j'réponds pas c'est qu'j'me déplace pour une grosse somme Faut du biff shawty, j'me sens trop seul Elle a soufflé sur mon coeur comme un pissenlit Et j'fume trop d'seum, ouais j'suis désolé Si j'réponds pas c'est qu'j'me déplace pour une grosse somme Ruinart dans sa coupe, tu connais la suite Elle veut qu'on s'accouple, qu'on finisse à deux dans sa suite J'ai du mal à suivre, y'a deux ans tu m'disais Qu'j'y arriverai pas sans m'souhaiter bonn chance pour la suite Dans mon veau-cr v'là les plans qui sont établis La Fève c'est fort, J9 aussi, le dièse est carré Jamais j'me stoppe mais j'aimerais bien stopper l'temps J'aime quand elle suce, quand elle met pas les dents Oh shit, j'roule le shit dans la feuille Deux trois barres dans l'appart et j'suis faya J'roule vite dans la caisse, j'me sens fly Elle me dit Nueve ouais tes sons c'est le fire Des fois j'me dis que j'fous trop la merde Comme un jeudi, ça sent trop l'averse, yeah Tous mes OGs dans le truc, mais j'suis solo sur le track PPSC sur la jacket You might also like Faut qu'j'drip faut qu'j'drip, j'ai des idées j'ai des idées J'suis dans la ville j'suis dans la ville, j'fais des billets j'fais des billets Faut qu'j'drip, oh nanana, faut qu'j'drip, oh nanana Faut qu'j'drip faut qu'j'drip, j'ai des idées j'ai des idées J'suis dans la ville j'suis dans la ville, j'fais des billets j'fais des billets Faut qu'j'drip, oh nanana, faut qu'j'drip, oh nanana Faut du biff shawty, j'me sens trop seul Elle a soufflé sur mon coeur comme un pissenlit Et j'fume trop d'seum, ouais j'suis désolé Si j'réponds pas c'est qu'j'me déplace pour une grosse somme Faut du biff shawty, j'me sens trop seul Elle a soufflé sur mon coeur comme un pissenlit Et j'fume trop d'seum, ouais j'suis désolé Si j'réponds pas c'est qu'j'me déplace pour une grosse somme Faut du biff sinon j'me mets dans un sale mood On évolue, tu sais qu'on fait que du sale nous J'suis avec J9, pourquoi tu m'harcèles ? Ce petit génie, il aimerait que je lui donne la recette Shawty shawty, toi viens par là À c'qui parait ma carrière, c'est le départ, là Des flokos partout, des bijoux j'accoure Toi tu crois je t'aime, t'es qu'une erreur de parcours Toujours mon négro, so Je me souviens de c'qu'on disait par SMS Je suis chaud donc sur mon cou, il faut la glace, frérot C'est compliqué, le temps passe et je me lasse, frérot Si tu penses quelque chos,e pourquoi tu me dis le contraire ? On avait des rêves ensemble, j'ai cru que t'étais mon frère Il faudrait du drip avant que je finisse en poussière Huuuum Faut qu'j'drip faut qu'j'drip, j'ai des idées j'ai des idées J'suis dans la ville j'suis dans la ville, j'fais des billets j'fais des billets Faut qu'j'drip, oh nanana, faut qu'j'drip, oh nanana Faut qu'j'drip faut qu'j'drip, j'ai des idées j'ai des idées J'suis dans la ville j'suis dans la ville, j'fais des billets j'fais des billets Faut qu'j'drip, oh nanana, faut qu'j'drip, oh nanana Faut du biff shawty, j'me sens trop seul Elle a soufflé sur mon coeur comme un pissenlit Et j'fume trop d'seum, ouais j'suis désolé Si j'réponds pas c'est qu'j'me déplace pour une grosse somme Faut du biff shawty, j'me sens trop seul Elle a soufflé sur mon coeur comme un pissenlit Et j'fume trop d'seum, ouais j'suis désolé Si j'réponds pas c'est qu'j'me déplace pour une grosse somme</t>
+          <t>Faut du biff shawty, j'me sens trop seul Elle a soufflé sur mon coeur comme un pissenlit Et j'fume trop d'seum, ouais j'suis désolé Si j'réponds pas c'est qu'j'me déplace pour une grosse somme Faut du biff shawty, j'me sens trop seul Elle a soufflé sur mon coeur comme un pissenlit Et j'fume trop d'seum, ouais j'suis désolé Si j'réponds pas c'est qu'j'me déplace pour une grosse somme Ruinart dans sa coupe, tu connais la suite Elle veut qu'on s'accouple, qu'on finisse à deux dans sa suite J'ai du mal à suivre, y'a deux ans tu m'disais Qu'j'y arriverai pas sans m'souhaiter bonn chance pour la suite Dans mon veau-cr v'là les plans qui sont établis La Fève c'est fort, J9 aussi, le dièse est carré Jamais j'me stoppe mais j'aimerais bien stopper l'temps J'aime quand elle suce, quand elle met pas les dents Oh shit, j'roule le shit dans la feuille Deux trois barres dans l'appart et j'suis faya J'roule vite dans la caisse, j'me sens fly Elle me dit Nueve ouais tes sons c'est le fire Des fois j'me dis que j'fous trop la merde Comme un jeudi, ça sent trop l'averse, yeah Tous mes OGs dans le truc, mais j'suis solo sur le track PPSC sur la jacket Faut qu'j'drip faut qu'j'drip, j'ai des idées j'ai des idées J'suis dans la ville j'suis dans la ville, j'fais des billets j'fais des billets Faut qu'j'drip, oh nanana, faut qu'j'drip, oh nanana Faut qu'j'drip faut qu'j'drip, j'ai des idées j'ai des idées J'suis dans la ville j'suis dans la ville, j'fais des billets j'fais des billets Faut qu'j'drip, oh nanana, faut qu'j'drip, oh nanana Faut du biff shawty, j'me sens trop seul Elle a soufflé sur mon coeur comme un pissenlit Et j'fume trop d'seum, ouais j'suis désolé Si j'réponds pas c'est qu'j'me déplace pour une grosse somme Faut du biff shawty, j'me sens trop seul Elle a soufflé sur mon coeur comme un pissenlit Et j'fume trop d'seum, ouais j'suis désolé Si j'réponds pas c'est qu'j'me déplace pour une grosse somme Faut du biff sinon j'me mets dans un sale mood On évolue, tu sais qu'on fait que du sale nous J'suis avec J9, pourquoi tu m'harcèles ? Ce petit génie, il aimerait que je lui donne la recette Shawty shawty, toi viens par là À c'qui parait ma carrière, c'est le départ, là Des flokos partout, des bijoux j'accoure Toi tu crois je t'aime, t'es qu'une erreur de parcours Toujours mon négro, so Je me souviens de c'qu'on disait par SMS Je suis chaud donc sur mon cou, il faut la glace, frérot C'est compliqué, le temps passe et je me lasse, frérot Si tu penses quelque chos,e pourquoi tu me dis le contraire ? On avait des rêves ensemble, j'ai cru que t'étais mon frère Il faudrait du drip avant que je finisse en poussière Huuuum Faut qu'j'drip faut qu'j'drip, j'ai des idées j'ai des idées J'suis dans la ville j'suis dans la ville, j'fais des billets j'fais des billets Faut qu'j'drip, oh nanana, faut qu'j'drip, oh nanana Faut qu'j'drip faut qu'j'drip, j'ai des idées j'ai des idées J'suis dans la ville j'suis dans la ville, j'fais des billets j'fais des billets Faut qu'j'drip, oh nanana, faut qu'j'drip, oh nanana Faut du biff shawty, j'me sens trop seul Elle a soufflé sur mon coeur comme un pissenlit Et j'fume trop d'seum, ouais j'suis désolé Si j'réponds pas c'est qu'j'me déplace pour une grosse somme Faut du biff shawty, j'me sens trop seul Elle a soufflé sur mon coeur comme un pissenlit Et j'fume trop d'seum, ouais j'suis désolé Si j'réponds pas c'est qu'j'me déplace pour une grosse somme</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Ok Yeah Yeah Ça existe pas l'argent facile, mon jeune chacun fait son ch'min, s'débrouille Le vice fait des conférences il attrape des enfants par la peau des couilles Le misère apporte des poux et tu veux la contrer elle esquive tes coups Depuis j'ai des flows j'découpe pour pas qu'ma maison soit une plaque d'égouts Moi j'envoie du love mon gars j'ai compris qu'les gens c'est des énergies Qu'ici bah c'est la savane mon jeune c'est la peur de l'autre qui régit La puissance, la thune m'excitent et je parle au ciel donc je dis merci Moi j'fuck avec toi même si dans la vie on n'partage pas les mêmes cibles Je sens l'enfer sur ma tempe, le mal a le doigt sur la gâchette Tant de prière dans l'vent mon gars, j'compte même pas les Douâa qu'on a gâchés Faut peu pour qu'le diable m'achète, j'veux juste des étoiles sur le bord d'ma chaîne J'veux profiter d'tout c'qu'on m'offre moi jeune avant que le mort m'achève Faut une big coronne pour La Fève parce que dans ma tête j'ai des p'tits regrets Grand espion comme 07, j'vérifie s'il y a pas d'poison dans l'rre-ve J'suis un homme donc j'ai des rêves la plupart des humains m'les ont avalés Je pense à ma future mort pendant qu'la nuit tombe dans la vallée Ça existe pas l'argent facile, mon jeune chacun fait son ch'min, s'débrouille Le vice fait des conférences il attrape des enfants par la peau des couilles Le misère apporte des poux et tu veux la contrer elle esquive tes coups Depuis j'ai des flows j'découpe pour pas qu'ma maison soit une plaque d'égouts You might also like Ma le-gueu t'imagines pas tous les ceaux-mor qui traînent dans l'ordinateur J'ai compris qu'a rien qui paie, à part les piston et la dure labeur Tu m'connais pas t'es à la bourre On s'était promis à la vie, la mort J'ai une sale image de l'amour, c'est que des déceptions quand j'me remémore Je ne crois pas au hasard, je n'crois qu'en la corruption du croupier J't'ai tendu la main mon frère et t'as pris un couteau pour me la couper Trop d'messages dans mes couplets, mais les gens n'retiennent que l'ambiance, le thème J'arrive pas à m'écouter quand la voix du cerveau dis La Fève je t'aime Ça existe pas l'argent facile, mon jeune chacun fait son ch'min, s'débrouille Le vice fait des conférences il attrape des enfants par la peau des couilles Le misère apporte des poux et tu veux la contrer elle esquive tes coups Depuis j'ai des flows j'découpe pour pas qu'ma maison soit une plaque d'égouts</t>
+          <t>Ok Yeah Yeah Ça existe pas l'argent facile, mon jeune chacun fait son ch'min, s'débrouille Le vice fait des conférences il attrape des enfants par la peau des couilles Le misère apporte des poux et tu veux la contrer elle esquive tes coups Depuis j'ai des flows j'découpe pour pas qu'ma maison soit une plaque d'égouts Moi j'envoie du love mon gars j'ai compris qu'les gens c'est des énergies Qu'ici bah c'est la savane mon jeune c'est la peur de l'autre qui régit La puissance, la thune m'excitent et je parle au ciel donc je dis merci Moi j'fuck avec toi même si dans la vie on n'partage pas les mêmes cibles Je sens l'enfer sur ma tempe, le mal a le doigt sur la gâchette Tant de prière dans l'vent mon gars, j'compte même pas les Douâa qu'on a gâchés Faut peu pour qu'le diable m'achète, j'veux juste des étoiles sur le bord d'ma chaîne J'veux profiter d'tout c'qu'on m'offre moi jeune avant que le mort m'achève Faut une big coronne pour La Fève parce que dans ma tête j'ai des p'tits regrets Grand espion comme 07, j'vérifie s'il y a pas d'poison dans l'rre-ve J'suis un homme donc j'ai des rêves la plupart des humains m'les ont avalés Je pense à ma future mort pendant qu'la nuit tombe dans la vallée Ça existe pas l'argent facile, mon jeune chacun fait son ch'min, s'débrouille Le vice fait des conférences il attrape des enfants par la peau des couilles Le misère apporte des poux et tu veux la contrer elle esquive tes coups Depuis j'ai des flows j'découpe pour pas qu'ma maison soit une plaque d'égouts Ma le-gueu t'imagines pas tous les ceaux-mor qui traînent dans l'ordinateur J'ai compris qu'a rien qui paie, à part les piston et la dure labeur Tu m'connais pas t'es à la bourre On s'était promis à la vie, la mort J'ai une sale image de l'amour, c'est que des déceptions quand j'me remémore Je ne crois pas au hasard, je n'crois qu'en la corruption du croupier J't'ai tendu la main mon frère et t'as pris un couteau pour me la couper Trop d'messages dans mes couplets, mais les gens n'retiennent que l'ambiance, le thème J'arrive pas à m'écouter quand la voix du cerveau dis La Fève je t'aime Ça existe pas l'argent facile, mon jeune chacun fait son ch'min, s'débrouille Le vice fait des conférences il attrape des enfants par la peau des couilles Le misère apporte des poux et tu veux la contrer elle esquive tes coups Depuis j'ai des flows j'découpe pour pas qu'ma maison soit une plaque d'égouts</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le tec' Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le tec' Compte pas trop les plavons sur le teco Yah, yah Epon Errr, mes rêves avec toi on fait la game Dans le studio, je travaille les gammes Bientôt, j dis frérot, on a gagné Jeune avare vut la vie de palace T'es mon frérot si t'es connu sur le son 2021 je fais du salasse Ma mère elle croit en moi, c'est le bon choix Elle sait que rien ne paye, sauf le bon char Bon char Ta voix est insolite, beaucoup sous mes semelles Le jeune est préparé, let's go Je sais, faut pas chômer, mon doigt sur le sommet J'sais pas trop si j'ai sommeil, let's go Ta voix est insolite, beaucoup sous mes semelles Le jeune est préparé, let's go Je sais, faut pas chômer, mon doigt sur le sommet J'sais pas si j'ai sommeil, let's go You might also like Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le tec' Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le tec' Compte pas trop les plavons sur le teco Yah, yah Yah, yah Yah, yah</t>
+          <t>Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le tec' Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le tec' Compte pas trop les plavons sur le teco Yah, yah Epon Errr, mes rêves avec toi on fait la game Dans le studio, je travaille les gammes Bientôt, j dis frérot, on a gagné Jeune avare vut la vie de palace T'es mon frérot si t'es connu sur le son 2021 je fais du salasse Ma mère elle croit en moi, c'est le bon choix Elle sait que rien ne paye, sauf le bon char Bon char Ta voix est insolite, beaucoup sous mes semelles Le jeune est préparé, let's go Je sais, faut pas chômer, mon doigt sur le sommet J'sais pas trop si j'ai sommeil, let's go Ta voix est insolite, beaucoup sous mes semelles Le jeune est préparé, let's go Je sais, faut pas chômer, mon doigt sur le sommet J'sais pas si j'ai sommeil, let's go Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le tec' Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le teco Compte pas trop les plavons sur le tec' Compte pas trop les plavons sur le teco Yah, yah Yah, yah Yah, yah</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>R-r-rolandJoeC, RolandJoeC, RolandJoeC Comment ça va toi ? Baby Hey, hey J'fais un p'tit saut dans la basse, j'attrape dans mon filet comme basket J'suis mignon sur photos d'classe, mais j'ai les yeux rouges, j'ai l'air à l'ouest Quand j'suis fons-dé j'me dépasse, sur le terrain j'me déplace, j'fais les passes Avant la perf' comme athlète j'fais des pates Un, deux, trois, quatre boss, t'as capté c'est des maths Tout roule, j'suis en Berline ma belle J'ai quitté l'périph' sa mère J'veux tout l'or, pas d'équité Pochon sur moi, je sors bien équipé J'suis en équipe A, en équipe 1, tu joues la div' 3, je joue la ligue 1 Avant d'mourir, on f'ra grave les tubes, on va brasser d'un coup on s'ra pas les Tuches La Fève le monstre, huit sur la montre Merde Y a des marches et tant pis on les monte 7 sur ma tombe, j'refais mes comptes J'suis dans la bre-cham avec mes Apôtres J'suis dans la comme milieu urbain J'suis dans la 12, pas dans millésime Ma dame a des doutes sur son concubin Elle en a marre que j'fasse que des rimes Mais j'sais rien faire d'autre, j'sais que j'm'explose J'prends pas d'verres, j'suis dans ma névrose J'fais pas d' J'ai l'adresse de mes blèmes-pro J'prend ma veste, j'aime bien la crème anglaise C'était avant l'averse Le propre on est l'inverse J'décale et j'roule un perse You might also like J'veux pas try ta bitche, moi j'suis calé dans le J'suis trop fort quand je zone dans le club T'es descendu trop bas, moi j'ai capté tous tes potes babe Mais tu m'auras pas, j'serais pas con comme un d'tes plug J'veux pas try ta bitche, moi j'suis calé dans le J'suis trop fort quand je zone dans le club T'es descendu trop bas, moi j'ai capté tous tes potes babe R-r-rolandJoeC Mais tu m'auras pas, j'serais pas con comme un d'tes plug Ouais, ouais Merde, ça parle de psychotropes sur l'avenue Pascal Praud J'écoute c'que dit mon malin J'aime pas l'amour, ça affaiblit mon masque J'ai trop d'problématiques sous la main J'suis dans la ciudad avec le Dun' Crimes dans la tête, j'ai l'seum contre la France entière J'ai trop d'images dans la tête J'm'abreuve de sang d'bourbe J'mange pour consolider mon athlète J'suis discret, j'fais mes affaires 7op au bord d'la mer, 7op dans les merveilles Ouais les tass tournent Fève, Dundy c'est la base Faudrait du confort avant que la mort nous embrasse Cordialement signé le roi LAF, merde Moi ce que je sais faire c'est pas encore à la mode Ouais, paires de Nike trouées, la me les dévore Moi ce que je sais frère, c'est qu'on me dit que j'suis fort Alors même si t'es un hater, j'te supporte, tu fais l'effort J'veux pas try ta bitche, moi j'suis calé dans le J'suis trop fort quand je zone dans le club T'es descendu trop bas, moi j'ai capté tous tes potes babe Mais tu m'auras pas, j'serais pas con comme un d'tes plug J'veux pas try ta bitche, moi j'suis calé dans le R-r-rolandJoeC J'suis trop fort quand je zone dans le club T'es descendu trop bas, moi j'ai capté tous tes potes babe Mais tu m'auras pas, j'serais pas con comme un d'tes plug Uh</t>
+          <t>R-r-rolandJoeC, RolandJoeC, RolandJoeC Comment ça va toi ? Baby Hey, hey J'fais un p'tit saut dans la basse, j'attrape dans mon filet comme basket J'suis mignon sur photos d'classe, mais j'ai les yeux rouges, j'ai l'air à l'ouest Quand j'suis fons-dé j'me dépasse, sur le terrain j'me déplace, j'fais les passes Avant la perf' comme athlète j'fais des pates Un, deux, trois, quatre boss, t'as capté c'est des maths Tout roule, j'suis en Berline ma belle J'ai quitté l'périph' sa mère J'veux tout l'or, pas d'équité Pochon sur moi, je sors bien équipé J'suis en équipe A, en équipe 1, tu joues la div' 3, je joue la ligue 1 Avant d'mourir, on f'ra grave les tubes, on va brasser d'un coup on s'ra pas les Tuches La Fève le monstre, huit sur la montre Merde Y a des marches et tant pis on les monte 7 sur ma tombe, j'refais mes comptes J'suis dans la bre-cham avec mes Apôtres J'suis dans la comme milieu urbain J'suis dans la 12, pas dans millésime Ma dame a des doutes sur son concubin Elle en a marre que j'fasse que des rimes Mais j'sais rien faire d'autre, j'sais que j'm'explose J'prends pas d'verres, j'suis dans ma névrose J'fais pas d' J'ai l'adresse de mes blèmes-pro J'prend ma veste, j'aime bien la crème anglaise C'était avant l'averse Le propre on est l'inverse J'décale et j'roule un perse J'veux pas try ta bitche, moi j'suis calé dans le J'suis trop fort quand je zone dans le club T'es descendu trop bas, moi j'ai capté tous tes potes babe Mais tu m'auras pas, j'serais pas con comme un d'tes plug J'veux pas try ta bitche, moi j'suis calé dans le J'suis trop fort quand je zone dans le club T'es descendu trop bas, moi j'ai capté tous tes potes babe R-r-rolandJoeC Mais tu m'auras pas, j'serais pas con comme un d'tes plug Ouais, ouais Merde, ça parle de psychotropes sur l'avenue Pascal Praud J'écoute c'que dit mon malin J'aime pas l'amour, ça affaiblit mon masque J'ai trop d'problématiques sous la main J'suis dans la ciudad avec le Dun' Crimes dans la tête, j'ai l'seum contre la France entière J'ai trop d'images dans la tête J'm'abreuve de sang d'bourbe J'mange pour consolider mon athlète J'suis discret, j'fais mes affaires 7op au bord d'la mer, 7op dans les merveilles Ouais les tass tournent Fève, Dundy c'est la base Faudrait du confort avant que la mort nous embrasse Cordialement signé le roi LAF, merde Moi ce que je sais faire c'est pas encore à la mode Ouais, paires de Nike trouées, la me les dévore Moi ce que je sais frère, c'est qu'on me dit que j'suis fort Alors même si t'es un hater, j'te supporte, tu fais l'effort J'veux pas try ta bitche, moi j'suis calé dans le J'suis trop fort quand je zone dans le club T'es descendu trop bas, moi j'ai capté tous tes potes babe Mais tu m'auras pas, j'serais pas con comme un d'tes plug J'veux pas try ta bitche, moi j'suis calé dans le R-r-rolandJoeC J'suis trop fort quand je zone dans le club T'es descendu trop bas, moi j'ai capté tous tes potes babe Mais tu m'auras pas, j'serais pas con comme un d'tes plug Uh</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Yeah La Fève, 7, Walone ERRR Okay Trop de faux négros qui connaissent pas la politesse Trouver la light, ma le-gu', on a fait ça en vitesse Awh Une liasse épaisse, smoke la dope qui empeste Empeste Beaucoup d'rappeurs rêvent faire mais big La Fève, c'est le best Rah, rah Une thot, pour m'calmer, j'me méfie de c'qui peut m'charmer J'note des mots sur l'carnet Carnet et j'trap sur l kick, la charle' Des années n avance, ma le-gue', pas d'vacances, ma le-gue', j'y pense, ma le-gue' Le temps, il passe Yeah, il faudrait qu'j'dépense à l'il Qu'j'dépense à l'il Lui j'crois, c'est mon seul fan, j'sais qu'il peut applaudir pour moi Pour moi Viens là pour voir, dans l'stud', j'use de mon pouvoir ERRR Les doutes, sur moi ma famille compte maintenant mais avant, j'étais la honte La honte À la school Yeah, pas concentré Yeah, pas d'cardio Yeah pour pousser la fonte Let's go Mon flair me dit Ça va ?, j'dis C'est carré, vamos chicos Chicos J'me souviens, ça manquait l'goût du salé sur mes chicots ERRR L'autre, c'est mon ennemi, j'sais qu'il veut que son bien au fond Là, j'suis devant ceux qui m'calculaient pas quand j'étais au fond Au fond Quand j'étais au fond ERRR, j'sais pas trop c'que les autres font Autres font Faire du salasse, ma le-gueu, y avait pas dix milles options Dix milles options La gadji m'appelle mais j'suis busy, j'fais du gros son ERRR Ça boit la pisse de Judas comme si c'était une potion, let's Des bitchs, des faggot, dans l'industrie, c'est trop, 'sin C'est trop, 'sin On l'a appris à l'faire, on fait cette shit comme des pros, 'sin Des pros, 'sin Comme des imbéciles, smoke une plante couleur émeraude, 'sin Yeah J'ai pas d'héros, 'sin, sauf Dieu, il m'aide dans ma road, 'sin You might also like Trop de faux négros qui connaissent pas la politesse Trouver la light, ma le-gu', on a fait ça en vitesse Awh Une liasse épaisse, smoke la dope qui empeste Empeste Beaucoup d'rappeurs rêvent faire mais big La Fève, c'est le best Rah, rah Une thot, pour m'calmer, j'me méfie de c'qui peut m'charmer J'note des mots sur l'carnet Carnet et j'trap sur le kick, la charle' Des années en avance, ma le-gue', pas d'vacances, ma le-gue', j'y pense, ma le-gue' Le temps, il passe Yeah, il faudrait qu'j'dépense à l'il Qu'j'dépense à l'il</t>
+          <t>Yeah La Fève, 7, Walone ERRR Okay Trop de faux négros qui connaissent pas la politesse Trouver la light, ma le-gu', on a fait ça en vitesse Awh Une liasse épaisse, smoke la dope qui empeste Empeste Beaucoup d'rappeurs rêvent faire mais big La Fève, c'est le best Rah, rah Une thot, pour m'calmer, j'me méfie de c'qui peut m'charmer J'note des mots sur l'carnet Carnet et j'trap sur l kick, la charle' Des années n avance, ma le-gue', pas d'vacances, ma le-gue', j'y pense, ma le-gue' Le temps, il passe Yeah, il faudrait qu'j'dépense à l'il Qu'j'dépense à l'il Lui j'crois, c'est mon seul fan, j'sais qu'il peut applaudir pour moi Pour moi Viens là pour voir, dans l'stud', j'use de mon pouvoir ERRR Les doutes, sur moi ma famille compte maintenant mais avant, j'étais la honte La honte À la school Yeah, pas concentré Yeah, pas d'cardio Yeah pour pousser la fonte Let's go Mon flair me dit Ça va ?, j'dis C'est carré, vamos chicos Chicos J'me souviens, ça manquait l'goût du salé sur mes chicots ERRR L'autre, c'est mon ennemi, j'sais qu'il veut que son bien au fond Là, j'suis devant ceux qui m'calculaient pas quand j'étais au fond Au fond Quand j'étais au fond ERRR, j'sais pas trop c'que les autres font Autres font Faire du salasse, ma le-gueu, y avait pas dix milles options Dix milles options La gadji m'appelle mais j'suis busy, j'fais du gros son ERRR Ça boit la pisse de Judas comme si c'était une potion, let's Des bitchs, des faggot, dans l'industrie, c'est trop, 'sin C'est trop, 'sin On l'a appris à l'faire, on fait cette shit comme des pros, 'sin Des pros, 'sin Comme des imbéciles, smoke une plante couleur émeraude, 'sin Yeah J'ai pas d'héros, 'sin, sauf Dieu, il m'aide dans ma road, 'sin Trop de faux négros qui connaissent pas la politesse Trouver la light, ma le-gu', on a fait ça en vitesse Awh Une liasse épaisse, smoke la dope qui empeste Empeste Beaucoup d'rappeurs rêvent faire mais big La Fève, c'est le best Rah, rah Une thot, pour m'calmer, j'me méfie de c'qui peut m'charmer J'note des mots sur l'carnet Carnet et j'trap sur le kick, la charle' Des années en avance, ma le-gue', pas d'vacances, ma le-gue', j'y pense, ma le-gue' Le temps, il passe Yeah, il faudrait qu'j'dépense à l'il Qu'j'dépense à l'il</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait Poppin shit, c'est tout c'que shit, Louis, Gucci shit, expensive shit J'ai un nouveau brrr, t'as le cur qui brrr, et dire qu'elles pensaient tous que j'passerai toute ma vie dans le piège T'es sexy hmm, quand je crache mon truc elle me dit hmhm Elle fuck let's go, c'est la nouvelle génération let's go J'suis en ocho cinco, la F le H ils sont finitos Quoi de neuf ma le-gueu? Quoi de neuf ma le-gueu ? errrYou might also like</t>
+          <t>Paroles issues d'un extrait Poppin shit, c'est tout c'que shit, Louis, Gucci shit, expensive shit J'ai un nouveau brrr, t'as le cur qui brrr, et dire qu'elles pensaient tous que j'passerai toute ma vie dans le piège T'es sexy hmm, quand je crache mon truc elle me dit hmhm Elle fuck let's go, c'est la nouvelle génération let's go J'suis en ocho cinco, la F le H ils sont finitos Quoi de neuf ma le-gueu? Quoi de neuf ma le-gueu ? errr</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Vrai G donc j'passe à l'acte Je dis c'que j'pense dans mes textes j'raconte pas d'salades Doué dans le salace Jamais de faux regards quand j'passe le salam Combien d'sons par année ? Jeune futur parano s'fait finesse par un autre Mon prochain il est aussi pourri qu'moi j'peux pas m'faire juger par un homme Affecté par la trahison et les décès J'ai fini mon repas il n'y a pas de dessert Tu veux le faire, G, il faut que tu essayes Y'n a pour monter leur pantalon ils le baissaint On est pas comme eux petit frère Je sais bien qu'le futur dit vrai La Fève il est connu dans le district La loi de l'univers elle est très stricte Vrai G donc j'passe à l'acte Je dis c'que j'pense dans mes textes j'raconte pas d'salades Doué dans le salace jamais de faux regards quand j'passe le salam Combien d'sons par année ? Jeune futur parano s'fait finesse par un autre Mon prochain il est aussi pourri qu'moi j'peux pas m'faire juger par un autre You might also like Vrai G donc j'passe à l'acte Je dis c'que j'pense dans mes textes j'raconte pas des thos-my T'es qui toi va là-bas ? Everyday dans le stud j'fais d'la bombe atomique Couper les ponts j'sais faire quand c'est le nécessaire pas besoin d'réfléchir On veut s'envoler mais c'est cher J'veux les voir les Seychelles je boue comme un geyser Tu sais j'attends que le monde Dans les business il y'a des bénéfices Je vis que la nuit comme un zombie J'ai jamais très écouté c'qu'ils m'ont dit Han, vrai G donc j'passe à l'acte Je suis le même qu'à la base Je m'inquiète si j'suis a la barre Jamais d'faux regards quand j'passe le salam Vrai G donc j'passe à l'acte Je dis c'que j'pense dans mes textes j'raconte pas d'salades Doux et dans le salace jamais de faux regards quand j'passe le Salam Combien d'sons par année ? Jeune futur parano s'fait finesse par un autre Mon prochain il est aussi pourri qu'moi j'peux pas m'faire juger par un autre</t>
+          <t>Vrai G donc j'passe à l'acte Je dis c'que j'pense dans mes textes j'raconte pas d'salades Doué dans le salace Jamais de faux regards quand j'passe le salam Combien d'sons par année ? Jeune futur parano s'fait finesse par un autre Mon prochain il est aussi pourri qu'moi j'peux pas m'faire juger par un homme Affecté par la trahison et les décès J'ai fini mon repas il n'y a pas de dessert Tu veux le faire, G, il faut que tu essayes Y'n a pour monter leur pantalon ils le baissaint On est pas comme eux petit frère Je sais bien qu'le futur dit vrai La Fève il est connu dans le district La loi de l'univers elle est très stricte Vrai G donc j'passe à l'acte Je dis c'que j'pense dans mes textes j'raconte pas d'salades Doué dans le salace jamais de faux regards quand j'passe le salam Combien d'sons par année ? Jeune futur parano s'fait finesse par un autre Mon prochain il est aussi pourri qu'moi j'peux pas m'faire juger par un autre Vrai G donc j'passe à l'acte Je dis c'que j'pense dans mes textes j'raconte pas des thos-my T'es qui toi va là-bas ? Everyday dans le stud j'fais d'la bombe atomique Couper les ponts j'sais faire quand c'est le nécessaire pas besoin d'réfléchir On veut s'envoler mais c'est cher J'veux les voir les Seychelles je boue comme un geyser Tu sais j'attends que le monde Dans les business il y'a des bénéfices Je vis que la nuit comme un zombie J'ai jamais très écouté c'qu'ils m'ont dit Han, vrai G donc j'passe à l'acte Je suis le même qu'à la base Je m'inquiète si j'suis a la barre Jamais d'faux regards quand j'passe le salam Vrai G donc j'passe à l'acte Je dis c'que j'pense dans mes textes j'raconte pas d'salades Doux et dans le salace jamais de faux regards quand j'passe le Salam Combien d'sons par année ? Jeune futur parano s'fait finesse par un autre Mon prochain il est aussi pourri qu'moi j'peux pas m'faire juger par un autre</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Pour tes yeux Jcrois que jpourrais faire des promesses Des diamants et des colliers Cash Pour toi jpense quà faire rentrer Ouai Du coup jsuis jamais rentré Pour tes yeux Jcrois que jpourrais faire des promesses Des diamants et des colliers Cash Pourquoi taimes tant le danger ? Ouai Ces larmes de perles nont fait que tomber Ton ptit cur finira inondé Quand jréponds plus Cest que jrecompte Cs larmes de perls nont fait que couler En été en hiver moi jvoulais Fermer les yeux éteindre le monde Trop de classiques par semaine Quand cest le time on sy met Jsuis tombé dans cette spirale Cette go jai cru quon saimait Les données on assimile Des problèmes jen ai six mille Ce petit con jle connais pas Dis-moi de quoi il se mêle ? Concurrence cest juste une tâche de plus sur ma semelle Et cette go je la vois juste comme un plan de secours Le karma te fait mal mais ça dépend de ses coups Tas senti la frappe Steuplait parle no cap Jai une pensé qui méchappe Je faisais ma shit et toi tu parlais sur mes sapes Elle me dit la fève pourquoi tu fais zarma la vie cest trap Jlui ai dit faut laisser ma trace avant que la mort nous attrape On a baraudé baraudé je sais pas cest quoi quon cherchait Tellement de pêchés mon G faut qujaille à la church Jai besoin de cogiter je me suis mis sur répondeur Je voulais rien savoir là je me sens un peu parano You might also like Ghini ghini love Bébé ne mappelait pas Quand jétais dans les halls La nuit les étoiles Surveillent cque je fais tard Quand toute la ville dort Jai pas fait assez Si jsais quoi en faire Ça rentre dans mes poches Mes frères sont bloqués Été comme hiver Calcinent dans une tchop Pour tes yeux Jcrois que jpourrais faire des promesses Des diamants et des colliers Cash Pour toi jpense quà faire rentrer Ouai Du coup jsuis jamais rentré Pour tes yeux Jcrois que jpourrais faire des promesses Des diamants et des colliers Cash Pourquoi taimes tant le danger ? Ouai Ces larmes de perles nont fait que tomber Ton ptit cur finira inondé Quand jréponds plus Cest que jrecompte Ces larmes de perles nont fait que couler En été en hiver moi jvoulais Fermer les yeux éteindre le monde</t>
+          <t>Pour tes yeux Jcrois que jpourrais faire des promesses Des diamants et des colliers Cash Pour toi jpense quà faire rentrer Ouai Du coup jsuis jamais rentré Pour tes yeux Jcrois que jpourrais faire des promesses Des diamants et des colliers Cash Pourquoi taimes tant le danger ? Ouai Ces larmes de perles nont fait que tomber Ton ptit cur finira inondé Quand jréponds plus Cest que jrecompte Cs larmes de perls nont fait que couler En été en hiver moi jvoulais Fermer les yeux éteindre le monde Trop de classiques par semaine Quand cest le time on sy met Jsuis tombé dans cette spirale Cette go jai cru quon saimait Les données on assimile Des problèmes jen ai six mille Ce petit con jle connais pas Dis-moi de quoi il se mêle ? Concurrence cest juste une tâche de plus sur ma semelle Et cette go je la vois juste comme un plan de secours Le karma te fait mal mais ça dépend de ses coups Tas senti la frappe Steuplait parle no cap Jai une pensé qui méchappe Je faisais ma shit et toi tu parlais sur mes sapes Elle me dit la fève pourquoi tu fais zarma la vie cest trap Jlui ai dit faut laisser ma trace avant que la mort nous attrape On a baraudé baraudé je sais pas cest quoi quon cherchait Tellement de pêchés mon G faut qujaille à la church Jai besoin de cogiter je me suis mis sur répondeur Je voulais rien savoir là je me sens un peu parano Ghini ghini love Bébé ne mappelait pas Quand jétais dans les halls La nuit les étoiles Surveillent cque je fais tard Quand toute la ville dort Jai pas fait assez Si jsais quoi en faire Ça rentre dans mes poches Mes frères sont bloqués Été comme hiver Calcinent dans une tchop Pour tes yeux Jcrois que jpourrais faire des promesses Des diamants et des colliers Cash Pour toi jpense quà faire rentrer Ouai Du coup jsuis jamais rentré Pour tes yeux Jcrois que jpourrais faire des promesses Des diamants et des colliers Cash Pourquoi taimes tant le danger ? Ouai Ces larmes de perles nont fait que tomber Ton ptit cur finira inondé Quand jréponds plus Cest que jrecompte Ces larmes de perles nont fait que couler En été en hiver moi jvoulais Fermer les yeux éteindre le monde</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>C'est juste des sangsues, c'est juste des rats mon négro Fais belek à ceux qui gravitent, faut faire ton cash mon négro J'ai dû apprendre à comment briller dans la crasse mon frérot Un petit dégoût pour le G que j'vois dans la glace mon frérot C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro Fais blek à ceux qui gravitent, faut fair ton cash mon négro J'ai dû apprendre à comment briller dans la crasse mon frérot Un petit dégoût pour le G que j'vois dans la glace mon frérot Money on my mind, comme une musique dans la tête Le con qui s'joue de nous peut finir avec une balle dans la tête Les trahisons, les problèmes, la famille tout ça me prend la tête Donc jvais me mettre dans les vapeurs, là j'y repense et jen parle dans le texte C'est grave tout cque j'ai oublié J'l'aimais mais elle a tout plié Déterminé, venu en conquérant donc on a tout pillé En espion t'es jamais venu dans les endroits où on s'est faufilé, ERRR Tape il faut la peaufiner Le destin faut le dessiner J'étais déçu c'est normal, c'est passé, le mal est fait On était en bad, avec le mal faisait un bras de fer L'argent ma maladie et j'crois y a pas de remède J'avais raison j'ai pas cru quand tu m'as dit peut-être J'crois ce billet c'est mon meilleur, il est fidèle Fais belek à pas voler trop haut, moi j'me brûle les ailes Maman m'a dit va à la CAF pour gratter les aides J'fais du son, ça va marcher avec ou sans leur aide You might also like C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro Fais belek à ceux qui gravitent, faut faire ton cash mon négro J'ai dû apprendre à comment briller dans la crasse mon frérot Un petit dégoût pour le G que j'vois dans la glace mon frérot</t>
+          <t>C'est juste des sangsues, c'est juste des rats mon négro Fais belek à ceux qui gravitent, faut faire ton cash mon négro J'ai dû apprendre à comment briller dans la crasse mon frérot Un petit dégoût pour le G que j'vois dans la glace mon frérot C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro Fais blek à ceux qui gravitent, faut fair ton cash mon négro J'ai dû apprendre à comment briller dans la crasse mon frérot Un petit dégoût pour le G que j'vois dans la glace mon frérot Money on my mind, comme une musique dans la tête Le con qui s'joue de nous peut finir avec une balle dans la tête Les trahisons, les problèmes, la famille tout ça me prend la tête Donc jvais me mettre dans les vapeurs, là j'y repense et jen parle dans le texte C'est grave tout cque j'ai oublié J'l'aimais mais elle a tout plié Déterminé, venu en conquérant donc on a tout pillé En espion t'es jamais venu dans les endroits où on s'est faufilé, ERRR Tape il faut la peaufiner Le destin faut le dessiner J'étais déçu c'est normal, c'est passé, le mal est fait On était en bad, avec le mal faisait un bras de fer L'argent ma maladie et j'crois y a pas de remède J'avais raison j'ai pas cru quand tu m'as dit peut-être J'crois ce billet c'est mon meilleur, il est fidèle Fais belek à pas voler trop haut, moi j'me brûle les ailes Maman m'a dit va à la CAF pour gratter les aides J'fais du son, ça va marcher avec ou sans leur aide C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro Fais belek à ceux qui gravitent, faut faire ton cash mon négro J'ai dû apprendre à comment briller dans la crasse mon frérot Un petit dégoût pour le G que j'vois dans la glace mon frérot</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>C'est juste des sangsues, c'est juste des rats mon négro Fais belek à ceux qui gravitent, faut faire ton cash mon négro J'ai dû apprendre à comment briller dans la crasse mon frérot Un petit dégoût pour le G que j'vois dans la glace mon frérot C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro Fais blek à ceux qui gravitent, faut fair ton cash mon négro J'ai dû apprendre à comment briller dans la crasse mon frérot Un petit dégoût pour le G que j'vois dans la glace mon frérot Money on my mind, comme une musique dans la tête Le con qui s'joue de nous peut finir avec une balle dans la tête Les trahisons, les problèmes, la famille tout ça me prend la tête Donc jvais me mettre dans les vapeurs, là j'y repense et jen parle dans le texte C'est grave tout cque j'ai oublié J'l'aimais mais elle a tout plié Déterminé, venu en conquérant donc on a tout pillé En espion t'es jamais venu dans les endroits On s'est faufilé, ERRR Tape faut la peaufiner Le destin faut le dessiner J'étais déçu c'est normal, c'est passé, le mal est fait On était en bad avec le mal faisait un bras de fer L'argent ma maladie et j'crois y'a pas de remède J'avais raison j'ai pas cru quand tu m'as dit peut-être J'crois ce billet c'est mon meilleur, il est fidèle Fais belek à pas voler trop haut, moi j'me brûle les ailes Maman m'a dit va à la CAF pour gratter les aides J'fais du son, ça va marcher avec ou sans leur aide You might also like C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro Fais belek à ceux qui gravitent, faut faire ton cash mon négro J'ai dû apprendre à comment briller dans la crasse mon frérot Un petit dégoût pour le G que j'vois dans la glace mon frérot</t>
+          <t>C'est juste des sangsues, c'est juste des rats mon négro Fais belek à ceux qui gravitent, faut faire ton cash mon négro J'ai dû apprendre à comment briller dans la crasse mon frérot Un petit dégoût pour le G que j'vois dans la glace mon frérot C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro Fais blek à ceux qui gravitent, faut fair ton cash mon négro J'ai dû apprendre à comment briller dans la crasse mon frérot Un petit dégoût pour le G que j'vois dans la glace mon frérot Money on my mind, comme une musique dans la tête Le con qui s'joue de nous peut finir avec une balle dans la tête Les trahisons, les problèmes, la famille tout ça me prend la tête Donc jvais me mettre dans les vapeurs, là j'y repense et jen parle dans le texte C'est grave tout cque j'ai oublié J'l'aimais mais elle a tout plié Déterminé, venu en conquérant donc on a tout pillé En espion t'es jamais venu dans les endroits On s'est faufilé, ERRR Tape faut la peaufiner Le destin faut le dessiner J'étais déçu c'est normal, c'est passé, le mal est fait On était en bad avec le mal faisait un bras de fer L'argent ma maladie et j'crois y'a pas de remède J'avais raison j'ai pas cru quand tu m'as dit peut-être J'crois ce billet c'est mon meilleur, il est fidèle Fais belek à pas voler trop haut, moi j'me brûle les ailes Maman m'a dit va à la CAF pour gratter les aides J'fais du son, ça va marcher avec ou sans leur aide C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro C'est juste des sangsues, c'est juste des rats mon négro Fais belek à ceux qui gravitent, faut faire ton cash mon négro J'ai dû apprendre à comment briller dans la crasse mon frérot Un petit dégoût pour le G que j'vois dans la glace mon frérot</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Ha, Ha Ouh Ha, Ha Yeah Ha, Ha Y'a des gamins, dans les ravins D'la cocaïne dans un Balmin, j'vide mon keus Y'a un machin, j'ai d'la keuch, c'est mon parfum Avec mes loubards dans le piège, c'est mieux que crécher dans des bazars Ça viole des enfants en bas âge, j'me mélange pas c'est des bâtards C'est la pagaille dans ma city, dans ma ville J'suis dans l'brouillard tous les putains d'jours J'dis pas ça pour la frime Les rîmes sont balaises comme Hagrid Les jours sont comptés comme la La fève le DUC j'suis dans mon spleen C'est mieux qu'être plongé dans la street À minuit pil sur la rive gauche J't'e parl de comment faire un monde L'odeur de Paris c'est nauséabonde Comme d'hab, si tu fait le gars on t'affronte Je veux d'la place dans ma tombe, je sais qu'l'enfer m'attend Fuck un bleu fuck un maton Moi j'ai du pain sur la planche, c'est mieux qu'un fer sur la tempe La Fève c'est pas ton p'tit pote, j'ai mes gars sûr si j'pars en couille T'es pas réglo donc vaffanculo, on dansera sur ta dépouille J'sais qu'la route est longue mon jeune J'ai du sang sur les pompes mon jeune J'ai pas l'temps pour les faux semblant C'est pour ça qu'j'fais les tours mon jeune Fève le grand artiste piégé dans ma vantardise c'est pour mes gens d'Afrique, les gendarmes coursent les faiseurs d'fric mec J'suis doué dans mon truc gros, j'suis grave doué dans mon business Les miroirs c'est faux, c'est comme une gadji avec un p'tit zgeg ramène l'équipe ! On s'met bien sur l'banc, pas loin dl'a rue Sorbier J'ai pas d'liquide donc ça va prendre un dix, pour deux pour la soirée J'ai la maîtrise, j'veux l'Amérique, pour la plupart c'est très bourbier Y'a des gens qu'on b'soin d'aide pour chier Le rap y'a pas trop d'débouché J'marche tout seul, ou j'marche avec grande équipe Paye ton grec et on est quitte Gros ces fuckBoys rap en legging Fève s'applique dans ses bails Et j'veux du fric, pour bien grailler Pour l'estime j'aide les pavés Sur les flics, j'entends brailler Ça mexcite, j'suis dans l'allée comme un camé, maman dirais tu fais quoi ? Avant dcaner, j'veux la caler, dans une Audi R8 noir J'fais que d'gratter mes déboires Donc pètrons les scores J'aime râler, j'ai d'l'espoir donc j'fais plus trop de sport You might also like Maintenant j'fais plus trop de sport J'ai dl'a cons, j'ai des frères dans les ronces Ça m'a frôlé, j'vais lrépéter, j'ai des frères dans les ronces Matin, midi dans mon tro-mé J'fais des 16 qui défoncent Et ça ménerve j'pense au futur j'suis sur les nerfs Cherche le Khaliss du sud au nord J'ai pris ma vallée j'suis grave déter Fève la plus grande marque ambulante Dans l'ambulance là où j'allais J'trouve ça soulant ya du vacarme, y'a du boucan dans ma tête Y'a des gamins, dans les ravins D'la cocaïne dans un Balmin, j'vide mon keus Y'a un machin, j'ai d'la keuch, c'est mon parfum Avec mes loubards dans le piège, c'est mieux que créché dans des bazars Ça viole des enfants en bas âge, j'me mélange pas c'est des bâtards</t>
+          <t>Ha, Ha Ouh Ha, Ha Yeah Ha, Ha Y'a des gamins, dans les ravins D'la cocaïne dans un Balmin, j'vide mon keus Y'a un machin, j'ai d'la keuch, c'est mon parfum Avec mes loubards dans le piège, c'est mieux que crécher dans des bazars Ça viole des enfants en bas âge, j'me mélange pas c'est des bâtards C'est la pagaille dans ma city, dans ma ville J'suis dans l'brouillard tous les putains d'jours J'dis pas ça pour la frime Les rîmes sont balaises comme Hagrid Les jours sont comptés comme la La fève le DUC j'suis dans mon spleen C'est mieux qu'être plongé dans la street À minuit pil sur la rive gauche J't'e parl de comment faire un monde L'odeur de Paris c'est nauséabonde Comme d'hab, si tu fait le gars on t'affronte Je veux d'la place dans ma tombe, je sais qu'l'enfer m'attend Fuck un bleu fuck un maton Moi j'ai du pain sur la planche, c'est mieux qu'un fer sur la tempe La Fève c'est pas ton p'tit pote, j'ai mes gars sûr si j'pars en couille T'es pas réglo donc vaffanculo, on dansera sur ta dépouille J'sais qu'la route est longue mon jeune J'ai du sang sur les pompes mon jeune J'ai pas l'temps pour les faux semblant C'est pour ça qu'j'fais les tours mon jeune Fève le grand artiste piégé dans ma vantardise c'est pour mes gens d'Afrique, les gendarmes coursent les faiseurs d'fric mec J'suis doué dans mon truc gros, j'suis grave doué dans mon business Les miroirs c'est faux, c'est comme une gadji avec un p'tit zgeg ramène l'équipe ! On s'met bien sur l'banc, pas loin dl'a rue Sorbier J'ai pas d'liquide donc ça va prendre un dix, pour deux pour la soirée J'ai la maîtrise, j'veux l'Amérique, pour la plupart c'est très bourbier Y'a des gens qu'on b'soin d'aide pour chier Le rap y'a pas trop d'débouché J'marche tout seul, ou j'marche avec grande équipe Paye ton grec et on est quitte Gros ces fuckBoys rap en legging Fève s'applique dans ses bails Et j'veux du fric, pour bien grailler Pour l'estime j'aide les pavés Sur les flics, j'entends brailler Ça mexcite, j'suis dans l'allée comme un camé, maman dirais tu fais quoi ? Avant dcaner, j'veux la caler, dans une Audi R8 noir J'fais que d'gratter mes déboires Donc pètrons les scores J'aime râler, j'ai d'l'espoir donc j'fais plus trop de sport Maintenant j'fais plus trop de sport J'ai dl'a cons, j'ai des frères dans les ronces Ça m'a frôlé, j'vais lrépéter, j'ai des frères dans les ronces Matin, midi dans mon tro-mé J'fais des 16 qui défoncent Et ça ménerve j'pense au futur j'suis sur les nerfs Cherche le Khaliss du sud au nord J'ai pris ma vallée j'suis grave déter Fève la plus grande marque ambulante Dans l'ambulance là où j'allais J'trouve ça soulant ya du vacarme, y'a du boucan dans ma tête Y'a des gamins, dans les ravins D'la cocaïne dans un Balmin, j'vide mon keus Y'a un machin, j'ai d'la keuch, c'est mon parfum Avec mes loubards dans le piège, c'est mieux que créché dans des bazars Ça viole des enfants en bas âge, j'me mélange pas c'est des bâtards</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Yeah Yeah Yesterday j'étais un minable, j'veux une kichta interminable, rien d'original Yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah Dans cette merde, je suis comme le boss final, t'es mon opps, tu n'as rien d'original Pour sentir que ma vie a augmenté, j'ai troqué le jus pour le Ruinart Yeah Même si j'ai le million, faut le milliard, si j'écoute mes démons, j'vais au mitard Il a sali ton nom, sors la mitraillette, j'te connais pas, dis-moi qu'est c'qu'il t'fallait ? Yesterday, j'étais un minable, j'veux une kichta interminable Rien d'original, yeah Yeah, rien d'original, yeah Dans cette merde, j'suis comme le boss final, j'suis un vrai G, j'ai rien d'original Rien d'original, yeah Rien d'original, rien d'original, yeah J'ai vue sur des baraques, ma le-g', j'ai des plav' à gauche, à droite mais y a rien de concret Mais y a rien de concret J'ai vue sur des baraques, ma le-g', j'ai des plav' à gauche, à droite mais y a rien de concret Lui il fait rien mais il est bruyant, elle m'aime par c'que c'est moi l'plus brillant Mais c'est moi l'perdant quand j'fais le bilan, ma le-g', j'vais pas rapper pendant mille ans J'suis avec ma baddie sur le divan Tu débites mais tu dis que du vent, t'es un ient-cli mais tu dis qu'tu vends N'essaie pas d'rattraper j'suis trop- Yeah, n'essaie pas d'rattraper j'suis trop devant J'vais tout baiser dans ma rage, j'avais moins d'vice à leurs âges Moi c'est la qualité, le démarrage, faut tout cacher si on est dans les parages Dans la cabine comme un chef, j'ai fini le Top Chef J'ai fini le Top Chef Fais ce que tu veux mais fais-le en soum, même les murs t'observent Yeah Quand j'dis No cap, c'est No- Quand j'dis No cap, c'est No-, quand j'dis No cap, c'est No blehni Pas invités, on s'est permis, obligé d'me masquer sur Bériz Ils sont prêts à tout pour cer-per, j'ai pas commencé, ça veut m'terminer J'aimerais faire un tour mais la zone est minée yeah You might also like Dans cette merde, je suis comme le boss final, t'es mon opps, tu n'as rien d'original Yeah Pour sentir que ma vie a augmenté, j'ai troqué le jus pour le Ruinart Yeah Même si j'ai le million, faut le milliard, si j'écoute mes démons, j'vais au mitard Il a sali ton nom, sors la mitraillette, j'te connais pas, dis-moi qu'est c'qu'il t'fallait ? Yesterday, j'étais un minable, j'veux une kichta interminable Rien d'original, yeah Yeah, rien d'original, yeah Dans cette merde, j'suis comme le boss final, j'suis un vrai G, j'ai rien d'original Rien d'original, yeah Rien d'original, rien d'original, yeah J'ai vue sur des baraques, ma le-g', j'ai des plav' à gauche, à droite mais y a rien de concret Mais y a rien de concret, j'ai des plav' mais y a rien de concret J'ai vue sur des baraques, ma le-g', j'ai des plav' à gauche, à droite mais y a rien de concret J'ai vue sur baraques, ma le-g', sur des baraques, ma le-g', j'ai des plav' mais y a rien de concret</t>
+          <t>Yeah Yeah Yesterday j'étais un minable, j'veux une kichta interminable, rien d'original Yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah Dans cette merde, je suis comme le boss final, t'es mon opps, tu n'as rien d'original Pour sentir que ma vie a augmenté, j'ai troqué le jus pour le Ruinart Yeah Même si j'ai le million, faut le milliard, si j'écoute mes démons, j'vais au mitard Il a sali ton nom, sors la mitraillette, j'te connais pas, dis-moi qu'est c'qu'il t'fallait ? Yesterday, j'étais un minable, j'veux une kichta interminable Rien d'original, yeah Yeah, rien d'original, yeah Dans cette merde, j'suis comme le boss final, j'suis un vrai G, j'ai rien d'original Rien d'original, yeah Rien d'original, rien d'original, yeah J'ai vue sur des baraques, ma le-g', j'ai des plav' à gauche, à droite mais y a rien de concret Mais y a rien de concret J'ai vue sur des baraques, ma le-g', j'ai des plav' à gauche, à droite mais y a rien de concret Lui il fait rien mais il est bruyant, elle m'aime par c'que c'est moi l'plus brillant Mais c'est moi l'perdant quand j'fais le bilan, ma le-g', j'vais pas rapper pendant mille ans J'suis avec ma baddie sur le divan Tu débites mais tu dis que du vent, t'es un ient-cli mais tu dis qu'tu vends N'essaie pas d'rattraper j'suis trop- Yeah, n'essaie pas d'rattraper j'suis trop devant J'vais tout baiser dans ma rage, j'avais moins d'vice à leurs âges Moi c'est la qualité, le démarrage, faut tout cacher si on est dans les parages Dans la cabine comme un chef, j'ai fini le Top Chef J'ai fini le Top Chef Fais ce que tu veux mais fais-le en soum, même les murs t'observent Yeah Quand j'dis No cap, c'est No- Quand j'dis No cap, c'est No-, quand j'dis No cap, c'est No blehni Pas invités, on s'est permis, obligé d'me masquer sur Bériz Ils sont prêts à tout pour cer-per, j'ai pas commencé, ça veut m'terminer J'aimerais faire un tour mais la zone est minée yeah Dans cette merde, je suis comme le boss final, t'es mon opps, tu n'as rien d'original Yeah Pour sentir que ma vie a augmenté, j'ai troqué le jus pour le Ruinart Yeah Même si j'ai le million, faut le milliard, si j'écoute mes démons, j'vais au mitard Il a sali ton nom, sors la mitraillette, j'te connais pas, dis-moi qu'est c'qu'il t'fallait ? Yesterday, j'étais un minable, j'veux une kichta interminable Rien d'original, yeah Yeah, rien d'original, yeah Dans cette merde, j'suis comme le boss final, j'suis un vrai G, j'ai rien d'original Rien d'original, yeah Rien d'original, rien d'original, yeah J'ai vue sur des baraques, ma le-g', j'ai des plav' à gauche, à droite mais y a rien de concret Mais y a rien de concret, j'ai des plav' mais y a rien de concret J'ai vue sur des baraques, ma le-g', j'ai des plav' à gauche, à droite mais y a rien de concret J'ai vue sur baraques, ma le-g', sur des baraques, ma le-g', j'ai des plav' mais y a rien de concret</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Aime-moi, dis-moi Ouh Ouh, ouh, eh, eh Aime-moi, dis-moi, ouais, dis-moi Ouh Ouh Mmh-mmh-mmh, mmh-mmh-mmh Yes Mmh-mmh-mmh, mmh-mmh-mmh ERRR Tape 2021 Ouh Mmh-mmh-mmh, mmh-mmh-mmh Han, yes, okay, yeah Un cousin, sur la cheville, il a le bracelet Le bracelet Dis-moi pourquoi le Sheitan, il vient m'harceler ? Il vient m'harceler J'te souhaitais que du bien Bien, tu m'as trahi, c'est laid Tu m'as trahi, c'est laid Faut casser les portes que ma musique s'élève Que ma musique s'élève J'en connais trop qui prennent d haut, qui pissent dans l'eau bénite Dans l'au bénite J'ai pas été vif donc j'me fais toucher par un Obélix Par un Obélix Faire du sale, j'm'oblige, che-ri, j'm'embellirai Yeah Mais sur l'écrans, j'suis moche, pas d'Gemey Maybelline Gemey Maybelline Si tu crois en c'que j'propose, il faut qu'tu pimp my shit J'fais mon oseille et j'mets ma baraque sur un pilotis J'mets ma baraque sur un pilotis Tu sais, la vida c'est l'argent 'gent, tu tailles ou tires Tires On m'appelle Louis comme les tes-tê '-tê sous guillotine Sous guillotine Et dans le stud', j'me sens Picasso, j'me sens Dali J'me sens Dali Tu crois j'vais penser à toi à 200 dans la Cali You might also like Et j'danse, la musique est douce Douce, j'oublie ma timeline Faut qu'on maille, maille, yeah, mec, G, faire my mine Rah Des soucis qui prennent ma te-tê, ça ne cesse pas Ouais, ça ne cesse pas Je n'ai pas guéri d'hier, chérie, ne me blesse pas Ne me blesse pas Un boofpack pour nos gavas, pour nous mettre à l'aise À l'aise Et dans l'clip j'fais les moovs, dans le clip j'fais les moovs Des soucis qui prennent ma te-tê, ça ne cesse pas Ouais, ça ne cesse pas Je n'ai pas guéri d'hier, chérie, ne me blesse pas Ne me blesse pas Un boofpack pour nos gavas, pour nous mettre à l'aise À l'aise Et dans l'clip j'fais les moovs, dans le clip j'fais les moovs Pas sociale, j'sais pas dire des phrases Phrases Vocabulaire, bien sûr qu'j'ai bugué avec une lame sur la jugulaire Twenty-twenty, on était en feu, on a fini tout-par Peu de time, juste quelques minutes Minutes et j'dis ça, tu pars Et je bande, j'cogite sur la prod', elle est minimaliste Minimaliste Trop de malice, si j'participe, j'finis finaliste Finaliste J'me suis pas ouvert, j'ai vu, tu m'analyses Tu m'analyses Et j'ai des trucs à dire, j'dis à la mélodie yes sir Trop donné pour les gens, ma le-gue', j'ai pu d'amour à revendre Négro, je change, j'vois un peu d'progrès, dis, j'étais pire avant Tu fumes d'la kush, y a un truc qui cloche, elle sent la lavande Et devant moi, j'vois qu'tu joues un rôle, je trouve ça navrant Yeah, et j'danse, la musique est douce, j'oublie ma timeline Faut qu'on maille, maille, yeah, mec, G, faire my mine Rah Des soucis qui prennent ma te-tê, ça ne cesse pas Ouais, ça ne cesse pas Je n'ai pas guéri d'hier, chérie, ne me blesse pas Ne me blesse pas Un boofpack pour nos gavas, pour nous mettre à l'aise À l'aise Et dans l'clip j'fais les moovs, dans le clip j'fais les moovs Des soucis qui prennent ma te-tê, ça ne cesse pas Ouais, ça ne cesse pas Je n'ai pas guéri d'hier, chérie, ne me blesse pas Ne me blesse pas Un boofpack pour nos gavas, pour nous mettre à l'aise À l'aise Et dans l'clip j'fais les moovs, dans le clip j'fais les moovs Aime-moi, dis-moi Ouh Ouh, ouh, eh, eh Aime-moi, dis-moi, ouais, dis-moi Eh, eh, eh-eh-eh-eh Aime-moi, dis-moi Ouh Ouh, ouh, eh, eh Aime-moi, dis-moi, ouais, dis-moi Eh, eh, eh-eh-eh-eh</t>
+          <t>Aime-moi, dis-moi Ouh Ouh, ouh, eh, eh Aime-moi, dis-moi, ouais, dis-moi Ouh Ouh Mmh-mmh-mmh, mmh-mmh-mmh Yes Mmh-mmh-mmh, mmh-mmh-mmh ERRR Tape 2021 Ouh Mmh-mmh-mmh, mmh-mmh-mmh Han, yes, okay, yeah Un cousin, sur la cheville, il a le bracelet Le bracelet Dis-moi pourquoi le Sheitan, il vient m'harceler ? Il vient m'harceler J'te souhaitais que du bien Bien, tu m'as trahi, c'est laid Tu m'as trahi, c'est laid Faut casser les portes que ma musique s'élève Que ma musique s'élève J'en connais trop qui prennent d haut, qui pissent dans l'eau bénite Dans l'au bénite J'ai pas été vif donc j'me fais toucher par un Obélix Par un Obélix Faire du sale, j'm'oblige, che-ri, j'm'embellirai Yeah Mais sur l'écrans, j'suis moche, pas d'Gemey Maybelline Gemey Maybelline Si tu crois en c'que j'propose, il faut qu'tu pimp my shit J'fais mon oseille et j'mets ma baraque sur un pilotis J'mets ma baraque sur un pilotis Tu sais, la vida c'est l'argent 'gent, tu tailles ou tires Tires On m'appelle Louis comme les tes-tê '-tê sous guillotine Sous guillotine Et dans le stud', j'me sens Picasso, j'me sens Dali J'me sens Dali Tu crois j'vais penser à toi à 200 dans la Cali Et j'danse, la musique est douce Douce, j'oublie ma timeline Faut qu'on maille, maille, yeah, mec, G, faire my mine Rah Des soucis qui prennent ma te-tê, ça ne cesse pas Ouais, ça ne cesse pas Je n'ai pas guéri d'hier, chérie, ne me blesse pas Ne me blesse pas Un boofpack pour nos gavas, pour nous mettre à l'aise À l'aise Et dans l'clip j'fais les moovs, dans le clip j'fais les moovs Des soucis qui prennent ma te-tê, ça ne cesse pas Ouais, ça ne cesse pas Je n'ai pas guéri d'hier, chérie, ne me blesse pas Ne me blesse pas Un boofpack pour nos gavas, pour nous mettre à l'aise À l'aise Et dans l'clip j'fais les moovs, dans le clip j'fais les moovs Pas sociale, j'sais pas dire des phrases Phrases Vocabulaire, bien sûr qu'j'ai bugué avec une lame sur la jugulaire Twenty-twenty, on était en feu, on a fini tout-par Peu de time, juste quelques minutes Minutes et j'dis ça, tu pars Et je bande, j'cogite sur la prod', elle est minimaliste Minimaliste Trop de malice, si j'participe, j'finis finaliste Finaliste J'me suis pas ouvert, j'ai vu, tu m'analyses Tu m'analyses Et j'ai des trucs à dire, j'dis à la mélodie yes sir Trop donné pour les gens, ma le-gue', j'ai pu d'amour à revendre Négro, je change, j'vois un peu d'progrès, dis, j'étais pire avant Tu fumes d'la kush, y a un truc qui cloche, elle sent la lavande Et devant moi, j'vois qu'tu joues un rôle, je trouve ça navrant Yeah, et j'danse, la musique est douce, j'oublie ma timeline Faut qu'on maille, maille, yeah, mec, G, faire my mine Rah Des soucis qui prennent ma te-tê, ça ne cesse pas Ouais, ça ne cesse pas Je n'ai pas guéri d'hier, chérie, ne me blesse pas Ne me blesse pas Un boofpack pour nos gavas, pour nous mettre à l'aise À l'aise Et dans l'clip j'fais les moovs, dans le clip j'fais les moovs Des soucis qui prennent ma te-tê, ça ne cesse pas Ouais, ça ne cesse pas Je n'ai pas guéri d'hier, chérie, ne me blesse pas Ne me blesse pas Un boofpack pour nos gavas, pour nous mettre à l'aise À l'aise Et dans l'clip j'fais les moovs, dans le clip j'fais les moovs Aime-moi, dis-moi Ouh Ouh, ouh, eh, eh Aime-moi, dis-moi, ouais, dis-moi Eh, eh, eh-eh-eh-eh Aime-moi, dis-moi Ouh Ouh, ouh, eh, eh Aime-moi, dis-moi, ouais, dis-moi Eh, eh, eh-eh-eh-eh</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Zaytoven Insolent, j'me sens comme Cassius Clay, j'm'amuse en les feintant J'suis patient mais c'est comme t'es avec nous ou contre nous ? Choisis un camp C'est 247, pas de vacances, jprofite, j'sais qu'la fame ça dure qu'un temps Parfois j'suis au top, là j'suis au fond du trou, j'crois ça fait rire personne à part Satan Insolent, j'me sens comme Cassius Clay, j'm'amuse en les feintant J'suis patient mais c'est comme t'es avec nous ou contre nous ?Choisis un camp C'est 247, pas de vacances, jprofit, j'sais qu'la fame ça dure qu'un temps Parfois j'suis au top, là j'suis au fond du trou, j'crois ça fait rir personne à part Satan Swisher, purple haze, backwood Mes haters bandent sur mon parcours Je suis parti de R, je suis béni Mon ancien lifestyle était pénible Swisher, purple haze, backwood Mes haters bandent sur mon parcours Je suis parti de R, je suis béni Mon ancien lifestyle était pénible yes Que Dieu me punisse si je bégaie, j'suis trop rodave de ma tête à ma dégaine Ma leug', ça sert à rien d'parler, y a pas d'secret, si tu veux gagner, dégaine vite J'suis sur le sable, je me dis Quelle vie J'suis fané, j'ai pas souri pendant ton selfie Dans ma tête c'est plein, dans mon cur c'est vide T'as pas la recette, fils, assis-toi, je texplique Tu sais faut inspirer les tits-pe, j'lui ai fait essayer ma paire et ma chaine J'fais ça pour mon père et ma chère mère, les seuls qui m'aiment vraiment dans cette merde Louis Vuitton, Prada bag pour ma chérie, paire neuve sinon je ne peux pas marcher J'suis trop cher, ça sert à rien d'me démarcher J'ai pas besoin d'changer pour me démarquer You might also like Insolent, j'me sens comme Cassius Clay, j'm'amuse en les feintant J'suis patient mais c'est comme t'es avec nous ou contre nous ? Choisis un camp C'est 247, pas de vacances, jprofite, j'sais qu'la fame ça dure qu'un temps Parfois j'suis au top, là j'suis au fond du trou, j'crois ça fait rire personne à part Satan Swisher, purple haze, backwood Mes haters bandent sur mon parcours Je suis parti de R, je suis béni Mon ancien lifestyle était pénible Swisher, purple haze, backwood Mes haters bandent sur mon parcours Je suis parti de R, je suis béni Mon ancien lifestyle était pénible</t>
+          <t>Zaytoven Insolent, j'me sens comme Cassius Clay, j'm'amuse en les feintant J'suis patient mais c'est comme t'es avec nous ou contre nous ? Choisis un camp C'est 247, pas de vacances, jprofite, j'sais qu'la fame ça dure qu'un temps Parfois j'suis au top, là j'suis au fond du trou, j'crois ça fait rire personne à part Satan Insolent, j'me sens comme Cassius Clay, j'm'amuse en les feintant J'suis patient mais c'est comme t'es avec nous ou contre nous ?Choisis un camp C'est 247, pas de vacances, jprofit, j'sais qu'la fame ça dure qu'un temps Parfois j'suis au top, là j'suis au fond du trou, j'crois ça fait rir personne à part Satan Swisher, purple haze, backwood Mes haters bandent sur mon parcours Je suis parti de R, je suis béni Mon ancien lifestyle était pénible Swisher, purple haze, backwood Mes haters bandent sur mon parcours Je suis parti de R, je suis béni Mon ancien lifestyle était pénible yes Que Dieu me punisse si je bégaie, j'suis trop rodave de ma tête à ma dégaine Ma leug', ça sert à rien d'parler, y a pas d'secret, si tu veux gagner, dégaine vite J'suis sur le sable, je me dis Quelle vie J'suis fané, j'ai pas souri pendant ton selfie Dans ma tête c'est plein, dans mon cur c'est vide T'as pas la recette, fils, assis-toi, je texplique Tu sais faut inspirer les tits-pe, j'lui ai fait essayer ma paire et ma chaine J'fais ça pour mon père et ma chère mère, les seuls qui m'aiment vraiment dans cette merde Louis Vuitton, Prada bag pour ma chérie, paire neuve sinon je ne peux pas marcher J'suis trop cher, ça sert à rien d'me démarcher J'ai pas besoin d'changer pour me démarquer Insolent, j'me sens comme Cassius Clay, j'm'amuse en les feintant J'suis patient mais c'est comme t'es avec nous ou contre nous ? Choisis un camp C'est 247, pas de vacances, jprofite, j'sais qu'la fame ça dure qu'un temps Parfois j'suis au top, là j'suis au fond du trou, j'crois ça fait rire personne à part Satan Swisher, purple haze, backwood Mes haters bandent sur mon parcours Je suis parti de R, je suis béni Mon ancien lifestyle était pénible Swisher, purple haze, backwood Mes haters bandent sur mon parcours Je suis parti de R, je suis béni Mon ancien lifestyle était pénible</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Merde, aïe J'suis qu'un homme Jamais d'la vie j'me prendrai pour ce que j'suis pas Pas d'coups bas, des soupapes C'est l'trou noir chez mes you-vois Y'a d'la meuf dans les quartiers où y'a pas trop d'renois comme moi J'm'appelle Louis Ambroise comme mon grand-père ou mes cousins loubards Nique les passants qui parlent d'argent sans savoir comment ça s'passe Sans savoir comment les gens font pour gagner la lutte des classes Dans ma city j'pense à demain, j'pense à hier, patience La Fève C'est pas tout d'suite que t'iras courir chasser l'ours avec un glaive J'parle en gros mots, j'parle en gimmick, moi j'parle en bougeant mes mains J'ai plus l'temps, j'suis d'ces gens qui préfèrent tout remettre au lendemain Y'a de la mélasse noire dans mon cerveau depuis que j'suis tout gamin Si j'vous dis ça à vous c'est au cas où tout c'que j'fais sert à rien À l'époque j'étais dans l'vaisseau mère, pas dans la Merco Benz Et j'ai l'seum comme quand ma mère commère à mon père Mon père est cool parfois, dommage j'aime pas quand le ton s'élève quand on s'énerve Et petit fève-Or grattais des rimes en scred on sait pas J'suis très nerveux madame dit qu'elle me reconnait pas Faut qu'elle s'adapte si elle veut prendre son cocktail Peper comme une aristocrate Fève numéro un depuis la marelle et depuis les bacs à sable Incassable, si tu m'as eu sur ta route c'est pas par hasardYou might also like</t>
+          <t>Merde, aïe J'suis qu'un homme Jamais d'la vie j'me prendrai pour ce que j'suis pas Pas d'coups bas, des soupapes C'est l'trou noir chez mes you-vois Y'a d'la meuf dans les quartiers où y'a pas trop d'renois comme moi J'm'appelle Louis Ambroise comme mon grand-père ou mes cousins loubards Nique les passants qui parlent d'argent sans savoir comment ça s'passe Sans savoir comment les gens font pour gagner la lutte des classes Dans ma city j'pense à demain, j'pense à hier, patience La Fève C'est pas tout d'suite que t'iras courir chasser l'ours avec un glaive J'parle en gros mots, j'parle en gimmick, moi j'parle en bougeant mes mains J'ai plus l'temps, j'suis d'ces gens qui préfèrent tout remettre au lendemain Y'a de la mélasse noire dans mon cerveau depuis que j'suis tout gamin Si j'vous dis ça à vous c'est au cas où tout c'que j'fais sert à rien À l'époque j'étais dans l'vaisseau mère, pas dans la Merco Benz Et j'ai l'seum comme quand ma mère commère à mon père Mon père est cool parfois, dommage j'aime pas quand le ton s'élève quand on s'énerve Et petit fève-Or grattais des rimes en scred on sait pas J'suis très nerveux madame dit qu'elle me reconnait pas Faut qu'elle s'adapte si elle veut prendre son cocktail Peper comme une aristocrate Fève numéro un depuis la marelle et depuis les bacs à sable Incassable, si tu m'as eu sur ta route c'est pas par hasard</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Yeah, Han Yeah, Han Yeah Dans le champ, rose magnolia Magnolia Je regarde la lune puis la bagnole Han, yeah T'es comme moi si petit la puissance t'as chiné Chiné Les mêmes épines les mêmes trous d'boulettes sur l'Tacchini Cchini Yeah Dans le champ, rose magnolia Magnolia Je regarde la lune, puis la bagnole Han, yeah T'es comme moi, si t'es un ne-jeu t'as faim T'as faim Passements d'jambes , j'ai ta , ta feint, Ok Trop saoulé, pour des clopes ça compte ls centimes Les centimes J'comprends pas très bien c'qu'ils font il m'faut des sentiments Han, yeah Tu veux quoi ? Tu me trouves si tu me cherches Cherche En haut d'l'échelle on veut être pour briser nos chaines Chaines Dans mon lab', j'cherche a faire des morceaux efficaces Efficaces J'réfléchis, jeune espion il est perspicace Han, yeah J'voulais rien d'plus que toi mon frère Frère J'ai d'la rime au frais viens on s'connecte mon frère Ok Fais c'que tu veux, quand tu l'fais il faut s'appliquer Il faut s'appliquer À l'horizon, je vois les méchant rappliquer Han yeah La Fève pas trop d'concurrence, ces jeunes ils pissent au lit Ils pissent au lit Peu d'espoir, mais je souffle quand même sur l'pissenlit You might also like Yeah Dans le champ, rose magnolia Magnolia Je regarde la lune puis la bagnole Han, yeah T'es comme moi si petit la puissance t'as chiné Chiné Les mêmes épines les mêmes trous d'boulettes sur l'Tacchini Cchini Yeah Dans le champ, rose magnolia Magnolia Je regarde la lune, puis la bagnole Han, yeah T'es comme moi, si t'es un ne-jeu t'as faim T'as faim Passements d'jambes , j'ai ta , ta feinte, Ok</t>
+          <t>Yeah, Han Yeah, Han Yeah Dans le champ, rose magnolia Magnolia Je regarde la lune puis la bagnole Han, yeah T'es comme moi si petit la puissance t'as chiné Chiné Les mêmes épines les mêmes trous d'boulettes sur l'Tacchini Cchini Yeah Dans le champ, rose magnolia Magnolia Je regarde la lune, puis la bagnole Han, yeah T'es comme moi, si t'es un ne-jeu t'as faim T'as faim Passements d'jambes , j'ai ta , ta feint, Ok Trop saoulé, pour des clopes ça compte ls centimes Les centimes J'comprends pas très bien c'qu'ils font il m'faut des sentiments Han, yeah Tu veux quoi ? Tu me trouves si tu me cherches Cherche En haut d'l'échelle on veut être pour briser nos chaines Chaines Dans mon lab', j'cherche a faire des morceaux efficaces Efficaces J'réfléchis, jeune espion il est perspicace Han, yeah J'voulais rien d'plus que toi mon frère Frère J'ai d'la rime au frais viens on s'connecte mon frère Ok Fais c'que tu veux, quand tu l'fais il faut s'appliquer Il faut s'appliquer À l'horizon, je vois les méchant rappliquer Han yeah La Fève pas trop d'concurrence, ces jeunes ils pissent au lit Ils pissent au lit Peu d'espoir, mais je souffle quand même sur l'pissenlit Yeah Dans le champ, rose magnolia Magnolia Je regarde la lune puis la bagnole Han, yeah T'es comme moi si petit la puissance t'as chiné Chiné Les mêmes épines les mêmes trous d'boulettes sur l'Tacchini Cchini Yeah Dans le champ, rose magnolia Magnolia Je regarde la lune, puis la bagnole Han, yeah T'es comme moi, si t'es un ne-jeu t'as faim T'as faim Passements d'jambes , j'ai ta , ta feinte, Ok</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>L'humanité compte sur toi, tu n'a pas le droit de la décevoir Ouh ?Squad Hey Hey Sur l'terrain met des coups d'crosse mec Balayer les toys c'est ma vie d'corsair Mais les vainqueurs c'est les ? La ? m'excite mais j'ai pas les sous pour les faire taire Les mamans pleurent les poucaves se cahcent J'veux la vie de Fève et l'amour de mes Fans S'il te plait Squad dans vos oreilles sals Les balles afghanes t les peureux séchappent J'ai mais modère ?? J'reçois des ? pas des petits sextos Malheureusement j'ai pas la vie de cette ? J'avais que ma ? ? facile, il parle comme ma mère J'ai pris les devant je le ferai par derrière J'renierais pas mon cercle ni le 122 ? sur vos posters Fève et moi c'est le grand amour Mais les belles choses finissent toujours mal J'suis tricard et le passé m'rattrape Et je n'cours pas plus vite que les balles J'ai mangé des cauchemars, j'en ai ma claque Mais c'est ta re-su j'vais mettre en cloque Ils vont parlé Grecque pour ma prochaine attaque Comme si les mots pouvais stopper mes glocks merde J'étais comme un connard dans les abysses Je sais qu'suis pas l'meilleur mais mon père abuse Le premier qui fait le mec a la mort aux trousses Venus va te faire moi j'trouve l'amour atroce J'ai du feux du pilon caché dans ma trousse J'ai tordue des mains puis j'ai ? ? peut plus laisser des traces Et j'suis l'roi des enfers quand vénus approche S'il te plaît squad dans les merveilles Mais ont finira dans le mordor Ils ? tout seul c'est des mange merde Y'a qu'dans ton salon qu'il y avais mort d'homme BEL chaud pour les ?? ? pour le coup d'état Et jcrois qu'j'suis qu'un ?? Coulé moi si j'ai renié des raclis qui ont fait tout pour moi Passe moi les clés prend ton menteau Il faut qu'on s'tire sa pue l'danger Pourquoi j'ai peur, c'est que des Hommes Quand ont inverse ça fait des gens You might also likeEN COURS AIDEZ SI POSSIBLE</t>
+          <t>L'humanité compte sur toi, tu n'a pas le droit de la décevoir Ouh ?Squad Hey Hey Sur l'terrain met des coups d'crosse mec Balayer les toys c'est ma vie d'corsair Mais les vainqueurs c'est les ? La ? m'excite mais j'ai pas les sous pour les faire taire Les mamans pleurent les poucaves se cahcent J'veux la vie de Fève et l'amour de mes Fans S'il te plait Squad dans vos oreilles sals Les balles afghanes t les peureux séchappent J'ai mais modère ?? J'reçois des ? pas des petits sextos Malheureusement j'ai pas la vie de cette ? J'avais que ma ? ? facile, il parle comme ma mère J'ai pris les devant je le ferai par derrière J'renierais pas mon cercle ni le 122 ? sur vos posters Fève et moi c'est le grand amour Mais les belles choses finissent toujours mal J'suis tricard et le passé m'rattrape Et je n'cours pas plus vite que les balles J'ai mangé des cauchemars, j'en ai ma claque Mais c'est ta re-su j'vais mettre en cloque Ils vont parlé Grecque pour ma prochaine attaque Comme si les mots pouvais stopper mes glocks merde J'étais comme un connard dans les abysses Je sais qu'suis pas l'meilleur mais mon père abuse Le premier qui fait le mec a la mort aux trousses Venus va te faire moi j'trouve l'amour atroce J'ai du feux du pilon caché dans ma trousse J'ai tordue des mains puis j'ai ? ? peut plus laisser des traces Et j'suis l'roi des enfers quand vénus approche S'il te plaît squad dans les merveilles Mais ont finira dans le mordor Ils ? tout seul c'est des mange merde Y'a qu'dans ton salon qu'il y avais mort d'homme BEL chaud pour les ?? ? pour le coup d'état Et jcrois qu'j'suis qu'un ?? Coulé moi si j'ai renié des raclis qui ont fait tout pour moi Passe moi les clés prend ton menteau Il faut qu'on s'tire sa pue l'danger Pourquoi j'ai peur, c'est que des Hommes Quand ont inverse ça fait des gens EN COURS AIDEZ SI POSSIBLE</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Tell'em that I like my bitch freaky like these hoes FREAKEY! Petit j'voulais être un pimp, Iceberg slim, multimillionnaire Double R garée dans une p'tite zone pavillonnaire J'suis au fond du club là, j'ai ma table, j'lâche des coups d'il Elle est bad elle, cest comme si le Diable portait beaucoup d'blush Shawty, shawty, shawty, elle s'approche, elle veut d'l'ambiance J'm'en fiche si t'es pas jolie, jvoulais just une dernière dans Pardonne moi si j'ai péché Si j'ai pas pu m'empêcher d'goûter à c'colis piégé, en toute honnêteté Moi j'suis un player donc jtappelle à peine J't'appelle pas babe, j't'appelle pas shawty Tu sais y'a rien qu'a d'l'importance à part mon clan, ma miff, ma shawty Une bad bitch m'attend sur ATL, elle aimerait tellement que j'l'appelle shawty Elle veut qu'on reste ensemble, qu'on rentre en France, qu'un jour elle soit ma shawty Yes, ok Faut qu'tu bouges ton corps et bien, si tu veux qu'il pleuve J'lui dit qu'j'aime ça les bad bitchs, elle veut qu'j'lui montre une preuve Elle kiffe mon putain d'train d'vie, mes histoires sordides Mon médaillon, mes sunglasses, mon Prada tout jdid Mais moi j'en regarde une autre en même temps Elle me tente, elle est plus skinny, peut me faire tomber bêtement Le Diable il joue de son charme, peut te prendre par tous les angles Viens danser pour moi, m'parle pas d'ton business dans les ongles Elle veut quj'sois son frenchy, moi j'fais pas de date Mais elle c'est une p'tite ppe-fra avec ou sans son make-up J'm'en fous de ton mec, de ton ex, j'veux qu'tu bosses Même si t'es fraiche, j'te vois comme le Sheitan avec du gloss Let's ... You might also like Shawty, shawty, shawty, elle s'approche, elle veut d'l'ambiance J'm'en fiche si t'es pas jolie, jvoulais juste une dernière danse Pardonne moi si j'ai péché Si j'ai pas pu m'empêcher d'goûter à c'colis piégé, en toute honnêteté Moi j'suis un player donc jtappelle à peine J't'appelle pas babe, j't'appelle pas shawty moi j'suis un player Tu sais y'a rien qui a d'l'importance à part mon clan, ma miff, ma shawty Une bad bitch m'attend sur ATL, elle aimerait tellement que j'l'appelle shawty Elle veut qu'on reste ensemble, qu'on rentre en France, qu'un jour elle soit ma shawty Petit j'voulais être un pimp, Iceberg slim, multimillionnaire Double R garée dans une p'tite zone pavillonnaire J'suis au fond du club là, j'ai ma table, j'jette des coups d'il Elle est bad, elle c'est comme si le Diable portait beaucoup d'blush</t>
+          <t>Tell'em that I like my bitch freaky like these hoes FREAKEY! Petit j'voulais être un pimp, Iceberg slim, multimillionnaire Double R garée dans une p'tite zone pavillonnaire J'suis au fond du club là, j'ai ma table, j'lâche des coups d'il Elle est bad elle, cest comme si le Diable portait beaucoup d'blush Shawty, shawty, shawty, elle s'approche, elle veut d'l'ambiance J'm'en fiche si t'es pas jolie, jvoulais just une dernière dans Pardonne moi si j'ai péché Si j'ai pas pu m'empêcher d'goûter à c'colis piégé, en toute honnêteté Moi j'suis un player donc jtappelle à peine J't'appelle pas babe, j't'appelle pas shawty Tu sais y'a rien qu'a d'l'importance à part mon clan, ma miff, ma shawty Une bad bitch m'attend sur ATL, elle aimerait tellement que j'l'appelle shawty Elle veut qu'on reste ensemble, qu'on rentre en France, qu'un jour elle soit ma shawty Yes, ok Faut qu'tu bouges ton corps et bien, si tu veux qu'il pleuve J'lui dit qu'j'aime ça les bad bitchs, elle veut qu'j'lui montre une preuve Elle kiffe mon putain d'train d'vie, mes histoires sordides Mon médaillon, mes sunglasses, mon Prada tout jdid Mais moi j'en regarde une autre en même temps Elle me tente, elle est plus skinny, peut me faire tomber bêtement Le Diable il joue de son charme, peut te prendre par tous les angles Viens danser pour moi, m'parle pas d'ton business dans les ongles Elle veut quj'sois son frenchy, moi j'fais pas de date Mais elle c'est une p'tite ppe-fra avec ou sans son make-up J'm'en fous de ton mec, de ton ex, j'veux qu'tu bosses Même si t'es fraiche, j'te vois comme le Sheitan avec du gloss Let's ... Shawty, shawty, shawty, elle s'approche, elle veut d'l'ambiance J'm'en fiche si t'es pas jolie, jvoulais juste une dernière danse Pardonne moi si j'ai péché Si j'ai pas pu m'empêcher d'goûter à c'colis piégé, en toute honnêteté Moi j'suis un player donc jtappelle à peine J't'appelle pas babe, j't'appelle pas shawty moi j'suis un player Tu sais y'a rien qui a d'l'importance à part mon clan, ma miff, ma shawty Une bad bitch m'attend sur ATL, elle aimerait tellement que j'l'appelle shawty Elle veut qu'on reste ensemble, qu'on rentre en France, qu'un jour elle soit ma shawty Petit j'voulais être un pimp, Iceberg slim, multimillionnaire Double R garée dans une p'tite zone pavillonnaire J'suis au fond du club là, j'ai ma table, j'jette des coups d'il Elle est bad, elle c'est comme si le Diable portait beaucoup d'blush</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>J'suis sur la trend J'suis dans la mobile la bat Bien sur j'les graille comme des pâtes J'aime bien la vue Si tu mens j'te mets en vu J'suis dans la night J'suis sur le bitume ça slide On pouvait tout donner pour une Benz Mon Cette bitch est mignonne elle est tombée dans la neige Des vampires me veulent, c'est trop tard mais c'est le jeu J'aurais du finir les mains dans l'sac mais j'ai ves-qui c regard J'suis trop solo, j'suis en loup j'roule un rnard Ok j'attend la light mais j'crois elle a un retard bounce Shawty bouge ton dos, j'sais que j'ai bientôt cette Moncler sur mon dos ERR Moncler sur mon dos, mini-moi dit il nous faudrait le monde bounce Laisse, un flow de salopard, tu veux mon temps va voir si je suis autre part Piguet Audemars, sous mes yeux la story qu'on démarre J'arrive on me dit que c'est clean, négro c'est nice Pull-up sur toi et en ligne, c'est pour un fight J'suis dans la city pour cop des gigabytes Ils peuvent pas se trouver un style, poto ils bite You might also like J'suis sur la trend J'suis dans la mobile la bat ERR Bien sur j'les graille comme des pâtes J'aime bien la vue Si tu mens j'te mets en vu J'suis dans la night J'suis sur le bitume ça slide J'pull-up Sku Hop out, t'as raté le coche et maintenant t'es en drop out La Fève et Sad c'est un hit c'est un bazar T'as bougé ta tête et gros c'est pas un hasard J'suis dans l'écran et ça tire quand j'dis go On est dans l'truc comme la SIM dans l'bigo en main y'a du très haut niveau S'teuplait eux et moi c'est comme le four et l'frigo Baw Je sais où j'vais j'vois les points sur le sonar Pour aller loin faut être prêt faut le vouloir Quand on arrive sur scène c'est un film c'est un polar Wow Mon premier crack j'avais genre fifteen J'suis en camo et j'ai un AX-50 J'ai cop une paire c'était pas sixty Et j'ai eu la tête sur un trois sixty ERR J'arrive on me dit que c'est clean, négro c'est nice Pull-up sur toi et en ligne, c'est pour un fight J'suis dans la city pour cop des gigabytes Ils peuvent pas se trouver un style, poto ils bite x2 J'suis sur la trend J'suis dans la mobile la bat ERR Bien sur j'les graille comme des pâtes J'aime bien la vue Si tu mens j'te mets en vu J'suis dans la night J'suis sur le bitume ça slide</t>
+          <t>J'suis sur la trend J'suis dans la mobile la bat Bien sur j'les graille comme des pâtes J'aime bien la vue Si tu mens j'te mets en vu J'suis dans la night J'suis sur le bitume ça slide On pouvait tout donner pour une Benz Mon Cette bitch est mignonne elle est tombée dans la neige Des vampires me veulent, c'est trop tard mais c'est le jeu J'aurais du finir les mains dans l'sac mais j'ai ves-qui c regard J'suis trop solo, j'suis en loup j'roule un rnard Ok j'attend la light mais j'crois elle a un retard bounce Shawty bouge ton dos, j'sais que j'ai bientôt cette Moncler sur mon dos ERR Moncler sur mon dos, mini-moi dit il nous faudrait le monde bounce Laisse, un flow de salopard, tu veux mon temps va voir si je suis autre part Piguet Audemars, sous mes yeux la story qu'on démarre J'arrive on me dit que c'est clean, négro c'est nice Pull-up sur toi et en ligne, c'est pour un fight J'suis dans la city pour cop des gigabytes Ils peuvent pas se trouver un style, poto ils bite J'suis sur la trend J'suis dans la mobile la bat ERR Bien sur j'les graille comme des pâtes J'aime bien la vue Si tu mens j'te mets en vu J'suis dans la night J'suis sur le bitume ça slide J'pull-up Sku Hop out, t'as raté le coche et maintenant t'es en drop out La Fève et Sad c'est un hit c'est un bazar T'as bougé ta tête et gros c'est pas un hasard J'suis dans l'écran et ça tire quand j'dis go On est dans l'truc comme la SIM dans l'bigo en main y'a du très haut niveau S'teuplait eux et moi c'est comme le four et l'frigo Baw Je sais où j'vais j'vois les points sur le sonar Pour aller loin faut être prêt faut le vouloir Quand on arrive sur scène c'est un film c'est un polar Wow Mon premier crack j'avais genre fifteen J'suis en camo et j'ai un AX-50 J'ai cop une paire c'était pas sixty Et j'ai eu la tête sur un trois sixty ERR J'arrive on me dit que c'est clean, négro c'est nice Pull-up sur toi et en ligne, c'est pour un fight J'suis dans la city pour cop des gigabytes Ils peuvent pas se trouver un style, poto ils bite x2 J'suis sur la trend J'suis dans la mobile la bat ERR Bien sur j'les graille comme des pâtes J'aime bien la vue Si tu mens j'te mets en vu J'suis dans la night J'suis sur le bitume ça slide</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Han han rrrrrrrrrrrra Han tous ces gens là c'est des snakes Tous ces gens là c'est des snakes han J'sais très bien ce qu'il y a dans leur têtes han Vont soutenir que quand sa pète han La ils ont réveillé la bête bête bête Bête et méchant dans mes textes han La j'suis sep avec La Fève han Fait pas partie de ces schmet han Comme j'sais comment t'en a pris han han Ils ont pas digéré leur punch j'les rrrrrr J'les brrrrrrrr, j'les rends humble ces pussys La urrrrr c'est rrrrrr j'suis dedans comme Bouzi Quand ça deviens réel, j'les vois fondre comme Bushi Font tout pour la thune, moi c'est l'cadet d'mes soucis Depuis que j'suis un sayan ces bouffons me ayen veulent pas voir pas gueule dans le top J'suis d'humeur italienne, j'me dirige a paname chercher les faux billets de banque J'me concentre a mort sur mon sort vient pas parler d'mes tord la c'est oim il est deg La j'cuisine un méchant banger appelle ? dit lui d'bien prendre le study J'déboule est ce que t'as senti l'aura J'aurai pu appeler mon fils Gohan La j'ai quelques objectifs fafa Tant qu'elle est pas faite la liste go on J'ai beaucoup de phares d'aura bora J'déboule et la pute j'lui dis heywa T'sais bien que ma vie j'la vie peinard Fait longtemps qu'j'ai plus été triste moi Dans un bar à putain avec quelques lupins qu'a déjà fait fumer sur ses clopes Elle sort du 4 fait des kiss et des snaps elle voudrait qu'j'lui fasse quitter la zone Y a des bitch dans l'club qui nous veulent comme t'as pas idée La j'décompresse j'suis a l'aise j'fume le narguilé J'fais c'trap shit a la base pour le quartier J'dis c'que j'veux c'est pas une bitch qui va me manier You might also like Yo Tous ces gens la c'est des schmet Tous ces gens la c'est des snake Elle veux pas de kiss cette bitch veux que j'lui fasse un cheque J'ai trop de péchés faudrait me confesser j'suis joli Mais un peu moche quand tu ? sur mes kits J'leur mets deux trois fessées et au lit Eux ils sont glacés je n'suis plus aveugle Dites a mes haters que je suis ailleurs Vous m'voyez déjà en trop ma legeu dans le coin j'voulais juste des conditions meilleures Gros seum on s'entretue tous ça pour la maille Ne m'appelle aps j'suis dans ma ride Diplomatico tu connais y a ça dans mon ride Bitch écoute passe moi la balle et je fais la différence J'suis au dessus d'eux rien que dans mes références J'suis paro au phone y a comme des interférences Cette ville est une jungle mais on a dut rester féroce Avec le 5 dans le studio ça glisse Je rentre chez Prada et je prends à ma guise Tu fuck avec n'importe qui c'est ton dos mais t'étais l'un des leur ne me fait pas la bise Quelle triste époque la mort se monnaie Mon reuf m'a dit c'est combien la passe La street donne rien c'est comme une impasse Vendre son kwer c'est pire que faire un pacte Entre le ciel et moi y a que un pas Souvent dieu il m'a dit garde la pêche Askip y a des gros poissons sur paname Cherche les plav avec une canne à pêche Yeah, cherche les plav avec une canne à pêche Less Tous ces gens là c'est des snakes han J'sais très bien ce qu'il y a dans leur têtes han Vont soutenir que quand sa pète han La ils ont réveillé la bête bête bête Bête et méchant dans mes textes han La j'suis sep avec La Fève han Fait pas partie de ces schmet han Comme j'sais comment t'en a pris han han Ils ont pas digéré leur punch j'les rrrrrr J'les brrrrrrrr, j'les rends humble ces pussys La urrrrr c'est rrrrrr j'suis dedans comme Bouzi Quand ça deviens réel, j'les vois fondre comme Bushi Font tout pour la thune, moi c'est l'cadet d'mes soucis</t>
+          <t>Han han rrrrrrrrrrrra Han tous ces gens là c'est des snakes Tous ces gens là c'est des snakes han J'sais très bien ce qu'il y a dans leur têtes han Vont soutenir que quand sa pète han La ils ont réveillé la bête bête bête Bête et méchant dans mes textes han La j'suis sep avec La Fève han Fait pas partie de ces schmet han Comme j'sais comment t'en a pris han han Ils ont pas digéré leur punch j'les rrrrrr J'les brrrrrrrr, j'les rends humble ces pussys La urrrrr c'est rrrrrr j'suis dedans comme Bouzi Quand ça deviens réel, j'les vois fondre comme Bushi Font tout pour la thune, moi c'est l'cadet d'mes soucis Depuis que j'suis un sayan ces bouffons me ayen veulent pas voir pas gueule dans le top J'suis d'humeur italienne, j'me dirige a paname chercher les faux billets de banque J'me concentre a mort sur mon sort vient pas parler d'mes tord la c'est oim il est deg La j'cuisine un méchant banger appelle ? dit lui d'bien prendre le study J'déboule est ce que t'as senti l'aura J'aurai pu appeler mon fils Gohan La j'ai quelques objectifs fafa Tant qu'elle est pas faite la liste go on J'ai beaucoup de phares d'aura bora J'déboule et la pute j'lui dis heywa T'sais bien que ma vie j'la vie peinard Fait longtemps qu'j'ai plus été triste moi Dans un bar à putain avec quelques lupins qu'a déjà fait fumer sur ses clopes Elle sort du 4 fait des kiss et des snaps elle voudrait qu'j'lui fasse quitter la zone Y a des bitch dans l'club qui nous veulent comme t'as pas idée La j'décompresse j'suis a l'aise j'fume le narguilé J'fais c'trap shit a la base pour le quartier J'dis c'que j'veux c'est pas une bitch qui va me manier Yo Tous ces gens la c'est des schmet Tous ces gens la c'est des snake Elle veux pas de kiss cette bitch veux que j'lui fasse un cheque J'ai trop de péchés faudrait me confesser j'suis joli Mais un peu moche quand tu ? sur mes kits J'leur mets deux trois fessées et au lit Eux ils sont glacés je n'suis plus aveugle Dites a mes haters que je suis ailleurs Vous m'voyez déjà en trop ma legeu dans le coin j'voulais juste des conditions meilleures Gros seum on s'entretue tous ça pour la maille Ne m'appelle aps j'suis dans ma ride Diplomatico tu connais y a ça dans mon ride Bitch écoute passe moi la balle et je fais la différence J'suis au dessus d'eux rien que dans mes références J'suis paro au phone y a comme des interférences Cette ville est une jungle mais on a dut rester féroce Avec le 5 dans le studio ça glisse Je rentre chez Prada et je prends à ma guise Tu fuck avec n'importe qui c'est ton dos mais t'étais l'un des leur ne me fait pas la bise Quelle triste époque la mort se monnaie Mon reuf m'a dit c'est combien la passe La street donne rien c'est comme une impasse Vendre son kwer c'est pire que faire un pacte Entre le ciel et moi y a que un pas Souvent dieu il m'a dit garde la pêche Askip y a des gros poissons sur paname Cherche les plav avec une canne à pêche Yeah, cherche les plav avec une canne à pêche Less Tous ces gens là c'est des snakes han J'sais très bien ce qu'il y a dans leur têtes han Vont soutenir que quand sa pète han La ils ont réveillé la bête bête bête Bête et méchant dans mes textes han La j'suis sep avec La Fève han Fait pas partie de ces schmet han Comme j'sais comment t'en a pris han han Ils ont pas digéré leur punch j'les rrrrrr J'les brrrrrrrr, j'les rends humble ces pussys La urrrrr c'est rrrrrr j'suis dedans comme Bouzi Quand ça deviens réel, j'les vois fondre comme Bushi Font tout pour la thune, moi c'est l'cadet d'mes soucis</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Yeah yeah Yeah, han J'calcule pas les pics que tu m'as lancés J'suis La Fève, j'continue sur ma lancée Ils disent Lawiss il est chaud Il kicke comme à lancienne Gros, en cours, jétais pas là Toi, tu balançais, yeah Mais toi, tu balançais Toi, tes une snitch, donc toi, tu balançais, yeah Mais toi, tu balançais Toi, tes une snitch, donc toi, tu balançais, yeah Jeune doué avec les poches trouées Tu cherches, tu sais où mtrouver Tas capté, lhorloge cest du Cartier Les doutes faut écarter On mconnaît dans lquartier Yeah, yeah, jeune en quarantine Voit comme Tarantino Qu'est-c'que mes parents disent ? Sors le gun comme James Jeune espion comme James Une thick girl, ça jaime Cest que le 7 comme James Yeah, ok, ok La Fève c'est un mystère Jeune goon veut l'argent de tout lhémisphère Yeah, ok La Fève c'est un mystère Jeune goon, veut largent de tout lhémisphère You might also like J'calcule pas les pics que tu m'as lancés J'suis La Fève, j'continue sur ma lancée Ils disent Lawiss il est chaud Il kicke comme à lancienne Gros, en cours, jétais pas là Toi, tu balançais, yeah Mais toi, tu balançais Toi, tes une snitch, donc toi, tu balançais, yeah Mais toi, tu balançais Toi, tes une snitch, donc toi, tu balançais, yeah Yeah, yeah, yeah</t>
+          <t>Yeah yeah Yeah, han J'calcule pas les pics que tu m'as lancés J'suis La Fève, j'continue sur ma lancée Ils disent Lawiss il est chaud Il kicke comme à lancienne Gros, en cours, jétais pas là Toi, tu balançais, yeah Mais toi, tu balançais Toi, tes une snitch, donc toi, tu balançais, yeah Mais toi, tu balançais Toi, tes une snitch, donc toi, tu balançais, yeah Jeune doué avec les poches trouées Tu cherches, tu sais où mtrouver Tas capté, lhorloge cest du Cartier Les doutes faut écarter On mconnaît dans lquartier Yeah, yeah, jeune en quarantine Voit comme Tarantino Qu'est-c'que mes parents disent ? Sors le gun comme James Jeune espion comme James Une thick girl, ça jaime Cest que le 7 comme James Yeah, ok, ok La Fève c'est un mystère Jeune goon veut l'argent de tout lhémisphère Yeah, ok La Fève c'est un mystère Jeune goon, veut largent de tout lhémisphère J'calcule pas les pics que tu m'as lancés J'suis La Fève, j'continue sur ma lancée Ils disent Lawiss il est chaud Il kicke comme à lancienne Gros, en cours, jétais pas là Toi, tu balançais, yeah Mais toi, tu balançais Toi, tes une snitch, donc toi, tu balançais, yeah Mais toi, tu balançais Toi, tes une snitch, donc toi, tu balançais, yeah Yeah, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>J'suis plus sur les réseaux mon negro tu veux m'skip Ces negros vont pas step up forreal ils n'ont pas les skills 501 dernier re-cui la bête a souffert pour S-Tee J'veux save la planète moi aussi mais j'peux rien faire pour pédophiles Moi, check j'suis renoi comme ma bande Tout mon destin C'est de prendre toutes techniques J'viens pas du Camp Nou N'essaye pas d'être comme nous Petit on m'pinçait la joue Là j'ai regard vener comme Buu J'aimais pas trop quand on m'touche remplies de boue Check, yo pour oi-m elle fond toute la file J'ai de quoi manger dans mon bigz Convertie, mais mets moi en string Ta bitch fait peur, j'me suis cru dans scream Capture le moment toi tu fais des screen Tu fais exprès ou t'es con comme ? Tellement de drip, rien que j'rock du Freeze So la vie passe On a un but donc on attend pas que la vie passe So le josky Shout out à Josky Shout out à Josky Shout out à Come Shout out à Mike Shout out La Fève On est les seuls à briller dans cette pièce S-Tee La fève à fond dans ta caisse Shout out à Josky Shout out à Come Shout out à Mike Shout out La Fève On est les seuls à briller dans cette pièce On est les seuls sur la wave Fait d'la place quand j'arrive avec les titulaires Les titulaires Dans les stud' t'as écouté gros tu titubais La Fève, Louis comme le roi de France J'check le point de vente J'suis dans l'game j'suis loin devant J'suis loin devant Poto j'ride dans la ville avec le S-Tee Le S-Tee Sur le terrain tu me touches pas, j'met des esquives Des esquives Gros c'est tous des copycats nan mais laisse Nan mais laisse C'est des chiens donc j'les prends tous à laisse-Tee J'pull up vite si le plavon paraît très carré J'écoute tout c'qu'ils font tous en France ils sont égarés Égarés C'est Walone Lowlife vous êtes préparés J'suis dans cette merde, j'écris des 16 depuis qu'j'ai treize ballets You might also like Yeah Ils sont égarés</t>
+          <t>J'suis plus sur les réseaux mon negro tu veux m'skip Ces negros vont pas step up forreal ils n'ont pas les skills 501 dernier re-cui la bête a souffert pour S-Tee J'veux save la planète moi aussi mais j'peux rien faire pour pédophiles Moi, check j'suis renoi comme ma bande Tout mon destin C'est de prendre toutes techniques J'viens pas du Camp Nou N'essaye pas d'être comme nous Petit on m'pinçait la joue Là j'ai regard vener comme Buu J'aimais pas trop quand on m'touche remplies de boue Check, yo pour oi-m elle fond toute la file J'ai de quoi manger dans mon bigz Convertie, mais mets moi en string Ta bitch fait peur, j'me suis cru dans scream Capture le moment toi tu fais des screen Tu fais exprès ou t'es con comme ? Tellement de drip, rien que j'rock du Freeze So la vie passe On a un but donc on attend pas que la vie passe So le josky Shout out à Josky Shout out à Josky Shout out à Come Shout out à Mike Shout out La Fève On est les seuls à briller dans cette pièce S-Tee La fève à fond dans ta caisse Shout out à Josky Shout out à Come Shout out à Mike Shout out La Fève On est les seuls à briller dans cette pièce On est les seuls sur la wave Fait d'la place quand j'arrive avec les titulaires Les titulaires Dans les stud' t'as écouté gros tu titubais La Fève, Louis comme le roi de France J'check le point de vente J'suis dans l'game j'suis loin devant J'suis loin devant Poto j'ride dans la ville avec le S-Tee Le S-Tee Sur le terrain tu me touches pas, j'met des esquives Des esquives Gros c'est tous des copycats nan mais laisse Nan mais laisse C'est des chiens donc j'les prends tous à laisse-Tee J'pull up vite si le plavon paraît très carré J'écoute tout c'qu'ils font tous en France ils sont égarés Égarés C'est Walone Lowlife vous êtes préparés J'suis dans cette merde, j'écris des 16 depuis qu'j'ai treize ballets Yeah Ils sont égarés</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Yeah Depuis petit je vois le monde en conquérant, faut qu'on entende La Fève dans tous les râteliers Avec un, deux, trois techniciens fait de l'art sonore, là j'suis dans le studio comme à l'atelier Toujours un bras disponible j'ai son 07, si ça part en vrille je sais qui appeler J'me sens nomade, j'ai la peau mate, j'voulais juste changer d'air j'me prends les barbelés T'y crois pas donc pourquoi tu m'as check C'est des dogs faut qu'ils aillent chez le véto Pour s'défendre investissent dans les métaux no ex-æquo Instinct plutôt loner, solo dans la pièce fait la conversation avec mon égo Toujours en avance, toujours au début d'une époque c'est pour ça je dis let's go Mes gavas sont bavons, tes gavas sont bizarres, avant de dormir je les mets dans ma tisane J'ai du cola orange je le met dans la tise Maman donnait c'qu'elle pouvait, j'allais voir la prise On est parti de rien, on a construit nos choses, si la misère reviens je n'vais pas faire la dime Toujours dans la méfiance on a été, à c'qui parait t'es un bon, ça y'a que toi qui le dit, let's go let's go Depuis petit je vois le monde en conquérant, faut qu'on entende La Fève dans tous les râteliers Avec un, deux, trois techniciens fait de l'art sonore, là j'suis dans le studio comme à l'atelierYou might also like</t>
+          <t>Yeah Depuis petit je vois le monde en conquérant, faut qu'on entende La Fève dans tous les râteliers Avec un, deux, trois techniciens fait de l'art sonore, là j'suis dans le studio comme à l'atelier Toujours un bras disponible j'ai son 07, si ça part en vrille je sais qui appeler J'me sens nomade, j'ai la peau mate, j'voulais juste changer d'air j'me prends les barbelés T'y crois pas donc pourquoi tu m'as check C'est des dogs faut qu'ils aillent chez le véto Pour s'défendre investissent dans les métaux no ex-æquo Instinct plutôt loner, solo dans la pièce fait la conversation avec mon égo Toujours en avance, toujours au début d'une époque c'est pour ça je dis let's go Mes gavas sont bavons, tes gavas sont bizarres, avant de dormir je les mets dans ma tisane J'ai du cola orange je le met dans la tise Maman donnait c'qu'elle pouvait, j'allais voir la prise On est parti de rien, on a construit nos choses, si la misère reviens je n'vais pas faire la dime Toujours dans la méfiance on a été, à c'qui parait t'es un bon, ça y'a que toi qui le dit, let's go let's go Depuis petit je vois le monde en conquérant, faut qu'on entende La Fève dans tous les râteliers Avec un, deux, trois techniciens fait de l'art sonore, là j'suis dans le studio comme à l'atelier</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Elle s'maquille dans la suite Yeah, elle demande c'est quoi la suite Yeah Je sais qu'j'suis bon dans mon business Business, parce que j'suis impossible à suivre Yeah Un p'tit merdeux gêne ma semelle Dis-moi y veut quoi lassui Dis-moi y veut quoi lassui Un p'tit merdeux gêne ma semelle ma semelle Dis-moi y veut quoi lassui Dis-moi y veut quoi lassui Merci mon 7 et ma sueur J'fais que ds sold out, merci mes soldats Merci ms consommateurs Nouveau pro, ex amateur Ne compte pas sur moi, j'fais mon trou ici-bas après j'm'envole comme la vapeur J'contrôle, bébé, n'ait pas peur Faudrait qu'je pop comme le perc Chéri bouge, ton gros kwer de ma vue, c'est mon gagne-pain, j'ai besoin d'concentration Oui j'ai fait des folies dans mon passé mais j'suis pas un méchant garçon J'voulais la planète, j'voulais le globe, j'voulais le putain d'monde comme Sosa Tu n'as pas les épaules pour devenir un problème, pour devenir plus qu'un soucis Elle s'maquille dans la suite Yeah, elle demande c'est quoi la suite Yeah Je sais qu'j'suis bon dans mon business Business, parce que j'suis impossible à suivre Okay Un p'tit merdeux gêne ma semelle Dis-moi y veut quoi lassui Dis-moi y veut quoi lassui Un p'tit merdeux gêne ma semelle Dis-moi y veut quoi lassui Dis-moi y veut quoi lassui You might also like On a-, on a grandi maintenant y faut les baiser J'suis artiste mais j'ai jamais vu les Beaux-Arts Pas la même substance, pas l'même dosage Belek, j'ai les crocs Aucun vrai, que des faux G J'ai une p'tite pulsion et j'suis fauché J'suis malade, riche et névrosé et mes ops c'est qu'une case que j'vais cocher Han J'ai suivi l'process' malgré les mauvais choix, fallait l'faire, fallait oser J'étais sous Maybach Music back then maintenant j'pose sur une prod de Tarik comme Rozay J'voulais la planète, j'voulais le globe, j'voulais le putain d'monde comme Sosa Tu n'as pas les épaules pour devenir un problème, pour devenir plus qu'un soucis Elle s'maquille dans la suite Yeah, elle demande c'est quoi la suite Yeah Je sais qu'j'suis bon dans mon business Business, parce que j'suis impossible à suivre Yeah Un p'tit merdeux gêne ma semelle Dis-moi y veut quoi lassui Dis-moi y veut quoi lassui Un p'tit merdeux gêne ma semelle, dis-moi y veut quoi lassui Dis-moi y veut quoi lassui Yeah, yeah Yeah, yeah J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game</t>
+          <t>Elle s'maquille dans la suite Yeah, elle demande c'est quoi la suite Yeah Je sais qu'j'suis bon dans mon business Business, parce que j'suis impossible à suivre Yeah Un p'tit merdeux gêne ma semelle Dis-moi y veut quoi lassui Dis-moi y veut quoi lassui Un p'tit merdeux gêne ma semelle ma semelle Dis-moi y veut quoi lassui Dis-moi y veut quoi lassui Merci mon 7 et ma sueur J'fais que ds sold out, merci mes soldats Merci ms consommateurs Nouveau pro, ex amateur Ne compte pas sur moi, j'fais mon trou ici-bas après j'm'envole comme la vapeur J'contrôle, bébé, n'ait pas peur Faudrait qu'je pop comme le perc Chéri bouge, ton gros kwer de ma vue, c'est mon gagne-pain, j'ai besoin d'concentration Oui j'ai fait des folies dans mon passé mais j'suis pas un méchant garçon J'voulais la planète, j'voulais le globe, j'voulais le putain d'monde comme Sosa Tu n'as pas les épaules pour devenir un problème, pour devenir plus qu'un soucis Elle s'maquille dans la suite Yeah, elle demande c'est quoi la suite Yeah Je sais qu'j'suis bon dans mon business Business, parce que j'suis impossible à suivre Okay Un p'tit merdeux gêne ma semelle Dis-moi y veut quoi lassui Dis-moi y veut quoi lassui Un p'tit merdeux gêne ma semelle Dis-moi y veut quoi lassui Dis-moi y veut quoi lassui On a-, on a grandi maintenant y faut les baiser J'suis artiste mais j'ai jamais vu les Beaux-Arts Pas la même substance, pas l'même dosage Belek, j'ai les crocs Aucun vrai, que des faux G J'ai une p'tite pulsion et j'suis fauché J'suis malade, riche et névrosé et mes ops c'est qu'une case que j'vais cocher Han J'ai suivi l'process' malgré les mauvais choix, fallait l'faire, fallait oser J'étais sous Maybach Music back then maintenant j'pose sur une prod de Tarik comme Rozay J'voulais la planète, j'voulais le globe, j'voulais le putain d'monde comme Sosa Tu n'as pas les épaules pour devenir un problème, pour devenir plus qu'un soucis Elle s'maquille dans la suite Yeah, elle demande c'est quoi la suite Yeah Je sais qu'j'suis bon dans mon business Business, parce que j'suis impossible à suivre Yeah Un p'tit merdeux gêne ma semelle Dis-moi y veut quoi lassui Dis-moi y veut quoi lassui Un p'tit merdeux gêne ma semelle, dis-moi y veut quoi lassui Dis-moi y veut quoi lassui Yeah, yeah Yeah, yeah J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game J'voulais juste baiser le game</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Flexing on these hoes I'm in love with you I've been with my crew I cant come to you Flexing on these hoes I'm in love with you I've been with my crew I cant come to you Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come I wanna see you go Down, down, down, down, down Down, down, down Bfore the sun goes down Down, down, down, down Down, down, down, down, down Ell m'cherche comme ses clés Chargée comme un téléphone Bad girl, faut pas la débrancher Décryptée, Lala-Telecom J'voix qu'c'est un pd, putain qu'elle est bonne Appuie ton back à droite À droite Maintenant la pièce est moite Wine comme une psychopathe Ici c'est Dalida et je veux ton autographe Yeah, yeah, laisse la aller Baby girl stress pas ça va aller Monte dans la chop On est un peu serré Et j'sip le breuvage mais j'vais pas t'oublier, yeah Shawtys going down down down J'aime quand t'en fais des tonnes J't'avance ça mais j'fais des sommes Bitches de chaque taille comme des daltons You might also like Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come I wanna see you go Down, down, down, down, down Down, down, down Before the sun goes down Down, down, down, down Down, down, down, down, down See I'm moving like a I'll be the one, I know You're my Bonnie, I'm Clyde You're my Bonnie, I'm Clyde I see no clout inside Yeah it's all about the benjamins But I know mama, here's the gentlemen You my Bonnie, I'm Clyde I see no clout inside I know, what if I go Now I'm gone but I calling again Yeah I'm calling for you All in my luv, in my soul Are behind us, don't worry Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come I wanna see you go Down, down, down, down, down Down, down, down Before the sun goes down Down, down, down, down Down, down, down, down, down Elle veut un vrai G J'suis ce frenchy Mais j'suis toujours dans mes bails de la ganja Je veux le monde entier, je vois sur l'article Moi G, sortir la mélodie c'est automatique J'ai été naïf Tu sais jai été naïf Chérie des problèmes, j'en avais ninety-nine Toutes ces images de toi je pense, je pense qu'à mailler Toutes ces images de toi je pense, je pense qu'à mailler Eh, eh, fe-meu je veux pas, faut ma saïd Sur ma grillz un dollar sign Pour moi elle a some desires Pour moi elle a some desires J'crois pas trop promesses et tes love stories J'voulais payer quelque chose mais j'suis broke, sorry Mais moi je l'ai capté, elle veut un vrai G Je pense qu'elle se souvient de ce frenchy Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come I wanna see you go Down, down, down, down, down Down, down, down Before the sun goes down Down, down, down, down Down, down, down, down, down</t>
+          <t>Flexing on these hoes I'm in love with you I've been with my crew I cant come to you Flexing on these hoes I'm in love with you I've been with my crew I cant come to you Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come I wanna see you go Down, down, down, down, down Down, down, down Bfore the sun goes down Down, down, down, down Down, down, down, down, down Ell m'cherche comme ses clés Chargée comme un téléphone Bad girl, faut pas la débrancher Décryptée, Lala-Telecom J'voix qu'c'est un pd, putain qu'elle est bonne Appuie ton back à droite À droite Maintenant la pièce est moite Wine comme une psychopathe Ici c'est Dalida et je veux ton autographe Yeah, yeah, laisse la aller Baby girl stress pas ça va aller Monte dans la chop On est un peu serré Et j'sip le breuvage mais j'vais pas t'oublier, yeah Shawtys going down down down J'aime quand t'en fais des tonnes J't'avance ça mais j'fais des sommes Bitches de chaque taille comme des daltons Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come I wanna see you go Down, down, down, down, down Down, down, down Before the sun goes down Down, down, down, down Down, down, down, down, down See I'm moving like a I'll be the one, I know You're my Bonnie, I'm Clyde You're my Bonnie, I'm Clyde I see no clout inside Yeah it's all about the benjamins But I know mama, here's the gentlemen You my Bonnie, I'm Clyde I see no clout inside I know, what if I go Now I'm gone but I calling again Yeah I'm calling for you All in my luv, in my soul Are behind us, don't worry Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come I wanna see you go Down, down, down, down, down Down, down, down Before the sun goes down Down, down, down, down Down, down, down, down, down Elle veut un vrai G J'suis ce frenchy Mais j'suis toujours dans mes bails de la ganja Je veux le monde entier, je vois sur l'article Moi G, sortir la mélodie c'est automatique J'ai été naïf Tu sais jai été naïf Chérie des problèmes, j'en avais ninety-nine Toutes ces images de toi je pense, je pense qu'à mailler Toutes ces images de toi je pense, je pense qu'à mailler Eh, eh, fe-meu je veux pas, faut ma saïd Sur ma grillz un dollar sign Pour moi elle a some desires Pour moi elle a some desires J'crois pas trop promesses et tes love stories J'voulais payer quelque chose mais j'suis broke, sorry Mais moi je l'ai capté, elle veut un vrai G Je pense qu'elle se souvient de ce frenchy Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come and do the dutty wine Where the fine girls come I wanna see you go Down, down, down, down, down Down, down, down Before the sun goes down Down, down, down, down Down, down, down, down, down</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Han, j'marche seul dans la grande allée Dans la grande allée La prod elle est endale Elle est endale Charbonne depuis tant d'années Ok La Fève il est condamné Il est condamné J'arrive comme une maladie J'arrive comme une maladie Y a des choses j'ai du mal à dire Choses j'ai du mal à dire Charbonne depuis tant d'années Ok La Fève il est condamné J'marche seul dans la grande allé Allée La prod elle st endale La prod elle est endale Charbonne depuis tant d'années Charbonne depuis tant d'années La Fève il est condamné La Fève J'arrive comme une maladie Ladie Y'a des choses j'ai du mal à dire À dire Charbonne depuis tant d'années Charbonne depuis tant d'années La Fève il est condamné Damné La Fève c'est un piranha Anha Sur la prod j'suis en pyjama Ok La Fève sera La Fève sera J'suis né j'avais déjà mal Jà mal Pourquoi tu m'as remplacé Placé La Fève il a tout gâché Gâché Mon cur il est tout cassé Mon cur il est tout cassé L'argent il faut tout cacher L'argent il faut tout cacher Faut l'faire quand c'est ton tour frère sinon y a pas mille occas' Y a pas mille occas' Chérie faut t'habituer, La Fève il a un pet au casque La Fève il a un pet au casque Jésus à donné sa joue, moi j'donnerai qu'mon gros majeur Mon gros majeur Les labels ils sont chelous, ils cherchent des personnages Des personnages Est-ce que le ciel m'entend ? M'entend Je sens le brolic sur ma tempe Ma tempe Pas sûr qu'la richesse m'attende M'attende Ça traine à Ménilmontant Montant Y'a trop d'cailloux dans la mèche La mèche La Fève marche dans la neige La Fève marche dans la J'ai du sang sur le pantalon J'ai du sang sur le pantalon Dès qu'j'rentre je suis You might also like J'marche seul dans la grande allée Allée La prod elle est endale Prod elle est endale Charbonne depuis tant d'années Charbonne depuis tant d'années La Fève il est condamné Oh, yeah J'arrive comme une maladie Y'a des choses j'ai du mal à dire À dire Charbonne depuis tant d'années Charbonne depuis tant d'années La Fève il est condamné La Fève il est condamné J'marche seul dans la grande allée Allée La prod elle est endale La prod elle est endale Charbonne depuis tant d'années Charbonne depuis tant d'années La Fève il est condamné Damné J'arrive comme une maladie Adie Y'a des choses j'ai du mal à dire À dire Charbonne depuis tant d'années Charbonne depuis tant d'années La Fève il est condamné La Fève il est con-</t>
+          <t>Han, j'marche seul dans la grande allée Dans la grande allée La prod elle est endale Elle est endale Charbonne depuis tant d'années Ok La Fève il est condamné Il est condamné J'arrive comme une maladie J'arrive comme une maladie Y a des choses j'ai du mal à dire Choses j'ai du mal à dire Charbonne depuis tant d'années Ok La Fève il est condamné J'marche seul dans la grande allé Allée La prod elle st endale La prod elle est endale Charbonne depuis tant d'années Charbonne depuis tant d'années La Fève il est condamné La Fève J'arrive comme une maladie Ladie Y'a des choses j'ai du mal à dire À dire Charbonne depuis tant d'années Charbonne depuis tant d'années La Fève il est condamné Damné La Fève c'est un piranha Anha Sur la prod j'suis en pyjama Ok La Fève sera La Fève sera J'suis né j'avais déjà mal Jà mal Pourquoi tu m'as remplacé Placé La Fève il a tout gâché Gâché Mon cur il est tout cassé Mon cur il est tout cassé L'argent il faut tout cacher L'argent il faut tout cacher Faut l'faire quand c'est ton tour frère sinon y a pas mille occas' Y a pas mille occas' Chérie faut t'habituer, La Fève il a un pet au casque La Fève il a un pet au casque Jésus à donné sa joue, moi j'donnerai qu'mon gros majeur Mon gros majeur Les labels ils sont chelous, ils cherchent des personnages Des personnages Est-ce que le ciel m'entend ? M'entend Je sens le brolic sur ma tempe Ma tempe Pas sûr qu'la richesse m'attende M'attende Ça traine à Ménilmontant Montant Y'a trop d'cailloux dans la mèche La mèche La Fève marche dans la neige La Fève marche dans la J'ai du sang sur le pantalon J'ai du sang sur le pantalon Dès qu'j'rentre je suis J'marche seul dans la grande allée Allée La prod elle est endale Prod elle est endale Charbonne depuis tant d'années Charbonne depuis tant d'années La Fève il est condamné Oh, yeah J'arrive comme une maladie Y'a des choses j'ai du mal à dire À dire Charbonne depuis tant d'années Charbonne depuis tant d'années La Fève il est condamné La Fève il est condamné J'marche seul dans la grande allée Allée La prod elle est endale La prod elle est endale Charbonne depuis tant d'années Charbonne depuis tant d'années La Fève il est condamné Damné J'arrive comme une maladie Adie Y'a des choses j'ai du mal à dire À dire Charbonne depuis tant d'années Charbonne depuis tant d'années La Fève il est condamné La Fève il est con-</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Yeah Yeah Yes Yes Yeah Sortez les flash quand j'arrive, c'est moi l'maître de cérémonie Naïf, j'ai cherché la loyauté dans un monde rempli d'félonie Ils ont joué, sans rancune, mais j'ai pas su rester poli J'ai b'soin d'parler avec une belle mélodie J'commence la journée comme elle finie dans un nuage de smoke Ce fils de- veut tester mon cerveau donc je laisse croquer On a fait la guerre ensemble, ma le-g', j'te laisse croquer On m'a appris la mauvaise nouvelle au phone, j'suis resté bloqué Askip, la vie faut la croquer mais même ça on sait pas faire Rien qu'je chasse mais à quoi ça sert ? Le nez dans mes affaires tous les jours Il faut qu'je prenne du recul, ma propre vision m'joue des tours J'ai failli croire qu'la vie était belle, qu'on allait rester soudé tous Yeah Ce soir j'ai l'mal du pays, voire de la planète, j'crois bien qu'j'étais moins seul avant qu'je sorte de la galère Ils veulent parler d'la street Street avec un stylo plume Plume Tellement d'scènes dans mes cauchemars depuis je ne dors plus Ma le-g', c'est everyday Everyday, everyday Yeah Chez nous, c'est péché d'hésiter J'ai b'soin d'faire le vide, de trier mes idées Everyday Quelle putain d'sensation, j'ai dû arrêter la relation, on s'aimait sans passion Passion J'veux m'détacher d'cette haine en moi mais j'crois qu'cette merde est chronique Dis-moi comment gagner quand t'es seul dans ta catégorie J'reste anti-vice, anti-chtomi, j'me sens bien dans ma folie Yeah J'veux pas qu'on m'réveille comme les momies Momies You might also like Sortez les flash quand j'arrive, c'est moi l'maître de cérémonie Cérémonie, yeah, yeah J'ai b'soin d'parler avec une belle mélodie Parler avec une belle mélodie, yeah, yeah Sortez les flash quand j'arrive, c'est moi l'maître de cérémonie Sortez les flash quand j'arrive, c'est moi l'maître de cérémonie Yeah J'ai b'soin d'parler avec une belle mélodie J'ai b'soin d'parler avec une belle mélodie Yeah, yeah</t>
+          <t>Yeah Yeah Yes Yes Yeah Sortez les flash quand j'arrive, c'est moi l'maître de cérémonie Naïf, j'ai cherché la loyauté dans un monde rempli d'félonie Ils ont joué, sans rancune, mais j'ai pas su rester poli J'ai b'soin d'parler avec une belle mélodie J'commence la journée comme elle finie dans un nuage de smoke Ce fils de- veut tester mon cerveau donc je laisse croquer On a fait la guerre ensemble, ma le-g', j'te laisse croquer On m'a appris la mauvaise nouvelle au phone, j'suis resté bloqué Askip, la vie faut la croquer mais même ça on sait pas faire Rien qu'je chasse mais à quoi ça sert ? Le nez dans mes affaires tous les jours Il faut qu'je prenne du recul, ma propre vision m'joue des tours J'ai failli croire qu'la vie était belle, qu'on allait rester soudé tous Yeah Ce soir j'ai l'mal du pays, voire de la planète, j'crois bien qu'j'étais moins seul avant qu'je sorte de la galère Ils veulent parler d'la street Street avec un stylo plume Plume Tellement d'scènes dans mes cauchemars depuis je ne dors plus Ma le-g', c'est everyday Everyday, everyday Yeah Chez nous, c'est péché d'hésiter J'ai b'soin d'faire le vide, de trier mes idées Everyday Quelle putain d'sensation, j'ai dû arrêter la relation, on s'aimait sans passion Passion J'veux m'détacher d'cette haine en moi mais j'crois qu'cette merde est chronique Dis-moi comment gagner quand t'es seul dans ta catégorie J'reste anti-vice, anti-chtomi, j'me sens bien dans ma folie Yeah J'veux pas qu'on m'réveille comme les momies Momies Sortez les flash quand j'arrive, c'est moi l'maître de cérémonie Cérémonie, yeah, yeah J'ai b'soin d'parler avec une belle mélodie Parler avec une belle mélodie, yeah, yeah Sortez les flash quand j'arrive, c'est moi l'maître de cérémonie Sortez les flash quand j'arrive, c'est moi l'maître de cérémonie Yeah J'ai b'soin d'parler avec une belle mélodie J'ai b'soin d'parler avec une belle mélodie Yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>T'as une bonne oreille si c'est sur moi qu't'as mis l'pari, yes Faut qu'j'aille voir un plug à Montreuil, sur Rue de Paris, yes J'suis un jeune donc j'suis trop paro, dans la ville j'me tiens à carreau J'vérifie si tout est carré, y'en a trop qui veulent me taro J'suis La Fève j'ai la vision trouble, à l'arrière ça roule, c'est mes associés On attend qu'ça s'calme, si jamais ça s'gâte 'faut pas t'en soucier chérie Pour l'instant j'ai faim, si j'avais plus d'euros j'serais avec une égérie J'ai confiance en toi mais j'rste persuadé que si un jour j'dviens che-ri Dans mon dos tu cracheras Tu pourras dire que c'est différent mais j'suis sûr qu'dans mon dos tu cracheras Dans le studio j'suis la foudre, bientôt on dit on l'a fait J'suis pas attiré par la fame C'est pour les bandeurs et les faibles Autour de toi y'a des snakes, que des serpents, frero c'est des reptiles Même si t'es tenté par le vice tous les jours mon ngro faut qu'tu restes digne L'odeur des billets on adore Fais gaffe au karma il est dur La Fève il est vif donc t'as pas vu grand chose mais t'as capté la procédure T'as une bonne oreille si c'est sur moi qu't'as mis l'pari, yes Faut qu'j'aille voir un plug à Montreuil, sur Rue de Paris, yes J'suis un jeune donc j'suis trop paro, dans la vie j'me tiens à carreau J'vérifie si tout est carré, y'en a trop qui veulent me taro You might also like T'as capté la prod , on fait ça à l'aise J'suis un jeune donc j'suis trop avare, toi t'es trop bavard, sur moi tu bavais La Fève c'est du très haut-niveau, tu serais choqué si tu savais Tu crois en un frère mais c'est possible qu'un jour il retourne sa veste Faut rester sur ses appuis, t'as les couilles tu fais trop d'mala J'lance un petit coup d'il à droite, sur mon épaule gauche il y a le malin Je vois un peu les matins, je suis tout là-haut tu crois qu'tu m'atteins ? J'suis un jeune instable, j'essaye de changer mais c'est mon instinct T'as une bonne oreille si c'est sur moi qu't'as mis l'pari, yes Faut qu'j'aille voir un plug à Montreuil, sur Rue de Paris, yes J'suis un jeune donc j'suis trop paro, dans la vie j'me tiens à carreau J'vérifie si tout est carré, y'en a trop qui veulent me taro</t>
+          <t>T'as une bonne oreille si c'est sur moi qu't'as mis l'pari, yes Faut qu'j'aille voir un plug à Montreuil, sur Rue de Paris, yes J'suis un jeune donc j'suis trop paro, dans la ville j'me tiens à carreau J'vérifie si tout est carré, y'en a trop qui veulent me taro J'suis La Fève j'ai la vision trouble, à l'arrière ça roule, c'est mes associés On attend qu'ça s'calme, si jamais ça s'gâte 'faut pas t'en soucier chérie Pour l'instant j'ai faim, si j'avais plus d'euros j'serais avec une égérie J'ai confiance en toi mais j'rste persuadé que si un jour j'dviens che-ri Dans mon dos tu cracheras Tu pourras dire que c'est différent mais j'suis sûr qu'dans mon dos tu cracheras Dans le studio j'suis la foudre, bientôt on dit on l'a fait J'suis pas attiré par la fame C'est pour les bandeurs et les faibles Autour de toi y'a des snakes, que des serpents, frero c'est des reptiles Même si t'es tenté par le vice tous les jours mon ngro faut qu'tu restes digne L'odeur des billets on adore Fais gaffe au karma il est dur La Fève il est vif donc t'as pas vu grand chose mais t'as capté la procédure T'as une bonne oreille si c'est sur moi qu't'as mis l'pari, yes Faut qu'j'aille voir un plug à Montreuil, sur Rue de Paris, yes J'suis un jeune donc j'suis trop paro, dans la vie j'me tiens à carreau J'vérifie si tout est carré, y'en a trop qui veulent me taro T'as capté la prod , on fait ça à l'aise J'suis un jeune donc j'suis trop avare, toi t'es trop bavard, sur moi tu bavais La Fève c'est du très haut-niveau, tu serais choqué si tu savais Tu crois en un frère mais c'est possible qu'un jour il retourne sa veste Faut rester sur ses appuis, t'as les couilles tu fais trop d'mala J'lance un petit coup d'il à droite, sur mon épaule gauche il y a le malin Je vois un peu les matins, je suis tout là-haut tu crois qu'tu m'atteins ? J'suis un jeune instable, j'essaye de changer mais c'est mon instinct T'as une bonne oreille si c'est sur moi qu't'as mis l'pari, yes Faut qu'j'aille voir un plug à Montreuil, sur Rue de Paris, yes J'suis un jeune donc j'suis trop paro, dans la vie j'me tiens à carreau J'vérifie si tout est carré, y'en a trop qui veulent me taro</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Smoke Au fond j'suis tendance Tendance Cest la hess quand y a un teh pour 5 J'reste dans la danse La danse L'équipe est faite donc pas dnouveaux srabs Pas d'nouveaux srabs Y a quand même des gens qui sniffent tellement Ils achètent un zen en métal Yeah La Fève la légende J'm'en branle si c'est pas pour les ouss on décale Merde Mon père ma renie c'étais pas sympa Pas sympa J'fuguais j'allais voir la vraie vie Jétais agité dans le placenta Placenta À lhosto y'avait voila les gadjis Jsuis dans l'mal comme la plupart des ne-jeu Dans mon coin j'roule mon seum comme un débile À dix piges j'avais pas dmontre cliclac Dix ans plus tard au poignet j'veux la Breitling 75015 pour les building Sois sans craintes j'suis La Fève j'fais des messes-basses Trop longtemps tout solo dans ma bulle vide 77 c'est bien pas pour faire du sale J'ai peur du bain d'sang quand j'm'énerve Je graille 1505 benders Les pookies, les traitres ça m'vénère Comme si ma gosse voulait l'boule à Kris Jenner You might also like Au fond j'suis tendance C'est la hess quand y a un teh pour- Un teh par terre Les haineux t'inquiètes j'les tuerai tête par tête Pas b'soin d'le jurer sur la tête de ma- J'suis La Fève pour de vrai Pour des années, j'suis La Fève pour des siècles J'aurais mon dû bien avant qu'on m'arrête Comme si les gom com calmaient la peste J'viens ramener l'averse Le propre j'suis l'inverse moi J'fais des versets que personne m'empêche de Calmer la bête sinon Fève va exploser sinon La Fève agrandira la brèche Dans l'trom' y a des gadjis qui déconnent Ils m'regardent comme si j'étais la dernière des merdes Quand c'est la disette j'dois noter mes chromes Les très riches m'attirent, le biz dégoute quand même sa mère la- Au fond j'suis tendance Tendance C'est la hess quand y a un teh pour 5 Un teh pour 5 J'reste dans la danse La danse L'équipe est faite donc pas d'nouveaux srabs Pas d'nouveaux srabs Y a quand même des gens qui sniffent tellement Ils achètent un zen en métal Yeah La Fève la légende J'm'en branle si c'est pas pour les ouss on décale Yeah La F-1</t>
+          <t>Smoke Au fond j'suis tendance Tendance Cest la hess quand y a un teh pour 5 J'reste dans la danse La danse L'équipe est faite donc pas dnouveaux srabs Pas d'nouveaux srabs Y a quand même des gens qui sniffent tellement Ils achètent un zen en métal Yeah La Fève la légende J'm'en branle si c'est pas pour les ouss on décale Merde Mon père ma renie c'étais pas sympa Pas sympa J'fuguais j'allais voir la vraie vie Jétais agité dans le placenta Placenta À lhosto y'avait voila les gadjis Jsuis dans l'mal comme la plupart des ne-jeu Dans mon coin j'roule mon seum comme un débile À dix piges j'avais pas dmontre cliclac Dix ans plus tard au poignet j'veux la Breitling 75015 pour les building Sois sans craintes j'suis La Fève j'fais des messes-basses Trop longtemps tout solo dans ma bulle vide 77 c'est bien pas pour faire du sale J'ai peur du bain d'sang quand j'm'énerve Je graille 1505 benders Les pookies, les traitres ça m'vénère Comme si ma gosse voulait l'boule à Kris Jenner Au fond j'suis tendance C'est la hess quand y a un teh pour- Un teh par terre Les haineux t'inquiètes j'les tuerai tête par tête Pas b'soin d'le jurer sur la tête de ma- J'suis La Fève pour de vrai Pour des années, j'suis La Fève pour des siècles J'aurais mon dû bien avant qu'on m'arrête Comme si les gom com calmaient la peste J'viens ramener l'averse Le propre j'suis l'inverse moi J'fais des versets que personne m'empêche de Calmer la bête sinon Fève va exploser sinon La Fève agrandira la brèche Dans l'trom' y a des gadjis qui déconnent Ils m'regardent comme si j'étais la dernière des merdes Quand c'est la disette j'dois noter mes chromes Les très riches m'attirent, le biz dégoute quand même sa mère la- Au fond j'suis tendance Tendance C'est la hess quand y a un teh pour 5 Un teh pour 5 J'reste dans la danse La danse L'équipe est faite donc pas d'nouveaux srabs Pas d'nouveaux srabs Y a quand même des gens qui sniffent tellement Ils achètent un zen en métal Yeah La Fève la légende J'm'en branle si c'est pas pour les ouss on décale Yeah La F-1</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Smoke smoke, smoke Parle pas trop de biff parle pas trop de mif Ou sinon tes mort de mon continent Deux milles ou trois milles billets pour mon 7 Avk nous sa tir, avk toi je sais qucest un bon bilan Jsuis dans lécriture mais jsuis pas molière Jsuis dans toute les bouches jsuis pas une molaire, mais tu kiff même quand Jsuis dans lécriture mais jsuis pas Baudlaire Jai des benjamins jdepense mais cest clair jvois pas passer ltemps Jsuis dans la gova ca va vite jai les yeux rouges le shit mexcite tellment Ma tête sur lbillet dbanqu sur lbillet dban- Avk La Feve le 7 tout l jsuis en repérage a Paris Maintenant quand jsuis foncdé sa marrive det lent Jsuis dans la gova ca va vite jai les yeux rouges le shit mexcite tellement Ma tête sur lbillet dbanque sur lbillet dban- Avk La Feve le 7 tout l jsuis en repérage a Paris Maintenant quand jsuis foncdé sa marrive det lent Jsuis foncdé sa marrive dêtre lent Jsuis foncdé sa marrive tellement Ma tête sur le billet dbanque sur lbillet, sur lbillet You might also likeOuais jsuis foncdé sa marrive dêtre lent arrive dêtre lent des fois sa marrive dêtre lent Yeah, jfume des backwood pas d tu baves sur ton pire ennemi Sur ton balcon le roi LAF les élimine Jprepare pas des jet-pro pour R moi jteste mes limites Ils font que dbraille sa menrv, dans la trapmaison avk mes salopards mon negro jveux la vie dchateau Influencé par les villa et les liasses doseille Dou lépoque où LAF portait des sacs à dos BEATSWITCH Dundy Caché dans le brodo quelque sachets dans mon brodé Jdois impressionner lrap français jvais réussir sans les bobo Ami cash dans le boro Amicalement jsors mon projet Jai mes calmants jai la prometh La pute bourrée veut du bordeaux Jai pas les thunes dun trans bizzare la punch et jdepense sans compter Alors un jour si jbrasse bah sa va rien changer Jai les poches mal fermés la sacoche mal rangé En jai pas manger mais jai du teh damné La Fève La sueur de mes yeuz srait un prodige Jai plus ltemps pour les ptit dej, jaime pas les gens qui profite Je baise les grands les gros DJ au connu des grands traites Mais trnkl jai la maîtrise, LAF le plus grand des kick jsp quoi LAF du tu connais mon adresse jacheve les coups on magresse Dans ltrou noir c pas la dernière fois Jécris c ma trêve jécris jvois pas terne jamulle ma lanterne depuis jvois la terre jai pas bcp despoir</t>
+          <t>Smoke smoke, smoke Parle pas trop de biff parle pas trop de mif Ou sinon tes mort de mon continent Deux milles ou trois milles billets pour mon 7 Avk nous sa tir, avk toi je sais qucest un bon bilan Jsuis dans lécriture mais jsuis pas molière Jsuis dans toute les bouches jsuis pas une molaire, mais tu kiff même quand Jsuis dans lécriture mais jsuis pas Baudlaire Jai des benjamins jdepense mais cest clair jvois pas passer ltemps Jsuis dans la gova ca va vite jai les yeux rouges le shit mexcite tellment Ma tête sur lbillet dbanqu sur lbillet dban- Avk La Feve le 7 tout l jsuis en repérage a Paris Maintenant quand jsuis foncdé sa marrive det lent Jsuis dans la gova ca va vite jai les yeux rouges le shit mexcite tellement Ma tête sur lbillet dbanque sur lbillet dban- Avk La Feve le 7 tout l jsuis en repérage a Paris Maintenant quand jsuis foncdé sa marrive det lent Jsuis foncdé sa marrive dêtre lent Jsuis foncdé sa marrive tellement Ma tête sur le billet dbanque sur lbillet, sur lbillet Ouais jsuis foncdé sa marrive dêtre lent arrive dêtre lent des fois sa marrive dêtre lent Yeah, jfume des backwood pas d tu baves sur ton pire ennemi Sur ton balcon le roi LAF les élimine Jprepare pas des jet-pro pour R moi jteste mes limites Ils font que dbraille sa menrv, dans la trapmaison avk mes salopards mon negro jveux la vie dchateau Influencé par les villa et les liasses doseille Dou lépoque où LAF portait des sacs à dos BEATSWITCH Dundy Caché dans le brodo quelque sachets dans mon brodé Jdois impressionner lrap français jvais réussir sans les bobo Ami cash dans le boro Amicalement jsors mon projet Jai mes calmants jai la prometh La pute bourrée veut du bordeaux Jai pas les thunes dun trans bizzare la punch et jdepense sans compter Alors un jour si jbrasse bah sa va rien changer Jai les poches mal fermés la sacoche mal rangé En jai pas manger mais jai du teh damné La Fève La sueur de mes yeuz srait un prodige Jai plus ltemps pour les ptit dej, jaime pas les gens qui profite Je baise les grands les gros DJ au connu des grands traites Mais trnkl jai la maîtrise, LAF le plus grand des kick jsp quoi LAF du tu connais mon adresse jacheve les coups on magresse Dans ltrou noir c pas la dernière fois Jécris c ma trêve jécris jvois pas terne jamulle ma lanterne depuis jvois la terre jai pas bcp despoir</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Tu m'as Tu m'as Yes, oh Tu m'as Yeah, yeah Y a des gratteurs autour de toi mon nigga Toi mon nigga Elle me ride comme la Ducati my nigga 'Ti my nigga Reste vrai, j'veux pas t'es timide nigga Timide nigga Elle me demande qu'est-c'tu manigances Tu manigances Les morts là-haut, j'espère qu'ils pensent à nous Pensent à nous Pour ça, les liens chérie, j'veux pas les nouer J'veux pas les nouer De me rencontrer, c'est une chance inouïe Chance inouïe Je sens cette énergie qui nous lie Vingt-et-un ans, toujours le même, han Même, han Je suis à l'aise mais le temps presse Presse Y a que cette liasse qui m'est précieuse Précieuse Je fais mon truc, j'en ai rien à faire qu'ils m'apprécient eux J'ai pas le temps d'penser à tous ceux qui m'haïssent Elle aime ça, quand j'use de ma baby voice Des jolies mots et des pensées amères J'étais tout seul, tu m'as laissé en R You might also like Tu m'as laissé, tu m'as Tu m'as laissé, tu m'as Tu m'as laissé, tu m'as Tu m'as laissé, tu m'as</t>
+          <t>Tu m'as Tu m'as Yes, oh Tu m'as Yeah, yeah Y a des gratteurs autour de toi mon nigga Toi mon nigga Elle me ride comme la Ducati my nigga 'Ti my nigga Reste vrai, j'veux pas t'es timide nigga Timide nigga Elle me demande qu'est-c'tu manigances Tu manigances Les morts là-haut, j'espère qu'ils pensent à nous Pensent à nous Pour ça, les liens chérie, j'veux pas les nouer J'veux pas les nouer De me rencontrer, c'est une chance inouïe Chance inouïe Je sens cette énergie qui nous lie Vingt-et-un ans, toujours le même, han Même, han Je suis à l'aise mais le temps presse Presse Y a que cette liasse qui m'est précieuse Précieuse Je fais mon truc, j'en ai rien à faire qu'ils m'apprécient eux J'ai pas le temps d'penser à tous ceux qui m'haïssent Elle aime ça, quand j'use de ma baby voice Des jolies mots et des pensées amères J'étais tout seul, tu m'as laissé en R Tu m'as laissé, tu m'as Tu m'as laissé, tu m'as Tu m'as laissé, tu m'as Tu m'as laissé, tu m'as</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>J'veux m'ensommeiller dans le satin Faut ça m'écoute de Marseille à Saint-Ouen Cétait faux, pourquoi t'as dit ça toi ? T'as de l'argent mais tu pensais qu'à toi J'ai toujours un petit il à gauche Chienne de vie, y a a des peines à la louche Maxi kish', j'ai la bave à la bouche J'crois j'me suis fait avoir par son push-up Petit veut devenir immense Autrui fait le fidèle, il ment Des rêves de grandeur t'as peur Nouveau king, ancien amatur On donne la force, j'envoi un cur Dans le laptop de quoi nous refaire Pull up, refais, dans le studio pas d'à peu près Prends pas mon temps, prends pas ma tête Trop ne-jeu, j'en veux à la Terre entière Du nouveau plug, j'ai pris la tête Je n'me souviens plus de ce que j'ai fait hier J'aime pas les peut-être, les on verra J'fais belek à eux, c'est des rats, petit frère Avant j'espérais un miracle La tape elle s'appelle comme un vomi You might also like Je pensais que t'étais mon homie Jmets tempête et j'les laisse à l'agonie J'suis pas ton Clyde et t'es pas ma Bonnie Avec Gwapo on prépare des folies J'écoute la voix qui m'dit Fais-le, tous les jours on est en félins Ce G agissait comme un frère, mais là il répond plus au tél', hein Ne t'inquiète pas j'ai du sale on the way, sale on the way Big La Fève, je me sens seul sur ma wave Ne t'inquiète pas j'ai du sale on the way, sale on the way Big La Fève, je me sens seul sur ma wave</t>
+          <t>J'veux m'ensommeiller dans le satin Faut ça m'écoute de Marseille à Saint-Ouen Cétait faux, pourquoi t'as dit ça toi ? T'as de l'argent mais tu pensais qu'à toi J'ai toujours un petit il à gauche Chienne de vie, y a a des peines à la louche Maxi kish', j'ai la bave à la bouche J'crois j'me suis fait avoir par son push-up Petit veut devenir immense Autrui fait le fidèle, il ment Des rêves de grandeur t'as peur Nouveau king, ancien amatur On donne la force, j'envoi un cur Dans le laptop de quoi nous refaire Pull up, refais, dans le studio pas d'à peu près Prends pas mon temps, prends pas ma tête Trop ne-jeu, j'en veux à la Terre entière Du nouveau plug, j'ai pris la tête Je n'me souviens plus de ce que j'ai fait hier J'aime pas les peut-être, les on verra J'fais belek à eux, c'est des rats, petit frère Avant j'espérais un miracle La tape elle s'appelle comme un vomi Je pensais que t'étais mon homie Jmets tempête et j'les laisse à l'agonie J'suis pas ton Clyde et t'es pas ma Bonnie Avec Gwapo on prépare des folies J'écoute la voix qui m'dit Fais-le, tous les jours on est en félins Ce G agissait comme un frère, mais là il répond plus au tél', hein Ne t'inquiète pas j'ai du sale on the way, sale on the way Big La Fève, je me sens seul sur ma wave Ne t'inquiète pas j'ai du sale on the way, sale on the way Big La Fève, je me sens seul sur ma wave</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Eh Eh, eh J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi Des fois, j'me sens trahi, han J'me sens trahi J'me sens trahi, j'me sens trahi J'm sens trahi, j'me sens trahi J'm sens trahi, j'me sens trahi Yes, okay Yes Porsche Panamera, rare comme un miracle Comme un miracle Ceux qui donnent d'la force pour tchi, j'trouve, c'est admirable ERRR J'fais pas trop l'aumône Pas trop l'aumône, faut raviver la meute ERRR Tu veux renier ça, pourquoi ? Yes T'as ça dans ton âme Okay, rappe comme y a dix piges Comme y a dix piges Une voix atypique Une voix atypique On dit LAF, il a la même fougue depuis tit-pe Depuis tit-pe J'suis un jeune doué comme ce numéro dix ERRR J'pense à ces poulets, faudrait qu'ils rôtissent Qu'ils rôtissent Pourquoi tu m'racontes tes histoires ? Je te vois, tu veux me ramener ton vice, toi Tu as cramé que c'est là-haut que je vise, moi, tu as cramé que c'est là-haut que je vise, moi On t'avait dit 2021, c'est pour nous Dans ma main j'ai cette substance couleur pondu Quand je te vois, j'ai un petit goût de trahison Tu sais que les petits réptiles nous haïssons You might also like J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi Des fois, j'me sens trahi, han J'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi Des fois, j'me sens trahi, han J'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi</t>
+          <t>Eh Eh, eh J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi Des fois, j'me sens trahi, han J'me sens trahi J'me sens trahi, j'me sens trahi J'm sens trahi, j'me sens trahi J'm sens trahi, j'me sens trahi Yes, okay Yes Porsche Panamera, rare comme un miracle Comme un miracle Ceux qui donnent d'la force pour tchi, j'trouve, c'est admirable ERRR J'fais pas trop l'aumône Pas trop l'aumône, faut raviver la meute ERRR Tu veux renier ça, pourquoi ? Yes T'as ça dans ton âme Okay, rappe comme y a dix piges Comme y a dix piges Une voix atypique Une voix atypique On dit LAF, il a la même fougue depuis tit-pe Depuis tit-pe J'suis un jeune doué comme ce numéro dix ERRR J'pense à ces poulets, faudrait qu'ils rôtissent Qu'ils rôtissent Pourquoi tu m'racontes tes histoires ? Je te vois, tu veux me ramener ton vice, toi Tu as cramé que c'est là-haut que je vise, moi, tu as cramé que c'est là-haut que je vise, moi On t'avait dit 2021, c'est pour nous Dans ma main j'ai cette substance couleur pondu Quand je te vois, j'ai un petit goût de trahison Tu sais que les petits réptiles nous haïssons J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi Des fois, j'me sens trahi, han J'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi Trahi, des fois, j'me sens trahi, han J'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi Des fois, j'me sens trahi, han J'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi J'me sens trahi, j'me sens trahi</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Ok Tu t'es trompé si t'as cru qu'La Fève c'était un novice J'les vois de loin ils parlent de nous ils envient nos vies ok Moi j'suis un G donc j'lève la tête même quand les temps sont durs J'relativise et j'pense à ma daronne tout c'qu'elle endure Et poto j'suis dans la jungle depuis tout petit J'rêve de mon futur, de voir la vie en rose comme Boop Betty Depuis tant d'années j'ai pas d'espoir qu'ils m'la péta La Fève il est malade l stud c'est l'hôpital Des années qu'j'charbonnais La Fèv il a trop donné Au stud je suis cramponné Dehors La Fève il a trop zoné Me fais pas la bise bâtard Smoke ton cannabis bas d'gamme Les devis c'est pas ma came J'veux pas finir ma vie à la cave Des années qu'j'charbonnais La Fève il a trop donné Au son je suis cramponné Dehors La Fève il a trop zoné Me fais pas la bise bâtard Smoke ton cannabis bas d'gamme Les devis c'est pas ma came J'veux pas finir ma vie à la cave You might also like Ok Tu t'es trompé si t'as cru qu'La Fève c'était un novice J'les vois de loin ils parlent de nous ils envient nos vies Moi j'suis un G donc j'lève la tête même quand les temps sont durs J'relativise, j'pense à ma daronne et tout c'qu'elle endure Est-ce que le ciel va me pardonner un jour pour tous mes torts ? Ok moi j'me pète il est tard tes rappeurs je les tords Mon frère si t'as entendu des choses sur moi n'y crois pas trop Dans l'même bateau sur l'océan j'regarde les albatros LaF il est comme ça ouais Met-le pactole dans le coffre ouais On veut du cash ouais Si je le trouve je le cache ouais J'regarde l'horizon Bientôt j'me pète en Arizona La Fève sois raisonnable Elle me dit La Fève sois raisonnable Des années qu'j'charbonnais La Fève il a trop donné Au son je suis cramponné Dehors La Fève il a trop zoné Me fais pas la bise bâtard Smoke ton cannabis bas d'gamme Les devis c'est pas ma came J'veux pas finir ma vie à la cave T'as cru qu'La Fève c'était un novice J'les vois de loin ils parlent de nous ils envient nos vies Moi j'suis un G, j'lève la tête même quand les temps sont durs J'relativise, j'pense à ma daronne et tout c'qu'elle endure</t>
+          <t>Ok Tu t'es trompé si t'as cru qu'La Fève c'était un novice J'les vois de loin ils parlent de nous ils envient nos vies ok Moi j'suis un G donc j'lève la tête même quand les temps sont durs J'relativise et j'pense à ma daronne tout c'qu'elle endure Et poto j'suis dans la jungle depuis tout petit J'rêve de mon futur, de voir la vie en rose comme Boop Betty Depuis tant d'années j'ai pas d'espoir qu'ils m'la péta La Fève il est malade l stud c'est l'hôpital Des années qu'j'charbonnais La Fèv il a trop donné Au stud je suis cramponné Dehors La Fève il a trop zoné Me fais pas la bise bâtard Smoke ton cannabis bas d'gamme Les devis c'est pas ma came J'veux pas finir ma vie à la cave Des années qu'j'charbonnais La Fève il a trop donné Au son je suis cramponné Dehors La Fève il a trop zoné Me fais pas la bise bâtard Smoke ton cannabis bas d'gamme Les devis c'est pas ma came J'veux pas finir ma vie à la cave Ok Tu t'es trompé si t'as cru qu'La Fève c'était un novice J'les vois de loin ils parlent de nous ils envient nos vies Moi j'suis un G donc j'lève la tête même quand les temps sont durs J'relativise, j'pense à ma daronne et tout c'qu'elle endure Est-ce que le ciel va me pardonner un jour pour tous mes torts ? Ok moi j'me pète il est tard tes rappeurs je les tords Mon frère si t'as entendu des choses sur moi n'y crois pas trop Dans l'même bateau sur l'océan j'regarde les albatros LaF il est comme ça ouais Met-le pactole dans le coffre ouais On veut du cash ouais Si je le trouve je le cache ouais J'regarde l'horizon Bientôt j'me pète en Arizona La Fève sois raisonnable Elle me dit La Fève sois raisonnable Des années qu'j'charbonnais La Fève il a trop donné Au son je suis cramponné Dehors La Fève il a trop zoné Me fais pas la bise bâtard Smoke ton cannabis bas d'gamme Les devis c'est pas ma came J'veux pas finir ma vie à la cave T'as cru qu'La Fève c'était un novice J'les vois de loin ils parlent de nous ils envient nos vies Moi j'suis un G, j'lève la tête même quand les temps sont durs J'relativise, j'pense à ma daronne et tout c'qu'elle endure</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Myth Syzer il passe par là Yeah, yeah, yeah, yeah, yeah, yeah, yeah Yes, let's go Han, doué dans les incendies tu m'appelles si tu veux qu'j'opère Si tu veux qu'j'opère Je ne suis qu'un homme donc j'ai du mal à dire que j'ai pêché, mon père Pêché mon père Le rap ça prend la te-tê mais j'vois que ça avance à tâtons Let's go Nouveau riche, ancien piéton, bientôt m'attraper sur le béton Je dois maîtriser mon âme Mon Âme, le recul de mon arme Yeah, j'suis précis dans mon artMon art, devant moi G ,stop ton bla J'reste brave, tellement, d'kilos sur mes bras J'ai trop de culot pour m'adapter, longtemps qu'on voit passer l'time Tu fais crari tu veux qu'on perce Tu portes l'il tu veux qu'on perde Ils ont essayé, ils ont pas compris J'ai la peine pour mes confrères Let's go Toi t'assumes pas ta défaite Pas ta défaite, p'tit serpent mérite patate de forain Patate de forain J'sais qu'mon fils me vengera, quand j'rappe je fais pas d'effort Cinq chiffres Cinq chiffres, tu veux LAF c'est minimum cinq chiffres Cinq chiffres Avec le temps on s'assagit 'Ssagit Dans ma tête c'est la pagaille, G 'Gaille ,G On prépare un vacarme Vacarme Mytho, c'est pas ma came Ma came On est là ça dit quoi ma caille, je sais qu'on va graille, j'me dis c'est pas grave, let's go You might also like J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga Yes, j'essaie de vivre my nigga J'essaie de vivre my nigga Let's go1</t>
+          <t>Myth Syzer il passe par là Yeah, yeah, yeah, yeah, yeah, yeah, yeah Yes, let's go Han, doué dans les incendies tu m'appelles si tu veux qu'j'opère Si tu veux qu'j'opère Je ne suis qu'un homme donc j'ai du mal à dire que j'ai pêché, mon père Pêché mon père Le rap ça prend la te-tê mais j'vois que ça avance à tâtons Let's go Nouveau riche, ancien piéton, bientôt m'attraper sur le béton Je dois maîtriser mon âme Mon Âme, le recul de mon arme Yeah, j'suis précis dans mon artMon art, devant moi G ,stop ton bla J'reste brave, tellement, d'kilos sur mes bras J'ai trop de culot pour m'adapter, longtemps qu'on voit passer l'time Tu fais crari tu veux qu'on perce Tu portes l'il tu veux qu'on perde Ils ont essayé, ils ont pas compris J'ai la peine pour mes confrères Let's go Toi t'assumes pas ta défaite Pas ta défaite, p'tit serpent mérite patate de forain Patate de forain J'sais qu'mon fils me vengera, quand j'rappe je fais pas d'effort Cinq chiffres Cinq chiffres, tu veux LAF c'est minimum cinq chiffres Cinq chiffres Avec le temps on s'assagit 'Ssagit Dans ma tête c'est la pagaille, G 'Gaille ,G On prépare un vacarme Vacarme Mytho, c'est pas ma came Ma came On est là ça dit quoi ma caille, je sais qu'on va graille, j'me dis c'est pas grave, let's go J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga J'essaie de vivre my nigga Yes, j'essaie de vivre my nigga J'essaie de vivre my nigga Let's go1</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Yeah Yeah, yeah, yeah, yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah, yeah, yeah, yeah, yeah ooh Yeah, yeah, yeah, yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah, yeah, yeah, yeah Yee, Yes, let's go, ok On dit La Fève c'est l'prochain J'sais j'sentirai ma mort s'approcher yes Toujours ce mal qui m'touche hein Mais j'ai le mental dur comme c'rocher c'rocher Il faudrait sortir du piège Que j'aille trouver la déter' pour tout piller yes sir Parfois j'me perds dans les souvenirs ma le-geu J'ai pas la force pour oublier mmh Aura intense, tu l'as capté de loin loin J'sais qu'il faut rester low low Halle Berry, J-Lo Des flow j'en ai en pagaille Si tu veux gratter des miettes y a pas gars Sur le terrain genre Paga Un jeune me dit ça dit quoi ? j'dis ah gars Yes, let's go Je compte pas l'expérience que j'ai acqueri Maintenant La Fève c'est un soldat aguerri J'aimerai bien dire que Louis il a guéri yeah yeah yeah yeah Nouveau flow poto le tiens il est périmé Avec l'équipe on a quadrillé l'périmètre Trop de prières j'ai des bleus sur le péroné Tu sais poto j'm'arrête plus j'ai la même dalle du début, yes Avoir les poches pleines d'écus, faudrait qu'La Fève vite déguste aah Que Dieu me donne jdis gracias, c'est la soirée mais grasse mat', yes C'est qui la gadji qui m'rendra ça j'crois qu'j'ai besoin d'un décrassage yes yeah You might also like On dit La Fève c'est l'prochain J'sais j'sentirai ma mort s'approcher yes Toujours ce mal qui m'touche hein Mais j'ai le mental dur comme c'rocher c'rocher Il faudrait sortir du piège Que j'aille trouver la déter' pour tout piller yes sir Parfois j'me perds dans les souvenirs ma le-geu J'ai pas la force pour oublier mmh Hey hey Vrais G derrière l'épaule J'sens qu'il s'ressère l'étau Sur moi l'ciel il tombe Faut j'pop comme la bombe Vrais G derrière l'épaule J'sens qu'il s'ressère l'étau Sur moi l'ciel il tombe Faut j'pop comme la bombe</t>
+          <t>Yeah Yeah, yeah, yeah, yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah, yeah, yeah, yeah, yeah ooh Yeah, yeah, yeah, yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah, yeah, yeah, yeah Yee, Yes, let's go, ok On dit La Fève c'est l'prochain J'sais j'sentirai ma mort s'approcher yes Toujours ce mal qui m'touche hein Mais j'ai le mental dur comme c'rocher c'rocher Il faudrait sortir du piège Que j'aille trouver la déter' pour tout piller yes sir Parfois j'me perds dans les souvenirs ma le-geu J'ai pas la force pour oublier mmh Aura intense, tu l'as capté de loin loin J'sais qu'il faut rester low low Halle Berry, J-Lo Des flow j'en ai en pagaille Si tu veux gratter des miettes y a pas gars Sur le terrain genre Paga Un jeune me dit ça dit quoi ? j'dis ah gars Yes, let's go Je compte pas l'expérience que j'ai acqueri Maintenant La Fève c'est un soldat aguerri J'aimerai bien dire que Louis il a guéri yeah yeah yeah yeah Nouveau flow poto le tiens il est périmé Avec l'équipe on a quadrillé l'périmètre Trop de prières j'ai des bleus sur le péroné Tu sais poto j'm'arrête plus j'ai la même dalle du début, yes Avoir les poches pleines d'écus, faudrait qu'La Fève vite déguste aah Que Dieu me donne jdis gracias, c'est la soirée mais grasse mat', yes C'est qui la gadji qui m'rendra ça j'crois qu'j'ai besoin d'un décrassage yes yeah On dit La Fève c'est l'prochain J'sais j'sentirai ma mort s'approcher yes Toujours ce mal qui m'touche hein Mais j'ai le mental dur comme c'rocher c'rocher Il faudrait sortir du piège Que j'aille trouver la déter' pour tout piller yes sir Parfois j'me perds dans les souvenirs ma le-geu J'ai pas la force pour oublier mmh Hey hey Vrais G derrière l'épaule J'sens qu'il s'ressère l'étau Sur moi l'ciel il tombe Faut j'pop comme la bombe Vrais G derrière l'épaule J'sens qu'il s'ressère l'étau Sur moi l'ciel il tombe Faut j'pop comme la bombe</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Baby girl danse sur moi comme des VVS, pourvu qu'il neige tant qu'ça paye en espèce Pour fuir le mode tess y'a le mode S, moula sous l'matelas, dans les cornflakes Baby girl danse sur moi comme des VVS, pourvu qu'il neige tant qu'ça paye en espèce Pour fuir le mode tess y'a le mode S J'suis trop loin j'me sens comme sur Mars, Mercedes Benz on démarre ça Je repars du plavon les mains sales, faudrait qu'on s'envole comme la massa J'crois qu'on avait pas les mêmes principes, on s'est lâchés pour des story futiles Ce négro veut savoir si j'ai un fusil, tu sais de l'argent je suis fou G Han, bah oui mon zin, la Fève veut la gadji, veut la maze Toute le journée dans la même zone, j'travaille le produit je fais mon réseau J'crois l'ancien il avait raison, tout l'temps dieu j'vois il m'envoie des signes Vrai G je suis pas dsnake ici Baby girl danse sur moi comme des VVS, pourvu qu'il neige tant qu'ça paye en espèce Pour fuir le mode tess y'a le mode S, moula sous l'matelas, dans les cornflakes Baby girl danse sur moi comme des VVS, pourvu qu'il neige tant qu'ça paye en espèce Pour fuir le mode tess y'a le mode S J'voulais son gros boule, trop dans l're-fou j'voyais trop flou Depuis j'pense qu'aux gros sous, j'peux graille la concurrence chez Nobu Elle m'a dit j'suis seul tout, c'est alléchant le gang est solvable Ca charbonne comme soldat, Insh'Allah un jour tournée sold out On sait très bien qu'en scred ils veulent qu'on s'fight Ils aimeraient nous faire la guerre mais n'ont pas d'maille Ce genre de snake, toi et nous c'est pas compatible Zéro tristesse pour ce business Avant qu'on s'shoot comme dans Menace Baby girl danse comme les VVS You might also like Baby girl danse comme des VVS Baby girl danse comme des VVS Baby girl danse comme des VVS Baby girl danse comme des VVS Baby girl danse sur moi comme des VVS, pourvu qu'il neige tant qu'ça paye en espèce Pour fuir le mode tess y'a le mode S, moula sous l'matelas, dans les cornflakes Baby girl danse sur moi comme des VVS, pourvu qu'il neige tant qu'ça paye en espèce Pour fuir le mode tess y'a le mode S</t>
+          <t>Baby girl danse sur moi comme des VVS, pourvu qu'il neige tant qu'ça paye en espèce Pour fuir le mode tess y'a le mode S, moula sous l'matelas, dans les cornflakes Baby girl danse sur moi comme des VVS, pourvu qu'il neige tant qu'ça paye en espèce Pour fuir le mode tess y'a le mode S J'suis trop loin j'me sens comme sur Mars, Mercedes Benz on démarre ça Je repars du plavon les mains sales, faudrait qu'on s'envole comme la massa J'crois qu'on avait pas les mêmes principes, on s'est lâchés pour des story futiles Ce négro veut savoir si j'ai un fusil, tu sais de l'argent je suis fou G Han, bah oui mon zin, la Fève veut la gadji, veut la maze Toute le journée dans la même zone, j'travaille le produit je fais mon réseau J'crois l'ancien il avait raison, tout l'temps dieu j'vois il m'envoie des signes Vrai G je suis pas dsnake ici Baby girl danse sur moi comme des VVS, pourvu qu'il neige tant qu'ça paye en espèce Pour fuir le mode tess y'a le mode S, moula sous l'matelas, dans les cornflakes Baby girl danse sur moi comme des VVS, pourvu qu'il neige tant qu'ça paye en espèce Pour fuir le mode tess y'a le mode S J'voulais son gros boule, trop dans l're-fou j'voyais trop flou Depuis j'pense qu'aux gros sous, j'peux graille la concurrence chez Nobu Elle m'a dit j'suis seul tout, c'est alléchant le gang est solvable Ca charbonne comme soldat, Insh'Allah un jour tournée sold out On sait très bien qu'en scred ils veulent qu'on s'fight Ils aimeraient nous faire la guerre mais n'ont pas d'maille Ce genre de snake, toi et nous c'est pas compatible Zéro tristesse pour ce business Avant qu'on s'shoot comme dans Menace Baby girl danse comme les VVS Baby girl danse comme des VVS Baby girl danse comme des VVS Baby girl danse comme des VVS Baby girl danse comme des VVS Baby girl danse sur moi comme des VVS, pourvu qu'il neige tant qu'ça paye en espèce Pour fuir le mode tess y'a le mode S, moula sous l'matelas, dans les cornflakes Baby girl danse sur moi comme des VVS, pourvu qu'il neige tant qu'ça paye en espèce Pour fuir le mode tess y'a le mode S</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Y'a des dejacteurs, des détracteur Quand la vie nous mets des oide Moi et la rue on prend pas peur Hey J'ai pas le temps je vie dans la névrose Pris par les flics et les triquare en somme Dans leur ? Près du pe-ra sagite et s'affiche et sa chiffre dans les réseaux J'ai pas dâmes, j'ai même pas d'armes Y'a ? pour me guérir tout les jours Meme pas de fans , mme pas de femm Y'a qu'un cobra qui me joueras des tours J'etais un ennemi de la routine Maintenant réves de moi le soir Mon train de vie est gris Depuis que je broie du noir J'ai plus d'éspoire et trop de cauchemar Et j'en ais marre de puer la turpeu d'aimer le zbeule 7op cite un crew et puis on se barre à whitecastle Des dejacteurs, des détracteur Qui se prennent tous pour des bandit Le temps aride cours pour ta vie Et le 7op c'est plus qu'une miff Quand la vie nous mets des oide Moi et la rue on prend pas peur Et fait pas fier soit pas seul Vien avec nous au white castle Des dejacteurs, des détracteur Qui se prennent tous pour des bandit Le temps aride cours pour ta vie Et le 7op c'est plus qu'une miff Quand la vie nous mets des oide Moi et la rue on prend pas peur Et fait pas fier soit pas seul Vien avec nous au white castle You might also like Ahh le shit ça sent pas bon Et pourtant j'en prend tout les soirs Je suis a poudlards dans mes deboires Ny'a que mes doigts produise du marbres J'ai envie de grailles il faut qu'on se tire Parrait que la bouffe la bas est bonne Jbouffe du toy tout la journée Et je me console dans ma bonbonne J'ai pas les loves et le temps que j'mérite J'ai des belles cuisse, j'ai un master en fuite Partir en rousbiffe Et j'habite tout habite au abysse Dit leur peut être a ? Ferme ta bouche et range ton coudes Et ne parle pas la gueules ouvert J'ai des cernes et des dessert Un hipster c'est tout ce que j'aime Y'a des dejacteurs, des détracteur Qui se prennent tous pour des bandit Le temps aride cours pour ta vie C'est plus qu'une miff Quand la vie nous mets des oide Moi et la rue on prend pas peur Et fait pas le fier soit pas seul Vien avec nous au white castle Y'a des dejacteurs, des détracteur Qui se prennent tous pour des bandit Le temps aride cours pour ta vie Et le 7op c'est plus qu'une miff Quand la vie nous mets des oide Moi et la rue on prend pas peur Et fait pas fier soit pas seul Vien avec nous au white castle Mon ptit bide a une faim de loup J'men bas les bourses des cours et des course Sevi si tu cours vite vien avec nous Si t'es pas pour les sous met le shit et grec frite Envie de bouffer toutes vos panoplie Sauces bobo frolle le ridicule Ouais mais jt'encule oui belle upercute Si sur ma route tu fais le robuste Si tu refuses je t'exécutes Avec l'aide de ? Dundy,foule,sevi et raph et même sra te crache par terre J'ai plus d'air au fond de ma paumes J'ai pris la pommes quand j'avais la vie rose Met moi de la sauces biggie steuplait Et jm'évade dans ma névrose Y'a des dejacteurs, des détracteur Qui se prennent tous pour des bandit Temps aride cours pour ta vie Le 70p c'est plus qu'une miff Quand la vie nous mets des oide Moi et la rue on prend pas peur Et fait pas le fier et soit pas seul Vien avec nous au white castle Y'a des dejacteurs, des détracteur Qui se prennent tous pour des bandit Le temps aride cours pour ta vie Et le 7op c'est plus qu'une miff Quand la vie nous mets des oide Moi et la rue on prend pas peur Et fait pas le fier et soit pas seul</t>
+          <t>Y'a des dejacteurs, des détracteur Quand la vie nous mets des oide Moi et la rue on prend pas peur Hey J'ai pas le temps je vie dans la névrose Pris par les flics et les triquare en somme Dans leur ? Près du pe-ra sagite et s'affiche et sa chiffre dans les réseaux J'ai pas dâmes, j'ai même pas d'armes Y'a ? pour me guérir tout les jours Meme pas de fans , mme pas de femm Y'a qu'un cobra qui me joueras des tours J'etais un ennemi de la routine Maintenant réves de moi le soir Mon train de vie est gris Depuis que je broie du noir J'ai plus d'éspoire et trop de cauchemar Et j'en ais marre de puer la turpeu d'aimer le zbeule 7op cite un crew et puis on se barre à whitecastle Des dejacteurs, des détracteur Qui se prennent tous pour des bandit Le temps aride cours pour ta vie Et le 7op c'est plus qu'une miff Quand la vie nous mets des oide Moi et la rue on prend pas peur Et fait pas fier soit pas seul Vien avec nous au white castle Des dejacteurs, des détracteur Qui se prennent tous pour des bandit Le temps aride cours pour ta vie Et le 7op c'est plus qu'une miff Quand la vie nous mets des oide Moi et la rue on prend pas peur Et fait pas fier soit pas seul Vien avec nous au white castle Ahh le shit ça sent pas bon Et pourtant j'en prend tout les soirs Je suis a poudlards dans mes deboires Ny'a que mes doigts produise du marbres J'ai envie de grailles il faut qu'on se tire Parrait que la bouffe la bas est bonne Jbouffe du toy tout la journée Et je me console dans ma bonbonne J'ai pas les loves et le temps que j'mérite J'ai des belles cuisse, j'ai un master en fuite Partir en rousbiffe Et j'habite tout habite au abysse Dit leur peut être a ? Ferme ta bouche et range ton coudes Et ne parle pas la gueules ouvert J'ai des cernes et des dessert Un hipster c'est tout ce que j'aime Y'a des dejacteurs, des détracteur Qui se prennent tous pour des bandit Le temps aride cours pour ta vie C'est plus qu'une miff Quand la vie nous mets des oide Moi et la rue on prend pas peur Et fait pas le fier soit pas seul Vien avec nous au white castle Y'a des dejacteurs, des détracteur Qui se prennent tous pour des bandit Le temps aride cours pour ta vie Et le 7op c'est plus qu'une miff Quand la vie nous mets des oide Moi et la rue on prend pas peur Et fait pas fier soit pas seul Vien avec nous au white castle Mon ptit bide a une faim de loup J'men bas les bourses des cours et des course Sevi si tu cours vite vien avec nous Si t'es pas pour les sous met le shit et grec frite Envie de bouffer toutes vos panoplie Sauces bobo frolle le ridicule Ouais mais jt'encule oui belle upercute Si sur ma route tu fais le robuste Si tu refuses je t'exécutes Avec l'aide de ? Dundy,foule,sevi et raph et même sra te crache par terre J'ai plus d'air au fond de ma paumes J'ai pris la pommes quand j'avais la vie rose Met moi de la sauces biggie steuplait Et jm'évade dans ma névrose Y'a des dejacteurs, des détracteur Qui se prennent tous pour des bandit Temps aride cours pour ta vie Le 70p c'est plus qu'une miff Quand la vie nous mets des oide Moi et la rue on prend pas peur Et fait pas le fier et soit pas seul Vien avec nous au white castle Y'a des dejacteurs, des détracteur Qui se prennent tous pour des bandit Le temps aride cours pour ta vie Et le 7op c'est plus qu'une miff Quand la vie nous mets des oide Moi et la rue on prend pas peur Et fait pas le fier et soit pas seul</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait J'm'en vais, je paye pas la note J'la veux, je paye pas la dot Wesh l'ancien tu radotes ERRR Pardon j'sais pas comment on fait 'Ment on fait Si j'vais le faire, tu n'en sais rien ERRR Nouveau flow comme si j'étais pas terrien ERRR Je sais faire la diff' sur le terrain j'veux bien qu'tu m'en sers un J'pense qu'à tout multiplier J'pense qu'à tout multiplier J'pense qu'à tout multiplier J'pense qu'à tout multiplier J'dois faire plus que la veille J'dois faire plus que la veille J'dois faire plus que la veille J'dois faire plus que la veille J'pense qu'à tout multiplier Jeune qu'on rêve d'une pluie de billets J'rap juste pour t'humilier Trop instable pour te marier Ma musique elle est esthétique Tire cette latte, on la tétine On m'dit c'est une bêtise, mon frère j'veux juste faire perdre mon appétit Si il faut j'ai le contact Seul dans la Honda, bientôt dans l'allemande On a trop bossé, ma le-gueu On veut seulement c'qu'on nous doit imo J'crois ma vie elle est trop triste Pourquoi t'as fait l'hypocrite? Tu crois ça m'touche tes moqueries Vente de hash j'arrive comme la météorite Jeune écrivain comme Éluard Le chemin est long mais j'vois cette lueur Billets de toutes les couleurs Aux States frérot faut la pull up so Freakey La Fève ne rate pas les free kill Joues pas avec moi le sang L'homme est petit, il me semble You might also like J'm'en vais, je paye pas la note J'la veux, je paye pas la dot Wesh l'ancien tu radotes ERRR Pardon j'sais pas comment on fait 'Ment on fait Si j'vais le faire, tu n'en sais rien ERRR Nouveau flow comme si j'étais pas terrien ERRR Je sais faire la diff' sur le terrain j'veux bien qu'tu m'en sers un J'pense qu'à tout multiplier J'pense qu'à tout multiplier J'pense qu'à tout multiplier J'pense qu'à tout multiplier J'dois faire plus que la veille J'dois faire plus que la veille J'dois faire plus que la veille J'dois faire plus que la veille</t>
+          <t>Paroles issues d'un extrait J'm'en vais, je paye pas la note J'la veux, je paye pas la dot Wesh l'ancien tu radotes ERRR Pardon j'sais pas comment on fait 'Ment on fait Si j'vais le faire, tu n'en sais rien ERRR Nouveau flow comme si j'étais pas terrien ERRR Je sais faire la diff' sur le terrain j'veux bien qu'tu m'en sers un J'pense qu'à tout multiplier J'pense qu'à tout multiplier J'pense qu'à tout multiplier J'pense qu'à tout multiplier J'dois faire plus que la veille J'dois faire plus que la veille J'dois faire plus que la veille J'dois faire plus que la veille J'pense qu'à tout multiplier Jeune qu'on rêve d'une pluie de billets J'rap juste pour t'humilier Trop instable pour te marier Ma musique elle est esthétique Tire cette latte, on la tétine On m'dit c'est une bêtise, mon frère j'veux juste faire perdre mon appétit Si il faut j'ai le contact Seul dans la Honda, bientôt dans l'allemande On a trop bossé, ma le-gueu On veut seulement c'qu'on nous doit imo J'crois ma vie elle est trop triste Pourquoi t'as fait l'hypocrite? Tu crois ça m'touche tes moqueries Vente de hash j'arrive comme la météorite Jeune écrivain comme Éluard Le chemin est long mais j'vois cette lueur Billets de toutes les couleurs Aux States frérot faut la pull up so Freakey La Fève ne rate pas les free kill Joues pas avec moi le sang L'homme est petit, il me semble J'm'en vais, je paye pas la note J'la veux, je paye pas la dot Wesh l'ancien tu radotes ERRR Pardon j'sais pas comment on fait 'Ment on fait Si j'vais le faire, tu n'en sais rien ERRR Nouveau flow comme si j'étais pas terrien ERRR Je sais faire la diff' sur le terrain j'veux bien qu'tu m'en sers un J'pense qu'à tout multiplier J'pense qu'à tout multiplier J'pense qu'à tout multiplier J'pense qu'à tout multiplier J'dois faire plus que la veille J'dois faire plus que la veille J'dois faire plus que la veille J'dois faire plus que la veille</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>FREAKEY! FREAKEY! FREAKEY! FREAKEY! Yeah, yeah Des dollars dans un PC Des dollars dans un PC Il parlent trop mais à eux, j'vais pas m'abaisser Yessir Ma hoe, elle est tressée, j'vais l'faire, faut pas stresser même si maman est pressée Brr On a gravi les échelons Les échelons Je dis Faut s'mélanger mais j'te sens pas toi, t'es che-lou J'te sens pas, toi t'es che-lou Personne pour nous glacer, j't'ai pleuré, c'est du passé, le Diable vient m'embrasser Brrah J'm'attache pas trop, c'est que du business Business Bientôt classe business, trop focus, mode busy, mec Trop focus, mode busy Faut qu'ça pète comme le Izou, han Le Izou J'entends des bails sur toi, ne m'fais pas la bise, han Brrah On l'fait par habitude Par habitude Gangsta attitude même si on prend de l'altitude Même si on prend de l'altitude T'es naïf si tu crois qu'on capitule, bâtard Septième magnitude, rrain-te, on consomme la frappe qui tue Yeah J'avais mal et tu m'as bafoué J'avais mal et tu m'as bafoué Parfois, mes erreurs, j'ai du mal à avouer ERRR ERRR day, on meurt à p'tit feu À p'tit feu On a la dalle, p'tit, t'aurais pu m'dire que tu m'pactises FREAKEY! FREAKEY You might also like Des dollars dans un PC Des dollars dans un PC Il parlent trop mais à eux, j'vais pas m'abaisser Yessir Ma hoe, elle est tressée, j'vais l'faire, faut pas stresser même si maman est pressée Brr On a gravi les échelons Les échelons Je dis Faut s'mélanger mais j'te sens pas toi, t'es che-lou J'te sens pas, toi t'es che-lou Personne pour nous glacer, j't'ai pleuré, c'est du passé, le Diable vient m'embrasser Brrah</t>
+          <t>FREAKEY! FREAKEY! FREAKEY! FREAKEY! Yeah, yeah Des dollars dans un PC Des dollars dans un PC Il parlent trop mais à eux, j'vais pas m'abaisser Yessir Ma hoe, elle est tressée, j'vais l'faire, faut pas stresser même si maman est pressée Brr On a gravi les échelons Les échelons Je dis Faut s'mélanger mais j'te sens pas toi, t'es che-lou J'te sens pas, toi t'es che-lou Personne pour nous glacer, j't'ai pleuré, c'est du passé, le Diable vient m'embrasser Brrah J'm'attache pas trop, c'est que du business Business Bientôt classe business, trop focus, mode busy, mec Trop focus, mode busy Faut qu'ça pète comme le Izou, han Le Izou J'entends des bails sur toi, ne m'fais pas la bise, han Brrah On l'fait par habitude Par habitude Gangsta attitude même si on prend de l'altitude Même si on prend de l'altitude T'es naïf si tu crois qu'on capitule, bâtard Septième magnitude, rrain-te, on consomme la frappe qui tue Yeah J'avais mal et tu m'as bafoué J'avais mal et tu m'as bafoué Parfois, mes erreurs, j'ai du mal à avouer ERRR ERRR day, on meurt à p'tit feu À p'tit feu On a la dalle, p'tit, t'aurais pu m'dire que tu m'pactises FREAKEY! FREAKEY Des dollars dans un PC Des dollars dans un PC Il parlent trop mais à eux, j'vais pas m'abaisser Yessir Ma hoe, elle est tressée, j'vais l'faire, faut pas stresser même si maman est pressée Brr On a gravi les échelons Les échelons Je dis Faut s'mélanger mais j'te sens pas toi, t'es che-lou J'te sens pas, toi t'es che-lou Personne pour nous glacer, j't'ai pleuré, c'est du passé, le Diable vient m'embrasser Brrah</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Oh c'est Gwapo FREAKEY! Fais ton cash en vit', une gadji qui m'met bien Faut nourrir mes zombies, t'as fauté j'coupe mes liens Smoke la comète, toi t'es une folle comme elle Faut nourrir mes zombies, j'dois faire mon cash en vit On les éduque et tu dis merci Toi tu parles bien mais j'crois pas à tes récits Et le temps passe, tu crois je fais l'imbécile Et tous les jours jvois ma vie elle augmente c'est plus pareil Maintenant si tu veux tu mets v'là les chiffres Twenty-fifteen je cuisinais v'là les shits En chaleur et je distribue v'là les gifles Affamé depuis qu'j'ai ouvert la bouche on a trouvé comment la remplir Et t'as vrillé quand t'as vu les verres qu'on empile J'étais matrixé avant, je crois ça empire Et dans la ville c'est juste embrouilles trahisons Mais lui cest juste un négro qu'a réussi Solo dolo le sheitan me caresse Sur 24h j'connais pas la paresse You might also like Fais ton cash en vit', une gadji qui m'met bien Faut nourrir mes zombies, t'as fauté j'coupe mes liens Smoke la comète, toi t'es une folle comme elle Faut nourrir mes zombies, j'dois faire mon cash en ville</t>
+          <t>Oh c'est Gwapo FREAKEY! Fais ton cash en vit', une gadji qui m'met bien Faut nourrir mes zombies, t'as fauté j'coupe mes liens Smoke la comète, toi t'es une folle comme elle Faut nourrir mes zombies, j'dois faire mon cash en vit On les éduque et tu dis merci Toi tu parles bien mais j'crois pas à tes récits Et le temps passe, tu crois je fais l'imbécile Et tous les jours jvois ma vie elle augmente c'est plus pareil Maintenant si tu veux tu mets v'là les chiffres Twenty-fifteen je cuisinais v'là les shits En chaleur et je distribue v'là les gifles Affamé depuis qu'j'ai ouvert la bouche on a trouvé comment la remplir Et t'as vrillé quand t'as vu les verres qu'on empile J'étais matrixé avant, je crois ça empire Et dans la ville c'est juste embrouilles trahisons Mais lui cest juste un négro qu'a réussi Solo dolo le sheitan me caresse Sur 24h j'connais pas la paresse Fais ton cash en vit', une gadji qui m'met bien Faut nourrir mes zombies, t'as fauté j'coupe mes liens Smoke la comète, toi t'es une folle comme elle Faut nourrir mes zombies, j'dois faire mon cash en ville</t>
         </is>
       </c>
     </row>
